--- a/DATAEVAL.xlsx
+++ b/DATAEVAL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/944d5b9328a00097/Proyectos/Data intelligence/temporal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="616" documentId="8_{C960C32E-4505-40F6-9595-40AF0FDCACDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{927315D8-E9A8-4388-A27D-DB57B9B44493}"/>
+  <xr:revisionPtr revIDLastSave="1062" documentId="8_{C960C32E-4505-40F6-9595-40AF0FDCACDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CA6E48B8-CF54-43A2-8DEF-605F430D7347}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5203" uniqueCount="2007">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5469" uniqueCount="2211">
   <si>
     <t>Año de protocolo</t>
   </si>
@@ -5013,9 +5013,6 @@
     <t>patrimonio cultural audiovisual</t>
   </si>
   <si>
-    <t>Capacidades de gestión empresarial;Capital Semilla</t>
-  </si>
-  <si>
     <t>Educación parvularia</t>
   </si>
   <si>
@@ -6073,6 +6070,621 @@
   </si>
   <si>
     <t>Se sugiere que el programa complete el cálculo de la matriz de evaluación, y establezca metas tentativas, que permitan establecer juicios apropiados sobre todos los niveles de resultados</t>
+  </si>
+  <si>
+    <t>Elaborar un diagnóstico claro que identifique los fallos de mercado que el programa pretende resolver y diseñar un instrumento que responda adecuadamente a ese diagnóstico. Esteinstrumento podría ser complementario a la bonificación entregada, la cual debiera ser revisada en sus montos máximos</t>
+  </si>
+  <si>
+    <t>Ante  una  eventual  nueva  modificación  de  la  Ley  de  Riego,  considerar  la  incorporación  de  la  prórroga automática  y  la  ampliación  a  un  monto  mayor  a  las  400  UF  para  los  proyectos  de  la  pequeña agricultura,  debido  a  que  el  costo  promedio  de  un  proyecto  de  este  estrato  es  de  $25.000.000  en promedio,  el  que  abarca  las  obras  de  tecnificación  y  la  instalación  de  energías  renovables  no convencionales para el funcionamiento de los instrumentos de extracción del agua</t>
+  </si>
+  <si>
+    <t>Seguir  avanzando  en  la  satisfacción  de  la  demanda  levantada  periódicamente  por  la  CNR  a  nivel territorial,  considerando  también,  la  disminución  de  las  barreras  de  acceso  en  el  diseño  de  los instrumentos, con el fin de cubrir todos los grupos de interés de la Ley, especialmentede aquellos con mayor  vulnerabilidad,  como  lo  son,  por  ejemplo,  la  pequeña  agricultura,  etnias,  género,  entre  otros, segmentos  donde  la  implementación  de  una  obra  de  riego  genera  un  cambio  en  su  bienestar  y  un cambio en sus condiciones de vida, avanzando en el ámbito social y económico. Para ello, se debiera considerar mantener o crear nuevos llamados a concurso</t>
+  </si>
+  <si>
+    <t>Analizar  la  estrategia  de  eliminar  las  barreras  de  entrada  a  nuevos  consultores,  incentivando  nuevas incorporaciones de profesionales, capacitando en la presentación de proyectos. En este mismo sentido, Incentivar  la  participación  de  una  mayor  cantidad  de  mujeres  profesionales  en  la  Red  de  Consultores vigente, mediante la implementación de talleres y capacitaciones de formulación de proyectos paraser presentados en el marco de la Ley de Riego</t>
+  </si>
+  <si>
+    <t>En  el  proceso  de  evaluación  de  consultores  considerar  otras  variables  como  la  calificación  del beneficiario o el aumento de la ponderación de acompañamiento y/o seguimiento de proyectos, con el fin que exista mayor incentivo en que estos agentes, no sólo sean buenos presentadores de proyectos, sino que también, sean excelentes acompañadores e implementadores de obras de riego</t>
+  </si>
+  <si>
+    <t>Continuar  con  las  capacitaciones  a  los  consultores  que  requieren  de  asistencia  técnica  para  postular postular proyectos para evitar concentraciones en el mercado que no contribuyen a la existencia de una mayor  competencia</t>
+  </si>
+  <si>
+    <t>El diseño de indicadores desagregadas por género y que visibilicen resultados, para poder realizar un correcto diagnóstico de lo que sucede a nivel de las organizaciones, con el fin de implementar acciones que  incentiven  la  participación  de  agricultoras  en  esas  agrupaciones  y  luego,  poder  medir  los resultados de las intervenciones aplicadas</t>
+  </si>
+  <si>
+    <t>Ampliar las acciones deimplementación de concursos para grupos protegidos hacia mujeres de otros estratos  distintos  a  la  pequeña  agricultura,  especialmente  a  la  de  pequeña  empresaria  agrícola  para ampliar su participación en la Ley de Riego</t>
+  </si>
+  <si>
+    <t>Seguir priorizando en la bonificación de obras de tecnificación de riego que conduzcan al uso eficiente del escaso recurso hídrico con que se cuenta actualmente a lo largo del territorio</t>
+  </si>
+  <si>
+    <t>Organizacionalmente  es  importante  incorporar  a  la  institución  a  los  funcionarios  que,  si  bien  trabajanpara  la  Ley,  no  son  trabajadores  directos  de  la  CNR.  Los  encargados  de  riego  trabajan  para  el programa siendo dependientes de las SEREMIAS de Agricultura, ellos podrían mantener su posición en la organización del programa pues apoyan con la identificaciónde las necesidades de los productores, pero los inspectores de las obras (inspectores de la DOH) cumplen funciones directas del programa y no dependen de éste; dado que tienen una función muy importante en la gestión de las obras, debiesen pasar a ser funcionarios directos de la CNR</t>
+  </si>
+  <si>
+    <t>Dada  la  importancia  del  rol  que  cumple  la  DOH  en  la  implementación  de  la  Ley  de  Riego,  se recomienda  entrar  en  conversaciones  con  esta  Institución  para  mejorar  la  gestión  administrativa  del convenio, la ejecución del mismo y las condiciones de los inspectores de obras de este servicio, para hacer más eficiente su apoyo, específicamente se sugiere los siguientes: (a) gestionar con antelación la suscripción  del  convenio  anual  entre  las  partes,  considerando  el  tiempo  involucrado desde  la suscripción  hasta  la  toma  de  razón  por  parte  de  Contraloría  y  la  transferencia  de  los  recursos,  con  el propósito de darle continuidad al sistema de la Ley de Riego y (b) considerar recursos de continuidad en el convenio que se suscriba en el año, que se puedan comprometer al año siguiente, con el fin de asegurar  la  continuidad  del  programa.  Por  parte  de  la  DOH,  se  recomienda  seguir  avanzando  en  el mejoramiento de las condiciones laborales de los inspectores de obra en términos de la pertenencia a la  institución,  su  responsabilidad  administrativa  y  homologación  de  sueldos  a  los  establecidos  en  la DOH para su recurso humano</t>
+  </si>
+  <si>
+    <t>En la operación del convenio suscrito con el SAG, se recomiendanalgunas mejoras (1) avanzar en la digitalización del proceso, especialmente en la emisión del acta de inspección, donde dicho documento quede disponible la plataforma SEP, (2) en el mismo proceso de inspección, verificar la importancia de la existencia o no del cartel. Este punto se debiera evaluar en la eventual nueva modificación de la Ley. Esta recomendación se basa en que una de las funciones de este cartel era la localización de la obra, situación que actualmente no se justifica dada la georreferenciación de los proyectos. La otra razón era dar a conocer a la comunidad el rol subsidiario del Estado, el que actualmente puede ser realizado por otras  vías  de  comunicación  social.  Y  (3)  observar  mejoras  en  la  calidad  jurídica  de  los  profesionales contratados en el marco de este convenio, dado que al ser contratados a honorarios, en inspecciones con situaciones de no operatividad de una obra, dichos profesionales no están habilitados para declarar esta no operatividad, razón por la cual, un inspector SAG a contrata o de planta, externo al convenio, debe  volver  a  visitar la  obra  en  cuestión  para  emitir  el  acta  de  no  operatividad  de  la  obra.  Dicha situación genera un costo adicional en tiempo de recursos humanos, de viáticos y de traslados hacia el lugar de inspección</t>
+  </si>
+  <si>
+    <t>En  el  marco  de  convenio  cooperación  y  de  transferenciasuscrito  con INDAP,  realizar  un  seguimiento más  acucioso  de  los  resultados  que  se  alcanzan  con  esta  colaboración  en  términos  de  números  de usuarios   que   acceden   al   financiamiento   de   los   estudios   de   riego,   número   de   usuarios/as   y organizaciones  de  INDAP  (integrantes  desglosados  por  sexo  y  etnias),  que  acceden  al  crédito  de enlace  de  prefinanciamiento  de  la  bonificación,  superficie  bonificada  por  región  y  comunas,  ejecución presupuestaria trimestral del fondo</t>
+  </si>
+  <si>
+    <t>Analizar qué hitos del proceso de acreditaciónpuede ajustarse, para la maximización en la utilización de los recursos digitales del sistema</t>
+  </si>
+  <si>
+    <t>Levantar  información  dentro  del  SEP,  sobre  variables  de  medición  relacionadas  con  la  productividad inicial  y  final  del  cultivo,  si  hay  un  cambio  tecnológico  en  el  sistema  productivo  en  lo  que  se  refiere  a especie  cultivada,  información  de  estimación  de  ingreso  por  Ha,  entre  otros,  para  facilitar  una evaluación de impacto de la Ley de Riego y sus componentes, donde la información base de referencia como  la  de  los  precios para  realizar  cálculos  de  ingreso  y  costos se  podrían  obtener  en  la  Oficina  de Estudios y Políticas Agrarias -ODEPA, repartición del mismo Ministerio de Agricultura</t>
+  </si>
+  <si>
+    <t>Para el cálculo de indicadores de eficiencia, se recomienda llevar un sistema de gestión que considere como costo total de producción del programa las bonificaciones y el costo de su gestión, pues ambas cuentas  generan  dicho  costo.  Las  magnitudes  de  los  tipos  de  obras  (civiles,  drenaje  y  tecnificación) presentan diferentes costos, por eso es importante manejar cuentas diferenciadas por obra asíevaluar la eficiencia de cada una para la toma de decisiones y evaluar la eficiencia del programa</t>
+  </si>
+  <si>
+    <t>Un  proyecto  puede  durar  más  de  un  año,  por  lo  que sus  costos  no  pueden  estar  asociados directamente  al  presupuesto  disponible  en  el  año  de  su  adjudicación.  El  sistema  que  se  recomienda debe  levantar  información  del  costo  de  producción  y  de  administración  generado  por  el  proyecto  en cada uno de los años que duro su ejecución hasta la recepción de las obras y pago del bono</t>
+  </si>
+  <si>
+    <t>Efectuar  un  rediseño  completo  y  sustancial  del  Programa, que  considere,  entre  otras,  laexperiencia delPrograma Cuidado con el Perro!(relación directa del PTRAC con GOREs, y éstos con municipios y grandes compras)</t>
+  </si>
+  <si>
+    <t>Destinar recursos, fondos y profesionales, para realizar una planificación estratégica que, a partir de la problemática y objetivos identificados en esta evaluación, le permita desarrollar y completar  los  procesos  de  trabajo,  adaptar  los  instrumentos  que  regulan  la  postulación, evaluación, asignación, ejecución y seguimiento de proyectos, y definir una mejor estructura organizacional</t>
+  </si>
+  <si>
+    <t>Elaborar  diagnósticos  del  problema  de  laconvivencia  humano-animal  de  compañía,  que considere  el  conocimiento  existente  a  nivel  nacional  e  internacional,  en  ámbitos  como,  por ejemplo,  tenencia  responsable,  maltrato  animal,  control  de  población  de  caninos  y  felinos, diseño  de  política  pública  en este  tema,  entre  otros,  y que  permitanla  definición  de prioridades y métodos de control a nivel territorial (barrios-comuna; comuna-comuna)</t>
+  </si>
+  <si>
+    <t>Reconfigurar  los  servicios  que  el  programa  provee.  En  particular,  dejar  de  financiar  los servicios  de  participación  (diálogos  participativos)  y  educación  en  el  formato  actual,  para considerar una integración distinta con actividades que los municipios realizan, en el primer caso  en  el  contexto  de  la  actualización  de  instrumentos  de  planificación  local  (PLADECO, planes  reguladores),  y  en  el  segundo  caso  en  el  contexto  de  las  tareas  de  educación  que llevan  a  cabo  los  DEM.  Esta  recomendación  obedece  en  buena  medida  a  que  ambas actividades requieren una escala que no se condice con el rango de recursos habilitado ($1 millón)</t>
+  </si>
+  <si>
+    <t>Definir y aplicar criterios de focalización para servicios de esterilización:i)Aplicar  los  criterios  de  focalización  definidos  para  las  campañas  de  esterilización masiva  de  animales  de  compañía  (Art.35  Decreto  1007/2018),  documentando  sus resultadosii)Definir   y   aplicar   criterios   de   focalización   complementarios   que   apunten   a:   i) Esterilizar  población  animal  a  edad  temprana  (entre  los  2  y  7  meses  de  edad),  y prioritariamente hembras.iii)Priorizar  territorios  según  el  número  de  animales  de  compañía  abandonadoso callejeros  identificados  con  mediciones  elaboradas  de  acuerdo  con  estándares metodológicos internacionales</t>
+  </si>
+  <si>
+    <t>Definir   y   aplicar criterios   de   focalización   para   servicios   de   educación   en   tenencia responsable: i) Distinguir acciones educación, que suponen acciones formativas de mediano a largo plazo,  de  acciones  de  capacitación,  que  suponen  el  entrenamiento  de  perfiles determinados (funcionarios municipales, jueces de policía local, policía uniformada, miembros   de   organizaciones   de   la   sociedad   civil,   etc.)   paradesempeñar determinadas funciones. ii) Definir  y  aplicar  criterios  para  la  educación  en  tenencia  responsable,  que  focalice principalmente en padres / madres y niños de educación inicial y/o básica (es decir, 4 a 8 años)</t>
+  </si>
+  <si>
+    <t>Evaluar   un   nuevo   modelo   de vinculación   con   municipios   que,   bajo   la   lógica   de profundización  de  la  descentralización,  le  permita  enfocarse  en  materias  sustantivas, estratégicas, y dejando de lado labores esencialmente operativas. Una alternativa a estudiar es que el programa pase a depender de la División de Desarrollo Regional, para tener como contraparte  directa  a  los  Gobiernos  Regionales,  y  a  través  de  éstos  vincularse  con  los actores  del  nivel  local,  municipios  y  PJSFL  promotoras  de  la  tenencia  responsable.  Este modelo  también  debiera  considerar  una  relación  más  estratégica  con  las  PJSFL,  de  modo tal de construir una plataforma de ejecutores calificados, de apoyo o ejecución directa, a las funciones del municipio en tenencia responsable.</t>
+  </si>
+  <si>
+    <t>Desarrollar un plan estratégico de comunicaciones, reconociendo que en el caso del PTRAC el objetivo primario es producir un cambio de comportamiento individual, y por lo tanto los mensajes  y  soportes  comunicacionales  deben  ser  consistentes  con:  i) influir  en  las creencias y el conocimiento sobre un determinado comportamiento y sus consecuencias; ii) afectar las actitudes  en  apoyo  del  comportamiento deseado y  persuadirpara  el  cambio (levantar mitos, reducir la ignorancia, etc.); iii) afectarlas normas sociales percibidas sobre la aceptabilidad deun comportamiento entre pares; iv)  afectar (reducir) las intenciones de realizar  el  comportamientono  deseado.Esto  requiere,  además, segmentar  la  audiencia objetivo acorde la población cuyo comportamiento se pretende modificar</t>
+  </si>
+  <si>
+    <t>Mejorar  la  capacidad  delPrograma  para  capturar,  validar  y  sistematizar  la  información necesaria y suficiente para la construcción de indicadores, especialmente en lo relativo a la medición de resultados intermedios, asignando recursos para esta función</t>
+  </si>
+  <si>
+    <t>Implementar mediciones de resultados de las intervenciones de esterilización focalizadas en las  comunas  y/o  territorios  que  presenten  mayores  problemas.  Previamente,  esto  implica elaborar  diagnósticos  que  permitan  identificar  los  territorios  que  serán  prioritarios  en  cada comuna,definir  los  flujos  de  población  de  animales  de  compañía,  definir  metodologías  de medición  y  luego  de  esto,  asignar recursos  para  las  intervenciones  de  esterilizaciones  que sean focalizadas y sistemáticas, es decir, reiteradas en el tiempo, en un mismo territorio, por ejemplo, durante 3 o 4 años seguidos</t>
+  </si>
+  <si>
+    <t>Finalmente,  se  recomienda  que  en  el  caso  específico  del  Diplomado  se  realice  una evaluación  que  permita establecer qué  problema  real  está  atendiendo, si  corresponde  a  la mejor  alternativa  de  solución,  y en  función  de  los  resultados  de  la  evaluación,  decidir  su curso futuro</t>
+  </si>
+  <si>
+    <t>Definir,   a   partir   del   diseño   conceptual   completo,   los   procesos,   sistemas,   estructura organizacional  más  adecuada  para  el  PTRAC,  y  recursos  institucionales  que  le  permitan estar al tanto de las mejores prácticas en los ámbitos de acción del Programa</t>
+  </si>
+  <si>
+    <t>Desarrollar sistemas de información que vinculen información de los registros nacionales, la operación de los proyectos, y produzca información valiosa para la difusión del conocimiento y mejores prácticas en TRAC</t>
+  </si>
+  <si>
+    <t>Operacionalizar los criterios de focalizacióndefinidos, de modo que la labor de los Asesores Regionales,  particularmente  cuando  son  consultados  por  los  municipios,  tenga  un  hilo conductor común y no se resuelva a criterio de cada profesional</t>
+  </si>
+  <si>
+    <t>Establecer nueva forma de relación con PJSFL promotoras de TRAC, que sobre la base de una estrategia comunal en tenencia responsable complemente las acciones que emprenda cada municipio</t>
+  </si>
+  <si>
+    <t>Lo anterior implica redefinir la modalidad de trabajo directa con municipios, hacia una donde el  PTRAC  se  relacione  con  Gobiernos  Regionales,  establezca  estrategias  de  trabajo  que integren las intervenciones del nivel local, potenciando y apalancando recursos nacionales-regionales-municipales</t>
+  </si>
+  <si>
+    <t>Recomendación 18</t>
+  </si>
+  <si>
+    <t>Recomendación 19</t>
+  </si>
+  <si>
+    <t>Recomendación 20</t>
+  </si>
+  <si>
+    <t>Se recomienda que el Programa revise el mecanismo de producción de sus componentes, especialmente  el Componente  1,  para  asegurar  el  uso  más  eficiente  de  los  recursos.  Una alternativa  es  considera  un  sistema  como  el  adoptado  por  el  programa Cuidado  con  el Perro!,  en  el  que  se  establecen  convenios  de  colaboración  entre  los  Municipios  y  los Gobiernos  regionales,  permitiendo  acceder  a  precios  preferenciales  en  la  compra  de insumos y entrega de servicios</t>
+  </si>
+  <si>
+    <t>Se recomienda definir una metodología estándar de costeo de los recursos empleados tanto en  nivel  central  como  en  los  municipios  en  el  país  que  permita  asignar,  entre  otros elementos, las horas de RRHH asociadas a la producción y administración del programa de manera  confiable.  Se  recomienda  emplear  técnicas  del  tipo  ABC  costing,  que  permite determinar el valor de producción de las actividades de una organización, programa u otro, en base al uso efectivo de recursos bajo una medida común (por ejemplo, horas de trabajo dedicadas a cada actividad)</t>
+  </si>
+  <si>
+    <t>Asimismo, para distinguir entre gastos de producción y administración utilizando el enfoque anterior,  es  necesario  construir  una  matriz  con  un  conjunto  de  actividades  tipo,  que estandarice  la  forma  como  éstas  son  categorizadas(por  ejemplo,  horas  dedicadas  a  la entrega de servicios de esterilización o bien las horas dedicadas a resolver dudas técnicas durante  la  postulación  de  proyectos  o  en  el  seguimiento  posterior  son  consideradas  como actividad productiva, y horasdedicadas a la actualización de la plataforma ptrac son horas administrativas)</t>
+  </si>
+  <si>
+    <t>Considerar  la  experiencia  del  programa  Cuidado  con  el  Perropara  incorporar mejoras que apuntan a mayor eficiencia en el uso de los recursos: por ejemplo, establecerconvenios de colaboración  entre  GORE  y  Municipios,  sobre  la  base  de  un  plan  a  mediano  plazo,  y entregarrecursos anuales en función del avance efectivo</t>
+  </si>
+  <si>
+    <t>https://www.dipres.gob.cl/597/articles-189315_r_ejecutivo_institucional.pdf</t>
+  </si>
+  <si>
+    <t>https://www.dipres.gob.cl/597/articles-189315_informe_final.pdf</t>
+  </si>
+  <si>
+    <t>https://www.dipres.gob.cl/597/articles-187244_r_ejecutivo_institucional.pdf</t>
+  </si>
+  <si>
+    <t>https://www.dipres.gob.cl/597/articles-187244_informe_final.pdf</t>
+  </si>
+  <si>
+    <t>proteger  y  mejorar  los  recursos  productivos  y  recursos naturales renovables del ámbito silvoagropecuario del país</t>
+  </si>
+  <si>
+    <t>acrecentar la condición fito y zoosanitaria de los recursos silvoagropecuario del país</t>
+  </si>
+  <si>
+    <t>autoridad fito y zoosanitaria capaz de apoyar la apertura y mantención de mercados</t>
+  </si>
+  <si>
+    <t>lograr mantener un alto nivel de calidad en la entrega de servicios</t>
+  </si>
+  <si>
+    <t>Normativa  sobre protección   de   los   recursos   naturales   renovables   aplicada   e   información   territorial actualizada</t>
+  </si>
+  <si>
+    <t>https://www.dipres.gob.cl/597/articles-163134_r_ejecutivo_institucional.pdf</t>
+  </si>
+  <si>
+    <t>https://www.dipres.gob.cl/597/articles-163134_informe_final.pdf</t>
+  </si>
+  <si>
+    <t>https://www.dipres.gob.cl/597/articles-163134_seguimiento_compromisos.pdf</t>
+  </si>
+  <si>
+    <t>ubicados entre la primera y sexta región (incluida la XV)</t>
+  </si>
+  <si>
+    <t>Productores de la pequeña minería, metálica y no metálica, ubicados entre la primera y sexta región (incluida la XV), con una producción igual o menor a 2.000 TMS mensuale</t>
+  </si>
+  <si>
+    <t>estimación   de   sus   potencialidades de recursos minerales</t>
+  </si>
+  <si>
+    <t>Apoya   los   pequeños   mineros   a   incorporar   y   desarrollar   capacidades   técnicas   y   de   gestión   empresarial, a través de las siguientes líneas:  i. Fomento a la Innovación; ii. Transferencia Tecnológica; yiii.    Capacitación,    incluyendo    la    adopción    de    buenas prácticas que contribuyan a incrementar la competitividad del sector.</t>
+  </si>
+  <si>
+    <t>Acceso a los mercados Internacionales, en condiciones comerciales similares a las que obtienen los grandes productores que operan en Chile</t>
+  </si>
+  <si>
+    <t>https://www.dipres.gob.cl/597/articles-175242_r_ejecutivo_institucional.pdf</t>
+  </si>
+  <si>
+    <t>https://www.dipres.gob.cl/597/articles-175242_informe_final.pdf</t>
+  </si>
+  <si>
+    <t>servicio   de Defensoría   General, Penitenciaria y   de Primera   Audiencia</t>
+  </si>
+  <si>
+    <t>provisión  del  servicio  de  defensa,  clasificando  el  costo directo  e indirecto  y  calculando  el  tiempo  que  requieren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">costo del servicio de defensa penal pública en los distintos llamados y para los distintos  tipos  de  servicios  de  defensa  desagregado  por  aquellas  variables  que  considere relevante  </t>
+  </si>
+  <si>
+    <t>Análisis de indicadores de defensa penal licitada</t>
+  </si>
+  <si>
+    <t>mecanismo de  licitación en los distintos llamados  y  para  los  distintos  tipos  de  servicios  de  defensa</t>
+  </si>
+  <si>
+    <t>https://www.dipres.gob.cl/597/articles-141244_r_ejecutivo_institucional.pdf</t>
+  </si>
+  <si>
+    <t>https://www.dipres.gob.cl/597/articles-141244_informe_final.pdf</t>
+  </si>
+  <si>
+    <t>https://www.dipres.gob.cl/597/articles-141244_seguimiento_compromisos.pdf</t>
+  </si>
+  <si>
+    <t>certeza  jurídica  sobre  sus  Títulos  de  Dominio  sobre  la  Propiedad Particular – Regularización</t>
+  </si>
+  <si>
+    <t>certeza  jurídica  sobre  sus  Goces  singulares  o  como  comunidad agrícola</t>
+  </si>
+  <si>
+    <t>certeza  jurídica  sobre  sus  derechos  relacionados  a  Títulos Gratuitos sobre la Propiedad Fiscal</t>
+  </si>
+  <si>
+    <t>La  tenencia  irregular  de  propiedad  raíz</t>
+  </si>
+  <si>
+    <t>La posesión irregular de propiedad raíz suele ser provocada por situaciones de pobreza, en la medida que  al  carecer  de  recursos  para  adquirir  un  sitio  o  una  vivienda,  algunas  personas  recurren  a  la  ocupación ilegal de algún territorio o no regularizan la posesión de territorios heredados, quedando en una situación de desprotección jurídica</t>
+  </si>
+  <si>
+    <t>https://www.dipres.gob.cl/597/articles-141243_r_ejecutivo_institucional.pdf</t>
+  </si>
+  <si>
+    <t>https://www.dipres.gob.cl/597/articles-141243_informe_final.pdf</t>
+  </si>
+  <si>
+    <t>https://www.dipres.gob.cl/597/articles-141243_seguimiento_compromisos.pdf</t>
+  </si>
+  <si>
+    <t>Infraestructura de agua potable entregada a localidades rurales que no cuentan con un servicio de  APR</t>
+  </si>
+  <si>
+    <t>Mejoramiento, ampliación y conservación de infraestructura de APR</t>
+  </si>
+  <si>
+    <t>Comités y Cooperativas, ambas entidades responsables de la administración, operación y  mantención  de  los  Sistemas  de  APR,  son  supervisados  y  asesorados,  por  medio  de  sus  dirigentes  y trabajadores,  en  aspectos  técnicos,  administrativos,  financieros  y  comunitarios</t>
+  </si>
+  <si>
+    <t>la provisión de los servicios de agua y saneamiento para las áreas rurales en condiciones de calidad, continuidad y cobertura, es un desafío que demanda la atención especial de los gobiernos de todo el mundo, debido a las características particulares propias de la ruralidad</t>
+  </si>
+  <si>
+    <t>gran  parte  de  la  población  rural  no  tiene  agua  potable disponible  para  consumo,  acarreando  esto  importantes  consecuencias  en  el  ámbito  de  la  salud pública</t>
+  </si>
+  <si>
+    <t>https://www.dipres.gob.cl/597/articles-141242_r_ejecutivo_institucional.pdf</t>
+  </si>
+  <si>
+    <t>https://www.dipres.gob.cl/597/articles-141242_informe_final.pdf</t>
+  </si>
+  <si>
+    <t>https://www.dipres.gob.cl/597/articles-141242_seguimiento_compromisos.pdf</t>
+  </si>
+  <si>
+    <t>Definición y envío de  nóminas  de  estudiantes  pre-seleccionados,  a  cargo  de  la  Dirección  Nacional  de  JUNAEB</t>
+  </si>
+  <si>
+    <t>Emisión  de  solicitud  de  postulación  o  renovación  de  la  beca  a  cargo  de  los  encargados  de  ésta  en  cada  establecimiento educacional (red colaboradora</t>
+  </si>
+  <si>
+    <t>Asignación de la beca, responsabilidad que recae en JUNAEB</t>
+  </si>
+  <si>
+    <t>Pago de la beca, los que son efectuados directamente a los estudiantes a través del Banco Estado según dos modalidades, pago por cuenta RUT o pago masivo</t>
+  </si>
+  <si>
+    <t>Entrega  a  las  redes  colaboradoras,  de  nóminas  de  pre-seleccionados,  de  materiales  de  difusión  y  promoción  y  de  capacitación,  a  cargo  de  las  Direcciones  Regionales  de  JUNAEB</t>
+  </si>
+  <si>
+    <t>Junaeb;Beca</t>
+  </si>
+  <si>
+    <t>https://www.dipres.gob.cl/597/articles-141241_r_ejecutivo_institucional.pdf</t>
+  </si>
+  <si>
+    <t>https://www.dipres.gob.cl/597/articles-141241_informe_final.pdf</t>
+  </si>
+  <si>
+    <t>https://www.dipres.gob.cl/597/articles-141241_seguimiento_compromisos.pdf</t>
+  </si>
+  <si>
+    <t>•Establecimientos  Municipales:  administrados  por  el  sector  municipal,  ya  sea  a  través  de  los  Departamentos  Administrativos  de  Educación  Municipalizada  (DAEM)  o  de  las  Corporaciones  Municipales; y financiadas por el Estado.•Liceos Administración Delegada (Decreto Ley 31662, de 1980).  •Escuelas  Particulares  Subvencionadas:  financiadas  por  medio  de  un  subsidio  o  subvención  pública, vía subvención por alumno, además de la contribución de los padres u otros sostenedores privados.•Escuelas  Privadas  Pagadas:  no  reciben  subvenciones  del  Estado y  operan  totalmente  a  partir  de  administración privada y  financiamiento de los padres</t>
+  </si>
+  <si>
+    <t>servicio  integral  de  calidad en  todos  los  niveles  del  sistema  escolar</t>
+  </si>
+  <si>
+    <t>Financiamiento  Infraestructura,  Arriendo,  Equipamiento  y  Mobiliario  de  Liceos</t>
+  </si>
+  <si>
+    <t>Acreditar una antigüedad mínima de 30 años</t>
+  </si>
+  <si>
+    <t>servicio  educativo  en  los  establecimientos  educacionales  afectados  por  el  terremoto  de  2010 en las Regiones de Valparaíso, del Libertador Bernardo O’Higgins, del Maule, del Bío Bío, de la Araucanía y Metropolitana, establecida zona como afectadas por la catástrofe</t>
+  </si>
+  <si>
+    <t>intervenciones   de   construcción,   reparación, normalización,  adquisición  de  equipamiento  y/o  mobiliario</t>
+  </si>
+  <si>
+    <t>https://www.dipres.gob.cl/597/articles-141240_r_ejecutivo_institucional.pdf</t>
+  </si>
+  <si>
+    <t>https://www.dipres.gob.cl/597/articles-141240_informe_final.pdf</t>
+  </si>
+  <si>
+    <t>https://www.dipres.gob.cl/597/articles-141240_seguimiento_compromisos.pdf</t>
+  </si>
+  <si>
+    <t>Financiamiento  Infraestructura,  Arriendo,  Equipamiento  y  Mobiliario  de  Liceos  Tradicionales</t>
+  </si>
+  <si>
+    <t>servicios  orientados por el Proyecto Educativo Institucional</t>
+  </si>
+  <si>
+    <t>potenciar  la  educación  pública  para  recuperar  su  importancia  en el  desarrollo  nacional</t>
+  </si>
+  <si>
+    <t>Uno  de  los  principales  requisitos,  es  la  exigencia que la matrícula sea jornada completa</t>
+  </si>
+  <si>
+    <t>https://www.dipres.gob.cl/597/articles-139827_r_ejecutivo_institucional.pdf</t>
+  </si>
+  <si>
+    <t>https://www.dipres.gob.cl/597/articles-139827_informe_final.pdf</t>
+  </si>
+  <si>
+    <t>https://www.dipres.gob.cl/597/articles-139827_seguimiento_compromisos.pdf</t>
+  </si>
+  <si>
+    <t>Infraestructura Educacional</t>
+  </si>
+  <si>
+    <t>Ejecuta acciones con la comunidad, las municipalidades y la infraestructura cultural, privada y pública, de las comunas</t>
+  </si>
+  <si>
+    <t>disminución  de  las  desigualdades  en  el  acceso y  la  participación de la población, en la cultura y las artes</t>
+  </si>
+  <si>
+    <t>Catastro Nacional de Infraestructura Cultural Pública y Privada en todas las comunas del país</t>
+  </si>
+  <si>
+    <t>Laboratorios Regionales para encargados municipales de cultura, de espacios culturales y  de  iniciativas  culturales  comunitarias</t>
+  </si>
+  <si>
+    <t>Encuentros  ciudadanos  para:  a)  garantizar  espacios  de  participación  ciudadana  en  la  elaboración de los Planes Municipales de Cultura (PMC); b) validar los documentos; o c) incorporar el PMC, en los en el PLADECO de la comuna</t>
+  </si>
+  <si>
+    <t>https://www.dipres.gob.cl/597/articles-141245_r_ejecutivo_institucional.pdf</t>
+  </si>
+  <si>
+    <t>https://www.dipres.gob.cl/597/articles-141245_informe_final.pdf</t>
+  </si>
+  <si>
+    <t>https://www.dipres.gob.cl/597/articles-141245_seguimiento_compromisos.pdf</t>
+  </si>
+  <si>
+    <t>Jóvenes, mujeres y personas en situación de discapacidad son capacitados en oficios, con  acceso  a  servicios  de  intermediación  laboral,  certificación  de  competencias,  nivelación  de  estudios y/o continuidad de estudios (Modelo inclusivo)</t>
+  </si>
+  <si>
+    <t>levantamiento de la demanda del mercado laboral de cada  región</t>
+  </si>
+  <si>
+    <t>oficios  levantados  por  Chile  Valora  priorizados  por  medio  de  coordinaciones  multisectoriales  (trabajadores,  empresas  y  sector  público),  y  que    pueden  contar  con  certificación  de  competencias  laborales,  a  través  de  un  proceso  de  evaluación  y  certificación  que  realiza  dicha  institución</t>
+  </si>
+  <si>
+    <t>subsidiosdirectos  a  los  usuarios/as(movilización, colación,  sala  cuna),  junto a  la  capacitación  de  oficio,  apoyo  socio-laboral y ayuda a la colocación de las personas que participan en la capacitación</t>
+  </si>
+  <si>
+    <t>Mujeres se capacitan para desarrollar un emprendimiento orientado al autoempleo y disponen  de  recursos  de  inversión  para  ello</t>
+  </si>
+  <si>
+    <t>https://www.dipres.gob.cl/597/articles-141239_r_ejecutivo_institucional.pdf</t>
+  </si>
+  <si>
+    <t>https://www.dipres.gob.cl/597/articles-141239_informe_final.pdf</t>
+  </si>
+  <si>
+    <t>https://www.dipres.gob.cl/597/articles-141239_seguimiento_compromisos.pdf</t>
+  </si>
+  <si>
+    <t>Plan   de   Reparaciones   Menores</t>
+  </si>
+  <si>
+    <t>econstruir  el  país  en  cuatro  años  luego  de  uno  los  terremotos más grandes de la historia</t>
+  </si>
+  <si>
+    <t>La reconstrucción comenzó, durante la etapa de estabilización, con un diseño de la estrategia a seguir para llevar a cabo una reconstrucción completa</t>
+  </si>
+  <si>
+    <t>https://www.dipres.gob.cl/597/articles-139831_r_ejecutivo_institucional.pdf</t>
+  </si>
+  <si>
+    <t>https://www.dipres.gob.cl/597/articles-139831_informe_final.pdf</t>
+  </si>
+  <si>
+    <t>https://www.dipres.gob.cl/597/articles-139831_seguimiento_compromisos.pdf</t>
+  </si>
+  <si>
+    <t>El Plan de Invierno busca proteger a las personas que viven en situación de calle, muchas de las cuales pernoctan en la vía pública siendo discriminadas y excluidas socialmente</t>
+  </si>
+  <si>
+    <t>Los Centros  Temporales  para  la  Superación  (CTS)  corresponden a  un  sistema  de  cuatro  tipos  de  dispositivos que ofrecen alojamiento temporal y servicios básicos para personas en situación de calle</t>
+  </si>
+  <si>
+    <t>Hospedería : Servicio temporal de alojamiento nocturno</t>
+  </si>
+  <si>
+    <t>Servicio de residencia temporal a personas en situación de calle</t>
+  </si>
+  <si>
+    <t>Casa Compartida (CC): Destinado a aquellas personas que se encuentran en proceso de superación de la situación de calle</t>
+  </si>
+  <si>
+    <t>https://www.dipres.gob.cl/597/articles-139832_r_ejecutivo_institucional.pdf</t>
+  </si>
+  <si>
+    <t>https://www.dipres.gob.cl/597/articles-139832_informe_final.pdf</t>
+  </si>
+  <si>
+    <t>https://www.dipres.gob.cl/597/articles-139832_seguimiento_compromisos.pdf</t>
+  </si>
+  <si>
+    <t>se  implementa  intersectorialmente  entre  el  SERNAM,  las  Municipalidades,  el  Ministerio  de  Educación y  la  Junta  Nacional  de  Auxilio  Escolar  y  Becas</t>
+  </si>
+  <si>
+    <t>Es  el  SERNAM  la  entidad  gubernamental  responsable  del  programa,  quien  entrega  los  lineamientos  técnicos5 para  la  ejecución  de  éste,  y  coordina  su  implementación</t>
+  </si>
+  <si>
+    <t>Talleres  y  cursos  formativos  de  desarrollo  personal  y  fortalecimiento  del  perfil  laboral  realizados  con  enfoque  de  género,  otorgados  a  las  mujeres  participantes  del  programa</t>
+  </si>
+  <si>
+    <t>Talleres  de  apoyo  escolar,  deportivo,  recreativo,  artístico  y/o  cultural,  con  enfoque  de  género,  otorgados  a  niñas  y  niños  del  programa</t>
+  </si>
+  <si>
+    <t>focalización  territorial  (elección  de  comunas  nuevas o antiguas en que se ha ejecutado), lo que se realiza a partir de la postulación por medio de un proyecto enviado por municipios, tanto por los nuevos como los antiguos</t>
+  </si>
+  <si>
+    <t>https://www.dipres.gob.cl/597/articles-139833_r_ejecutivo_institucional.pdf</t>
+  </si>
+  <si>
+    <t>https://www.dipres.gob.cl/597/articles-139833_informe_final.pdf</t>
+  </si>
+  <si>
+    <t>https://www.dipres.gob.cl/597/articles-139833_seguimiento_compromisos.pdf</t>
+  </si>
+  <si>
+    <t>Condominio de Viviendas Tuteladas (CVT), las que les son entregadas en comodato por  SENAMA</t>
+  </si>
+  <si>
+    <t>Adulto mayor;Senama</t>
+  </si>
+  <si>
+    <t>Establecimientos de Larga Estadía para Adultos Mayores (ELEAM), residencias  colectivas  en  que  viven,  en  forma  permanente  o  temporal,  personas  mayores  que  se  encuentran en condición de vulnerabilidad social y dependencia (leve, moderada o severa)</t>
+  </si>
+  <si>
+    <t>Viviendas Individuales Asignadas (Stock de Viviendas Individuales), viviendas  individuales  pertenecientes  al  2%  de  las  viviendas  sociales  construidas  por  el  Estado  entre  los  años  1986  y  2005,  y  que,  hasta  el  año  2011  fueron  asignadas  por  el  programa,  en  comodato,  a  adultos  mayores  autovalentes en  situación  de  vulnerabilidad</t>
+  </si>
+  <si>
+    <t>El programa se inicia como tal en 2007 con el convenio suscrito entre SENAMA y MINVU y la atención de beneficiarios por los componentes comienza en los años 2009 (CVT y Stock) y 2011 (ELEAM). No tiene previsto  fecha  de  término.  El programa  tiene  un  ámbito  de  acción  de  carácter  nacional,  aunque  en  los años 2013 y 2014 no mantiene presencia en todo el territorio</t>
+  </si>
+  <si>
+    <t>Carencia de redes socio familiares de apoyo</t>
+  </si>
+  <si>
+    <t>Carencia Habitacional</t>
+  </si>
+  <si>
+    <t>https://www.dipres.gob.cl/597/articles-141238_r_ejecutivo_institucional.pdf</t>
+  </si>
+  <si>
+    <t>https://www.dipres.gob.cl/597/articles-141238_informe_final.pdf</t>
+  </si>
+  <si>
+    <t>https://www.dipres.gob.cl/597/articles-141238_seguimiento_compromisos.pdf</t>
+  </si>
+  <si>
+    <t>Orientaciones curriculares y estándares para la formación inicial docente</t>
+  </si>
+  <si>
+    <t>Estándares Pedagógicos para carreras de Educación Parvularia; Estándares Disciplinares para carreras de pedagogía en Educación Parvularia; Estándares Disciplinarios  para  carreras  de  pedagogía  en  Educación  Física;  Estándares  Disciplinarios  para carreras  de  pedagogía  en  Artes  Visuales  y  Música;  Estándares  Disciplinarios  para  carreras  de pedagogía en Inglés; y Estándares Disciplinarios para carreras de Educación Especial</t>
+  </si>
+  <si>
+    <t>Evaluación Diagnóstica para estudiantes de pedagogía(Prueba INICIA)</t>
+  </si>
+  <si>
+    <t>Apoyo  para  el  Fortalecimiento  y  Renovación  de  la  Formación  Inicial  de  Docentes impartida por las Institucionesde Educación Superior</t>
+  </si>
+  <si>
+    <t>Apoyo a la inserción profesional de los docentes principiantes</t>
+  </si>
+  <si>
+    <t>Docente</t>
+  </si>
+  <si>
+    <t>Docente;competencias digitales en docentes</t>
+  </si>
+  <si>
+    <t>https://www.dipres.gob.cl/597/articles-141237_r_ejecutivo_institucional.pdf</t>
+  </si>
+  <si>
+    <t>https://www.dipres.gob.cl/597/articles-141237_informe_final.pdf</t>
+  </si>
+  <si>
+    <t>https://www.dipres.gob.cl/597/articles-141237_seguimiento_compromisos.pdf</t>
+  </si>
+  <si>
+    <t>Pesca</t>
+  </si>
+  <si>
+    <t>Asesoría  de  excelencia  a  la  autoridad  competente  en  pesca  y  acuicultura,  para  la toma  de  decisiones  sectoriales</t>
+  </si>
+  <si>
+    <t>Investigación científica aplicada y seguimiento de las pesquerías y de los efectos de la acuicultura, con base en metodologías validadas</t>
+  </si>
+  <si>
+    <t>Gestión  y  difusión  de  información  actualizada  biológica-pesquera,  y  acuícola,  de interés para el país</t>
+  </si>
+  <si>
+    <t>sustentabilidad  de  la  pesca  y  la  acuicultura</t>
+  </si>
+  <si>
+    <t>medidas de manejo de los   recursos   hidrobiológicos,   habiendo   alcanzado   un   posicionamiento   de   agente   clave imprescindible para la gestión eficaz de la institucionalidad pesquera nacional</t>
+  </si>
+  <si>
+    <t>https://www.dipres.gob.cl/597/articles-141236_r_ejecutivo_institucional.pdf</t>
+  </si>
+  <si>
+    <t>https://www.dipres.gob.cl/597/articles-141236_informe_final.pdf</t>
+  </si>
+  <si>
+    <t>https://www.dipres.gob.cl/597/articles-141236_seguimiento_compromisos.pdf</t>
+  </si>
+  <si>
+    <t>Servicio   primera   línea:   Víctimas   de   delitos   reciben   orientación   e información,  por  medio  de  modalidades  flexibles  y  adaptadas  a  sus  necesidades  para prevenir la victimización  secundaria y facilitar el acceso a reparación integral</t>
+  </si>
+  <si>
+    <t>Servicio   de   Orientación   e   Información   (SOI):   Provee   orientación   e   información telefónica a nivel nacional a personas que han sido víctimas por medio de un equipo que conforma  una  central  de  contactos</t>
+  </si>
+  <si>
+    <t>Coordinación  Red  de  Asistencia  a  Víctimas  (RAV): Víctimas  de  delito acceden a servicios articulados intersectorialmente</t>
+  </si>
+  <si>
+    <t>Servicio  segunda  línea:  Víctimas  de  delitos  reciben  atención  integral especializada (psicosociojurídica)</t>
+  </si>
+  <si>
+    <t>Apoyo  a  víctimas  las  24  Horas  (APV24H): Se  trata  de  la  atención  contingente  en  el sitio del suceso de los delitos violentos en contexto de flagrancias que son informados por las  Fiscalías  de  la  RM  y  de  la  Región  de  la  Araucanía con  las  que  se  tiene  convenio</t>
+  </si>
+  <si>
+    <t>Víctima</t>
+  </si>
+  <si>
+    <t>https://www.dipres.gob.cl/597/articles-139819_r_ejecutivo_institucional.pdf</t>
+  </si>
+  <si>
+    <t>https://www.dipres.gob.cl/597/articles-139819_informe_final.pdf</t>
+  </si>
+  <si>
+    <t>https://www.dipres.gob.cl/597/articles-139819_seguimiento_compromisos.pdf</t>
+  </si>
+  <si>
+    <t>Fondo de Promoción de Exportaciones (FPE)</t>
+  </si>
+  <si>
+    <t>Fondo de Promoción de Exportaciones Silvoagropecuarias (FPESA)</t>
+  </si>
+  <si>
+    <t>diversificación de mercados</t>
+  </si>
+  <si>
+    <t>ampliación de la cobertura a nuevas empresas exportadoras</t>
+  </si>
+  <si>
+    <t>innovación y emprendimiento</t>
+  </si>
+  <si>
+    <t>Capital Semilla;emprendimiento</t>
+  </si>
+  <si>
+    <t>Emprendimiento</t>
+  </si>
+  <si>
+    <t>ProChile;emprendimiento</t>
+  </si>
+  <si>
+    <t>Capacidades de gestión empresarial;Capital Semilla;emprendimiento</t>
+  </si>
+  <si>
+    <t>Capacidades de gestión empresarial;Agricultores;emprendimiento</t>
+  </si>
+  <si>
+    <t>Desarrollo de los Pueblos Indígenas;emprendimiento</t>
+  </si>
+  <si>
+    <t>Capacidades de gestión empresarial;emprendimiento</t>
+  </si>
+  <si>
+    <t>https://www.dipres.gob.cl/597/articles-139826_r_ejecutivo_institucional.pdf</t>
+  </si>
+  <si>
+    <t>https://www.dipres.gob.cl/597/articles-139826_informe_final.pdf</t>
+  </si>
+  <si>
+    <t>https://www.dipres.gob.cl/597/articles-139826_seguimiento_compromisos.pdf</t>
+  </si>
+  <si>
+    <t>Educación  parvularia  de  calidad  provista  directamente  por  JUNJI</t>
+  </si>
+  <si>
+    <t>Educación  parvularia  de  calidad  provista  por  terceros  vía transferencia de fondos provenientes de JUNJI</t>
+  </si>
+  <si>
+    <t>La  población  objetivo  son  los  niños  y  niñas  cuyas  familias  pertenecen  al  60%  de  los  hogares  más  pobres  de  Chile,  de  acuerdo  a  la  Ficha  de  Protección  Social,  o  bien  que  cumplen algún criterio de vulnerabilidad social</t>
+  </si>
+  <si>
+    <t>Presupuesto JUNAEB destinado a financiar las raciones alimenticias de los niños y niñas que asisten al Programa</t>
+  </si>
+  <si>
+    <t>pertinencia  de  la  educación  parvularia  como modalidad de atención educativa</t>
   </si>
 </sst>
 </file>
@@ -6669,7 +7281,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="43" applyFont="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
@@ -6722,6 +7334,13 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="44" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="35" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="41" fontId="0" fillId="35" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="35" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" xfId="44" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="46">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -7174,13 +7793,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN622"/>
+  <dimension ref="A1:AQ622"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="V2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="K136" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X19" sqref="X19"/>
+      <selection pane="bottomRight" activeCell="K151" sqref="K151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7200,10 +7819,10 @@
     <col min="21" max="21" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="40" width="17.7109375" customWidth="1"/>
+    <col min="24" max="43" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -7274,58 +7893,67 @@
         <v>1649</v>
       </c>
       <c r="X1" s="7" t="s">
+        <v>1705</v>
+      </c>
+      <c r="Y1" s="7" t="s">
         <v>1706</v>
       </c>
-      <c r="Y1" s="7" t="s">
+      <c r="Z1" s="7" t="s">
         <v>1707</v>
       </c>
-      <c r="Z1" s="7" t="s">
+      <c r="AA1" s="7" t="s">
         <v>1708</v>
       </c>
-      <c r="AA1" s="7" t="s">
+      <c r="AB1" s="7" t="s">
         <v>1709</v>
       </c>
-      <c r="AB1" s="7" t="s">
+      <c r="AC1" s="7" t="s">
         <v>1710</v>
       </c>
-      <c r="AC1" s="7" t="s">
+      <c r="AD1" s="7" t="s">
         <v>1711</v>
       </c>
-      <c r="AD1" s="7" t="s">
-        <v>1712</v>
-      </c>
       <c r="AE1" s="7" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="AF1" s="7" t="s">
+        <v>1749</v>
+      </c>
+      <c r="AG1" s="7" t="s">
         <v>1750</v>
       </c>
-      <c r="AG1" s="7" t="s">
+      <c r="AH1" s="7" t="s">
         <v>1751</v>
       </c>
-      <c r="AH1" s="7" t="s">
+      <c r="AI1" s="7" t="s">
         <v>1752</v>
       </c>
-      <c r="AI1" s="7" t="s">
+      <c r="AJ1" s="7" t="s">
         <v>1753</v>
       </c>
-      <c r="AJ1" s="7" t="s">
-        <v>1754</v>
-      </c>
       <c r="AK1" s="7" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="AL1" s="7" t="s">
+        <v>1922</v>
+      </c>
+      <c r="AM1" s="7" t="s">
         <v>1923</v>
       </c>
-      <c r="AM1" s="7" t="s">
+      <c r="AN1" s="7" t="s">
         <v>1924</v>
       </c>
-      <c r="AN1" s="7" t="s">
-        <v>1925</v>
-      </c>
-    </row>
-    <row r="2" spans="1:40" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AO1" s="7" t="s">
+        <v>2039</v>
+      </c>
+      <c r="AP1" s="7" t="s">
+        <v>2040</v>
+      </c>
+      <c r="AQ1" s="7" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30">
         <v>2020</v>
       </c>
@@ -7392,52 +8020,52 @@
         <v>76644787402.237656</v>
       </c>
       <c r="X2" s="33" t="s">
+        <v>1965</v>
+      </c>
+      <c r="Y2" s="33" t="s">
         <v>1966</v>
       </c>
-      <c r="Y2" s="33" t="s">
+      <c r="Z2" s="33" t="s">
         <v>1967</v>
       </c>
-      <c r="Z2" s="33" t="s">
+      <c r="AA2" s="33" t="s">
         <v>1968</v>
       </c>
-      <c r="AA2" s="33" t="s">
+      <c r="AB2" s="33" t="s">
         <v>1969</v>
       </c>
-      <c r="AB2" s="33" t="s">
+      <c r="AC2" s="33" t="s">
         <v>1970</v>
       </c>
-      <c r="AC2" s="33" t="s">
+      <c r="AD2" s="33" t="s">
         <v>1971</v>
       </c>
-      <c r="AD2" s="33" t="s">
+      <c r="AE2" s="33" t="s">
         <v>1972</v>
       </c>
-      <c r="AE2" s="33" t="s">
+      <c r="AF2" s="33" t="s">
         <v>1973</v>
       </c>
-      <c r="AF2" s="33" t="s">
+      <c r="AG2" s="33" t="s">
         <v>1974</v>
       </c>
-      <c r="AG2" s="33" t="s">
+      <c r="AH2" s="33" t="s">
         <v>1975</v>
       </c>
-      <c r="AH2" s="33" t="s">
+      <c r="AI2" s="33" t="s">
         <v>1976</v>
       </c>
-      <c r="AI2" s="33" t="s">
+      <c r="AJ2" s="33" t="s">
         <v>1977</v>
       </c>
-      <c r="AJ2" s="33" t="s">
+      <c r="AK2" s="33" t="s">
         <v>1978</v>
       </c>
-      <c r="AK2" s="33" t="s">
+      <c r="AL2" s="33" t="s">
         <v>1979</v>
       </c>
-      <c r="AL2" s="33" t="s">
-        <v>1980</v>
-      </c>
-    </row>
-    <row r="3" spans="1:40" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:43" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="30">
         <v>2020</v>
       </c>
@@ -7469,26 +8097,26 @@
       </c>
       <c r="K3" s="30"/>
       <c r="L3" s="30" t="s">
+        <v>1685</v>
+      </c>
+      <c r="M3" s="30" t="s">
         <v>1686</v>
       </c>
-      <c r="M3" s="30" t="s">
+      <c r="N3" s="30" t="s">
         <v>1687</v>
       </c>
-      <c r="N3" s="30" t="s">
+      <c r="O3" s="30" t="s">
         <v>1688</v>
       </c>
-      <c r="O3" s="30" t="s">
+      <c r="P3" s="30" t="s">
         <v>1689</v>
-      </c>
-      <c r="P3" s="30" t="s">
-        <v>1690</v>
       </c>
       <c r="Q3" s="30"/>
       <c r="R3" s="32" t="s">
+        <v>1683</v>
+      </c>
+      <c r="S3" s="32" t="s">
         <v>1684</v>
-      </c>
-      <c r="S3" s="32" t="s">
-        <v>1685</v>
       </c>
       <c r="T3" s="30"/>
       <c r="U3" s="30" t="s">
@@ -7500,40 +8128,40 @@
         <v>35832282216.134239</v>
       </c>
       <c r="X3" s="33" t="s">
+        <v>1980</v>
+      </c>
+      <c r="Y3" s="33" t="s">
         <v>1981</v>
       </c>
-      <c r="Y3" s="33" t="s">
+      <c r="Z3" s="33" t="s">
         <v>1982</v>
       </c>
-      <c r="Z3" s="33" t="s">
+      <c r="AA3" s="33" t="s">
         <v>1983</v>
       </c>
-      <c r="AA3" s="33" t="s">
+      <c r="AB3" s="33" t="s">
         <v>1984</v>
       </c>
-      <c r="AB3" s="33" t="s">
+      <c r="AC3" s="33" t="s">
         <v>1985</v>
       </c>
-      <c r="AC3" s="33" t="s">
+      <c r="AD3" s="33" t="s">
         <v>1986</v>
       </c>
-      <c r="AD3" s="33" t="s">
+      <c r="AE3" s="33" t="s">
         <v>1987</v>
       </c>
-      <c r="AE3" s="33" t="s">
+      <c r="AF3" s="33" t="s">
         <v>1988</v>
       </c>
-      <c r="AF3" s="33" t="s">
+      <c r="AG3" s="33" t="s">
         <v>1989</v>
       </c>
-      <c r="AG3" s="33" t="s">
+      <c r="AH3" s="33" t="s">
         <v>1990</v>
       </c>
-      <c r="AH3" s="33" t="s">
-        <v>1991</v>
-      </c>
-    </row>
-    <row r="4" spans="1:40" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:43" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30">
         <v>2020</v>
       </c>
@@ -7565,28 +8193,28 @@
       </c>
       <c r="K4" s="30"/>
       <c r="L4" s="30" t="s">
+        <v>1690</v>
+      </c>
+      <c r="M4" s="30" t="s">
         <v>1691</v>
       </c>
-      <c r="M4" s="30" t="s">
+      <c r="N4" s="30" t="s">
         <v>1692</v>
       </c>
-      <c r="N4" s="30" t="s">
+      <c r="O4" s="30" t="s">
+        <v>1694</v>
+      </c>
+      <c r="P4" s="30" t="s">
+        <v>1695</v>
+      </c>
+      <c r="Q4" s="30" t="s">
         <v>1693</v>
       </c>
-      <c r="O4" s="30" t="s">
-        <v>1695</v>
-      </c>
-      <c r="P4" s="30" t="s">
+      <c r="R4" s="32" t="s">
         <v>1696</v>
       </c>
-      <c r="Q4" s="30" t="s">
-        <v>1694</v>
-      </c>
-      <c r="R4" s="32" t="s">
+      <c r="S4" s="29" t="s">
         <v>1697</v>
-      </c>
-      <c r="S4" s="29" t="s">
-        <v>1698</v>
       </c>
       <c r="T4" s="30"/>
       <c r="U4" s="30"/>
@@ -7596,52 +8224,52 @@
         <v>5043530889.0789652</v>
       </c>
       <c r="X4" s="33" t="s">
+        <v>1991</v>
+      </c>
+      <c r="Y4" s="33" t="s">
         <v>1992</v>
       </c>
-      <c r="Y4" s="33" t="s">
+      <c r="Z4" s="33" t="s">
         <v>1993</v>
       </c>
-      <c r="Z4" s="33" t="s">
+      <c r="AA4" s="33" t="s">
         <v>1994</v>
       </c>
-      <c r="AA4" s="33" t="s">
+      <c r="AB4" s="33" t="s">
         <v>1995</v>
       </c>
-      <c r="AB4" s="33" t="s">
+      <c r="AC4" s="33" t="s">
         <v>1996</v>
       </c>
-      <c r="AC4" s="33" t="s">
+      <c r="AD4" s="33" t="s">
         <v>1997</v>
       </c>
-      <c r="AD4" s="33" t="s">
+      <c r="AE4" s="33" t="s">
         <v>1998</v>
       </c>
-      <c r="AE4" s="33" t="s">
+      <c r="AF4" s="33" t="s">
         <v>1999</v>
       </c>
-      <c r="AF4" s="33" t="s">
+      <c r="AG4" s="33" t="s">
         <v>2000</v>
       </c>
-      <c r="AG4" s="33" t="s">
+      <c r="AH4" s="33" t="s">
         <v>2001</v>
       </c>
-      <c r="AH4" s="33" t="s">
+      <c r="AI4" s="33" t="s">
         <v>2002</v>
       </c>
-      <c r="AI4" s="33" t="s">
+      <c r="AJ4" s="33" t="s">
         <v>2003</v>
       </c>
-      <c r="AJ4" s="33" t="s">
+      <c r="AK4" s="33" t="s">
         <v>2004</v>
       </c>
-      <c r="AK4" s="33" t="s">
+      <c r="AL4" s="33" t="s">
         <v>2005</v>
       </c>
-      <c r="AL4" s="33" t="s">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="5" spans="1:40" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:43" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="30">
         <v>2020</v>
       </c>
@@ -7675,26 +8303,26 @@
         <v>1327</v>
       </c>
       <c r="L5" s="30" t="s">
+        <v>1700</v>
+      </c>
+      <c r="M5" s="30" t="s">
         <v>1701</v>
       </c>
-      <c r="M5" s="30" t="s">
+      <c r="N5" s="30" t="s">
         <v>1702</v>
       </c>
-      <c r="N5" s="30" t="s">
+      <c r="O5" s="30" t="s">
         <v>1703</v>
       </c>
-      <c r="O5" s="30" t="s">
+      <c r="P5" s="30" t="s">
         <v>1704</v>
-      </c>
-      <c r="P5" s="30" t="s">
-        <v>1705</v>
       </c>
       <c r="Q5" s="30"/>
       <c r="R5" s="32" t="s">
+        <v>1698</v>
+      </c>
+      <c r="S5" s="32" t="s">
         <v>1699</v>
-      </c>
-      <c r="S5" s="32" t="s">
-        <v>1700</v>
       </c>
       <c r="T5" s="30"/>
       <c r="U5" s="30" t="s">
@@ -7706,37 +8334,37 @@
         <v>57350835763.72683</v>
       </c>
       <c r="X5" s="33" t="s">
+        <v>1855</v>
+      </c>
+      <c r="Y5" s="33" t="s">
         <v>1856</v>
       </c>
-      <c r="Y5" s="33" t="s">
+      <c r="Z5" s="33" t="s">
         <v>1857</v>
       </c>
-      <c r="Z5" s="33" t="s">
+      <c r="AA5" s="33" t="s">
         <v>1858</v>
       </c>
-      <c r="AA5" s="33" t="s">
+      <c r="AB5" s="33" t="s">
         <v>1859</v>
       </c>
-      <c r="AB5" s="33" t="s">
+      <c r="AC5" s="33" t="s">
         <v>1860</v>
       </c>
-      <c r="AC5" s="33" t="s">
+      <c r="AD5" s="33" t="s">
         <v>1861</v>
       </c>
-      <c r="AD5" s="33" t="s">
+      <c r="AE5" s="33" t="s">
         <v>1862</v>
       </c>
-      <c r="AE5" s="33" t="s">
+      <c r="AF5" s="33" t="s">
         <v>1863</v>
       </c>
-      <c r="AF5" s="33" t="s">
+      <c r="AG5" s="33" t="s">
         <v>1864</v>
       </c>
-      <c r="AG5" s="33" t="s">
-        <v>1865</v>
-      </c>
-    </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>2020</v>
       </c>
@@ -7767,29 +8395,29 @@
         <v>20468909000</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="L6" s="3" t="s">
+        <v>1714</v>
+      </c>
+      <c r="M6" s="3" t="s">
         <v>1715</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="N6" s="3" t="s">
         <v>1716</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="O6" s="3" t="s">
         <v>1717</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="P6" s="3" t="s">
         <v>1718</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>1719</v>
       </c>
       <c r="Q6" s="3"/>
       <c r="R6" s="11" t="s">
+        <v>1712</v>
+      </c>
+      <c r="S6" s="11" t="s">
         <v>1713</v>
-      </c>
-      <c r="S6" s="11" t="s">
-        <v>1714</v>
       </c>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
@@ -7799,25 +8427,25 @@
         <v>15707200427.120035</v>
       </c>
       <c r="X6" t="s">
+        <v>1719</v>
+      </c>
+      <c r="Y6" t="s">
         <v>1720</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>1721</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>1722</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>1723</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>1724</v>
       </c>
-      <c r="AC6" t="s">
-        <v>1725</v>
-      </c>
-    </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>2020</v>
       </c>
@@ -7849,26 +8477,26 @@
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3" t="s">
+        <v>1727</v>
+      </c>
+      <c r="M7" s="3" t="s">
         <v>1728</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="N7" s="3" t="s">
         <v>1729</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="O7" s="3" t="s">
         <v>1730</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="P7" s="3" t="s">
         <v>1731</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>1732</v>
       </c>
       <c r="Q7" s="3"/>
       <c r="R7" s="11" t="s">
+        <v>1725</v>
+      </c>
+      <c r="S7" s="11" t="s">
         <v>1726</v>
-      </c>
-      <c r="S7" s="11" t="s">
-        <v>1727</v>
       </c>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
@@ -7878,31 +8506,31 @@
         <v>64946021108.852257</v>
       </c>
       <c r="X7" t="s">
+        <v>1733</v>
+      </c>
+      <c r="Y7" t="s">
         <v>1734</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>1735</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>1736</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>1737</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>1738</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>1739</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>1740</v>
       </c>
-      <c r="AE7" t="s">
-        <v>1741</v>
-      </c>
-    </row>
-    <row r="8" spans="1:40" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:43" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="30">
         <v>2020</v>
       </c>
@@ -7933,29 +8561,29 @@
         <v>11541000000</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="L8" s="30" t="s">
+        <v>1743</v>
+      </c>
+      <c r="M8" s="30" t="s">
         <v>1744</v>
       </c>
-      <c r="M8" s="30" t="s">
+      <c r="N8" s="30" t="s">
         <v>1745</v>
       </c>
-      <c r="N8" s="30" t="s">
+      <c r="O8" s="30" t="s">
         <v>1746</v>
       </c>
-      <c r="O8" s="30" t="s">
+      <c r="P8" s="30" t="s">
         <v>1747</v>
-      </c>
-      <c r="P8" s="30" t="s">
-        <v>1748</v>
       </c>
       <c r="Q8" s="30"/>
       <c r="R8" s="32" t="s">
+        <v>1741</v>
+      </c>
+      <c r="S8" s="32" t="s">
         <v>1742</v>
-      </c>
-      <c r="S8" s="32" t="s">
-        <v>1743</v>
       </c>
       <c r="T8" s="30"/>
       <c r="U8" s="30"/>
@@ -7965,37 +8593,37 @@
         <v>8856202356.9205532</v>
       </c>
       <c r="X8" s="33" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="Y8" s="33" t="s">
+        <v>1754</v>
+      </c>
+      <c r="Z8" s="33" t="s">
         <v>1755</v>
       </c>
-      <c r="Z8" s="33" t="s">
+      <c r="AA8" s="33" t="s">
         <v>1756</v>
       </c>
-      <c r="AA8" s="33" t="s">
+      <c r="AB8" s="33" t="s">
         <v>1757</v>
       </c>
-      <c r="AB8" s="33" t="s">
+      <c r="AC8" s="33" t="s">
         <v>1758</v>
       </c>
-      <c r="AC8" s="33" t="s">
+      <c r="AD8" s="33" t="s">
         <v>1759</v>
       </c>
-      <c r="AD8" s="33" t="s">
+      <c r="AE8" s="33" t="s">
         <v>1760</v>
       </c>
-      <c r="AE8" s="33" t="s">
+      <c r="AF8" s="33" t="s">
         <v>1761</v>
       </c>
-      <c r="AF8" s="33" t="s">
+      <c r="AG8" s="33" t="s">
         <v>1762</v>
       </c>
-      <c r="AG8" s="33" t="s">
-        <v>1763</v>
-      </c>
-    </row>
-    <row r="9" spans="1:40" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:43" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="30">
         <v>2020</v>
       </c>
@@ -8026,31 +8654,31 @@
         <v>14064000000</v>
       </c>
       <c r="K9" s="30" t="s">
+        <v>1767</v>
+      </c>
+      <c r="L9" s="30" t="s">
+        <v>1765</v>
+      </c>
+      <c r="M9" s="30" t="s">
+        <v>1769</v>
+      </c>
+      <c r="N9" s="30" t="s">
         <v>1768</v>
       </c>
-      <c r="L9" s="30" t="s">
-        <v>1766</v>
-      </c>
-      <c r="M9" s="30" t="s">
+      <c r="O9" s="30" t="s">
+        <v>1772</v>
+      </c>
+      <c r="P9" s="30" t="s">
+        <v>1771</v>
+      </c>
+      <c r="Q9" s="30" t="s">
         <v>1770</v>
       </c>
-      <c r="N9" s="30" t="s">
-        <v>1769</v>
-      </c>
-      <c r="O9" s="30" t="s">
-        <v>1773</v>
-      </c>
-      <c r="P9" s="30" t="s">
-        <v>1772</v>
-      </c>
-      <c r="Q9" s="30" t="s">
-        <v>1771</v>
-      </c>
       <c r="R9" s="32" t="s">
+        <v>1763</v>
+      </c>
+      <c r="S9" s="32" t="s">
         <v>1764</v>
-      </c>
-      <c r="S9" s="32" t="s">
-        <v>1765</v>
       </c>
       <c r="T9" s="30"/>
       <c r="U9" s="30"/>
@@ -8060,49 +8688,49 @@
         <v>10792273628.60503</v>
       </c>
       <c r="X9" s="33" t="s">
+        <v>1774</v>
+      </c>
+      <c r="Y9" s="33" t="s">
         <v>1775</v>
       </c>
-      <c r="Y9" s="33" t="s">
+      <c r="Z9" s="33" t="s">
         <v>1776</v>
       </c>
-      <c r="Z9" s="33" t="s">
+      <c r="AA9" s="33" t="s">
         <v>1777</v>
       </c>
-      <c r="AA9" s="33" t="s">
+      <c r="AB9" s="33" t="s">
         <v>1778</v>
       </c>
-      <c r="AB9" s="33" t="s">
+      <c r="AC9" s="33" t="s">
         <v>1779</v>
       </c>
-      <c r="AC9" s="33" t="s">
+      <c r="AD9" s="33" t="s">
         <v>1780</v>
       </c>
-      <c r="AD9" s="33" t="s">
+      <c r="AE9" s="33" t="s">
         <v>1781</v>
       </c>
-      <c r="AE9" s="33" t="s">
+      <c r="AF9" s="33" t="s">
         <v>1782</v>
       </c>
-      <c r="AF9" s="33" t="s">
+      <c r="AG9" s="33" t="s">
         <v>1783</v>
       </c>
-      <c r="AG9" s="33" t="s">
+      <c r="AH9" s="33" t="s">
         <v>1784</v>
       </c>
-      <c r="AH9" s="33" t="s">
+      <c r="AI9" s="33" t="s">
         <v>1785</v>
       </c>
-      <c r="AI9" s="33" t="s">
+      <c r="AJ9" s="33" t="s">
         <v>1786</v>
       </c>
-      <c r="AJ9" s="33" t="s">
+      <c r="AK9" s="33" t="s">
         <v>1787</v>
       </c>
-      <c r="AK9" s="33" t="s">
-        <v>1788</v>
-      </c>
-    </row>
-    <row r="10" spans="1:40" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:43" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="30">
         <v>2020</v>
       </c>
@@ -8133,29 +8761,29 @@
         <v>334703000000</v>
       </c>
       <c r="K10" s="30" t="s">
+        <v>1792</v>
+      </c>
+      <c r="L10" s="30" t="s">
+        <v>1790</v>
+      </c>
+      <c r="M10" s="30" t="s">
+        <v>1791</v>
+      </c>
+      <c r="N10" s="30" t="s">
         <v>1793</v>
       </c>
-      <c r="L10" s="30" t="s">
-        <v>1791</v>
-      </c>
-      <c r="M10" s="30" t="s">
-        <v>1792</v>
-      </c>
-      <c r="N10" s="30" t="s">
-        <v>1794</v>
-      </c>
       <c r="O10" s="30" t="s">
+        <v>1796</v>
+      </c>
+      <c r="P10" s="30" t="s">
         <v>1797</v>
-      </c>
-      <c r="P10" s="30" t="s">
-        <v>1798</v>
       </c>
       <c r="Q10" s="30"/>
       <c r="R10" s="32" t="s">
+        <v>1788</v>
+      </c>
+      <c r="S10" s="32" t="s">
         <v>1789</v>
-      </c>
-      <c r="S10" s="32" t="s">
-        <v>1790</v>
       </c>
       <c r="T10" s="30"/>
       <c r="U10" s="30"/>
@@ -8165,49 +8793,49 @@
         <v>256840611512.72678</v>
       </c>
       <c r="X10" s="33" t="s">
+        <v>1798</v>
+      </c>
+      <c r="Y10" s="33" t="s">
         <v>1799</v>
       </c>
-      <c r="Y10" s="33" t="s">
+      <c r="Z10" s="33" t="s">
         <v>1800</v>
       </c>
-      <c r="Z10" s="33" t="s">
+      <c r="AA10" s="33" t="s">
         <v>1801</v>
       </c>
-      <c r="AA10" s="33" t="s">
+      <c r="AB10" s="33" t="s">
         <v>1802</v>
       </c>
-      <c r="AB10" s="33" t="s">
+      <c r="AC10" s="33" t="s">
         <v>1803</v>
       </c>
-      <c r="AC10" s="33" t="s">
+      <c r="AD10" s="33" t="s">
         <v>1804</v>
       </c>
-      <c r="AD10" s="33" t="s">
+      <c r="AE10" s="33" t="s">
         <v>1805</v>
       </c>
-      <c r="AE10" s="33" t="s">
+      <c r="AF10" s="33" t="s">
         <v>1806</v>
       </c>
-      <c r="AF10" s="33" t="s">
+      <c r="AG10" s="33" t="s">
         <v>1807</v>
       </c>
-      <c r="AG10" s="33" t="s">
+      <c r="AH10" s="33" t="s">
+        <v>1811</v>
+      </c>
+      <c r="AI10" s="33" t="s">
         <v>1808</v>
       </c>
-      <c r="AH10" s="33" t="s">
-        <v>1812</v>
-      </c>
-      <c r="AI10" s="33" t="s">
+      <c r="AJ10" s="33" t="s">
         <v>1809</v>
       </c>
-      <c r="AJ10" s="33" t="s">
+      <c r="AK10" s="33" t="s">
         <v>1810</v>
       </c>
-      <c r="AK10" s="33" t="s">
-        <v>1811</v>
-      </c>
-    </row>
-    <row r="11" spans="1:40" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:43" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="30">
         <v>2020</v>
       </c>
@@ -8239,26 +8867,26 @@
       </c>
       <c r="K11" s="30"/>
       <c r="L11" s="30" t="s">
+        <v>1814</v>
+      </c>
+      <c r="M11" s="30" t="s">
         <v>1815</v>
       </c>
-      <c r="M11" s="30" t="s">
+      <c r="N11" s="30" t="s">
         <v>1816</v>
       </c>
-      <c r="N11" s="30" t="s">
+      <c r="O11" s="30" t="s">
         <v>1817</v>
       </c>
-      <c r="O11" s="30" t="s">
+      <c r="P11" s="30" t="s">
         <v>1818</v>
-      </c>
-      <c r="P11" s="30" t="s">
-        <v>1819</v>
       </c>
       <c r="Q11" s="30"/>
       <c r="R11" s="32" t="s">
+        <v>1812</v>
+      </c>
+      <c r="S11" s="32" t="s">
         <v>1813</v>
-      </c>
-      <c r="S11" s="32" t="s">
-        <v>1814</v>
       </c>
       <c r="T11" s="30"/>
       <c r="U11" s="30"/>
@@ -8268,40 +8896,40 @@
         <v>12304757368.791359</v>
       </c>
       <c r="X11" s="33" t="s">
+        <v>1819</v>
+      </c>
+      <c r="Y11" s="33" t="s">
         <v>1820</v>
       </c>
-      <c r="Y11" s="33" t="s">
+      <c r="Z11" s="33" t="s">
         <v>1821</v>
       </c>
-      <c r="Z11" s="33" t="s">
+      <c r="AA11" s="33" t="s">
         <v>1822</v>
       </c>
-      <c r="AA11" s="33" t="s">
+      <c r="AB11" s="33" t="s">
         <v>1823</v>
       </c>
-      <c r="AB11" s="33" t="s">
+      <c r="AC11" s="33" t="s">
         <v>1824</v>
       </c>
-      <c r="AC11" s="33" t="s">
+      <c r="AD11" s="33" t="s">
         <v>1825</v>
       </c>
-      <c r="AD11" s="33" t="s">
+      <c r="AE11" s="33" t="s">
         <v>1826</v>
       </c>
-      <c r="AE11" s="33" t="s">
+      <c r="AF11" s="33" t="s">
         <v>1827</v>
       </c>
-      <c r="AF11" s="33" t="s">
+      <c r="AG11" s="33" t="s">
         <v>1828</v>
       </c>
-      <c r="AG11" s="33" t="s">
+      <c r="AH11" s="33" t="s">
         <v>1829</v>
       </c>
-      <c r="AH11" s="33" t="s">
-        <v>1830</v>
-      </c>
-    </row>
-    <row r="12" spans="1:40" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:43" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="30">
         <v>2020</v>
       </c>
@@ -8332,29 +8960,29 @@
         <v>10919000000</v>
       </c>
       <c r="K12" s="30" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="L12" s="30" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="M12" s="30" t="s">
         <v>1554</v>
       </c>
       <c r="N12" s="30" t="s">
+        <v>1833</v>
+      </c>
+      <c r="O12" s="30" t="s">
         <v>1834</v>
       </c>
-      <c r="O12" s="30" t="s">
+      <c r="P12" s="30" t="s">
         <v>1835</v>
-      </c>
-      <c r="P12" s="30" t="s">
-        <v>1836</v>
       </c>
       <c r="Q12" s="30"/>
       <c r="R12" s="32" t="s">
+        <v>1830</v>
+      </c>
+      <c r="S12" s="32" t="s">
         <v>1831</v>
-      </c>
-      <c r="S12" s="32" t="s">
-        <v>1832</v>
       </c>
       <c r="T12" s="30"/>
       <c r="U12" s="30"/>
@@ -8364,40 +8992,40 @@
         <v>8378899015.2686529</v>
       </c>
       <c r="X12" s="33" t="s">
+        <v>1837</v>
+      </c>
+      <c r="Y12" s="33" t="s">
         <v>1838</v>
       </c>
-      <c r="Y12" s="33" t="s">
+      <c r="Z12" s="33" t="s">
         <v>1839</v>
       </c>
-      <c r="Z12" s="33" t="s">
+      <c r="AA12" s="33" t="s">
         <v>1840</v>
       </c>
-      <c r="AA12" s="33" t="s">
+      <c r="AB12" s="33" t="s">
         <v>1841</v>
       </c>
-      <c r="AB12" s="33" t="s">
+      <c r="AC12" s="33" t="s">
         <v>1842</v>
       </c>
-      <c r="AC12" s="33" t="s">
+      <c r="AD12" s="33" t="s">
         <v>1843</v>
       </c>
-      <c r="AD12" s="33" t="s">
+      <c r="AE12" s="33" t="s">
         <v>1844</v>
       </c>
-      <c r="AE12" s="33" t="s">
+      <c r="AF12" s="33" t="s">
         <v>1845</v>
       </c>
-      <c r="AF12" s="33" t="s">
+      <c r="AG12" s="33" t="s">
         <v>1846</v>
       </c>
-      <c r="AG12" s="33" t="s">
+      <c r="AH12" s="33" t="s">
         <v>1847</v>
       </c>
-      <c r="AH12" s="33" t="s">
-        <v>1848</v>
-      </c>
-    </row>
-    <row r="13" spans="1:40" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:43" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="30">
         <v>2020</v>
       </c>
@@ -8428,29 +9056,29 @@
         <v>74737000000</v>
       </c>
       <c r="K13" s="30" t="s">
+        <v>1851</v>
+      </c>
+      <c r="L13" s="30" t="s">
+        <v>1702</v>
+      </c>
+      <c r="M13" s="30" t="s">
+        <v>1850</v>
+      </c>
+      <c r="N13" s="30" t="s">
         <v>1852</v>
       </c>
-      <c r="L13" s="30" t="s">
-        <v>1703</v>
-      </c>
-      <c r="M13" s="30" t="s">
-        <v>1851</v>
-      </c>
-      <c r="N13" s="30" t="s">
+      <c r="O13" s="30" t="s">
         <v>1853</v>
       </c>
-      <c r="O13" s="30" t="s">
+      <c r="P13" s="30" t="s">
         <v>1854</v>
-      </c>
-      <c r="P13" s="30" t="s">
-        <v>1855</v>
       </c>
       <c r="Q13" s="30"/>
       <c r="R13" s="32" t="s">
+        <v>1848</v>
+      </c>
+      <c r="S13" s="32" t="s">
         <v>1849</v>
-      </c>
-      <c r="S13" s="32" t="s">
-        <v>1850</v>
       </c>
       <c r="T13" s="30"/>
       <c r="U13" s="30" t="s">
@@ -8462,37 +9090,37 @@
         <v>57350835763.72683</v>
       </c>
       <c r="X13" s="33" t="s">
+        <v>1855</v>
+      </c>
+      <c r="Y13" s="33" t="s">
         <v>1856</v>
       </c>
-      <c r="Y13" s="33" t="s">
+      <c r="Z13" s="33" t="s">
         <v>1857</v>
       </c>
-      <c r="Z13" s="33" t="s">
+      <c r="AA13" s="33" t="s">
         <v>1858</v>
       </c>
-      <c r="AA13" s="33" t="s">
+      <c r="AB13" s="33" t="s">
         <v>1859</v>
       </c>
-      <c r="AB13" s="33" t="s">
+      <c r="AC13" s="33" t="s">
         <v>1860</v>
       </c>
-      <c r="AC13" s="33" t="s">
+      <c r="AD13" s="33" t="s">
         <v>1861</v>
       </c>
-      <c r="AD13" s="33" t="s">
+      <c r="AE13" s="33" t="s">
         <v>1862</v>
       </c>
-      <c r="AE13" s="33" t="s">
+      <c r="AF13" s="33" t="s">
         <v>1863</v>
       </c>
-      <c r="AF13" s="33" t="s">
+      <c r="AG13" s="33" t="s">
         <v>1864</v>
       </c>
-      <c r="AG13" s="33" t="s">
-        <v>1865</v>
-      </c>
-    </row>
-    <row r="14" spans="1:40" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:43" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="30">
         <v>2020</v>
       </c>
@@ -8522,29 +9150,29 @@
         <v>624</v>
       </c>
       <c r="K14" s="30" t="s">
+        <v>1870</v>
+      </c>
+      <c r="L14" s="30" t="s">
+        <v>1874</v>
+      </c>
+      <c r="M14" s="30" t="s">
+        <v>1867</v>
+      </c>
+      <c r="N14" s="30" t="s">
         <v>1871</v>
       </c>
-      <c r="L14" s="30" t="s">
-        <v>1875</v>
-      </c>
-      <c r="M14" s="30" t="s">
-        <v>1868</v>
-      </c>
-      <c r="N14" s="30" t="s">
+      <c r="O14" s="30" t="s">
         <v>1872</v>
       </c>
-      <c r="O14" s="30" t="s">
+      <c r="P14" s="30" t="s">
         <v>1873</v>
-      </c>
-      <c r="P14" s="30" t="s">
-        <v>1874</v>
       </c>
       <c r="Q14" s="30"/>
       <c r="R14" s="32" t="s">
+        <v>1865</v>
+      </c>
+      <c r="S14" s="32" t="s">
         <v>1866</v>
-      </c>
-      <c r="S14" s="32" t="s">
-        <v>1867</v>
       </c>
       <c r="T14" s="30"/>
       <c r="U14" s="30"/>
@@ -8554,25 +9182,25 @@
         <v>s.i</v>
       </c>
       <c r="X14" s="33" t="s">
+        <v>1875</v>
+      </c>
+      <c r="Y14" s="33" t="s">
         <v>1876</v>
       </c>
-      <c r="Y14" s="33" t="s">
+      <c r="Z14" s="33" t="s">
         <v>1877</v>
       </c>
-      <c r="Z14" s="33" t="s">
+      <c r="AA14" s="33" t="s">
         <v>1878</v>
       </c>
-      <c r="AA14" s="33" t="s">
+      <c r="AB14" s="33" t="s">
         <v>1879</v>
       </c>
-      <c r="AB14" s="33" t="s">
+      <c r="AC14" s="33" t="s">
         <v>1880</v>
       </c>
-      <c r="AC14" s="33" t="s">
-        <v>1881</v>
-      </c>
-    </row>
-    <row r="15" spans="1:40" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:43" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="30">
         <v>2020</v>
       </c>
@@ -8604,28 +9232,28 @@
       </c>
       <c r="K15" s="30"/>
       <c r="L15" s="30" t="s">
+        <v>1883</v>
+      </c>
+      <c r="M15" s="30" t="s">
         <v>1884</v>
       </c>
-      <c r="M15" s="30" t="s">
+      <c r="N15" s="30" t="s">
         <v>1885</v>
       </c>
-      <c r="N15" s="30" t="s">
+      <c r="O15" s="30" t="s">
         <v>1886</v>
       </c>
-      <c r="O15" s="30" t="s">
+      <c r="P15" s="30" t="s">
         <v>1887</v>
       </c>
-      <c r="P15" s="30" t="s">
-        <v>1888</v>
-      </c>
       <c r="Q15" s="30" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="R15" s="32" t="s">
+        <v>1881</v>
+      </c>
+      <c r="S15" s="32" t="s">
         <v>1882</v>
-      </c>
-      <c r="S15" s="32" t="s">
-        <v>1883</v>
       </c>
       <c r="T15" s="30"/>
       <c r="U15" s="30" t="s">
@@ -8637,34 +9265,34 @@
         <v>662022804346.052</v>
       </c>
       <c r="X15" s="33" t="s">
+        <v>1888</v>
+      </c>
+      <c r="Y15" s="33" t="s">
         <v>1889</v>
       </c>
-      <c r="Y15" s="33" t="s">
+      <c r="Z15" s="33" t="s">
         <v>1890</v>
       </c>
-      <c r="Z15" s="33" t="s">
+      <c r="AA15" s="33" t="s">
         <v>1891</v>
       </c>
-      <c r="AA15" s="33" t="s">
+      <c r="AB15" s="33" t="s">
         <v>1892</v>
       </c>
-      <c r="AB15" s="33" t="s">
+      <c r="AC15" s="33" t="s">
         <v>1893</v>
       </c>
-      <c r="AC15" s="33" t="s">
+      <c r="AD15" s="33" t="s">
         <v>1894</v>
       </c>
-      <c r="AD15" s="33" t="s">
+      <c r="AE15" s="33" t="s">
         <v>1895</v>
       </c>
-      <c r="AE15" s="33" t="s">
+      <c r="AF15" s="33" t="s">
         <v>1896</v>
       </c>
-      <c r="AF15" s="33" t="s">
-        <v>1897</v>
-      </c>
-    </row>
-    <row r="16" spans="1:40" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:43" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="30">
         <v>2020</v>
       </c>
@@ -8695,31 +9323,31 @@
         <v>10945000000</v>
       </c>
       <c r="K16" s="30" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="L16" s="30" t="s">
+        <v>1900</v>
+      </c>
+      <c r="M16" s="30" t="s">
         <v>1901</v>
       </c>
-      <c r="M16" s="30" t="s">
+      <c r="N16" s="30" t="s">
         <v>1902</v>
       </c>
-      <c r="N16" s="30" t="s">
+      <c r="O16" s="30" t="s">
         <v>1903</v>
       </c>
-      <c r="O16" s="30" t="s">
+      <c r="P16" s="30" t="s">
         <v>1904</v>
       </c>
-      <c r="P16" s="30" t="s">
+      <c r="Q16" s="30" t="s">
         <v>1905</v>
       </c>
-      <c r="Q16" s="30" t="s">
-        <v>1906</v>
-      </c>
       <c r="R16" s="32" t="s">
+        <v>1898</v>
+      </c>
+      <c r="S16" s="32" t="s">
         <v>1899</v>
-      </c>
-      <c r="S16" s="32" t="s">
-        <v>1900</v>
       </c>
       <c r="T16" s="30"/>
       <c r="U16" s="30" t="s">
@@ -8731,31 +9359,31 @@
         <v>8398850601.8971882</v>
       </c>
       <c r="X16" s="33" t="s">
+        <v>1906</v>
+      </c>
+      <c r="Y16" s="33" t="s">
         <v>1907</v>
       </c>
-      <c r="Y16" s="33" t="s">
+      <c r="Z16" s="33" t="s">
         <v>1908</v>
       </c>
-      <c r="Z16" s="33" t="s">
+      <c r="AA16" s="33" t="s">
         <v>1909</v>
       </c>
-      <c r="AA16" s="33" t="s">
+      <c r="AB16" s="33" t="s">
         <v>1910</v>
       </c>
-      <c r="AB16" s="33" t="s">
+      <c r="AC16" s="33" t="s">
         <v>1911</v>
       </c>
-      <c r="AC16" s="33" t="s">
+      <c r="AD16" s="33" t="s">
         <v>1912</v>
       </c>
-      <c r="AD16" s="33" t="s">
+      <c r="AE16" s="33" t="s">
         <v>1913</v>
       </c>
-      <c r="AE16" s="33" t="s">
-        <v>1914</v>
-      </c>
-    </row>
-    <row r="17" spans="1:40" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:43" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="30">
         <v>2020</v>
       </c>
@@ -8786,31 +9414,31 @@
         <v>643551000000</v>
       </c>
       <c r="K17" s="30" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="L17" s="30" t="s">
+        <v>1916</v>
+      </c>
+      <c r="M17" s="30" t="s">
         <v>1917</v>
       </c>
-      <c r="M17" s="30" t="s">
+      <c r="N17" s="30" t="s">
         <v>1918</v>
       </c>
-      <c r="N17" s="30" t="s">
+      <c r="O17" s="30" t="s">
         <v>1919</v>
       </c>
-      <c r="O17" s="30" t="s">
+      <c r="P17" s="30" t="s">
         <v>1920</v>
       </c>
-      <c r="P17" s="30" t="s">
+      <c r="Q17" s="30" t="s">
         <v>1921</v>
       </c>
-      <c r="Q17" s="30" t="s">
-        <v>1922</v>
-      </c>
       <c r="R17" s="32" t="s">
+        <v>1914</v>
+      </c>
+      <c r="S17" s="32" t="s">
         <v>1915</v>
-      </c>
-      <c r="S17" s="32" t="s">
-        <v>1916</v>
       </c>
       <c r="T17" s="30"/>
       <c r="U17" s="30"/>
@@ -8820,58 +9448,58 @@
         <v>493840904860.80743</v>
       </c>
       <c r="X17" s="33" t="s">
+        <v>1925</v>
+      </c>
+      <c r="Y17" s="33" t="s">
         <v>1926</v>
       </c>
-      <c r="Y17" s="33" t="s">
+      <c r="Z17" s="33" t="s">
+        <v>1941</v>
+      </c>
+      <c r="AA17" s="33" t="s">
         <v>1927</v>
       </c>
-      <c r="Z17" s="33" t="s">
-        <v>1942</v>
-      </c>
-      <c r="AA17" s="33" t="s">
+      <c r="AB17" s="33" t="s">
         <v>1928</v>
       </c>
-      <c r="AB17" s="33" t="s">
+      <c r="AC17" s="33" t="s">
         <v>1929</v>
       </c>
-      <c r="AC17" s="33" t="s">
+      <c r="AD17" s="33" t="s">
         <v>1930</v>
       </c>
-      <c r="AD17" s="33" t="s">
+      <c r="AE17" s="33" t="s">
         <v>1931</v>
       </c>
-      <c r="AE17" s="33" t="s">
+      <c r="AF17" s="33" t="s">
         <v>1932</v>
       </c>
-      <c r="AF17" s="33" t="s">
+      <c r="AG17" s="33" t="s">
         <v>1933</v>
       </c>
-      <c r="AG17" s="33" t="s">
+      <c r="AH17" s="33" t="s">
         <v>1934</v>
       </c>
-      <c r="AH17" s="33" t="s">
+      <c r="AI17" s="33" t="s">
         <v>1935</v>
       </c>
-      <c r="AI17" s="33" t="s">
+      <c r="AJ17" s="33" t="s">
         <v>1936</v>
       </c>
-      <c r="AJ17" s="33" t="s">
+      <c r="AK17" s="33" t="s">
         <v>1937</v>
       </c>
-      <c r="AK17" s="33" t="s">
+      <c r="AL17" s="33" t="s">
         <v>1938</v>
       </c>
-      <c r="AL17" s="33" t="s">
+      <c r="AM17" s="33" t="s">
         <v>1939</v>
       </c>
-      <c r="AM17" s="33" t="s">
+      <c r="AN17" s="33" t="s">
         <v>1940</v>
       </c>
-      <c r="AN17" s="33" t="s">
-        <v>1941</v>
-      </c>
-    </row>
-    <row r="18" spans="1:40" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:43" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="30">
         <v>2020</v>
       </c>
@@ -8903,26 +9531,26 @@
       </c>
       <c r="K18" s="30"/>
       <c r="L18" s="30" t="s">
+        <v>1944</v>
+      </c>
+      <c r="M18" s="30" t="s">
         <v>1945</v>
       </c>
-      <c r="M18" s="30" t="s">
+      <c r="N18" s="30" t="s">
         <v>1946</v>
       </c>
-      <c r="N18" s="30" t="s">
+      <c r="O18" s="30" t="s">
         <v>1947</v>
       </c>
-      <c r="O18" s="30" t="s">
+      <c r="P18" s="30" t="s">
         <v>1948</v>
-      </c>
-      <c r="P18" s="30" t="s">
-        <v>1949</v>
       </c>
       <c r="Q18" s="30"/>
       <c r="R18" s="32" t="s">
+        <v>1942</v>
+      </c>
+      <c r="S18" s="32" t="s">
         <v>1943</v>
-      </c>
-      <c r="S18" s="32" t="s">
-        <v>1944</v>
       </c>
       <c r="T18" s="30"/>
       <c r="U18" s="30" t="s">
@@ -8934,240 +9562,360 @@
         <v>43385492492.468094</v>
       </c>
       <c r="X18" s="33" t="s">
+        <v>1949</v>
+      </c>
+      <c r="Y18" s="33" t="s">
         <v>1950</v>
       </c>
-      <c r="Y18" s="33" t="s">
+      <c r="Z18" s="33" t="s">
         <v>1951</v>
       </c>
-      <c r="Z18" s="33" t="s">
+      <c r="AA18" s="33" t="s">
         <v>1952</v>
       </c>
-      <c r="AA18" s="33" t="s">
+      <c r="AB18" s="33" t="s">
         <v>1953</v>
       </c>
-      <c r="AB18" s="33" t="s">
+      <c r="AC18" s="33" t="s">
         <v>1954</v>
       </c>
-      <c r="AC18" s="33" t="s">
+      <c r="AD18" s="33" t="s">
         <v>1955</v>
       </c>
-      <c r="AD18" s="33" t="s">
+      <c r="AE18" s="33" t="s">
         <v>1956</v>
       </c>
-      <c r="AE18" s="33" t="s">
+      <c r="AF18" s="33" t="s">
         <v>1957</v>
       </c>
-      <c r="AF18" s="33" t="s">
+      <c r="AG18" s="33" t="s">
         <v>1958</v>
       </c>
-      <c r="AG18" s="33" t="s">
+      <c r="AH18" s="33" t="s">
         <v>1959</v>
       </c>
-      <c r="AH18" s="33" t="s">
+      <c r="AI18" s="33" t="s">
         <v>1960</v>
       </c>
-      <c r="AI18" s="33" t="s">
+      <c r="AJ18" s="33" t="s">
         <v>1961</v>
       </c>
-      <c r="AJ18" s="33" t="s">
+      <c r="AK18" s="33" t="s">
         <v>1962</v>
       </c>
-      <c r="AK18" s="33" t="s">
+      <c r="AL18" s="33" t="s">
         <v>1963</v>
       </c>
-      <c r="AL18" s="33" t="s">
+      <c r="AM18" s="33" t="s">
         <v>1964</v>
       </c>
-      <c r="AM18" s="33" t="s">
-        <v>1965</v>
-      </c>
-    </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+    </row>
+    <row r="19" spans="1:43" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="30">
         <v>2019</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="3" t="s">
+      <c r="C19" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="30" t="s">
         <v>724</v>
       </c>
-      <c r="H19" s="12">
+      <c r="H19" s="39">
         <v>1985</v>
       </c>
-      <c r="I19" s="13"/>
-      <c r="J19" s="10">
+      <c r="I19" s="40"/>
+      <c r="J19" s="31">
         <v>68399379</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="K19" s="30" t="s">
         <v>1044</v>
       </c>
-      <c r="L19" s="3" t="s">
+      <c r="L19" s="30" t="s">
         <v>730</v>
       </c>
-      <c r="M19" s="3" t="s">
+      <c r="M19" s="30" t="s">
         <v>731</v>
       </c>
-      <c r="N19" s="3" t="s">
+      <c r="N19" s="30" t="s">
         <v>732</v>
       </c>
-      <c r="O19" s="3" t="s">
+      <c r="O19" s="30" t="s">
         <v>733</v>
       </c>
-      <c r="P19" s="3" t="s">
+      <c r="P19" s="30" t="s">
         <v>734</v>
       </c>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="11" t="s">
+      <c r="Q19" s="30"/>
+      <c r="R19" s="32" t="s">
         <v>740</v>
       </c>
-      <c r="S19" s="11" t="s">
+      <c r="S19" s="32" t="s">
         <v>741</v>
       </c>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="10">
+      <c r="T19" s="30"/>
+      <c r="U19" s="30"/>
+      <c r="V19" s="30"/>
+      <c r="W19" s="31">
         <f>IF( J19="s.i", "s.i", IF(ISBLANK(J19),"Actualizando información",IFERROR(J19 / VLOOKUP(A19,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>53491537.120826639</v>
       </c>
-    </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+      <c r="X19" s="33" t="s">
+        <v>2006</v>
+      </c>
+      <c r="Y19" s="33" t="s">
+        <v>2007</v>
+      </c>
+      <c r="Z19" s="33" t="s">
+        <v>2008</v>
+      </c>
+      <c r="AA19" s="33" t="s">
+        <v>2009</v>
+      </c>
+      <c r="AB19" s="33" t="s">
+        <v>2010</v>
+      </c>
+      <c r="AC19" s="33" t="s">
+        <v>2011</v>
+      </c>
+      <c r="AD19" s="33" t="s">
+        <v>2012</v>
+      </c>
+      <c r="AE19" s="33" t="s">
+        <v>2013</v>
+      </c>
+      <c r="AF19" s="33" t="s">
+        <v>2014</v>
+      </c>
+      <c r="AG19" s="33" t="s">
+        <v>2015</v>
+      </c>
+      <c r="AH19" s="33" t="s">
+        <v>2016</v>
+      </c>
+      <c r="AI19" s="33" t="s">
+        <v>2017</v>
+      </c>
+      <c r="AJ19" s="33" t="s">
+        <v>2018</v>
+      </c>
+      <c r="AK19" s="33" t="s">
         <v>2019</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="AL19" s="33" t="s">
+        <v>2020</v>
+      </c>
+      <c r="AM19" s="33" t="s">
+        <v>2021</v>
+      </c>
+      <c r="AN19" s="33" t="s">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="20" spans="1:43" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="30">
+        <v>2019</v>
+      </c>
+      <c r="B20" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="3" t="s">
+      <c r="C20" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="30" t="s">
         <v>724</v>
       </c>
-      <c r="H20" s="12">
+      <c r="H20" s="39">
         <v>2014</v>
       </c>
-      <c r="I20" s="13"/>
-      <c r="J20" s="10">
+      <c r="I20" s="40"/>
+      <c r="J20" s="31">
         <f xml:space="preserve"> 9964630 * 1000000</f>
         <v>9964630000000</v>
       </c>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3" t="s">
+      <c r="K20" s="30"/>
+      <c r="L20" s="30" t="s">
         <v>847</v>
       </c>
-      <c r="M20" s="3" t="s">
+      <c r="M20" s="30" t="s">
         <v>848</v>
       </c>
-      <c r="N20" s="3" t="s">
+      <c r="N20" s="30" t="s">
         <v>849</v>
       </c>
-      <c r="O20" s="3" t="s">
+      <c r="O20" s="30" t="s">
         <v>850</v>
       </c>
-      <c r="P20" s="3" t="s">
+      <c r="P20" s="30" t="s">
         <v>851</v>
       </c>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="11" t="s">
+      <c r="Q20" s="30"/>
+      <c r="R20" s="32" t="s">
         <v>852</v>
       </c>
-      <c r="S20" s="11" t="s">
+      <c r="S20" s="32" t="s">
         <v>853</v>
       </c>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
-      <c r="W20" s="10">
+      <c r="T20" s="30"/>
+      <c r="U20" s="30"/>
+      <c r="V20" s="30"/>
+      <c r="W20" s="31">
         <f>IF( J20="s.i", "s.i", IF(ISBLANK(J20),"Actualizando información",IFERROR(J20 / VLOOKUP(A20,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>7792810158997.2441</v>
       </c>
-    </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+      <c r="X20" s="33" t="s">
+        <v>2023</v>
+      </c>
+      <c r="Y20" s="33" t="s">
+        <v>2024</v>
+      </c>
+      <c r="Z20" s="33" t="s">
+        <v>2025</v>
+      </c>
+      <c r="AA20" s="33" t="s">
+        <v>2026</v>
+      </c>
+      <c r="AB20" s="33" t="s">
+        <v>2027</v>
+      </c>
+      <c r="AC20" s="30" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AD20" s="33" t="s">
+        <v>2029</v>
+      </c>
+      <c r="AE20" s="33" t="s">
+        <v>2030</v>
+      </c>
+      <c r="AF20" s="33" t="s">
+        <v>2031</v>
+      </c>
+      <c r="AG20" s="33" t="s">
+        <v>2032</v>
+      </c>
+      <c r="AH20" s="33" t="s">
+        <v>2033</v>
+      </c>
+      <c r="AI20" s="33" t="s">
+        <v>2034</v>
+      </c>
+      <c r="AJ20" s="33" t="s">
+        <v>2038</v>
+      </c>
+      <c r="AK20" s="33" t="s">
+        <v>2037</v>
+      </c>
+      <c r="AL20" s="33" t="s">
+        <v>2036</v>
+      </c>
+      <c r="AM20" s="33" t="s">
+        <v>2035</v>
+      </c>
+      <c r="AN20" s="33" t="s">
+        <v>2042</v>
+      </c>
+      <c r="AO20" s="33" t="s">
+        <v>2043</v>
+      </c>
+      <c r="AP20" s="33" t="s">
+        <v>2044</v>
+      </c>
+      <c r="AQ20" s="33" t="s">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="21" spans="1:43" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="14">
         <v>2019</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="3" t="s">
+      <c r="C21" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" s="14" t="s">
         <v>724</v>
       </c>
-      <c r="H21" s="12">
+      <c r="H21" s="34">
         <v>1985</v>
       </c>
-      <c r="I21" s="13"/>
-      <c r="J21" s="10">
+      <c r="I21" s="35"/>
+      <c r="J21" s="36">
         <v>68399379</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="K21" s="14" t="s">
         <v>1044</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="L21" s="14" t="s">
         <v>730</v>
       </c>
-      <c r="M21" s="3" t="s">
+      <c r="M21" s="14" t="s">
         <v>731</v>
       </c>
-      <c r="N21" s="3" t="s">
+      <c r="N21" s="14" t="s">
         <v>732</v>
       </c>
-      <c r="O21" s="3" t="s">
+      <c r="O21" s="14" t="s">
         <v>733</v>
       </c>
-      <c r="P21" s="3" t="s">
+      <c r="P21" s="14" t="s">
         <v>734</v>
       </c>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="11" t="s">
-        <v>740</v>
-      </c>
-      <c r="S21" s="11" t="s">
-        <v>741</v>
-      </c>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
-      <c r="V21" s="3"/>
-      <c r="W21" s="10">
+      <c r="Q21" s="14"/>
+      <c r="R21" s="37" t="s">
+        <v>2046</v>
+      </c>
+      <c r="S21" s="37" t="s">
+        <v>2047</v>
+      </c>
+      <c r="T21" s="14"/>
+      <c r="U21" s="14"/>
+      <c r="V21" s="14"/>
+      <c r="W21" s="36">
         <f>IF( J21="s.i", "s.i", IF(ISBLANK(J21),"Actualizando información",IFERROR(J21 / VLOOKUP(A21,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>53491537.120826639</v>
       </c>
-    </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="X21" s="38" t="s">
+        <v>2006</v>
+      </c>
+      <c r="Y21" s="38" t="s">
+        <v>2007</v>
+      </c>
+      <c r="Z21" s="38" t="s">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>2019</v>
       </c>
@@ -9234,7 +9982,7 @@
         <v>6960219337.3035898</v>
       </c>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>2019</v>
       </c>
@@ -9299,7 +10047,7 @@
         <v>8645512886.3872395</v>
       </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>2019</v>
       </c>
@@ -9329,7 +10077,7 @@
         <v>3348243</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>869</v>
@@ -9365,7 +10113,7 @@
         <v>2618483.7836619532</v>
       </c>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>2019</v>
       </c>
@@ -9396,7 +10144,7 @@
         <v>18149000000</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>878</v>
+        <v>2196</v>
       </c>
       <c r="L25" s="3" t="s">
         <v>877</v>
@@ -9432,7 +10180,7 @@
         <v>14193373118.283466</v>
       </c>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>2019</v>
       </c>
@@ -9497,7 +10245,7 @@
         <v>14780690502.813242</v>
       </c>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>2019</v>
       </c>
@@ -9527,7 +10275,7 @@
         <v>50263613</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>939</v>
@@ -9563,7 +10311,7 @@
         <v>39308513.61408361</v>
       </c>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>2019</v>
       </c>
@@ -9625,7 +10373,7 @@
         <v>53491537.120826639</v>
       </c>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>2019</v>
       </c>
@@ -9688,7 +10436,7 @@
         <v>4785346306.1753559</v>
       </c>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>2019</v>
       </c>
@@ -9753,7 +10501,7 @@
         <v>6038185786.8900023</v>
       </c>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>2019</v>
       </c>
@@ -9784,7 +10532,7 @@
         <v>79784000000</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="L31" s="3" t="s">
         <v>966</v>
@@ -9816,7 +10564,7 @@
         <v>62394847146.902206</v>
       </c>
     </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>2019</v>
       </c>
@@ -9910,7 +10658,7 @@
         <v>7150999000000</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>982</v>
@@ -10159,7 +10907,7 @@
         <v>40949000000</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="L37" s="3" t="s">
         <v>824</v>
@@ -10226,7 +10974,7 @@
         <v>143807000000</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="L38" s="3" t="s">
         <v>832</v>
@@ -10290,7 +11038,7 @@
         <v>7036128</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="L39" s="3" t="s">
         <v>746</v>
@@ -10352,7 +11100,7 @@
         <v>7036128</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="L40" s="3" t="s">
         <v>746</v>
@@ -10472,7 +11220,7 @@
         <v>28402000000</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>754</v>
@@ -10537,7 +11285,7 @@
         <v>70930000000</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>839</v>
@@ -10856,7 +11604,7 @@
         <v>13140000000</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>776</v>
@@ -10919,7 +11667,7 @@
         <v>13140000000</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>776</v>
@@ -10982,7 +11730,7 @@
         <v>13140000000</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="L50" s="3" t="s">
         <v>776</v>
@@ -11173,7 +11921,7 @@
         <v>4983191000</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="L53" s="3" t="s">
         <v>800</v>
@@ -11429,7 +12177,7 @@
         <v>13058655000000</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>1017</v>
@@ -11494,7 +12242,7 @@
         <v>8868820000</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>1138</v>
@@ -11557,7 +12305,7 @@
         <v>16848165000</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>1156</v>
@@ -11622,7 +12370,7 @@
         <v>90298449000</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="L60" s="3" t="s">
         <v>1166</v>
@@ -11689,7 +12437,7 @@
         <v>90298449000</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="L61" s="3" t="s">
         <v>1166</v>
@@ -11825,7 +12573,7 @@
         <v>27041864000000</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="L63" s="3" t="s">
         <v>1186</v>
@@ -11894,7 +12642,7 @@
         <v>20334675000000</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="L64" s="3" t="s">
         <v>1020</v>
@@ -11961,7 +12709,7 @@
         <v>57390000000</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="L65" s="3" t="s">
         <v>1193</v>
@@ -12095,7 +12843,7 @@
         <v>8332000000</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="L67" s="3" t="s">
         <v>1204</v>
@@ -12162,7 +12910,7 @@
         <v>12792579000</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="L68" s="3" t="s">
         <v>1212</v>
@@ -12229,7 +12977,7 @@
         <v>12814000000</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="L69" s="3" t="s">
         <v>1225</v>
@@ -12296,7 +13044,7 @@
         <v>6577906000000</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="L70" s="3" t="s">
         <v>1023</v>
@@ -12363,7 +13111,7 @@
         <v>9208672000000</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="L71" s="3" t="s">
         <v>1029</v>
@@ -12430,7 +13178,7 @@
         <v>8240855000000</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="L72" s="3" t="s">
         <v>1240</v>
@@ -12497,7 +13245,7 @@
         <v>3679766000000</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="L73" s="3" t="s">
         <v>1130</v>
@@ -12564,7 +13312,7 @@
         <v>17015612000000</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="L74" s="3" t="s">
         <v>1250</v>
@@ -12629,7 +13377,7 @@
         <v>26622592000000</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="L75" s="3" t="s">
         <v>1258</v>
@@ -12694,7 +13442,7 @@
         <v>1261000000</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="L76" s="3" t="s">
         <v>1230</v>
@@ -12761,7 +13509,7 @@
         <v>38171814000000</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="L77" s="3" t="s">
         <v>1266</v>
@@ -12830,7 +13578,7 @@
         <v>38171814000000</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="L78" s="3" t="s">
         <v>1266</v>
@@ -12897,7 +13645,7 @@
         <v>11502842000000</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="L79" s="3" t="s">
         <v>1278</v>
@@ -13025,7 +13773,7 @@
         <v>246302903000</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="L81" s="3" t="s">
         <v>1295</v>
@@ -13094,7 +13842,7 @@
         <v>33740927000</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="L82" s="3" t="s">
         <v>1338</v>
@@ -13161,7 +13909,7 @@
         <v>33740927000</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>1338</v>
@@ -13228,7 +13976,7 @@
         <v>9170900000</v>
       </c>
       <c r="K84" s="3" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="L84" s="3" t="s">
         <v>1345</v>
@@ -13291,7 +14039,7 @@
         <v>57221053000</v>
       </c>
       <c r="K85" s="3" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="L85" s="3" t="s">
         <v>1351</v>
@@ -13482,7 +14230,7 @@
         <v>20900000000</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="L88" s="3" t="s">
         <v>1057</v>
@@ -13672,7 +14420,7 @@
         <v>220144578000</v>
       </c>
       <c r="K91" s="3" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>999</v>
@@ -13735,7 +14483,7 @@
         <v>23091000000</v>
       </c>
       <c r="K92" s="3" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="L92" s="3" t="s">
         <v>1078</v>
@@ -13798,10 +14546,10 @@
         <v>6390025000</v>
       </c>
       <c r="K93" s="3" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="L93" s="3" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="M93" s="3" t="s">
         <v>1084</v>
@@ -13925,7 +14673,7 @@
         <v>23091000000</v>
       </c>
       <c r="K95" s="3" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="L95" s="3" t="s">
         <v>1078</v>
@@ -14118,7 +14866,7 @@
         <v>4899869000000000</v>
       </c>
       <c r="K98" s="3" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="L98" s="3" t="s">
         <v>1006</v>
@@ -14248,7 +14996,7 @@
         <v>33740927000</v>
       </c>
       <c r="K100" s="3" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>1338</v>
@@ -14313,7 +15061,7 @@
         <v>33740927000</v>
       </c>
       <c r="K101" s="3" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>1338</v>
@@ -14378,7 +15126,7 @@
         <v>33740927000</v>
       </c>
       <c r="K102" s="3" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="L102" s="3" t="s">
         <v>1338</v>
@@ -14443,7 +15191,7 @@
         <v>33740927000</v>
       </c>
       <c r="K103" s="3" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="L103" s="3" t="s">
         <v>1338</v>
@@ -14630,7 +15378,9 @@
         <f xml:space="preserve"> 7301 * 1000000</f>
         <v>7301000000</v>
       </c>
-      <c r="K106" s="3"/>
+      <c r="K106" s="3" t="s">
+        <v>2173</v>
+      </c>
       <c r="L106" s="3" t="s">
         <v>1118</v>
       </c>
@@ -14684,27 +15434,48 @@
       <c r="F107" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="G107" s="3"/>
-      <c r="H107" s="13"/>
+      <c r="G107" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="H107" s="13">
+        <v>1967</v>
+      </c>
       <c r="I107" s="13"/>
-      <c r="J107" s="10"/>
+      <c r="J107" s="10">
+        <f xml:space="preserve"> 127596471 * 1000</f>
+        <v>127596471000</v>
+      </c>
       <c r="K107" s="3"/>
-      <c r="L107" s="3"/>
-      <c r="M107" s="3"/>
-      <c r="N107" s="3"/>
-      <c r="O107" s="3"/>
-      <c r="P107" s="3"/>
+      <c r="L107" s="3" t="s">
+        <v>2050</v>
+      </c>
+      <c r="M107" s="3" t="s">
+        <v>2051</v>
+      </c>
+      <c r="N107" s="3" t="s">
+        <v>2052</v>
+      </c>
+      <c r="O107" s="3" t="s">
+        <v>2053</v>
+      </c>
+      <c r="P107" s="3" t="s">
+        <v>2054</v>
+      </c>
       <c r="Q107" s="3" t="s">
         <v>736</v>
       </c>
-      <c r="R107" s="3"/>
-      <c r="S107" s="3"/>
+      <c r="R107" s="11" t="s">
+        <v>2048</v>
+      </c>
+      <c r="S107" s="11" t="s">
+        <v>2049</v>
+      </c>
       <c r="T107" s="3"/>
       <c r="U107" s="3"/>
       <c r="V107" s="3"/>
-      <c r="W107" s="10" t="str">
+      <c r="W107" s="10">
         <f>IF( J107="s.i", "s.i", IF(ISBLANK(J107),"Actualizando información",IFERROR(J107 / VLOOKUP(A107,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
-        <v>Actualizando información</v>
+        <v>114794104040.638</v>
       </c>
     </row>
     <row r="108" spans="1:23" x14ac:dyDescent="0.25">
@@ -14726,25 +15497,53 @@
       <c r="F108" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="G108" s="3"/>
-      <c r="H108" s="13"/>
-      <c r="I108" s="13"/>
-      <c r="J108" s="10"/>
-      <c r="K108" s="3"/>
-      <c r="L108" s="3"/>
-      <c r="M108" s="3"/>
-      <c r="N108" s="3"/>
-      <c r="O108" s="3"/>
-      <c r="P108" s="3"/>
+      <c r="G108" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="H108" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="I108" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="J108" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="K108" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="L108" s="3" t="s">
+        <v>2059</v>
+      </c>
+      <c r="M108" s="3" t="s">
+        <v>2060</v>
+      </c>
+      <c r="N108" s="3" t="s">
+        <v>2061</v>
+      </c>
+      <c r="O108" s="3" t="s">
+        <v>2062</v>
+      </c>
+      <c r="P108" s="3" t="s">
+        <v>2062</v>
+      </c>
       <c r="Q108" s="3"/>
-      <c r="R108" s="3"/>
-      <c r="S108" s="3"/>
-      <c r="T108" s="3"/>
+      <c r="R108" s="29" t="s">
+        <v>2055</v>
+      </c>
+      <c r="S108" s="11" t="s">
+        <v>2056</v>
+      </c>
+      <c r="T108" s="11" t="s">
+        <v>2057</v>
+      </c>
       <c r="U108" s="3"/>
-      <c r="V108" s="3"/>
+      <c r="V108" s="3" t="s">
+        <v>2058</v>
+      </c>
       <c r="W108" s="10" t="str">
         <f>IF( J108="s.i", "s.i", IF(ISBLANK(J108),"Actualizando información",IFERROR(J108 / VLOOKUP(A108,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
-        <v>Actualizando información</v>
+        <v>s.i</v>
       </c>
     </row>
     <row r="109" spans="1:23" x14ac:dyDescent="0.25">
@@ -14766,25 +15565,47 @@
       <c r="F109" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="G109" s="3"/>
-      <c r="H109" s="13"/>
-      <c r="I109" s="13"/>
-      <c r="J109" s="10"/>
+      <c r="G109" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="H109" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="I109" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="J109" s="10">
+        <v>16815766000</v>
+      </c>
       <c r="K109" s="3"/>
-      <c r="L109" s="3"/>
-      <c r="M109" s="3"/>
-      <c r="N109" s="3"/>
-      <c r="O109" s="3"/>
-      <c r="P109" s="3"/>
+      <c r="L109" s="3" t="s">
+        <v>2065</v>
+      </c>
+      <c r="M109" s="3" t="s">
+        <v>2069</v>
+      </c>
+      <c r="N109" s="3" t="s">
+        <v>2066</v>
+      </c>
+      <c r="O109" s="3" t="s">
+        <v>2067</v>
+      </c>
+      <c r="P109" s="3" t="s">
+        <v>2068</v>
+      </c>
       <c r="Q109" s="3"/>
-      <c r="R109" s="3"/>
-      <c r="S109" s="3"/>
+      <c r="R109" s="29" t="s">
+        <v>2063</v>
+      </c>
+      <c r="S109" s="29" t="s">
+        <v>2064</v>
+      </c>
       <c r="T109" s="3"/>
       <c r="U109" s="3"/>
       <c r="V109" s="3"/>
-      <c r="W109" s="10" t="str">
+      <c r="W109" s="10">
         <f>IF( J109="s.i", "s.i", IF(ISBLANK(J109),"Actualizando información",IFERROR(J109 / VLOOKUP(A109,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
-        <v>Actualizando información</v>
+        <v>15128559407.626745</v>
       </c>
     </row>
     <row r="110" spans="1:23" x14ac:dyDescent="0.25">
@@ -14806,25 +15627,48 @@
       <c r="F110" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="G110" s="3"/>
-      <c r="H110" s="13"/>
+      <c r="G110" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="H110" s="13">
+        <v>1979</v>
+      </c>
       <c r="I110" s="13"/>
-      <c r="J110" s="10"/>
+      <c r="J110" s="10">
+        <f xml:space="preserve"> 3998919 * 1000</f>
+        <v>3998919000</v>
+      </c>
       <c r="K110" s="3"/>
-      <c r="L110" s="3"/>
-      <c r="M110" s="3"/>
-      <c r="N110" s="3"/>
-      <c r="O110" s="3"/>
-      <c r="P110" s="3"/>
+      <c r="L110" s="3" t="s">
+        <v>2073</v>
+      </c>
+      <c r="M110" s="3" t="s">
+        <v>2074</v>
+      </c>
+      <c r="N110" s="3" t="s">
+        <v>2075</v>
+      </c>
+      <c r="O110" s="3" t="s">
+        <v>2076</v>
+      </c>
+      <c r="P110" s="3" t="s">
+        <v>2077</v>
+      </c>
       <c r="Q110" s="3"/>
-      <c r="R110" s="3"/>
-      <c r="S110" s="3"/>
-      <c r="T110" s="3"/>
+      <c r="R110" s="11" t="s">
+        <v>2070</v>
+      </c>
+      <c r="S110" s="11" t="s">
+        <v>2071</v>
+      </c>
+      <c r="T110" s="11" t="s">
+        <v>2072</v>
+      </c>
       <c r="U110" s="3"/>
       <c r="V110" s="3"/>
-      <c r="W110" s="10" t="str">
+      <c r="W110" s="10">
         <f>IF( J110="s.i", "s.i", IF(ISBLANK(J110),"Actualizando información",IFERROR(J110 / VLOOKUP(A110,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
-        <v>Actualizando información</v>
+        <v>3597688244.3408961</v>
       </c>
     </row>
     <row r="111" spans="1:23" x14ac:dyDescent="0.25">
@@ -14846,25 +15690,48 @@
       <c r="F111" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="G111" s="3"/>
-      <c r="H111" s="13"/>
+      <c r="G111" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="H111" s="13">
+        <v>1964</v>
+      </c>
       <c r="I111" s="13"/>
-      <c r="J111" s="10"/>
+      <c r="J111" s="10">
+        <f xml:space="preserve"> 70756 * 1000000</f>
+        <v>70756000000</v>
+      </c>
       <c r="K111" s="3"/>
-      <c r="L111" s="3"/>
-      <c r="M111" s="3"/>
-      <c r="N111" s="3"/>
-      <c r="O111" s="3"/>
-      <c r="P111" s="3"/>
+      <c r="L111" s="3" t="s">
+        <v>2081</v>
+      </c>
+      <c r="M111" s="3" t="s">
+        <v>2082</v>
+      </c>
+      <c r="N111" s="3" t="s">
+        <v>2083</v>
+      </c>
+      <c r="O111" s="3" t="s">
+        <v>2084</v>
+      </c>
+      <c r="P111" s="3" t="s">
+        <v>2085</v>
+      </c>
       <c r="Q111" s="3"/>
-      <c r="R111" s="3"/>
-      <c r="S111" s="3"/>
-      <c r="T111" s="3"/>
+      <c r="R111" s="11" t="s">
+        <v>2078</v>
+      </c>
+      <c r="S111" s="11" t="s">
+        <v>2079</v>
+      </c>
+      <c r="T111" s="29" t="s">
+        <v>2080</v>
+      </c>
       <c r="U111" s="3"/>
       <c r="V111" s="3"/>
-      <c r="W111" s="10" t="str">
+      <c r="W111" s="10">
         <f>IF( J111="s.i", "s.i", IF(ISBLANK(J111),"Actualizando información",IFERROR(J111 / VLOOKUP(A111,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
-        <v>Actualizando información</v>
+        <v>63656710580.180405</v>
       </c>
     </row>
     <row r="112" spans="1:23" x14ac:dyDescent="0.25">
@@ -14886,27 +15753,52 @@
       <c r="F112" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="G112" s="3"/>
-      <c r="H112" s="13"/>
+      <c r="G112" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="H112" s="13">
+        <v>2000</v>
+      </c>
       <c r="I112" s="13"/>
-      <c r="J112" s="10"/>
-      <c r="K112" s="3"/>
-      <c r="L112" s="3"/>
-      <c r="M112" s="3"/>
-      <c r="N112" s="3"/>
-      <c r="O112" s="3"/>
-      <c r="P112" s="3"/>
+      <c r="J112" s="10">
+        <f xml:space="preserve"> 4475936  * 1000</f>
+        <v>4475936000</v>
+      </c>
+      <c r="K112" s="3" t="s">
+        <v>2094</v>
+      </c>
+      <c r="L112" s="3" t="s">
+        <v>2089</v>
+      </c>
+      <c r="M112" s="3" t="s">
+        <v>2093</v>
+      </c>
+      <c r="N112" s="3" t="s">
+        <v>2090</v>
+      </c>
+      <c r="O112" s="3" t="s">
+        <v>2091</v>
+      </c>
+      <c r="P112" s="3" t="s">
+        <v>2092</v>
+      </c>
       <c r="Q112" s="3"/>
-      <c r="R112" s="3"/>
-      <c r="S112" s="3"/>
-      <c r="T112" s="3"/>
+      <c r="R112" s="11" t="s">
+        <v>2086</v>
+      </c>
+      <c r="S112" s="11" t="s">
+        <v>2087</v>
+      </c>
+      <c r="T112" s="11" t="s">
+        <v>2088</v>
+      </c>
       <c r="U112" s="3" t="s">
         <v>168</v>
       </c>
       <c r="V112" s="3"/>
-      <c r="W112" s="10" t="str">
+      <c r="W112" s="10">
         <f>IF( J112="s.i", "s.i", IF(ISBLANK(J112),"Actualizando información",IFERROR(J112 / VLOOKUP(A112,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
-        <v>Actualizando información</v>
+        <v>4026843836.9524899</v>
       </c>
     </row>
     <row r="113" spans="1:23" x14ac:dyDescent="0.25">
@@ -14928,25 +15820,54 @@
       <c r="F113" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="G113" s="3"/>
-      <c r="H113" s="13"/>
+      <c r="G113" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="H113" s="13">
+        <v>2009</v>
+      </c>
       <c r="I113" s="13"/>
-      <c r="J113" s="10"/>
-      <c r="K113" s="3"/>
-      <c r="L113" s="3"/>
-      <c r="M113" s="3"/>
-      <c r="N113" s="3"/>
-      <c r="O113" s="3"/>
-      <c r="P113" s="3"/>
-      <c r="Q113" s="3"/>
-      <c r="R113" s="3"/>
-      <c r="S113" s="3"/>
-      <c r="T113" s="3"/>
-      <c r="U113" s="3"/>
+      <c r="J113" s="10">
+        <f xml:space="preserve"> (13851853 + 17879975) * 1000</f>
+        <v>31731828000</v>
+      </c>
+      <c r="K113" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="L113" s="3" t="s">
+        <v>2099</v>
+      </c>
+      <c r="M113" s="3" t="s">
+        <v>2102</v>
+      </c>
+      <c r="N113" s="3" t="s">
+        <v>2100</v>
+      </c>
+      <c r="O113" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="P113" s="3" t="s">
+        <v>2103</v>
+      </c>
+      <c r="Q113" s="3" t="s">
+        <v>2098</v>
+      </c>
+      <c r="R113" s="11" t="s">
+        <v>2095</v>
+      </c>
+      <c r="S113" s="11" t="s">
+        <v>2096</v>
+      </c>
+      <c r="T113" s="11" t="s">
+        <v>2097</v>
+      </c>
+      <c r="U113" s="3" t="s">
+        <v>2114</v>
+      </c>
       <c r="V113" s="3"/>
-      <c r="W113" s="10" t="str">
+      <c r="W113" s="10">
         <f>IF( J113="s.i", "s.i", IF(ISBLANK(J113),"Actualizando información",IFERROR(J113 / VLOOKUP(A113,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
-        <v>Actualizando información</v>
+        <v>28548021244.503151</v>
       </c>
     </row>
     <row r="114" spans="1:23" x14ac:dyDescent="0.25">
@@ -14968,25 +15889,54 @@
       <c r="F114" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="G114" s="3"/>
-      <c r="H114" s="13"/>
+      <c r="G114" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="H114" s="13">
+        <v>2009</v>
+      </c>
       <c r="I114" s="13"/>
-      <c r="J114" s="10"/>
-      <c r="K114" s="3"/>
-      <c r="L114" s="3"/>
-      <c r="M114" s="3"/>
-      <c r="N114" s="3"/>
-      <c r="O114" s="3"/>
-      <c r="P114" s="3"/>
-      <c r="Q114" s="3"/>
-      <c r="R114" s="3"/>
-      <c r="S114" s="3"/>
-      <c r="T114" s="3"/>
-      <c r="U114" s="3"/>
+      <c r="J114" s="10">
+        <f xml:space="preserve"> (13851853 ) * 1000</f>
+        <v>13851853000</v>
+      </c>
+      <c r="K114" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="L114" s="3" t="s">
+        <v>2107</v>
+      </c>
+      <c r="M114" s="3" t="s">
+        <v>2108</v>
+      </c>
+      <c r="N114" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="O114" s="3" t="s">
+        <v>2109</v>
+      </c>
+      <c r="P114" s="3" t="s">
+        <v>2110</v>
+      </c>
+      <c r="Q114" s="3" t="s">
+        <v>2098</v>
+      </c>
+      <c r="R114" s="11" t="s">
+        <v>2104</v>
+      </c>
+      <c r="S114" s="11" t="s">
+        <v>2105</v>
+      </c>
+      <c r="T114" s="11" t="s">
+        <v>2106</v>
+      </c>
+      <c r="U114" s="3" t="s">
+        <v>2114</v>
+      </c>
       <c r="V114" s="3"/>
-      <c r="W114" s="10" t="str">
+      <c r="W114" s="10">
         <f>IF( J114="s.i", "s.i", IF(ISBLANK(J114),"Actualizando información",IFERROR(J114 / VLOOKUP(A114,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
-        <v>Actualizando información</v>
+        <v>12462030038.72751</v>
       </c>
     </row>
     <row r="115" spans="1:23" x14ac:dyDescent="0.25">
@@ -15008,25 +15958,48 @@
       <c r="F115" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="G115" s="3"/>
-      <c r="H115" s="13"/>
+      <c r="G115" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="H115" s="13">
+        <v>2014</v>
+      </c>
       <c r="I115" s="13"/>
-      <c r="J115" s="10"/>
+      <c r="J115" s="10">
+        <f xml:space="preserve"> 4093 * 1000000</f>
+        <v>4093000000</v>
+      </c>
       <c r="K115" s="3"/>
-      <c r="L115" s="3"/>
-      <c r="M115" s="3"/>
-      <c r="N115" s="3"/>
-      <c r="O115" s="3"/>
-      <c r="P115" s="3"/>
+      <c r="L115" s="3" t="s">
+        <v>2115</v>
+      </c>
+      <c r="M115" s="3" t="s">
+        <v>2116</v>
+      </c>
+      <c r="N115" s="3" t="s">
+        <v>2117</v>
+      </c>
+      <c r="O115" s="3" t="s">
+        <v>2118</v>
+      </c>
+      <c r="P115" s="3" t="s">
+        <v>2119</v>
+      </c>
       <c r="Q115" s="3"/>
-      <c r="R115" s="3"/>
-      <c r="S115" s="3"/>
-      <c r="T115" s="3"/>
+      <c r="R115" s="11" t="s">
+        <v>2111</v>
+      </c>
+      <c r="S115" s="11" t="s">
+        <v>2112</v>
+      </c>
+      <c r="T115" s="11" t="s">
+        <v>2113</v>
+      </c>
       <c r="U115" s="3"/>
       <c r="V115" s="3"/>
-      <c r="W115" s="10" t="str">
+      <c r="W115" s="10">
         <f>IF( J115="s.i", "s.i", IF(ISBLANK(J115),"Actualizando información",IFERROR(J115 / VLOOKUP(A115,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
-        <v>Actualizando información</v>
+        <v>3682329645.6085477</v>
       </c>
     </row>
     <row r="116" spans="1:23" x14ac:dyDescent="0.25">
@@ -15048,25 +16021,50 @@
       <c r="F116" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="G116" s="3"/>
-      <c r="H116" s="13"/>
+      <c r="G116" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="H116" s="13">
+        <v>2014</v>
+      </c>
       <c r="I116" s="13"/>
-      <c r="J116" s="10"/>
-      <c r="K116" s="3"/>
-      <c r="L116" s="3"/>
-      <c r="M116" s="3"/>
-      <c r="N116" s="3"/>
-      <c r="O116" s="3"/>
-      <c r="P116" s="3"/>
+      <c r="J116" s="10">
+        <f xml:space="preserve"> 99252 * 1000000</f>
+        <v>99252000000</v>
+      </c>
+      <c r="K116" s="3" t="s">
+        <v>2197</v>
+      </c>
+      <c r="L116" s="3" t="s">
+        <v>2123</v>
+      </c>
+      <c r="M116" s="3" t="s">
+        <v>2124</v>
+      </c>
+      <c r="N116" s="3" t="s">
+        <v>2125</v>
+      </c>
+      <c r="O116" s="3" t="s">
+        <v>2126</v>
+      </c>
+      <c r="P116" s="3" t="s">
+        <v>2127</v>
+      </c>
       <c r="Q116" s="3"/>
-      <c r="R116" s="3"/>
-      <c r="S116" s="3"/>
-      <c r="T116" s="3"/>
+      <c r="R116" s="11" t="s">
+        <v>2120</v>
+      </c>
+      <c r="S116" s="11" t="s">
+        <v>2121</v>
+      </c>
+      <c r="T116" s="11" t="s">
+        <v>2122</v>
+      </c>
       <c r="U116" s="3"/>
       <c r="V116" s="3"/>
-      <c r="W116" s="10" t="str">
+      <c r="W116" s="10">
         <f>IF( J116="s.i", "s.i", IF(ISBLANK(J116),"Actualizando información",IFERROR(J116 / VLOOKUP(A116,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
-        <v>Actualizando información</v>
+        <v>89293569994.121567</v>
       </c>
     </row>
     <row r="117" spans="1:23" x14ac:dyDescent="0.25">
@@ -15088,25 +16086,52 @@
       <c r="F117" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="G117" s="3"/>
-      <c r="H117" s="13"/>
+      <c r="G117" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="H117" s="13">
+        <v>2010</v>
+      </c>
       <c r="I117" s="13"/>
-      <c r="J117" s="10"/>
-      <c r="K117" s="3"/>
-      <c r="L117" s="3"/>
-      <c r="M117" s="3"/>
-      <c r="N117" s="3"/>
-      <c r="O117" s="3"/>
-      <c r="P117" s="3"/>
+      <c r="J117" s="10">
+        <f xml:space="preserve"> ( 17879975) * 1000</f>
+        <v>17879975000</v>
+      </c>
+      <c r="K117" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="L117" s="3" t="s">
+        <v>2107</v>
+      </c>
+      <c r="M117" s="3" t="s">
+        <v>2131</v>
+      </c>
+      <c r="N117" s="3" t="s">
+        <v>2103</v>
+      </c>
+      <c r="O117" s="3" t="s">
+        <v>2132</v>
+      </c>
+      <c r="P117" s="3" t="s">
+        <v>2133</v>
+      </c>
       <c r="Q117" s="3"/>
-      <c r="R117" s="3"/>
-      <c r="S117" s="3"/>
-      <c r="T117" s="3"/>
-      <c r="U117" s="3"/>
+      <c r="R117" s="11" t="s">
+        <v>2128</v>
+      </c>
+      <c r="S117" s="11" t="s">
+        <v>2129</v>
+      </c>
+      <c r="T117" s="11" t="s">
+        <v>2130</v>
+      </c>
+      <c r="U117" s="3" t="s">
+        <v>2114</v>
+      </c>
       <c r="V117" s="3"/>
-      <c r="W117" s="10" t="str">
+      <c r="W117" s="10">
         <f>IF( J117="s.i", "s.i", IF(ISBLANK(J117),"Actualizando información",IFERROR(J117 / VLOOKUP(A117,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
-        <v>Actualizando información</v>
+        <v>16085991205.77564</v>
       </c>
     </row>
     <row r="118" spans="1:23" x14ac:dyDescent="0.25">
@@ -15128,25 +16153,48 @@
       <c r="F118" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="G118" s="3"/>
-      <c r="H118" s="13"/>
+      <c r="G118" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="H118" s="13">
+        <v>2012</v>
+      </c>
       <c r="I118" s="13"/>
-      <c r="J118" s="10"/>
+      <c r="J118" s="10">
+        <f xml:space="preserve"> 6208 * 1000000</f>
+        <v>6208000000</v>
+      </c>
       <c r="K118" s="3"/>
-      <c r="L118" s="3"/>
-      <c r="M118" s="3"/>
-      <c r="N118" s="3"/>
-      <c r="O118" s="3"/>
-      <c r="P118" s="3"/>
+      <c r="L118" s="3" t="s">
+        <v>2137</v>
+      </c>
+      <c r="M118" s="3" t="s">
+        <v>2138</v>
+      </c>
+      <c r="N118" s="3" t="s">
+        <v>2139</v>
+      </c>
+      <c r="O118" s="3" t="s">
+        <v>2140</v>
+      </c>
+      <c r="P118" s="3" t="s">
+        <v>2141</v>
+      </c>
       <c r="Q118" s="3"/>
-      <c r="R118" s="3"/>
-      <c r="S118" s="3"/>
-      <c r="T118" s="3"/>
+      <c r="R118" s="11" t="s">
+        <v>2134</v>
+      </c>
+      <c r="S118" s="11" t="s">
+        <v>2135</v>
+      </c>
+      <c r="T118" s="11" t="s">
+        <v>2136</v>
+      </c>
       <c r="U118" s="3"/>
       <c r="V118" s="3"/>
-      <c r="W118" s="10" t="str">
+      <c r="W118" s="10">
         <f>IF( J118="s.i", "s.i", IF(ISBLANK(J118),"Actualizando información",IFERROR(J118 / VLOOKUP(A118,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
-        <v>Actualizando información</v>
+        <v>5585121534.3117189</v>
       </c>
     </row>
     <row r="119" spans="1:23" x14ac:dyDescent="0.25">
@@ -15168,25 +16216,50 @@
       <c r="F119" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="G119" s="3"/>
-      <c r="H119" s="13"/>
+      <c r="G119" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="H119" s="13">
+        <v>2011</v>
+      </c>
       <c r="I119" s="13"/>
-      <c r="J119" s="10"/>
-      <c r="K119" s="3"/>
-      <c r="L119" s="3"/>
-      <c r="M119" s="3"/>
-      <c r="N119" s="3"/>
-      <c r="O119" s="3"/>
-      <c r="P119" s="3"/>
+      <c r="J119" s="10">
+        <f xml:space="preserve"> 3793702 * 1000</f>
+        <v>3793702000</v>
+      </c>
+      <c r="K119" s="3" t="s">
+        <v>1792</v>
+      </c>
+      <c r="L119" s="3" t="s">
+        <v>2145</v>
+      </c>
+      <c r="M119" s="3" t="s">
+        <v>2146</v>
+      </c>
+      <c r="N119" s="3" t="s">
+        <v>2147</v>
+      </c>
+      <c r="O119" s="3" t="s">
+        <v>2148</v>
+      </c>
+      <c r="P119" s="3" t="s">
+        <v>2149</v>
+      </c>
       <c r="Q119" s="3"/>
-      <c r="R119" s="3"/>
-      <c r="S119" s="3"/>
-      <c r="T119" s="3"/>
+      <c r="R119" s="11" t="s">
+        <v>2142</v>
+      </c>
+      <c r="S119" s="11" t="s">
+        <v>2143</v>
+      </c>
+      <c r="T119" s="11" t="s">
+        <v>2144</v>
+      </c>
       <c r="U119" s="3"/>
       <c r="V119" s="3"/>
-      <c r="W119" s="10" t="str">
+      <c r="W119" s="10">
         <f>IF( J119="s.i", "s.i", IF(ISBLANK(J119),"Actualizando información",IFERROR(J119 / VLOOKUP(A119,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
-        <v>Actualizando información</v>
+        <v>3413061651.8945613</v>
       </c>
     </row>
     <row r="120" spans="1:23" x14ac:dyDescent="0.25">
@@ -15208,27 +16281,52 @@
       <c r="F120" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="G120" s="3"/>
-      <c r="H120" s="13"/>
+      <c r="G120" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="H120" s="13">
+        <v>2007</v>
+      </c>
       <c r="I120" s="13"/>
-      <c r="J120" s="10"/>
+      <c r="J120" s="10">
+        <f xml:space="preserve"> 4936 * 1000000</f>
+        <v>4936000000</v>
+      </c>
       <c r="K120" s="3" t="s">
-        <v>1768</v>
-      </c>
-      <c r="L120" s="3"/>
-      <c r="M120" s="3"/>
-      <c r="N120" s="3"/>
-      <c r="O120" s="3"/>
-      <c r="P120" s="3"/>
-      <c r="Q120" s="3"/>
-      <c r="R120" s="3"/>
-      <c r="S120" s="3"/>
-      <c r="T120" s="3"/>
+        <v>2154</v>
+      </c>
+      <c r="L120" s="3" t="s">
+        <v>2155</v>
+      </c>
+      <c r="M120" s="3" t="s">
+        <v>2153</v>
+      </c>
+      <c r="N120" s="3" t="s">
+        <v>2156</v>
+      </c>
+      <c r="O120" s="3" t="s">
+        <v>2158</v>
+      </c>
+      <c r="P120" s="3" t="s">
+        <v>2159</v>
+      </c>
+      <c r="Q120" s="3" t="s">
+        <v>2157</v>
+      </c>
+      <c r="R120" s="11" t="s">
+        <v>2150</v>
+      </c>
+      <c r="S120" s="11" t="s">
+        <v>2151</v>
+      </c>
+      <c r="T120" s="11" t="s">
+        <v>2152</v>
+      </c>
       <c r="U120" s="3"/>
       <c r="V120" s="3"/>
-      <c r="W120" s="10" t="str">
+      <c r="W120" s="10">
         <f>IF( J120="s.i", "s.i", IF(ISBLANK(J120),"Actualizando información",IFERROR(J120 / VLOOKUP(A120,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
-        <v>Actualizando información</v>
+        <v>4440747405.5030031</v>
       </c>
     </row>
     <row r="121" spans="1:23" x14ac:dyDescent="0.25">
@@ -15250,25 +16348,50 @@
       <c r="F121" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="G121" s="3"/>
-      <c r="H121" s="13"/>
+      <c r="G121" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="H121" s="13">
+        <v>2009</v>
+      </c>
       <c r="I121" s="13"/>
-      <c r="J121" s="10"/>
-      <c r="K121" s="3"/>
-      <c r="L121" s="3"/>
-      <c r="M121" s="3"/>
-      <c r="N121" s="3"/>
-      <c r="O121" s="3"/>
-      <c r="P121" s="3"/>
+      <c r="J121" s="10">
+        <f xml:space="preserve"> 4120000 * 1000</f>
+        <v>4120000000</v>
+      </c>
+      <c r="K121" s="3" t="s">
+        <v>2168</v>
+      </c>
+      <c r="L121" s="3" t="s">
+        <v>2163</v>
+      </c>
+      <c r="M121" s="3" t="s">
+        <v>2164</v>
+      </c>
+      <c r="N121" s="3" t="s">
+        <v>2165</v>
+      </c>
+      <c r="O121" s="3" t="s">
+        <v>2166</v>
+      </c>
+      <c r="P121" s="3" t="s">
+        <v>2167</v>
+      </c>
       <c r="Q121" s="3"/>
-      <c r="R121" s="3"/>
-      <c r="S121" s="3"/>
-      <c r="T121" s="3"/>
+      <c r="R121" s="11" t="s">
+        <v>2160</v>
+      </c>
+      <c r="S121" s="11" t="s">
+        <v>2161</v>
+      </c>
+      <c r="T121" s="11" t="s">
+        <v>2162</v>
+      </c>
       <c r="U121" s="3"/>
       <c r="V121" s="3"/>
-      <c r="W121" s="10" t="str">
+      <c r="W121" s="10">
         <f>IF( J121="s.i", "s.i", IF(ISBLANK(J121),"Actualizando información",IFERROR(J121 / VLOOKUP(A121,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
-        <v>Actualizando información</v>
+        <v>3706620605.8898649</v>
       </c>
     </row>
     <row r="122" spans="1:23" x14ac:dyDescent="0.25">
@@ -15290,25 +16413,50 @@
       <c r="F122" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="G122" s="3"/>
-      <c r="H122" s="13"/>
+      <c r="G122" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="H122" s="13">
+        <v>1964</v>
+      </c>
       <c r="I122" s="13"/>
-      <c r="J122" s="10"/>
-      <c r="K122" s="3"/>
-      <c r="L122" s="3"/>
-      <c r="M122" s="3"/>
-      <c r="N122" s="3"/>
-      <c r="O122" s="3"/>
-      <c r="P122" s="3"/>
+      <c r="J122" s="10">
+        <f xml:space="preserve"> 17169605 * 1000000</f>
+        <v>17169605000000</v>
+      </c>
+      <c r="K122" s="3" t="s">
+        <v>2173</v>
+      </c>
+      <c r="L122" s="3" t="s">
+        <v>2174</v>
+      </c>
+      <c r="M122" s="3" t="s">
+        <v>2175</v>
+      </c>
+      <c r="N122" s="3" t="s">
+        <v>2176</v>
+      </c>
+      <c r="O122" s="3" t="s">
+        <v>2177</v>
+      </c>
+      <c r="P122" s="3" t="s">
+        <v>2178</v>
+      </c>
       <c r="Q122" s="3"/>
-      <c r="R122" s="3"/>
-      <c r="S122" s="3"/>
-      <c r="T122" s="3"/>
+      <c r="R122" s="11" t="s">
+        <v>2170</v>
+      </c>
+      <c r="S122" s="11" t="s">
+        <v>2171</v>
+      </c>
+      <c r="T122" s="11" t="s">
+        <v>2172</v>
+      </c>
       <c r="U122" s="3"/>
       <c r="V122" s="3"/>
-      <c r="W122" s="10" t="str">
+      <c r="W122" s="10">
         <f>IF( J122="s.i", "s.i", IF(ISBLANK(J122),"Actualizando información",IFERROR(J122 / VLOOKUP(A122,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
-        <v>Actualizando información</v>
+        <v>15446896040774.188</v>
       </c>
     </row>
     <row r="123" spans="1:23" x14ac:dyDescent="0.25">
@@ -15330,25 +16478,50 @@
       <c r="F123" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="G123" s="3"/>
-      <c r="H123" s="13"/>
+      <c r="G123" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="H123" s="13">
+        <v>2007</v>
+      </c>
       <c r="I123" s="13"/>
-      <c r="J123" s="10"/>
-      <c r="K123" s="3"/>
-      <c r="L123" s="3"/>
-      <c r="M123" s="3"/>
-      <c r="N123" s="3"/>
-      <c r="O123" s="3"/>
-      <c r="P123" s="3"/>
+      <c r="J123" s="10">
+        <f xml:space="preserve"> 5861 * 1000000</f>
+        <v>5861000000</v>
+      </c>
+      <c r="K123" s="3" t="s">
+        <v>2187</v>
+      </c>
+      <c r="L123" s="3" t="s">
+        <v>2182</v>
+      </c>
+      <c r="M123" s="3" t="s">
+        <v>2183</v>
+      </c>
+      <c r="N123" s="3" t="s">
+        <v>2186</v>
+      </c>
+      <c r="O123" s="3" t="s">
+        <v>2185</v>
+      </c>
+      <c r="P123" s="3" t="s">
+        <v>2184</v>
+      </c>
       <c r="Q123" s="3"/>
-      <c r="R123" s="3"/>
-      <c r="S123" s="3"/>
-      <c r="T123" s="3"/>
+      <c r="R123" s="11" t="s">
+        <v>2179</v>
+      </c>
+      <c r="S123" s="11" t="s">
+        <v>2180</v>
+      </c>
+      <c r="T123" s="11" t="s">
+        <v>2181</v>
+      </c>
       <c r="U123" s="3"/>
       <c r="V123" s="3"/>
-      <c r="W123" s="10" t="str">
+      <c r="W123" s="10">
         <f>IF( J123="s.i", "s.i", IF(ISBLANK(J123),"Actualizando información",IFERROR(J123 / VLOOKUP(A123,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
-        <v>Actualizando información</v>
+        <v>5272937711.4370136</v>
       </c>
     </row>
     <row r="124" spans="1:23" x14ac:dyDescent="0.25">
@@ -15370,25 +16543,51 @@
       <c r="F124" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="G124" s="3"/>
-      <c r="H124" s="13"/>
+      <c r="G124" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="H124" s="13">
+        <v>1987</v>
+      </c>
       <c r="I124" s="13"/>
-      <c r="J124" s="10"/>
-      <c r="K124" s="3"/>
-      <c r="L124" s="3"/>
-      <c r="M124" s="3"/>
-      <c r="N124" s="3"/>
-      <c r="O124" s="3"/>
-      <c r="P124" s="3"/>
+      <c r="J124" s="10">
+        <v>34616336</v>
+      </c>
+      <c r="K124" s="3" t="s">
+        <v>2198</v>
+      </c>
+      <c r="L124" s="3" t="s">
+        <v>2191</v>
+      </c>
+      <c r="M124" s="3" t="s">
+        <v>2192</v>
+      </c>
+      <c r="N124" s="3" t="s">
+        <v>2193</v>
+      </c>
+      <c r="O124" s="3" t="s">
+        <v>2194</v>
+      </c>
+      <c r="P124" s="3" t="s">
+        <v>2195</v>
+      </c>
       <c r="Q124" s="3"/>
-      <c r="R124" s="3"/>
-      <c r="S124" s="3"/>
-      <c r="T124" s="3"/>
-      <c r="U124" s="3"/>
+      <c r="R124" s="11" t="s">
+        <v>2188</v>
+      </c>
+      <c r="S124" s="11" t="s">
+        <v>2189</v>
+      </c>
+      <c r="T124" s="11" t="s">
+        <v>2190</v>
+      </c>
+      <c r="U124" s="3" t="s">
+        <v>183</v>
+      </c>
       <c r="V124" s="3"/>
-      <c r="W124" s="10" t="str">
+      <c r="W124" s="10">
         <f>IF( J124="s.i", "s.i", IF(ISBLANK(J124),"Actualizando información",IFERROR(J124 / VLOOKUP(A124,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
-        <v>Actualizando información</v>
+        <v>31143112.698545422</v>
       </c>
     </row>
     <row r="125" spans="1:23" x14ac:dyDescent="0.25">
@@ -15410,25 +16609,48 @@
       <c r="F125" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="G125" s="3"/>
-      <c r="H125" s="13"/>
+      <c r="G125" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="H125" s="13">
+        <v>1970</v>
+      </c>
       <c r="I125" s="13"/>
-      <c r="J125" s="10"/>
+      <c r="J125" s="10">
+        <f xml:space="preserve"> 293866943 * 1000000</f>
+        <v>293866943000000</v>
+      </c>
       <c r="K125" s="3"/>
-      <c r="L125" s="3"/>
-      <c r="M125" s="3"/>
-      <c r="N125" s="3"/>
-      <c r="O125" s="3"/>
-      <c r="P125" s="3"/>
+      <c r="L125" s="3" t="s">
+        <v>2206</v>
+      </c>
+      <c r="M125" s="3" t="s">
+        <v>2207</v>
+      </c>
+      <c r="N125" s="3" t="s">
+        <v>2208</v>
+      </c>
+      <c r="O125" s="3" t="s">
+        <v>2209</v>
+      </c>
+      <c r="P125" s="3" t="s">
+        <v>2210</v>
+      </c>
       <c r="Q125" s="3"/>
-      <c r="R125" s="3"/>
-      <c r="S125" s="3"/>
-      <c r="T125" s="3"/>
+      <c r="R125" s="11" t="s">
+        <v>2203</v>
+      </c>
+      <c r="S125" s="11" t="s">
+        <v>2204</v>
+      </c>
+      <c r="T125" s="11" t="s">
+        <v>2205</v>
+      </c>
       <c r="U125" s="3"/>
       <c r="V125" s="3"/>
-      <c r="W125" s="10" t="str">
+      <c r="W125" s="10">
         <f>IF( J125="s.i", "s.i", IF(ISBLANK(J125),"Actualizando información",IFERROR(J125 / VLOOKUP(A125,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
-        <v>Actualizando información</v>
+        <v>264381860755743.28</v>
       </c>
     </row>
     <row r="126" spans="1:23" x14ac:dyDescent="0.25">
@@ -15523,7 +16745,7 @@
         <v>19217400000</v>
       </c>
       <c r="K127" s="3" t="s">
-        <v>1653</v>
+        <v>2199</v>
       </c>
       <c r="L127" s="3" t="s">
         <v>899</v>
@@ -15588,7 +16810,7 @@
         <v>19217400000</v>
       </c>
       <c r="K128" s="3" t="s">
-        <v>1653</v>
+        <v>2199</v>
       </c>
       <c r="L128" s="3" t="s">
         <v>899</v>
@@ -15653,7 +16875,7 @@
         <v>19217400000</v>
       </c>
       <c r="K129" s="3" t="s">
-        <v>1653</v>
+        <v>2199</v>
       </c>
       <c r="L129" s="3" t="s">
         <v>899</v>
@@ -15720,7 +16942,7 @@
         <v>19217400000</v>
       </c>
       <c r="K130" s="3" t="s">
-        <v>1653</v>
+        <v>2199</v>
       </c>
       <c r="L130" s="3" t="s">
         <v>899</v>
@@ -15848,7 +17070,7 @@
         <v>19217400000</v>
       </c>
       <c r="K132" s="3" t="s">
-        <v>1653</v>
+        <v>2199</v>
       </c>
       <c r="L132" s="3" t="s">
         <v>899</v>
@@ -15915,7 +17137,7 @@
         <v>19217400000</v>
       </c>
       <c r="K133" s="3" t="s">
-        <v>1653</v>
+        <v>2199</v>
       </c>
       <c r="L133" s="3" t="s">
         <v>899</v>
@@ -16348,7 +17570,7 @@
         <v>11549000000</v>
       </c>
       <c r="K140" s="3" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="L140" s="3" t="s">
         <v>1395</v>
@@ -16543,7 +17765,7 @@
         <v>34285000000</v>
       </c>
       <c r="K143" s="3" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="L143" s="3" t="s">
         <v>1401</v>
@@ -16608,7 +17830,7 @@
         <v>46130757000000</v>
       </c>
       <c r="K144" s="3" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="L144" s="3" t="s">
         <v>1408</v>
@@ -16667,7 +17889,7 @@
         <v>215848343000000</v>
       </c>
       <c r="K145" s="3" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="L145" s="3" t="s">
         <v>1412</v>
@@ -16969,7 +18191,7 @@
         <v>13838000000</v>
       </c>
       <c r="K150" s="3" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="L150" s="3" t="s">
         <v>1437</v>
@@ -17999,7 +19221,7 @@
         <v>624</v>
       </c>
       <c r="K175" s="3" t="s">
-        <v>1657</v>
+        <v>2200</v>
       </c>
       <c r="L175" s="3" t="s">
         <v>1444</v>
@@ -18060,7 +19282,7 @@
         <v>14262000000</v>
       </c>
       <c r="K176" s="3" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="L176" s="3" t="s">
         <v>1449</v>
@@ -18123,7 +19345,7 @@
         <v>6790000000</v>
       </c>
       <c r="K177" s="3" t="s">
-        <v>1653</v>
+        <v>2199</v>
       </c>
       <c r="L177" s="3" t="s">
         <v>1455</v>
@@ -18314,7 +19536,7 @@
         <v>3.5827751E+16</v>
       </c>
       <c r="K180" s="3" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="L180" s="3" t="s">
         <v>1475</v>
@@ -18379,7 +19601,7 @@
         <v>4047000000</v>
       </c>
       <c r="K181" s="3" t="s">
-        <v>1768</v>
+        <v>2154</v>
       </c>
       <c r="L181" s="3" t="s">
         <v>1482</v>
@@ -18682,7 +19904,9 @@
       <c r="J186" s="10" t="s">
         <v>624</v>
       </c>
-      <c r="K186" s="3"/>
+      <c r="K186" s="3" t="s">
+        <v>2197</v>
+      </c>
       <c r="L186" s="3" t="s">
         <v>1503</v>
       </c>
@@ -18747,7 +19971,7 @@
         <v>624</v>
       </c>
       <c r="K187" s="3" t="s">
-        <v>862</v>
+        <v>2201</v>
       </c>
       <c r="L187" s="3" t="s">
         <v>1509</v>
@@ -18811,7 +20035,7 @@
         <v>624</v>
       </c>
       <c r="K188" s="3" t="s">
-        <v>1650</v>
+        <v>2202</v>
       </c>
       <c r="L188" s="3" t="s">
         <v>1514</v>
@@ -18873,7 +20097,7 @@
         <v>624</v>
       </c>
       <c r="K189" s="3" t="s">
-        <v>1657</v>
+        <v>2200</v>
       </c>
       <c r="L189" s="3" t="s">
         <v>1518</v>
@@ -18999,7 +20223,7 @@
         <v>624</v>
       </c>
       <c r="K191" s="3" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="L191" s="3" t="s">
         <v>1528</v>
@@ -19184,7 +20408,7 @@
         <v>14778000000</v>
       </c>
       <c r="K194" s="3" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="L194" s="3" t="s">
         <v>1544</v>
@@ -19247,7 +20471,7 @@
         <v>14778000000</v>
       </c>
       <c r="K195" s="3" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="L195" s="3" t="s">
         <v>1544</v>
@@ -19310,7 +20534,7 @@
         <v>14778000000</v>
       </c>
       <c r="K196" s="3" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="L196" s="3" t="s">
         <v>1544</v>
@@ -19373,7 +20597,7 @@
         <v>14778000000</v>
       </c>
       <c r="K197" s="3" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="L197" s="3" t="s">
         <v>1544</v>
@@ -19436,7 +20660,7 @@
         <v>14778000000</v>
       </c>
       <c r="K198" s="3" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="L198" s="3" t="s">
         <v>1544</v>
@@ -19499,7 +20723,7 @@
         <v>14778000000</v>
       </c>
       <c r="K199" s="3" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="L199" s="3" t="s">
         <v>1544</v>
@@ -19562,7 +20786,7 @@
         <v>7097848000000</v>
       </c>
       <c r="K200" s="3" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="L200" s="3" t="s">
         <v>1550</v>
@@ -19627,7 +20851,7 @@
         <v>1370000000</v>
       </c>
       <c r="K201" s="3" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="L201" s="3" t="s">
         <v>1557</v>
@@ -21203,7 +22427,7 @@
         <v>141370509000000</v>
       </c>
       <c r="K237" s="3" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="L237" s="3" t="s">
         <v>1589</v>
@@ -21268,7 +22492,7 @@
         <v>141370509000000</v>
       </c>
       <c r="K238" s="3" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="L238" s="3" t="s">
         <v>1589</v>
@@ -21333,7 +22557,7 @@
         <v>141370509000000</v>
       </c>
       <c r="K239" s="3" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="L239" s="3" t="s">
         <v>1589</v>
@@ -21398,7 +22622,7 @@
         <v>141370509000000</v>
       </c>
       <c r="K240" s="3" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="L240" s="3" t="s">
         <v>1589</v>
@@ -21463,7 +22687,7 @@
         <v>141370509000000</v>
       </c>
       <c r="K241" s="3" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="L241" s="3" t="s">
         <v>1589</v>
@@ -21808,7 +23032,7 @@
         <v>141370509000000</v>
       </c>
       <c r="K249" s="3" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="L249" s="3" t="s">
         <v>1589</v>
@@ -21940,7 +23164,7 @@
         <v>624</v>
       </c>
       <c r="K251" s="3" t="s">
-        <v>1651</v>
+        <v>2169</v>
       </c>
       <c r="L251" s="3" t="s">
         <v>1600</v>
@@ -22646,7 +23870,7 @@
         <v>141370509000000</v>
       </c>
       <c r="K265" s="3" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="L265" s="3" t="s">
         <v>1589</v>
@@ -23890,7 +25114,9 @@
       <c r="H295" s="12"/>
       <c r="I295" s="13"/>
       <c r="J295" s="10"/>
-      <c r="K295" s="3"/>
+      <c r="K295" s="3" t="s">
+        <v>2197</v>
+      </c>
       <c r="L295" s="3"/>
       <c r="M295" s="3"/>
       <c r="N295" s="3"/>
@@ -24093,7 +25319,7 @@
       <c r="I300" s="13"/>
       <c r="J300" s="10"/>
       <c r="K300" s="3" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="L300" s="3"/>
       <c r="M300" s="3"/>
@@ -24184,7 +25410,7 @@
         <v>25388000000</v>
       </c>
       <c r="K302" s="3" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="L302" s="3" t="s">
         <v>913</v>
@@ -24941,7 +26167,9 @@
       <c r="H319" s="12"/>
       <c r="I319" s="13"/>
       <c r="J319" s="10"/>
-      <c r="K319" s="3"/>
+      <c r="K319" s="3" t="s">
+        <v>2187</v>
+      </c>
       <c r="L319" s="3"/>
       <c r="M319" s="3"/>
       <c r="N319" s="3"/>
@@ -24981,7 +26209,9 @@
       <c r="H320" s="12"/>
       <c r="I320" s="13"/>
       <c r="J320" s="10"/>
-      <c r="K320" s="3"/>
+      <c r="K320" s="3" t="s">
+        <v>2187</v>
+      </c>
       <c r="L320" s="3"/>
       <c r="M320" s="3"/>
       <c r="N320" s="3"/>
@@ -25061,7 +26291,9 @@
       <c r="H322" s="12"/>
       <c r="I322" s="13"/>
       <c r="J322" s="10"/>
-      <c r="K322" s="3"/>
+      <c r="K322" s="3" t="s">
+        <v>2173</v>
+      </c>
       <c r="L322" s="3"/>
       <c r="M322" s="3"/>
       <c r="N322" s="3"/>
@@ -25101,7 +26333,9 @@
       <c r="H323" s="12"/>
       <c r="I323" s="13"/>
       <c r="J323" s="10"/>
-      <c r="K323" s="3"/>
+      <c r="K323" s="3" t="s">
+        <v>2173</v>
+      </c>
       <c r="L323" s="3"/>
       <c r="M323" s="3"/>
       <c r="N323" s="3"/>
@@ -25141,7 +26375,9 @@
       <c r="H324" s="12"/>
       <c r="I324" s="13"/>
       <c r="J324" s="10"/>
-      <c r="K324" s="3"/>
+      <c r="K324" s="3" t="s">
+        <v>2173</v>
+      </c>
       <c r="L324" s="3"/>
       <c r="M324" s="3"/>
       <c r="N324" s="3"/>
@@ -25221,7 +26457,9 @@
       <c r="H326" s="12"/>
       <c r="I326" s="13"/>
       <c r="J326" s="10"/>
-      <c r="K326" s="3"/>
+      <c r="K326" s="3" t="s">
+        <v>2168</v>
+      </c>
       <c r="L326" s="3"/>
       <c r="M326" s="3"/>
       <c r="N326" s="3"/>
@@ -25261,7 +26499,9 @@
       <c r="H327" s="12"/>
       <c r="I327" s="13"/>
       <c r="J327" s="10"/>
-      <c r="K327" s="3"/>
+      <c r="K327" s="3" t="s">
+        <v>2168</v>
+      </c>
       <c r="L327" s="3"/>
       <c r="M327" s="3"/>
       <c r="N327" s="3"/>
@@ -25301,7 +26541,9 @@
       <c r="H328" s="12"/>
       <c r="I328" s="13"/>
       <c r="J328" s="10"/>
-      <c r="K328" s="3"/>
+      <c r="K328" s="3" t="s">
+        <v>2168</v>
+      </c>
       <c r="L328" s="3"/>
       <c r="M328" s="3"/>
       <c r="N328" s="3"/>
@@ -25341,7 +26583,9 @@
       <c r="H329" s="12"/>
       <c r="I329" s="13"/>
       <c r="J329" s="10"/>
-      <c r="K329" s="3"/>
+      <c r="K329" s="3" t="s">
+        <v>2168</v>
+      </c>
       <c r="L329" s="3"/>
       <c r="M329" s="3"/>
       <c r="N329" s="3"/>
@@ -25381,7 +26625,9 @@
       <c r="H330" s="12"/>
       <c r="I330" s="13"/>
       <c r="J330" s="10"/>
-      <c r="K330" s="3"/>
+      <c r="K330" s="3" t="s">
+        <v>2168</v>
+      </c>
       <c r="L330" s="3"/>
       <c r="M330" s="3"/>
       <c r="N330" s="3"/>
@@ -25421,7 +26667,9 @@
       <c r="H331" s="12"/>
       <c r="I331" s="13"/>
       <c r="J331" s="10"/>
-      <c r="K331" s="3"/>
+      <c r="K331" s="3" t="s">
+        <v>2168</v>
+      </c>
       <c r="L331" s="3"/>
       <c r="M331" s="3"/>
       <c r="N331" s="3"/>
@@ -25501,7 +26749,9 @@
       <c r="H333" s="12"/>
       <c r="I333" s="13"/>
       <c r="J333" s="10"/>
-      <c r="K333" s="3"/>
+      <c r="K333" s="3" t="s">
+        <v>2187</v>
+      </c>
       <c r="L333" s="3"/>
       <c r="M333" s="3"/>
       <c r="N333" s="3"/>
@@ -26021,7 +27271,9 @@
       <c r="H346" s="12"/>
       <c r="I346" s="13"/>
       <c r="J346" s="10"/>
-      <c r="K346" s="3"/>
+      <c r="K346" s="3" t="s">
+        <v>2197</v>
+      </c>
       <c r="L346" s="3"/>
       <c r="M346" s="3"/>
       <c r="N346" s="3"/>
@@ -26221,7 +27473,9 @@
       <c r="H351" s="12"/>
       <c r="I351" s="13"/>
       <c r="J351" s="10"/>
-      <c r="K351" s="3"/>
+      <c r="K351" s="3" t="s">
+        <v>2197</v>
+      </c>
       <c r="L351" s="3"/>
       <c r="M351" s="3"/>
       <c r="N351" s="3"/>
@@ -26421,7 +27675,9 @@
       <c r="H356" s="12"/>
       <c r="I356" s="13"/>
       <c r="J356" s="10"/>
-      <c r="K356" s="3"/>
+      <c r="K356" s="3" t="s">
+        <v>2197</v>
+      </c>
       <c r="L356" s="3"/>
       <c r="M356" s="3"/>
       <c r="N356" s="3"/>
@@ -26461,7 +27717,9 @@
       <c r="H357" s="12"/>
       <c r="I357" s="13"/>
       <c r="J357" s="10"/>
-      <c r="K357" s="3"/>
+      <c r="K357" s="3" t="s">
+        <v>2197</v>
+      </c>
       <c r="L357" s="3"/>
       <c r="M357" s="3"/>
       <c r="N357" s="3"/>
@@ -26501,7 +27759,9 @@
       <c r="H358" s="12"/>
       <c r="I358" s="13"/>
       <c r="J358" s="10"/>
-      <c r="K358" s="3"/>
+      <c r="K358" s="3" t="s">
+        <v>2197</v>
+      </c>
       <c r="L358" s="3"/>
       <c r="M358" s="3"/>
       <c r="N358" s="3"/>
@@ -26541,7 +27801,9 @@
       <c r="H359" s="12"/>
       <c r="I359" s="13"/>
       <c r="J359" s="10"/>
-      <c r="K359" s="3"/>
+      <c r="K359" s="3" t="s">
+        <v>2197</v>
+      </c>
       <c r="L359" s="3"/>
       <c r="M359" s="3"/>
       <c r="N359" s="3"/>
@@ -26621,7 +27883,9 @@
       <c r="H361" s="12"/>
       <c r="I361" s="13"/>
       <c r="J361" s="10"/>
-      <c r="K361" s="3"/>
+      <c r="K361" s="3" t="s">
+        <v>2197</v>
+      </c>
       <c r="L361" s="3"/>
       <c r="M361" s="3"/>
       <c r="N361" s="3"/>
@@ -26661,7 +27925,9 @@
       <c r="H362" s="12"/>
       <c r="I362" s="13"/>
       <c r="J362" s="10"/>
-      <c r="K362" s="3"/>
+      <c r="K362" s="3" t="s">
+        <v>2197</v>
+      </c>
       <c r="L362" s="3"/>
       <c r="M362" s="3"/>
       <c r="N362" s="3"/>
@@ -27101,7 +28367,9 @@
       <c r="H373" s="12"/>
       <c r="I373" s="13"/>
       <c r="J373" s="10"/>
-      <c r="K373" s="3"/>
+      <c r="K373" s="3" t="s">
+        <v>2197</v>
+      </c>
       <c r="L373" s="3"/>
       <c r="M373" s="3"/>
       <c r="N373" s="3"/>
@@ -27141,7 +28409,9 @@
       <c r="H374" s="12"/>
       <c r="I374" s="13"/>
       <c r="J374" s="10"/>
-      <c r="K374" s="3"/>
+      <c r="K374" s="3" t="s">
+        <v>2197</v>
+      </c>
       <c r="L374" s="3"/>
       <c r="M374" s="3"/>
       <c r="N374" s="3"/>
@@ -27704,7 +28974,7 @@
       <c r="I388" s="13"/>
       <c r="J388" s="10"/>
       <c r="K388" s="3" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="L388" s="3"/>
       <c r="M388" s="3"/>
@@ -31717,7 +32987,9 @@
       <c r="H488" s="12"/>
       <c r="I488" s="13"/>
       <c r="J488" s="10"/>
-      <c r="K488" s="3"/>
+      <c r="K488" s="3" t="s">
+        <v>2173</v>
+      </c>
       <c r="L488" s="3"/>
       <c r="M488" s="3"/>
       <c r="N488" s="3"/>
@@ -31959,7 +33231,9 @@
       <c r="H494" s="12"/>
       <c r="I494" s="13"/>
       <c r="J494" s="10"/>
-      <c r="K494" s="3"/>
+      <c r="K494" s="3" t="s">
+        <v>183</v>
+      </c>
       <c r="L494" s="3"/>
       <c r="M494" s="3"/>
       <c r="N494" s="3"/>
@@ -31969,7 +33243,9 @@
       <c r="R494" s="3"/>
       <c r="S494" s="3"/>
       <c r="T494" s="3"/>
-      <c r="U494" s="3"/>
+      <c r="U494" s="3" t="s">
+        <v>183</v>
+      </c>
       <c r="V494" s="3"/>
       <c r="W494" s="10" t="str">
         <f>IF( J494="s.i", "s.i", IF(ISBLANK(J494),"Actualizando información",IFERROR(J494 / VLOOKUP(A494,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
@@ -32759,7 +34035,9 @@
       <c r="H514" s="12"/>
       <c r="I514" s="13"/>
       <c r="J514" s="10"/>
-      <c r="K514" s="3"/>
+      <c r="K514" s="3" t="s">
+        <v>2168</v>
+      </c>
       <c r="L514" s="3"/>
       <c r="M514" s="3"/>
       <c r="N514" s="3"/>
@@ -33787,7 +35065,7 @@
       <c r="I539" s="13"/>
       <c r="J539" s="10"/>
       <c r="K539" s="3" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="L539" s="3"/>
       <c r="M539" s="3"/>
@@ -34435,7 +35713,7 @@
       <c r="I555" s="13"/>
       <c r="J555" s="10"/>
       <c r="K555" s="3" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="L555" s="3"/>
       <c r="M555" s="3"/>
@@ -35282,7 +36560,9 @@
       <c r="H576" s="12"/>
       <c r="I576" s="13"/>
       <c r="J576" s="10"/>
-      <c r="K576" s="3"/>
+      <c r="K576" s="3" t="s">
+        <v>2173</v>
+      </c>
       <c r="L576" s="3"/>
       <c r="M576" s="3"/>
       <c r="N576" s="3"/>
@@ -37149,179 +38429,234 @@
   <hyperlinks>
     <hyperlink ref="R19" r:id="rId1" xr:uid="{8BE2D469-4FC3-404D-88F5-CAE5385B1926}"/>
     <hyperlink ref="S19" r:id="rId2" xr:uid="{2D50CD1D-E81D-4C2D-9F09-A7A27F6B16D1}"/>
-    <hyperlink ref="R21" r:id="rId3" xr:uid="{63032BBF-33A3-4905-A09C-509EE20A95F3}"/>
-    <hyperlink ref="S21" r:id="rId4" xr:uid="{5FC6AC85-97CC-48C7-962A-2E0E8EFE730E}"/>
-    <hyperlink ref="R28" r:id="rId5" xr:uid="{341923EB-F8B8-4C95-B7AE-68509FA7D39E}"/>
-    <hyperlink ref="S28" r:id="rId6" xr:uid="{01DD653A-31CC-4BA9-A746-B5CE15ED0063}"/>
-    <hyperlink ref="R20" r:id="rId7" xr:uid="{2861B651-000E-429D-B868-F49DEC2212CD}"/>
-    <hyperlink ref="S20" r:id="rId8" xr:uid="{F9DFD4F9-2B5E-460F-AB53-E64E42196CCD}"/>
-    <hyperlink ref="R22" r:id="rId9" xr:uid="{F87218A3-9347-4483-B905-542D57F583F0}"/>
-    <hyperlink ref="S22" r:id="rId10" xr:uid="{436B500F-8B4E-4C6A-8B32-08726191DCE0}"/>
-    <hyperlink ref="T22" r:id="rId11" xr:uid="{85CA5F11-64FB-4DAB-8772-C5BC4D57872A}"/>
-    <hyperlink ref="R23" r:id="rId12" xr:uid="{8E38D38B-F508-446E-BF14-2D6FEBB8A9B3}"/>
-    <hyperlink ref="S23" r:id="rId13" xr:uid="{A39947EE-F457-4161-82D2-279E7AFA2834}"/>
-    <hyperlink ref="R24" r:id="rId14" xr:uid="{19FD4344-730E-450C-A678-CF48FA90925D}"/>
-    <hyperlink ref="S24" r:id="rId15" xr:uid="{522416D5-0EE8-4C02-A8C7-5C3CE5FA306B}"/>
-    <hyperlink ref="R25" r:id="rId16" xr:uid="{55A9217D-0519-402E-B2F0-62C4EDB8C7E5}"/>
-    <hyperlink ref="S25" r:id="rId17" xr:uid="{6BDDA874-5429-4054-AE5E-D929F7BDC091}"/>
-    <hyperlink ref="T25" r:id="rId18" xr:uid="{A3D727D9-E905-44DB-B879-5DAB73A44CEF}"/>
-    <hyperlink ref="R26" r:id="rId19" xr:uid="{6B06E0B2-9508-48FE-93A2-DA611B4EBB4C}"/>
-    <hyperlink ref="S26" r:id="rId20" xr:uid="{D213E51B-7430-413A-8C85-F1B558E70F0B}"/>
-    <hyperlink ref="R304" r:id="rId21" xr:uid="{74E8287E-9544-4ED4-9C76-33340E792470}"/>
-    <hyperlink ref="S304" r:id="rId22" xr:uid="{352B4A07-BA28-4050-BBE4-1D071DE74A79}"/>
-    <hyperlink ref="T304" r:id="rId23" xr:uid="{16AFFC03-1255-4725-B0AA-5A65405287CE}"/>
-    <hyperlink ref="R305" r:id="rId24" xr:uid="{B31ADB39-EFFD-4E63-A9AA-45741900E167}"/>
-    <hyperlink ref="S305" r:id="rId25" xr:uid="{E0B1FF2B-5906-46BA-82AE-47D8BE228B04}"/>
-    <hyperlink ref="T305" r:id="rId26" xr:uid="{E19E8649-2465-4CC1-A760-6C30678BD1B6}"/>
-    <hyperlink ref="R538" r:id="rId27" xr:uid="{48F0296A-3276-4B9E-89A6-BDF2BE29C7DE}"/>
-    <hyperlink ref="S538" r:id="rId28" xr:uid="{504C0FC3-4049-4774-A9DA-EA0E4D06ABB2}"/>
-    <hyperlink ref="R302" r:id="rId29" xr:uid="{F4C90C1B-0492-430D-83AF-FFFF1EEA257D}"/>
-    <hyperlink ref="S302" r:id="rId30" xr:uid="{68CEC8CE-CBAF-43EE-A4D3-BE7A163F3E98}"/>
-    <hyperlink ref="R27" r:id="rId31" xr:uid="{3FF68CB8-3CB6-4FE6-BEFC-B863F1057ABA}"/>
-    <hyperlink ref="S27" r:id="rId32" xr:uid="{6A51C13A-3FC6-40F8-98A0-5D19835F1DF9}"/>
-    <hyperlink ref="R29" r:id="rId33" xr:uid="{C4EDB22E-66F5-4664-8434-CB6E99F3A1F1}"/>
-    <hyperlink ref="S29" r:id="rId34" xr:uid="{37C1DAF2-0C60-48D5-9F9E-2A24C55D5137}"/>
-    <hyperlink ref="R30" r:id="rId35" xr:uid="{70186419-8852-4266-B625-C0215B761AD6}"/>
-    <hyperlink ref="S30" r:id="rId36" xr:uid="{C8CFAFED-762C-4D41-BB5C-524E1344FC49}"/>
-    <hyperlink ref="R281" r:id="rId37" xr:uid="{BD05ECA2-44FA-4BE8-BF34-4F9D5199ACB5}"/>
-    <hyperlink ref="S281" r:id="rId38" xr:uid="{39FBDB66-059C-4E83-936A-2D36C394CBAC}"/>
-    <hyperlink ref="T281" r:id="rId39" xr:uid="{B1EE039C-CCC5-4DEB-B06D-ECDE7A38AB31}"/>
-    <hyperlink ref="R31" r:id="rId40" xr:uid="{4840EEBD-2753-4242-A002-58C5BE33C68F}"/>
-    <hyperlink ref="S31" r:id="rId41" xr:uid="{BC992BBF-C0DC-4F08-B2F0-D78C1BC7DF5D}"/>
-    <hyperlink ref="R32" r:id="rId42" xr:uid="{0700FB18-CCBB-4878-B443-0E7E5ABA4927}"/>
-    <hyperlink ref="S32" r:id="rId43" xr:uid="{DBEF85D9-252C-4B3B-9E16-388F1CD12EF5}"/>
-    <hyperlink ref="R33" r:id="rId44" xr:uid="{D4993B31-7A8E-42A8-887B-B59DC3A93556}"/>
-    <hyperlink ref="S33" r:id="rId45" xr:uid="{65C4907E-DCDB-4402-8700-C2290FD93B01}"/>
-    <hyperlink ref="R34" r:id="rId46" xr:uid="{89B307FB-40A1-4251-8AC0-CD94751594D9}"/>
-    <hyperlink ref="S34" r:id="rId47" xr:uid="{5E0F8B59-7A69-4008-98DE-E940306C47F3}"/>
-    <hyperlink ref="R57" r:id="rId48" xr:uid="{8EB1CAF2-0D9A-4B0F-BC96-FA8C88E2943F}"/>
-    <hyperlink ref="S57" r:id="rId49" xr:uid="{A4A04E22-BBE1-40A2-AFBD-8FF42453ACB3}"/>
-    <hyperlink ref="R64" r:id="rId50" xr:uid="{316FFB71-13D6-4204-AAC3-2800CC93493B}"/>
-    <hyperlink ref="S64" r:id="rId51" xr:uid="{42936A94-6451-4C39-BBB2-88E20CEC25BD}"/>
-    <hyperlink ref="T64" r:id="rId52" xr:uid="{02A3E0C4-C824-4DBE-9BC7-99FBF6D49312}"/>
-    <hyperlink ref="R66" r:id="rId53" xr:uid="{98642495-AD43-4284-B5D9-B49B622C144D}"/>
-    <hyperlink ref="S66" r:id="rId54" xr:uid="{3E298A68-C1DA-4004-85CE-369DFEE6AC33}"/>
-    <hyperlink ref="T66" r:id="rId55" xr:uid="{A16111F7-5C6F-45B2-9A13-253BA9882580}"/>
-    <hyperlink ref="R70" r:id="rId56" xr:uid="{00CB8034-D05D-41DC-A93A-DB3B46C174B9}"/>
-    <hyperlink ref="S70" r:id="rId57" xr:uid="{8F84BDB1-4460-4683-9435-1DF99015D509}"/>
-    <hyperlink ref="T70" r:id="rId58" xr:uid="{AEEB8D3A-E52C-4F2D-9ECB-C0BBC846F913}"/>
-    <hyperlink ref="R71" r:id="rId59" xr:uid="{55C90AF0-F7C0-4271-B2A6-7CD6597581D9}"/>
-    <hyperlink ref="S71" r:id="rId60" xr:uid="{FD29C2D5-ACE2-48D7-8EF4-FB5B152429E4}"/>
-    <hyperlink ref="T71" r:id="rId61" xr:uid="{5A97E86B-7BB5-47FE-A746-036C768BED27}"/>
-    <hyperlink ref="R73" r:id="rId62" xr:uid="{CE2C1D09-DF26-7C47-AD75-F0A9D2A3DA5E}"/>
-    <hyperlink ref="S73" r:id="rId63" xr:uid="{A174FAAF-13EF-CE48-A2FD-B3AE50609A2C}"/>
-    <hyperlink ref="T73" r:id="rId64" xr:uid="{27AE2C8C-0782-654B-A18F-3FE5FA6F0DDB}"/>
-    <hyperlink ref="R58" r:id="rId65" xr:uid="{781B6E1B-132F-49A1-8E8A-97FA20E2DC7D}"/>
-    <hyperlink ref="S58" r:id="rId66" xr:uid="{7786EB75-FC74-471C-9745-1ECCDEF0F79F}"/>
-    <hyperlink ref="R59" r:id="rId67" xr:uid="{9EEE67CC-56DE-4435-BA96-FE9779F4156D}"/>
-    <hyperlink ref="S59" r:id="rId68" xr:uid="{FD314378-581A-4184-9089-AB5873B100E8}"/>
-    <hyperlink ref="T59" r:id="rId69" xr:uid="{F2CF29F0-4390-4CD1-AB04-20B9D7445A63}"/>
-    <hyperlink ref="R60" r:id="rId70" xr:uid="{C718AA95-8F75-4CD3-ADDE-4724BF7ED99E}"/>
-    <hyperlink ref="S60" r:id="rId71" xr:uid="{03DED38A-66E1-4067-8F1B-354A42FF140B}"/>
-    <hyperlink ref="R61" r:id="rId72" xr:uid="{C4D52F09-F70D-4AF7-A6AE-D2B6ECC1A93D}"/>
-    <hyperlink ref="S61" r:id="rId73" xr:uid="{D53AAC6D-08EC-48EE-88DC-A86F8B9574AC}"/>
-    <hyperlink ref="T61" r:id="rId74" xr:uid="{4182BA24-00A2-4818-818A-97D40B6CCDFF}"/>
-    <hyperlink ref="R62" r:id="rId75" xr:uid="{3184ED40-3A46-4E51-8863-2D8E5D3906DA}"/>
-    <hyperlink ref="S62" r:id="rId76" xr:uid="{A922A6B2-C170-4FEE-BF86-0DA3F4AD142C}"/>
-    <hyperlink ref="T62" r:id="rId77" xr:uid="{17495527-8221-4494-B16C-F0BBADE84D34}"/>
-    <hyperlink ref="R63" r:id="rId78" xr:uid="{B93D49F6-E9B8-4E2C-B4FE-0D30801F0E72}"/>
-    <hyperlink ref="S63" r:id="rId79" xr:uid="{0EA0D374-CD6E-4B24-891A-D2C80DAE7E24}"/>
-    <hyperlink ref="T63" r:id="rId80" xr:uid="{88A59398-45F8-4DAC-AE93-E985DFA3C3B1}"/>
-    <hyperlink ref="R65" r:id="rId81" xr:uid="{BB3E57AC-EE6C-49E9-92D2-AE679F0C30BD}"/>
-    <hyperlink ref="S65" r:id="rId82" xr:uid="{8A73CA58-3805-4DF6-BA48-2F311CF989D7}"/>
-    <hyperlink ref="T65" r:id="rId83" xr:uid="{39075977-FB2F-4874-B68C-5CE4622F6E99}"/>
-    <hyperlink ref="R67" r:id="rId84" xr:uid="{EC02178E-1B9A-422B-80EA-07A6A37EBD63}"/>
-    <hyperlink ref="S67" r:id="rId85" xr:uid="{E59F726D-707D-4A27-A705-C75637A727F7}"/>
-    <hyperlink ref="T67" r:id="rId86" xr:uid="{2340C526-9A2F-4780-9BCE-9AAAA824780B}"/>
-    <hyperlink ref="R68" r:id="rId87" xr:uid="{C294A10A-D117-40BC-B9AF-E036D8E49C93}"/>
-    <hyperlink ref="S68" r:id="rId88" xr:uid="{E3D94DF0-935A-4B59-8B5D-631357E8375B}"/>
-    <hyperlink ref="R69" r:id="rId89" xr:uid="{610E205C-72A6-AC40-8F82-F3CA6CF79DEF}"/>
-    <hyperlink ref="S69" r:id="rId90" xr:uid="{EB637458-73D6-6842-96B1-2611BC8545DA}"/>
-    <hyperlink ref="T69" r:id="rId91" xr:uid="{639DCC70-FB05-E340-A6E6-73742992A452}"/>
-    <hyperlink ref="R76" r:id="rId92" xr:uid="{748DEB92-664C-4179-A75F-963333043046}"/>
-    <hyperlink ref="S76" r:id="rId93" xr:uid="{01A3EB53-7706-4AA1-A600-0837AD5F6D99}"/>
-    <hyperlink ref="T76" r:id="rId94" xr:uid="{311825ED-719C-46FF-9F12-4D6DB8179FB0}"/>
-    <hyperlink ref="R72" r:id="rId95" xr:uid="{5B18D64A-BD9A-42C0-8198-874AFDE56C8F}"/>
-    <hyperlink ref="S72" r:id="rId96" xr:uid="{D9297DFA-C7E6-4461-A1FC-002EA6489DBD}"/>
-    <hyperlink ref="T72" r:id="rId97" xr:uid="{349B263E-4895-453B-8AE7-F0D6227A24AE}"/>
-    <hyperlink ref="R74" r:id="rId98" xr:uid="{3D9F1915-A62C-45BF-A6FB-C9C3434C4FA5}"/>
-    <hyperlink ref="S74" r:id="rId99" xr:uid="{4EFBEF02-3379-4FB5-B359-04F4A9744BFE}"/>
-    <hyperlink ref="T74" r:id="rId100" xr:uid="{133691F7-3145-43E7-AFEC-580376A61395}"/>
-    <hyperlink ref="R75" r:id="rId101" xr:uid="{8F4A974D-3CB7-436A-AE1C-7179508847CA}"/>
-    <hyperlink ref="S75" r:id="rId102" xr:uid="{94ECD1BC-133F-4B26-843B-B4D3B0330B90}"/>
-    <hyperlink ref="T75" r:id="rId103" xr:uid="{B620A354-976A-4C3D-A548-BD680D80C46D}"/>
-    <hyperlink ref="R77" r:id="rId104" xr:uid="{47037CB6-070A-4007-8045-F5E7AED324DC}"/>
-    <hyperlink ref="S77" r:id="rId105" xr:uid="{50CD371C-57E1-454C-AB0D-A5E4D505AF4A}"/>
-    <hyperlink ref="T77" r:id="rId106" xr:uid="{04672036-F631-4C69-B58A-B119E844928F}"/>
-    <hyperlink ref="R78" r:id="rId107" xr:uid="{A7191FCF-595A-475A-93DA-ECF851E9BB71}"/>
-    <hyperlink ref="S78" r:id="rId108" xr:uid="{588E35C8-7175-4531-A252-1471A041BB7E}"/>
-    <hyperlink ref="R79" r:id="rId109" xr:uid="{55DC656F-53CB-407E-9354-523CD90F1E90}"/>
-    <hyperlink ref="S79" r:id="rId110" xr:uid="{BA9CB9A8-6DEA-49C1-958D-13788ADFA555}"/>
-    <hyperlink ref="T79" r:id="rId111" xr:uid="{A62DD8EB-E41E-423D-B1A1-DCB5D1A79F4E}"/>
-    <hyperlink ref="R80" r:id="rId112" xr:uid="{8D96D6B3-7AC4-416F-9D70-C3D4EF643B59}"/>
-    <hyperlink ref="S80" r:id="rId113" xr:uid="{A79680C9-9F1E-4E1E-A301-D4D578CD33A3}"/>
-    <hyperlink ref="T80" r:id="rId114" xr:uid="{803BFB6C-709D-43FD-B612-F9C39DBFA4B5}"/>
-    <hyperlink ref="R81" r:id="rId115" xr:uid="{86047BB2-134F-42BA-99F9-BD9E3EDD4EA1}"/>
-    <hyperlink ref="S81" r:id="rId116" xr:uid="{5FB41F79-6CF9-4205-901D-54FDF177ACEC}"/>
-    <hyperlink ref="T81" r:id="rId117" xr:uid="{612F414F-C336-4E95-8B47-5DC725ACDB42}"/>
-    <hyperlink ref="R2" r:id="rId118" xr:uid="{1E2F76AB-E96B-4223-9C0E-63A0878489CF}"/>
-    <hyperlink ref="S2" r:id="rId119" xr:uid="{B14AA13A-6C2E-4C1C-ABD6-EEE1D93F4114}"/>
-    <hyperlink ref="R42" r:id="rId120" xr:uid="{B284B7AD-110B-41BB-A489-049BA9A70340}"/>
-    <hyperlink ref="R55" r:id="rId121" xr:uid="{C4D95AA3-66CB-4167-A494-5CF83E2394C4}"/>
-    <hyperlink ref="R54" r:id="rId122" xr:uid="{BD819CAD-5353-4E93-A170-8CF67C106613}"/>
-    <hyperlink ref="R142" r:id="rId123" xr:uid="{446A992E-CA4E-45EA-A3A5-EB15638B6D61}"/>
-    <hyperlink ref="S142" r:id="rId124" xr:uid="{C27EFF25-DB3E-4491-9437-E4093C4D861B}"/>
-    <hyperlink ref="T142" r:id="rId125" xr:uid="{F60F74B0-5AA2-4F8D-AB52-ED225055B16D}"/>
-    <hyperlink ref="R132" r:id="rId126" xr:uid="{1A6F958A-4284-4565-AED4-AAF580B18DEF}"/>
-    <hyperlink ref="S132" r:id="rId127" xr:uid="{885C6908-5714-4CA0-9A46-7F1D6355865F}"/>
-    <hyperlink ref="S133" r:id="rId128" xr:uid="{5417A548-9F68-4515-AF76-8A70AB67C70B}"/>
-    <hyperlink ref="R133" r:id="rId129" xr:uid="{1FD66A07-7C22-4B72-B19F-FA0EF4C93D8A}"/>
-    <hyperlink ref="S127" r:id="rId130" xr:uid="{995A5535-A844-4B8E-8A01-A4B6DB22B420}"/>
-    <hyperlink ref="R127" r:id="rId131" xr:uid="{50BB2792-02FB-4370-B5FB-A8F9F20C86DC}"/>
-    <hyperlink ref="S128" r:id="rId132" xr:uid="{059F4606-6526-46B0-8F61-CF0FF8002853}"/>
-    <hyperlink ref="S129" r:id="rId133" xr:uid="{DE651C3F-2BFE-4226-95E1-3CD727BECF6A}"/>
-    <hyperlink ref="S130" r:id="rId134" xr:uid="{F9746929-74CD-4D5B-BD23-115B291AF23B}"/>
-    <hyperlink ref="R128" r:id="rId135" xr:uid="{92ED383F-18C0-4E31-ABB0-AB848D14C159}"/>
-    <hyperlink ref="R129" r:id="rId136" xr:uid="{376CD4FF-DB71-4764-8EBD-9A65430CEE16}"/>
-    <hyperlink ref="R130" r:id="rId137" xr:uid="{B7A80D9B-6200-4D1C-8DE3-62E1C434A467}"/>
-    <hyperlink ref="R264" r:id="rId138" xr:uid="{CEA395D3-CADC-4E0B-9C0C-AF9C7AAB6663}"/>
-    <hyperlink ref="S264" r:id="rId139" xr:uid="{CA7C9DF0-6456-4B64-A457-049027988EBB}"/>
-    <hyperlink ref="T264" r:id="rId140" xr:uid="{389C9C4F-5372-4FC2-9D9D-EE12CB6CC373}"/>
-    <hyperlink ref="R3" r:id="rId141" xr:uid="{6CC86C21-AA49-49D1-B8B7-E7DEF7B1F417}"/>
-    <hyperlink ref="S3" r:id="rId142" xr:uid="{2CC89AB0-CBC1-4721-88FC-7F90876B9DE1}"/>
-    <hyperlink ref="R4" r:id="rId143" xr:uid="{699BB2FF-10FC-470B-B9BA-ABB2889D6D68}"/>
-    <hyperlink ref="S4" r:id="rId144" xr:uid="{74DE245C-11D8-4838-BF79-3A837721F5AF}"/>
-    <hyperlink ref="R5" r:id="rId145" xr:uid="{02946232-DE69-4E09-82D1-F9DC2182A10B}"/>
-    <hyperlink ref="S5" r:id="rId146" xr:uid="{83D2A063-D064-4262-B5A0-2AEFC3211310}"/>
-    <hyperlink ref="R6" r:id="rId147" xr:uid="{81DDE71F-8971-4756-A38F-3E008EA7BAFC}"/>
-    <hyperlink ref="S6" r:id="rId148" xr:uid="{7F560737-9302-4E98-8A0D-6E2636E89E0D}"/>
-    <hyperlink ref="R7" r:id="rId149" xr:uid="{74DD6D45-4B96-4B99-A176-A9E1BC0A25BA}"/>
-    <hyperlink ref="S7" r:id="rId150" xr:uid="{1631B7C7-8A45-4A89-8CBE-8039DF25650E}"/>
-    <hyperlink ref="R8" r:id="rId151" xr:uid="{C1EEF97D-4BF2-41E5-92C7-40263A7842E9}"/>
-    <hyperlink ref="S8" r:id="rId152" xr:uid="{2551E993-F6AE-4095-BCD3-6C2C96E4CC7E}"/>
-    <hyperlink ref="R9" r:id="rId153" xr:uid="{6A54A068-559A-4693-914C-CC65ECEEB72E}"/>
-    <hyperlink ref="S9" r:id="rId154" xr:uid="{2829470B-1AF2-41DA-BF40-93C71623C82B}"/>
-    <hyperlink ref="R10" r:id="rId155" xr:uid="{9068001C-B009-4B3E-8796-FE54663C21F0}"/>
-    <hyperlink ref="S10" r:id="rId156" xr:uid="{ADBDE75C-7121-4459-8B77-4A93679D984F}"/>
-    <hyperlink ref="R11" r:id="rId157" xr:uid="{95A598CC-15B5-4F48-9E90-64035B347800}"/>
-    <hyperlink ref="S11" r:id="rId158" xr:uid="{E4284E1D-B962-4AEE-BCEC-90885A6D7A7A}"/>
-    <hyperlink ref="R12" r:id="rId159" xr:uid="{E9DC9D32-D312-4E4B-BD2C-08931F61D514}"/>
-    <hyperlink ref="S12" r:id="rId160" xr:uid="{0B14FB49-B5BF-4348-A1CE-E99E5E9B3A12}"/>
-    <hyperlink ref="R13" r:id="rId161" xr:uid="{C2554C18-80BD-43DA-A97C-AA57735EEC80}"/>
-    <hyperlink ref="S13" r:id="rId162" xr:uid="{7F12CF07-C9B6-4DBD-A0D2-23BD480F50BA}"/>
-    <hyperlink ref="R14" r:id="rId163" xr:uid="{8FCF0A7B-CF3E-4E6D-A236-E53A312980D2}"/>
-    <hyperlink ref="S14" r:id="rId164" xr:uid="{1CB8ED88-BA6F-4AFC-9BE7-53BA75C4481D}"/>
-    <hyperlink ref="R15" r:id="rId165" xr:uid="{A8A1E943-CAF0-4430-A72E-4D586640410E}"/>
-    <hyperlink ref="S15" r:id="rId166" xr:uid="{1456CDF7-A37B-4893-A664-94CFB73FECCB}"/>
-    <hyperlink ref="R16" r:id="rId167" xr:uid="{1371EFB0-4E01-423B-992B-F246476BBAF6}"/>
-    <hyperlink ref="S16" r:id="rId168" xr:uid="{552C2CCF-19B7-437D-A455-600CB41C5A26}"/>
-    <hyperlink ref="S17" r:id="rId169" xr:uid="{953C38AB-5E28-4811-A7BE-8BD23A056998}"/>
-    <hyperlink ref="R17" r:id="rId170" xr:uid="{6DCC6FA5-0154-4012-9CE2-CFE88356C31A}"/>
-    <hyperlink ref="R18" r:id="rId171" xr:uid="{94D19477-B21B-489E-83EB-D74B66F5E7C4}"/>
-    <hyperlink ref="S18" r:id="rId172" xr:uid="{58CCD9E6-1B16-43AF-B5C3-4D278FB8B1DD}"/>
+    <hyperlink ref="R28" r:id="rId3" xr:uid="{341923EB-F8B8-4C95-B7AE-68509FA7D39E}"/>
+    <hyperlink ref="S28" r:id="rId4" xr:uid="{01DD653A-31CC-4BA9-A746-B5CE15ED0063}"/>
+    <hyperlink ref="R20" r:id="rId5" xr:uid="{2861B651-000E-429D-B868-F49DEC2212CD}"/>
+    <hyperlink ref="S20" r:id="rId6" xr:uid="{F9DFD4F9-2B5E-460F-AB53-E64E42196CCD}"/>
+    <hyperlink ref="R22" r:id="rId7" xr:uid="{F87218A3-9347-4483-B905-542D57F583F0}"/>
+    <hyperlink ref="S22" r:id="rId8" xr:uid="{436B500F-8B4E-4C6A-8B32-08726191DCE0}"/>
+    <hyperlink ref="T22" r:id="rId9" xr:uid="{85CA5F11-64FB-4DAB-8772-C5BC4D57872A}"/>
+    <hyperlink ref="R23" r:id="rId10" xr:uid="{8E38D38B-F508-446E-BF14-2D6FEBB8A9B3}"/>
+    <hyperlink ref="S23" r:id="rId11" xr:uid="{A39947EE-F457-4161-82D2-279E7AFA2834}"/>
+    <hyperlink ref="R24" r:id="rId12" xr:uid="{19FD4344-730E-450C-A678-CF48FA90925D}"/>
+    <hyperlink ref="S24" r:id="rId13" xr:uid="{522416D5-0EE8-4C02-A8C7-5C3CE5FA306B}"/>
+    <hyperlink ref="R25" r:id="rId14" xr:uid="{55A9217D-0519-402E-B2F0-62C4EDB8C7E5}"/>
+    <hyperlink ref="S25" r:id="rId15" xr:uid="{6BDDA874-5429-4054-AE5E-D929F7BDC091}"/>
+    <hyperlink ref="T25" r:id="rId16" xr:uid="{A3D727D9-E905-44DB-B879-5DAB73A44CEF}"/>
+    <hyperlink ref="R26" r:id="rId17" xr:uid="{6B06E0B2-9508-48FE-93A2-DA611B4EBB4C}"/>
+    <hyperlink ref="S26" r:id="rId18" xr:uid="{D213E51B-7430-413A-8C85-F1B558E70F0B}"/>
+    <hyperlink ref="R304" r:id="rId19" xr:uid="{74E8287E-9544-4ED4-9C76-33340E792470}"/>
+    <hyperlink ref="S304" r:id="rId20" xr:uid="{352B4A07-BA28-4050-BBE4-1D071DE74A79}"/>
+    <hyperlink ref="T304" r:id="rId21" xr:uid="{16AFFC03-1255-4725-B0AA-5A65405287CE}"/>
+    <hyperlink ref="R305" r:id="rId22" xr:uid="{B31ADB39-EFFD-4E63-A9AA-45741900E167}"/>
+    <hyperlink ref="S305" r:id="rId23" xr:uid="{E0B1FF2B-5906-46BA-82AE-47D8BE228B04}"/>
+    <hyperlink ref="T305" r:id="rId24" xr:uid="{E19E8649-2465-4CC1-A760-6C30678BD1B6}"/>
+    <hyperlink ref="R538" r:id="rId25" xr:uid="{48F0296A-3276-4B9E-89A6-BDF2BE29C7DE}"/>
+    <hyperlink ref="S538" r:id="rId26" xr:uid="{504C0FC3-4049-4774-A9DA-EA0E4D06ABB2}"/>
+    <hyperlink ref="R302" r:id="rId27" xr:uid="{F4C90C1B-0492-430D-83AF-FFFF1EEA257D}"/>
+    <hyperlink ref="S302" r:id="rId28" xr:uid="{68CEC8CE-CBAF-43EE-A4D3-BE7A163F3E98}"/>
+    <hyperlink ref="R27" r:id="rId29" xr:uid="{3FF68CB8-3CB6-4FE6-BEFC-B863F1057ABA}"/>
+    <hyperlink ref="S27" r:id="rId30" xr:uid="{6A51C13A-3FC6-40F8-98A0-5D19835F1DF9}"/>
+    <hyperlink ref="R29" r:id="rId31" xr:uid="{C4EDB22E-66F5-4664-8434-CB6E99F3A1F1}"/>
+    <hyperlink ref="S29" r:id="rId32" xr:uid="{37C1DAF2-0C60-48D5-9F9E-2A24C55D5137}"/>
+    <hyperlink ref="R30" r:id="rId33" xr:uid="{70186419-8852-4266-B625-C0215B761AD6}"/>
+    <hyperlink ref="S30" r:id="rId34" xr:uid="{C8CFAFED-762C-4D41-BB5C-524E1344FC49}"/>
+    <hyperlink ref="R281" r:id="rId35" xr:uid="{BD05ECA2-44FA-4BE8-BF34-4F9D5199ACB5}"/>
+    <hyperlink ref="S281" r:id="rId36" xr:uid="{39FBDB66-059C-4E83-936A-2D36C394CBAC}"/>
+    <hyperlink ref="T281" r:id="rId37" xr:uid="{B1EE039C-CCC5-4DEB-B06D-ECDE7A38AB31}"/>
+    <hyperlink ref="R31" r:id="rId38" xr:uid="{4840EEBD-2753-4242-A002-58C5BE33C68F}"/>
+    <hyperlink ref="S31" r:id="rId39" xr:uid="{BC992BBF-C0DC-4F08-B2F0-D78C1BC7DF5D}"/>
+    <hyperlink ref="R32" r:id="rId40" xr:uid="{0700FB18-CCBB-4878-B443-0E7E5ABA4927}"/>
+    <hyperlink ref="S32" r:id="rId41" xr:uid="{DBEF85D9-252C-4B3B-9E16-388F1CD12EF5}"/>
+    <hyperlink ref="R33" r:id="rId42" xr:uid="{D4993B31-7A8E-42A8-887B-B59DC3A93556}"/>
+    <hyperlink ref="S33" r:id="rId43" xr:uid="{65C4907E-DCDB-4402-8700-C2290FD93B01}"/>
+    <hyperlink ref="R34" r:id="rId44" xr:uid="{89B307FB-40A1-4251-8AC0-CD94751594D9}"/>
+    <hyperlink ref="S34" r:id="rId45" xr:uid="{5E0F8B59-7A69-4008-98DE-E940306C47F3}"/>
+    <hyperlink ref="R57" r:id="rId46" xr:uid="{8EB1CAF2-0D9A-4B0F-BC96-FA8C88E2943F}"/>
+    <hyperlink ref="S57" r:id="rId47" xr:uid="{A4A04E22-BBE1-40A2-AFBD-8FF42453ACB3}"/>
+    <hyperlink ref="R64" r:id="rId48" xr:uid="{316FFB71-13D6-4204-AAC3-2800CC93493B}"/>
+    <hyperlink ref="S64" r:id="rId49" xr:uid="{42936A94-6451-4C39-BBB2-88E20CEC25BD}"/>
+    <hyperlink ref="T64" r:id="rId50" xr:uid="{02A3E0C4-C824-4DBE-9BC7-99FBF6D49312}"/>
+    <hyperlink ref="R66" r:id="rId51" xr:uid="{98642495-AD43-4284-B5D9-B49B622C144D}"/>
+    <hyperlink ref="S66" r:id="rId52" xr:uid="{3E298A68-C1DA-4004-85CE-369DFEE6AC33}"/>
+    <hyperlink ref="T66" r:id="rId53" xr:uid="{A16111F7-5C6F-45B2-9A13-253BA9882580}"/>
+    <hyperlink ref="R70" r:id="rId54" xr:uid="{00CB8034-D05D-41DC-A93A-DB3B46C174B9}"/>
+    <hyperlink ref="S70" r:id="rId55" xr:uid="{8F84BDB1-4460-4683-9435-1DF99015D509}"/>
+    <hyperlink ref="T70" r:id="rId56" xr:uid="{AEEB8D3A-E52C-4F2D-9ECB-C0BBC846F913}"/>
+    <hyperlink ref="R71" r:id="rId57" xr:uid="{55C90AF0-F7C0-4271-B2A6-7CD6597581D9}"/>
+    <hyperlink ref="S71" r:id="rId58" xr:uid="{FD29C2D5-ACE2-48D7-8EF4-FB5B152429E4}"/>
+    <hyperlink ref="T71" r:id="rId59" xr:uid="{5A97E86B-7BB5-47FE-A746-036C768BED27}"/>
+    <hyperlink ref="R73" r:id="rId60" xr:uid="{CE2C1D09-DF26-7C47-AD75-F0A9D2A3DA5E}"/>
+    <hyperlink ref="S73" r:id="rId61" xr:uid="{A174FAAF-13EF-CE48-A2FD-B3AE50609A2C}"/>
+    <hyperlink ref="T73" r:id="rId62" xr:uid="{27AE2C8C-0782-654B-A18F-3FE5FA6F0DDB}"/>
+    <hyperlink ref="R58" r:id="rId63" xr:uid="{781B6E1B-132F-49A1-8E8A-97FA20E2DC7D}"/>
+    <hyperlink ref="S58" r:id="rId64" xr:uid="{7786EB75-FC74-471C-9745-1ECCDEF0F79F}"/>
+    <hyperlink ref="R59" r:id="rId65" xr:uid="{9EEE67CC-56DE-4435-BA96-FE9779F4156D}"/>
+    <hyperlink ref="S59" r:id="rId66" xr:uid="{FD314378-581A-4184-9089-AB5873B100E8}"/>
+    <hyperlink ref="T59" r:id="rId67" xr:uid="{F2CF29F0-4390-4CD1-AB04-20B9D7445A63}"/>
+    <hyperlink ref="R60" r:id="rId68" xr:uid="{C718AA95-8F75-4CD3-ADDE-4724BF7ED99E}"/>
+    <hyperlink ref="S60" r:id="rId69" xr:uid="{03DED38A-66E1-4067-8F1B-354A42FF140B}"/>
+    <hyperlink ref="R61" r:id="rId70" xr:uid="{C4D52F09-F70D-4AF7-A6AE-D2B6ECC1A93D}"/>
+    <hyperlink ref="S61" r:id="rId71" xr:uid="{D53AAC6D-08EC-48EE-88DC-A86F8B9574AC}"/>
+    <hyperlink ref="T61" r:id="rId72" xr:uid="{4182BA24-00A2-4818-818A-97D40B6CCDFF}"/>
+    <hyperlink ref="R62" r:id="rId73" xr:uid="{3184ED40-3A46-4E51-8863-2D8E5D3906DA}"/>
+    <hyperlink ref="S62" r:id="rId74" xr:uid="{A922A6B2-C170-4FEE-BF86-0DA3F4AD142C}"/>
+    <hyperlink ref="T62" r:id="rId75" xr:uid="{17495527-8221-4494-B16C-F0BBADE84D34}"/>
+    <hyperlink ref="R63" r:id="rId76" xr:uid="{B93D49F6-E9B8-4E2C-B4FE-0D30801F0E72}"/>
+    <hyperlink ref="S63" r:id="rId77" xr:uid="{0EA0D374-CD6E-4B24-891A-D2C80DAE7E24}"/>
+    <hyperlink ref="T63" r:id="rId78" xr:uid="{88A59398-45F8-4DAC-AE93-E985DFA3C3B1}"/>
+    <hyperlink ref="R65" r:id="rId79" xr:uid="{BB3E57AC-EE6C-49E9-92D2-AE679F0C30BD}"/>
+    <hyperlink ref="S65" r:id="rId80" xr:uid="{8A73CA58-3805-4DF6-BA48-2F311CF989D7}"/>
+    <hyperlink ref="T65" r:id="rId81" xr:uid="{39075977-FB2F-4874-B68C-5CE4622F6E99}"/>
+    <hyperlink ref="R67" r:id="rId82" xr:uid="{EC02178E-1B9A-422B-80EA-07A6A37EBD63}"/>
+    <hyperlink ref="S67" r:id="rId83" xr:uid="{E59F726D-707D-4A27-A705-C75637A727F7}"/>
+    <hyperlink ref="T67" r:id="rId84" xr:uid="{2340C526-9A2F-4780-9BCE-9AAAA824780B}"/>
+    <hyperlink ref="R68" r:id="rId85" xr:uid="{C294A10A-D117-40BC-B9AF-E036D8E49C93}"/>
+    <hyperlink ref="S68" r:id="rId86" xr:uid="{E3D94DF0-935A-4B59-8B5D-631357E8375B}"/>
+    <hyperlink ref="R69" r:id="rId87" xr:uid="{610E205C-72A6-AC40-8F82-F3CA6CF79DEF}"/>
+    <hyperlink ref="S69" r:id="rId88" xr:uid="{EB637458-73D6-6842-96B1-2611BC8545DA}"/>
+    <hyperlink ref="T69" r:id="rId89" xr:uid="{639DCC70-FB05-E340-A6E6-73742992A452}"/>
+    <hyperlink ref="R76" r:id="rId90" xr:uid="{748DEB92-664C-4179-A75F-963333043046}"/>
+    <hyperlink ref="S76" r:id="rId91" xr:uid="{01A3EB53-7706-4AA1-A600-0837AD5F6D99}"/>
+    <hyperlink ref="T76" r:id="rId92" xr:uid="{311825ED-719C-46FF-9F12-4D6DB8179FB0}"/>
+    <hyperlink ref="R72" r:id="rId93" xr:uid="{5B18D64A-BD9A-42C0-8198-874AFDE56C8F}"/>
+    <hyperlink ref="S72" r:id="rId94" xr:uid="{D9297DFA-C7E6-4461-A1FC-002EA6489DBD}"/>
+    <hyperlink ref="T72" r:id="rId95" xr:uid="{349B263E-4895-453B-8AE7-F0D6227A24AE}"/>
+    <hyperlink ref="R74" r:id="rId96" xr:uid="{3D9F1915-A62C-45BF-A6FB-C9C3434C4FA5}"/>
+    <hyperlink ref="S74" r:id="rId97" xr:uid="{4EFBEF02-3379-4FB5-B359-04F4A9744BFE}"/>
+    <hyperlink ref="T74" r:id="rId98" xr:uid="{133691F7-3145-43E7-AFEC-580376A61395}"/>
+    <hyperlink ref="R75" r:id="rId99" xr:uid="{8F4A974D-3CB7-436A-AE1C-7179508847CA}"/>
+    <hyperlink ref="S75" r:id="rId100" xr:uid="{94ECD1BC-133F-4B26-843B-B4D3B0330B90}"/>
+    <hyperlink ref="T75" r:id="rId101" xr:uid="{B620A354-976A-4C3D-A548-BD680D80C46D}"/>
+    <hyperlink ref="R77" r:id="rId102" xr:uid="{47037CB6-070A-4007-8045-F5E7AED324DC}"/>
+    <hyperlink ref="S77" r:id="rId103" xr:uid="{50CD371C-57E1-454C-AB0D-A5E4D505AF4A}"/>
+    <hyperlink ref="T77" r:id="rId104" xr:uid="{04672036-F631-4C69-B58A-B119E844928F}"/>
+    <hyperlink ref="R78" r:id="rId105" xr:uid="{A7191FCF-595A-475A-93DA-ECF851E9BB71}"/>
+    <hyperlink ref="S78" r:id="rId106" xr:uid="{588E35C8-7175-4531-A252-1471A041BB7E}"/>
+    <hyperlink ref="R79" r:id="rId107" xr:uid="{55DC656F-53CB-407E-9354-523CD90F1E90}"/>
+    <hyperlink ref="S79" r:id="rId108" xr:uid="{BA9CB9A8-6DEA-49C1-958D-13788ADFA555}"/>
+    <hyperlink ref="T79" r:id="rId109" xr:uid="{A62DD8EB-E41E-423D-B1A1-DCB5D1A79F4E}"/>
+    <hyperlink ref="R80" r:id="rId110" xr:uid="{8D96D6B3-7AC4-416F-9D70-C3D4EF643B59}"/>
+    <hyperlink ref="S80" r:id="rId111" xr:uid="{A79680C9-9F1E-4E1E-A301-D4D578CD33A3}"/>
+    <hyperlink ref="T80" r:id="rId112" xr:uid="{803BFB6C-709D-43FD-B612-F9C39DBFA4B5}"/>
+    <hyperlink ref="R81" r:id="rId113" xr:uid="{86047BB2-134F-42BA-99F9-BD9E3EDD4EA1}"/>
+    <hyperlink ref="S81" r:id="rId114" xr:uid="{5FB41F79-6CF9-4205-901D-54FDF177ACEC}"/>
+    <hyperlink ref="T81" r:id="rId115" xr:uid="{612F414F-C336-4E95-8B47-5DC725ACDB42}"/>
+    <hyperlink ref="R2" r:id="rId116" xr:uid="{1E2F76AB-E96B-4223-9C0E-63A0878489CF}"/>
+    <hyperlink ref="S2" r:id="rId117" xr:uid="{B14AA13A-6C2E-4C1C-ABD6-EEE1D93F4114}"/>
+    <hyperlink ref="R42" r:id="rId118" xr:uid="{B284B7AD-110B-41BB-A489-049BA9A70340}"/>
+    <hyperlink ref="R55" r:id="rId119" xr:uid="{C4D95AA3-66CB-4167-A494-5CF83E2394C4}"/>
+    <hyperlink ref="R54" r:id="rId120" xr:uid="{BD819CAD-5353-4E93-A170-8CF67C106613}"/>
+    <hyperlink ref="R142" r:id="rId121" xr:uid="{446A992E-CA4E-45EA-A3A5-EB15638B6D61}"/>
+    <hyperlink ref="S142" r:id="rId122" xr:uid="{C27EFF25-DB3E-4491-9437-E4093C4D861B}"/>
+    <hyperlink ref="T142" r:id="rId123" xr:uid="{F60F74B0-5AA2-4F8D-AB52-ED225055B16D}"/>
+    <hyperlink ref="R132" r:id="rId124" xr:uid="{1A6F958A-4284-4565-AED4-AAF580B18DEF}"/>
+    <hyperlink ref="S132" r:id="rId125" xr:uid="{885C6908-5714-4CA0-9A46-7F1D6355865F}"/>
+    <hyperlink ref="S133" r:id="rId126" xr:uid="{5417A548-9F68-4515-AF76-8A70AB67C70B}"/>
+    <hyperlink ref="R133" r:id="rId127" xr:uid="{1FD66A07-7C22-4B72-B19F-FA0EF4C93D8A}"/>
+    <hyperlink ref="S127" r:id="rId128" xr:uid="{995A5535-A844-4B8E-8A01-A4B6DB22B420}"/>
+    <hyperlink ref="R127" r:id="rId129" xr:uid="{50BB2792-02FB-4370-B5FB-A8F9F20C86DC}"/>
+    <hyperlink ref="S128" r:id="rId130" xr:uid="{059F4606-6526-46B0-8F61-CF0FF8002853}"/>
+    <hyperlink ref="S129" r:id="rId131" xr:uid="{DE651C3F-2BFE-4226-95E1-3CD727BECF6A}"/>
+    <hyperlink ref="S130" r:id="rId132" xr:uid="{F9746929-74CD-4D5B-BD23-115B291AF23B}"/>
+    <hyperlink ref="R128" r:id="rId133" xr:uid="{92ED383F-18C0-4E31-ABB0-AB848D14C159}"/>
+    <hyperlink ref="R129" r:id="rId134" xr:uid="{376CD4FF-DB71-4764-8EBD-9A65430CEE16}"/>
+    <hyperlink ref="R130" r:id="rId135" xr:uid="{B7A80D9B-6200-4D1C-8DE3-62E1C434A467}"/>
+    <hyperlink ref="R264" r:id="rId136" xr:uid="{CEA395D3-CADC-4E0B-9C0C-AF9C7AAB6663}"/>
+    <hyperlink ref="S264" r:id="rId137" xr:uid="{CA7C9DF0-6456-4B64-A457-049027988EBB}"/>
+    <hyperlink ref="T264" r:id="rId138" xr:uid="{389C9C4F-5372-4FC2-9D9D-EE12CB6CC373}"/>
+    <hyperlink ref="R3" r:id="rId139" xr:uid="{6CC86C21-AA49-49D1-B8B7-E7DEF7B1F417}"/>
+    <hyperlink ref="S3" r:id="rId140" xr:uid="{2CC89AB0-CBC1-4721-88FC-7F90876B9DE1}"/>
+    <hyperlink ref="R4" r:id="rId141" xr:uid="{699BB2FF-10FC-470B-B9BA-ABB2889D6D68}"/>
+    <hyperlink ref="S4" r:id="rId142" xr:uid="{74DE245C-11D8-4838-BF79-3A837721F5AF}"/>
+    <hyperlink ref="R5" r:id="rId143" xr:uid="{02946232-DE69-4E09-82D1-F9DC2182A10B}"/>
+    <hyperlink ref="S5" r:id="rId144" xr:uid="{83D2A063-D064-4262-B5A0-2AEFC3211310}"/>
+    <hyperlink ref="R6" r:id="rId145" xr:uid="{81DDE71F-8971-4756-A38F-3E008EA7BAFC}"/>
+    <hyperlink ref="S6" r:id="rId146" xr:uid="{7F560737-9302-4E98-8A0D-6E2636E89E0D}"/>
+    <hyperlink ref="R7" r:id="rId147" xr:uid="{74DD6D45-4B96-4B99-A176-A9E1BC0A25BA}"/>
+    <hyperlink ref="S7" r:id="rId148" xr:uid="{1631B7C7-8A45-4A89-8CBE-8039DF25650E}"/>
+    <hyperlink ref="R8" r:id="rId149" xr:uid="{C1EEF97D-4BF2-41E5-92C7-40263A7842E9}"/>
+    <hyperlink ref="S8" r:id="rId150" xr:uid="{2551E993-F6AE-4095-BCD3-6C2C96E4CC7E}"/>
+    <hyperlink ref="R9" r:id="rId151" xr:uid="{6A54A068-559A-4693-914C-CC65ECEEB72E}"/>
+    <hyperlink ref="S9" r:id="rId152" xr:uid="{2829470B-1AF2-41DA-BF40-93C71623C82B}"/>
+    <hyperlink ref="R10" r:id="rId153" xr:uid="{9068001C-B009-4B3E-8796-FE54663C21F0}"/>
+    <hyperlink ref="S10" r:id="rId154" xr:uid="{ADBDE75C-7121-4459-8B77-4A93679D984F}"/>
+    <hyperlink ref="R11" r:id="rId155" xr:uid="{95A598CC-15B5-4F48-9E90-64035B347800}"/>
+    <hyperlink ref="S11" r:id="rId156" xr:uid="{E4284E1D-B962-4AEE-BCEC-90885A6D7A7A}"/>
+    <hyperlink ref="R12" r:id="rId157" xr:uid="{E9DC9D32-D312-4E4B-BD2C-08931F61D514}"/>
+    <hyperlink ref="S12" r:id="rId158" xr:uid="{0B14FB49-B5BF-4348-A1CE-E99E5E9B3A12}"/>
+    <hyperlink ref="R13" r:id="rId159" xr:uid="{C2554C18-80BD-43DA-A97C-AA57735EEC80}"/>
+    <hyperlink ref="S13" r:id="rId160" xr:uid="{7F12CF07-C9B6-4DBD-A0D2-23BD480F50BA}"/>
+    <hyperlink ref="R14" r:id="rId161" xr:uid="{8FCF0A7B-CF3E-4E6D-A236-E53A312980D2}"/>
+    <hyperlink ref="S14" r:id="rId162" xr:uid="{1CB8ED88-BA6F-4AFC-9BE7-53BA75C4481D}"/>
+    <hyperlink ref="R15" r:id="rId163" xr:uid="{A8A1E943-CAF0-4430-A72E-4D586640410E}"/>
+    <hyperlink ref="S15" r:id="rId164" xr:uid="{1456CDF7-A37B-4893-A664-94CFB73FECCB}"/>
+    <hyperlink ref="R16" r:id="rId165" xr:uid="{1371EFB0-4E01-423B-992B-F246476BBAF6}"/>
+    <hyperlink ref="S16" r:id="rId166" xr:uid="{552C2CCF-19B7-437D-A455-600CB41C5A26}"/>
+    <hyperlink ref="S17" r:id="rId167" xr:uid="{953C38AB-5E28-4811-A7BE-8BD23A056998}"/>
+    <hyperlink ref="R17" r:id="rId168" xr:uid="{6DCC6FA5-0154-4012-9CE2-CFE88356C31A}"/>
+    <hyperlink ref="R18" r:id="rId169" xr:uid="{94D19477-B21B-489E-83EB-D74B66F5E7C4}"/>
+    <hyperlink ref="S18" r:id="rId170" xr:uid="{58CCD9E6-1B16-43AF-B5C3-4D278FB8B1DD}"/>
+    <hyperlink ref="R21" r:id="rId171" xr:uid="{B3028BC0-3763-4607-8E21-7A08DC182D8E}"/>
+    <hyperlink ref="S21" r:id="rId172" xr:uid="{32AECCB7-4E63-4676-A828-E022FB9244A7}"/>
+    <hyperlink ref="R107" r:id="rId173" xr:uid="{7D6AF44D-0A7D-41A0-B3A2-A4ADAA2AA23D}"/>
+    <hyperlink ref="S107" r:id="rId174" xr:uid="{E94AAF3B-44A8-4733-A9C2-EE436C3EF405}"/>
+    <hyperlink ref="R108" r:id="rId175" xr:uid="{81A8D106-4434-438B-A330-7621AC4507F1}"/>
+    <hyperlink ref="S108" r:id="rId176" xr:uid="{97294DF5-5120-4BA2-8019-2914072A5336}"/>
+    <hyperlink ref="T108" r:id="rId177" xr:uid="{1E978BE6-E38E-494D-BC79-04430AEAA8D1}"/>
+    <hyperlink ref="R109" r:id="rId178" xr:uid="{CB1414D1-F1A7-4BDA-8926-37F602E3A5A1}"/>
+    <hyperlink ref="S109" r:id="rId179" xr:uid="{F0F935A9-2975-401F-9778-26DE3F6F809F}"/>
+    <hyperlink ref="R110" r:id="rId180" xr:uid="{3B9F30C2-1BF6-4082-A802-6A7ABC224BAE}"/>
+    <hyperlink ref="S110" r:id="rId181" xr:uid="{94CB63DA-B9C2-409F-888F-8433D8388981}"/>
+    <hyperlink ref="T110" r:id="rId182" xr:uid="{1BC2C4FC-196E-40DF-A3EF-AD7375FE99B1}"/>
+    <hyperlink ref="R111" r:id="rId183" xr:uid="{DA773745-AA45-42C9-9232-94933B2D37C0}"/>
+    <hyperlink ref="S111" r:id="rId184" xr:uid="{BA693A75-CF43-429E-AADE-5D4F33FE825B}"/>
+    <hyperlink ref="T111" r:id="rId185" xr:uid="{C952378B-AEF7-4664-A3CE-9773674C2615}"/>
+    <hyperlink ref="R112" r:id="rId186" xr:uid="{ACD6DB99-B078-4172-8673-4C0B94E0E0CA}"/>
+    <hyperlink ref="S112" r:id="rId187" xr:uid="{88C42F0D-E582-4654-9852-51043E53E282}"/>
+    <hyperlink ref="T112" r:id="rId188" xr:uid="{5C886AE8-6F7B-429E-8F1D-3E4111D4E8FE}"/>
+    <hyperlink ref="R113" r:id="rId189" xr:uid="{131B87FD-30F4-4744-8C70-2169487C01A6}"/>
+    <hyperlink ref="S113" r:id="rId190" xr:uid="{A820D600-F818-4B82-A660-DC0AA5FA3538}"/>
+    <hyperlink ref="T113" r:id="rId191" xr:uid="{3208EB4D-1326-4906-B804-0F37615D9660}"/>
+    <hyperlink ref="R114" r:id="rId192" xr:uid="{245ABCB1-899A-41CB-A135-D98B9F9545E3}"/>
+    <hyperlink ref="S114" r:id="rId193" xr:uid="{76F3F07E-6BC3-4437-9CBA-4C55C701612B}"/>
+    <hyperlink ref="T114" r:id="rId194" xr:uid="{779ECD13-D199-48BE-A16B-94CC3E3D60C0}"/>
+    <hyperlink ref="R115" r:id="rId195" xr:uid="{FF2F0C4B-7AE2-4F25-9C2C-93B9EBAD0463}"/>
+    <hyperlink ref="S115" r:id="rId196" xr:uid="{6ECA0E44-A1FE-4B3B-BFD6-707B8FC01CDD}"/>
+    <hyperlink ref="T115" r:id="rId197" xr:uid="{AD3145CD-5DCF-46E2-9D36-C7F21958B8DD}"/>
+    <hyperlink ref="R116" r:id="rId198" xr:uid="{58F91FD4-6F1A-4F18-9861-1BB56B005447}"/>
+    <hyperlink ref="S116" r:id="rId199" xr:uid="{D54BDFA2-2FB2-4765-BBD2-6EEB0896B9B2}"/>
+    <hyperlink ref="T116" r:id="rId200" xr:uid="{295BF9A5-E5CB-4DA6-9BE8-D6DEB386CAE1}"/>
+    <hyperlink ref="R117" r:id="rId201" xr:uid="{599CA884-4E31-4C48-AF20-13DD6D3A90F0}"/>
+    <hyperlink ref="S117" r:id="rId202" xr:uid="{053348B0-C95A-4745-AE3B-61ADCBE535A9}"/>
+    <hyperlink ref="T117" r:id="rId203" xr:uid="{7E33A82B-FFE4-499C-AD75-AA577F48800F}"/>
+    <hyperlink ref="R118" r:id="rId204" xr:uid="{620509BC-2C5B-4B9F-94C1-352873EEE1C4}"/>
+    <hyperlink ref="S118" r:id="rId205" xr:uid="{A1C63946-021C-464C-9C17-B37351589336}"/>
+    <hyperlink ref="T118" r:id="rId206" xr:uid="{D28C9365-6C7A-4079-B453-64795FBA1B4E}"/>
+    <hyperlink ref="R119" r:id="rId207" xr:uid="{24C8CD14-21AF-439E-AD6D-BBC4CED041B4}"/>
+    <hyperlink ref="S119" r:id="rId208" xr:uid="{AB9A6ACB-27AD-416E-8BA5-C07DFD026877}"/>
+    <hyperlink ref="T119" r:id="rId209" xr:uid="{4D57E6E4-11A2-45B8-B7F7-E6C0341C5CDD}"/>
+    <hyperlink ref="R120" r:id="rId210" xr:uid="{0580BC2C-83DA-4140-B5D8-F1E4F7C23363}"/>
+    <hyperlink ref="S120" r:id="rId211" xr:uid="{0E3453F9-3C32-47B6-8EAC-73F84200EBB7}"/>
+    <hyperlink ref="T120" r:id="rId212" xr:uid="{588A40CB-0B04-4FB3-B71D-53CBC3000C7E}"/>
+    <hyperlink ref="R121" r:id="rId213" xr:uid="{6B6791C6-A0D1-44FE-8A68-E5BC43F062A7}"/>
+    <hyperlink ref="S121" r:id="rId214" xr:uid="{DEC1DDE6-A953-4F4C-8397-A2E45449C06E}"/>
+    <hyperlink ref="T121" r:id="rId215" xr:uid="{EA046130-B568-448C-8D47-A9F4BE863442}"/>
+    <hyperlink ref="R122" r:id="rId216" xr:uid="{D027BEFB-FE9E-487F-BCEE-242FE62F522C}"/>
+    <hyperlink ref="S122" r:id="rId217" xr:uid="{49F7AE6E-9972-4EC9-81F6-BA0E06911D01}"/>
+    <hyperlink ref="T122" r:id="rId218" xr:uid="{B1118B8B-C681-4C9A-A63A-D122710386A7}"/>
+    <hyperlink ref="R123" r:id="rId219" xr:uid="{EFE57ABA-AB65-4508-9B64-37F97BF1ADF5}"/>
+    <hyperlink ref="S123" r:id="rId220" xr:uid="{2E7FD115-1F8A-4A3F-836E-C308B1AEC365}"/>
+    <hyperlink ref="T123" r:id="rId221" xr:uid="{1E08A545-6595-4B9C-98CA-0C4584D40992}"/>
+    <hyperlink ref="R124" r:id="rId222" xr:uid="{C88052D8-6E75-4818-9B2D-1F77F205072B}"/>
+    <hyperlink ref="S124" r:id="rId223" xr:uid="{17DF2988-D25C-47C1-B42C-3A899AFC282C}"/>
+    <hyperlink ref="T124" r:id="rId224" xr:uid="{820AC28E-455F-43FD-B396-42CC3300DEF5}"/>
+    <hyperlink ref="R125" r:id="rId225" xr:uid="{814B17AC-77FE-412B-A432-2B5A747FA1F8}"/>
+    <hyperlink ref="S125" r:id="rId226" xr:uid="{6B890876-7E20-4C6A-A960-81012C859881}"/>
+    <hyperlink ref="T125" r:id="rId227" xr:uid="{CD4FC1C1-5573-4D92-B5A1-884CA4F755A7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId173"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId228"/>
   <ignoredErrors>
     <ignoredError sqref="J131" formula="1"/>
   </ignoredErrors>
@@ -37333,7 +38668,7 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37433,7 +38768,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
     </row>
   </sheetData>

--- a/DATAEVAL.xlsx
+++ b/DATAEVAL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/944d5b9328a00097/Data intelligence/temporal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="592" documentId="8_{5ACB605E-C3CF-4E94-9192-00EA6FCEE601}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{55F61EBD-91DF-4D81-B9A4-FC81050A40E9}"/>
+  <xr:revisionPtr revIDLastSave="678" documentId="8_{5ACB605E-C3CF-4E94-9192-00EA6FCEE601}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AA6F1255-2A6B-40BD-BC87-11EB5AC7DC01}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="Deflactor" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">dataeval!$A$1:$AQ$622</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">dataeval!$A$1:$AR$622</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">fuentes!$E$2:$E$622</definedName>
     <definedName name="_xlnm.Extract" localSheetId="2">fuentes!$F$2:$F$622</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="2">fuentes!$E$2:$E$622</definedName>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5756" uniqueCount="2368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5767" uniqueCount="2374">
   <si>
     <t>Año de protocolo</t>
   </si>
@@ -7157,6 +7157,24 @@
   </si>
   <si>
     <t>https://www.dipres.gob.cl/597/articles-96785_doc_xls.xls</t>
+  </si>
+  <si>
+    <t>Consulta 2</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/home/Dise%C3%B1o%20DATA's/DATA-EVAL/BD%20Ley%20Presupuesto%20desde%202009</t>
+  </si>
+  <si>
+    <t>Ver Dropbox "BD Ley Presupuesto desde 2009"</t>
+  </si>
+  <si>
+    <t>No todos los programas tienen presupuesto explicito en la Ley de Presupuesto</t>
+  </si>
+  <si>
+    <t>BB Ley Presupuesto</t>
+  </si>
+  <si>
+    <t>No especifica</t>
   </si>
 </sst>
 </file>
@@ -8290,14 +8308,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:AQ622"/>
+  <dimension ref="A1:AR622"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="O63" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AR278" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R192" sqref="R192"/>
+      <selection pane="bottomRight" activeCell="AR280" sqref="AR280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8318,9 +8335,10 @@
     <col min="22" max="22" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="31.140625" bestFit="1" customWidth="1"/>
     <col min="24" max="43" width="17.7109375" customWidth="1"/>
+    <col min="44" max="44" width="18.42578125" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -8450,8 +8468,11 @@
       <c r="AQ1" s="7" t="s">
         <v>2036</v>
       </c>
-    </row>
-    <row r="2" spans="1:43" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AR1" s="7" t="s">
+        <v>2372</v>
+      </c>
+    </row>
+    <row r="2" spans="1:44" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30">
         <v>2020</v>
       </c>
@@ -8562,8 +8583,9 @@
       <c r="AL2" s="33" t="s">
         <v>1974</v>
       </c>
-    </row>
-    <row r="3" spans="1:43" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AR2" s="10"/>
+    </row>
+    <row r="3" spans="1:44" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="30">
         <v>2020</v>
       </c>
@@ -8660,8 +8682,9 @@
       <c r="AH3" s="33" t="s">
         <v>1985</v>
       </c>
-    </row>
-    <row r="4" spans="1:43" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AR3" s="10"/>
+    </row>
+    <row r="4" spans="1:44" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30">
         <v>2020</v>
       </c>
@@ -8768,8 +8791,9 @@
       <c r="AL4" s="33" t="s">
         <v>2000</v>
       </c>
-    </row>
-    <row r="5" spans="1:43" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AR4" s="10"/>
+    </row>
+    <row r="5" spans="1:44" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="30">
         <v>2020</v>
       </c>
@@ -8863,8 +8887,9 @@
       <c r="AG5" s="33" t="s">
         <v>1860</v>
       </c>
-    </row>
-    <row r="6" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AR5" s="10"/>
+    </row>
+    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>2020</v>
       </c>
@@ -8945,7 +8970,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="7" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>2020</v>
       </c>
@@ -9032,7 +9057,7 @@
         <v>1736</v>
       </c>
     </row>
-    <row r="8" spans="1:43" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:44" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="30">
         <v>2020</v>
       </c>
@@ -9124,8 +9149,9 @@
       <c r="AG8" s="33" t="s">
         <v>1758</v>
       </c>
-    </row>
-    <row r="9" spans="1:43" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AR8" s="10"/>
+    </row>
+    <row r="9" spans="1:44" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="30">
         <v>2020</v>
       </c>
@@ -9231,8 +9257,9 @@
       <c r="AK9" s="33" t="s">
         <v>1783</v>
       </c>
-    </row>
-    <row r="10" spans="1:43" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AR9" s="10"/>
+    </row>
+    <row r="10" spans="1:44" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="30">
         <v>2020</v>
       </c>
@@ -9336,8 +9363,9 @@
       <c r="AK10" s="33" t="s">
         <v>1806</v>
       </c>
-    </row>
-    <row r="11" spans="1:43" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AR10" s="10"/>
+    </row>
+    <row r="11" spans="1:44" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="30">
         <v>2020</v>
       </c>
@@ -9432,8 +9460,9 @@
       <c r="AH11" s="33" t="s">
         <v>1825</v>
       </c>
-    </row>
-    <row r="12" spans="1:43" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AR11" s="10"/>
+    </row>
+    <row r="12" spans="1:44" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="30">
         <v>2020</v>
       </c>
@@ -9528,8 +9557,9 @@
       <c r="AH12" s="33" t="s">
         <v>1843</v>
       </c>
-    </row>
-    <row r="13" spans="1:43" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AR12" s="10"/>
+    </row>
+    <row r="13" spans="1:44" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="30">
         <v>2020</v>
       </c>
@@ -9623,8 +9653,9 @@
       <c r="AG13" s="33" t="s">
         <v>1860</v>
       </c>
-    </row>
-    <row r="14" spans="1:43" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AR13" s="10"/>
+    </row>
+    <row r="14" spans="1:44" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="30">
         <v>2020</v>
       </c>
@@ -9703,8 +9734,9 @@
       <c r="AC14" s="33" t="s">
         <v>1876</v>
       </c>
-    </row>
-    <row r="15" spans="1:43" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AR14" s="10"/>
+    </row>
+    <row r="15" spans="1:44" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="30">
         <v>2020</v>
       </c>
@@ -9797,8 +9829,9 @@
       <c r="AF15" s="33" t="s">
         <v>1892</v>
       </c>
-    </row>
-    <row r="16" spans="1:43" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AR15" s="10"/>
+    </row>
+    <row r="16" spans="1:44" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="30">
         <v>2020</v>
       </c>
@@ -9888,8 +9921,9 @@
       <c r="AE16" s="33" t="s">
         <v>1909</v>
       </c>
-    </row>
-    <row r="17" spans="1:43" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AR16" s="10"/>
+    </row>
+    <row r="17" spans="1:44" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="30">
         <v>2020</v>
       </c>
@@ -10004,8 +10038,9 @@
       <c r="AN17" s="33" t="s">
         <v>1936</v>
       </c>
-    </row>
-    <row r="18" spans="1:43" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AR17" s="10"/>
+    </row>
+    <row r="18" spans="1:44" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="30">
         <v>2020</v>
       </c>
@@ -10117,8 +10152,9 @@
       <c r="AM18" s="33" t="s">
         <v>1959</v>
       </c>
-    </row>
-    <row r="19" spans="1:43" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AR18" s="10"/>
+    </row>
+    <row r="19" spans="1:44" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="30">
         <v>2019</v>
       </c>
@@ -10230,8 +10266,9 @@
       <c r="AN19" s="33" t="s">
         <v>2017</v>
       </c>
-    </row>
-    <row r="20" spans="1:43" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AR19" s="10"/>
+    </row>
+    <row r="20" spans="1:44" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="30">
         <v>2019</v>
       </c>
@@ -10351,8 +10388,9 @@
       <c r="AQ20" s="33" t="s">
         <v>2040</v>
       </c>
-    </row>
-    <row r="21" spans="1:43" s="38" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AR20" s="10"/>
+    </row>
+    <row r="21" spans="1:44" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>2019</v>
       </c>
@@ -10422,8 +10460,9 @@
       <c r="Z21" s="38" t="s">
         <v>2003</v>
       </c>
-    </row>
-    <row r="22" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AR21" s="10"/>
+    </row>
+    <row r="22" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>2019</v>
       </c>
@@ -10490,7 +10529,7 @@
         <v>6960219337.3035898</v>
       </c>
     </row>
-    <row r="23" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>2019</v>
       </c>
@@ -10555,7 +10594,7 @@
         <v>8645512886.3872395</v>
       </c>
     </row>
-    <row r="24" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>2019</v>
       </c>
@@ -10621,7 +10660,7 @@
         <v>2618483.7836619532</v>
       </c>
     </row>
-    <row r="25" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>2019</v>
       </c>
@@ -10688,7 +10727,7 @@
         <v>14193373118.283466</v>
       </c>
     </row>
-    <row r="26" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>2019</v>
       </c>
@@ -10753,7 +10792,7 @@
         <v>14780690502.813242</v>
       </c>
     </row>
-    <row r="27" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>2019</v>
       </c>
@@ -10819,7 +10858,7 @@
         <v>39308513.61408361</v>
       </c>
     </row>
-    <row r="28" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>2019</v>
       </c>
@@ -10881,7 +10920,7 @@
         <v>53491537.120826639</v>
       </c>
     </row>
-    <row r="29" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>2019</v>
       </c>
@@ -10944,7 +10983,7 @@
         <v>4785346306.1753559</v>
       </c>
     </row>
-    <row r="30" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>2019</v>
       </c>
@@ -11009,7 +11048,7 @@
         <v>6038185786.8900023</v>
       </c>
     </row>
-    <row r="31" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>2019</v>
       </c>
@@ -11072,7 +11111,7 @@
         <v>62394847146.902206</v>
       </c>
     </row>
-    <row r="32" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>2019</v>
       </c>
@@ -11135,7 +11174,7 @@
         <v>4867461253.4132071</v>
       </c>
     </row>
-    <row r="33" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>2019</v>
       </c>
@@ -11198,7 +11237,7 @@
         <v>5592418148408.835</v>
       </c>
     </row>
-    <row r="34" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>2019</v>
       </c>
@@ -11261,7 +11300,7 @@
         <v>3685006013.188148</v>
       </c>
     </row>
-    <row r="35" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>2018</v>
       </c>
@@ -11317,7 +11356,7 @@
         <v>32553369.4451956</v>
       </c>
     </row>
-    <row r="36" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>2018</v>
       </c>
@@ -11382,7 +11421,7 @@
         <v>7726308886.0341339</v>
       </c>
     </row>
-    <row r="37" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>2018</v>
       </c>
@@ -11449,7 +11488,7 @@
         <v>32878644736.896927</v>
       </c>
     </row>
-    <row r="38" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>2018</v>
       </c>
@@ -11514,7 +11553,7 @@
         <v>115465072741.18871</v>
       </c>
     </row>
-    <row r="39" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>2018</v>
       </c>
@@ -11576,7 +11615,7 @@
         <v>5649426.1846524477</v>
       </c>
     </row>
-    <row r="40" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>2018</v>
       </c>
@@ -11636,7 +11675,7 @@
         <v>5649426.1846524477</v>
       </c>
     </row>
-    <row r="41" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>2018</v>
       </c>
@@ -11695,7 +11734,7 @@
         <v>8799969384.2679996</v>
       </c>
     </row>
-    <row r="42" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>2018</v>
       </c>
@@ -11760,7 +11799,7 @@
         <v>22804446209.122238</v>
       </c>
     </row>
-    <row r="43" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>2018</v>
       </c>
@@ -11825,7 +11864,7 @@
         <v>56950896754.20887</v>
       </c>
     </row>
-    <row r="44" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>2018</v>
       </c>
@@ -11890,7 +11929,7 @@
         <v>5471878.7731556948</v>
       </c>
     </row>
-    <row r="45" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>2018</v>
       </c>
@@ -11957,7 +11996,7 @@
         <v>4628013095.8869295</v>
       </c>
     </row>
-    <row r="46" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>2018</v>
       </c>
@@ -12020,7 +12059,7 @@
         <v>49585998435.618668</v>
       </c>
     </row>
-    <row r="47" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>2018</v>
       </c>
@@ -12079,7 +12118,7 @@
         <v>7707957417.0335102</v>
       </c>
     </row>
-    <row r="48" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>2018</v>
       </c>
@@ -12142,7 +12181,7 @@
         <v>10550328258.146124</v>
       </c>
     </row>
-    <row r="49" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>2018</v>
       </c>
@@ -12205,7 +12244,7 @@
         <v>10550328258.146124</v>
       </c>
     </row>
-    <row r="50" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>2018</v>
       </c>
@@ -12268,7 +12307,7 @@
         <v>10550328258.146124</v>
       </c>
     </row>
-    <row r="51" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>2018</v>
       </c>
@@ -12333,7 +12372,7 @@
         <v>32516120523.692413</v>
       </c>
     </row>
-    <row r="52" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>2018</v>
       </c>
@@ -12396,7 +12435,7 @@
         <v>1014623623.3354664</v>
       </c>
     </row>
-    <row r="53" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>2018</v>
       </c>
@@ -12459,7 +12498,7 @@
         <v>4001088342.6970654</v>
       </c>
     </row>
-    <row r="54" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>2018</v>
       </c>
@@ -12524,7 +12563,7 @@
         <v>8237124627.117281</v>
       </c>
     </row>
-    <row r="55" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>2018</v>
       </c>
@@ -12589,7 +12628,7 @@
         <v>27498298492.008251</v>
       </c>
     </row>
-    <row r="56" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>2018</v>
       </c>
@@ -12721,7 +12760,7 @@
         <v>10732511591624.725</v>
       </c>
     </row>
-    <row r="58" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>2017</v>
       </c>
@@ -12784,7 +12823,7 @@
         <v>7289013566.4073505</v>
       </c>
     </row>
-    <row r="59" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>2017</v>
       </c>
@@ -12849,7 +12888,7 @@
         <v>13846994668.295162</v>
       </c>
     </row>
-    <row r="60" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>2017</v>
       </c>
@@ -12916,7 +12955,7 @@
         <v>74213550369.332367</v>
       </c>
     </row>
-    <row r="61" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>2017</v>
       </c>
@@ -12985,7 +13024,7 @@
         <v>74213550369.332367</v>
       </c>
     </row>
-    <row r="62" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>2017</v>
       </c>
@@ -13190,7 +13229,7 @@
         <v>16712451255464.02</v>
       </c>
     </row>
-    <row r="65" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>2017</v>
       </c>
@@ -13259,7 +13298,7 @@
         <v>47167096476.883942</v>
       </c>
     </row>
-    <row r="66" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>2017</v>
       </c>
@@ -13326,7 +13365,7 @@
         <v>7057203601335.0723</v>
       </c>
     </row>
-    <row r="67" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>2017</v>
       </c>
@@ -13393,7 +13432,7 @@
         <v>6847817526.4923687</v>
       </c>
     </row>
-    <row r="68" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>2017</v>
       </c>
@@ -13460,7 +13499,7 @@
         <v>10513831815.319036</v>
       </c>
     </row>
-    <row r="69" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>2017</v>
       </c>
@@ -13527,7 +13566,7 @@
         <v>10531437084.070236</v>
       </c>
     </row>
-    <row r="70" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>2017</v>
       </c>
@@ -13594,7 +13633,7 @@
         <v>5406180988288.4434</v>
       </c>
     </row>
-    <row r="71" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>2017</v>
       </c>
@@ -13661,7 +13700,7 @@
         <v>7568327594493.4629</v>
       </c>
     </row>
-    <row r="72" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>2017</v>
       </c>
@@ -13728,7 +13767,7 @@
         <v>6772908221589.3262</v>
       </c>
     </row>
-    <row r="73" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>2017</v>
       </c>
@@ -13925,7 +13964,7 @@
         <v>21880299099646.605</v>
       </c>
     </row>
-    <row r="76" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>2017</v>
       </c>
@@ -14126,7 +14165,7 @@
         <v>31372253591839.508</v>
       </c>
     </row>
-    <row r="79" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>2017</v>
       </c>
@@ -14193,7 +14232,7 @@
         <v>9453836180037.5098</v>
       </c>
     </row>
-    <row r="80" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>2017</v>
       </c>
@@ -14258,7 +14297,7 @@
         <v>15104319551.353426</v>
       </c>
     </row>
-    <row r="81" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>2017</v>
       </c>
@@ -14325,7 +14364,7 @@
         <v>202428868937.75201</v>
       </c>
     </row>
-    <row r="82" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>2016</v>
       </c>
@@ -14392,7 +14431,7 @@
         <v>29056725512.718685</v>
       </c>
     </row>
-    <row r="83" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>2016</v>
       </c>
@@ -14459,7 +14498,7 @@
         <v>29056725512.718685</v>
       </c>
     </row>
-    <row r="84" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>2016</v>
       </c>
@@ -14522,7 +14561,7 @@
         <v>7897717925.9061785</v>
       </c>
     </row>
-    <row r="85" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>2016</v>
       </c>
@@ -14587,7 +14626,7 @@
         <v>49277141394.773415</v>
       </c>
     </row>
-    <row r="86" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>2016</v>
       </c>
@@ -14652,7 +14691,7 @@
         <v>6807560894.163969</v>
       </c>
     </row>
-    <row r="87" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>2016</v>
       </c>
@@ -14717,7 +14756,7 @@
         <v>7418992675.9294872</v>
       </c>
     </row>
-    <row r="88" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>2016</v>
       </c>
@@ -14782,7 +14821,7 @@
         <v>17998484843.520172</v>
       </c>
     </row>
-    <row r="89" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>2016</v>
       </c>
@@ -14849,7 +14888,7 @@
         <v>1435572929.8635466</v>
       </c>
     </row>
-    <row r="90" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>2016</v>
       </c>
@@ -14911,7 +14950,7 @@
         <v>s.i</v>
       </c>
     </row>
-    <row r="91" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>2016</v>
       </c>
@@ -14974,7 +15013,7 @@
         <v>189582241651.49014</v>
       </c>
     </row>
-    <row r="92" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>2016</v>
       </c>
@@ -15037,7 +15076,7 @@
         <v>19885311651.757141</v>
       </c>
     </row>
-    <row r="93" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>2016</v>
       </c>
@@ -15104,7 +15143,7 @@
         <v>5502907565.1777506</v>
       </c>
     </row>
-    <row r="94" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>2016</v>
       </c>
@@ -15164,7 +15203,7 @@
         <v>s.i</v>
       </c>
     </row>
-    <row r="95" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>2016</v>
       </c>
@@ -15227,7 +15266,7 @@
         <v>19885311651.757141</v>
       </c>
     </row>
-    <row r="96" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>2016</v>
       </c>
@@ -15294,7 +15333,7 @@
         <v>65078732039.465042</v>
       </c>
     </row>
-    <row r="97" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>2016</v>
       </c>
@@ -15430,7 +15469,7 @@
         <v>4219627652236092.5</v>
       </c>
     </row>
-    <row r="99" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>2016</v>
       </c>
@@ -15493,7 +15532,7 @@
         <v>4224424377.6226192</v>
       </c>
     </row>
-    <row r="100" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>2016</v>
       </c>
@@ -15558,7 +15597,7 @@
         <v>29056725512.718685</v>
       </c>
     </row>
-    <row r="101" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>2016</v>
       </c>
@@ -15623,7 +15662,7 @@
         <v>29056725512.718685</v>
       </c>
     </row>
-    <row r="102" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>2016</v>
       </c>
@@ -15688,7 +15727,7 @@
         <v>29056725512.718685</v>
       </c>
     </row>
-    <row r="103" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>2016</v>
       </c>
@@ -15753,7 +15792,7 @@
         <v>29056725512.718685</v>
       </c>
     </row>
-    <row r="104" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>2016</v>
       </c>
@@ -15815,7 +15854,7 @@
         <v>s.i</v>
       </c>
     </row>
-    <row r="105" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>2016</v>
       </c>
@@ -15880,7 +15919,7 @@
         <v>9518120655196.7754</v>
       </c>
     </row>
-    <row r="106" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>2016</v>
       </c>
@@ -15949,7 +15988,7 @@
         <v>6287413293.9014721</v>
       </c>
     </row>
-    <row r="107" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>2015</v>
       </c>
@@ -16014,7 +16053,7 @@
         <v>114794104040.638</v>
       </c>
     </row>
-    <row r="108" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>2015</v>
       </c>
@@ -16082,7 +16121,7 @@
         <v>s.i</v>
       </c>
     </row>
-    <row r="109" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>2015</v>
       </c>
@@ -16144,7 +16183,7 @@
         <v>15128559407.626745</v>
       </c>
     </row>
-    <row r="110" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>2015</v>
       </c>
@@ -16207,7 +16246,7 @@
         <v>3597688244.3408961</v>
       </c>
     </row>
-    <row r="111" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>2015</v>
       </c>
@@ -16272,7 +16311,7 @@
         <v>63656710580.180405</v>
       </c>
     </row>
-    <row r="112" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>2015</v>
       </c>
@@ -16339,7 +16378,7 @@
         <v>4026843836.9524899</v>
       </c>
     </row>
-    <row r="113" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>2015</v>
       </c>
@@ -16408,7 +16447,7 @@
         <v>28548021244.503151</v>
       </c>
     </row>
-    <row r="114" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>2015</v>
       </c>
@@ -16477,7 +16516,7 @@
         <v>12462030038.72751</v>
       </c>
     </row>
-    <row r="115" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>2015</v>
       </c>
@@ -16542,7 +16581,7 @@
         <v>3682329645.6085477</v>
       </c>
     </row>
-    <row r="116" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>2015</v>
       </c>
@@ -16607,7 +16646,7 @@
         <v>89293569994.121567</v>
       </c>
     </row>
-    <row r="117" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>2015</v>
       </c>
@@ -16674,7 +16713,7 @@
         <v>16085991205.77564</v>
       </c>
     </row>
-    <row r="118" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>2015</v>
       </c>
@@ -16737,7 +16776,7 @@
         <v>5585121534.3117189</v>
       </c>
     </row>
-    <row r="119" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>2015</v>
       </c>
@@ -16802,7 +16841,7 @@
         <v>3413061651.8945613</v>
       </c>
     </row>
-    <row r="120" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>2015</v>
       </c>
@@ -16869,7 +16908,7 @@
         <v>4440747405.5030031</v>
       </c>
     </row>
-    <row r="121" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>2015</v>
       </c>
@@ -16999,7 +17038,7 @@
         <v>15446896040774.188</v>
       </c>
     </row>
-    <row r="123" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>2015</v>
       </c>
@@ -17064,7 +17103,7 @@
         <v>5272937711.4370136</v>
       </c>
     </row>
-    <row r="124" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>2015</v>
       </c>
@@ -17193,7 +17232,7 @@
         <v>264381860755743.28</v>
       </c>
     </row>
-    <row r="126" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>2014</v>
       </c>
@@ -17254,7 +17293,7 @@
         <v>62458148721.964233</v>
       </c>
     </row>
-    <row r="127" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>2014</v>
       </c>
@@ -17319,7 +17358,7 @@
         <v>18145654317.347717</v>
       </c>
     </row>
-    <row r="128" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <v>2014</v>
       </c>
@@ -17384,7 +17423,7 @@
         <v>18145654317.347717</v>
       </c>
     </row>
-    <row r="129" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>2014</v>
       </c>
@@ -17451,7 +17490,7 @@
         <v>18145654317.347717</v>
       </c>
     </row>
-    <row r="130" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <v>2014</v>
       </c>
@@ -17516,7 +17555,7 @@
         <v>18145654317.347717</v>
       </c>
     </row>
-    <row r="131" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <v>2014</v>
       </c>
@@ -17579,7 +17618,7 @@
         <v>10232211851785.686</v>
       </c>
     </row>
-    <row r="132" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <v>2014</v>
       </c>
@@ -17646,7 +17685,7 @@
         <v>18145654317.347717</v>
       </c>
     </row>
-    <row r="133" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
         <v>2014</v>
       </c>
@@ -17711,7 +17750,7 @@
         <v>18145654317.347717</v>
       </c>
     </row>
-    <row r="134" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <v>2014</v>
       </c>
@@ -17833,7 +17872,7 @@
         <v>25786967677746.293</v>
       </c>
     </row>
-    <row r="136" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
         <v>2014</v>
       </c>
@@ -17894,7 +17933,7 @@
         <v>10904917507.625839</v>
       </c>
     </row>
-    <row r="137" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <v>2014</v>
       </c>
@@ -17955,7 +17994,7 @@
         <v>10904917507.625839</v>
       </c>
     </row>
-    <row r="138" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
         <v>2014</v>
       </c>
@@ -18016,7 +18055,7 @@
         <v>10904917507.625839</v>
       </c>
     </row>
-    <row r="139" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
         <v>2014</v>
       </c>
@@ -18079,7 +18118,7 @@
         <v>10904917507.625839</v>
       </c>
     </row>
-    <row r="140" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
         <v>2014</v>
       </c>
@@ -18142,7 +18181,7 @@
         <v>10904917507.625839</v>
       </c>
     </row>
-    <row r="141" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
         <v>2014</v>
       </c>
@@ -18203,7 +18242,7 @@
         <v>10904917507.625839</v>
       </c>
     </row>
-    <row r="142" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
         <v>2014</v>
       </c>
@@ -18274,7 +18313,7 @@
         <v>5889826299.8803101</v>
       </c>
     </row>
-    <row r="143" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
         <v>2014</v>
       </c>
@@ -18461,7 +18500,7 @@
         <v>203810578800998.13</v>
       </c>
     </row>
-    <row r="146" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
         <v>2014</v>
       </c>
@@ -18518,7 +18557,7 @@
         <v>2871251843800.6704</v>
       </c>
     </row>
-    <row r="147" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
         <v>2014</v>
       </c>
@@ -18582,7 +18621,7 @@
         <v>s.i</v>
       </c>
     </row>
-    <row r="148" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
         <v>2014</v>
       </c>
@@ -18639,7 +18678,7 @@
         <v>259946643852.22906</v>
       </c>
     </row>
-    <row r="149" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
         <v>2014</v>
       </c>
@@ -18700,7 +18739,7 @@
         <v>3789196809.9491291</v>
       </c>
     </row>
-    <row r="150" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
         <v>2014</v>
       </c>
@@ -18765,7 +18804,7 @@
         <v>13066261015.717928</v>
       </c>
     </row>
-    <row r="151" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
         <v>2013</v>
       </c>
@@ -18828,7 +18867,7 @@
         <v>5539000000</v>
       </c>
     </row>
-    <row r="152" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
         <v>2013</v>
       </c>
@@ -18892,7 +18931,7 @@
         <v>s.i</v>
       </c>
     </row>
-    <row r="153" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
         <v>2013</v>
       </c>
@@ -18955,7 +18994,7 @@
         <v>16951000000</v>
       </c>
     </row>
-    <row r="154" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
         <v>2013</v>
       </c>
@@ -19020,7 +19059,7 @@
         <v>1065000000</v>
       </c>
     </row>
-    <row r="155" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
         <v>2013</v>
       </c>
@@ -19085,7 +19124,7 @@
         <v>4000000000</v>
       </c>
     </row>
-    <row r="156" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
         <v>2013</v>
       </c>
@@ -19150,7 +19189,7 @@
         <v>87442786000</v>
       </c>
     </row>
-    <row r="157" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
         <v>2013</v>
       </c>
@@ -19213,7 +19252,7 @@
         <v>1964000000</v>
       </c>
     </row>
-    <row r="158" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
         <v>2013</v>
       </c>
@@ -19273,7 +19312,7 @@
         <v>s.i</v>
       </c>
     </row>
-    <row r="159" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
         <v>2013</v>
       </c>
@@ -19338,7 +19377,7 @@
         <v>273418358000</v>
       </c>
     </row>
-    <row r="160" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A160" s="3">
         <v>2013</v>
       </c>
@@ -19401,7 +19440,7 @@
         <v>3192335000</v>
       </c>
     </row>
-    <row r="161" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
         <v>2013</v>
       </c>
@@ -19441,7 +19480,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="162" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
         <v>2013</v>
       </c>
@@ -19481,7 +19520,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="163" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
         <v>2013</v>
       </c>
@@ -19521,7 +19560,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="164" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
         <v>2013</v>
       </c>
@@ -19561,7 +19600,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="165" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
         <v>2013</v>
       </c>
@@ -19601,7 +19640,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="166" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
         <v>2013</v>
       </c>
@@ -19641,7 +19680,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="167" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A167" s="3">
         <v>2013</v>
       </c>
@@ -19681,7 +19720,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="168" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A168" s="3">
         <v>2013</v>
       </c>
@@ -19723,7 +19762,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="169" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A169" s="3">
         <v>2013</v>
       </c>
@@ -19765,7 +19804,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="170" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A170" s="3">
         <v>2013</v>
       </c>
@@ -19805,7 +19844,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="171" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
         <v>2013</v>
       </c>
@@ -19845,7 +19884,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="172" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
         <v>2013</v>
       </c>
@@ -19885,7 +19924,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="173" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
         <v>2013</v>
       </c>
@@ -19925,7 +19964,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="174" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
         <v>2013</v>
       </c>
@@ -19965,7 +20004,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="175" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
         <v>2012</v>
       </c>
@@ -20025,7 +20064,7 @@
         <v>s.i</v>
       </c>
     </row>
-    <row r="176" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
         <v>2012</v>
       </c>
@@ -20090,7 +20129,7 @@
         <v>14543909147.932167</v>
       </c>
     </row>
-    <row r="177" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
         <v>2012</v>
       </c>
@@ -20157,7 +20196,7 @@
         <v>6924214213.6067457</v>
       </c>
     </row>
-    <row r="178" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
         <v>2012</v>
       </c>
@@ -20222,7 +20261,7 @@
         <v>5091500142538.7188</v>
       </c>
     </row>
-    <row r="179" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A179" s="3">
         <v>2012</v>
       </c>
@@ -20346,7 +20385,7 @@
         <v>3.653593854429504E+16</v>
       </c>
     </row>
-    <row r="181" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A181" s="3">
         <v>2012</v>
       </c>
@@ -20413,7 +20452,7 @@
         <v>4126994833.9420476</v>
       </c>
     </row>
-    <row r="182" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A182" s="3">
         <v>2012</v>
       </c>
@@ -20471,7 +20510,7 @@
         <v>s.i</v>
       </c>
     </row>
-    <row r="183" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A183" s="3">
         <v>2012</v>
       </c>
@@ -20533,7 +20572,7 @@
         <v>s.i</v>
       </c>
     </row>
-    <row r="184" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A184" s="3">
         <v>2012</v>
       </c>
@@ -20593,7 +20632,7 @@
         <v>s.i</v>
       </c>
     </row>
-    <row r="185" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A185" s="3">
         <v>2012</v>
       </c>
@@ -20655,7 +20694,7 @@
         <v>s.i</v>
       </c>
     </row>
-    <row r="186" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A186" s="3">
         <v>2012</v>
       </c>
@@ -20721,7 +20760,7 @@
         <v>s.i</v>
       </c>
     </row>
-    <row r="187" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A187" s="3">
         <v>2012</v>
       </c>
@@ -20785,7 +20824,7 @@
         <v>s.i</v>
       </c>
     </row>
-    <row r="188" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A188" s="3">
         <v>2012</v>
       </c>
@@ -20847,7 +20886,7 @@
         <v>s.i</v>
       </c>
     </row>
-    <row r="189" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A189" s="3">
         <v>2012</v>
       </c>
@@ -20913,7 +20952,7 @@
         <v>s.i</v>
       </c>
     </row>
-    <row r="190" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A190" s="3">
         <v>2012</v>
       </c>
@@ -20973,7 +21012,7 @@
         <v>s.i</v>
       </c>
     </row>
-    <row r="191" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A191" s="3">
         <v>2012</v>
       </c>
@@ -21096,7 +21135,7 @@
         <v>1747810355751905.5</v>
       </c>
     </row>
-    <row r="193" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A193" s="3">
         <v>2012</v>
       </c>
@@ -21157,7 +21196,7 @@
         <v>4708209703.8729677</v>
       </c>
     </row>
-    <row r="194" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A194" s="3">
         <v>2012</v>
       </c>
@@ -21220,7 +21259,7 @@
         <v>15070108637.508173</v>
       </c>
     </row>
-    <row r="195" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A195" s="3">
         <v>2012</v>
       </c>
@@ -21283,7 +21322,7 @@
         <v>15070108637.508173</v>
       </c>
     </row>
-    <row r="196" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A196" s="3">
         <v>2012</v>
       </c>
@@ -21346,7 +21385,7 @@
         <v>15070108637.508173</v>
       </c>
     </row>
-    <row r="197" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A197" s="3">
         <v>2012</v>
       </c>
@@ -21409,7 +21448,7 @@
         <v>15070108637.508173</v>
       </c>
     </row>
-    <row r="198" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A198" s="3">
         <v>2012</v>
       </c>
@@ -21472,7 +21511,7 @@
         <v>15070108637.508173</v>
       </c>
     </row>
-    <row r="199" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A199" s="3">
         <v>2012</v>
       </c>
@@ -21535,7 +21574,7 @@
         <v>15070108637.508173</v>
       </c>
     </row>
-    <row r="200" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A200" s="3">
         <v>2012</v>
       </c>
@@ -21600,7 +21639,7 @@
         <v>7238147276527.2773</v>
       </c>
     </row>
-    <row r="201" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A201" s="3">
         <v>2012</v>
       </c>
@@ -21663,7 +21702,7 @@
         <v>1397080040.1533494</v>
       </c>
     </row>
-    <row r="202" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A202" s="3">
         <v>2012</v>
       </c>
@@ -21724,7 +21763,7 @@
         <v>5120702174677.2813</v>
       </c>
     </row>
-    <row r="203" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A203" s="3">
         <v>2012</v>
       </c>
@@ -21791,7 +21830,7 @@
         <v>7197511622.9214163</v>
       </c>
     </row>
-    <row r="204" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A204" s="3">
         <v>2012</v>
       </c>
@@ -21858,7 +21897,7 @@
         <v>7197511622.9214163</v>
       </c>
     </row>
-    <row r="205" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A205" s="3">
         <v>2011</v>
       </c>
@@ -21898,7 +21937,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="206" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A206" s="3">
         <v>2011</v>
       </c>
@@ -21938,7 +21977,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="207" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A207" s="3">
         <v>2011</v>
       </c>
@@ -21978,7 +22017,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="208" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A208" s="3">
         <v>2011</v>
       </c>
@@ -22018,7 +22057,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="209" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A209" s="3">
         <v>2011</v>
       </c>
@@ -22058,7 +22097,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="210" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A210" s="3">
         <v>2011</v>
       </c>
@@ -22098,7 +22137,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="211" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A211" s="3">
         <v>2011</v>
       </c>
@@ -22138,7 +22177,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="212" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A212" s="3">
         <v>2011</v>
       </c>
@@ -22178,7 +22217,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="213" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A213" s="3">
         <v>2011</v>
       </c>
@@ -22218,7 +22257,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="214" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A214" s="3">
         <v>2011</v>
       </c>
@@ -22258,7 +22297,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="215" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A215" s="3">
         <v>2011</v>
       </c>
@@ -22298,7 +22337,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="216" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A216" s="3">
         <v>2011</v>
       </c>
@@ -22338,7 +22377,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="217" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A217" s="3">
         <v>2011</v>
       </c>
@@ -22378,7 +22417,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="218" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A218" s="3">
         <v>2011</v>
       </c>
@@ -22418,7 +22457,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="219" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A219" s="3">
         <v>2011</v>
       </c>
@@ -22458,7 +22497,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="220" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A220" s="3">
         <v>2011</v>
       </c>
@@ -22498,7 +22537,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="221" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A221" s="3">
         <v>2011</v>
       </c>
@@ -22538,7 +22577,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="222" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A222" s="3">
         <v>2011</v>
       </c>
@@ -22578,7 +22617,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="223" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A223" s="3">
         <v>2011</v>
       </c>
@@ -22618,7 +22657,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="224" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A224" s="3">
         <v>2011</v>
       </c>
@@ -22658,7 +22697,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="225" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A225" s="3">
         <v>2011</v>
       </c>
@@ -22698,7 +22737,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="226" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A226" s="3">
         <v>2011</v>
       </c>
@@ -22740,7 +22779,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="227" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A227" s="3">
         <v>2011</v>
       </c>
@@ -22784,7 +22823,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="228" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A228" s="3">
         <v>2011</v>
       </c>
@@ -22824,7 +22863,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="229" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A229" s="3">
         <v>2011</v>
       </c>
@@ -22864,7 +22903,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="230" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A230" s="3">
         <v>2011</v>
       </c>
@@ -22904,7 +22943,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="231" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A231" s="3">
         <v>2011</v>
       </c>
@@ -22944,7 +22983,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="232" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A232" s="3">
         <v>2011</v>
       </c>
@@ -22984,7 +23023,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="233" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A233" s="3">
         <v>2010</v>
       </c>
@@ -23042,7 +23081,7 @@
         <v>s.i</v>
       </c>
     </row>
-    <row r="234" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A234" s="3">
         <v>2010</v>
       </c>
@@ -23102,7 +23141,7 @@
         <v>s.i</v>
       </c>
     </row>
-    <row r="235" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A235" s="3">
         <v>2010</v>
       </c>
@@ -23142,7 +23181,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="236" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A236" s="3">
         <v>2010</v>
       </c>
@@ -23507,7 +23546,7 @@
         <v>150332635540530.41</v>
       </c>
     </row>
-    <row r="242" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A242" s="3">
         <v>2010</v>
       </c>
@@ -23547,7 +23586,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="243" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A243" s="3">
         <v>2010</v>
       </c>
@@ -23587,7 +23626,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="244" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A244" s="3">
         <v>2010</v>
       </c>
@@ -23627,7 +23666,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="245" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A245" s="3">
         <v>2010</v>
       </c>
@@ -23667,7 +23706,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="246" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A246" s="3">
         <v>2010</v>
       </c>
@@ -23707,7 +23746,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="247" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A247" s="3">
         <v>2010</v>
       </c>
@@ -23747,7 +23786,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="248" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A248" s="3">
         <v>2010</v>
       </c>
@@ -23852,7 +23891,7 @@
         <v>150332635540530.41</v>
       </c>
     </row>
-    <row r="250" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A250" s="3">
         <v>2010</v>
       </c>
@@ -23920,7 +23959,7 @@
         <v>s.i</v>
       </c>
     </row>
-    <row r="251" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A251" s="3">
         <v>2010</v>
       </c>
@@ -23988,7 +24027,7 @@
         <v>s.i</v>
       </c>
     </row>
-    <row r="252" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A252" s="3">
         <v>2010</v>
       </c>
@@ -24056,7 +24095,7 @@
         <v>s.i</v>
       </c>
     </row>
-    <row r="253" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A253" s="3">
         <v>2010</v>
       </c>
@@ -24124,7 +24163,7 @@
         <v>s.i</v>
       </c>
     </row>
-    <row r="254" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A254" s="3">
         <v>2010</v>
       </c>
@@ -24164,7 +24203,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="255" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A255" s="3">
         <v>2010</v>
       </c>
@@ -24204,7 +24243,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="256" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A256" s="3">
         <v>2010</v>
       </c>
@@ -24244,7 +24283,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="257" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A257" s="3">
         <v>2010</v>
       </c>
@@ -24312,7 +24351,7 @@
         <v>s.i</v>
       </c>
     </row>
-    <row r="258" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A258" s="3">
         <v>2010</v>
       </c>
@@ -24352,7 +24391,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="259" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A259" s="3">
         <v>2010</v>
       </c>
@@ -24392,7 +24431,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="260" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A260" s="3">
         <v>2010</v>
       </c>
@@ -24432,7 +24471,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="261" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A261" s="3">
         <v>2010</v>
       </c>
@@ -24472,7 +24511,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="262" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A262" s="3">
         <v>2010</v>
       </c>
@@ -24514,7 +24553,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="263" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A263" s="3">
         <v>2010</v>
       </c>
@@ -24554,7 +24593,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="264" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A264" s="3">
         <v>2010</v>
       </c>
@@ -24690,7 +24729,7 @@
         <v>150332635540530.41</v>
       </c>
     </row>
-    <row r="266" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A266" s="3">
         <v>2010</v>
       </c>
@@ -24730,7 +24769,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="267" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A267" s="3">
         <v>2010</v>
       </c>
@@ -24770,7 +24809,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="268" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A268" s="3">
         <v>2010</v>
       </c>
@@ -24812,7 +24851,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="269" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A269" s="3">
         <v>2010</v>
       </c>
@@ -24854,7 +24893,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="270" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A270" s="3">
         <v>2010</v>
       </c>
@@ -24894,7 +24933,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="271" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A271" s="3">
         <v>2010</v>
       </c>
@@ -24934,7 +24973,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="272" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A272" s="3">
         <v>2009</v>
       </c>
@@ -24974,7 +25013,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="273" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A273" s="3">
         <v>2009</v>
       </c>
@@ -25014,7 +25053,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="274" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A274" s="3">
         <v>2009</v>
       </c>
@@ -25054,7 +25093,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="275" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A275" s="3">
         <v>2009</v>
       </c>
@@ -25094,7 +25133,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="276" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A276" s="3">
         <v>2009</v>
       </c>
@@ -25134,7 +25173,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="277" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A277" s="3">
         <v>2009</v>
       </c>
@@ -25174,7 +25213,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="278" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A278" s="3">
         <v>2009</v>
       </c>
@@ -25214,7 +25253,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="279" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A279" s="3">
         <v>2009</v>
       </c>
@@ -25254,7 +25293,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="280" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A280" s="3">
         <v>2009</v>
       </c>
@@ -25294,7 +25333,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="281" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A281" s="3">
         <v>2009</v>
       </c>
@@ -25360,8 +25399,12 @@
         <f>IF( J281="s.i", "s.i", IF(ISBLANK(J281),"Actualizando información",IFERROR(J281 / VLOOKUP(A281,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>7218695674.6454353</v>
       </c>
-    </row>
-    <row r="282" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AR281" s="10">
+        <f xml:space="preserve"> 6112095 * 1000</f>
+        <v>6112095000</v>
+      </c>
+    </row>
+    <row r="282" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A282" s="3">
         <v>2009</v>
       </c>
@@ -25400,8 +25443,12 @@
         <f>IF( J282="s.i", "s.i", IF(ISBLANK(J282),"Actualizando información",IFERROR(J282 / VLOOKUP(A282,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>Actualizando información</v>
       </c>
-    </row>
-    <row r="283" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AR282" s="10">
+        <f xml:space="preserve"> 2906387 * 1000</f>
+        <v>2906387000</v>
+      </c>
+    </row>
+    <row r="283" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A283" s="3">
         <v>2009</v>
       </c>
@@ -25440,8 +25487,12 @@
         <f>IF( J283="s.i", "s.i", IF(ISBLANK(J283),"Actualizando información",IFERROR(J283 / VLOOKUP(A283,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>Actualizando información</v>
       </c>
-    </row>
-    <row r="284" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AR283" s="10">
+        <f xml:space="preserve"> 111196196 * 1000</f>
+        <v>111196196000</v>
+      </c>
+    </row>
+    <row r="284" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A284" s="3">
         <v>2009</v>
       </c>
@@ -25480,8 +25531,12 @@
         <f>IF( J284="s.i", "s.i", IF(ISBLANK(J284),"Actualizando información",IFERROR(J284 / VLOOKUP(A284,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>Actualizando información</v>
       </c>
-    </row>
-    <row r="285" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AR284" s="10">
+        <f xml:space="preserve"> 632007 * 1000</f>
+        <v>632007000</v>
+      </c>
+    </row>
+    <row r="285" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A285" s="3">
         <v>2009</v>
       </c>
@@ -25520,8 +25575,11 @@
         <f>IF( J285="s.i", "s.i", IF(ISBLANK(J285),"Actualizando información",IFERROR(J285 / VLOOKUP(A285,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>Actualizando información</v>
       </c>
-    </row>
-    <row r="286" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AR285" s="10" t="s">
+        <v>2373</v>
+      </c>
+    </row>
+    <row r="286" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A286" s="3">
         <v>2009</v>
       </c>
@@ -25560,8 +25618,12 @@
         <f>IF( J286="s.i", "s.i", IF(ISBLANK(J286),"Actualizando información",IFERROR(J286 / VLOOKUP(A286,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>Actualizando información</v>
       </c>
-    </row>
-    <row r="287" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AR286" s="10">
+        <f xml:space="preserve"> 9337673 * 1000</f>
+        <v>9337673000</v>
+      </c>
+    </row>
+    <row r="287" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A287" s="3">
         <v>2009</v>
       </c>
@@ -25600,8 +25662,12 @@
         <f>IF( J287="s.i", "s.i", IF(ISBLANK(J287),"Actualizando información",IFERROR(J287 / VLOOKUP(A287,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>Actualizando información</v>
       </c>
-    </row>
-    <row r="288" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AR287" s="10">
+        <f xml:space="preserve"> 10547807 * 1000</f>
+        <v>10547807000</v>
+      </c>
+    </row>
+    <row r="288" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A288" s="3">
         <v>2009</v>
       </c>
@@ -25640,8 +25706,11 @@
         <f>IF( J288="s.i", "s.i", IF(ISBLANK(J288),"Actualizando información",IFERROR(J288 / VLOOKUP(A288,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>Actualizando información</v>
       </c>
-    </row>
-    <row r="289" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AR288" s="10" t="s">
+        <v>2373</v>
+      </c>
+    </row>
+    <row r="289" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A289" s="3">
         <v>2009</v>
       </c>
@@ -25680,8 +25749,11 @@
         <f>IF( J289="s.i", "s.i", IF(ISBLANK(J289),"Actualizando información",IFERROR(J289 / VLOOKUP(A289,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>Actualizando información</v>
       </c>
-    </row>
-    <row r="290" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AR289" s="10" t="s">
+        <v>2373</v>
+      </c>
+    </row>
+    <row r="290" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A290" s="3">
         <v>2009</v>
       </c>
@@ -25720,8 +25792,12 @@
         <f>IF( J290="s.i", "s.i", IF(ISBLANK(J290),"Actualizando información",IFERROR(J290 / VLOOKUP(A290,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>Actualizando información</v>
       </c>
-    </row>
-    <row r="291" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AR290" s="10">
+        <f xml:space="preserve"> 3070179 * 1000</f>
+        <v>3070179000</v>
+      </c>
+    </row>
+    <row r="291" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A291" s="3">
         <v>2009</v>
       </c>
@@ -25760,8 +25836,12 @@
         <f>IF( J291="s.i", "s.i", IF(ISBLANK(J291),"Actualizando información",IFERROR(J291 / VLOOKUP(A291,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>Actualizando información</v>
       </c>
-    </row>
-    <row r="292" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AR291" s="10">
+        <f xml:space="preserve"> 9957711 * 1000</f>
+        <v>9957711000</v>
+      </c>
+    </row>
+    <row r="292" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A292" s="3">
         <v>2009</v>
       </c>
@@ -25800,8 +25880,12 @@
         <f>IF( J292="s.i", "s.i", IF(ISBLANK(J292),"Actualizando información",IFERROR(J292 / VLOOKUP(A292,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>Actualizando información</v>
       </c>
-    </row>
-    <row r="293" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AR292" s="10">
+        <f xml:space="preserve"> 318600 * 1000</f>
+        <v>318600000</v>
+      </c>
+    </row>
+    <row r="293" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A293" s="3">
         <v>2009</v>
       </c>
@@ -25840,8 +25924,12 @@
         <f>IF( J293="s.i", "s.i", IF(ISBLANK(J293),"Actualizando información",IFERROR(J293 / VLOOKUP(A293,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>Actualizando información</v>
       </c>
-    </row>
-    <row r="294" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AR293" s="10">
+        <f t="shared" ref="AR293:AR295" si="6" xml:space="preserve"> 17991107 * 1000</f>
+        <v>17991107000</v>
+      </c>
+    </row>
+    <row r="294" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A294" s="3">
         <v>2009</v>
       </c>
@@ -25880,8 +25968,12 @@
         <f>IF( J294="s.i", "s.i", IF(ISBLANK(J294),"Actualizando información",IFERROR(J294 / VLOOKUP(A294,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>Actualizando información</v>
       </c>
-    </row>
-    <row r="295" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AR294" s="10">
+        <f t="shared" si="6"/>
+        <v>17991107000</v>
+      </c>
+    </row>
+    <row r="295" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A295" s="3">
         <v>2009</v>
       </c>
@@ -25922,8 +26014,12 @@
         <f>IF( J295="s.i", "s.i", IF(ISBLANK(J295),"Actualizando información",IFERROR(J295 / VLOOKUP(A295,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>Actualizando información</v>
       </c>
-    </row>
-    <row r="296" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AR295" s="10">
+        <f t="shared" si="6"/>
+        <v>17991107000</v>
+      </c>
+    </row>
+    <row r="296" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A296" s="3">
         <v>2009</v>
       </c>
@@ -25962,8 +26058,12 @@
         <f>IF( J296="s.i", "s.i", IF(ISBLANK(J296),"Actualizando información",IFERROR(J296 / VLOOKUP(A296,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>Actualizando información</v>
       </c>
-    </row>
-    <row r="297" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AR296" s="10">
+        <f xml:space="preserve"> 17991107 * 1000</f>
+        <v>17991107000</v>
+      </c>
+    </row>
+    <row r="297" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A297" s="3">
         <v>2009</v>
       </c>
@@ -26002,8 +26102,11 @@
         <f>IF( J297="s.i", "s.i", IF(ISBLANK(J297),"Actualizando información",IFERROR(J297 / VLOOKUP(A297,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>Actualizando información</v>
       </c>
-    </row>
-    <row r="298" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AR297" s="10" t="s">
+        <v>2373</v>
+      </c>
+    </row>
+    <row r="298" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A298" s="3">
         <v>2009</v>
       </c>
@@ -26042,8 +26145,11 @@
         <f>IF( J298="s.i", "s.i", IF(ISBLANK(J298),"Actualizando información",IFERROR(J298 / VLOOKUP(A298,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>Actualizando información</v>
       </c>
-    </row>
-    <row r="299" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AR298" s="10" t="s">
+        <v>2373</v>
+      </c>
+    </row>
+    <row r="299" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A299" s="3">
         <v>2009</v>
       </c>
@@ -26084,8 +26190,12 @@
         <f>IF( J299="s.i", "s.i", IF(ISBLANK(J299),"Actualizando información",IFERROR(J299 / VLOOKUP(A299,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>Actualizando información</v>
       </c>
-    </row>
-    <row r="300" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AR299" s="10">
+        <f xml:space="preserve"> 15930000 * 1000</f>
+        <v>15930000000</v>
+      </c>
+    </row>
+    <row r="300" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A300" s="3">
         <v>2009</v>
       </c>
@@ -26128,8 +26238,11 @@
         <f>IF( J300="s.i", "s.i", IF(ISBLANK(J300),"Actualizando información",IFERROR(J300 / VLOOKUP(A300,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>Actualizando información</v>
       </c>
-    </row>
-    <row r="301" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AR300" s="10" t="s">
+        <v>2373</v>
+      </c>
+    </row>
+    <row r="301" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A301" s="3">
         <v>2009</v>
       </c>
@@ -26168,8 +26281,12 @@
         <f>IF( J301="s.i", "s.i", IF(ISBLANK(J301),"Actualizando información",IFERROR(J301 / VLOOKUP(A301,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>Actualizando información</v>
       </c>
-    </row>
-    <row r="302" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AR301" s="10">
+        <f xml:space="preserve"> 1188054 * 1000</f>
+        <v>1188054000</v>
+      </c>
+    </row>
+    <row r="302" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A302" s="3">
         <v>2009</v>
       </c>
@@ -26233,8 +26350,12 @@
         <f>IF( J302="s.i", "s.i", IF(ISBLANK(J302),"Actualizando información",IFERROR(J302 / VLOOKUP(A302,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>29417053898.539055</v>
       </c>
-    </row>
-    <row r="303" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AR302" s="10">
+        <f xml:space="preserve"> 182590 * 1000</f>
+        <v>182590000</v>
+      </c>
+    </row>
+    <row r="303" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A303" s="3">
         <v>2009</v>
       </c>
@@ -26273,8 +26394,12 @@
         <f>IF( J303="s.i", "s.i", IF(ISBLANK(J303),"Actualizando información",IFERROR(J303 / VLOOKUP(A303,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>Actualizando información</v>
       </c>
-    </row>
-    <row r="304" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AR303" s="10">
+        <f xml:space="preserve"> 1535413 * 1000</f>
+        <v>1535413000</v>
+      </c>
+    </row>
+    <row r="304" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A304" s="3">
         <v>2009</v>
       </c>
@@ -26342,8 +26467,12 @@
         <f>IF( J304="s.i", "s.i", IF(ISBLANK(J304),"Actualizando información",IFERROR(J304 / VLOOKUP(A304,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>4646383572.2838192</v>
       </c>
-    </row>
-    <row r="305" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AR304" s="10">
+        <f xml:space="preserve"> 2975575 * 1000</f>
+        <v>2975575000</v>
+      </c>
+    </row>
+    <row r="305" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A305" s="3">
         <v>2009</v>
       </c>
@@ -26411,8 +26540,12 @@
         <f>IF( J305="s.i", "s.i", IF(ISBLANK(J305),"Actualizando información",IFERROR(J305 / VLOOKUP(A305,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>4646383572.2838192</v>
       </c>
-    </row>
-    <row r="306" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AR305" s="10">
+        <f xml:space="preserve"> 2975575 * 1000</f>
+        <v>2975575000</v>
+      </c>
+    </row>
+    <row r="306" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A306" s="3">
         <v>2009</v>
       </c>
@@ -26451,8 +26584,12 @@
         <f>IF( J306="s.i", "s.i", IF(ISBLANK(J306),"Actualizando información",IFERROR(J306 / VLOOKUP(A306,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>Actualizando información</v>
       </c>
-    </row>
-    <row r="307" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AR306" s="10">
+        <f xml:space="preserve"> 318600 * 1000</f>
+        <v>318600000</v>
+      </c>
+    </row>
+    <row r="307" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A307" s="3">
         <v>2009</v>
       </c>
@@ -26491,8 +26628,12 @@
         <f>IF( J307="s.i", "s.i", IF(ISBLANK(J307),"Actualizando información",IFERROR(J307 / VLOOKUP(A307,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>Actualizando información</v>
       </c>
-    </row>
-    <row r="308" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AR307" s="10">
+        <f t="shared" ref="AR307" si="7" xml:space="preserve"> 318600 * 1000</f>
+        <v>318600000</v>
+      </c>
+    </row>
+    <row r="308" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A308" s="3">
         <v>2009</v>
       </c>
@@ -26531,8 +26672,12 @@
         <f>IF( J308="s.i", "s.i", IF(ISBLANK(J308),"Actualizando información",IFERROR(J308 / VLOOKUP(A308,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>Actualizando información</v>
       </c>
-    </row>
-    <row r="309" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AR308" s="10">
+        <f xml:space="preserve"> 318600 * 1000</f>
+        <v>318600000</v>
+      </c>
+    </row>
+    <row r="309" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A309" s="3">
         <v>2009</v>
       </c>
@@ -26571,8 +26716,12 @@
         <f>IF( J309="s.i", "s.i", IF(ISBLANK(J309),"Actualizando información",IFERROR(J309 / VLOOKUP(A309,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>Actualizando información</v>
       </c>
-    </row>
-    <row r="310" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AR309" s="10">
+        <f xml:space="preserve"> 4120372 * 1000</f>
+        <v>4120372000</v>
+      </c>
+    </row>
+    <row r="310" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A310" s="3">
         <v>2008</v>
       </c>
@@ -26614,7 +26763,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="311" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A311" s="3">
         <v>2008</v>
       </c>
@@ -26654,7 +26803,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="312" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A312" s="3">
         <v>2008</v>
       </c>
@@ -26694,7 +26843,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="313" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A313" s="3">
         <v>2008</v>
       </c>
@@ -26734,7 +26883,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="314" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A314" s="3">
         <v>2008</v>
       </c>
@@ -26774,7 +26923,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="315" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A315" s="3">
         <v>2008</v>
       </c>
@@ -26814,7 +26963,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="316" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A316" s="3">
         <v>2008</v>
       </c>
@@ -26854,7 +27003,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="317" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A317" s="3">
         <v>2008</v>
       </c>
@@ -26894,7 +27043,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="318" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A318" s="3">
         <v>2008</v>
       </c>
@@ -26934,7 +27083,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="319" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A319" s="3">
         <v>2008</v>
       </c>
@@ -26976,7 +27125,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="320" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A320" s="3">
         <v>2008</v>
       </c>
@@ -27018,7 +27167,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="321" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A321" s="3">
         <v>2008</v>
       </c>
@@ -27058,7 +27207,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="322" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A322" s="3">
         <v>2008</v>
       </c>
@@ -27100,7 +27249,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="323" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A323" s="3">
         <v>2008</v>
       </c>
@@ -27142,7 +27291,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="324" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A324" s="3">
         <v>2008</v>
       </c>
@@ -27184,7 +27333,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="325" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A325" s="3">
         <v>2008</v>
       </c>
@@ -27224,7 +27373,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="326" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A326" s="3">
         <v>2008</v>
       </c>
@@ -27266,7 +27415,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="327" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A327" s="3">
         <v>2008</v>
       </c>
@@ -27308,7 +27457,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="328" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A328" s="3">
         <v>2008</v>
       </c>
@@ -27350,7 +27499,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="329" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A329" s="3">
         <v>2008</v>
       </c>
@@ -27392,7 +27541,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="330" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A330" s="3">
         <v>2008</v>
       </c>
@@ -27434,7 +27583,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="331" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A331" s="3">
         <v>2008</v>
       </c>
@@ -27476,7 +27625,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="332" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A332" s="3">
         <v>2008</v>
       </c>
@@ -27516,7 +27665,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="333" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A333" s="3">
         <v>2008</v>
       </c>
@@ -27558,7 +27707,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="334" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A334" s="3">
         <v>2008</v>
       </c>
@@ -27598,7 +27747,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="335" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A335" s="3">
         <v>2008</v>
       </c>
@@ -27638,7 +27787,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="336" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A336" s="3">
         <v>2008</v>
       </c>
@@ -27678,7 +27827,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="337" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A337" s="3">
         <v>2008</v>
       </c>
@@ -27718,7 +27867,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="338" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A338" s="3">
         <v>2008</v>
       </c>
@@ -27758,7 +27907,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="339" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A339" s="3">
         <v>2008</v>
       </c>
@@ -27798,7 +27947,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="340" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A340" s="3">
         <v>2008</v>
       </c>
@@ -27838,7 +27987,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="341" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A341" s="3">
         <v>2008</v>
       </c>
@@ -27878,7 +28027,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="342" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A342" s="3">
         <v>2008</v>
       </c>
@@ -27918,7 +28067,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="343" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A343" s="3">
         <v>2008</v>
       </c>
@@ -27958,7 +28107,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="344" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A344" s="3">
         <v>2008</v>
       </c>
@@ -27998,7 +28147,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="345" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A345" s="3">
         <v>2007</v>
       </c>
@@ -28038,7 +28187,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="346" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A346" s="3">
         <v>2007</v>
       </c>
@@ -28080,7 +28229,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="347" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A347" s="3">
         <v>2007</v>
       </c>
@@ -28120,7 +28269,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="348" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A348" s="3">
         <v>2007</v>
       </c>
@@ -28160,7 +28309,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="349" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A349" s="3">
         <v>2007</v>
       </c>
@@ -28200,7 +28349,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="350" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A350" s="3">
         <v>2007</v>
       </c>
@@ -28240,7 +28389,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="351" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A351" s="3">
         <v>2007</v>
       </c>
@@ -28282,7 +28431,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="352" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A352" s="3">
         <v>2007</v>
       </c>
@@ -28322,7 +28471,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="353" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A353" s="3">
         <v>2007</v>
       </c>
@@ -28362,7 +28511,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="354" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A354" s="3">
         <v>2007</v>
       </c>
@@ -28402,7 +28551,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="355" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A355" s="3">
         <v>2007</v>
       </c>
@@ -28442,7 +28591,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="356" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A356" s="3">
         <v>2007</v>
       </c>
@@ -28484,7 +28633,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="357" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A357" s="3">
         <v>2007</v>
       </c>
@@ -28526,7 +28675,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="358" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A358" s="3">
         <v>2007</v>
       </c>
@@ -28568,7 +28717,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="359" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A359" s="3">
         <v>2007</v>
       </c>
@@ -28610,7 +28759,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="360" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A360" s="3">
         <v>2007</v>
       </c>
@@ -28650,7 +28799,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="361" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A361" s="3">
         <v>2007</v>
       </c>
@@ -28692,7 +28841,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="362" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A362" s="3">
         <v>2007</v>
       </c>
@@ -28734,7 +28883,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="363" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A363" s="3">
         <v>2007</v>
       </c>
@@ -28774,7 +28923,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="364" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A364" s="3">
         <v>2007</v>
       </c>
@@ -28814,7 +28963,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="365" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A365" s="3">
         <v>2007</v>
       </c>
@@ -28854,7 +29003,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="366" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A366" s="3">
         <v>2007</v>
       </c>
@@ -28894,7 +29043,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="367" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A367" s="3">
         <v>2007</v>
       </c>
@@ -28934,7 +29083,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="368" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A368" s="3">
         <v>2007</v>
       </c>
@@ -28974,7 +29123,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="369" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A369" s="3">
         <v>2007</v>
       </c>
@@ -29014,7 +29163,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="370" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A370" s="3">
         <v>2007</v>
       </c>
@@ -29054,7 +29203,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="371" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A371" s="3">
         <v>2007</v>
       </c>
@@ -29094,7 +29243,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="372" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A372" s="3">
         <v>2007</v>
       </c>
@@ -29134,7 +29283,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="373" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A373" s="3">
         <v>2007</v>
       </c>
@@ -29176,7 +29325,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="374" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A374" s="3">
         <v>2007</v>
       </c>
@@ -29218,7 +29367,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="375" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A375" s="3">
         <v>2007</v>
       </c>
@@ -29258,7 +29407,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="376" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A376" s="3">
         <v>2007</v>
       </c>
@@ -29298,7 +29447,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="377" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A377" s="3">
         <v>2006</v>
       </c>
@@ -29338,7 +29487,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="378" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A378" s="3">
         <v>2006</v>
       </c>
@@ -29380,7 +29529,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="379" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A379" s="3">
         <v>2006</v>
       </c>
@@ -29420,7 +29569,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="380" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A380" s="3">
         <v>2006</v>
       </c>
@@ -29460,7 +29609,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="381" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A381" s="3">
         <v>2006</v>
       </c>
@@ -29500,7 +29649,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="382" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A382" s="3">
         <v>2006</v>
       </c>
@@ -29540,7 +29689,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="383" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A383" s="3">
         <v>2006</v>
       </c>
@@ -29580,7 +29729,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="384" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A384" s="3">
         <v>2006</v>
       </c>
@@ -29620,7 +29769,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="385" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A385" s="3">
         <v>2006</v>
       </c>
@@ -29662,7 +29811,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="386" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A386" s="3">
         <v>2006</v>
       </c>
@@ -29702,7 +29851,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="387" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A387" s="3">
         <v>2006</v>
       </c>
@@ -29742,7 +29891,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="388" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A388" s="3">
         <v>2006</v>
       </c>
@@ -29786,7 +29935,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="389" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A389" s="3">
         <v>2006</v>
       </c>
@@ -29826,7 +29975,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="390" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A390" s="3">
         <v>2006</v>
       </c>
@@ -29866,7 +30015,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="391" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A391" s="3">
         <v>2006</v>
       </c>
@@ -29906,7 +30055,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="392" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A392" s="3">
         <v>2006</v>
       </c>
@@ -29946,7 +30095,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="393" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A393" s="3">
         <v>2006</v>
       </c>
@@ -29986,7 +30135,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="394" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A394" s="3">
         <v>2006</v>
       </c>
@@ -30026,7 +30175,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="395" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A395" s="3">
         <v>2006</v>
       </c>
@@ -30066,7 +30215,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="396" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A396" s="3">
         <v>2006</v>
       </c>
@@ -30106,7 +30255,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="397" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A397" s="3">
         <v>2006</v>
       </c>
@@ -30146,7 +30295,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="398" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A398" s="3">
         <v>2005</v>
       </c>
@@ -30188,7 +30337,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="399" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A399" s="3">
         <v>2005</v>
       </c>
@@ -30228,7 +30377,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="400" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A400" s="3">
         <v>2005</v>
       </c>
@@ -30268,7 +30417,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="401" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A401" s="3">
         <v>2005</v>
       </c>
@@ -30308,7 +30457,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="402" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A402" s="3">
         <v>2005</v>
       </c>
@@ -30348,7 +30497,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="403" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A403" s="3">
         <v>2005</v>
       </c>
@@ -30388,7 +30537,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="404" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A404" s="3">
         <v>2005</v>
       </c>
@@ -30430,7 +30579,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="405" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A405" s="3">
         <v>2005</v>
       </c>
@@ -30470,7 +30619,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="406" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A406" s="3">
         <v>2005</v>
       </c>
@@ -30510,7 +30659,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="407" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A407" s="3">
         <v>2005</v>
       </c>
@@ -30550,7 +30699,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="408" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A408" s="3">
         <v>2005</v>
       </c>
@@ -30590,7 +30739,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="409" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A409" s="3">
         <v>2005</v>
       </c>
@@ -30630,7 +30779,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="410" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A410" s="3">
         <v>2005</v>
       </c>
@@ -30670,7 +30819,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="411" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A411" s="3">
         <v>2005</v>
       </c>
@@ -30710,7 +30859,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="412" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A412" s="3">
         <v>2005</v>
       </c>
@@ -30750,7 +30899,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="413" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A413" s="3">
         <v>2005</v>
       </c>
@@ -30790,7 +30939,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="414" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A414" s="3">
         <v>2005</v>
       </c>
@@ -30832,7 +30981,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="415" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A415" s="3">
         <v>2005</v>
       </c>
@@ -30872,7 +31021,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="416" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A416" s="3">
         <v>2005</v>
       </c>
@@ -30912,7 +31061,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="417" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A417" s="3">
         <v>2005</v>
       </c>
@@ -30952,7 +31101,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="418" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A418" s="3">
         <v>2005</v>
       </c>
@@ -30992,7 +31141,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="419" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A419" s="3">
         <v>2005</v>
       </c>
@@ -31032,7 +31181,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="420" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A420" s="3">
         <v>2005</v>
       </c>
@@ -31072,7 +31221,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="421" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A421" s="3">
         <v>2004</v>
       </c>
@@ -31112,7 +31261,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="422" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A422" s="3">
         <v>2004</v>
       </c>
@@ -31152,7 +31301,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="423" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A423" s="3">
         <v>2004</v>
       </c>
@@ -31192,7 +31341,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="424" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A424" s="3">
         <v>2004</v>
       </c>
@@ -31232,7 +31381,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="425" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A425" s="3">
         <v>2004</v>
       </c>
@@ -31272,7 +31421,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="426" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A426" s="3">
         <v>2004</v>
       </c>
@@ -31312,7 +31461,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="427" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A427" s="3">
         <v>2004</v>
       </c>
@@ -31352,7 +31501,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="428" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A428" s="3">
         <v>2004</v>
       </c>
@@ -31392,7 +31541,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="429" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A429" s="3">
         <v>2004</v>
       </c>
@@ -31432,7 +31581,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="430" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A430" s="3">
         <v>2004</v>
       </c>
@@ -31472,7 +31621,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="431" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A431" s="3">
         <v>2004</v>
       </c>
@@ -31512,7 +31661,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="432" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A432" s="3">
         <v>2004</v>
       </c>
@@ -31552,7 +31701,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="433" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A433" s="3">
         <v>2004</v>
       </c>
@@ -31592,7 +31741,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="434" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A434" s="3">
         <v>2004</v>
       </c>
@@ -31632,7 +31781,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="435" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A435" s="3">
         <v>2004</v>
       </c>
@@ -31672,7 +31821,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="436" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A436" s="3">
         <v>2004</v>
       </c>
@@ -31712,7 +31861,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="437" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A437" s="3">
         <v>2004</v>
       </c>
@@ -31752,7 +31901,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="438" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A438" s="3">
         <v>2004</v>
       </c>
@@ -31792,7 +31941,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="439" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A439" s="3">
         <v>2004</v>
       </c>
@@ -31832,7 +31981,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="440" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A440" s="3">
         <v>2004</v>
       </c>
@@ -31872,7 +32021,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="441" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A441" s="3">
         <v>2004</v>
       </c>
@@ -31912,7 +32061,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="442" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A442" s="3">
         <v>2004</v>
       </c>
@@ -31952,7 +32101,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="443" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A443" s="3">
         <v>2004</v>
       </c>
@@ -31992,7 +32141,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="444" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A444" s="3">
         <v>2004</v>
       </c>
@@ -32032,7 +32181,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="445" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A445" s="3">
         <v>2004</v>
       </c>
@@ -32072,7 +32221,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="446" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A446" s="3">
         <v>2004</v>
       </c>
@@ -32112,7 +32261,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="447" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A447" s="3">
         <v>2004</v>
       </c>
@@ -32152,7 +32301,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="448" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A448" s="3">
         <v>2004</v>
       </c>
@@ -32192,7 +32341,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="449" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A449" s="3">
         <v>2004</v>
       </c>
@@ -32232,7 +32381,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="450" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A450" s="3">
         <v>2004</v>
       </c>
@@ -32272,7 +32421,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="451" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A451" s="3">
         <v>2004</v>
       </c>
@@ -32312,7 +32461,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="452" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A452" s="3">
         <v>2003</v>
       </c>
@@ -32352,7 +32501,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="453" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A453" s="3">
         <v>2003</v>
       </c>
@@ -32392,7 +32541,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="454" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A454" s="3">
         <v>2003</v>
       </c>
@@ -32432,7 +32581,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="455" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A455" s="3">
         <v>2003</v>
       </c>
@@ -32472,7 +32621,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="456" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A456" s="3">
         <v>2003</v>
       </c>
@@ -32512,7 +32661,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="457" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A457" s="3">
         <v>2003</v>
       </c>
@@ -32552,7 +32701,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="458" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A458" s="3">
         <v>2003</v>
       </c>
@@ -32592,7 +32741,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="459" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A459" s="3">
         <v>2003</v>
       </c>
@@ -32632,7 +32781,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="460" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A460" s="3">
         <v>2003</v>
       </c>
@@ -32672,7 +32821,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="461" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A461" s="3">
         <v>2003</v>
       </c>
@@ -32712,7 +32861,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="462" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A462" s="3">
         <v>2003</v>
       </c>
@@ -32752,7 +32901,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="463" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A463" s="3">
         <v>2003</v>
       </c>
@@ -32792,7 +32941,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="464" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A464" s="3">
         <v>2003</v>
       </c>
@@ -32832,7 +32981,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="465" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A465" s="3">
         <v>2003</v>
       </c>
@@ -32874,7 +33023,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="466" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A466" s="3">
         <v>2003</v>
       </c>
@@ -32914,7 +33063,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="467" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A467" s="3">
         <v>2003</v>
       </c>
@@ -32954,7 +33103,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="468" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A468" s="3">
         <v>2003</v>
       </c>
@@ -32994,7 +33143,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="469" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A469" s="3">
         <v>2003</v>
       </c>
@@ -33034,7 +33183,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="470" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A470" s="3">
         <v>2003</v>
       </c>
@@ -33074,7 +33223,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="471" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A471" s="3">
         <v>2002</v>
       </c>
@@ -33114,7 +33263,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="472" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A472" s="3">
         <v>2002</v>
       </c>
@@ -33154,7 +33303,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="473" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A473" s="3">
         <v>2002</v>
       </c>
@@ -33194,7 +33343,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="474" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A474" s="3">
         <v>2002</v>
       </c>
@@ -33234,7 +33383,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="475" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A475" s="3">
         <v>2002</v>
       </c>
@@ -33274,7 +33423,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="476" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A476" s="3">
         <v>2002</v>
       </c>
@@ -33314,7 +33463,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="477" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A477" s="3">
         <v>2002</v>
       </c>
@@ -33354,7 +33503,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="478" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A478" s="3">
         <v>2002</v>
       </c>
@@ -33394,7 +33543,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="479" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A479" s="3">
         <v>2002</v>
       </c>
@@ -33434,7 +33583,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="480" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A480" s="3">
         <v>2002</v>
       </c>
@@ -33474,7 +33623,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="481" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A481" s="3">
         <v>2002</v>
       </c>
@@ -33514,7 +33663,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="482" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A482" s="3">
         <v>2002</v>
       </c>
@@ -33554,7 +33703,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="483" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A483" s="3">
         <v>2002</v>
       </c>
@@ -33594,7 +33743,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="484" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A484" s="3">
         <v>2002</v>
       </c>
@@ -33634,7 +33783,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="485" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A485" s="3">
         <v>2002</v>
       </c>
@@ -33674,7 +33823,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="486" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A486" s="3">
         <v>2002</v>
       </c>
@@ -33714,7 +33863,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="487" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A487" s="3">
         <v>2002</v>
       </c>
@@ -33756,7 +33905,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="488" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A488" s="3">
         <v>2002</v>
       </c>
@@ -33800,7 +33949,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="489" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A489" s="3">
         <v>2002</v>
       </c>
@@ -33842,7 +33991,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="490" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A490" s="3">
         <v>2002</v>
       </c>
@@ -33882,7 +34031,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="491" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A491" s="3">
         <v>2002</v>
       </c>
@@ -33922,7 +34071,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="492" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A492" s="3">
         <v>2002</v>
       </c>
@@ -33962,7 +34111,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="493" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A493" s="3">
         <v>2002</v>
       </c>
@@ -34002,7 +34151,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="494" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A494" s="3">
         <v>2002</v>
       </c>
@@ -34046,7 +34195,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="495" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A495" s="3">
         <v>2002</v>
       </c>
@@ -34086,7 +34235,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="496" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A496" s="3">
         <v>2001</v>
       </c>
@@ -34126,7 +34275,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="497" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A497" s="3">
         <v>2001</v>
       </c>
@@ -34166,7 +34315,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="498" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A498" s="3">
         <v>2001</v>
       </c>
@@ -34206,7 +34355,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="499" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A499" s="3">
         <v>2001</v>
       </c>
@@ -34246,7 +34395,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="500" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A500" s="3">
         <v>2001</v>
       </c>
@@ -34286,7 +34435,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="501" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A501" s="3">
         <v>2001</v>
       </c>
@@ -34326,7 +34475,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="502" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A502" s="3">
         <v>2001</v>
       </c>
@@ -34366,7 +34515,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="503" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A503" s="3">
         <v>2001</v>
       </c>
@@ -34406,7 +34555,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="504" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A504" s="3">
         <v>2001</v>
       </c>
@@ -34446,7 +34595,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="505" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A505" s="3">
         <v>2001</v>
       </c>
@@ -34486,7 +34635,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="506" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A506" s="3">
         <v>2001</v>
       </c>
@@ -34526,7 +34675,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="507" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A507" s="3">
         <v>2001</v>
       </c>
@@ -34566,7 +34715,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="508" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A508" s="3">
         <v>2001</v>
       </c>
@@ -34606,7 +34755,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="509" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A509" s="3">
         <v>2001</v>
       </c>
@@ -34646,7 +34795,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="510" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A510" s="3">
         <v>2001</v>
       </c>
@@ -34686,7 +34835,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="511" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A511" s="3">
         <v>2001</v>
       </c>
@@ -34726,7 +34875,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="512" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A512" s="3">
         <v>2001</v>
       </c>
@@ -34766,7 +34915,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="513" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A513" s="3">
         <v>2001</v>
       </c>
@@ -34806,7 +34955,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="514" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A514" s="3">
         <v>2001</v>
       </c>
@@ -34848,7 +34997,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="515" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A515" s="3">
         <v>2001</v>
       </c>
@@ -34888,7 +35037,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="516" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A516" s="3">
         <v>2001</v>
       </c>
@@ -34928,7 +35077,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="517" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A517" s="3">
         <v>2000</v>
       </c>
@@ -34968,7 +35117,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="518" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A518" s="3">
         <v>2000</v>
       </c>
@@ -35008,7 +35157,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="519" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A519" s="3">
         <v>2000</v>
       </c>
@@ -35048,7 +35197,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="520" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A520" s="3">
         <v>2000</v>
       </c>
@@ -35088,7 +35237,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="521" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A521" s="3">
         <v>2000</v>
       </c>
@@ -35128,7 +35277,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="522" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A522" s="3">
         <v>2000</v>
       </c>
@@ -35168,7 +35317,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="523" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A523" s="3">
         <v>2000</v>
       </c>
@@ -35208,7 +35357,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="524" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A524" s="3">
         <v>2000</v>
       </c>
@@ -35248,7 +35397,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="525" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A525" s="3">
         <v>2000</v>
       </c>
@@ -35288,7 +35437,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="526" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A526" s="3">
         <v>2000</v>
       </c>
@@ -35328,7 +35477,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="527" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A527" s="3">
         <v>2000</v>
       </c>
@@ -35368,7 +35517,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="528" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A528" s="3">
         <v>2000</v>
       </c>
@@ -35408,7 +35557,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="529" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A529" s="3">
         <v>2000</v>
       </c>
@@ -35448,7 +35597,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="530" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A530" s="3">
         <v>2000</v>
       </c>
@@ -35488,7 +35637,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="531" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A531" s="3">
         <v>2000</v>
       </c>
@@ -35528,7 +35677,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="532" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A532" s="3">
         <v>2000</v>
       </c>
@@ -35568,7 +35717,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="533" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A533" s="3">
         <v>2000</v>
       </c>
@@ -35608,7 +35757,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="534" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A534" s="3">
         <v>2000</v>
       </c>
@@ -35648,7 +35797,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="535" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A535" s="3">
         <v>2000</v>
       </c>
@@ -35688,7 +35837,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="536" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A536" s="3">
         <v>2000</v>
       </c>
@@ -35728,7 +35877,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="537" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A537" s="3">
         <v>1999</v>
       </c>
@@ -35768,7 +35917,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="538" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A538" s="3">
         <v>1999</v>
       </c>
@@ -35835,7 +35984,7 @@
         <v>2647413713.3990426</v>
       </c>
     </row>
-    <row r="539" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A539" s="3">
         <v>1999</v>
       </c>
@@ -35877,7 +36026,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="540" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A540" s="3">
         <v>1999</v>
       </c>
@@ -35919,7 +36068,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="541" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A541" s="3">
         <v>1999</v>
       </c>
@@ -35959,7 +36108,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="542" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A542" s="3">
         <v>1999</v>
       </c>
@@ -35999,7 +36148,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="543" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A543" s="3">
         <v>1999</v>
       </c>
@@ -36039,7 +36188,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="544" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A544" s="3">
         <v>1999</v>
       </c>
@@ -36081,7 +36230,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="545" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A545" s="3">
         <v>1999</v>
       </c>
@@ -36121,7 +36270,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="546" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A546" s="3">
         <v>1999</v>
       </c>
@@ -36161,7 +36310,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="547" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A547" s="3">
         <v>1999</v>
       </c>
@@ -36201,7 +36350,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="548" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A548" s="3">
         <v>1999</v>
       </c>
@@ -36241,7 +36390,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="549" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A549" s="3">
         <v>1999</v>
       </c>
@@ -36281,7 +36430,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="550" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A550" s="3">
         <v>1999</v>
       </c>
@@ -36323,7 +36472,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="551" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A551" s="3">
         <v>1999</v>
       </c>
@@ -36363,7 +36512,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="552" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A552" s="3">
         <v>1999</v>
       </c>
@@ -36403,7 +36552,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="553" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A553" s="3">
         <v>1999</v>
       </c>
@@ -36443,7 +36592,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="554" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A554" s="3">
         <v>1999</v>
       </c>
@@ -36483,7 +36632,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="555" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A555" s="3">
         <v>1999</v>
       </c>
@@ -36525,7 +36674,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="556" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A556" s="3">
         <v>1999</v>
       </c>
@@ -36567,7 +36716,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="557" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A557" s="3">
         <v>1999</v>
       </c>
@@ -36607,7 +36756,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="558" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A558" s="3">
         <v>1998</v>
       </c>
@@ -36647,7 +36796,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="559" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A559" s="3">
         <v>1998</v>
       </c>
@@ -36687,7 +36836,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="560" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A560" s="3">
         <v>1998</v>
       </c>
@@ -36727,7 +36876,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="561" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A561" s="3">
         <v>1998</v>
       </c>
@@ -36769,7 +36918,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="562" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A562" s="3">
         <v>1998</v>
       </c>
@@ -36809,7 +36958,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="563" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A563" s="3">
         <v>1998</v>
       </c>
@@ -36849,7 +36998,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="564" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A564" s="3">
         <v>1998</v>
       </c>
@@ -36889,7 +37038,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="565" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A565" s="3">
         <v>1998</v>
       </c>
@@ -36929,7 +37078,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="566" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A566" s="3">
         <v>1998</v>
       </c>
@@ -36969,7 +37118,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="567" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A567" s="3">
         <v>1998</v>
       </c>
@@ -37011,7 +37160,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="568" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A568" s="3">
         <v>1998</v>
       </c>
@@ -37053,7 +37202,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="569" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A569" s="3">
         <v>1998</v>
       </c>
@@ -37093,7 +37242,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="570" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A570" s="3">
         <v>1998</v>
       </c>
@@ -37133,7 +37282,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="571" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A571" s="3">
         <v>1998</v>
       </c>
@@ -37173,7 +37322,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="572" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A572" s="3">
         <v>1998</v>
       </c>
@@ -37213,7 +37362,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="573" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A573" s="3">
         <v>1998</v>
       </c>
@@ -37253,7 +37402,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="574" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A574" s="3">
         <v>1998</v>
       </c>
@@ -37293,7 +37442,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="575" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A575" s="3">
         <v>1998</v>
       </c>
@@ -37333,7 +37482,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="576" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A576" s="3">
         <v>1998</v>
       </c>
@@ -37375,7 +37524,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="577" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A577" s="3">
         <v>1998</v>
       </c>
@@ -37415,7 +37564,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="578" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A578" s="3">
         <v>1998</v>
       </c>
@@ -37455,7 +37604,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="579" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A579" s="3">
         <v>1998</v>
       </c>
@@ -37495,7 +37644,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="580" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A580" s="3">
         <v>1998</v>
       </c>
@@ -37535,7 +37684,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="581" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A581" s="3">
         <v>1998</v>
       </c>
@@ -37575,7 +37724,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="582" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A582" s="3">
         <v>1998</v>
       </c>
@@ -37615,7 +37764,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="583" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A583" s="3">
         <v>1998</v>
       </c>
@@ -37655,7 +37804,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="584" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A584" s="3">
         <v>1998</v>
       </c>
@@ -37695,7 +37844,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="585" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A585" s="3">
         <v>1998</v>
       </c>
@@ -37735,7 +37884,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="586" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A586" s="3">
         <v>1998</v>
       </c>
@@ -37777,7 +37926,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="587" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A587" s="3">
         <v>1998</v>
       </c>
@@ -37817,7 +37966,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="588" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A588" s="3">
         <v>1998</v>
       </c>
@@ -37857,7 +38006,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="589" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A589" s="3">
         <v>1998</v>
       </c>
@@ -37897,7 +38046,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="590" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A590" s="3">
         <v>1998</v>
       </c>
@@ -37937,7 +38086,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="591" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A591" s="3">
         <v>1998</v>
       </c>
@@ -37977,7 +38126,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="592" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A592" s="3">
         <v>1998</v>
       </c>
@@ -38017,7 +38166,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="593" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A593" s="3">
         <v>1998</v>
       </c>
@@ -38057,7 +38206,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="594" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A594" s="3">
         <v>1998</v>
       </c>
@@ -38097,7 +38246,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="595" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A595" s="3">
         <v>1998</v>
       </c>
@@ -38137,7 +38286,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="596" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A596" s="3">
         <v>1998</v>
       </c>
@@ -38177,7 +38326,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="597" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A597" s="3">
         <v>1998</v>
       </c>
@@ -38217,7 +38366,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="598" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A598" s="3">
         <v>1998</v>
       </c>
@@ -38257,7 +38406,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="599" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A599" s="3">
         <v>1998</v>
       </c>
@@ -38297,7 +38446,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="600" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A600" s="3">
         <v>1998</v>
       </c>
@@ -38337,7 +38486,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="601" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A601" s="3">
         <v>1998</v>
       </c>
@@ -38377,7 +38526,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="602" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A602" s="3">
         <v>1998</v>
       </c>
@@ -38417,7 +38566,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="603" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A603" s="3">
         <v>1997</v>
       </c>
@@ -38457,7 +38606,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="604" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A604" s="3">
         <v>1997</v>
       </c>
@@ -38497,7 +38646,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="605" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A605" s="3">
         <v>1997</v>
       </c>
@@ -38537,7 +38686,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="606" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A606" s="3">
         <v>1997</v>
       </c>
@@ -38577,7 +38726,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="607" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A607" s="3">
         <v>1997</v>
       </c>
@@ -38617,7 +38766,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="608" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A608" s="3">
         <v>1997</v>
       </c>
@@ -38657,7 +38806,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="609" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A609" s="3">
         <v>1997</v>
       </c>
@@ -38697,7 +38846,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="610" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A610" s="3">
         <v>1997</v>
       </c>
@@ -38737,7 +38886,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="611" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A611" s="3">
         <v>1997</v>
       </c>
@@ -38777,7 +38926,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="612" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A612" s="3">
         <v>1997</v>
       </c>
@@ -38817,7 +38966,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="613" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A613" s="3">
         <v>1997</v>
       </c>
@@ -38857,7 +39006,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="614" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A614" s="3">
         <v>1997</v>
       </c>
@@ -38897,7 +39046,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="615" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A615" s="3">
         <v>1997</v>
       </c>
@@ -38937,7 +39086,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="616" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A616" s="3">
         <v>1997</v>
       </c>
@@ -38977,7 +39126,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="617" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A617" s="3">
         <v>1997</v>
       </c>
@@ -39017,7 +39166,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="618" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A618" s="3">
         <v>1997</v>
       </c>
@@ -39057,7 +39206,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="619" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A619" s="3">
         <v>1997</v>
       </c>
@@ -39097,7 +39246,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="620" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A620" s="3">
         <v>1997</v>
       </c>
@@ -39139,7 +39288,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="621" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A621" s="3">
         <v>1997</v>
       </c>
@@ -39179,7 +39328,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="622" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A622" s="3">
         <v>1997</v>
       </c>
@@ -39220,27 +39369,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AQ622" xr:uid="{DC04B05A-AFBC-4EBB-852A-50E5B5753FD8}">
-    <filterColumn colId="9">
-      <filters>
-        <filter val="$1.713.932.000.000.000"/>
-        <filter val="$13.058.655.000.000"/>
-        <filter val="$141.370.509.000.000"/>
-        <filter val="$17.015.612.000.000"/>
-        <filter val="$17.169.605.000.000"/>
-        <filter val="$20.334.675.000.000"/>
-        <filter val="$215.848.343.000.000"/>
-        <filter val="$26.622.592.000.000"/>
-        <filter val="$27.041.864.000.000"/>
-        <filter val="$27.310.036.000.000"/>
-        <filter val="$293.866.943.000.000"/>
-        <filter val="$35.827.751.000.000.000"/>
-        <filter val="$38.171.814.000.000"/>
-        <filter val="$4.899.869.000.000.000"/>
-        <filter val="$46.130.757.000.000"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AR622" xr:uid="{6F6314DE-ED3E-44AB-8A71-020213C07503}"/>
   <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="R19" r:id="rId1" xr:uid="{8BE2D469-4FC3-404D-88F5-CAE5385B1926}"/>
@@ -39508,10 +39637,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{604FB875-E6D6-4D0A-835E-1820C0AF6875}">
-  <dimension ref="A1:V18"/>
+  <dimension ref="A1:V20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="T19" sqref="T19"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39521,6 +39650,7 @@
     <col min="4" max="4" width="14.28515625" customWidth="1"/>
     <col min="5" max="5" width="14.140625" customWidth="1"/>
     <col min="13" max="13" width="11.42578125" style="38"/>
+    <col min="15" max="15" width="42.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="26.5703125" customWidth="1"/>
     <col min="17" max="17" width="22" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="22" bestFit="1" customWidth="1"/>
@@ -39974,7 +40104,7 @@
       </c>
       <c r="U16" s="4"/>
     </row>
-    <row r="17" spans="15:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="14:22" x14ac:dyDescent="0.25">
       <c r="O17">
         <v>2012</v>
       </c>
@@ -40001,7 +40131,7 @@
         <v>2367</v>
       </c>
     </row>
-    <row r="18" spans="15:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="14:22" x14ac:dyDescent="0.25">
       <c r="O18">
         <v>2010</v>
       </c>
@@ -40021,6 +40151,20 @@
         <v>2360</v>
       </c>
       <c r="U18" s="4"/>
+    </row>
+    <row r="20" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N20" t="s">
+        <v>2368</v>
+      </c>
+      <c r="O20" t="s">
+        <v>2370</v>
+      </c>
+      <c r="P20" s="4" t="s">
+        <v>2369</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>2371</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -40047,6 +40191,8 @@
     <hyperlink ref="V13" r:id="rId15" xr:uid="{E22084D1-898A-4B12-8735-621A98C5D5E9}"/>
     <hyperlink ref="U14" r:id="rId16" xr:uid="{7AFC842B-BE8D-4F75-A544-794FA04B7E55}"/>
     <hyperlink ref="V17" r:id="rId17" xr:uid="{60320C2E-904B-43EA-A60A-7C16280F9FB0}"/>
+    <hyperlink ref="P20" r:id="rId18" xr:uid="{EC2FECBF-B3B1-4081-8A24-DC2CED1AB85A}"/>
+    <hyperlink ref="U3" r:id="rId19" location="presupuesto_anios" xr:uid="{3A0FD81A-9DF2-431F-9DE7-ABB33C1C8520}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DATAEVAL.xlsx
+++ b/DATAEVAL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/944d5b9328a00097/Data intelligence/temporal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="678" documentId="8_{5ACB605E-C3CF-4E94-9192-00EA6FCEE601}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AA6F1255-2A6B-40BD-BC87-11EB5AC7DC01}"/>
+  <xr:revisionPtr revIDLastSave="732" documentId="8_{5ACB605E-C3CF-4E94-9192-00EA6FCEE601}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9F4FA6D8-A40E-4DB2-8FC4-EA0D79D5EEF7}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dataeval" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5767" uniqueCount="2374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5772" uniqueCount="2374">
   <si>
     <t>Año de protocolo</t>
   </si>
@@ -8310,11 +8310,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AR622"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AR278" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="AL256" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AR280" sqref="AR280"/>
+      <selection pane="bottomRight" activeCell="AR256" sqref="AR256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24283,7 +24283,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="257" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A257" s="3">
         <v>2010</v>
       </c>
@@ -24350,8 +24350,12 @@
         <f>IF( J257="s.i", "s.i", IF(ISBLANK(J257),"Actualizando información",IFERROR(J257 / VLOOKUP(A257,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>s.i</v>
       </c>
-    </row>
-    <row r="258" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="AR257" s="10">
+        <f xml:space="preserve"> 18270000 * 1000</f>
+        <v>18270000000</v>
+      </c>
+    </row>
+    <row r="258" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A258" s="3">
         <v>2010</v>
       </c>
@@ -24390,8 +24394,11 @@
         <f>IF( J258="s.i", "s.i", IF(ISBLANK(J258),"Actualizando información",IFERROR(J258 / VLOOKUP(A258,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>Actualizando información</v>
       </c>
-    </row>
-    <row r="259" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="AR258" s="10" t="s">
+        <v>2373</v>
+      </c>
+    </row>
+    <row r="259" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A259" s="3">
         <v>2010</v>
       </c>
@@ -24430,8 +24437,11 @@
         <f>IF( J259="s.i", "s.i", IF(ISBLANK(J259),"Actualizando información",IFERROR(J259 / VLOOKUP(A259,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>Actualizando información</v>
       </c>
-    </row>
-    <row r="260" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="AR259" s="10" t="s">
+        <v>2373</v>
+      </c>
+    </row>
+    <row r="260" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A260" s="3">
         <v>2010</v>
       </c>
@@ -24470,8 +24480,11 @@
         <f>IF( J260="s.i", "s.i", IF(ISBLANK(J260),"Actualizando información",IFERROR(J260 / VLOOKUP(A260,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>Actualizando información</v>
       </c>
-    </row>
-    <row r="261" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="AR260" s="10" t="s">
+        <v>2373</v>
+      </c>
+    </row>
+    <row r="261" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A261" s="3">
         <v>2010</v>
       </c>
@@ -24510,8 +24523,12 @@
         <f>IF( J261="s.i", "s.i", IF(ISBLANK(J261),"Actualizando información",IFERROR(J261 / VLOOKUP(A261,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>Actualizando información</v>
       </c>
-    </row>
-    <row r="262" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="AR261" s="10">
+        <f xml:space="preserve"> (1379528 + 2224947) * 1000</f>
+        <v>3604475000</v>
+      </c>
+    </row>
+    <row r="262" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A262" s="3">
         <v>2010</v>
       </c>
@@ -24552,8 +24569,12 @@
         <f>IF( J262="s.i", "s.i", IF(ISBLANK(J262),"Actualizando información",IFERROR(J262 / VLOOKUP(A262,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>Actualizando información</v>
       </c>
-    </row>
-    <row r="263" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="AR262" s="10">
+        <f xml:space="preserve"> 9671194 * 1000</f>
+        <v>9671194000</v>
+      </c>
+    </row>
+    <row r="263" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A263" s="3">
         <v>2010</v>
       </c>
@@ -24592,8 +24613,11 @@
         <f>IF( J263="s.i", "s.i", IF(ISBLANK(J263),"Actualizando información",IFERROR(J263 / VLOOKUP(A263,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>Actualizando información</v>
       </c>
-    </row>
-    <row r="264" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="AR263" s="10" t="s">
+        <v>2373</v>
+      </c>
+    </row>
+    <row r="264" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A264" s="3">
         <v>2010</v>
       </c>
@@ -24663,8 +24687,12 @@
         <f>IF( J264="s.i", "s.i", IF(ISBLANK(J264),"Actualizando información",IFERROR(J264 / VLOOKUP(A264,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>14786501880.608461</v>
       </c>
-    </row>
-    <row r="265" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="AR264" s="10">
+        <f xml:space="preserve"> 2544413 * 1000</f>
+        <v>2544413000</v>
+      </c>
+    </row>
+    <row r="265" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A265" s="3">
         <v>2010</v>
       </c>
@@ -24728,8 +24756,12 @@
         <f>IF( J265="s.i", "s.i", IF(ISBLANK(J265),"Actualizando información",IFERROR(J265 / VLOOKUP(A265,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>150332635540530.41</v>
       </c>
-    </row>
-    <row r="266" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="AR265" s="10">
+        <f xml:space="preserve"> 132129142 * 1000</f>
+        <v>132129142000</v>
+      </c>
+    </row>
+    <row r="266" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A266" s="3">
         <v>2010</v>
       </c>
@@ -24768,8 +24800,12 @@
         <f>IF( J266="s.i", "s.i", IF(ISBLANK(J266),"Actualizando información",IFERROR(J266 / VLOOKUP(A266,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>Actualizando información</v>
       </c>
-    </row>
-    <row r="267" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="AR266" s="10">
+        <f xml:space="preserve"> 11728561 * 1000</f>
+        <v>11728561000</v>
+      </c>
+    </row>
+    <row r="267" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A267" s="3">
         <v>2010</v>
       </c>
@@ -24808,8 +24844,12 @@
         <f>IF( J267="s.i", "s.i", IF(ISBLANK(J267),"Actualizando información",IFERROR(J267 / VLOOKUP(A267,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>Actualizando información</v>
       </c>
-    </row>
-    <row r="268" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="AR267" s="10">
+        <f xml:space="preserve"> 8881250 * 1000</f>
+        <v>8881250000</v>
+      </c>
+    </row>
+    <row r="268" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A268" s="3">
         <v>2010</v>
       </c>
@@ -24850,8 +24890,12 @@
         <f>IF( J268="s.i", "s.i", IF(ISBLANK(J268),"Actualizando información",IFERROR(J268 / VLOOKUP(A268,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>Actualizando información</v>
       </c>
-    </row>
-    <row r="269" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="AR268" s="10">
+        <f xml:space="preserve"> 4685491 * 1000</f>
+        <v>4685491000</v>
+      </c>
+    </row>
+    <row r="269" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A269" s="3">
         <v>2010</v>
       </c>
@@ -24892,8 +24936,12 @@
         <f>IF( J269="s.i", "s.i", IF(ISBLANK(J269),"Actualizando información",IFERROR(J269 / VLOOKUP(A269,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>Actualizando información</v>
       </c>
-    </row>
-    <row r="270" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="AR269" s="10">
+        <f xml:space="preserve"> 4685491 * 1000</f>
+        <v>4685491000</v>
+      </c>
+    </row>
+    <row r="270" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A270" s="3">
         <v>2010</v>
       </c>
@@ -24932,8 +24980,12 @@
         <f>IF( J270="s.i", "s.i", IF(ISBLANK(J270),"Actualizando información",IFERROR(J270 / VLOOKUP(A270,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>Actualizando información</v>
       </c>
-    </row>
-    <row r="271" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="AR270" s="10">
+        <f xml:space="preserve"> (5182717 + 15340680) * 1000</f>
+        <v>20523397000</v>
+      </c>
+    </row>
+    <row r="271" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A271" s="3">
         <v>2010</v>
       </c>
@@ -24972,8 +25024,12 @@
         <f>IF( J271="s.i", "s.i", IF(ISBLANK(J271),"Actualizando información",IFERROR(J271 / VLOOKUP(A271,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>Actualizando información</v>
       </c>
-    </row>
-    <row r="272" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="AR271" s="10">
+        <f xml:space="preserve"> (3583453 + 2040487) * 1000</f>
+        <v>5623940000</v>
+      </c>
+    </row>
+    <row r="272" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A272" s="3">
         <v>2009</v>
       </c>
@@ -25012,6 +25068,10 @@
         <f>IF( J272="s.i", "s.i", IF(ISBLANK(J272),"Actualizando información",IFERROR(J272 / VLOOKUP(A272,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>Actualizando información</v>
       </c>
+      <c r="AR272" s="10">
+        <f xml:space="preserve"> 7557784 * 1000</f>
+        <v>7557784000</v>
+      </c>
     </row>
     <row r="273" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A273" s="3">
@@ -25052,6 +25112,10 @@
         <f>IF( J273="s.i", "s.i", IF(ISBLANK(J273),"Actualizando información",IFERROR(J273 / VLOOKUP(A273,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>Actualizando información</v>
       </c>
+      <c r="AR273" s="10">
+        <f xml:space="preserve"> (868185 + 3415241) * 1000</f>
+        <v>4283426000</v>
+      </c>
     </row>
     <row r="274" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A274" s="3">
@@ -25092,6 +25156,10 @@
         <f>IF( J274="s.i", "s.i", IF(ISBLANK(J274),"Actualizando información",IFERROR(J274 / VLOOKUP(A274,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>Actualizando información</v>
       </c>
+      <c r="AR274" s="10">
+        <f xml:space="preserve"> 15272054 * 1000</f>
+        <v>15272054000</v>
+      </c>
     </row>
     <row r="275" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A275" s="3">
@@ -25132,6 +25200,10 @@
         <f>IF( J275="s.i", "s.i", IF(ISBLANK(J275),"Actualizando información",IFERROR(J275 / VLOOKUP(A275,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>Actualizando información</v>
       </c>
+      <c r="AR275" s="10">
+        <f xml:space="preserve"> 1064320 * 1000</f>
+        <v>1064320000</v>
+      </c>
     </row>
     <row r="276" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A276" s="3">
@@ -25172,6 +25244,10 @@
         <f>IF( J276="s.i", "s.i", IF(ISBLANK(J276),"Actualizando información",IFERROR(J276 / VLOOKUP(A276,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>Actualizando información</v>
       </c>
+      <c r="AR276" s="10">
+        <f xml:space="preserve"> 18823388 * 1000</f>
+        <v>18823388000</v>
+      </c>
     </row>
     <row r="277" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A277" s="3">
@@ -25212,6 +25288,10 @@
         <f>IF( J277="s.i", "s.i", IF(ISBLANK(J277),"Actualizando información",IFERROR(J277 / VLOOKUP(A277,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>Actualizando información</v>
       </c>
+      <c r="AR277" s="10">
+        <f t="shared" ref="AR277:AR279" si="6" xml:space="preserve"> 17991107 * 1000</f>
+        <v>17991107000</v>
+      </c>
     </row>
     <row r="278" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A278" s="3">
@@ -25252,6 +25332,10 @@
         <f>IF( J278="s.i", "s.i", IF(ISBLANK(J278),"Actualizando información",IFERROR(J278 / VLOOKUP(A278,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>Actualizando información</v>
       </c>
+      <c r="AR278" s="10">
+        <f t="shared" si="6"/>
+        <v>17991107000</v>
+      </c>
     </row>
     <row r="279" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A279" s="3">
@@ -25292,6 +25376,10 @@
         <f>IF( J279="s.i", "s.i", IF(ISBLANK(J279),"Actualizando información",IFERROR(J279 / VLOOKUP(A279,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>Actualizando información</v>
       </c>
+      <c r="AR279" s="10">
+        <f t="shared" si="6"/>
+        <v>17991107000</v>
+      </c>
     </row>
     <row r="280" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A280" s="3">
@@ -25332,6 +25420,9 @@
         <f>IF( J280="s.i", "s.i", IF(ISBLANK(J280),"Actualizando información",IFERROR(J280 / VLOOKUP(A280,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>Actualizando información</v>
       </c>
+      <c r="AR280" s="10" t="s">
+        <v>2373</v>
+      </c>
     </row>
     <row r="281" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A281" s="3">
@@ -25925,8 +26016,8 @@
         <v>Actualizando información</v>
       </c>
       <c r="AR293" s="10">
-        <f t="shared" ref="AR293:AR295" si="6" xml:space="preserve"> 17991107 * 1000</f>
-        <v>17991107000</v>
+        <f xml:space="preserve"> 33984 * 1000</f>
+        <v>33984000</v>
       </c>
     </row>
     <row r="294" spans="1:44" x14ac:dyDescent="0.25">
@@ -25969,7 +26060,7 @@
         <v>Actualizando información</v>
       </c>
       <c r="AR294" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="AR294:AR295" si="7" xml:space="preserve"> 17991107 * 1000</f>
         <v>17991107000</v>
       </c>
     </row>
@@ -26015,7 +26106,7 @@
         <v>Actualizando información</v>
       </c>
       <c r="AR295" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>17991107000</v>
       </c>
     </row>
@@ -26629,7 +26720,7 @@
         <v>Actualizando información</v>
       </c>
       <c r="AR307" s="10">
-        <f t="shared" ref="AR307" si="7" xml:space="preserve"> 318600 * 1000</f>
+        <f t="shared" ref="AR307" si="8" xml:space="preserve"> 318600 * 1000</f>
         <v>318600000</v>
       </c>
     </row>
@@ -39639,8 +39730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{604FB875-E6D6-4D0A-835E-1820C0AF6875}">
   <dimension ref="A1:V20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/DATAEVAL.xlsx
+++ b/DATAEVAL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/944d5b9328a00097/Data intelligence/temporal/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-EVAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="732" documentId="8_{5ACB605E-C3CF-4E94-9192-00EA6FCEE601}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9F4FA6D8-A40E-4DB2-8FC4-EA0D79D5EEF7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93AFEC9A-05C4-4E66-A199-C580AFA06864}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dataeval" sheetId="1" r:id="rId1"/>
@@ -8310,35 +8310,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AR622"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AL256" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="U253" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AR256" sqref="AR256"/>
+      <selection pane="bottomRight" activeCell="B260" sqref="B260"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.54296875" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="52.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.42578125" customWidth="1"/>
-    <col min="6" max="6" width="25.140625" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="9" width="15.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="52.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.453125" customWidth="1"/>
+    <col min="6" max="6" width="25.1796875" customWidth="1"/>
+    <col min="7" max="7" width="15.7265625" customWidth="1"/>
+    <col min="8" max="9" width="15.7265625" style="2" customWidth="1"/>
     <col min="10" max="10" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="16" width="30.7109375" customWidth="1"/>
-    <col min="17" max="20" width="15.7109375" customWidth="1"/>
-    <col min="21" max="21" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="43" width="17.7109375" customWidth="1"/>
-    <col min="44" max="44" width="18.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="35.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="16" width="30.7265625" customWidth="1"/>
+    <col min="17" max="20" width="15.7265625" customWidth="1"/>
+    <col min="21" max="21" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="31.1796875" bestFit="1" customWidth="1"/>
+    <col min="24" max="43" width="17.7265625" customWidth="1"/>
+    <col min="44" max="44" width="18.453125" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -8472,7 +8472,7 @@
         <v>2372</v>
       </c>
     </row>
-    <row r="2" spans="1:44" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:44" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="30">
         <v>2020</v>
       </c>
@@ -8585,7 +8585,7 @@
       </c>
       <c r="AR2" s="10"/>
     </row>
-    <row r="3" spans="1:44" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:44" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="30">
         <v>2020</v>
       </c>
@@ -8684,7 +8684,7 @@
       </c>
       <c r="AR3" s="10"/>
     </row>
-    <row r="4" spans="1:44" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:44" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="30">
         <v>2020</v>
       </c>
@@ -8793,7 +8793,7 @@
       </c>
       <c r="AR4" s="10"/>
     </row>
-    <row r="5" spans="1:44" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:44" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="30">
         <v>2020</v>
       </c>
@@ -8889,7 +8889,7 @@
       </c>
       <c r="AR5" s="10"/>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>2020</v>
       </c>
@@ -8970,7 +8970,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>2020</v>
       </c>
@@ -9057,7 +9057,7 @@
         <v>1736</v>
       </c>
     </row>
-    <row r="8" spans="1:44" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:44" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="30">
         <v>2020</v>
       </c>
@@ -9151,7 +9151,7 @@
       </c>
       <c r="AR8" s="10"/>
     </row>
-    <row r="9" spans="1:44" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:44" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="30">
         <v>2020</v>
       </c>
@@ -9259,7 +9259,7 @@
       </c>
       <c r="AR9" s="10"/>
     </row>
-    <row r="10" spans="1:44" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:44" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="30">
         <v>2020</v>
       </c>
@@ -9365,7 +9365,7 @@
       </c>
       <c r="AR10" s="10"/>
     </row>
-    <row r="11" spans="1:44" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:44" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="30">
         <v>2020</v>
       </c>
@@ -9462,7 +9462,7 @@
       </c>
       <c r="AR11" s="10"/>
     </row>
-    <row r="12" spans="1:44" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:44" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="30">
         <v>2020</v>
       </c>
@@ -9559,7 +9559,7 @@
       </c>
       <c r="AR12" s="10"/>
     </row>
-    <row r="13" spans="1:44" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:44" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="30">
         <v>2020</v>
       </c>
@@ -9655,7 +9655,7 @@
       </c>
       <c r="AR13" s="10"/>
     </row>
-    <row r="14" spans="1:44" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:44" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="30">
         <v>2020</v>
       </c>
@@ -9736,7 +9736,7 @@
       </c>
       <c r="AR14" s="10"/>
     </row>
-    <row r="15" spans="1:44" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:44" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="30">
         <v>2020</v>
       </c>
@@ -9831,7 +9831,7 @@
       </c>
       <c r="AR15" s="10"/>
     </row>
-    <row r="16" spans="1:44" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:44" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="30">
         <v>2020</v>
       </c>
@@ -9923,7 +9923,7 @@
       </c>
       <c r="AR16" s="10"/>
     </row>
-    <row r="17" spans="1:44" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:44" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="30">
         <v>2020</v>
       </c>
@@ -10040,7 +10040,7 @@
       </c>
       <c r="AR17" s="10"/>
     </row>
-    <row r="18" spans="1:44" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:44" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="30">
         <v>2020</v>
       </c>
@@ -10154,7 +10154,7 @@
       </c>
       <c r="AR18" s="10"/>
     </row>
-    <row r="19" spans="1:44" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:44" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="30">
         <v>2019</v>
       </c>
@@ -10268,7 +10268,7 @@
       </c>
       <c r="AR19" s="10"/>
     </row>
-    <row r="20" spans="1:44" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:44" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="30">
         <v>2019</v>
       </c>
@@ -10390,7 +10390,7 @@
       </c>
       <c r="AR20" s="10"/>
     </row>
-    <row r="21" spans="1:44" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:44" s="38" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="14">
         <v>2019</v>
       </c>
@@ -10462,7 +10462,7 @@
       </c>
       <c r="AR21" s="10"/>
     </row>
-    <row r="22" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>2019</v>
       </c>
@@ -10529,7 +10529,7 @@
         <v>6960219337.3035898</v>
       </c>
     </row>
-    <row r="23" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>2019</v>
       </c>
@@ -10594,7 +10594,7 @@
         <v>8645512886.3872395</v>
       </c>
     </row>
-    <row r="24" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>2019</v>
       </c>
@@ -10660,7 +10660,7 @@
         <v>2618483.7836619532</v>
       </c>
     </row>
-    <row r="25" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>2019</v>
       </c>
@@ -10727,7 +10727,7 @@
         <v>14193373118.283466</v>
       </c>
     </row>
-    <row r="26" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>2019</v>
       </c>
@@ -10792,7 +10792,7 @@
         <v>14780690502.813242</v>
       </c>
     </row>
-    <row r="27" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>2019</v>
       </c>
@@ -10858,7 +10858,7 @@
         <v>39308513.61408361</v>
       </c>
     </row>
-    <row r="28" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>2019</v>
       </c>
@@ -10920,7 +10920,7 @@
         <v>53491537.120826639</v>
       </c>
     </row>
-    <row r="29" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>2019</v>
       </c>
@@ -10983,7 +10983,7 @@
         <v>4785346306.1753559</v>
       </c>
     </row>
-    <row r="30" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>2019</v>
       </c>
@@ -11048,7 +11048,7 @@
         <v>6038185786.8900023</v>
       </c>
     </row>
-    <row r="31" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>2019</v>
       </c>
@@ -11111,7 +11111,7 @@
         <v>62394847146.902206</v>
       </c>
     </row>
-    <row r="32" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>2019</v>
       </c>
@@ -11174,7 +11174,7 @@
         <v>4867461253.4132071</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>2019</v>
       </c>
@@ -11237,7 +11237,7 @@
         <v>5592418148408.835</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>2019</v>
       </c>
@@ -11300,7 +11300,7 @@
         <v>3685006013.188148</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>2018</v>
       </c>
@@ -11356,7 +11356,7 @@
         <v>32553369.4451956</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>2018</v>
       </c>
@@ -11421,7 +11421,7 @@
         <v>7726308886.0341339</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>2018</v>
       </c>
@@ -11488,7 +11488,7 @@
         <v>32878644736.896927</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>2018</v>
       </c>
@@ -11553,7 +11553,7 @@
         <v>115465072741.18871</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>2018</v>
       </c>
@@ -11615,7 +11615,7 @@
         <v>5649426.1846524477</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>2018</v>
       </c>
@@ -11675,7 +11675,7 @@
         <v>5649426.1846524477</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>2018</v>
       </c>
@@ -11734,7 +11734,7 @@
         <v>8799969384.2679996</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>2018</v>
       </c>
@@ -11799,7 +11799,7 @@
         <v>22804446209.122238</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>2018</v>
       </c>
@@ -11864,7 +11864,7 @@
         <v>56950896754.20887</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>2018</v>
       </c>
@@ -11929,7 +11929,7 @@
         <v>5471878.7731556948</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>2018</v>
       </c>
@@ -11996,7 +11996,7 @@
         <v>4628013095.8869295</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>2018</v>
       </c>
@@ -12059,7 +12059,7 @@
         <v>49585998435.618668</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>2018</v>
       </c>
@@ -12118,7 +12118,7 @@
         <v>7707957417.0335102</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>2018</v>
       </c>
@@ -12181,7 +12181,7 @@
         <v>10550328258.146124</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>2018</v>
       </c>
@@ -12244,7 +12244,7 @@
         <v>10550328258.146124</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>2018</v>
       </c>
@@ -12307,7 +12307,7 @@
         <v>10550328258.146124</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>2018</v>
       </c>
@@ -12372,7 +12372,7 @@
         <v>32516120523.692413</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>2018</v>
       </c>
@@ -12435,7 +12435,7 @@
         <v>1014623623.3354664</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>2018</v>
       </c>
@@ -12498,7 +12498,7 @@
         <v>4001088342.6970654</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>2018</v>
       </c>
@@ -12563,7 +12563,7 @@
         <v>8237124627.117281</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>2018</v>
       </c>
@@ -12628,7 +12628,7 @@
         <v>27498298492.008251</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>2018</v>
       </c>
@@ -12695,7 +12695,7 @@
         <v>31457364572.144691</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>2017</v>
       </c>
@@ -12760,7 +12760,7 @@
         <v>10732511591624.725</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>2017</v>
       </c>
@@ -12823,7 +12823,7 @@
         <v>7289013566.4073505</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>2017</v>
       </c>
@@ -12888,7 +12888,7 @@
         <v>13846994668.295162</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
         <v>2017</v>
       </c>
@@ -12955,7 +12955,7 @@
         <v>74213550369.332367</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>2017</v>
       </c>
@@ -13024,7 +13024,7 @@
         <v>74213550369.332367</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
         <v>2017</v>
       </c>
@@ -13093,7 +13093,7 @@
         <v>10758250081.960438</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <v>2017</v>
       </c>
@@ -13162,7 +13162,7 @@
         <v>22224886011548.609</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>2017</v>
       </c>
@@ -13229,7 +13229,7 @@
         <v>16712451255464.02</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
         <v>2017</v>
       </c>
@@ -13298,7 +13298,7 @@
         <v>47167096476.883942</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
         <v>2017</v>
       </c>
@@ -13365,7 +13365,7 @@
         <v>7057203601335.0723</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
         <v>2017</v>
       </c>
@@ -13432,7 +13432,7 @@
         <v>6847817526.4923687</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
         <v>2017</v>
       </c>
@@ -13499,7 +13499,7 @@
         <v>10513831815.319036</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
         <v>2017</v>
       </c>
@@ -13566,7 +13566,7 @@
         <v>10531437084.070236</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
         <v>2017</v>
       </c>
@@ -13633,7 +13633,7 @@
         <v>5406180988288.4434</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
         <v>2017</v>
       </c>
@@ -13700,7 +13700,7 @@
         <v>7568327594493.4629</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
         <v>2017</v>
       </c>
@@ -13767,7 +13767,7 @@
         <v>6772908221589.3262</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
         <v>2017</v>
       </c>
@@ -13834,7 +13834,7 @@
         <v>3024287819033.9316</v>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
         <v>2017</v>
       </c>
@@ -13899,7 +13899,7 @@
         <v>13984614267594.078</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
         <v>2017</v>
       </c>
@@ -13964,7 +13964,7 @@
         <v>21880299099646.605</v>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
         <v>2017</v>
       </c>
@@ -14029,7 +14029,7 @@
         <v>1036377568.5197884</v>
       </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
         <v>2017</v>
       </c>
@@ -14098,7 +14098,7 @@
         <v>31372253591839.508</v>
       </c>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
         <v>2017</v>
       </c>
@@ -14165,7 +14165,7 @@
         <v>31372253591839.508</v>
       </c>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
         <v>2017</v>
       </c>
@@ -14232,7 +14232,7 @@
         <v>9453836180037.5098</v>
       </c>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
         <v>2017</v>
       </c>
@@ -14297,7 +14297,7 @@
         <v>15104319551.353426</v>
       </c>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
         <v>2017</v>
       </c>
@@ -14364,7 +14364,7 @@
         <v>202428868937.75201</v>
       </c>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
         <v>2016</v>
       </c>
@@ -14431,7 +14431,7 @@
         <v>29056725512.718685</v>
       </c>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
         <v>2016</v>
       </c>
@@ -14498,7 +14498,7 @@
         <v>29056725512.718685</v>
       </c>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A84" s="3">
         <v>2016</v>
       </c>
@@ -14561,7 +14561,7 @@
         <v>7897717925.9061785</v>
       </c>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A85" s="3">
         <v>2016</v>
       </c>
@@ -14626,7 +14626,7 @@
         <v>49277141394.773415</v>
       </c>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A86" s="3">
         <v>2016</v>
       </c>
@@ -14691,7 +14691,7 @@
         <v>6807560894.163969</v>
       </c>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A87" s="3">
         <v>2016</v>
       </c>
@@ -14756,7 +14756,7 @@
         <v>7418992675.9294872</v>
       </c>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A88" s="3">
         <v>2016</v>
       </c>
@@ -14821,7 +14821,7 @@
         <v>17998484843.520172</v>
       </c>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A89" s="3">
         <v>2016</v>
       </c>
@@ -14888,7 +14888,7 @@
         <v>1435572929.8635466</v>
       </c>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A90" s="3">
         <v>2016</v>
       </c>
@@ -14950,7 +14950,7 @@
         <v>s.i</v>
       </c>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
         <v>2016</v>
       </c>
@@ -15013,7 +15013,7 @@
         <v>189582241651.49014</v>
       </c>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A92" s="3">
         <v>2016</v>
       </c>
@@ -15076,7 +15076,7 @@
         <v>19885311651.757141</v>
       </c>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A93" s="3">
         <v>2016</v>
       </c>
@@ -15143,7 +15143,7 @@
         <v>5502907565.1777506</v>
       </c>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A94" s="3">
         <v>2016</v>
       </c>
@@ -15203,7 +15203,7 @@
         <v>s.i</v>
       </c>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A95" s="3">
         <v>2016</v>
       </c>
@@ -15266,7 +15266,7 @@
         <v>19885311651.757141</v>
       </c>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A96" s="3">
         <v>2016</v>
       </c>
@@ -15333,7 +15333,7 @@
         <v>65078732039.465042</v>
       </c>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A97" s="3">
         <v>2016</v>
       </c>
@@ -15400,7 +15400,7 @@
         <v>65078732039.465042</v>
       </c>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A98" s="3">
         <v>2016</v>
       </c>
@@ -15469,7 +15469,7 @@
         <v>4219627652236092.5</v>
       </c>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A99" s="3">
         <v>2016</v>
       </c>
@@ -15532,7 +15532,7 @@
         <v>4224424377.6226192</v>
       </c>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A100" s="3">
         <v>2016</v>
       </c>
@@ -15597,7 +15597,7 @@
         <v>29056725512.718685</v>
       </c>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A101" s="3">
         <v>2016</v>
       </c>
@@ -15662,7 +15662,7 @@
         <v>29056725512.718685</v>
       </c>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A102" s="3">
         <v>2016</v>
       </c>
@@ -15727,7 +15727,7 @@
         <v>29056725512.718685</v>
       </c>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A103" s="3">
         <v>2016</v>
       </c>
@@ -15792,7 +15792,7 @@
         <v>29056725512.718685</v>
       </c>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A104" s="3">
         <v>2016</v>
       </c>
@@ -15854,7 +15854,7 @@
         <v>s.i</v>
       </c>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A105" s="3">
         <v>2016</v>
       </c>
@@ -15919,7 +15919,7 @@
         <v>9518120655196.7754</v>
       </c>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A106" s="3">
         <v>2016</v>
       </c>
@@ -15988,7 +15988,7 @@
         <v>6287413293.9014721</v>
       </c>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A107" s="3">
         <v>2015</v>
       </c>
@@ -16053,7 +16053,7 @@
         <v>114794104040.638</v>
       </c>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A108" s="3">
         <v>2015</v>
       </c>
@@ -16121,7 +16121,7 @@
         <v>s.i</v>
       </c>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A109" s="3">
         <v>2015</v>
       </c>
@@ -16183,7 +16183,7 @@
         <v>15128559407.626745</v>
       </c>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A110" s="3">
         <v>2015</v>
       </c>
@@ -16246,7 +16246,7 @@
         <v>3597688244.3408961</v>
       </c>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A111" s="3">
         <v>2015</v>
       </c>
@@ -16311,7 +16311,7 @@
         <v>63656710580.180405</v>
       </c>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A112" s="3">
         <v>2015</v>
       </c>
@@ -16378,7 +16378,7 @@
         <v>4026843836.9524899</v>
       </c>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A113" s="3">
         <v>2015</v>
       </c>
@@ -16447,7 +16447,7 @@
         <v>28548021244.503151</v>
       </c>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A114" s="3">
         <v>2015</v>
       </c>
@@ -16516,7 +16516,7 @@
         <v>12462030038.72751</v>
       </c>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A115" s="3">
         <v>2015</v>
       </c>
@@ -16581,7 +16581,7 @@
         <v>3682329645.6085477</v>
       </c>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A116" s="3">
         <v>2015</v>
       </c>
@@ -16646,7 +16646,7 @@
         <v>89293569994.121567</v>
       </c>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A117" s="3">
         <v>2015</v>
       </c>
@@ -16713,7 +16713,7 @@
         <v>16085991205.77564</v>
       </c>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A118" s="3">
         <v>2015</v>
       </c>
@@ -16776,7 +16776,7 @@
         <v>5585121534.3117189</v>
       </c>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A119" s="3">
         <v>2015</v>
       </c>
@@ -16841,7 +16841,7 @@
         <v>3413061651.8945613</v>
       </c>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A120" s="3">
         <v>2015</v>
       </c>
@@ -16908,7 +16908,7 @@
         <v>4440747405.5030031</v>
       </c>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A121" s="3">
         <v>2015</v>
       </c>
@@ -16973,7 +16973,7 @@
         <v>3706620605.8898649</v>
       </c>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A122" s="3">
         <v>2015</v>
       </c>
@@ -17038,7 +17038,7 @@
         <v>15446896040774.188</v>
       </c>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A123" s="3">
         <v>2015</v>
       </c>
@@ -17103,7 +17103,7 @@
         <v>5272937711.4370136</v>
       </c>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A124" s="3">
         <v>2015</v>
       </c>
@@ -17169,7 +17169,7 @@
         <v>31143112.698545422</v>
       </c>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A125" s="3">
         <v>2015</v>
       </c>
@@ -17232,7 +17232,7 @@
         <v>264381860755743.28</v>
       </c>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A126" s="3">
         <v>2014</v>
       </c>
@@ -17293,7 +17293,7 @@
         <v>62458148721.964233</v>
       </c>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A127" s="3">
         <v>2014</v>
       </c>
@@ -17358,7 +17358,7 @@
         <v>18145654317.347717</v>
       </c>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A128" s="3">
         <v>2014</v>
       </c>
@@ -17423,7 +17423,7 @@
         <v>18145654317.347717</v>
       </c>
     </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A129" s="3">
         <v>2014</v>
       </c>
@@ -17490,7 +17490,7 @@
         <v>18145654317.347717</v>
       </c>
     </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A130" s="3">
         <v>2014</v>
       </c>
@@ -17555,7 +17555,7 @@
         <v>18145654317.347717</v>
       </c>
     </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A131" s="3">
         <v>2014</v>
       </c>
@@ -17618,7 +17618,7 @@
         <v>10232211851785.686</v>
       </c>
     </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A132" s="3">
         <v>2014</v>
       </c>
@@ -17685,7 +17685,7 @@
         <v>18145654317.347717</v>
       </c>
     </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A133" s="3">
         <v>2014</v>
       </c>
@@ -17750,7 +17750,7 @@
         <v>18145654317.347717</v>
       </c>
     </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A134" s="3">
         <v>2014</v>
       </c>
@@ -17813,7 +17813,7 @@
         <v>20363273960.469204</v>
       </c>
     </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A135" s="3">
         <v>2014</v>
       </c>
@@ -17872,7 +17872,7 @@
         <v>25786967677746.293</v>
       </c>
     </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A136" s="3">
         <v>2014</v>
       </c>
@@ -17933,7 +17933,7 @@
         <v>10904917507.625839</v>
       </c>
     </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A137" s="3">
         <v>2014</v>
       </c>
@@ -17994,7 +17994,7 @@
         <v>10904917507.625839</v>
       </c>
     </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A138" s="3">
         <v>2014</v>
       </c>
@@ -18055,7 +18055,7 @@
         <v>10904917507.625839</v>
       </c>
     </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A139" s="3">
         <v>2014</v>
       </c>
@@ -18118,7 +18118,7 @@
         <v>10904917507.625839</v>
       </c>
     </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A140" s="3">
         <v>2014</v>
       </c>
@@ -18181,7 +18181,7 @@
         <v>10904917507.625839</v>
       </c>
     </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A141" s="3">
         <v>2014</v>
       </c>
@@ -18242,7 +18242,7 @@
         <v>10904917507.625839</v>
       </c>
     </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A142" s="3">
         <v>2014</v>
       </c>
@@ -18313,7 +18313,7 @@
         <v>5889826299.8803101</v>
       </c>
     </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A143" s="3">
         <v>2014</v>
       </c>
@@ -18378,7 +18378,7 @@
         <v>32372941098.705681</v>
       </c>
     </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A144" s="3">
         <v>2014</v>
       </c>
@@ -18437,7 +18437,7 @@
         <v>43558065603024.781</v>
       </c>
     </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A145" s="3">
         <v>2014</v>
       </c>
@@ -18500,7 +18500,7 @@
         <v>203810578800998.13</v>
       </c>
     </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A146" s="3">
         <v>2014</v>
       </c>
@@ -18557,7 +18557,7 @@
         <v>2871251843800.6704</v>
       </c>
     </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A147" s="3">
         <v>2014</v>
       </c>
@@ -18621,7 +18621,7 @@
         <v>s.i</v>
       </c>
     </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A148" s="3">
         <v>2014</v>
       </c>
@@ -18678,7 +18678,7 @@
         <v>259946643852.22906</v>
       </c>
     </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A149" s="3">
         <v>2014</v>
       </c>
@@ -18739,7 +18739,7 @@
         <v>3789196809.9491291</v>
       </c>
     </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A150" s="3">
         <v>2014</v>
       </c>
@@ -18804,7 +18804,7 @@
         <v>13066261015.717928</v>
       </c>
     </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A151" s="3">
         <v>2013</v>
       </c>
@@ -18867,7 +18867,7 @@
         <v>5539000000</v>
       </c>
     </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A152" s="3">
         <v>2013</v>
       </c>
@@ -18931,7 +18931,7 @@
         <v>s.i</v>
       </c>
     </row>
-    <row r="153" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A153" s="3">
         <v>2013</v>
       </c>
@@ -18994,7 +18994,7 @@
         <v>16951000000</v>
       </c>
     </row>
-    <row r="154" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A154" s="3">
         <v>2013</v>
       </c>
@@ -19059,7 +19059,7 @@
         <v>1065000000</v>
       </c>
     </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A155" s="3">
         <v>2013</v>
       </c>
@@ -19124,7 +19124,7 @@
         <v>4000000000</v>
       </c>
     </row>
-    <row r="156" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A156" s="3">
         <v>2013</v>
       </c>
@@ -19189,7 +19189,7 @@
         <v>87442786000</v>
       </c>
     </row>
-    <row r="157" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A157" s="3">
         <v>2013</v>
       </c>
@@ -19252,7 +19252,7 @@
         <v>1964000000</v>
       </c>
     </row>
-    <row r="158" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A158" s="3">
         <v>2013</v>
       </c>
@@ -19312,7 +19312,7 @@
         <v>s.i</v>
       </c>
     </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A159" s="3">
         <v>2013</v>
       </c>
@@ -19377,7 +19377,7 @@
         <v>273418358000</v>
       </c>
     </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A160" s="3">
         <v>2013</v>
       </c>
@@ -19440,7 +19440,7 @@
         <v>3192335000</v>
       </c>
     </row>
-    <row r="161" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A161" s="3">
         <v>2013</v>
       </c>
@@ -19480,7 +19480,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="162" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A162" s="3">
         <v>2013</v>
       </c>
@@ -19520,7 +19520,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="163" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A163" s="3">
         <v>2013</v>
       </c>
@@ -19560,7 +19560,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="164" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A164" s="3">
         <v>2013</v>
       </c>
@@ -19600,7 +19600,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="165" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A165" s="3">
         <v>2013</v>
       </c>
@@ -19640,7 +19640,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="166" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A166" s="3">
         <v>2013</v>
       </c>
@@ -19680,7 +19680,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="167" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A167" s="3">
         <v>2013</v>
       </c>
@@ -19720,7 +19720,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="168" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A168" s="3">
         <v>2013</v>
       </c>
@@ -19762,7 +19762,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="169" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A169" s="3">
         <v>2013</v>
       </c>
@@ -19804,7 +19804,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="170" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A170" s="3">
         <v>2013</v>
       </c>
@@ -19844,7 +19844,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="171" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A171" s="3">
         <v>2013</v>
       </c>
@@ -19884,7 +19884,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="172" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A172" s="3">
         <v>2013</v>
       </c>
@@ -19924,7 +19924,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="173" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A173" s="3">
         <v>2013</v>
       </c>
@@ -19964,7 +19964,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="174" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A174" s="3">
         <v>2013</v>
       </c>
@@ -20004,7 +20004,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="175" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A175" s="3">
         <v>2012</v>
       </c>
@@ -20064,7 +20064,7 @@
         <v>s.i</v>
       </c>
     </row>
-    <row r="176" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A176" s="3">
         <v>2012</v>
       </c>
@@ -20129,7 +20129,7 @@
         <v>14543909147.932167</v>
       </c>
     </row>
-    <row r="177" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A177" s="3">
         <v>2012</v>
       </c>
@@ -20196,7 +20196,7 @@
         <v>6924214213.6067457</v>
       </c>
     </row>
-    <row r="178" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A178" s="3">
         <v>2012</v>
       </c>
@@ -20261,7 +20261,7 @@
         <v>5091500142538.7188</v>
       </c>
     </row>
-    <row r="179" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A179" s="3">
         <v>2012</v>
       </c>
@@ -20320,7 +20320,7 @@
         <v>26145792079.920967</v>
       </c>
     </row>
-    <row r="180" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A180" s="3">
         <v>2012</v>
       </c>
@@ -20385,7 +20385,7 @@
         <v>3.653593854429504E+16</v>
       </c>
     </row>
-    <row r="181" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A181" s="3">
         <v>2012</v>
       </c>
@@ -20452,7 +20452,7 @@
         <v>4126994833.9420476</v>
       </c>
     </row>
-    <row r="182" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A182" s="3">
         <v>2012</v>
       </c>
@@ -20510,7 +20510,7 @@
         <v>s.i</v>
       </c>
     </row>
-    <row r="183" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A183" s="3">
         <v>2012</v>
       </c>
@@ -20572,7 +20572,7 @@
         <v>s.i</v>
       </c>
     </row>
-    <row r="184" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A184" s="3">
         <v>2012</v>
       </c>
@@ -20632,7 +20632,7 @@
         <v>s.i</v>
       </c>
     </row>
-    <row r="185" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A185" s="3">
         <v>2012</v>
       </c>
@@ -20694,7 +20694,7 @@
         <v>s.i</v>
       </c>
     </row>
-    <row r="186" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A186" s="3">
         <v>2012</v>
       </c>
@@ -20760,7 +20760,7 @@
         <v>s.i</v>
       </c>
     </row>
-    <row r="187" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A187" s="3">
         <v>2012</v>
       </c>
@@ -20824,7 +20824,7 @@
         <v>s.i</v>
       </c>
     </row>
-    <row r="188" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A188" s="3">
         <v>2012</v>
       </c>
@@ -20886,7 +20886,7 @@
         <v>s.i</v>
       </c>
     </row>
-    <row r="189" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A189" s="3">
         <v>2012</v>
       </c>
@@ -20952,7 +20952,7 @@
         <v>s.i</v>
       </c>
     </row>
-    <row r="190" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A190" s="3">
         <v>2012</v>
       </c>
@@ -21012,7 +21012,7 @@
         <v>s.i</v>
       </c>
     </row>
-    <row r="191" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A191" s="3">
         <v>2012</v>
       </c>
@@ -21076,7 +21076,7 @@
         <v>s.i</v>
       </c>
     </row>
-    <row r="192" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A192" s="3">
         <v>2012</v>
       </c>
@@ -21135,7 +21135,7 @@
         <v>1747810355751905.5</v>
       </c>
     </row>
-    <row r="193" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A193" s="3">
         <v>2012</v>
       </c>
@@ -21196,7 +21196,7 @@
         <v>4708209703.8729677</v>
       </c>
     </row>
-    <row r="194" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A194" s="3">
         <v>2012</v>
       </c>
@@ -21259,7 +21259,7 @@
         <v>15070108637.508173</v>
       </c>
     </row>
-    <row r="195" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A195" s="3">
         <v>2012</v>
       </c>
@@ -21322,7 +21322,7 @@
         <v>15070108637.508173</v>
       </c>
     </row>
-    <row r="196" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A196" s="3">
         <v>2012</v>
       </c>
@@ -21385,7 +21385,7 @@
         <v>15070108637.508173</v>
       </c>
     </row>
-    <row r="197" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A197" s="3">
         <v>2012</v>
       </c>
@@ -21448,7 +21448,7 @@
         <v>15070108637.508173</v>
       </c>
     </row>
-    <row r="198" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A198" s="3">
         <v>2012</v>
       </c>
@@ -21511,7 +21511,7 @@
         <v>15070108637.508173</v>
       </c>
     </row>
-    <row r="199" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A199" s="3">
         <v>2012</v>
       </c>
@@ -21574,7 +21574,7 @@
         <v>15070108637.508173</v>
       </c>
     </row>
-    <row r="200" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A200" s="3">
         <v>2012</v>
       </c>
@@ -21639,7 +21639,7 @@
         <v>7238147276527.2773</v>
       </c>
     </row>
-    <row r="201" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A201" s="3">
         <v>2012</v>
       </c>
@@ -21702,7 +21702,7 @@
         <v>1397080040.1533494</v>
       </c>
     </row>
-    <row r="202" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A202" s="3">
         <v>2012</v>
       </c>
@@ -21763,7 +21763,7 @@
         <v>5120702174677.2813</v>
       </c>
     </row>
-    <row r="203" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A203" s="3">
         <v>2012</v>
       </c>
@@ -21830,7 +21830,7 @@
         <v>7197511622.9214163</v>
       </c>
     </row>
-    <row r="204" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A204" s="3">
         <v>2012</v>
       </c>
@@ -21897,7 +21897,7 @@
         <v>7197511622.9214163</v>
       </c>
     </row>
-    <row r="205" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A205" s="3">
         <v>2011</v>
       </c>
@@ -21937,7 +21937,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="206" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A206" s="3">
         <v>2011</v>
       </c>
@@ -21977,7 +21977,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="207" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A207" s="3">
         <v>2011</v>
       </c>
@@ -22017,7 +22017,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="208" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A208" s="3">
         <v>2011</v>
       </c>
@@ -22057,7 +22057,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="209" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A209" s="3">
         <v>2011</v>
       </c>
@@ -22097,7 +22097,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="210" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A210" s="3">
         <v>2011</v>
       </c>
@@ -22137,7 +22137,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="211" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A211" s="3">
         <v>2011</v>
       </c>
@@ -22177,7 +22177,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="212" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A212" s="3">
         <v>2011</v>
       </c>
@@ -22217,7 +22217,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="213" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A213" s="3">
         <v>2011</v>
       </c>
@@ -22257,7 +22257,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="214" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A214" s="3">
         <v>2011</v>
       </c>
@@ -22297,7 +22297,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="215" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A215" s="3">
         <v>2011</v>
       </c>
@@ -22337,7 +22337,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="216" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A216" s="3">
         <v>2011</v>
       </c>
@@ -22377,7 +22377,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="217" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A217" s="3">
         <v>2011</v>
       </c>
@@ -22417,7 +22417,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="218" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A218" s="3">
         <v>2011</v>
       </c>
@@ -22457,7 +22457,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="219" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A219" s="3">
         <v>2011</v>
       </c>
@@ -22497,7 +22497,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="220" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A220" s="3">
         <v>2011</v>
       </c>
@@ -22537,7 +22537,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="221" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A221" s="3">
         <v>2011</v>
       </c>
@@ -22577,7 +22577,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="222" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A222" s="3">
         <v>2011</v>
       </c>
@@ -22617,7 +22617,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="223" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A223" s="3">
         <v>2011</v>
       </c>
@@ -22657,7 +22657,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="224" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A224" s="3">
         <v>2011</v>
       </c>
@@ -22697,7 +22697,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="225" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A225" s="3">
         <v>2011</v>
       </c>
@@ -22737,7 +22737,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="226" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A226" s="3">
         <v>2011</v>
       </c>
@@ -22779,7 +22779,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="227" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A227" s="3">
         <v>2011</v>
       </c>
@@ -22823,7 +22823,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="228" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A228" s="3">
         <v>2011</v>
       </c>
@@ -22863,7 +22863,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="229" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A229" s="3">
         <v>2011</v>
       </c>
@@ -22903,7 +22903,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="230" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A230" s="3">
         <v>2011</v>
       </c>
@@ -22943,7 +22943,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="231" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A231" s="3">
         <v>2011</v>
       </c>
@@ -22983,7 +22983,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="232" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A232" s="3">
         <v>2011</v>
       </c>
@@ -23023,7 +23023,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="233" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A233" s="3">
         <v>2010</v>
       </c>
@@ -23081,7 +23081,7 @@
         <v>s.i</v>
       </c>
     </row>
-    <row r="234" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A234" s="3">
         <v>2010</v>
       </c>
@@ -23141,7 +23141,7 @@
         <v>s.i</v>
       </c>
     </row>
-    <row r="235" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A235" s="3">
         <v>2010</v>
       </c>
@@ -23181,7 +23181,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="236" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A236" s="3">
         <v>2010</v>
       </c>
@@ -23221,7 +23221,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="237" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A237" s="3">
         <v>2010</v>
       </c>
@@ -23286,7 +23286,7 @@
         <v>150332635540530.41</v>
       </c>
     </row>
-    <row r="238" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A238" s="3">
         <v>2010</v>
       </c>
@@ -23351,7 +23351,7 @@
         <v>150332635540530.41</v>
       </c>
     </row>
-    <row r="239" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A239" s="3">
         <v>2010</v>
       </c>
@@ -23416,7 +23416,7 @@
         <v>150332635540530.41</v>
       </c>
     </row>
-    <row r="240" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A240" s="3">
         <v>2010</v>
       </c>
@@ -23481,7 +23481,7 @@
         <v>150332635540530.41</v>
       </c>
     </row>
-    <row r="241" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A241" s="3">
         <v>2010</v>
       </c>
@@ -23546,7 +23546,7 @@
         <v>150332635540530.41</v>
       </c>
     </row>
-    <row r="242" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A242" s="3">
         <v>2010</v>
       </c>
@@ -23586,7 +23586,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="243" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A243" s="3">
         <v>2010</v>
       </c>
@@ -23626,7 +23626,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="244" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A244" s="3">
         <v>2010</v>
       </c>
@@ -23666,7 +23666,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="245" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A245" s="3">
         <v>2010</v>
       </c>
@@ -23706,7 +23706,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="246" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A246" s="3">
         <v>2010</v>
       </c>
@@ -23746,7 +23746,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="247" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A247" s="3">
         <v>2010</v>
       </c>
@@ -23786,7 +23786,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="248" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A248" s="3">
         <v>2010</v>
       </c>
@@ -23826,7 +23826,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="249" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A249" s="3">
         <v>2010</v>
       </c>
@@ -23891,7 +23891,7 @@
         <v>150332635540530.41</v>
       </c>
     </row>
-    <row r="250" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A250" s="3">
         <v>2010</v>
       </c>
@@ -23959,7 +23959,7 @@
         <v>s.i</v>
       </c>
     </row>
-    <row r="251" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A251" s="3">
         <v>2010</v>
       </c>
@@ -24027,7 +24027,7 @@
         <v>s.i</v>
       </c>
     </row>
-    <row r="252" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A252" s="3">
         <v>2010</v>
       </c>
@@ -24095,7 +24095,7 @@
         <v>s.i</v>
       </c>
     </row>
-    <row r="253" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A253" s="3">
         <v>2010</v>
       </c>
@@ -24163,7 +24163,7 @@
         <v>s.i</v>
       </c>
     </row>
-    <row r="254" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A254" s="3">
         <v>2010</v>
       </c>
@@ -24203,7 +24203,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="255" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A255" s="3">
         <v>2010</v>
       </c>
@@ -24243,7 +24243,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="256" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A256" s="3">
         <v>2010</v>
       </c>
@@ -24283,7 +24283,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="257" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A257" s="3">
         <v>2010</v>
       </c>
@@ -24355,7 +24355,7 @@
         <v>18270000000</v>
       </c>
     </row>
-    <row r="258" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A258" s="3">
         <v>2010</v>
       </c>
@@ -24398,7 +24398,7 @@
         <v>2373</v>
       </c>
     </row>
-    <row r="259" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A259" s="3">
         <v>2010</v>
       </c>
@@ -24441,7 +24441,7 @@
         <v>2373</v>
       </c>
     </row>
-    <row r="260" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A260" s="3">
         <v>2010</v>
       </c>
@@ -24484,7 +24484,7 @@
         <v>2373</v>
       </c>
     </row>
-    <row r="261" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A261" s="3">
         <v>2010</v>
       </c>
@@ -24528,7 +24528,7 @@
         <v>3604475000</v>
       </c>
     </row>
-    <row r="262" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A262" s="3">
         <v>2010</v>
       </c>
@@ -24574,7 +24574,7 @@
         <v>9671194000</v>
       </c>
     </row>
-    <row r="263" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A263" s="3">
         <v>2010</v>
       </c>
@@ -24617,7 +24617,7 @@
         <v>2373</v>
       </c>
     </row>
-    <row r="264" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A264" s="3">
         <v>2010</v>
       </c>
@@ -24692,7 +24692,7 @@
         <v>2544413000</v>
       </c>
     </row>
-    <row r="265" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A265" s="3">
         <v>2010</v>
       </c>
@@ -24761,7 +24761,7 @@
         <v>132129142000</v>
       </c>
     </row>
-    <row r="266" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A266" s="3">
         <v>2010</v>
       </c>
@@ -24805,7 +24805,7 @@
         <v>11728561000</v>
       </c>
     </row>
-    <row r="267" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A267" s="3">
         <v>2010</v>
       </c>
@@ -24849,7 +24849,7 @@
         <v>8881250000</v>
       </c>
     </row>
-    <row r="268" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A268" s="3">
         <v>2010</v>
       </c>
@@ -24895,7 +24895,7 @@
         <v>4685491000</v>
       </c>
     </row>
-    <row r="269" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A269" s="3">
         <v>2010</v>
       </c>
@@ -24941,7 +24941,7 @@
         <v>4685491000</v>
       </c>
     </row>
-    <row r="270" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A270" s="3">
         <v>2010</v>
       </c>
@@ -24985,7 +24985,7 @@
         <v>20523397000</v>
       </c>
     </row>
-    <row r="271" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A271" s="3">
         <v>2010</v>
       </c>
@@ -25029,7 +25029,7 @@
         <v>5623940000</v>
       </c>
     </row>
-    <row r="272" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A272" s="3">
         <v>2009</v>
       </c>
@@ -25073,7 +25073,7 @@
         <v>7557784000</v>
       </c>
     </row>
-    <row r="273" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A273" s="3">
         <v>2009</v>
       </c>
@@ -25117,7 +25117,7 @@
         <v>4283426000</v>
       </c>
     </row>
-    <row r="274" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A274" s="3">
         <v>2009</v>
       </c>
@@ -25161,7 +25161,7 @@
         <v>15272054000</v>
       </c>
     </row>
-    <row r="275" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A275" s="3">
         <v>2009</v>
       </c>
@@ -25205,7 +25205,7 @@
         <v>1064320000</v>
       </c>
     </row>
-    <row r="276" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A276" s="3">
         <v>2009</v>
       </c>
@@ -25249,7 +25249,7 @@
         <v>18823388000</v>
       </c>
     </row>
-    <row r="277" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A277" s="3">
         <v>2009</v>
       </c>
@@ -25293,7 +25293,7 @@
         <v>17991107000</v>
       </c>
     </row>
-    <row r="278" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A278" s="3">
         <v>2009</v>
       </c>
@@ -25337,7 +25337,7 @@
         <v>17991107000</v>
       </c>
     </row>
-    <row r="279" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A279" s="3">
         <v>2009</v>
       </c>
@@ -25381,7 +25381,7 @@
         <v>17991107000</v>
       </c>
     </row>
-    <row r="280" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A280" s="3">
         <v>2009</v>
       </c>
@@ -25424,7 +25424,7 @@
         <v>2373</v>
       </c>
     </row>
-    <row r="281" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A281" s="3">
         <v>2009</v>
       </c>
@@ -25495,7 +25495,7 @@
         <v>6112095000</v>
       </c>
     </row>
-    <row r="282" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A282" s="3">
         <v>2009</v>
       </c>
@@ -25539,7 +25539,7 @@
         <v>2906387000</v>
       </c>
     </row>
-    <row r="283" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A283" s="3">
         <v>2009</v>
       </c>
@@ -25583,7 +25583,7 @@
         <v>111196196000</v>
       </c>
     </row>
-    <row r="284" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A284" s="3">
         <v>2009</v>
       </c>
@@ -25627,7 +25627,7 @@
         <v>632007000</v>
       </c>
     </row>
-    <row r="285" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A285" s="3">
         <v>2009</v>
       </c>
@@ -25670,7 +25670,7 @@
         <v>2373</v>
       </c>
     </row>
-    <row r="286" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A286" s="3">
         <v>2009</v>
       </c>
@@ -25714,7 +25714,7 @@
         <v>9337673000</v>
       </c>
     </row>
-    <row r="287" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A287" s="3">
         <v>2009</v>
       </c>
@@ -25758,7 +25758,7 @@
         <v>10547807000</v>
       </c>
     </row>
-    <row r="288" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A288" s="3">
         <v>2009</v>
       </c>
@@ -25801,7 +25801,7 @@
         <v>2373</v>
       </c>
     </row>
-    <row r="289" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A289" s="3">
         <v>2009</v>
       </c>
@@ -25844,7 +25844,7 @@
         <v>2373</v>
       </c>
     </row>
-    <row r="290" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A290" s="3">
         <v>2009</v>
       </c>
@@ -25888,7 +25888,7 @@
         <v>3070179000</v>
       </c>
     </row>
-    <row r="291" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A291" s="3">
         <v>2009</v>
       </c>
@@ -25932,7 +25932,7 @@
         <v>9957711000</v>
       </c>
     </row>
-    <row r="292" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A292" s="3">
         <v>2009</v>
       </c>
@@ -25976,7 +25976,7 @@
         <v>318600000</v>
       </c>
     </row>
-    <row r="293" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A293" s="3">
         <v>2009</v>
       </c>
@@ -26020,7 +26020,7 @@
         <v>33984000</v>
       </c>
     </row>
-    <row r="294" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A294" s="3">
         <v>2009</v>
       </c>
@@ -26064,7 +26064,7 @@
         <v>17991107000</v>
       </c>
     </row>
-    <row r="295" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A295" s="3">
         <v>2009</v>
       </c>
@@ -26110,7 +26110,7 @@
         <v>17991107000</v>
       </c>
     </row>
-    <row r="296" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A296" s="3">
         <v>2009</v>
       </c>
@@ -26154,7 +26154,7 @@
         <v>17991107000</v>
       </c>
     </row>
-    <row r="297" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A297" s="3">
         <v>2009</v>
       </c>
@@ -26197,7 +26197,7 @@
         <v>2373</v>
       </c>
     </row>
-    <row r="298" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A298" s="3">
         <v>2009</v>
       </c>
@@ -26240,7 +26240,7 @@
         <v>2373</v>
       </c>
     </row>
-    <row r="299" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A299" s="3">
         <v>2009</v>
       </c>
@@ -26286,7 +26286,7 @@
         <v>15930000000</v>
       </c>
     </row>
-    <row r="300" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A300" s="3">
         <v>2009</v>
       </c>
@@ -26333,7 +26333,7 @@
         <v>2373</v>
       </c>
     </row>
-    <row r="301" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A301" s="3">
         <v>2009</v>
       </c>
@@ -26377,7 +26377,7 @@
         <v>1188054000</v>
       </c>
     </row>
-    <row r="302" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A302" s="3">
         <v>2009</v>
       </c>
@@ -26446,7 +26446,7 @@
         <v>182590000</v>
       </c>
     </row>
-    <row r="303" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A303" s="3">
         <v>2009</v>
       </c>
@@ -26490,7 +26490,7 @@
         <v>1535413000</v>
       </c>
     </row>
-    <row r="304" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A304" s="3">
         <v>2009</v>
       </c>
@@ -26563,7 +26563,7 @@
         <v>2975575000</v>
       </c>
     </row>
-    <row r="305" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A305" s="3">
         <v>2009</v>
       </c>
@@ -26636,7 +26636,7 @@
         <v>2975575000</v>
       </c>
     </row>
-    <row r="306" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A306" s="3">
         <v>2009</v>
       </c>
@@ -26680,7 +26680,7 @@
         <v>318600000</v>
       </c>
     </row>
-    <row r="307" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A307" s="3">
         <v>2009</v>
       </c>
@@ -26724,7 +26724,7 @@
         <v>318600000</v>
       </c>
     </row>
-    <row r="308" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A308" s="3">
         <v>2009</v>
       </c>
@@ -26768,7 +26768,7 @@
         <v>318600000</v>
       </c>
     </row>
-    <row r="309" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A309" s="3">
         <v>2009</v>
       </c>
@@ -26812,7 +26812,7 @@
         <v>4120372000</v>
       </c>
     </row>
-    <row r="310" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A310" s="3">
         <v>2008</v>
       </c>
@@ -26854,7 +26854,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="311" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A311" s="3">
         <v>2008</v>
       </c>
@@ -26894,7 +26894,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="312" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A312" s="3">
         <v>2008</v>
       </c>
@@ -26934,7 +26934,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="313" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A313" s="3">
         <v>2008</v>
       </c>
@@ -26974,7 +26974,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="314" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A314" s="3">
         <v>2008</v>
       </c>
@@ -27014,7 +27014,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="315" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A315" s="3">
         <v>2008</v>
       </c>
@@ -27054,7 +27054,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="316" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A316" s="3">
         <v>2008</v>
       </c>
@@ -27094,7 +27094,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="317" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A317" s="3">
         <v>2008</v>
       </c>
@@ -27134,7 +27134,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="318" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A318" s="3">
         <v>2008</v>
       </c>
@@ -27174,7 +27174,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="319" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A319" s="3">
         <v>2008</v>
       </c>
@@ -27216,7 +27216,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="320" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A320" s="3">
         <v>2008</v>
       </c>
@@ -27258,7 +27258,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="321" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A321" s="3">
         <v>2008</v>
       </c>
@@ -27298,7 +27298,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="322" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A322" s="3">
         <v>2008</v>
       </c>
@@ -27340,7 +27340,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="323" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A323" s="3">
         <v>2008</v>
       </c>
@@ -27382,7 +27382,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="324" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A324" s="3">
         <v>2008</v>
       </c>
@@ -27424,7 +27424,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="325" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A325" s="3">
         <v>2008</v>
       </c>
@@ -27464,7 +27464,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="326" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A326" s="3">
         <v>2008</v>
       </c>
@@ -27506,7 +27506,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="327" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A327" s="3">
         <v>2008</v>
       </c>
@@ -27548,7 +27548,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="328" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A328" s="3">
         <v>2008</v>
       </c>
@@ -27590,7 +27590,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="329" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A329" s="3">
         <v>2008</v>
       </c>
@@ -27632,7 +27632,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="330" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A330" s="3">
         <v>2008</v>
       </c>
@@ -27674,7 +27674,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="331" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A331" s="3">
         <v>2008</v>
       </c>
@@ -27716,7 +27716,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="332" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A332" s="3">
         <v>2008</v>
       </c>
@@ -27756,7 +27756,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="333" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A333" s="3">
         <v>2008</v>
       </c>
@@ -27798,7 +27798,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="334" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A334" s="3">
         <v>2008</v>
       </c>
@@ -27838,7 +27838,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="335" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A335" s="3">
         <v>2008</v>
       </c>
@@ -27878,7 +27878,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="336" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A336" s="3">
         <v>2008</v>
       </c>
@@ -27918,7 +27918,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="337" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A337" s="3">
         <v>2008</v>
       </c>
@@ -27958,7 +27958,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="338" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A338" s="3">
         <v>2008</v>
       </c>
@@ -27998,7 +27998,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="339" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A339" s="3">
         <v>2008</v>
       </c>
@@ -28038,7 +28038,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="340" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A340" s="3">
         <v>2008</v>
       </c>
@@ -28078,7 +28078,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="341" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A341" s="3">
         <v>2008</v>
       </c>
@@ -28118,7 +28118,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="342" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A342" s="3">
         <v>2008</v>
       </c>
@@ -28158,7 +28158,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="343" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A343" s="3">
         <v>2008</v>
       </c>
@@ -28198,7 +28198,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="344" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A344" s="3">
         <v>2008</v>
       </c>
@@ -28238,7 +28238,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="345" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A345" s="3">
         <v>2007</v>
       </c>
@@ -28278,7 +28278,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="346" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A346" s="3">
         <v>2007</v>
       </c>
@@ -28320,7 +28320,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="347" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A347" s="3">
         <v>2007</v>
       </c>
@@ -28360,7 +28360,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="348" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A348" s="3">
         <v>2007</v>
       </c>
@@ -28400,7 +28400,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="349" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A349" s="3">
         <v>2007</v>
       </c>
@@ -28440,7 +28440,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="350" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A350" s="3">
         <v>2007</v>
       </c>
@@ -28480,7 +28480,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="351" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A351" s="3">
         <v>2007</v>
       </c>
@@ -28522,7 +28522,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="352" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A352" s="3">
         <v>2007</v>
       </c>
@@ -28562,7 +28562,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="353" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A353" s="3">
         <v>2007</v>
       </c>
@@ -28602,7 +28602,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="354" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A354" s="3">
         <v>2007</v>
       </c>
@@ -28642,7 +28642,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="355" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A355" s="3">
         <v>2007</v>
       </c>
@@ -28682,7 +28682,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="356" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A356" s="3">
         <v>2007</v>
       </c>
@@ -28724,7 +28724,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="357" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A357" s="3">
         <v>2007</v>
       </c>
@@ -28766,7 +28766,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="358" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A358" s="3">
         <v>2007</v>
       </c>
@@ -28808,7 +28808,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="359" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A359" s="3">
         <v>2007</v>
       </c>
@@ -28850,7 +28850,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="360" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A360" s="3">
         <v>2007</v>
       </c>
@@ -28890,7 +28890,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="361" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A361" s="3">
         <v>2007</v>
       </c>
@@ -28932,7 +28932,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="362" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A362" s="3">
         <v>2007</v>
       </c>
@@ -28974,7 +28974,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="363" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A363" s="3">
         <v>2007</v>
       </c>
@@ -29014,7 +29014,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="364" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A364" s="3">
         <v>2007</v>
       </c>
@@ -29054,7 +29054,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="365" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A365" s="3">
         <v>2007</v>
       </c>
@@ -29094,7 +29094,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="366" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A366" s="3">
         <v>2007</v>
       </c>
@@ -29134,7 +29134,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="367" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A367" s="3">
         <v>2007</v>
       </c>
@@ -29174,7 +29174,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="368" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A368" s="3">
         <v>2007</v>
       </c>
@@ -29214,7 +29214,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="369" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A369" s="3">
         <v>2007</v>
       </c>
@@ -29254,7 +29254,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="370" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A370" s="3">
         <v>2007</v>
       </c>
@@ -29294,7 +29294,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="371" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A371" s="3">
         <v>2007</v>
       </c>
@@ -29334,7 +29334,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="372" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A372" s="3">
         <v>2007</v>
       </c>
@@ -29374,7 +29374,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="373" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A373" s="3">
         <v>2007</v>
       </c>
@@ -29416,7 +29416,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="374" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A374" s="3">
         <v>2007</v>
       </c>
@@ -29458,7 +29458,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="375" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A375" s="3">
         <v>2007</v>
       </c>
@@ -29498,7 +29498,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="376" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A376" s="3">
         <v>2007</v>
       </c>
@@ -29538,7 +29538,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="377" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A377" s="3">
         <v>2006</v>
       </c>
@@ -29578,7 +29578,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="378" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A378" s="3">
         <v>2006</v>
       </c>
@@ -29620,7 +29620,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="379" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A379" s="3">
         <v>2006</v>
       </c>
@@ -29660,7 +29660,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="380" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A380" s="3">
         <v>2006</v>
       </c>
@@ -29700,7 +29700,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="381" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A381" s="3">
         <v>2006</v>
       </c>
@@ -29740,7 +29740,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="382" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A382" s="3">
         <v>2006</v>
       </c>
@@ -29780,7 +29780,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="383" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A383" s="3">
         <v>2006</v>
       </c>
@@ -29820,7 +29820,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="384" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A384" s="3">
         <v>2006</v>
       </c>
@@ -29860,7 +29860,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="385" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A385" s="3">
         <v>2006</v>
       </c>
@@ -29902,7 +29902,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="386" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A386" s="3">
         <v>2006</v>
       </c>
@@ -29942,7 +29942,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="387" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A387" s="3">
         <v>2006</v>
       </c>
@@ -29982,7 +29982,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="388" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A388" s="3">
         <v>2006</v>
       </c>
@@ -30026,7 +30026,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="389" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A389" s="3">
         <v>2006</v>
       </c>
@@ -30066,7 +30066,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="390" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A390" s="3">
         <v>2006</v>
       </c>
@@ -30106,7 +30106,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="391" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A391" s="3">
         <v>2006</v>
       </c>
@@ -30146,7 +30146,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="392" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A392" s="3">
         <v>2006</v>
       </c>
@@ -30186,7 +30186,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="393" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A393" s="3">
         <v>2006</v>
       </c>
@@ -30226,7 +30226,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="394" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A394" s="3">
         <v>2006</v>
       </c>
@@ -30266,7 +30266,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="395" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A395" s="3">
         <v>2006</v>
       </c>
@@ -30306,7 +30306,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="396" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A396" s="3">
         <v>2006</v>
       </c>
@@ -30346,7 +30346,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="397" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A397" s="3">
         <v>2006</v>
       </c>
@@ -30386,7 +30386,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="398" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A398" s="3">
         <v>2005</v>
       </c>
@@ -30428,7 +30428,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="399" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A399" s="3">
         <v>2005</v>
       </c>
@@ -30468,7 +30468,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="400" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A400" s="3">
         <v>2005</v>
       </c>
@@ -30508,7 +30508,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="401" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A401" s="3">
         <v>2005</v>
       </c>
@@ -30548,7 +30548,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="402" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A402" s="3">
         <v>2005</v>
       </c>
@@ -30588,7 +30588,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="403" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A403" s="3">
         <v>2005</v>
       </c>
@@ -30628,7 +30628,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="404" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A404" s="3">
         <v>2005</v>
       </c>
@@ -30670,7 +30670,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="405" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A405" s="3">
         <v>2005</v>
       </c>
@@ -30710,7 +30710,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="406" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A406" s="3">
         <v>2005</v>
       </c>
@@ -30750,7 +30750,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="407" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A407" s="3">
         <v>2005</v>
       </c>
@@ -30790,7 +30790,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="408" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A408" s="3">
         <v>2005</v>
       </c>
@@ -30830,7 +30830,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="409" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A409" s="3">
         <v>2005</v>
       </c>
@@ -30870,7 +30870,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="410" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A410" s="3">
         <v>2005</v>
       </c>
@@ -30910,7 +30910,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="411" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A411" s="3">
         <v>2005</v>
       </c>
@@ -30950,7 +30950,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="412" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A412" s="3">
         <v>2005</v>
       </c>
@@ -30990,7 +30990,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="413" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A413" s="3">
         <v>2005</v>
       </c>
@@ -31030,7 +31030,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="414" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A414" s="3">
         <v>2005</v>
       </c>
@@ -31072,7 +31072,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="415" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A415" s="3">
         <v>2005</v>
       </c>
@@ -31112,7 +31112,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="416" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A416" s="3">
         <v>2005</v>
       </c>
@@ -31152,7 +31152,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="417" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A417" s="3">
         <v>2005</v>
       </c>
@@ -31192,7 +31192,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="418" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A418" s="3">
         <v>2005</v>
       </c>
@@ -31232,7 +31232,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="419" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A419" s="3">
         <v>2005</v>
       </c>
@@ -31272,7 +31272,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="420" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A420" s="3">
         <v>2005</v>
       </c>
@@ -31312,7 +31312,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="421" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A421" s="3">
         <v>2004</v>
       </c>
@@ -31352,7 +31352,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="422" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A422" s="3">
         <v>2004</v>
       </c>
@@ -31392,7 +31392,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="423" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A423" s="3">
         <v>2004</v>
       </c>
@@ -31432,7 +31432,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="424" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A424" s="3">
         <v>2004</v>
       </c>
@@ -31472,7 +31472,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="425" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A425" s="3">
         <v>2004</v>
       </c>
@@ -31512,7 +31512,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="426" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A426" s="3">
         <v>2004</v>
       </c>
@@ -31552,7 +31552,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="427" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A427" s="3">
         <v>2004</v>
       </c>
@@ -31592,7 +31592,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="428" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A428" s="3">
         <v>2004</v>
       </c>
@@ -31632,7 +31632,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="429" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A429" s="3">
         <v>2004</v>
       </c>
@@ -31672,7 +31672,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="430" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A430" s="3">
         <v>2004</v>
       </c>
@@ -31712,7 +31712,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="431" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A431" s="3">
         <v>2004</v>
       </c>
@@ -31752,7 +31752,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="432" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A432" s="3">
         <v>2004</v>
       </c>
@@ -31792,7 +31792,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="433" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A433" s="3">
         <v>2004</v>
       </c>
@@ -31832,7 +31832,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="434" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A434" s="3">
         <v>2004</v>
       </c>
@@ -31872,7 +31872,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="435" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A435" s="3">
         <v>2004</v>
       </c>
@@ -31912,7 +31912,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="436" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A436" s="3">
         <v>2004</v>
       </c>
@@ -31952,7 +31952,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="437" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A437" s="3">
         <v>2004</v>
       </c>
@@ -31992,7 +31992,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="438" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A438" s="3">
         <v>2004</v>
       </c>
@@ -32032,7 +32032,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="439" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A439" s="3">
         <v>2004</v>
       </c>
@@ -32072,7 +32072,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="440" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A440" s="3">
         <v>2004</v>
       </c>
@@ -32112,7 +32112,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="441" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A441" s="3">
         <v>2004</v>
       </c>
@@ -32152,7 +32152,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="442" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A442" s="3">
         <v>2004</v>
       </c>
@@ -32192,7 +32192,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="443" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A443" s="3">
         <v>2004</v>
       </c>
@@ -32232,7 +32232,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="444" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A444" s="3">
         <v>2004</v>
       </c>
@@ -32272,7 +32272,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="445" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A445" s="3">
         <v>2004</v>
       </c>
@@ -32312,7 +32312,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="446" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A446" s="3">
         <v>2004</v>
       </c>
@@ -32352,7 +32352,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="447" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A447" s="3">
         <v>2004</v>
       </c>
@@ -32392,7 +32392,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="448" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A448" s="3">
         <v>2004</v>
       </c>
@@ -32432,7 +32432,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="449" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A449" s="3">
         <v>2004</v>
       </c>
@@ -32472,7 +32472,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="450" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A450" s="3">
         <v>2004</v>
       </c>
@@ -32512,7 +32512,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="451" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A451" s="3">
         <v>2004</v>
       </c>
@@ -32552,7 +32552,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="452" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A452" s="3">
         <v>2003</v>
       </c>
@@ -32592,7 +32592,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="453" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A453" s="3">
         <v>2003</v>
       </c>
@@ -32632,7 +32632,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="454" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A454" s="3">
         <v>2003</v>
       </c>
@@ -32672,7 +32672,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="455" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A455" s="3">
         <v>2003</v>
       </c>
@@ -32712,7 +32712,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="456" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A456" s="3">
         <v>2003</v>
       </c>
@@ -32752,7 +32752,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="457" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A457" s="3">
         <v>2003</v>
       </c>
@@ -32792,7 +32792,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="458" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A458" s="3">
         <v>2003</v>
       </c>
@@ -32832,7 +32832,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="459" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A459" s="3">
         <v>2003</v>
       </c>
@@ -32872,7 +32872,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="460" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A460" s="3">
         <v>2003</v>
       </c>
@@ -32912,7 +32912,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="461" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A461" s="3">
         <v>2003</v>
       </c>
@@ -32952,7 +32952,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="462" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A462" s="3">
         <v>2003</v>
       </c>
@@ -32992,7 +32992,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="463" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A463" s="3">
         <v>2003</v>
       </c>
@@ -33032,7 +33032,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="464" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A464" s="3">
         <v>2003</v>
       </c>
@@ -33072,7 +33072,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="465" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A465" s="3">
         <v>2003</v>
       </c>
@@ -33114,7 +33114,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="466" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A466" s="3">
         <v>2003</v>
       </c>
@@ -33154,7 +33154,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="467" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A467" s="3">
         <v>2003</v>
       </c>
@@ -33194,7 +33194,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="468" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A468" s="3">
         <v>2003</v>
       </c>
@@ -33234,7 +33234,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="469" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A469" s="3">
         <v>2003</v>
       </c>
@@ -33274,7 +33274,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="470" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A470" s="3">
         <v>2003</v>
       </c>
@@ -33314,7 +33314,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="471" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A471" s="3">
         <v>2002</v>
       </c>
@@ -33354,7 +33354,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="472" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A472" s="3">
         <v>2002</v>
       </c>
@@ -33394,7 +33394,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="473" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A473" s="3">
         <v>2002</v>
       </c>
@@ -33434,7 +33434,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="474" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A474" s="3">
         <v>2002</v>
       </c>
@@ -33474,7 +33474,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="475" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A475" s="3">
         <v>2002</v>
       </c>
@@ -33514,7 +33514,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="476" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A476" s="3">
         <v>2002</v>
       </c>
@@ -33554,7 +33554,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="477" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A477" s="3">
         <v>2002</v>
       </c>
@@ -33594,7 +33594,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="478" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A478" s="3">
         <v>2002</v>
       </c>
@@ -33634,7 +33634,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="479" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A479" s="3">
         <v>2002</v>
       </c>
@@ -33674,7 +33674,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="480" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A480" s="3">
         <v>2002</v>
       </c>
@@ -33714,7 +33714,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="481" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A481" s="3">
         <v>2002</v>
       </c>
@@ -33754,7 +33754,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="482" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A482" s="3">
         <v>2002</v>
       </c>
@@ -33794,7 +33794,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="483" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A483" s="3">
         <v>2002</v>
       </c>
@@ -33834,7 +33834,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="484" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A484" s="3">
         <v>2002</v>
       </c>
@@ -33874,7 +33874,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="485" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A485" s="3">
         <v>2002</v>
       </c>
@@ -33914,7 +33914,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="486" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A486" s="3">
         <v>2002</v>
       </c>
@@ -33954,7 +33954,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="487" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A487" s="3">
         <v>2002</v>
       </c>
@@ -33996,7 +33996,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="488" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A488" s="3">
         <v>2002</v>
       </c>
@@ -34040,7 +34040,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="489" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A489" s="3">
         <v>2002</v>
       </c>
@@ -34082,7 +34082,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="490" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A490" s="3">
         <v>2002</v>
       </c>
@@ -34122,7 +34122,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="491" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A491" s="3">
         <v>2002</v>
       </c>
@@ -34162,7 +34162,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="492" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A492" s="3">
         <v>2002</v>
       </c>
@@ -34202,7 +34202,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="493" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A493" s="3">
         <v>2002</v>
       </c>
@@ -34242,7 +34242,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="494" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A494" s="3">
         <v>2002</v>
       </c>
@@ -34286,7 +34286,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="495" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A495" s="3">
         <v>2002</v>
       </c>
@@ -34326,7 +34326,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="496" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A496" s="3">
         <v>2001</v>
       </c>
@@ -34366,7 +34366,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="497" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A497" s="3">
         <v>2001</v>
       </c>
@@ -34406,7 +34406,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="498" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A498" s="3">
         <v>2001</v>
       </c>
@@ -34446,7 +34446,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="499" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A499" s="3">
         <v>2001</v>
       </c>
@@ -34486,7 +34486,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="500" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A500" s="3">
         <v>2001</v>
       </c>
@@ -34526,7 +34526,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="501" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A501" s="3">
         <v>2001</v>
       </c>
@@ -34566,7 +34566,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="502" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A502" s="3">
         <v>2001</v>
       </c>
@@ -34606,7 +34606,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="503" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A503" s="3">
         <v>2001</v>
       </c>
@@ -34646,7 +34646,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="504" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A504" s="3">
         <v>2001</v>
       </c>
@@ -34686,7 +34686,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="505" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A505" s="3">
         <v>2001</v>
       </c>
@@ -34726,7 +34726,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="506" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A506" s="3">
         <v>2001</v>
       </c>
@@ -34766,7 +34766,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="507" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A507" s="3">
         <v>2001</v>
       </c>
@@ -34806,7 +34806,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="508" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A508" s="3">
         <v>2001</v>
       </c>
@@ -34846,7 +34846,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="509" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A509" s="3">
         <v>2001</v>
       </c>
@@ -34886,7 +34886,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="510" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A510" s="3">
         <v>2001</v>
       </c>
@@ -34926,7 +34926,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="511" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A511" s="3">
         <v>2001</v>
       </c>
@@ -34966,7 +34966,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="512" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A512" s="3">
         <v>2001</v>
       </c>
@@ -35006,7 +35006,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="513" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A513" s="3">
         <v>2001</v>
       </c>
@@ -35046,7 +35046,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="514" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A514" s="3">
         <v>2001</v>
       </c>
@@ -35088,7 +35088,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="515" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A515" s="3">
         <v>2001</v>
       </c>
@@ -35128,7 +35128,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="516" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A516" s="3">
         <v>2001</v>
       </c>
@@ -35168,7 +35168,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="517" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A517" s="3">
         <v>2000</v>
       </c>
@@ -35208,7 +35208,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="518" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A518" s="3">
         <v>2000</v>
       </c>
@@ -35248,7 +35248,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="519" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A519" s="3">
         <v>2000</v>
       </c>
@@ -35288,7 +35288,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="520" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A520" s="3">
         <v>2000</v>
       </c>
@@ -35328,7 +35328,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="521" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A521" s="3">
         <v>2000</v>
       </c>
@@ -35368,7 +35368,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="522" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A522" s="3">
         <v>2000</v>
       </c>
@@ -35408,7 +35408,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="523" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A523" s="3">
         <v>2000</v>
       </c>
@@ -35448,7 +35448,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="524" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A524" s="3">
         <v>2000</v>
       </c>
@@ -35488,7 +35488,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="525" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A525" s="3">
         <v>2000</v>
       </c>
@@ -35528,7 +35528,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="526" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A526" s="3">
         <v>2000</v>
       </c>
@@ -35568,7 +35568,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="527" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A527" s="3">
         <v>2000</v>
       </c>
@@ -35608,7 +35608,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="528" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A528" s="3">
         <v>2000</v>
       </c>
@@ -35648,7 +35648,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="529" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A529" s="3">
         <v>2000</v>
       </c>
@@ -35688,7 +35688,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="530" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A530" s="3">
         <v>2000</v>
       </c>
@@ -35728,7 +35728,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="531" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A531" s="3">
         <v>2000</v>
       </c>
@@ -35768,7 +35768,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="532" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A532" s="3">
         <v>2000</v>
       </c>
@@ -35808,7 +35808,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="533" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A533" s="3">
         <v>2000</v>
       </c>
@@ -35848,7 +35848,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="534" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A534" s="3">
         <v>2000</v>
       </c>
@@ -35888,7 +35888,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="535" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A535" s="3">
         <v>2000</v>
       </c>
@@ -35928,7 +35928,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="536" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A536" s="3">
         <v>2000</v>
       </c>
@@ -35968,7 +35968,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="537" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A537" s="3">
         <v>1999</v>
       </c>
@@ -36008,7 +36008,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="538" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A538" s="3">
         <v>1999</v>
       </c>
@@ -36075,7 +36075,7 @@
         <v>2647413713.3990426</v>
       </c>
     </row>
-    <row r="539" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A539" s="3">
         <v>1999</v>
       </c>
@@ -36117,7 +36117,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="540" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A540" s="3">
         <v>1999</v>
       </c>
@@ -36159,7 +36159,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="541" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A541" s="3">
         <v>1999</v>
       </c>
@@ -36199,7 +36199,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="542" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A542" s="3">
         <v>1999</v>
       </c>
@@ -36239,7 +36239,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="543" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A543" s="3">
         <v>1999</v>
       </c>
@@ -36279,7 +36279,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="544" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A544" s="3">
         <v>1999</v>
       </c>
@@ -36321,7 +36321,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="545" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A545" s="3">
         <v>1999</v>
       </c>
@@ -36361,7 +36361,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="546" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A546" s="3">
         <v>1999</v>
       </c>
@@ -36401,7 +36401,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="547" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A547" s="3">
         <v>1999</v>
       </c>
@@ -36441,7 +36441,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="548" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A548" s="3">
         <v>1999</v>
       </c>
@@ -36481,7 +36481,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="549" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A549" s="3">
         <v>1999</v>
       </c>
@@ -36521,7 +36521,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="550" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A550" s="3">
         <v>1999</v>
       </c>
@@ -36563,7 +36563,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="551" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A551" s="3">
         <v>1999</v>
       </c>
@@ -36603,7 +36603,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="552" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A552" s="3">
         <v>1999</v>
       </c>
@@ -36643,7 +36643,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="553" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A553" s="3">
         <v>1999</v>
       </c>
@@ -36683,7 +36683,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="554" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A554" s="3">
         <v>1999</v>
       </c>
@@ -36723,7 +36723,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="555" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A555" s="3">
         <v>1999</v>
       </c>
@@ -36765,7 +36765,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="556" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A556" s="3">
         <v>1999</v>
       </c>
@@ -36807,7 +36807,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="557" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A557" s="3">
         <v>1999</v>
       </c>
@@ -36847,7 +36847,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="558" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A558" s="3">
         <v>1998</v>
       </c>
@@ -36887,7 +36887,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="559" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A559" s="3">
         <v>1998</v>
       </c>
@@ -36927,7 +36927,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="560" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A560" s="3">
         <v>1998</v>
       </c>
@@ -36967,7 +36967,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="561" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A561" s="3">
         <v>1998</v>
       </c>
@@ -37009,7 +37009,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="562" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A562" s="3">
         <v>1998</v>
       </c>
@@ -37049,7 +37049,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="563" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A563" s="3">
         <v>1998</v>
       </c>
@@ -37089,7 +37089,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="564" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A564" s="3">
         <v>1998</v>
       </c>
@@ -37129,7 +37129,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="565" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A565" s="3">
         <v>1998</v>
       </c>
@@ -37169,7 +37169,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="566" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A566" s="3">
         <v>1998</v>
       </c>
@@ -37209,7 +37209,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="567" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A567" s="3">
         <v>1998</v>
       </c>
@@ -37251,7 +37251,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="568" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A568" s="3">
         <v>1998</v>
       </c>
@@ -37293,7 +37293,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="569" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A569" s="3">
         <v>1998</v>
       </c>
@@ -37333,7 +37333,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="570" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A570" s="3">
         <v>1998</v>
       </c>
@@ -37373,7 +37373,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="571" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A571" s="3">
         <v>1998</v>
       </c>
@@ -37413,7 +37413,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="572" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A572" s="3">
         <v>1998</v>
       </c>
@@ -37453,7 +37453,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="573" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A573" s="3">
         <v>1998</v>
       </c>
@@ -37493,7 +37493,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="574" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A574" s="3">
         <v>1998</v>
       </c>
@@ -37533,7 +37533,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="575" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A575" s="3">
         <v>1998</v>
       </c>
@@ -37573,7 +37573,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="576" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A576" s="3">
         <v>1998</v>
       </c>
@@ -37615,7 +37615,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="577" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A577" s="3">
         <v>1998</v>
       </c>
@@ -37655,7 +37655,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="578" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A578" s="3">
         <v>1998</v>
       </c>
@@ -37695,7 +37695,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="579" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A579" s="3">
         <v>1998</v>
       </c>
@@ -37735,7 +37735,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="580" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A580" s="3">
         <v>1998</v>
       </c>
@@ -37775,7 +37775,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="581" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A581" s="3">
         <v>1998</v>
       </c>
@@ -37815,7 +37815,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="582" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A582" s="3">
         <v>1998</v>
       </c>
@@ -37855,7 +37855,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="583" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A583" s="3">
         <v>1998</v>
       </c>
@@ -37895,7 +37895,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="584" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A584" s="3">
         <v>1998</v>
       </c>
@@ -37935,7 +37935,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="585" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A585" s="3">
         <v>1998</v>
       </c>
@@ -37975,7 +37975,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="586" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A586" s="3">
         <v>1998</v>
       </c>
@@ -38017,7 +38017,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="587" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A587" s="3">
         <v>1998</v>
       </c>
@@ -38057,7 +38057,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="588" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A588" s="3">
         <v>1998</v>
       </c>
@@ -38097,7 +38097,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="589" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A589" s="3">
         <v>1998</v>
       </c>
@@ -38137,7 +38137,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="590" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A590" s="3">
         <v>1998</v>
       </c>
@@ -38177,7 +38177,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="591" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A591" s="3">
         <v>1998</v>
       </c>
@@ -38217,7 +38217,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="592" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A592" s="3">
         <v>1998</v>
       </c>
@@ -38257,7 +38257,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="593" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A593" s="3">
         <v>1998</v>
       </c>
@@ -38297,7 +38297,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="594" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A594" s="3">
         <v>1998</v>
       </c>
@@ -38337,7 +38337,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="595" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A595" s="3">
         <v>1998</v>
       </c>
@@ -38377,7 +38377,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="596" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A596" s="3">
         <v>1998</v>
       </c>
@@ -38417,7 +38417,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="597" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A597" s="3">
         <v>1998</v>
       </c>
@@ -38457,7 +38457,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="598" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A598" s="3">
         <v>1998</v>
       </c>
@@ -38497,7 +38497,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="599" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A599" s="3">
         <v>1998</v>
       </c>
@@ -38537,7 +38537,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="600" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A600" s="3">
         <v>1998</v>
       </c>
@@ -38577,7 +38577,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="601" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A601" s="3">
         <v>1998</v>
       </c>
@@ -38617,7 +38617,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="602" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A602" s="3">
         <v>1998</v>
       </c>
@@ -38657,7 +38657,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="603" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A603" s="3">
         <v>1997</v>
       </c>
@@ -38697,7 +38697,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="604" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A604" s="3">
         <v>1997</v>
       </c>
@@ -38737,7 +38737,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="605" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A605" s="3">
         <v>1997</v>
       </c>
@@ -38777,7 +38777,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="606" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A606" s="3">
         <v>1997</v>
       </c>
@@ -38817,7 +38817,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="607" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A607" s="3">
         <v>1997</v>
       </c>
@@ -38857,7 +38857,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="608" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A608" s="3">
         <v>1997</v>
       </c>
@@ -38897,7 +38897,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="609" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A609" s="3">
         <v>1997</v>
       </c>
@@ -38937,7 +38937,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="610" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A610" s="3">
         <v>1997</v>
       </c>
@@ -38977,7 +38977,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="611" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A611" s="3">
         <v>1997</v>
       </c>
@@ -39017,7 +39017,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="612" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A612" s="3">
         <v>1997</v>
       </c>
@@ -39057,7 +39057,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="613" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A613" s="3">
         <v>1997</v>
       </c>
@@ -39097,7 +39097,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="614" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A614" s="3">
         <v>1997</v>
       </c>
@@ -39137,7 +39137,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="615" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A615" s="3">
         <v>1997</v>
       </c>
@@ -39177,7 +39177,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="616" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A616" s="3">
         <v>1997</v>
       </c>
@@ -39217,7 +39217,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="617" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A617" s="3">
         <v>1997</v>
       </c>
@@ -39257,7 +39257,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="618" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A618" s="3">
         <v>1997</v>
       </c>
@@ -39297,7 +39297,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="619" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A619" s="3">
         <v>1997</v>
       </c>
@@ -39337,7 +39337,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="620" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A620" s="3">
         <v>1997</v>
       </c>
@@ -39379,7 +39379,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="621" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A621" s="3">
         <v>1997</v>
       </c>
@@ -39419,7 +39419,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="622" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A622" s="3">
         <v>1997</v>
       </c>
@@ -39730,25 +39730,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{604FB875-E6D6-4D0A-835E-1820C0AF6875}">
   <dimension ref="A1:V20"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" style="38"/>
-    <col min="15" max="15" width="42.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.26953125" customWidth="1"/>
+    <col min="5" max="5" width="14.1796875" customWidth="1"/>
+    <col min="13" max="13" width="11.453125" style="38"/>
+    <col min="15" max="15" width="42.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="46.36328125" customWidth="1"/>
     <col min="17" max="17" width="22" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="22" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2346</v>
       </c>
@@ -39774,7 +39774,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -39821,7 +39821,7 @@
         <v>2351</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -39857,7 +39857,7 @@
         <v>2352</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -39893,7 +39893,7 @@
         <v>2353</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="O5">
         <v>2017</v>
       </c>
@@ -39920,7 +39920,7 @@
         <v>2355</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="O6">
         <v>2017</v>
       </c>
@@ -39947,7 +39947,7 @@
         <v>2361</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="O7">
         <v>2017</v>
       </c>
@@ -39974,7 +39974,7 @@
         <v>2357</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="O8">
         <v>2017</v>
       </c>
@@ -40001,7 +40001,7 @@
         <v>2359</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="O9">
         <v>2017</v>
       </c>
@@ -40021,7 +40021,7 @@
       <c r="U9" s="46"/>
       <c r="V9" s="46"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="O10">
         <v>2016</v>
       </c>
@@ -40048,7 +40048,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="O11">
         <v>2015</v>
       </c>
@@ -40075,7 +40075,7 @@
         <v>2363</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="O12">
         <v>2015</v>
       </c>
@@ -40102,7 +40102,7 @@
         <v>2364</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="O13">
         <v>2014</v>
       </c>
@@ -40129,7 +40129,7 @@
         <v>2365</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="O14">
         <v>2014</v>
       </c>
@@ -40153,7 +40153,7 @@
         <v>2366</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="O15">
         <v>2014</v>
       </c>
@@ -40174,7 +40174,7 @@
       </c>
       <c r="U15" s="4"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="O16">
         <v>2012</v>
       </c>
@@ -40195,7 +40195,7 @@
       </c>
       <c r="U16" s="4"/>
     </row>
-    <row r="17" spans="14:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="14:22" x14ac:dyDescent="0.35">
       <c r="O17">
         <v>2012</v>
       </c>
@@ -40222,7 +40222,7 @@
         <v>2367</v>
       </c>
     </row>
-    <row r="18" spans="14:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="14:22" x14ac:dyDescent="0.35">
       <c r="O18">
         <v>2010</v>
       </c>
@@ -40243,7 +40243,7 @@
       </c>
       <c r="U18" s="4"/>
     </row>
-    <row r="20" spans="14:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="14:22" x14ac:dyDescent="0.35">
       <c r="N20" t="s">
         <v>2368</v>
       </c>
@@ -40297,18 +40297,18 @@
       <selection activeCell="A23" sqref="A23:B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="41.140625" customWidth="1"/>
+    <col min="1" max="1" width="41.1796875" customWidth="1"/>
     <col min="2" max="2" width="48" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7265625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -40334,7 +40334,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -40360,7 +40360,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>67</v>
       </c>
@@ -40368,7 +40368,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>92</v>
       </c>
@@ -40376,7 +40376,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>155</v>
       </c>
@@ -40384,7 +40384,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>284</v>
       </c>
@@ -40392,12 +40392,12 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>1678</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>2314</v>
       </c>
@@ -40405,7 +40405,7 @@
         <v>2315</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -40413,7 +40413,7 @@
         <v>2316</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -40421,7 +40421,7 @@
         <v>2317</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -40429,7 +40429,7 @@
         <v>2318</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -40437,7 +40437,7 @@
         <v>2319</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -40445,7 +40445,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -40453,7 +40453,7 @@
         <v>2325</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>719</v>
       </c>
@@ -40461,7 +40461,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>721</v>
       </c>
@@ -40469,7 +40469,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>722</v>
       </c>
@@ -40477,7 +40477,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>720</v>
       </c>
@@ -40485,7 +40485,7 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="41" t="s">
         <v>723</v>
       </c>
@@ -40493,7 +40493,7 @@
         <v>2333</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>725</v>
       </c>
@@ -40501,31 +40501,31 @@
         <v>2326</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>726</v>
       </c>
       <c r="B24" s="47"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>727</v>
       </c>
       <c r="B25" s="47"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>728</v>
       </c>
       <c r="B26" s="47"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>729</v>
       </c>
       <c r="B27" s="47"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>735</v>
       </c>
@@ -40533,7 +40533,7 @@
         <v>2327</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>737</v>
       </c>
@@ -40541,19 +40541,19 @@
         <v>2328</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>738</v>
       </c>
       <c r="B30" s="47"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>739</v>
       </c>
       <c r="B31" s="47"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="41" t="s">
         <v>1141</v>
       </c>
@@ -40561,7 +40561,7 @@
         <v>2329</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>1149</v>
       </c>
@@ -40569,7 +40569,7 @@
         <v>2330</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>1648</v>
       </c>
@@ -40577,7 +40577,7 @@
         <v>2331</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>1701</v>
       </c>
@@ -40585,115 +40585,115 @@
         <v>2332</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>1702</v>
       </c>
       <c r="B36" s="47"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>1703</v>
       </c>
       <c r="B37" s="47"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>1704</v>
       </c>
       <c r="B38" s="47"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>1705</v>
       </c>
       <c r="B39" s="47"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>1706</v>
       </c>
       <c r="B40" s="47"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>1707</v>
       </c>
       <c r="B41" s="47"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>1728</v>
       </c>
       <c r="B42" s="47"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>1745</v>
       </c>
       <c r="B43" s="47"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>1746</v>
       </c>
       <c r="B44" s="47"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>1747</v>
       </c>
       <c r="B45" s="47"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>1748</v>
       </c>
       <c r="B46" s="47"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>1749</v>
       </c>
       <c r="B47" s="47"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>1769</v>
       </c>
       <c r="B48" s="47"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>1918</v>
       </c>
       <c r="B49" s="47"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>1919</v>
       </c>
       <c r="B50" s="47"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>1920</v>
       </c>
       <c r="B51" s="47"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>2034</v>
       </c>
       <c r="B52" s="47"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>2035</v>
       </c>
       <c r="B53" s="47"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>2036</v>
       </c>
@@ -40720,9 +40720,9 @@
       <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>1613</v>
       </c>
@@ -40751,7 +40751,7 @@
         <v>1647</v>
       </c>
     </row>
-    <row r="3" spans="1:43" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="18" t="s">
         <v>1614</v>
       </c>
@@ -40797,7 +40797,7 @@
       </c>
       <c r="W3" s="19"/>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A4" s="20">
         <v>21916</v>
       </c>
@@ -40843,7 +40843,7 @@
         <v>1646</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A5" s="20">
         <v>22282</v>
       </c>
@@ -40883,7 +40883,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A6" s="20">
         <v>22647</v>
       </c>
@@ -40923,7 +40923,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A7" s="20">
         <v>23012</v>
       </c>
@@ -40963,7 +40963,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A8" s="20">
         <v>23377</v>
       </c>
@@ -41003,7 +41003,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A9" s="20">
         <v>23743</v>
       </c>
@@ -41043,7 +41043,7 @@
         <v>44082</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A10" s="20">
         <v>24108</v>
       </c>
@@ -41083,7 +41083,7 @@
         <v>1643</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A11" s="20">
         <v>24473</v>
       </c>
@@ -41123,7 +41123,7 @@
         <v>1644</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A12" s="20">
         <v>24838</v>
       </c>
@@ -41157,7 +41157,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A13" s="20">
         <v>25204</v>
       </c>
@@ -41185,7 +41185,7 @@
         <v>100.91</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A14" s="20">
         <v>25569</v>
       </c>
@@ -41213,7 +41213,7 @@
         <v>100.82</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A15" s="20">
         <v>25934</v>
       </c>
@@ -41241,7 +41241,7 @@
         <v>100.64</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A16" s="20">
         <v>26299</v>
       </c>
@@ -41269,7 +41269,7 @@
         <v>100.75</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" s="20">
         <v>26665</v>
       </c>
@@ -41297,7 +41297,7 @@
         <v>100.79</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" s="20">
         <v>27030</v>
       </c>
@@ -41325,7 +41325,7 @@
         <v>101.27</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" s="20">
         <v>27395</v>
       </c>
@@ -41353,7 +41353,7 @@
         <v>101.54</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" s="20">
         <v>27760</v>
       </c>
@@ -41381,7 +41381,7 @@
         <v>102.15</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" s="20">
         <v>28126</v>
       </c>
@@ -41409,7 +41409,7 @@
         <v>102.2</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" s="20">
         <v>28491</v>
       </c>
@@ -41437,7 +41437,7 @@
         <v>102.43</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" s="20">
         <v>28856</v>
       </c>
@@ -41465,7 +41465,7 @@
         <v>102.62</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" s="20">
         <v>29221</v>
       </c>
@@ -41493,7 +41493,7 @@
         <v>102.63</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" s="20">
         <v>29587</v>
       </c>
@@ -41521,7 +41521,7 @@
         <v>103.47</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" s="20">
         <v>29952</v>
       </c>
@@ -41549,7 +41549,7 @@
         <v>103.55</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" s="20">
         <v>30317</v>
       </c>
@@ -41577,7 +41577,7 @@
         <v>103.66</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" s="20">
         <v>30682</v>
       </c>
@@ -41605,7 +41605,7 @@
         <v>104.24</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" s="20">
         <v>31048</v>
       </c>
@@ -41633,7 +41633,7 @@
         <v>104.71</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" s="20">
         <v>31413</v>
       </c>
@@ -41661,7 +41661,7 @@
         <v>105.06</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" s="20">
         <v>31778</v>
       </c>
@@ -41689,7 +41689,7 @@
         <v>105.01</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" s="20">
         <v>32143</v>
       </c>
@@ -41717,7 +41717,7 @@
         <v>104.96</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33" s="20">
         <v>32509</v>
       </c>
@@ -41745,7 +41745,7 @@
         <v>104.89</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34" s="20">
         <v>32874</v>
       </c>
@@ -41773,7 +41773,7 @@
         <v>104.99</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35" s="20">
         <v>33239</v>
       </c>
@@ -41801,7 +41801,7 @@
         <v>105.13</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A36" s="20">
         <v>33604</v>
       </c>
@@ -41823,7 +41823,7 @@
         <v>0.3254056378484142</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A37" s="20">
         <v>33970</v>
       </c>
@@ -41845,7 +41845,7 @@
         <v>0.36498934526673898</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A38" s="20">
         <v>34335</v>
       </c>
@@ -41867,7 +41867,7 @@
         <v>0.41778134924186971</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A39" s="20">
         <v>34700</v>
       </c>
@@ -41889,7 +41889,7 @@
         <v>0.46658121095945132</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A40" s="20">
         <v>35065</v>
       </c>
@@ -41911,7 +41911,7 @@
         <v>0.48231135146810383</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A41" s="20">
         <v>35431</v>
       </c>
@@ -41933,7 +41933,7 @@
         <v>0.49707794907131903</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A42" s="20">
         <v>35796</v>
       </c>
@@ -41955,7 +41955,7 @@
         <v>0.50226017323852867</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A43" s="20">
         <v>36161</v>
       </c>
@@ -41977,7 +41977,7 @@
         <v>0.51370890507848943</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A44" s="20">
         <v>36526</v>
       </c>
@@ -41999,7 +41999,7 @@
         <v>0.53565372339771589</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A45" s="20">
         <v>36892</v>
       </c>
@@ -42021,7 +42021,7 @@
         <v>0.55633478458185848</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A46" s="20">
         <v>37257</v>
       </c>
@@ -42043,7 +42043,7 @@
         <v>0.57520606653618478</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A47" s="20">
         <v>37622</v>
       </c>
@@ -42065,7 +42065,7 @@
         <v>0.60154393290946961</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A48" s="20">
         <v>37987</v>
       </c>
@@ -42087,7 +42087,7 @@
         <v>0.64876201590969795</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" s="20">
         <v>38353</v>
       </c>
@@ -42109,7 +42109,7 @@
         <v>0.69834617438581481</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" s="20">
         <v>38718</v>
       </c>
@@ -42131,7 +42131,7 @@
         <v>0.78328048337466061</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="20">
         <v>39083</v>
       </c>
@@ -42153,7 +42153,7 @@
         <v>0.82509214292914146</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="20">
         <v>39448</v>
       </c>
@@ -42175,7 +42175,7 @@
         <v>0.82465122153230452</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" s="20">
         <v>39814</v>
       </c>
@@ -42197,7 +42197,7 @@
         <v>0.86303679789160836</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" s="20">
         <v>40179</v>
       </c>
@@ -42219,7 +42219,7 @@
         <v>0.94038469086697962</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" s="20">
         <v>40544</v>
       </c>
@@ -42241,7 +42241,7 @@
         <v>0.96965799102969796</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" s="20">
         <v>40909</v>
       </c>
@@ -42263,7 +42263,7 @@
         <v>0.98061668667861224</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" s="20">
         <v>41275</v>
       </c>
@@ -42285,7 +42285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" s="20">
         <v>41640</v>
       </c>
@@ -42307,7 +42307,7 @@
         <v>1.0590634905696217</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" s="20">
         <v>42005</v>
       </c>
@@ -42329,7 +42329,7 @@
         <v>1.1115246036924498</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" s="20">
         <v>42370</v>
       </c>
@@ -42351,7 +42351,7 @@
         <v>1.161208856284613</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" s="20">
         <v>42736</v>
       </c>
@@ -42373,7 +42373,7 @@
         <v>1.2167380289801426</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" s="20">
         <v>43101</v>
       </c>
@@ -42395,7 +42395,7 @@
         <v>1.2454588784812775</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" s="20">
         <v>43466</v>
       </c>
@@ -42417,7 +42417,7 @@
         <v>1.2786953354041695</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="G64" s="28">
         <f>YEAR(P35)</f>
         <v>2020</v>

--- a/DATAEVAL.xlsx
+++ b/DATAEVAL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-EVAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/944d5b9328a00097/Data intelligence/temporal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93AFEC9A-05C4-4E66-A199-C580AFA06864}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="107" documentId="8_{C4058E55-6697-44D8-BF2A-533DCF0008C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5F2CF40F-CC73-432D-A4D9-CA6B9CEF1487}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dataeval" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Deflactor" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">dataeval!$A$1:$AR$622</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">dataeval!$A$1:$AS$622</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">fuentes!$E$2:$E$622</definedName>
     <definedName name="_xlnm.Extract" localSheetId="2">fuentes!$F$2:$F$622</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="2">fuentes!$E$2:$E$622</definedName>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5772" uniqueCount="2374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5776" uniqueCount="2375">
   <si>
     <t>Año de protocolo</t>
   </si>
@@ -7171,10 +7171,13 @@
     <t>No todos los programas tienen presupuesto explicito en la Ley de Presupuesto</t>
   </si>
   <si>
-    <t>BB Ley Presupuesto</t>
-  </si>
-  <si>
-    <t>No especifica</t>
+    <t>Sin identificar</t>
+  </si>
+  <si>
+    <t>BB Ley Presupuesto CLP</t>
+  </si>
+  <si>
+    <t>BB Ley Presupuesto USD</t>
   </si>
 </sst>
 </file>
@@ -8308,37 +8311,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AR622"/>
+  <dimension ref="A1:AS622"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="U253" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="AR218" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B260" sqref="B260"/>
+      <selection pane="bottomRight" activeCell="AR223" sqref="AR223"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.54296875" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.5703125" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="52.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.453125" customWidth="1"/>
-    <col min="6" max="6" width="25.1796875" customWidth="1"/>
-    <col min="7" max="7" width="15.7265625" customWidth="1"/>
-    <col min="8" max="9" width="15.7265625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="52.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.42578125" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="9" width="15.7109375" style="2" customWidth="1"/>
     <col min="10" max="10" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="35.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="16" width="30.7265625" customWidth="1"/>
-    <col min="17" max="20" width="15.7265625" customWidth="1"/>
-    <col min="21" max="21" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="31.1796875" bestFit="1" customWidth="1"/>
-    <col min="24" max="43" width="17.7265625" customWidth="1"/>
-    <col min="44" max="44" width="18.453125" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="16" width="30.7109375" customWidth="1"/>
+    <col min="17" max="20" width="15.7109375" customWidth="1"/>
+    <col min="21" max="21" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="43" width="17.7109375" customWidth="1"/>
+    <col min="44" max="44" width="24.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="24.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -8469,10 +8473,13 @@
         <v>2036</v>
       </c>
       <c r="AR1" s="7" t="s">
-        <v>2372</v>
-      </c>
-    </row>
-    <row r="2" spans="1:44" s="33" customFormat="1" x14ac:dyDescent="0.35">
+        <v>2373</v>
+      </c>
+      <c r="AS1" s="7" t="s">
+        <v>2374</v>
+      </c>
+    </row>
+    <row r="2" spans="1:45" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30">
         <v>2020</v>
       </c>
@@ -8585,7 +8592,7 @@
       </c>
       <c r="AR2" s="10"/>
     </row>
-    <row r="3" spans="1:44" s="33" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:45" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="30">
         <v>2020</v>
       </c>
@@ -8684,7 +8691,7 @@
       </c>
       <c r="AR3" s="10"/>
     </row>
-    <row r="4" spans="1:44" s="33" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:45" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30">
         <v>2020</v>
       </c>
@@ -8793,7 +8800,7 @@
       </c>
       <c r="AR4" s="10"/>
     </row>
-    <row r="5" spans="1:44" s="33" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:45" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="30">
         <v>2020</v>
       </c>
@@ -8889,7 +8896,7 @@
       </c>
       <c r="AR5" s="10"/>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>2020</v>
       </c>
@@ -8970,7 +8977,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>2020</v>
       </c>
@@ -9057,7 +9064,7 @@
         <v>1736</v>
       </c>
     </row>
-    <row r="8" spans="1:44" s="33" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:45" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="30">
         <v>2020</v>
       </c>
@@ -9151,7 +9158,7 @@
       </c>
       <c r="AR8" s="10"/>
     </row>
-    <row r="9" spans="1:44" s="33" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:45" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="30">
         <v>2020</v>
       </c>
@@ -9259,7 +9266,7 @@
       </c>
       <c r="AR9" s="10"/>
     </row>
-    <row r="10" spans="1:44" s="33" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:45" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="30">
         <v>2020</v>
       </c>
@@ -9365,7 +9372,7 @@
       </c>
       <c r="AR10" s="10"/>
     </row>
-    <row r="11" spans="1:44" s="33" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:45" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="30">
         <v>2020</v>
       </c>
@@ -9462,7 +9469,7 @@
       </c>
       <c r="AR11" s="10"/>
     </row>
-    <row r="12" spans="1:44" s="33" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:45" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="30">
         <v>2020</v>
       </c>
@@ -9559,7 +9566,7 @@
       </c>
       <c r="AR12" s="10"/>
     </row>
-    <row r="13" spans="1:44" s="33" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:45" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="30">
         <v>2020</v>
       </c>
@@ -9655,7 +9662,7 @@
       </c>
       <c r="AR13" s="10"/>
     </row>
-    <row r="14" spans="1:44" s="33" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:45" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="30">
         <v>2020</v>
       </c>
@@ -9736,7 +9743,7 @@
       </c>
       <c r="AR14" s="10"/>
     </row>
-    <row r="15" spans="1:44" s="33" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:45" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="30">
         <v>2020</v>
       </c>
@@ -9831,7 +9838,7 @@
       </c>
       <c r="AR15" s="10"/>
     </row>
-    <row r="16" spans="1:44" s="33" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:45" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="30">
         <v>2020</v>
       </c>
@@ -9923,7 +9930,7 @@
       </c>
       <c r="AR16" s="10"/>
     </row>
-    <row r="17" spans="1:44" s="33" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:44" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="30">
         <v>2020</v>
       </c>
@@ -10040,7 +10047,7 @@
       </c>
       <c r="AR17" s="10"/>
     </row>
-    <row r="18" spans="1:44" s="33" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:44" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="30">
         <v>2020</v>
       </c>
@@ -10154,7 +10161,7 @@
       </c>
       <c r="AR18" s="10"/>
     </row>
-    <row r="19" spans="1:44" s="33" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:44" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="30">
         <v>2019</v>
       </c>
@@ -10268,7 +10275,7 @@
       </c>
       <c r="AR19" s="10"/>
     </row>
-    <row r="20" spans="1:44" s="33" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:44" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="30">
         <v>2019</v>
       </c>
@@ -10390,7 +10397,7 @@
       </c>
       <c r="AR20" s="10"/>
     </row>
-    <row r="21" spans="1:44" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:44" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>2019</v>
       </c>
@@ -10462,7 +10469,7 @@
       </c>
       <c r="AR21" s="10"/>
     </row>
-    <row r="22" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>2019</v>
       </c>
@@ -10529,7 +10536,7 @@
         <v>6960219337.3035898</v>
       </c>
     </row>
-    <row r="23" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>2019</v>
       </c>
@@ -10594,7 +10601,7 @@
         <v>8645512886.3872395</v>
       </c>
     </row>
-    <row r="24" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>2019</v>
       </c>
@@ -10660,7 +10667,7 @@
         <v>2618483.7836619532</v>
       </c>
     </row>
-    <row r="25" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>2019</v>
       </c>
@@ -10727,7 +10734,7 @@
         <v>14193373118.283466</v>
       </c>
     </row>
-    <row r="26" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>2019</v>
       </c>
@@ -10792,7 +10799,7 @@
         <v>14780690502.813242</v>
       </c>
     </row>
-    <row r="27" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>2019</v>
       </c>
@@ -10858,7 +10865,7 @@
         <v>39308513.61408361</v>
       </c>
     </row>
-    <row r="28" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>2019</v>
       </c>
@@ -10920,7 +10927,7 @@
         <v>53491537.120826639</v>
       </c>
     </row>
-    <row r="29" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>2019</v>
       </c>
@@ -10983,7 +10990,7 @@
         <v>4785346306.1753559</v>
       </c>
     </row>
-    <row r="30" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>2019</v>
       </c>
@@ -11048,7 +11055,7 @@
         <v>6038185786.8900023</v>
       </c>
     </row>
-    <row r="31" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>2019</v>
       </c>
@@ -11111,7 +11118,7 @@
         <v>62394847146.902206</v>
       </c>
     </row>
-    <row r="32" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>2019</v>
       </c>
@@ -11174,7 +11181,7 @@
         <v>4867461253.4132071</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>2019</v>
       </c>
@@ -11237,7 +11244,7 @@
         <v>5592418148408.835</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>2019</v>
       </c>
@@ -11300,7 +11307,7 @@
         <v>3685006013.188148</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>2018</v>
       </c>
@@ -11356,7 +11363,7 @@
         <v>32553369.4451956</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>2018</v>
       </c>
@@ -11421,7 +11428,7 @@
         <v>7726308886.0341339</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>2018</v>
       </c>
@@ -11488,7 +11495,7 @@
         <v>32878644736.896927</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>2018</v>
       </c>
@@ -11553,7 +11560,7 @@
         <v>115465072741.18871</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>2018</v>
       </c>
@@ -11615,7 +11622,7 @@
         <v>5649426.1846524477</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>2018</v>
       </c>
@@ -11675,7 +11682,7 @@
         <v>5649426.1846524477</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>2018</v>
       </c>
@@ -11734,7 +11741,7 @@
         <v>8799969384.2679996</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>2018</v>
       </c>
@@ -11799,7 +11806,7 @@
         <v>22804446209.122238</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>2018</v>
       </c>
@@ -11864,7 +11871,7 @@
         <v>56950896754.20887</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>2018</v>
       </c>
@@ -11929,7 +11936,7 @@
         <v>5471878.7731556948</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>2018</v>
       </c>
@@ -11996,7 +12003,7 @@
         <v>4628013095.8869295</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>2018</v>
       </c>
@@ -12059,7 +12066,7 @@
         <v>49585998435.618668</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>2018</v>
       </c>
@@ -12118,7 +12125,7 @@
         <v>7707957417.0335102</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>2018</v>
       </c>
@@ -12181,7 +12188,7 @@
         <v>10550328258.146124</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>2018</v>
       </c>
@@ -12244,7 +12251,7 @@
         <v>10550328258.146124</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>2018</v>
       </c>
@@ -12307,7 +12314,7 @@
         <v>10550328258.146124</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>2018</v>
       </c>
@@ -12372,7 +12379,7 @@
         <v>32516120523.692413</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>2018</v>
       </c>
@@ -12435,7 +12442,7 @@
         <v>1014623623.3354664</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>2018</v>
       </c>
@@ -12498,7 +12505,7 @@
         <v>4001088342.6970654</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>2018</v>
       </c>
@@ -12563,7 +12570,7 @@
         <v>8237124627.117281</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>2018</v>
       </c>
@@ -12628,7 +12635,7 @@
         <v>27498298492.008251</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>2018</v>
       </c>
@@ -12695,7 +12702,7 @@
         <v>31457364572.144691</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>2017</v>
       </c>
@@ -12760,7 +12767,7 @@
         <v>10732511591624.725</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>2017</v>
       </c>
@@ -12823,7 +12830,7 @@
         <v>7289013566.4073505</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>2017</v>
       </c>
@@ -12888,7 +12895,7 @@
         <v>13846994668.295162</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>2017</v>
       </c>
@@ -12955,7 +12962,7 @@
         <v>74213550369.332367</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>2017</v>
       </c>
@@ -13024,7 +13031,7 @@
         <v>74213550369.332367</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>2017</v>
       </c>
@@ -13093,7 +13100,7 @@
         <v>10758250081.960438</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>2017</v>
       </c>
@@ -13162,7 +13169,7 @@
         <v>22224886011548.609</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>2017</v>
       </c>
@@ -13229,7 +13236,7 @@
         <v>16712451255464.02</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>2017</v>
       </c>
@@ -13298,7 +13305,7 @@
         <v>47167096476.883942</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>2017</v>
       </c>
@@ -13365,7 +13372,7 @@
         <v>7057203601335.0723</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>2017</v>
       </c>
@@ -13432,7 +13439,7 @@
         <v>6847817526.4923687</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>2017</v>
       </c>
@@ -13499,7 +13506,7 @@
         <v>10513831815.319036</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>2017</v>
       </c>
@@ -13566,7 +13573,7 @@
         <v>10531437084.070236</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>2017</v>
       </c>
@@ -13633,7 +13640,7 @@
         <v>5406180988288.4434</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>2017</v>
       </c>
@@ -13700,7 +13707,7 @@
         <v>7568327594493.4629</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>2017</v>
       </c>
@@ -13767,7 +13774,7 @@
         <v>6772908221589.3262</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>2017</v>
       </c>
@@ -13834,7 +13841,7 @@
         <v>3024287819033.9316</v>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>2017</v>
       </c>
@@ -13899,7 +13906,7 @@
         <v>13984614267594.078</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>2017</v>
       </c>
@@ -13964,7 +13971,7 @@
         <v>21880299099646.605</v>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>2017</v>
       </c>
@@ -14029,7 +14036,7 @@
         <v>1036377568.5197884</v>
       </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>2017</v>
       </c>
@@ -14098,7 +14105,7 @@
         <v>31372253591839.508</v>
       </c>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>2017</v>
       </c>
@@ -14165,7 +14172,7 @@
         <v>31372253591839.508</v>
       </c>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>2017</v>
       </c>
@@ -14232,7 +14239,7 @@
         <v>9453836180037.5098</v>
       </c>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>2017</v>
       </c>
@@ -14297,7 +14304,7 @@
         <v>15104319551.353426</v>
       </c>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>2017</v>
       </c>
@@ -14364,7 +14371,7 @@
         <v>202428868937.75201</v>
       </c>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>2016</v>
       </c>
@@ -14431,7 +14438,7 @@
         <v>29056725512.718685</v>
       </c>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>2016</v>
       </c>
@@ -14498,7 +14505,7 @@
         <v>29056725512.718685</v>
       </c>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>2016</v>
       </c>
@@ -14561,7 +14568,7 @@
         <v>7897717925.9061785</v>
       </c>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>2016</v>
       </c>
@@ -14626,7 +14633,7 @@
         <v>49277141394.773415</v>
       </c>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>2016</v>
       </c>
@@ -14691,7 +14698,7 @@
         <v>6807560894.163969</v>
       </c>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>2016</v>
       </c>
@@ -14756,7 +14763,7 @@
         <v>7418992675.9294872</v>
       </c>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>2016</v>
       </c>
@@ -14821,7 +14828,7 @@
         <v>17998484843.520172</v>
       </c>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>2016</v>
       </c>
@@ -14888,7 +14895,7 @@
         <v>1435572929.8635466</v>
       </c>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>2016</v>
       </c>
@@ -14950,7 +14957,7 @@
         <v>s.i</v>
       </c>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>2016</v>
       </c>
@@ -15013,7 +15020,7 @@
         <v>189582241651.49014</v>
       </c>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>2016</v>
       </c>
@@ -15076,7 +15083,7 @@
         <v>19885311651.757141</v>
       </c>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>2016</v>
       </c>
@@ -15143,7 +15150,7 @@
         <v>5502907565.1777506</v>
       </c>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>2016</v>
       </c>
@@ -15203,7 +15210,7 @@
         <v>s.i</v>
       </c>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>2016</v>
       </c>
@@ -15266,7 +15273,7 @@
         <v>19885311651.757141</v>
       </c>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>2016</v>
       </c>
@@ -15333,7 +15340,7 @@
         <v>65078732039.465042</v>
       </c>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>2016</v>
       </c>
@@ -15400,7 +15407,7 @@
         <v>65078732039.465042</v>
       </c>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>2016</v>
       </c>
@@ -15469,7 +15476,7 @@
         <v>4219627652236092.5</v>
       </c>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>2016</v>
       </c>
@@ -15532,7 +15539,7 @@
         <v>4224424377.6226192</v>
       </c>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>2016</v>
       </c>
@@ -15597,7 +15604,7 @@
         <v>29056725512.718685</v>
       </c>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>2016</v>
       </c>
@@ -15662,7 +15669,7 @@
         <v>29056725512.718685</v>
       </c>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>2016</v>
       </c>
@@ -15727,7 +15734,7 @@
         <v>29056725512.718685</v>
       </c>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>2016</v>
       </c>
@@ -15792,7 +15799,7 @@
         <v>29056725512.718685</v>
       </c>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>2016</v>
       </c>
@@ -15854,7 +15861,7 @@
         <v>s.i</v>
       </c>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>2016</v>
       </c>
@@ -15919,7 +15926,7 @@
         <v>9518120655196.7754</v>
       </c>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>2016</v>
       </c>
@@ -15988,7 +15995,7 @@
         <v>6287413293.9014721</v>
       </c>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>2015</v>
       </c>
@@ -16053,7 +16060,7 @@
         <v>114794104040.638</v>
       </c>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>2015</v>
       </c>
@@ -16121,7 +16128,7 @@
         <v>s.i</v>
       </c>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>2015</v>
       </c>
@@ -16183,7 +16190,7 @@
         <v>15128559407.626745</v>
       </c>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>2015</v>
       </c>
@@ -16246,7 +16253,7 @@
         <v>3597688244.3408961</v>
       </c>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>2015</v>
       </c>
@@ -16311,7 +16318,7 @@
         <v>63656710580.180405</v>
       </c>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>2015</v>
       </c>
@@ -16378,7 +16385,7 @@
         <v>4026843836.9524899</v>
       </c>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>2015</v>
       </c>
@@ -16447,7 +16454,7 @@
         <v>28548021244.503151</v>
       </c>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>2015</v>
       </c>
@@ -16516,7 +16523,7 @@
         <v>12462030038.72751</v>
       </c>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>2015</v>
       </c>
@@ -16581,7 +16588,7 @@
         <v>3682329645.6085477</v>
       </c>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>2015</v>
       </c>
@@ -16646,7 +16653,7 @@
         <v>89293569994.121567</v>
       </c>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>2015</v>
       </c>
@@ -16713,7 +16720,7 @@
         <v>16085991205.77564</v>
       </c>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>2015</v>
       </c>
@@ -16776,7 +16783,7 @@
         <v>5585121534.3117189</v>
       </c>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>2015</v>
       </c>
@@ -16841,7 +16848,7 @@
         <v>3413061651.8945613</v>
       </c>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>2015</v>
       </c>
@@ -16908,7 +16915,7 @@
         <v>4440747405.5030031</v>
       </c>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>2015</v>
       </c>
@@ -16973,7 +16980,7 @@
         <v>3706620605.8898649</v>
       </c>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>2015</v>
       </c>
@@ -17038,7 +17045,7 @@
         <v>15446896040774.188</v>
       </c>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>2015</v>
       </c>
@@ -17103,7 +17110,7 @@
         <v>5272937711.4370136</v>
       </c>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>2015</v>
       </c>
@@ -17169,7 +17176,7 @@
         <v>31143112.698545422</v>
       </c>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>2015</v>
       </c>
@@ -17232,7 +17239,7 @@
         <v>264381860755743.28</v>
       </c>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>2014</v>
       </c>
@@ -17293,7 +17300,7 @@
         <v>62458148721.964233</v>
       </c>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>2014</v>
       </c>
@@ -17358,7 +17365,7 @@
         <v>18145654317.347717</v>
       </c>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <v>2014</v>
       </c>
@@ -17423,7 +17430,7 @@
         <v>18145654317.347717</v>
       </c>
     </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>2014</v>
       </c>
@@ -17490,7 +17497,7 @@
         <v>18145654317.347717</v>
       </c>
     </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <v>2014</v>
       </c>
@@ -17555,7 +17562,7 @@
         <v>18145654317.347717</v>
       </c>
     </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <v>2014</v>
       </c>
@@ -17618,7 +17625,7 @@
         <v>10232211851785.686</v>
       </c>
     </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <v>2014</v>
       </c>
@@ -17685,7 +17692,7 @@
         <v>18145654317.347717</v>
       </c>
     </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
         <v>2014</v>
       </c>
@@ -17750,7 +17757,7 @@
         <v>18145654317.347717</v>
       </c>
     </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <v>2014</v>
       </c>
@@ -17813,7 +17820,7 @@
         <v>20363273960.469204</v>
       </c>
     </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
         <v>2014</v>
       </c>
@@ -17872,7 +17879,7 @@
         <v>25786967677746.293</v>
       </c>
     </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
         <v>2014</v>
       </c>
@@ -17933,7 +17940,7 @@
         <v>10904917507.625839</v>
       </c>
     </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <v>2014</v>
       </c>
@@ -17994,7 +18001,7 @@
         <v>10904917507.625839</v>
       </c>
     </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
         <v>2014</v>
       </c>
@@ -18055,7 +18062,7 @@
         <v>10904917507.625839</v>
       </c>
     </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
         <v>2014</v>
       </c>
@@ -18118,7 +18125,7 @@
         <v>10904917507.625839</v>
       </c>
     </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
         <v>2014</v>
       </c>
@@ -18181,7 +18188,7 @@
         <v>10904917507.625839</v>
       </c>
     </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
         <v>2014</v>
       </c>
@@ -18242,7 +18249,7 @@
         <v>10904917507.625839</v>
       </c>
     </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
         <v>2014</v>
       </c>
@@ -18313,7 +18320,7 @@
         <v>5889826299.8803101</v>
       </c>
     </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
         <v>2014</v>
       </c>
@@ -18378,7 +18385,7 @@
         <v>32372941098.705681</v>
       </c>
     </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
         <v>2014</v>
       </c>
@@ -18437,7 +18444,7 @@
         <v>43558065603024.781</v>
       </c>
     </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
         <v>2014</v>
       </c>
@@ -18500,7 +18507,7 @@
         <v>203810578800998.13</v>
       </c>
     </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
         <v>2014</v>
       </c>
@@ -18557,7 +18564,7 @@
         <v>2871251843800.6704</v>
       </c>
     </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
         <v>2014</v>
       </c>
@@ -18621,7 +18628,7 @@
         <v>s.i</v>
       </c>
     </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
         <v>2014</v>
       </c>
@@ -18678,7 +18685,7 @@
         <v>259946643852.22906</v>
       </c>
     </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
         <v>2014</v>
       </c>
@@ -18739,7 +18746,7 @@
         <v>3789196809.9491291</v>
       </c>
     </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
         <v>2014</v>
       </c>
@@ -18804,7 +18811,7 @@
         <v>13066261015.717928</v>
       </c>
     </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
         <v>2013</v>
       </c>
@@ -18867,7 +18874,7 @@
         <v>5539000000</v>
       </c>
     </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
         <v>2013</v>
       </c>
@@ -18931,7 +18938,7 @@
         <v>s.i</v>
       </c>
     </row>
-    <row r="153" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
         <v>2013</v>
       </c>
@@ -18994,7 +19001,7 @@
         <v>16951000000</v>
       </c>
     </row>
-    <row r="154" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
         <v>2013</v>
       </c>
@@ -19059,7 +19066,7 @@
         <v>1065000000</v>
       </c>
     </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
         <v>2013</v>
       </c>
@@ -19124,7 +19131,7 @@
         <v>4000000000</v>
       </c>
     </row>
-    <row r="156" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
         <v>2013</v>
       </c>
@@ -19189,7 +19196,7 @@
         <v>87442786000</v>
       </c>
     </row>
-    <row r="157" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
         <v>2013</v>
       </c>
@@ -19252,7 +19259,7 @@
         <v>1964000000</v>
       </c>
     </row>
-    <row r="158" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
         <v>2013</v>
       </c>
@@ -19312,7 +19319,7 @@
         <v>s.i</v>
       </c>
     </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
         <v>2013</v>
       </c>
@@ -19377,7 +19384,7 @@
         <v>273418358000</v>
       </c>
     </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A160" s="3">
         <v>2013</v>
       </c>
@@ -19440,7 +19447,7 @@
         <v>3192335000</v>
       </c>
     </row>
-    <row r="161" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
         <v>2013</v>
       </c>
@@ -19480,7 +19487,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="162" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
         <v>2013</v>
       </c>
@@ -19520,7 +19527,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="163" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
         <v>2013</v>
       </c>
@@ -19560,7 +19567,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="164" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
         <v>2013</v>
       </c>
@@ -19600,7 +19607,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="165" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
         <v>2013</v>
       </c>
@@ -19640,7 +19647,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="166" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
         <v>2013</v>
       </c>
@@ -19680,7 +19687,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="167" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A167" s="3">
         <v>2013</v>
       </c>
@@ -19720,7 +19727,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="168" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A168" s="3">
         <v>2013</v>
       </c>
@@ -19762,7 +19769,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="169" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A169" s="3">
         <v>2013</v>
       </c>
@@ -19804,7 +19811,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="170" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A170" s="3">
         <v>2013</v>
       </c>
@@ -19844,7 +19851,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="171" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
         <v>2013</v>
       </c>
@@ -19884,7 +19891,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="172" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
         <v>2013</v>
       </c>
@@ -19924,7 +19931,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="173" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
         <v>2013</v>
       </c>
@@ -19964,7 +19971,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="174" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
         <v>2013</v>
       </c>
@@ -20004,7 +20011,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="175" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
         <v>2012</v>
       </c>
@@ -20064,7 +20071,7 @@
         <v>s.i</v>
       </c>
     </row>
-    <row r="176" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
         <v>2012</v>
       </c>
@@ -20129,7 +20136,7 @@
         <v>14543909147.932167</v>
       </c>
     </row>
-    <row r="177" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
         <v>2012</v>
       </c>
@@ -20196,7 +20203,7 @@
         <v>6924214213.6067457</v>
       </c>
     </row>
-    <row r="178" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
         <v>2012</v>
       </c>
@@ -20261,7 +20268,7 @@
         <v>5091500142538.7188</v>
       </c>
     </row>
-    <row r="179" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A179" s="3">
         <v>2012</v>
       </c>
@@ -20320,7 +20327,7 @@
         <v>26145792079.920967</v>
       </c>
     </row>
-    <row r="180" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A180" s="3">
         <v>2012</v>
       </c>
@@ -20385,7 +20392,7 @@
         <v>3.653593854429504E+16</v>
       </c>
     </row>
-    <row r="181" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A181" s="3">
         <v>2012</v>
       </c>
@@ -20452,7 +20459,7 @@
         <v>4126994833.9420476</v>
       </c>
     </row>
-    <row r="182" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A182" s="3">
         <v>2012</v>
       </c>
@@ -20510,7 +20517,7 @@
         <v>s.i</v>
       </c>
     </row>
-    <row r="183" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A183" s="3">
         <v>2012</v>
       </c>
@@ -20572,7 +20579,7 @@
         <v>s.i</v>
       </c>
     </row>
-    <row r="184" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A184" s="3">
         <v>2012</v>
       </c>
@@ -20632,7 +20639,7 @@
         <v>s.i</v>
       </c>
     </row>
-    <row r="185" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A185" s="3">
         <v>2012</v>
       </c>
@@ -20694,7 +20701,7 @@
         <v>s.i</v>
       </c>
     </row>
-    <row r="186" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A186" s="3">
         <v>2012</v>
       </c>
@@ -20760,7 +20767,7 @@
         <v>s.i</v>
       </c>
     </row>
-    <row r="187" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A187" s="3">
         <v>2012</v>
       </c>
@@ -20824,7 +20831,7 @@
         <v>s.i</v>
       </c>
     </row>
-    <row r="188" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A188" s="3">
         <v>2012</v>
       </c>
@@ -20886,7 +20893,7 @@
         <v>s.i</v>
       </c>
     </row>
-    <row r="189" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A189" s="3">
         <v>2012</v>
       </c>
@@ -20952,7 +20959,7 @@
         <v>s.i</v>
       </c>
     </row>
-    <row r="190" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A190" s="3">
         <v>2012</v>
       </c>
@@ -21012,7 +21019,7 @@
         <v>s.i</v>
       </c>
     </row>
-    <row r="191" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A191" s="3">
         <v>2012</v>
       </c>
@@ -21076,7 +21083,7 @@
         <v>s.i</v>
       </c>
     </row>
-    <row r="192" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A192" s="3">
         <v>2012</v>
       </c>
@@ -21135,7 +21142,7 @@
         <v>1747810355751905.5</v>
       </c>
     </row>
-    <row r="193" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A193" s="3">
         <v>2012</v>
       </c>
@@ -21196,7 +21203,7 @@
         <v>4708209703.8729677</v>
       </c>
     </row>
-    <row r="194" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A194" s="3">
         <v>2012</v>
       </c>
@@ -21259,7 +21266,7 @@
         <v>15070108637.508173</v>
       </c>
     </row>
-    <row r="195" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A195" s="3">
         <v>2012</v>
       </c>
@@ -21322,7 +21329,7 @@
         <v>15070108637.508173</v>
       </c>
     </row>
-    <row r="196" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A196" s="3">
         <v>2012</v>
       </c>
@@ -21385,7 +21392,7 @@
         <v>15070108637.508173</v>
       </c>
     </row>
-    <row r="197" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A197" s="3">
         <v>2012</v>
       </c>
@@ -21448,7 +21455,7 @@
         <v>15070108637.508173</v>
       </c>
     </row>
-    <row r="198" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A198" s="3">
         <v>2012</v>
       </c>
@@ -21511,7 +21518,7 @@
         <v>15070108637.508173</v>
       </c>
     </row>
-    <row r="199" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A199" s="3">
         <v>2012</v>
       </c>
@@ -21574,7 +21581,7 @@
         <v>15070108637.508173</v>
       </c>
     </row>
-    <row r="200" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A200" s="3">
         <v>2012</v>
       </c>
@@ -21639,7 +21646,7 @@
         <v>7238147276527.2773</v>
       </c>
     </row>
-    <row r="201" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A201" s="3">
         <v>2012</v>
       </c>
@@ -21702,7 +21709,7 @@
         <v>1397080040.1533494</v>
       </c>
     </row>
-    <row r="202" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A202" s="3">
         <v>2012</v>
       </c>
@@ -21763,7 +21770,7 @@
         <v>5120702174677.2813</v>
       </c>
     </row>
-    <row r="203" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A203" s="3">
         <v>2012</v>
       </c>
@@ -21830,7 +21837,7 @@
         <v>7197511622.9214163</v>
       </c>
     </row>
-    <row r="204" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A204" s="3">
         <v>2012</v>
       </c>
@@ -21897,7 +21904,7 @@
         <v>7197511622.9214163</v>
       </c>
     </row>
-    <row r="205" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A205" s="3">
         <v>2011</v>
       </c>
@@ -21937,7 +21944,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="206" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A206" s="3">
         <v>2011</v>
       </c>
@@ -21977,7 +21984,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="207" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A207" s="3">
         <v>2011</v>
       </c>
@@ -22017,7 +22024,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="208" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A208" s="3">
         <v>2011</v>
       </c>
@@ -22057,7 +22064,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="209" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A209" s="3">
         <v>2011</v>
       </c>
@@ -22097,7 +22104,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="210" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A210" s="3">
         <v>2011</v>
       </c>
@@ -22137,7 +22144,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="211" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A211" s="3">
         <v>2011</v>
       </c>
@@ -22177,7 +22184,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="212" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A212" s="3">
         <v>2011</v>
       </c>
@@ -22217,7 +22224,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="213" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A213" s="3">
         <v>2011</v>
       </c>
@@ -22257,7 +22264,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="214" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A214" s="3">
         <v>2011</v>
       </c>
@@ -22297,7 +22304,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="215" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A215" s="3">
         <v>2011</v>
       </c>
@@ -22337,7 +22344,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="216" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A216" s="3">
         <v>2011</v>
       </c>
@@ -22377,7 +22384,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="217" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A217" s="3">
         <v>2011</v>
       </c>
@@ -22417,7 +22424,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="218" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A218" s="3">
         <v>2011</v>
       </c>
@@ -22457,7 +22464,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="219" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A219" s="3">
         <v>2011</v>
       </c>
@@ -22497,7 +22504,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="220" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A220" s="3">
         <v>2011</v>
       </c>
@@ -22537,7 +22544,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="221" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A221" s="3">
         <v>2011</v>
       </c>
@@ -22577,7 +22584,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="222" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A222" s="3">
         <v>2011</v>
       </c>
@@ -22617,7 +22624,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="223" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A223" s="3">
         <v>2011</v>
       </c>
@@ -22657,7 +22664,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="224" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A224" s="3">
         <v>2011</v>
       </c>
@@ -22696,8 +22703,12 @@
         <f>IF( J224="s.i", "s.i", IF(ISBLANK(J224),"Actualizando información",IFERROR(J224 / VLOOKUP(A224,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>Actualizando información</v>
       </c>
-    </row>
-    <row r="225" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="AR224" s="10">
+        <f xml:space="preserve"> 64046000 * 1000</f>
+        <v>64046000000</v>
+      </c>
+    </row>
+    <row r="225" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A225" s="3">
         <v>2011</v>
       </c>
@@ -22736,8 +22747,12 @@
         <f>IF( J225="s.i", "s.i", IF(ISBLANK(J225),"Actualizando información",IFERROR(J225 / VLOOKUP(A225,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>Actualizando información</v>
       </c>
-    </row>
-    <row r="226" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="AR225" s="10">
+        <f xml:space="preserve"> (1050218 + 2230585 + 524704 + 3427304 + 7631196 + 10088461 + 19272077 + 21801521 + 6126315 + 3805890 + 745520 + 668509 + 33214653 + 1398536 + 430755) * 1000</f>
+        <v>112416244000</v>
+      </c>
+    </row>
+    <row r="226" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A226" s="3">
         <v>2011</v>
       </c>
@@ -22778,8 +22793,12 @@
         <f>IF( J226="s.i", "s.i", IF(ISBLANK(J226),"Actualizando información",IFERROR(J226 / VLOOKUP(A226,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>Actualizando información</v>
       </c>
-    </row>
-    <row r="227" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="AR226" s="10">
+        <f xml:space="preserve"> 11378638 * 1000</f>
+        <v>11378638000</v>
+      </c>
+    </row>
+    <row r="227" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A227" s="3">
         <v>2011</v>
       </c>
@@ -22822,8 +22841,12 @@
         <f>IF( J227="s.i", "s.i", IF(ISBLANK(J227),"Actualizando información",IFERROR(J227 / VLOOKUP(A227,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>Actualizando información</v>
       </c>
-    </row>
-    <row r="228" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="AR227" s="10">
+        <f xml:space="preserve"> 31324033 * 1000</f>
+        <v>31324033000</v>
+      </c>
+    </row>
+    <row r="228" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A228" s="3">
         <v>2011</v>
       </c>
@@ -22862,8 +22885,11 @@
         <f>IF( J228="s.i", "s.i", IF(ISBLANK(J228),"Actualizando información",IFERROR(J228 / VLOOKUP(A228,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>Actualizando información</v>
       </c>
-    </row>
-    <row r="229" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="AR228" s="10" t="s">
+        <v>2372</v>
+      </c>
+    </row>
+    <row r="229" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A229" s="3">
         <v>2011</v>
       </c>
@@ -22902,8 +22928,12 @@
         <f>IF( J229="s.i", "s.i", IF(ISBLANK(J229),"Actualizando información",IFERROR(J229 / VLOOKUP(A229,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>Actualizando información</v>
       </c>
-    </row>
-    <row r="230" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="AR229" s="10">
+        <f xml:space="preserve"> 3099000 * 1000</f>
+        <v>3099000000</v>
+      </c>
+    </row>
+    <row r="230" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A230" s="3">
         <v>2011</v>
       </c>
@@ -22942,8 +22972,12 @@
         <f>IF( J230="s.i", "s.i", IF(ISBLANK(J230),"Actualizando información",IFERROR(J230 / VLOOKUP(A230,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>Actualizando información</v>
       </c>
-    </row>
-    <row r="231" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="AR230" s="10">
+        <f xml:space="preserve"> 42787209 * 1000</f>
+        <v>42787209000</v>
+      </c>
+    </row>
+    <row r="231" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A231" s="3">
         <v>2011</v>
       </c>
@@ -22982,8 +23016,12 @@
         <f>IF( J231="s.i", "s.i", IF(ISBLANK(J231),"Actualizando información",IFERROR(J231 / VLOOKUP(A231,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>Actualizando información</v>
       </c>
-    </row>
-    <row r="232" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="AR231" s="10">
+        <f xml:space="preserve"> 6729995 * 1000</f>
+        <v>6729995000</v>
+      </c>
+    </row>
+    <row r="232" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A232" s="3">
         <v>2011</v>
       </c>
@@ -23022,8 +23060,12 @@
         <f>IF( J232="s.i", "s.i", IF(ISBLANK(J232),"Actualizando información",IFERROR(J232 / VLOOKUP(A232,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>Actualizando información</v>
       </c>
-    </row>
-    <row r="233" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="AR232" s="10">
+        <f xml:space="preserve"> 11426096 * 1000</f>
+        <v>11426096000</v>
+      </c>
+    </row>
+    <row r="233" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A233" s="3">
         <v>2010</v>
       </c>
@@ -23080,8 +23122,12 @@
         <f>IF( J233="s.i", "s.i", IF(ISBLANK(J233),"Actualizando información",IFERROR(J233 / VLOOKUP(A233,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>s.i</v>
       </c>
-    </row>
-    <row r="234" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="AR233" s="10">
+        <f xml:space="preserve"> 19410354 * 1000</f>
+        <v>19410354000</v>
+      </c>
+    </row>
+    <row r="234" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A234" s="3">
         <v>2010</v>
       </c>
@@ -23140,8 +23186,11 @@
         <f>IF( J234="s.i", "s.i", IF(ISBLANK(J234),"Actualizando información",IFERROR(J234 / VLOOKUP(A234,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>s.i</v>
       </c>
-    </row>
-    <row r="235" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="AR234" s="10" t="s">
+        <v>2372</v>
+      </c>
+    </row>
+    <row r="235" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A235" s="3">
         <v>2010</v>
       </c>
@@ -23180,8 +23229,12 @@
         <f>IF( J235="s.i", "s.i", IF(ISBLANK(J235),"Actualizando información",IFERROR(J235 / VLOOKUP(A235,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>Actualizando información</v>
       </c>
-    </row>
-    <row r="236" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="AR235" s="10">
+        <f xml:space="preserve"> 1000000 * 1000</f>
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="236" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A236" s="3">
         <v>2010</v>
       </c>
@@ -23220,8 +23273,12 @@
         <f>IF( J236="s.i", "s.i", IF(ISBLANK(J236),"Actualizando información",IFERROR(J236 / VLOOKUP(A236,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>Actualizando información</v>
       </c>
-    </row>
-    <row r="237" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="AR236" s="10">
+        <f xml:space="preserve"> 999572 * 1000</f>
+        <v>999572000</v>
+      </c>
+    </row>
+    <row r="237" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A237" s="3">
         <v>2010</v>
       </c>
@@ -23285,8 +23342,12 @@
         <f>IF( J237="s.i", "s.i", IF(ISBLANK(J237),"Actualizando información",IFERROR(J237 / VLOOKUP(A237,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>150332635540530.41</v>
       </c>
-    </row>
-    <row r="238" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="AR237" s="10">
+        <f t="shared" ref="AR237:AR241" si="3" xml:space="preserve"> 132129142 * 1000</f>
+        <v>132129142000</v>
+      </c>
+    </row>
+    <row r="238" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A238" s="3">
         <v>2010</v>
       </c>
@@ -23315,7 +23376,7 @@
         <v>624</v>
       </c>
       <c r="J238" s="10">
-        <f t="shared" ref="J238:J241" si="3" xml:space="preserve"> 141370509 * 1000000</f>
+        <f t="shared" ref="J238:J241" si="4" xml:space="preserve"> 141370509 * 1000000</f>
         <v>141370509000000</v>
       </c>
       <c r="K238" s="3" t="s">
@@ -23350,8 +23411,12 @@
         <f>IF( J238="s.i", "s.i", IF(ISBLANK(J238),"Actualizando información",IFERROR(J238 / VLOOKUP(A238,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>150332635540530.41</v>
       </c>
-    </row>
-    <row r="239" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="AR238" s="10">
+        <f t="shared" si="3"/>
+        <v>132129142000</v>
+      </c>
+    </row>
+    <row r="239" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A239" s="3">
         <v>2010</v>
       </c>
@@ -23380,7 +23445,7 @@
         <v>624</v>
       </c>
       <c r="J239" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>141370509000000</v>
       </c>
       <c r="K239" s="3" t="s">
@@ -23415,8 +23480,12 @@
         <f>IF( J239="s.i", "s.i", IF(ISBLANK(J239),"Actualizando información",IFERROR(J239 / VLOOKUP(A239,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>150332635540530.41</v>
       </c>
-    </row>
-    <row r="240" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="AR239" s="10">
+        <f t="shared" si="3"/>
+        <v>132129142000</v>
+      </c>
+    </row>
+    <row r="240" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A240" s="3">
         <v>2010</v>
       </c>
@@ -23445,7 +23514,7 @@
         <v>624</v>
       </c>
       <c r="J240" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>141370509000000</v>
       </c>
       <c r="K240" s="3" t="s">
@@ -23480,8 +23549,12 @@
         <f>IF( J240="s.i", "s.i", IF(ISBLANK(J240),"Actualizando información",IFERROR(J240 / VLOOKUP(A240,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>150332635540530.41</v>
       </c>
-    </row>
-    <row r="241" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="AR240" s="10">
+        <f t="shared" si="3"/>
+        <v>132129142000</v>
+      </c>
+    </row>
+    <row r="241" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A241" s="3">
         <v>2010</v>
       </c>
@@ -23510,7 +23583,7 @@
         <v>624</v>
       </c>
       <c r="J241" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>141370509000000</v>
       </c>
       <c r="K241" s="3" t="s">
@@ -23545,8 +23618,12 @@
         <f>IF( J241="s.i", "s.i", IF(ISBLANK(J241),"Actualizando información",IFERROR(J241 / VLOOKUP(A241,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>150332635540530.41</v>
       </c>
-    </row>
-    <row r="242" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="AR241" s="10">
+        <f t="shared" si="3"/>
+        <v>132129142000</v>
+      </c>
+    </row>
+    <row r="242" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A242" s="3">
         <v>2010</v>
       </c>
@@ -23585,8 +23662,12 @@
         <f>IF( J242="s.i", "s.i", IF(ISBLANK(J242),"Actualizando información",IFERROR(J242 / VLOOKUP(A242,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>Actualizando información</v>
       </c>
-    </row>
-    <row r="243" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="AR242" s="10">
+        <f xml:space="preserve"> 4948354 * 1000</f>
+        <v>4948354000</v>
+      </c>
+    </row>
+    <row r="243" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A243" s="3">
         <v>2010</v>
       </c>
@@ -23625,8 +23706,12 @@
         <f>IF( J243="s.i", "s.i", IF(ISBLANK(J243),"Actualizando información",IFERROR(J243 / VLOOKUP(A243,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>Actualizando información</v>
       </c>
-    </row>
-    <row r="244" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="AR243" s="10">
+        <f xml:space="preserve"> 895698 * 1000</f>
+        <v>895698000</v>
+      </c>
+    </row>
+    <row r="244" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A244" s="3">
         <v>2010</v>
       </c>
@@ -23665,8 +23750,12 @@
         <f>IF( J244="s.i", "s.i", IF(ISBLANK(J244),"Actualizando información",IFERROR(J244 / VLOOKUP(A244,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>Actualizando información</v>
       </c>
-    </row>
-    <row r="245" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="AR244" s="10">
+        <f xml:space="preserve"> 112750 * 1000</f>
+        <v>112750000</v>
+      </c>
+    </row>
+    <row r="245" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A245" s="3">
         <v>2010</v>
       </c>
@@ -23705,8 +23794,12 @@
         <f>IF( J245="s.i", "s.i", IF(ISBLANK(J245),"Actualizando información",IFERROR(J245 / VLOOKUP(A245,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>Actualizando información</v>
       </c>
-    </row>
-    <row r="246" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="AR245" s="10">
+        <f xml:space="preserve"> 458619 * 1000</f>
+        <v>458619000</v>
+      </c>
+    </row>
+    <row r="246" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A246" s="3">
         <v>2010</v>
       </c>
@@ -23745,8 +23838,12 @@
         <f>IF( J246="s.i", "s.i", IF(ISBLANK(J246),"Actualizando información",IFERROR(J246 / VLOOKUP(A246,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>Actualizando información</v>
       </c>
-    </row>
-    <row r="247" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="AR246" s="10">
+        <f xml:space="preserve"> 7013709 * 1000</f>
+        <v>7013709000</v>
+      </c>
+    </row>
+    <row r="247" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A247" s="3">
         <v>2010</v>
       </c>
@@ -23785,8 +23882,12 @@
         <f>IF( J247="s.i", "s.i", IF(ISBLANK(J247),"Actualizando información",IFERROR(J247 / VLOOKUP(A247,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>Actualizando información</v>
       </c>
-    </row>
-    <row r="248" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="AR247" s="10">
+        <f xml:space="preserve"> 2212466 * 1000</f>
+        <v>2212466000</v>
+      </c>
+    </row>
+    <row r="248" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A248" s="3">
         <v>2010</v>
       </c>
@@ -23825,8 +23926,12 @@
         <f>IF( J248="s.i", "s.i", IF(ISBLANK(J248),"Actualizando información",IFERROR(J248 / VLOOKUP(A248,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>Actualizando información</v>
       </c>
-    </row>
-    <row r="249" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="AR248" s="10">
+        <f xml:space="preserve"> 1431133 * 1000</f>
+        <v>1431133000</v>
+      </c>
+    </row>
+    <row r="249" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A249" s="3">
         <v>2010</v>
       </c>
@@ -23855,7 +23960,7 @@
         <v>624</v>
       </c>
       <c r="J249" s="10">
-        <f t="shared" ref="J249" si="4" xml:space="preserve"> 141370509 * 1000000</f>
+        <f t="shared" ref="J249" si="5" xml:space="preserve"> 141370509 * 1000000</f>
         <v>141370509000000</v>
       </c>
       <c r="K249" s="3" t="s">
@@ -23890,8 +23995,12 @@
         <f>IF( J249="s.i", "s.i", IF(ISBLANK(J249),"Actualizando información",IFERROR(J249 / VLOOKUP(A249,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>150332635540530.41</v>
       </c>
-    </row>
-    <row r="250" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="AR249" s="10">
+        <f xml:space="preserve"> 132129142 * 1000</f>
+        <v>132129142000</v>
+      </c>
+    </row>
+    <row r="250" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A250" s="3">
         <v>2010</v>
       </c>
@@ -23958,8 +24067,12 @@
         <f>IF( J250="s.i", "s.i", IF(ISBLANK(J250),"Actualizando información",IFERROR(J250 / VLOOKUP(A250,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>s.i</v>
       </c>
-    </row>
-    <row r="251" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="AR250" s="10">
+        <f xml:space="preserve"> 513259 * 1000</f>
+        <v>513259000</v>
+      </c>
+    </row>
+    <row r="251" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A251" s="3">
         <v>2010</v>
       </c>
@@ -24026,8 +24139,12 @@
         <f>IF( J251="s.i", "s.i", IF(ISBLANK(J251),"Actualizando información",IFERROR(J251 / VLOOKUP(A251,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>s.i</v>
       </c>
-    </row>
-    <row r="252" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="AR251" s="10">
+        <f xml:space="preserve"> 264306 * 1000</f>
+        <v>264306000</v>
+      </c>
+    </row>
+    <row r="252" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A252" s="3">
         <v>2010</v>
       </c>
@@ -24094,8 +24211,12 @@
         <f>IF( J252="s.i", "s.i", IF(ISBLANK(J252),"Actualizando información",IFERROR(J252 / VLOOKUP(A252,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>s.i</v>
       </c>
-    </row>
-    <row r="253" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="AR252" s="10">
+        <f xml:space="preserve"> (8981205 + 40600000) * 1000</f>
+        <v>49581205000</v>
+      </c>
+    </row>
+    <row r="253" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A253" s="3">
         <v>2010</v>
       </c>
@@ -24162,8 +24283,11 @@
         <f>IF( J253="s.i", "s.i", IF(ISBLANK(J253),"Actualizando información",IFERROR(J253 / VLOOKUP(A253,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>s.i</v>
       </c>
-    </row>
-    <row r="254" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="AR253" s="10" t="s">
+        <v>2372</v>
+      </c>
+    </row>
+    <row r="254" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A254" s="3">
         <v>2010</v>
       </c>
@@ -24202,8 +24326,12 @@
         <f>IF( J254="s.i", "s.i", IF(ISBLANK(J254),"Actualizando información",IFERROR(J254 / VLOOKUP(A254,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>Actualizando información</v>
       </c>
-    </row>
-    <row r="255" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="AR254" s="10">
+        <f xml:space="preserve"> 27706466 * 1000</f>
+        <v>27706466000</v>
+      </c>
+    </row>
+    <row r="255" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A255" s="3">
         <v>2010</v>
       </c>
@@ -24242,8 +24370,12 @@
         <f>IF( J255="s.i", "s.i", IF(ISBLANK(J255),"Actualizando información",IFERROR(J255 / VLOOKUP(A255,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>Actualizando información</v>
       </c>
-    </row>
-    <row r="256" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="AR255" s="10">
+        <f xml:space="preserve"> 27706466 * 1000</f>
+        <v>27706466000</v>
+      </c>
+    </row>
+    <row r="256" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A256" s="3">
         <v>2010</v>
       </c>
@@ -24282,8 +24414,12 @@
         <f>IF( J256="s.i", "s.i", IF(ISBLANK(J256),"Actualizando información",IFERROR(J256 / VLOOKUP(A256,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>Actualizando información</v>
       </c>
-    </row>
-    <row r="257" spans="1:44" x14ac:dyDescent="0.35">
+      <c r="AR256" s="10">
+        <f xml:space="preserve"> 27706466 * 1000</f>
+        <v>27706466000</v>
+      </c>
+    </row>
+    <row r="257" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A257" s="3">
         <v>2010</v>
       </c>
@@ -24355,7 +24491,7 @@
         <v>18270000000</v>
       </c>
     </row>
-    <row r="258" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A258" s="3">
         <v>2010</v>
       </c>
@@ -24395,10 +24531,10 @@
         <v>Actualizando información</v>
       </c>
       <c r="AR258" s="10" t="s">
-        <v>2373</v>
-      </c>
-    </row>
-    <row r="259" spans="1:44" x14ac:dyDescent="0.35">
+        <v>2372</v>
+      </c>
+    </row>
+    <row r="259" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A259" s="3">
         <v>2010</v>
       </c>
@@ -24438,10 +24574,10 @@
         <v>Actualizando información</v>
       </c>
       <c r="AR259" s="10" t="s">
-        <v>2373</v>
-      </c>
-    </row>
-    <row r="260" spans="1:44" x14ac:dyDescent="0.35">
+        <v>2372</v>
+      </c>
+    </row>
+    <row r="260" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A260" s="3">
         <v>2010</v>
       </c>
@@ -24481,10 +24617,10 @@
         <v>Actualizando información</v>
       </c>
       <c r="AR260" s="10" t="s">
-        <v>2373</v>
-      </c>
-    </row>
-    <row r="261" spans="1:44" x14ac:dyDescent="0.35">
+        <v>2372</v>
+      </c>
+    </row>
+    <row r="261" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A261" s="3">
         <v>2010</v>
       </c>
@@ -24528,7 +24664,7 @@
         <v>3604475000</v>
       </c>
     </row>
-    <row r="262" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A262" s="3">
         <v>2010</v>
       </c>
@@ -24574,7 +24710,7 @@
         <v>9671194000</v>
       </c>
     </row>
-    <row r="263" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A263" s="3">
         <v>2010</v>
       </c>
@@ -24614,10 +24750,10 @@
         <v>Actualizando información</v>
       </c>
       <c r="AR263" s="10" t="s">
-        <v>2373</v>
-      </c>
-    </row>
-    <row r="264" spans="1:44" x14ac:dyDescent="0.35">
+        <v>2372</v>
+      </c>
+    </row>
+    <row r="264" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A264" s="3">
         <v>2010</v>
       </c>
@@ -24692,7 +24828,7 @@
         <v>2544413000</v>
       </c>
     </row>
-    <row r="265" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A265" s="3">
         <v>2010</v>
       </c>
@@ -24721,7 +24857,7 @@
         <v>624</v>
       </c>
       <c r="J265" s="10">
-        <f t="shared" ref="J265" si="5" xml:space="preserve"> 141370509 * 1000000</f>
+        <f t="shared" ref="J265" si="6" xml:space="preserve"> 141370509 * 1000000</f>
         <v>141370509000000</v>
       </c>
       <c r="K265" s="3" t="s">
@@ -24761,7 +24897,7 @@
         <v>132129142000</v>
       </c>
     </row>
-    <row r="266" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A266" s="3">
         <v>2010</v>
       </c>
@@ -24805,7 +24941,7 @@
         <v>11728561000</v>
       </c>
     </row>
-    <row r="267" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A267" s="3">
         <v>2010</v>
       </c>
@@ -24849,7 +24985,7 @@
         <v>8881250000</v>
       </c>
     </row>
-    <row r="268" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A268" s="3">
         <v>2010</v>
       </c>
@@ -24895,7 +25031,7 @@
         <v>4685491000</v>
       </c>
     </row>
-    <row r="269" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A269" s="3">
         <v>2010</v>
       </c>
@@ -24941,7 +25077,7 @@
         <v>4685491000</v>
       </c>
     </row>
-    <row r="270" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A270" s="3">
         <v>2010</v>
       </c>
@@ -24985,7 +25121,7 @@
         <v>20523397000</v>
       </c>
     </row>
-    <row r="271" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A271" s="3">
         <v>2010</v>
       </c>
@@ -25029,7 +25165,7 @@
         <v>5623940000</v>
       </c>
     </row>
-    <row r="272" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A272" s="3">
         <v>2009</v>
       </c>
@@ -25073,7 +25209,7 @@
         <v>7557784000</v>
       </c>
     </row>
-    <row r="273" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A273" s="3">
         <v>2009</v>
       </c>
@@ -25117,7 +25253,7 @@
         <v>4283426000</v>
       </c>
     </row>
-    <row r="274" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A274" s="3">
         <v>2009</v>
       </c>
@@ -25161,7 +25297,7 @@
         <v>15272054000</v>
       </c>
     </row>
-    <row r="275" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A275" s="3">
         <v>2009</v>
       </c>
@@ -25204,8 +25340,12 @@
         <f xml:space="preserve"> 1064320 * 1000</f>
         <v>1064320000</v>
       </c>
-    </row>
-    <row r="276" spans="1:44" x14ac:dyDescent="0.35">
+      <c r="AS275" s="10">
+        <f xml:space="preserve"> 4933 * 1000</f>
+        <v>4933000</v>
+      </c>
+    </row>
+    <row r="276" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A276" s="3">
         <v>2009</v>
       </c>
@@ -25249,7 +25389,7 @@
         <v>18823388000</v>
       </c>
     </row>
-    <row r="277" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A277" s="3">
         <v>2009</v>
       </c>
@@ -25289,11 +25429,11 @@
         <v>Actualizando información</v>
       </c>
       <c r="AR277" s="10">
-        <f t="shared" ref="AR277:AR279" si="6" xml:space="preserve"> 17991107 * 1000</f>
+        <f t="shared" ref="AR277:AR279" si="7" xml:space="preserve"> 17991107 * 1000</f>
         <v>17991107000</v>
       </c>
     </row>
-    <row r="278" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A278" s="3">
         <v>2009</v>
       </c>
@@ -25333,11 +25473,11 @@
         <v>Actualizando información</v>
       </c>
       <c r="AR278" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>17991107000</v>
       </c>
     </row>
-    <row r="279" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A279" s="3">
         <v>2009</v>
       </c>
@@ -25377,11 +25517,11 @@
         <v>Actualizando información</v>
       </c>
       <c r="AR279" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>17991107000</v>
       </c>
     </row>
-    <row r="280" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A280" s="3">
         <v>2009</v>
       </c>
@@ -25421,10 +25561,10 @@
         <v>Actualizando información</v>
       </c>
       <c r="AR280" s="10" t="s">
-        <v>2373</v>
-      </c>
-    </row>
-    <row r="281" spans="1:44" x14ac:dyDescent="0.35">
+        <v>2372</v>
+      </c>
+    </row>
+    <row r="281" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A281" s="3">
         <v>2009</v>
       </c>
@@ -25495,7 +25635,7 @@
         <v>6112095000</v>
       </c>
     </row>
-    <row r="282" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A282" s="3">
         <v>2009</v>
       </c>
@@ -25539,7 +25679,7 @@
         <v>2906387000</v>
       </c>
     </row>
-    <row r="283" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A283" s="3">
         <v>2009</v>
       </c>
@@ -25583,7 +25723,7 @@
         <v>111196196000</v>
       </c>
     </row>
-    <row r="284" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A284" s="3">
         <v>2009</v>
       </c>
@@ -25627,7 +25767,7 @@
         <v>632007000</v>
       </c>
     </row>
-    <row r="285" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A285" s="3">
         <v>2009</v>
       </c>
@@ -25667,10 +25807,10 @@
         <v>Actualizando información</v>
       </c>
       <c r="AR285" s="10" t="s">
-        <v>2373</v>
-      </c>
-    </row>
-    <row r="286" spans="1:44" x14ac:dyDescent="0.35">
+        <v>2372</v>
+      </c>
+    </row>
+    <row r="286" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A286" s="3">
         <v>2009</v>
       </c>
@@ -25714,7 +25854,7 @@
         <v>9337673000</v>
       </c>
     </row>
-    <row r="287" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A287" s="3">
         <v>2009</v>
       </c>
@@ -25758,7 +25898,7 @@
         <v>10547807000</v>
       </c>
     </row>
-    <row r="288" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A288" s="3">
         <v>2009</v>
       </c>
@@ -25798,10 +25938,10 @@
         <v>Actualizando información</v>
       </c>
       <c r="AR288" s="10" t="s">
-        <v>2373</v>
-      </c>
-    </row>
-    <row r="289" spans="1:44" x14ac:dyDescent="0.35">
+        <v>2372</v>
+      </c>
+    </row>
+    <row r="289" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A289" s="3">
         <v>2009</v>
       </c>
@@ -25841,10 +25981,10 @@
         <v>Actualizando información</v>
       </c>
       <c r="AR289" s="10" t="s">
-        <v>2373</v>
-      </c>
-    </row>
-    <row r="290" spans="1:44" x14ac:dyDescent="0.35">
+        <v>2372</v>
+      </c>
+    </row>
+    <row r="290" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A290" s="3">
         <v>2009</v>
       </c>
@@ -25888,7 +26028,7 @@
         <v>3070179000</v>
       </c>
     </row>
-    <row r="291" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A291" s="3">
         <v>2009</v>
       </c>
@@ -25932,7 +26072,7 @@
         <v>9957711000</v>
       </c>
     </row>
-    <row r="292" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A292" s="3">
         <v>2009</v>
       </c>
@@ -25976,7 +26116,7 @@
         <v>318600000</v>
       </c>
     </row>
-    <row r="293" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A293" s="3">
         <v>2009</v>
       </c>
@@ -26020,7 +26160,7 @@
         <v>33984000</v>
       </c>
     </row>
-    <row r="294" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A294" s="3">
         <v>2009</v>
       </c>
@@ -26060,11 +26200,11 @@
         <v>Actualizando información</v>
       </c>
       <c r="AR294" s="10">
-        <f t="shared" ref="AR294:AR295" si="7" xml:space="preserve"> 17991107 * 1000</f>
+        <f t="shared" ref="AR294:AR295" si="8" xml:space="preserve"> 17991107 * 1000</f>
         <v>17991107000</v>
       </c>
     </row>
-    <row r="295" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A295" s="3">
         <v>2009</v>
       </c>
@@ -26106,11 +26246,11 @@
         <v>Actualizando información</v>
       </c>
       <c r="AR295" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>17991107000</v>
       </c>
     </row>
-    <row r="296" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A296" s="3">
         <v>2009</v>
       </c>
@@ -26154,7 +26294,7 @@
         <v>17991107000</v>
       </c>
     </row>
-    <row r="297" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A297" s="3">
         <v>2009</v>
       </c>
@@ -26194,10 +26334,10 @@
         <v>Actualizando información</v>
       </c>
       <c r="AR297" s="10" t="s">
-        <v>2373</v>
-      </c>
-    </row>
-    <row r="298" spans="1:44" x14ac:dyDescent="0.35">
+        <v>2372</v>
+      </c>
+    </row>
+    <row r="298" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A298" s="3">
         <v>2009</v>
       </c>
@@ -26237,10 +26377,10 @@
         <v>Actualizando información</v>
       </c>
       <c r="AR298" s="10" t="s">
-        <v>2373</v>
-      </c>
-    </row>
-    <row r="299" spans="1:44" x14ac:dyDescent="0.35">
+        <v>2372</v>
+      </c>
+    </row>
+    <row r="299" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A299" s="3">
         <v>2009</v>
       </c>
@@ -26286,7 +26426,7 @@
         <v>15930000000</v>
       </c>
     </row>
-    <row r="300" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A300" s="3">
         <v>2009</v>
       </c>
@@ -26330,10 +26470,10 @@
         <v>Actualizando información</v>
       </c>
       <c r="AR300" s="10" t="s">
-        <v>2373</v>
-      </c>
-    </row>
-    <row r="301" spans="1:44" x14ac:dyDescent="0.35">
+        <v>2372</v>
+      </c>
+    </row>
+    <row r="301" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A301" s="3">
         <v>2009</v>
       </c>
@@ -26377,7 +26517,7 @@
         <v>1188054000</v>
       </c>
     </row>
-    <row r="302" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A302" s="3">
         <v>2009</v>
       </c>
@@ -26446,7 +26586,7 @@
         <v>182590000</v>
       </c>
     </row>
-    <row r="303" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A303" s="3">
         <v>2009</v>
       </c>
@@ -26490,7 +26630,7 @@
         <v>1535413000</v>
       </c>
     </row>
-    <row r="304" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A304" s="3">
         <v>2009</v>
       </c>
@@ -26563,7 +26703,7 @@
         <v>2975575000</v>
       </c>
     </row>
-    <row r="305" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A305" s="3">
         <v>2009</v>
       </c>
@@ -26636,7 +26776,7 @@
         <v>2975575000</v>
       </c>
     </row>
-    <row r="306" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A306" s="3">
         <v>2009</v>
       </c>
@@ -26680,7 +26820,7 @@
         <v>318600000</v>
       </c>
     </row>
-    <row r="307" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A307" s="3">
         <v>2009</v>
       </c>
@@ -26720,11 +26860,11 @@
         <v>Actualizando información</v>
       </c>
       <c r="AR307" s="10">
-        <f t="shared" ref="AR307" si="8" xml:space="preserve"> 318600 * 1000</f>
+        <f t="shared" ref="AR307" si="9" xml:space="preserve"> 318600 * 1000</f>
         <v>318600000</v>
       </c>
     </row>
-    <row r="308" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A308" s="3">
         <v>2009</v>
       </c>
@@ -26768,7 +26908,7 @@
         <v>318600000</v>
       </c>
     </row>
-    <row r="309" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A309" s="3">
         <v>2009</v>
       </c>
@@ -26812,7 +26952,7 @@
         <v>4120372000</v>
       </c>
     </row>
-    <row r="310" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A310" s="3">
         <v>2008</v>
       </c>
@@ -26854,7 +26994,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="311" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A311" s="3">
         <v>2008</v>
       </c>
@@ -26894,7 +27034,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="312" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A312" s="3">
         <v>2008</v>
       </c>
@@ -26934,7 +27074,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="313" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A313" s="3">
         <v>2008</v>
       </c>
@@ -26974,7 +27114,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="314" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A314" s="3">
         <v>2008</v>
       </c>
@@ -27014,7 +27154,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="315" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A315" s="3">
         <v>2008</v>
       </c>
@@ -27054,7 +27194,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="316" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A316" s="3">
         <v>2008</v>
       </c>
@@ -27094,7 +27234,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="317" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A317" s="3">
         <v>2008</v>
       </c>
@@ -27134,7 +27274,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="318" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A318" s="3">
         <v>2008</v>
       </c>
@@ -27174,7 +27314,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="319" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A319" s="3">
         <v>2008</v>
       </c>
@@ -27216,7 +27356,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="320" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A320" s="3">
         <v>2008</v>
       </c>
@@ -27258,7 +27398,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="321" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A321" s="3">
         <v>2008</v>
       </c>
@@ -27298,7 +27438,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="322" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A322" s="3">
         <v>2008</v>
       </c>
@@ -27340,7 +27480,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="323" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A323" s="3">
         <v>2008</v>
       </c>
@@ -27382,7 +27522,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="324" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A324" s="3">
         <v>2008</v>
       </c>
@@ -27424,7 +27564,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="325" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A325" s="3">
         <v>2008</v>
       </c>
@@ -27464,7 +27604,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="326" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A326" s="3">
         <v>2008</v>
       </c>
@@ -27506,7 +27646,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="327" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A327" s="3">
         <v>2008</v>
       </c>
@@ -27548,7 +27688,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="328" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A328" s="3">
         <v>2008</v>
       </c>
@@ -27590,7 +27730,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="329" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A329" s="3">
         <v>2008</v>
       </c>
@@ -27632,7 +27772,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="330" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A330" s="3">
         <v>2008</v>
       </c>
@@ -27674,7 +27814,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="331" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A331" s="3">
         <v>2008</v>
       </c>
@@ -27716,7 +27856,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="332" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A332" s="3">
         <v>2008</v>
       </c>
@@ -27756,7 +27896,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="333" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A333" s="3">
         <v>2008</v>
       </c>
@@ -27798,7 +27938,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="334" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A334" s="3">
         <v>2008</v>
       </c>
@@ -27838,7 +27978,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="335" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A335" s="3">
         <v>2008</v>
       </c>
@@ -27878,7 +28018,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="336" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A336" s="3">
         <v>2008</v>
       </c>
@@ -27918,7 +28058,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="337" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A337" s="3">
         <v>2008</v>
       </c>
@@ -27958,7 +28098,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="338" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A338" s="3">
         <v>2008</v>
       </c>
@@ -27998,7 +28138,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="339" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A339" s="3">
         <v>2008</v>
       </c>
@@ -28038,7 +28178,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="340" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A340" s="3">
         <v>2008</v>
       </c>
@@ -28078,7 +28218,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="341" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A341" s="3">
         <v>2008</v>
       </c>
@@ -28118,7 +28258,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="342" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A342" s="3">
         <v>2008</v>
       </c>
@@ -28158,7 +28298,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="343" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A343" s="3">
         <v>2008</v>
       </c>
@@ -28198,7 +28338,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="344" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A344" s="3">
         <v>2008</v>
       </c>
@@ -28238,7 +28378,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="345" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A345" s="3">
         <v>2007</v>
       </c>
@@ -28278,7 +28418,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="346" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A346" s="3">
         <v>2007</v>
       </c>
@@ -28320,7 +28460,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="347" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A347" s="3">
         <v>2007</v>
       </c>
@@ -28360,7 +28500,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="348" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A348" s="3">
         <v>2007</v>
       </c>
@@ -28400,7 +28540,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="349" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A349" s="3">
         <v>2007</v>
       </c>
@@ -28440,7 +28580,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="350" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A350" s="3">
         <v>2007</v>
       </c>
@@ -28480,7 +28620,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="351" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A351" s="3">
         <v>2007</v>
       </c>
@@ -28522,7 +28662,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="352" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A352" s="3">
         <v>2007</v>
       </c>
@@ -28562,7 +28702,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="353" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A353" s="3">
         <v>2007</v>
       </c>
@@ -28602,7 +28742,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="354" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A354" s="3">
         <v>2007</v>
       </c>
@@ -28642,7 +28782,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="355" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A355" s="3">
         <v>2007</v>
       </c>
@@ -28682,7 +28822,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="356" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A356" s="3">
         <v>2007</v>
       </c>
@@ -28724,7 +28864,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="357" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A357" s="3">
         <v>2007</v>
       </c>
@@ -28766,7 +28906,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="358" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A358" s="3">
         <v>2007</v>
       </c>
@@ -28808,7 +28948,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="359" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A359" s="3">
         <v>2007</v>
       </c>
@@ -28850,7 +28990,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="360" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A360" s="3">
         <v>2007</v>
       </c>
@@ -28890,7 +29030,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="361" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A361" s="3">
         <v>2007</v>
       </c>
@@ -28932,7 +29072,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="362" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A362" s="3">
         <v>2007</v>
       </c>
@@ -28974,7 +29114,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="363" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A363" s="3">
         <v>2007</v>
       </c>
@@ -29014,7 +29154,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="364" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A364" s="3">
         <v>2007</v>
       </c>
@@ -29054,7 +29194,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="365" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A365" s="3">
         <v>2007</v>
       </c>
@@ -29094,7 +29234,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="366" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A366" s="3">
         <v>2007</v>
       </c>
@@ -29134,7 +29274,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="367" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A367" s="3">
         <v>2007</v>
       </c>
@@ -29174,7 +29314,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="368" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A368" s="3">
         <v>2007</v>
       </c>
@@ -29214,7 +29354,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="369" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A369" s="3">
         <v>2007</v>
       </c>
@@ -29254,7 +29394,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="370" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A370" s="3">
         <v>2007</v>
       </c>
@@ -29294,7 +29434,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="371" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A371" s="3">
         <v>2007</v>
       </c>
@@ -29334,7 +29474,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="372" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A372" s="3">
         <v>2007</v>
       </c>
@@ -29374,7 +29514,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="373" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A373" s="3">
         <v>2007</v>
       </c>
@@ -29416,7 +29556,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="374" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A374" s="3">
         <v>2007</v>
       </c>
@@ -29458,7 +29598,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="375" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A375" s="3">
         <v>2007</v>
       </c>
@@ -29498,7 +29638,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="376" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A376" s="3">
         <v>2007</v>
       </c>
@@ -29538,7 +29678,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="377" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A377" s="3">
         <v>2006</v>
       </c>
@@ -29578,7 +29718,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="378" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A378" s="3">
         <v>2006</v>
       </c>
@@ -29620,7 +29760,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="379" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A379" s="3">
         <v>2006</v>
       </c>
@@ -29660,7 +29800,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="380" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A380" s="3">
         <v>2006</v>
       </c>
@@ -29700,7 +29840,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="381" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A381" s="3">
         <v>2006</v>
       </c>
@@ -29740,7 +29880,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="382" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A382" s="3">
         <v>2006</v>
       </c>
@@ -29780,7 +29920,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="383" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A383" s="3">
         <v>2006</v>
       </c>
@@ -29820,7 +29960,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="384" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A384" s="3">
         <v>2006</v>
       </c>
@@ -29860,7 +30000,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="385" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A385" s="3">
         <v>2006</v>
       </c>
@@ -29902,7 +30042,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="386" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A386" s="3">
         <v>2006</v>
       </c>
@@ -29942,7 +30082,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="387" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A387" s="3">
         <v>2006</v>
       </c>
@@ -29982,7 +30122,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="388" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A388" s="3">
         <v>2006</v>
       </c>
@@ -30026,7 +30166,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="389" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A389" s="3">
         <v>2006</v>
       </c>
@@ -30066,7 +30206,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="390" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A390" s="3">
         <v>2006</v>
       </c>
@@ -30106,7 +30246,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="391" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A391" s="3">
         <v>2006</v>
       </c>
@@ -30146,7 +30286,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="392" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A392" s="3">
         <v>2006</v>
       </c>
@@ -30186,7 +30326,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="393" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A393" s="3">
         <v>2006</v>
       </c>
@@ -30226,7 +30366,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="394" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A394" s="3">
         <v>2006</v>
       </c>
@@ -30266,7 +30406,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="395" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A395" s="3">
         <v>2006</v>
       </c>
@@ -30306,7 +30446,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="396" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A396" s="3">
         <v>2006</v>
       </c>
@@ -30346,7 +30486,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="397" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A397" s="3">
         <v>2006</v>
       </c>
@@ -30386,7 +30526,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="398" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A398" s="3">
         <v>2005</v>
       </c>
@@ -30428,7 +30568,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="399" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A399" s="3">
         <v>2005</v>
       </c>
@@ -30468,7 +30608,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="400" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A400" s="3">
         <v>2005</v>
       </c>
@@ -30508,7 +30648,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="401" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A401" s="3">
         <v>2005</v>
       </c>
@@ -30548,7 +30688,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="402" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A402" s="3">
         <v>2005</v>
       </c>
@@ -30588,7 +30728,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="403" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A403" s="3">
         <v>2005</v>
       </c>
@@ -30628,7 +30768,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="404" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A404" s="3">
         <v>2005</v>
       </c>
@@ -30670,7 +30810,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="405" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A405" s="3">
         <v>2005</v>
       </c>
@@ -30710,7 +30850,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="406" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A406" s="3">
         <v>2005</v>
       </c>
@@ -30750,7 +30890,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="407" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A407" s="3">
         <v>2005</v>
       </c>
@@ -30790,7 +30930,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="408" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A408" s="3">
         <v>2005</v>
       </c>
@@ -30830,7 +30970,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="409" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A409" s="3">
         <v>2005</v>
       </c>
@@ -30870,7 +31010,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="410" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A410" s="3">
         <v>2005</v>
       </c>
@@ -30910,7 +31050,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="411" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A411" s="3">
         <v>2005</v>
       </c>
@@ -30950,7 +31090,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="412" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A412" s="3">
         <v>2005</v>
       </c>
@@ -30990,7 +31130,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="413" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A413" s="3">
         <v>2005</v>
       </c>
@@ -31030,7 +31170,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="414" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A414" s="3">
         <v>2005</v>
       </c>
@@ -31072,7 +31212,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="415" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A415" s="3">
         <v>2005</v>
       </c>
@@ -31112,7 +31252,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="416" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A416" s="3">
         <v>2005</v>
       </c>
@@ -31152,7 +31292,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="417" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A417" s="3">
         <v>2005</v>
       </c>
@@ -31192,7 +31332,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="418" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A418" s="3">
         <v>2005</v>
       </c>
@@ -31232,7 +31372,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="419" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A419" s="3">
         <v>2005</v>
       </c>
@@ -31272,7 +31412,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="420" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A420" s="3">
         <v>2005</v>
       </c>
@@ -31312,7 +31452,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="421" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A421" s="3">
         <v>2004</v>
       </c>
@@ -31352,7 +31492,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="422" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A422" s="3">
         <v>2004</v>
       </c>
@@ -31392,7 +31532,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="423" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A423" s="3">
         <v>2004</v>
       </c>
@@ -31432,7 +31572,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="424" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A424" s="3">
         <v>2004</v>
       </c>
@@ -31472,7 +31612,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="425" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A425" s="3">
         <v>2004</v>
       </c>
@@ -31512,7 +31652,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="426" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A426" s="3">
         <v>2004</v>
       </c>
@@ -31552,7 +31692,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="427" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A427" s="3">
         <v>2004</v>
       </c>
@@ -31592,7 +31732,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="428" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A428" s="3">
         <v>2004</v>
       </c>
@@ -31632,7 +31772,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="429" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A429" s="3">
         <v>2004</v>
       </c>
@@ -31672,7 +31812,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="430" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A430" s="3">
         <v>2004</v>
       </c>
@@ -31712,7 +31852,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="431" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A431" s="3">
         <v>2004</v>
       </c>
@@ -31752,7 +31892,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="432" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A432" s="3">
         <v>2004</v>
       </c>
@@ -31792,7 +31932,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="433" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A433" s="3">
         <v>2004</v>
       </c>
@@ -31832,7 +31972,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="434" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A434" s="3">
         <v>2004</v>
       </c>
@@ -31872,7 +32012,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="435" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A435" s="3">
         <v>2004</v>
       </c>
@@ -31912,7 +32052,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="436" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A436" s="3">
         <v>2004</v>
       </c>
@@ -31952,7 +32092,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="437" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A437" s="3">
         <v>2004</v>
       </c>
@@ -31992,7 +32132,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="438" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A438" s="3">
         <v>2004</v>
       </c>
@@ -32032,7 +32172,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="439" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A439" s="3">
         <v>2004</v>
       </c>
@@ -32072,7 +32212,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="440" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A440" s="3">
         <v>2004</v>
       </c>
@@ -32112,7 +32252,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="441" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A441" s="3">
         <v>2004</v>
       </c>
@@ -32152,7 +32292,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="442" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A442" s="3">
         <v>2004</v>
       </c>
@@ -32192,7 +32332,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="443" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A443" s="3">
         <v>2004</v>
       </c>
@@ -32232,7 +32372,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="444" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A444" s="3">
         <v>2004</v>
       </c>
@@ -32272,7 +32412,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="445" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A445" s="3">
         <v>2004</v>
       </c>
@@ -32312,7 +32452,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="446" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A446" s="3">
         <v>2004</v>
       </c>
@@ -32352,7 +32492,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="447" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A447" s="3">
         <v>2004</v>
       </c>
@@ -32392,7 +32532,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="448" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A448" s="3">
         <v>2004</v>
       </c>
@@ -32432,7 +32572,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="449" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A449" s="3">
         <v>2004</v>
       </c>
@@ -32472,7 +32612,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="450" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A450" s="3">
         <v>2004</v>
       </c>
@@ -32512,7 +32652,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="451" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A451" s="3">
         <v>2004</v>
       </c>
@@ -32552,7 +32692,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="452" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A452" s="3">
         <v>2003</v>
       </c>
@@ -32592,7 +32732,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="453" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A453" s="3">
         <v>2003</v>
       </c>
@@ -32632,7 +32772,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="454" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A454" s="3">
         <v>2003</v>
       </c>
@@ -32672,7 +32812,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="455" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A455" s="3">
         <v>2003</v>
       </c>
@@ -32712,7 +32852,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="456" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A456" s="3">
         <v>2003</v>
       </c>
@@ -32752,7 +32892,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="457" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A457" s="3">
         <v>2003</v>
       </c>
@@ -32792,7 +32932,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="458" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A458" s="3">
         <v>2003</v>
       </c>
@@ -32832,7 +32972,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="459" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A459" s="3">
         <v>2003</v>
       </c>
@@ -32872,7 +33012,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="460" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A460" s="3">
         <v>2003</v>
       </c>
@@ -32912,7 +33052,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="461" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A461" s="3">
         <v>2003</v>
       </c>
@@ -32952,7 +33092,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="462" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A462" s="3">
         <v>2003</v>
       </c>
@@ -32992,7 +33132,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="463" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A463" s="3">
         <v>2003</v>
       </c>
@@ -33032,7 +33172,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="464" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A464" s="3">
         <v>2003</v>
       </c>
@@ -33072,7 +33212,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="465" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A465" s="3">
         <v>2003</v>
       </c>
@@ -33114,7 +33254,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="466" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A466" s="3">
         <v>2003</v>
       </c>
@@ -33154,7 +33294,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="467" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A467" s="3">
         <v>2003</v>
       </c>
@@ -33194,7 +33334,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="468" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A468" s="3">
         <v>2003</v>
       </c>
@@ -33234,7 +33374,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="469" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A469" s="3">
         <v>2003</v>
       </c>
@@ -33274,7 +33414,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="470" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A470" s="3">
         <v>2003</v>
       </c>
@@ -33314,7 +33454,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="471" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A471" s="3">
         <v>2002</v>
       </c>
@@ -33354,7 +33494,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="472" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A472" s="3">
         <v>2002</v>
       </c>
@@ -33394,7 +33534,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="473" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A473" s="3">
         <v>2002</v>
       </c>
@@ -33434,7 +33574,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="474" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A474" s="3">
         <v>2002</v>
       </c>
@@ -33474,7 +33614,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="475" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A475" s="3">
         <v>2002</v>
       </c>
@@ -33514,7 +33654,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="476" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A476" s="3">
         <v>2002</v>
       </c>
@@ -33554,7 +33694,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="477" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A477" s="3">
         <v>2002</v>
       </c>
@@ -33594,7 +33734,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="478" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A478" s="3">
         <v>2002</v>
       </c>
@@ -33634,7 +33774,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="479" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A479" s="3">
         <v>2002</v>
       </c>
@@ -33674,7 +33814,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="480" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A480" s="3">
         <v>2002</v>
       </c>
@@ -33714,7 +33854,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="481" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A481" s="3">
         <v>2002</v>
       </c>
@@ -33754,7 +33894,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="482" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A482" s="3">
         <v>2002</v>
       </c>
@@ -33794,7 +33934,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="483" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A483" s="3">
         <v>2002</v>
       </c>
@@ -33834,7 +33974,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="484" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A484" s="3">
         <v>2002</v>
       </c>
@@ -33874,7 +34014,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="485" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A485" s="3">
         <v>2002</v>
       </c>
@@ -33914,7 +34054,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="486" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A486" s="3">
         <v>2002</v>
       </c>
@@ -33954,7 +34094,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="487" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A487" s="3">
         <v>2002</v>
       </c>
@@ -33996,7 +34136,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="488" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A488" s="3">
         <v>2002</v>
       </c>
@@ -34040,7 +34180,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="489" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A489" s="3">
         <v>2002</v>
       </c>
@@ -34082,7 +34222,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="490" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A490" s="3">
         <v>2002</v>
       </c>
@@ -34122,7 +34262,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="491" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A491" s="3">
         <v>2002</v>
       </c>
@@ -34162,7 +34302,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="492" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A492" s="3">
         <v>2002</v>
       </c>
@@ -34202,7 +34342,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="493" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A493" s="3">
         <v>2002</v>
       </c>
@@ -34242,7 +34382,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="494" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A494" s="3">
         <v>2002</v>
       </c>
@@ -34286,7 +34426,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="495" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A495" s="3">
         <v>2002</v>
       </c>
@@ -34326,7 +34466,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="496" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A496" s="3">
         <v>2001</v>
       </c>
@@ -34366,7 +34506,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="497" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A497" s="3">
         <v>2001</v>
       </c>
@@ -34406,7 +34546,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="498" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A498" s="3">
         <v>2001</v>
       </c>
@@ -34446,7 +34586,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="499" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A499" s="3">
         <v>2001</v>
       </c>
@@ -34486,7 +34626,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="500" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A500" s="3">
         <v>2001</v>
       </c>
@@ -34526,7 +34666,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="501" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A501" s="3">
         <v>2001</v>
       </c>
@@ -34566,7 +34706,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="502" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A502" s="3">
         <v>2001</v>
       </c>
@@ -34606,7 +34746,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="503" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A503" s="3">
         <v>2001</v>
       </c>
@@ -34646,7 +34786,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="504" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A504" s="3">
         <v>2001</v>
       </c>
@@ -34686,7 +34826,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="505" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A505" s="3">
         <v>2001</v>
       </c>
@@ -34726,7 +34866,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="506" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A506" s="3">
         <v>2001</v>
       </c>
@@ -34766,7 +34906,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="507" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A507" s="3">
         <v>2001</v>
       </c>
@@ -34806,7 +34946,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="508" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A508" s="3">
         <v>2001</v>
       </c>
@@ -34846,7 +34986,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="509" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A509" s="3">
         <v>2001</v>
       </c>
@@ -34886,7 +35026,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="510" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A510" s="3">
         <v>2001</v>
       </c>
@@ -34926,7 +35066,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="511" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A511" s="3">
         <v>2001</v>
       </c>
@@ -34966,7 +35106,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="512" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A512" s="3">
         <v>2001</v>
       </c>
@@ -35006,7 +35146,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="513" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A513" s="3">
         <v>2001</v>
       </c>
@@ -35046,7 +35186,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="514" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A514" s="3">
         <v>2001</v>
       </c>
@@ -35088,7 +35228,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="515" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A515" s="3">
         <v>2001</v>
       </c>
@@ -35128,7 +35268,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="516" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A516" s="3">
         <v>2001</v>
       </c>
@@ -35168,7 +35308,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="517" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A517" s="3">
         <v>2000</v>
       </c>
@@ -35208,7 +35348,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="518" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A518" s="3">
         <v>2000</v>
       </c>
@@ -35248,7 +35388,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="519" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A519" s="3">
         <v>2000</v>
       </c>
@@ -35288,7 +35428,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="520" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A520" s="3">
         <v>2000</v>
       </c>
@@ -35328,7 +35468,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="521" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A521" s="3">
         <v>2000</v>
       </c>
@@ -35368,7 +35508,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="522" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A522" s="3">
         <v>2000</v>
       </c>
@@ -35408,7 +35548,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="523" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A523" s="3">
         <v>2000</v>
       </c>
@@ -35448,7 +35588,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="524" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A524" s="3">
         <v>2000</v>
       </c>
@@ -35488,7 +35628,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="525" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A525" s="3">
         <v>2000</v>
       </c>
@@ -35528,7 +35668,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="526" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A526" s="3">
         <v>2000</v>
       </c>
@@ -35568,7 +35708,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="527" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A527" s="3">
         <v>2000</v>
       </c>
@@ -35608,7 +35748,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="528" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A528" s="3">
         <v>2000</v>
       </c>
@@ -35648,7 +35788,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="529" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A529" s="3">
         <v>2000</v>
       </c>
@@ -35688,7 +35828,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="530" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A530" s="3">
         <v>2000</v>
       </c>
@@ -35728,7 +35868,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="531" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A531" s="3">
         <v>2000</v>
       </c>
@@ -35768,7 +35908,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="532" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A532" s="3">
         <v>2000</v>
       </c>
@@ -35808,7 +35948,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="533" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A533" s="3">
         <v>2000</v>
       </c>
@@ -35848,7 +35988,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="534" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A534" s="3">
         <v>2000</v>
       </c>
@@ -35888,7 +36028,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="535" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A535" s="3">
         <v>2000</v>
       </c>
@@ -35928,7 +36068,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="536" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A536" s="3">
         <v>2000</v>
       </c>
@@ -35968,7 +36108,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="537" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A537" s="3">
         <v>1999</v>
       </c>
@@ -36008,7 +36148,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="538" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A538" s="3">
         <v>1999</v>
       </c>
@@ -36075,7 +36215,7 @@
         <v>2647413713.3990426</v>
       </c>
     </row>
-    <row r="539" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A539" s="3">
         <v>1999</v>
       </c>
@@ -36117,7 +36257,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="540" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A540" s="3">
         <v>1999</v>
       </c>
@@ -36159,7 +36299,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="541" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A541" s="3">
         <v>1999</v>
       </c>
@@ -36199,7 +36339,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="542" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A542" s="3">
         <v>1999</v>
       </c>
@@ -36239,7 +36379,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="543" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A543" s="3">
         <v>1999</v>
       </c>
@@ -36279,7 +36419,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="544" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A544" s="3">
         <v>1999</v>
       </c>
@@ -36321,7 +36461,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="545" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A545" s="3">
         <v>1999</v>
       </c>
@@ -36361,7 +36501,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="546" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A546" s="3">
         <v>1999</v>
       </c>
@@ -36401,7 +36541,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="547" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A547" s="3">
         <v>1999</v>
       </c>
@@ -36441,7 +36581,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="548" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A548" s="3">
         <v>1999</v>
       </c>
@@ -36481,7 +36621,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="549" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A549" s="3">
         <v>1999</v>
       </c>
@@ -36521,7 +36661,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="550" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A550" s="3">
         <v>1999</v>
       </c>
@@ -36563,7 +36703,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="551" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A551" s="3">
         <v>1999</v>
       </c>
@@ -36603,7 +36743,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="552" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A552" s="3">
         <v>1999</v>
       </c>
@@ -36643,7 +36783,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="553" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A553" s="3">
         <v>1999</v>
       </c>
@@ -36683,7 +36823,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="554" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A554" s="3">
         <v>1999</v>
       </c>
@@ -36723,7 +36863,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="555" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A555" s="3">
         <v>1999</v>
       </c>
@@ -36765,7 +36905,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="556" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A556" s="3">
         <v>1999</v>
       </c>
@@ -36807,7 +36947,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="557" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A557" s="3">
         <v>1999</v>
       </c>
@@ -36847,7 +36987,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="558" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A558" s="3">
         <v>1998</v>
       </c>
@@ -36887,7 +37027,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="559" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A559" s="3">
         <v>1998</v>
       </c>
@@ -36927,7 +37067,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="560" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A560" s="3">
         <v>1998</v>
       </c>
@@ -36967,7 +37107,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="561" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A561" s="3">
         <v>1998</v>
       </c>
@@ -37009,7 +37149,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="562" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A562" s="3">
         <v>1998</v>
       </c>
@@ -37049,7 +37189,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="563" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A563" s="3">
         <v>1998</v>
       </c>
@@ -37089,7 +37229,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="564" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A564" s="3">
         <v>1998</v>
       </c>
@@ -37129,7 +37269,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="565" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A565" s="3">
         <v>1998</v>
       </c>
@@ -37169,7 +37309,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="566" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A566" s="3">
         <v>1998</v>
       </c>
@@ -37209,7 +37349,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="567" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A567" s="3">
         <v>1998</v>
       </c>
@@ -37251,7 +37391,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="568" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A568" s="3">
         <v>1998</v>
       </c>
@@ -37293,7 +37433,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="569" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A569" s="3">
         <v>1998</v>
       </c>
@@ -37333,7 +37473,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="570" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A570" s="3">
         <v>1998</v>
       </c>
@@ -37373,7 +37513,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="571" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A571" s="3">
         <v>1998</v>
       </c>
@@ -37413,7 +37553,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="572" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A572" s="3">
         <v>1998</v>
       </c>
@@ -37453,7 +37593,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="573" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A573" s="3">
         <v>1998</v>
       </c>
@@ -37493,7 +37633,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="574" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A574" s="3">
         <v>1998</v>
       </c>
@@ -37533,7 +37673,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="575" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A575" s="3">
         <v>1998</v>
       </c>
@@ -37573,7 +37713,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="576" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A576" s="3">
         <v>1998</v>
       </c>
@@ -37615,7 +37755,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="577" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A577" s="3">
         <v>1998</v>
       </c>
@@ -37655,7 +37795,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="578" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A578" s="3">
         <v>1998</v>
       </c>
@@ -37695,7 +37835,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="579" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A579" s="3">
         <v>1998</v>
       </c>
@@ -37735,7 +37875,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="580" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A580" s="3">
         <v>1998</v>
       </c>
@@ -37775,7 +37915,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="581" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A581" s="3">
         <v>1998</v>
       </c>
@@ -37815,7 +37955,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="582" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A582" s="3">
         <v>1998</v>
       </c>
@@ -37855,7 +37995,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="583" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A583" s="3">
         <v>1998</v>
       </c>
@@ -37895,7 +38035,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="584" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A584" s="3">
         <v>1998</v>
       </c>
@@ -37935,7 +38075,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="585" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A585" s="3">
         <v>1998</v>
       </c>
@@ -37975,7 +38115,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="586" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A586" s="3">
         <v>1998</v>
       </c>
@@ -38017,7 +38157,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="587" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A587" s="3">
         <v>1998</v>
       </c>
@@ -38057,7 +38197,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="588" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A588" s="3">
         <v>1998</v>
       </c>
@@ -38097,7 +38237,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="589" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A589" s="3">
         <v>1998</v>
       </c>
@@ -38137,7 +38277,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="590" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A590" s="3">
         <v>1998</v>
       </c>
@@ -38177,7 +38317,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="591" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A591" s="3">
         <v>1998</v>
       </c>
@@ -38217,7 +38357,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="592" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A592" s="3">
         <v>1998</v>
       </c>
@@ -38257,7 +38397,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="593" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A593" s="3">
         <v>1998</v>
       </c>
@@ -38297,7 +38437,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="594" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A594" s="3">
         <v>1998</v>
       </c>
@@ -38337,7 +38477,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="595" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A595" s="3">
         <v>1998</v>
       </c>
@@ -38377,7 +38517,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="596" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A596" s="3">
         <v>1998</v>
       </c>
@@ -38417,7 +38557,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="597" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A597" s="3">
         <v>1998</v>
       </c>
@@ -38457,7 +38597,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="598" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A598" s="3">
         <v>1998</v>
       </c>
@@ -38497,7 +38637,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="599" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A599" s="3">
         <v>1998</v>
       </c>
@@ -38537,7 +38677,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="600" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A600" s="3">
         <v>1998</v>
       </c>
@@ -38577,7 +38717,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="601" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A601" s="3">
         <v>1998</v>
       </c>
@@ -38617,7 +38757,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="602" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A602" s="3">
         <v>1998</v>
       </c>
@@ -38657,7 +38797,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="603" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A603" s="3">
         <v>1997</v>
       </c>
@@ -38697,7 +38837,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="604" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A604" s="3">
         <v>1997</v>
       </c>
@@ -38737,7 +38877,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="605" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A605" s="3">
         <v>1997</v>
       </c>
@@ -38777,7 +38917,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="606" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A606" s="3">
         <v>1997</v>
       </c>
@@ -38817,7 +38957,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="607" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A607" s="3">
         <v>1997</v>
       </c>
@@ -38857,7 +38997,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="608" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A608" s="3">
         <v>1997</v>
       </c>
@@ -38897,7 +39037,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="609" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A609" s="3">
         <v>1997</v>
       </c>
@@ -38937,7 +39077,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="610" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A610" s="3">
         <v>1997</v>
       </c>
@@ -38977,7 +39117,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="611" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A611" s="3">
         <v>1997</v>
       </c>
@@ -39017,7 +39157,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="612" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A612" s="3">
         <v>1997</v>
       </c>
@@ -39057,7 +39197,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="613" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A613" s="3">
         <v>1997</v>
       </c>
@@ -39097,7 +39237,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="614" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A614" s="3">
         <v>1997</v>
       </c>
@@ -39137,7 +39277,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="615" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A615" s="3">
         <v>1997</v>
       </c>
@@ -39177,7 +39317,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="616" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A616" s="3">
         <v>1997</v>
       </c>
@@ -39217,7 +39357,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="617" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A617" s="3">
         <v>1997</v>
       </c>
@@ -39257,7 +39397,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="618" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A618" s="3">
         <v>1997</v>
       </c>
@@ -39297,7 +39437,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="619" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A619" s="3">
         <v>1997</v>
       </c>
@@ -39337,7 +39477,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="620" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A620" s="3">
         <v>1997</v>
       </c>
@@ -39379,7 +39519,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="621" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A621" s="3">
         <v>1997</v>
       </c>
@@ -39419,7 +39559,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="622" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A622" s="3">
         <v>1997</v>
       </c>
@@ -39460,7 +39600,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AR622" xr:uid="{6F6314DE-ED3E-44AB-8A71-020213C07503}"/>
+  <autoFilter ref="A1:AS622" xr:uid="{ABDF6ED0-5D3E-4C07-9B0E-7BC101B91C41}"/>
   <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="R19" r:id="rId1" xr:uid="{8BE2D469-4FC3-404D-88F5-CAE5385B1926}"/>
@@ -39730,25 +39870,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{604FB875-E6D6-4D0A-835E-1820C0AF6875}">
   <dimension ref="A1:V20"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.26953125" customWidth="1"/>
-    <col min="5" max="5" width="14.1796875" customWidth="1"/>
-    <col min="13" max="13" width="11.453125" style="38"/>
-    <col min="15" max="15" width="42.81640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="46.36328125" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" style="38"/>
+    <col min="15" max="15" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.5703125" customWidth="1"/>
     <col min="17" max="17" width="22" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="22" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2346</v>
       </c>
@@ -39774,7 +39914,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -39821,7 +39961,7 @@
         <v>2351</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -39857,7 +39997,7 @@
         <v>2352</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -39893,7 +40033,7 @@
         <v>2353</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="O5">
         <v>2017</v>
       </c>
@@ -39920,7 +40060,7 @@
         <v>2355</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="O6">
         <v>2017</v>
       </c>
@@ -39947,7 +40087,7 @@
         <v>2361</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="O7">
         <v>2017</v>
       </c>
@@ -39974,7 +40114,7 @@
         <v>2357</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="O8">
         <v>2017</v>
       </c>
@@ -40001,7 +40141,7 @@
         <v>2359</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="O9">
         <v>2017</v>
       </c>
@@ -40021,7 +40161,7 @@
       <c r="U9" s="46"/>
       <c r="V9" s="46"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="O10">
         <v>2016</v>
       </c>
@@ -40048,7 +40188,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="O11">
         <v>2015</v>
       </c>
@@ -40075,7 +40215,7 @@
         <v>2363</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="O12">
         <v>2015</v>
       </c>
@@ -40102,7 +40242,7 @@
         <v>2364</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="O13">
         <v>2014</v>
       </c>
@@ -40129,7 +40269,7 @@
         <v>2365</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="O14">
         <v>2014</v>
       </c>
@@ -40153,7 +40293,7 @@
         <v>2366</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="O15">
         <v>2014</v>
       </c>
@@ -40174,7 +40314,7 @@
       </c>
       <c r="U15" s="4"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="O16">
         <v>2012</v>
       </c>
@@ -40195,7 +40335,7 @@
       </c>
       <c r="U16" s="4"/>
     </row>
-    <row r="17" spans="14:22" x14ac:dyDescent="0.35">
+    <row r="17" spans="14:22" x14ac:dyDescent="0.25">
       <c r="O17">
         <v>2012</v>
       </c>
@@ -40222,7 +40362,7 @@
         <v>2367</v>
       </c>
     </row>
-    <row r="18" spans="14:22" x14ac:dyDescent="0.35">
+    <row r="18" spans="14:22" x14ac:dyDescent="0.25">
       <c r="O18">
         <v>2010</v>
       </c>
@@ -40243,7 +40383,7 @@
       </c>
       <c r="U18" s="4"/>
     </row>
-    <row r="20" spans="14:22" x14ac:dyDescent="0.35">
+    <row r="20" spans="14:22" x14ac:dyDescent="0.25">
       <c r="N20" t="s">
         <v>2368</v>
       </c>
@@ -40293,22 +40433,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27E5D841-8F73-437D-97E2-118BF5C58E6F}">
   <dimension ref="A1:N54"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:B27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.1796875" customWidth="1"/>
+    <col min="1" max="1" width="41.140625" customWidth="1"/>
     <col min="2" max="2" width="48" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -40334,7 +40474,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -40360,7 +40500,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>67</v>
       </c>
@@ -40368,7 +40508,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>92</v>
       </c>
@@ -40376,7 +40516,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>155</v>
       </c>
@@ -40384,7 +40524,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>284</v>
       </c>
@@ -40392,12 +40532,12 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>1678</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>2314</v>
       </c>
@@ -40405,7 +40545,7 @@
         <v>2315</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -40413,7 +40553,7 @@
         <v>2316</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -40421,7 +40561,7 @@
         <v>2317</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -40429,7 +40569,7 @@
         <v>2318</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -40437,7 +40577,7 @@
         <v>2319</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -40445,7 +40585,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -40453,7 +40593,7 @@
         <v>2325</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>719</v>
       </c>
@@ -40461,7 +40601,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>721</v>
       </c>
@@ -40469,7 +40609,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>722</v>
       </c>
@@ -40477,7 +40617,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>720</v>
       </c>
@@ -40485,7 +40625,7 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="41" t="s">
         <v>723</v>
       </c>
@@ -40493,7 +40633,7 @@
         <v>2333</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>725</v>
       </c>
@@ -40501,31 +40641,31 @@
         <v>2326</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>726</v>
       </c>
       <c r="B24" s="47"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>727</v>
       </c>
       <c r="B25" s="47"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>728</v>
       </c>
       <c r="B26" s="47"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>729</v>
       </c>
       <c r="B27" s="47"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>735</v>
       </c>
@@ -40533,7 +40673,7 @@
         <v>2327</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>737</v>
       </c>
@@ -40541,19 +40681,19 @@
         <v>2328</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>738</v>
       </c>
       <c r="B30" s="47"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>739</v>
       </c>
       <c r="B31" s="47"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="41" t="s">
         <v>1141</v>
       </c>
@@ -40561,7 +40701,7 @@
         <v>2329</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>1149</v>
       </c>
@@ -40569,7 +40709,7 @@
         <v>2330</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>1648</v>
       </c>
@@ -40577,7 +40717,7 @@
         <v>2331</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>1701</v>
       </c>
@@ -40585,115 +40725,115 @@
         <v>2332</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>1702</v>
       </c>
       <c r="B36" s="47"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>1703</v>
       </c>
       <c r="B37" s="47"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>1704</v>
       </c>
       <c r="B38" s="47"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>1705</v>
       </c>
       <c r="B39" s="47"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>1706</v>
       </c>
       <c r="B40" s="47"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>1707</v>
       </c>
       <c r="B41" s="47"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>1728</v>
       </c>
       <c r="B42" s="47"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>1745</v>
       </c>
       <c r="B43" s="47"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>1746</v>
       </c>
       <c r="B44" s="47"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>1747</v>
       </c>
       <c r="B45" s="47"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>1748</v>
       </c>
       <c r="B46" s="47"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>1749</v>
       </c>
       <c r="B47" s="47"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>1769</v>
       </c>
       <c r="B48" s="47"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>1918</v>
       </c>
       <c r="B49" s="47"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>1919</v>
       </c>
       <c r="B50" s="47"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>1920</v>
       </c>
       <c r="B51" s="47"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>2034</v>
       </c>
       <c r="B52" s="47"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>2035</v>
       </c>
       <c r="B53" s="47"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>2036</v>
       </c>
@@ -40720,9 +40860,9 @@
       <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>1613</v>
       </c>
@@ -40751,7 +40891,7 @@
         <v>1647</v>
       </c>
     </row>
-    <row r="3" spans="1:43" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:43" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>1614</v>
       </c>
@@ -40797,7 +40937,7 @@
       </c>
       <c r="W3" s="19"/>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" s="20">
         <v>21916</v>
       </c>
@@ -40843,7 +40983,7 @@
         <v>1646</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" s="20">
         <v>22282</v>
       </c>
@@ -40883,7 +41023,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" s="20">
         <v>22647</v>
       </c>
@@ -40923,7 +41063,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" s="20">
         <v>23012</v>
       </c>
@@ -40963,7 +41103,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8" s="20">
         <v>23377</v>
       </c>
@@ -41003,7 +41143,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9" s="20">
         <v>23743</v>
       </c>
@@ -41043,7 +41183,7 @@
         <v>44082</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10" s="20">
         <v>24108</v>
       </c>
@@ -41083,7 +41223,7 @@
         <v>1643</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11" s="20">
         <v>24473</v>
       </c>
@@ -41123,7 +41263,7 @@
         <v>1644</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A12" s="20">
         <v>24838</v>
       </c>
@@ -41157,7 +41297,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A13" s="20">
         <v>25204</v>
       </c>
@@ -41185,7 +41325,7 @@
         <v>100.91</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A14" s="20">
         <v>25569</v>
       </c>
@@ -41213,7 +41353,7 @@
         <v>100.82</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A15" s="20">
         <v>25934</v>
       </c>
@@ -41241,7 +41381,7 @@
         <v>100.64</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A16" s="20">
         <v>26299</v>
       </c>
@@ -41269,7 +41409,7 @@
         <v>100.75</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="20">
         <v>26665</v>
       </c>
@@ -41297,7 +41437,7 @@
         <v>100.79</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="20">
         <v>27030</v>
       </c>
@@ -41325,7 +41465,7 @@
         <v>101.27</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="20">
         <v>27395</v>
       </c>
@@ -41353,7 +41493,7 @@
         <v>101.54</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="20">
         <v>27760</v>
       </c>
@@ -41381,7 +41521,7 @@
         <v>102.15</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="20">
         <v>28126</v>
       </c>
@@ -41409,7 +41549,7 @@
         <v>102.2</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="20">
         <v>28491</v>
       </c>
@@ -41437,7 +41577,7 @@
         <v>102.43</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="20">
         <v>28856</v>
       </c>
@@ -41465,7 +41605,7 @@
         <v>102.62</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="20">
         <v>29221</v>
       </c>
@@ -41493,7 +41633,7 @@
         <v>102.63</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="20">
         <v>29587</v>
       </c>
@@ -41521,7 +41661,7 @@
         <v>103.47</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="20">
         <v>29952</v>
       </c>
@@ -41549,7 +41689,7 @@
         <v>103.55</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="20">
         <v>30317</v>
       </c>
@@ -41577,7 +41717,7 @@
         <v>103.66</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="20">
         <v>30682</v>
       </c>
@@ -41605,7 +41745,7 @@
         <v>104.24</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="20">
         <v>31048</v>
       </c>
@@ -41633,7 +41773,7 @@
         <v>104.71</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="20">
         <v>31413</v>
       </c>
@@ -41661,7 +41801,7 @@
         <v>105.06</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="20">
         <v>31778</v>
       </c>
@@ -41689,7 +41829,7 @@
         <v>105.01</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="20">
         <v>32143</v>
       </c>
@@ -41717,7 +41857,7 @@
         <v>104.96</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="20">
         <v>32509</v>
       </c>
@@ -41745,7 +41885,7 @@
         <v>104.89</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="20">
         <v>32874</v>
       </c>
@@ -41773,7 +41913,7 @@
         <v>104.99</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="20">
         <v>33239</v>
       </c>
@@ -41801,7 +41941,7 @@
         <v>105.13</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="20">
         <v>33604</v>
       </c>
@@ -41823,7 +41963,7 @@
         <v>0.3254056378484142</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="20">
         <v>33970</v>
       </c>
@@ -41845,7 +41985,7 @@
         <v>0.36498934526673898</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="20">
         <v>34335</v>
       </c>
@@ -41867,7 +42007,7 @@
         <v>0.41778134924186971</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="20">
         <v>34700</v>
       </c>
@@ -41889,7 +42029,7 @@
         <v>0.46658121095945132</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="20">
         <v>35065</v>
       </c>
@@ -41911,7 +42051,7 @@
         <v>0.48231135146810383</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="20">
         <v>35431</v>
       </c>
@@ -41933,7 +42073,7 @@
         <v>0.49707794907131903</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="20">
         <v>35796</v>
       </c>
@@ -41955,7 +42095,7 @@
         <v>0.50226017323852867</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="20">
         <v>36161</v>
       </c>
@@ -41977,7 +42117,7 @@
         <v>0.51370890507848943</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="20">
         <v>36526</v>
       </c>
@@ -41999,7 +42139,7 @@
         <v>0.53565372339771589</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="20">
         <v>36892</v>
       </c>
@@ -42021,7 +42161,7 @@
         <v>0.55633478458185848</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="20">
         <v>37257</v>
       </c>
@@ -42043,7 +42183,7 @@
         <v>0.57520606653618478</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="20">
         <v>37622</v>
       </c>
@@ -42065,7 +42205,7 @@
         <v>0.60154393290946961</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="20">
         <v>37987</v>
       </c>
@@ -42087,7 +42227,7 @@
         <v>0.64876201590969795</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="20">
         <v>38353</v>
       </c>
@@ -42109,7 +42249,7 @@
         <v>0.69834617438581481</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="20">
         <v>38718</v>
       </c>
@@ -42131,7 +42271,7 @@
         <v>0.78328048337466061</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="20">
         <v>39083</v>
       </c>
@@ -42153,7 +42293,7 @@
         <v>0.82509214292914146</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="20">
         <v>39448</v>
       </c>
@@ -42175,7 +42315,7 @@
         <v>0.82465122153230452</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="20">
         <v>39814</v>
       </c>
@@ -42197,7 +42337,7 @@
         <v>0.86303679789160836</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="20">
         <v>40179</v>
       </c>
@@ -42219,7 +42359,7 @@
         <v>0.94038469086697962</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="20">
         <v>40544</v>
       </c>
@@ -42241,7 +42381,7 @@
         <v>0.96965799102969796</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="20">
         <v>40909</v>
       </c>
@@ -42263,7 +42403,7 @@
         <v>0.98061668667861224</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="20">
         <v>41275</v>
       </c>
@@ -42285,7 +42425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="20">
         <v>41640</v>
       </c>
@@ -42307,7 +42447,7 @@
         <v>1.0590634905696217</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="20">
         <v>42005</v>
       </c>
@@ -42329,7 +42469,7 @@
         <v>1.1115246036924498</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="20">
         <v>42370</v>
       </c>
@@ -42351,7 +42491,7 @@
         <v>1.161208856284613</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="20">
         <v>42736</v>
       </c>
@@ -42373,7 +42513,7 @@
         <v>1.2167380289801426</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="20">
         <v>43101</v>
       </c>
@@ -42395,7 +42535,7 @@
         <v>1.2454588784812775</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="20">
         <v>43466</v>
       </c>
@@ -42417,7 +42557,7 @@
         <v>1.2786953354041695</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G64" s="28">
         <f>YEAR(P35)</f>
         <v>2020</v>

--- a/DATAEVAL.xlsx
+++ b/DATAEVAL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/944d5b9328a00097/Data intelligence/temporal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="546" documentId="8_{C4058E55-6697-44D8-BF2A-533DCF0008C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8D7CB78A-7148-402F-9711-95650588A687}"/>
+  <xr:revisionPtr revIDLastSave="629" documentId="8_{C4058E55-6697-44D8-BF2A-533DCF0008C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{36C8B5CB-066C-4BF4-BA29-71C4AD0F64CD}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5816" uniqueCount="2375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5822" uniqueCount="2375">
   <si>
     <t>Año de protocolo</t>
   </si>
@@ -8318,10 +8318,10 @@
   <dimension ref="A1:AS622"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AQ16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AN2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AR34" sqref="AR34"/>
+      <selection pane="bottomRight" activeCell="AR1" sqref="AR1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8594,7 +8594,9 @@
       <c r="AL2" s="33" t="s">
         <v>1973</v>
       </c>
-      <c r="AR2" s="10"/>
+      <c r="AR2" s="10" t="s">
+        <v>2371</v>
+      </c>
       <c r="AS2" s="46"/>
     </row>
     <row r="3" spans="1:45" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -8694,7 +8696,10 @@
       <c r="AH3" s="33" t="s">
         <v>1984</v>
       </c>
-      <c r="AR3" s="10"/>
+      <c r="AR3" s="10">
+        <f xml:space="preserve"> 45528855 * 1000</f>
+        <v>45528855000</v>
+      </c>
       <c r="AS3" s="46"/>
     </row>
     <row r="4" spans="1:45" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -8804,7 +8809,9 @@
       <c r="AL4" s="33" t="s">
         <v>1999</v>
       </c>
-      <c r="AR4" s="10"/>
+      <c r="AR4" s="10" t="s">
+        <v>2371</v>
+      </c>
       <c r="AS4" s="46"/>
     </row>
     <row r="5" spans="1:45" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -8901,7 +8908,10 @@
       <c r="AG5" s="33" t="s">
         <v>1859</v>
       </c>
-      <c r="AR5" s="10"/>
+      <c r="AR5" s="10">
+        <f xml:space="preserve"> 44937770 * 1000</f>
+        <v>44937770000</v>
+      </c>
       <c r="AS5" s="46"/>
     </row>
     <row r="6" spans="1:45" x14ac:dyDescent="0.25">
@@ -8984,6 +8994,10 @@
       <c r="AC6" t="s">
         <v>1719</v>
       </c>
+      <c r="AR6" s="10">
+        <f xml:space="preserve"> 505952 * 1000</f>
+        <v>505952000</v>
+      </c>
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
@@ -9071,6 +9085,10 @@
       <c r="AE7" t="s">
         <v>1735</v>
       </c>
+      <c r="AR7" s="10">
+        <f xml:space="preserve"> (16343155 + 66460854) * 1000</f>
+        <v>82804009000</v>
+      </c>
     </row>
     <row r="8" spans="1:45" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="30">
@@ -9164,7 +9182,10 @@
       <c r="AG8" s="33" t="s">
         <v>1757</v>
       </c>
-      <c r="AR8" s="10"/>
+      <c r="AR8" s="10">
+        <f xml:space="preserve"> 11405939 * 1000</f>
+        <v>11405939000</v>
+      </c>
       <c r="AS8" s="46"/>
     </row>
     <row r="9" spans="1:45" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -9273,7 +9294,9 @@
       <c r="AK9" s="33" t="s">
         <v>1782</v>
       </c>
-      <c r="AR9" s="10"/>
+      <c r="AR9" s="10" t="s">
+        <v>2371</v>
+      </c>
       <c r="AS9" s="46"/>
     </row>
     <row r="10" spans="1:45" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -9380,7 +9403,10 @@
       <c r="AK10" s="33" t="s">
         <v>1805</v>
       </c>
-      <c r="AR10" s="10"/>
+      <c r="AR10" s="10">
+        <f xml:space="preserve"> 592675506 * 1000</f>
+        <v>592675506000</v>
+      </c>
       <c r="AS10" s="46"/>
     </row>
     <row r="11" spans="1:45" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -9478,7 +9504,10 @@
       <c r="AH11" s="33" t="s">
         <v>1824</v>
       </c>
-      <c r="AR11" s="10"/>
+      <c r="AR11" s="10">
+        <f xml:space="preserve"> 15328954 * 1000</f>
+        <v>15328954000</v>
+      </c>
       <c r="AS11" s="46"/>
     </row>
     <row r="12" spans="1:45" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -9576,7 +9605,10 @@
       <c r="AH12" s="33" t="s">
         <v>1842</v>
       </c>
-      <c r="AR12" s="10"/>
+      <c r="AR12" s="10">
+        <f xml:space="preserve"> 10105074 * 1000</f>
+        <v>10105074000</v>
+      </c>
       <c r="AS12" s="46"/>
     </row>
     <row r="13" spans="1:45" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -9673,7 +9705,10 @@
       <c r="AG13" s="33" t="s">
         <v>1859</v>
       </c>
-      <c r="AR13" s="10"/>
+      <c r="AR13" s="10">
+        <f xml:space="preserve"> 24562966 * 1000</f>
+        <v>24562966000</v>
+      </c>
       <c r="AS13" s="46"/>
     </row>
     <row r="14" spans="1:45" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -9755,7 +9790,9 @@
       <c r="AC14" s="33" t="s">
         <v>1875</v>
       </c>
-      <c r="AR14" s="10"/>
+      <c r="AR14" s="10" t="s">
+        <v>2371</v>
+      </c>
       <c r="AS14" s="46"/>
     </row>
     <row r="15" spans="1:45" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -9851,7 +9888,10 @@
       <c r="AF15" s="33" t="s">
         <v>1891</v>
       </c>
-      <c r="AR15" s="10"/>
+      <c r="AR15" s="10">
+        <f xml:space="preserve"> 862640663 * 1000</f>
+        <v>862640663000</v>
+      </c>
       <c r="AS15" s="46"/>
     </row>
     <row r="16" spans="1:45" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -9944,7 +9984,10 @@
       <c r="AE16" s="33" t="s">
         <v>1908</v>
       </c>
-      <c r="AR16" s="10"/>
+      <c r="AR16" s="10">
+        <f xml:space="preserve"> 10064158 * 1000</f>
+        <v>10064158000</v>
+      </c>
       <c r="AS16" s="46"/>
     </row>
     <row r="17" spans="1:45" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -10062,7 +10105,10 @@
       <c r="AN17" s="33" t="s">
         <v>1935</v>
       </c>
-      <c r="AR17" s="10"/>
+      <c r="AR17" s="10">
+        <f xml:space="preserve"> (32778366 + 20781776 + 10617522 + 39769345 + 48889408 + 17148467 + 34765307 + 83852747 + 67677346 + 50891349 + 8154246 + 12532970 + 171153543 + 24647470 + 17678470 + 2212809) * 1000</f>
+        <v>643551141000</v>
+      </c>
       <c r="AS17" s="46"/>
     </row>
     <row r="18" spans="1:45" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -10177,7 +10223,10 @@
       <c r="AM18" s="33" t="s">
         <v>1958</v>
       </c>
-      <c r="AR18" s="10"/>
+      <c r="AR18" s="10">
+        <f xml:space="preserve"> 41783171 * 1000</f>
+        <v>41783171000</v>
+      </c>
       <c r="AS18" s="46"/>
     </row>
     <row r="19" spans="1:45" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -10292,7 +10341,10 @@
       <c r="AN19" s="33" t="s">
         <v>2016</v>
       </c>
-      <c r="AR19" s="10"/>
+      <c r="AR19" s="10">
+        <f t="shared" ref="AR18:AR21" si="0" xml:space="preserve"> 1163741 * 1000</f>
+        <v>1163741000</v>
+      </c>
       <c r="AS19" s="46"/>
     </row>
     <row r="20" spans="1:45" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -10415,7 +10467,10 @@
       <c r="AQ20" s="33" t="s">
         <v>2039</v>
       </c>
-      <c r="AR20" s="10"/>
+      <c r="AR20" s="10">
+        <f xml:space="preserve"> 6964632 * 1000</f>
+        <v>6964632000</v>
+      </c>
       <c r="AS20" s="46"/>
     </row>
     <row r="21" spans="1:45" s="38" customFormat="1" x14ac:dyDescent="0.25">
@@ -10488,7 +10543,10 @@
       <c r="Z21" s="38" t="s">
         <v>2002</v>
       </c>
-      <c r="AR21" s="36"/>
+      <c r="AR21" s="36">
+        <f t="shared" si="0"/>
+        <v>1163741000</v>
+      </c>
       <c r="AS21" s="47"/>
     </row>
     <row r="22" spans="1:45" x14ac:dyDescent="0.25">
@@ -10557,6 +10615,10 @@
         <f>IF( J22="s.i", "s.i", IF(ISBLANK(J22),"Actualizando información",IFERROR(J22 / VLOOKUP(A22,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>6960219337.3035898</v>
       </c>
+      <c r="AR22" s="10">
+        <f xml:space="preserve"> 8900342 * 1000</f>
+        <v>8900342000</v>
+      </c>
     </row>
     <row r="23" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
@@ -10622,6 +10684,10 @@
         <f>IF( J23="s.i", "s.i", IF(ISBLANK(J23),"Actualizando información",IFERROR(J23 / VLOOKUP(A23,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>8645512886.3872395</v>
       </c>
+      <c r="AR23" s="10">
+        <f xml:space="preserve"> 9352577 * 1000</f>
+        <v>9352577000</v>
+      </c>
     </row>
     <row r="24" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
@@ -10688,6 +10754,10 @@
         <f>IF( J24="s.i", "s.i", IF(ISBLANK(J24),"Actualizando información",IFERROR(J24 / VLOOKUP(A24,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>2618483.7836619532</v>
       </c>
+      <c r="AR24" s="10">
+        <f xml:space="preserve"> 3348243 * 1000</f>
+        <v>3348243000</v>
+      </c>
     </row>
     <row r="25" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
@@ -10755,6 +10825,10 @@
         <f>IF( J25="s.i", "s.i", IF(ISBLANK(J25),"Actualizando información",IFERROR(J25 / VLOOKUP(A25,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>14193373118.283466</v>
       </c>
+      <c r="AR25" s="10">
+        <f xml:space="preserve"> 3435061 * 1000</f>
+        <v>3435061000</v>
+      </c>
     </row>
     <row r="26" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
@@ -10820,6 +10894,10 @@
         <f>IF( J26="s.i", "s.i", IF(ISBLANK(J26),"Actualizando información",IFERROR(J26 / VLOOKUP(A26,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>14780690502.813242</v>
       </c>
+      <c r="AR26" s="10">
+        <f xml:space="preserve"> 13822440 * 1000</f>
+        <v>13822440000</v>
+      </c>
     </row>
     <row r="27" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
@@ -10885,6 +10963,9 @@
       <c r="W27" s="10">
         <f>IF( J27="s.i", "s.i", IF(ISBLANK(J27),"Actualizando información",IFERROR(J27 / VLOOKUP(A27,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>39308513.61408361</v>
+      </c>
+      <c r="AR27" s="10" t="s">
+        <v>2371</v>
       </c>
     </row>
     <row r="28" spans="1:45" x14ac:dyDescent="0.25">
@@ -10948,6 +11029,10 @@
         <f>IF( J28="s.i", "s.i", IF(ISBLANK(J28),"Actualizando información",IFERROR(J28 / VLOOKUP(A28,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>53491537.120826639</v>
       </c>
+      <c r="AR28" s="10">
+        <f xml:space="preserve"> 1163741 * 1000</f>
+        <v>1163741000</v>
+      </c>
     </row>
     <row r="29" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
@@ -11011,6 +11096,10 @@
         <f>IF( J29="s.i", "s.i", IF(ISBLANK(J29),"Actualizando información",IFERROR(J29 / VLOOKUP(A29,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>4785346306.1753559</v>
       </c>
+      <c r="AR29" s="10">
+        <f xml:space="preserve"> (4063743 + 3011254) * 1000</f>
+        <v>7074997000</v>
+      </c>
     </row>
     <row r="30" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
@@ -11075,6 +11164,10 @@
       <c r="W30" s="10">
         <f>IF( J30="s.i", "s.i", IF(ISBLANK(J30),"Actualizando información",IFERROR(J30 / VLOOKUP(A30,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>6038185786.8900023</v>
+      </c>
+      <c r="AR30" s="10">
+        <f xml:space="preserve"> 7390946 * 1000</f>
+        <v>7390946000</v>
       </c>
     </row>
     <row r="31" spans="1:45" x14ac:dyDescent="0.25">
@@ -11139,6 +11232,10 @@
         <f>IF( J31="s.i", "s.i", IF(ISBLANK(J31),"Actualizando información",IFERROR(J31 / VLOOKUP(A31,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>62394847146.902206</v>
       </c>
+      <c r="AR31" s="10">
+        <f xml:space="preserve"> 40590781 * 1000</f>
+        <v>40590781000</v>
+      </c>
     </row>
     <row r="32" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
@@ -11202,6 +11299,9 @@
         <f>IF( J32="s.i", "s.i", IF(ISBLANK(J32),"Actualizando información",IFERROR(J32 / VLOOKUP(A32,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>4867461253.4132071</v>
       </c>
+      <c r="AR32" s="10" t="s">
+        <v>2371</v>
+      </c>
     </row>
     <row r="33" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
@@ -11265,6 +11365,10 @@
         <f>IF( J33="s.i", "s.i", IF(ISBLANK(J33),"Actualizando información",IFERROR(J33 / VLOOKUP(A33,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>5592418148408.835</v>
       </c>
+      <c r="AR33" s="10">
+        <f xml:space="preserve"> 5251170 * 1000</f>
+        <v>5251170000</v>
+      </c>
     </row>
     <row r="34" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
@@ -11327,6 +11431,10 @@
       <c r="W34" s="10">
         <f>IF( J34="s.i", "s.i", IF(ISBLANK(J34),"Actualizando información",IFERROR(J34 / VLOOKUP(A34,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>3685006013.188148</v>
+      </c>
+      <c r="AR34" s="10">
+        <f xml:space="preserve"> 3322121 * 1000</f>
+        <v>3322121000</v>
       </c>
     </row>
     <row r="35" spans="1:44" x14ac:dyDescent="0.25">
@@ -14639,7 +14747,7 @@
         <v>29056725512.718685</v>
       </c>
       <c r="AR82" s="10">
-        <f t="shared" ref="AR82:AR83" si="0">22728030 * 1000</f>
+        <f t="shared" ref="AR82:AR83" si="1">22728030 * 1000</f>
         <v>22728030000</v>
       </c>
     </row>
@@ -14710,7 +14818,7 @@
         <v>29056725512.718685</v>
       </c>
       <c r="AR83" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22728030000</v>
       </c>
     </row>
@@ -15903,7 +16011,7 @@
         <v>623</v>
       </c>
       <c r="J101" s="10">
-        <f t="shared" ref="J101:J103" si="1" xml:space="preserve"> 33740927 * 1000</f>
+        <f t="shared" ref="J101:J103" si="2" xml:space="preserve"> 33740927 * 1000</f>
         <v>33740927000</v>
       </c>
       <c r="K101" s="3" t="s">
@@ -15972,7 +16080,7 @@
         <v>623</v>
       </c>
       <c r="J102" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>33740927000</v>
       </c>
       <c r="K102" s="3" t="s">
@@ -16041,7 +16149,7 @@
         <v>623</v>
       </c>
       <c r="J103" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>33740927000</v>
       </c>
       <c r="K103" s="3" t="s">
@@ -18384,7 +18492,7 @@
         <v>623</v>
       </c>
       <c r="J137" s="10">
-        <f t="shared" ref="J137:J141" si="2" xml:space="preserve"> 11549 * 1000000</f>
+        <f t="shared" ref="J137:J141" si="3" xml:space="preserve"> 11549 * 1000000</f>
         <v>11549000000</v>
       </c>
       <c r="K137" s="3"/>
@@ -18448,7 +18556,7 @@
         <v>623</v>
       </c>
       <c r="J138" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11549000000</v>
       </c>
       <c r="K138" s="3"/>
@@ -18513,7 +18621,7 @@
         <v>623</v>
       </c>
       <c r="J139" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11549000000</v>
       </c>
       <c r="K139" s="3"/>
@@ -18580,7 +18688,7 @@
         <v>623</v>
       </c>
       <c r="J140" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11549000000</v>
       </c>
       <c r="K140" s="3" t="s">
@@ -18646,7 +18754,7 @@
         <v>623</v>
       </c>
       <c r="J141" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11549000000</v>
       </c>
       <c r="K141" s="3"/>
@@ -21932,7 +22040,7 @@
         <v>623</v>
       </c>
       <c r="J195" s="10">
-        <f t="shared" ref="J195:J199" si="3" xml:space="preserve"> 14778 * 1000000</f>
+        <f t="shared" ref="J195:J199" si="4" xml:space="preserve"> 14778 * 1000000</f>
         <v>14778000000</v>
       </c>
       <c r="K195" s="3" t="s">
@@ -21966,7 +22074,7 @@
         <v>15070108637.508173</v>
       </c>
       <c r="AR195" s="10">
-        <f t="shared" ref="AR195:AR199" si="4" xml:space="preserve"> 7607946 * 1000</f>
+        <f t="shared" ref="AR195:AR199" si="5" xml:space="preserve"> 7607946 * 1000</f>
         <v>7607946000</v>
       </c>
     </row>
@@ -21999,7 +22107,7 @@
         <v>623</v>
       </c>
       <c r="J196" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14778000000</v>
       </c>
       <c r="K196" s="3" t="s">
@@ -22033,7 +22141,7 @@
         <v>15070108637.508173</v>
       </c>
       <c r="AR196" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7607946000</v>
       </c>
     </row>
@@ -22066,7 +22174,7 @@
         <v>623</v>
       </c>
       <c r="J197" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14778000000</v>
       </c>
       <c r="K197" s="3" t="s">
@@ -22100,7 +22208,7 @@
         <v>15070108637.508173</v>
       </c>
       <c r="AR197" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7607946000</v>
       </c>
     </row>
@@ -22133,7 +22241,7 @@
         <v>623</v>
       </c>
       <c r="J198" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14778000000</v>
       </c>
       <c r="K198" s="3" t="s">
@@ -22167,7 +22275,7 @@
         <v>15070108637.508173</v>
       </c>
       <c r="AR198" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7607946000</v>
       </c>
     </row>
@@ -22200,7 +22308,7 @@
         <v>623</v>
       </c>
       <c r="J199" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14778000000</v>
       </c>
       <c r="K199" s="3" t="s">
@@ -22234,7 +22342,7 @@
         <v>15070108637.508173</v>
       </c>
       <c r="AR199" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7607946000</v>
       </c>
     </row>
@@ -24097,7 +24205,7 @@
         <v>150332635540530.41</v>
       </c>
       <c r="AR237" s="10">
-        <f t="shared" ref="AR237:AR241" si="5" xml:space="preserve"> 132129142 * 1000</f>
+        <f t="shared" ref="AR237:AR241" si="6" xml:space="preserve"> 132129142 * 1000</f>
         <v>132129142000</v>
       </c>
     </row>
@@ -24130,7 +24238,7 @@
         <v>623</v>
       </c>
       <c r="J238" s="10">
-        <f t="shared" ref="J238:J241" si="6" xml:space="preserve"> 141370509 * 1000000</f>
+        <f t="shared" ref="J238:J241" si="7" xml:space="preserve"> 141370509 * 1000000</f>
         <v>141370509000000</v>
       </c>
       <c r="K238" s="3" t="s">
@@ -24166,7 +24274,7 @@
         <v>150332635540530.41</v>
       </c>
       <c r="AR238" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>132129142000</v>
       </c>
     </row>
@@ -24199,7 +24307,7 @@
         <v>623</v>
       </c>
       <c r="J239" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>141370509000000</v>
       </c>
       <c r="K239" s="3" t="s">
@@ -24235,7 +24343,7 @@
         <v>150332635540530.41</v>
       </c>
       <c r="AR239" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>132129142000</v>
       </c>
     </row>
@@ -24268,7 +24376,7 @@
         <v>623</v>
       </c>
       <c r="J240" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>141370509000000</v>
       </c>
       <c r="K240" s="3" t="s">
@@ -24304,7 +24412,7 @@
         <v>150332635540530.41</v>
       </c>
       <c r="AR240" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>132129142000</v>
       </c>
     </row>
@@ -24337,7 +24445,7 @@
         <v>623</v>
       </c>
       <c r="J241" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>141370509000000</v>
       </c>
       <c r="K241" s="3" t="s">
@@ -24373,7 +24481,7 @@
         <v>150332635540530.41</v>
       </c>
       <c r="AR241" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>132129142000</v>
       </c>
     </row>
@@ -24714,7 +24822,7 @@
         <v>623</v>
       </c>
       <c r="J249" s="10">
-        <f t="shared" ref="J249" si="7" xml:space="preserve"> 141370509 * 1000000</f>
+        <f t="shared" ref="J249" si="8" xml:space="preserve"> 141370509 * 1000000</f>
         <v>141370509000000</v>
       </c>
       <c r="K249" s="3" t="s">
@@ -25611,7 +25719,7 @@
         <v>623</v>
       </c>
       <c r="J265" s="10">
-        <f t="shared" ref="J265" si="8" xml:space="preserve"> 141370509 * 1000000</f>
+        <f t="shared" ref="J265" si="9" xml:space="preserve"> 141370509 * 1000000</f>
         <v>141370509000000</v>
       </c>
       <c r="K265" s="3" t="s">
@@ -26183,7 +26291,7 @@
         <v>Actualizando información</v>
       </c>
       <c r="AR277" s="10">
-        <f t="shared" ref="AR277:AR279" si="9" xml:space="preserve"> 17991107 * 1000</f>
+        <f t="shared" ref="AR277:AR279" si="10" xml:space="preserve"> 17991107 * 1000</f>
         <v>17991107000</v>
       </c>
     </row>
@@ -26227,7 +26335,7 @@
         <v>Actualizando información</v>
       </c>
       <c r="AR278" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>17991107000</v>
       </c>
     </row>
@@ -26271,7 +26379,7 @@
         <v>Actualizando información</v>
       </c>
       <c r="AR279" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>17991107000</v>
       </c>
     </row>
@@ -26954,7 +27062,7 @@
         <v>Actualizando información</v>
       </c>
       <c r="AR294" s="10">
-        <f t="shared" ref="AR294:AR295" si="10" xml:space="preserve"> 17991107 * 1000</f>
+        <f t="shared" ref="AR294:AR295" si="11" xml:space="preserve"> 17991107 * 1000</f>
         <v>17991107000</v>
       </c>
     </row>
@@ -27000,7 +27108,7 @@
         <v>Actualizando información</v>
       </c>
       <c r="AR295" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>17991107000</v>
       </c>
     </row>
@@ -27614,7 +27722,7 @@
         <v>Actualizando información</v>
       </c>
       <c r="AR307" s="10">
-        <f t="shared" ref="AR307" si="11" xml:space="preserve"> 318600 * 1000</f>
+        <f t="shared" ref="AR307" si="12" xml:space="preserve"> 318600 * 1000</f>
         <v>318600000</v>
       </c>
     </row>

--- a/DATAEVAL.xlsx
+++ b/DATAEVAL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/944d5b9328a00097/Data intelligence/temporal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="629" documentId="8_{C4058E55-6697-44D8-BF2A-533DCF0008C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{36C8B5CB-066C-4BF4-BA29-71C4AD0F64CD}"/>
+  <xr:revisionPtr revIDLastSave="66" documentId="8_{CBEA9D6E-EB23-4661-9D82-50DA50A621CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0D10C905-EABB-4153-99D8-001305CEE2B6}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="Deflactor" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">dataeval!$A$1:$AS$622</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">dataeval!$A$1:$AT$622</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">fuentes!$E$2:$E$622</definedName>
     <definedName name="_xlnm.Extract" localSheetId="2">fuentes!$F$2:$F$622</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="2">fuentes!$E$2:$E$622</definedName>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5822" uniqueCount="2375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5823" uniqueCount="2376">
   <si>
     <t>Año de protocolo</t>
   </si>
@@ -7174,10 +7174,13 @@
     <t>Aplicación del Diseño Curricular y Pedagógico Intercurricular Bilingüe</t>
   </si>
   <si>
-    <t>BB Ley Inicial CLP</t>
-  </si>
-  <si>
-    <t>BB Ley Inicial USD</t>
+    <t>Presupuesto Evaluación / Ley</t>
+  </si>
+  <si>
+    <t>Presupuesto Ley Inicial CLP</t>
+  </si>
+  <si>
+    <t>Presupuesto Ley Inicial USD</t>
   </si>
 </sst>
 </file>
@@ -7786,7 +7789,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="43" applyFont="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
@@ -7854,6 +7857,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8315,13 +8319,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS622"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:AT622"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AN2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AR2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AR1" sqref="AR1"/>
+      <selection pane="bottomRight" activeCell="AS1" sqref="AS1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8344,9 +8349,10 @@
     <col min="24" max="43" width="17.7109375" customWidth="1"/>
     <col min="44" max="44" width="24.42578125" style="10" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="24.85546875" style="43" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -8477,13 +8483,16 @@
         <v>2035</v>
       </c>
       <c r="AR1" s="7" t="s">
+        <v>2374</v>
+      </c>
+      <c r="AS1" s="45" t="s">
+        <v>2375</v>
+      </c>
+      <c r="AT1" s="7" t="s">
         <v>2373</v>
       </c>
-      <c r="AS1" s="45" t="s">
-        <v>2374</v>
-      </c>
-    </row>
-    <row r="2" spans="1:45" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:46" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30">
         <v>2020</v>
       </c>
@@ -8598,8 +8607,12 @@
         <v>2371</v>
       </c>
       <c r="AS2" s="46"/>
-    </row>
-    <row r="3" spans="1:45" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AT2" s="49" t="e">
+        <f>J2 / AR2</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:46" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="30">
         <v>2020</v>
       </c>
@@ -8701,8 +8714,12 @@
         <v>45528855000</v>
       </c>
       <c r="AS3" s="46"/>
-    </row>
-    <row r="4" spans="1:45" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AT3" s="33">
+        <f t="shared" ref="AT3:AT66" si="0">J3 / AR3</f>
+        <v>1.025613317093083</v>
+      </c>
+    </row>
+    <row r="4" spans="1:46" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30">
         <v>2020</v>
       </c>
@@ -8813,8 +8830,12 @@
         <v>2371</v>
       </c>
       <c r="AS4" s="46"/>
-    </row>
-    <row r="5" spans="1:45" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AT4" s="33" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:46" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="30">
         <v>2020</v>
       </c>
@@ -8913,8 +8934,12 @@
         <v>44937770000</v>
       </c>
       <c r="AS5" s="46"/>
-    </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT5" s="33">
+        <f t="shared" si="0"/>
+        <v>1.6631221353440546</v>
+      </c>
+    </row>
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>2020</v>
       </c>
@@ -8994,12 +9019,16 @@
       <c r="AC6" t="s">
         <v>1719</v>
       </c>
-      <c r="AR6" s="10">
+      <c r="AR6" s="36">
         <f xml:space="preserve"> 505952 * 1000</f>
         <v>505952000</v>
       </c>
-    </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT6">
+        <f t="shared" si="0"/>
+        <v>40.456227072923916</v>
+      </c>
+    </row>
+    <row r="7" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>2020</v>
       </c>
@@ -9089,8 +9118,12 @@
         <f xml:space="preserve"> (16343155 + 66460854) * 1000</f>
         <v>82804009000</v>
       </c>
-    </row>
-    <row r="8" spans="1:45" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AT7">
+        <f t="shared" si="0"/>
+        <v>1.0221087242285576</v>
+      </c>
+    </row>
+    <row r="8" spans="1:46" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="30">
         <v>2020</v>
       </c>
@@ -9187,8 +9220,12 @@
         <v>11405939000</v>
       </c>
       <c r="AS8" s="46"/>
-    </row>
-    <row r="9" spans="1:45" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AT8" s="33">
+        <f t="shared" si="0"/>
+        <v>1.0118412872451799</v>
+      </c>
+    </row>
+    <row r="9" spans="1:46" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="30">
         <v>2020</v>
       </c>
@@ -9298,8 +9335,12 @@
         <v>2371</v>
       </c>
       <c r="AS9" s="46"/>
-    </row>
-    <row r="10" spans="1:45" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AT9" s="33" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:46" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="30">
         <v>2020</v>
       </c>
@@ -9408,8 +9449,12 @@
         <v>592675506000</v>
       </c>
       <c r="AS10" s="46"/>
-    </row>
-    <row r="11" spans="1:45" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AT10" s="33">
+        <f t="shared" si="0"/>
+        <v>0.56473229720412976</v>
+      </c>
+    </row>
+    <row r="11" spans="1:46" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="30">
         <v>2020</v>
       </c>
@@ -9509,8 +9554,12 @@
         <v>15328954000</v>
       </c>
       <c r="AS11" s="46"/>
-    </row>
-    <row r="12" spans="1:45" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AT11" s="33">
+        <f t="shared" si="0"/>
+        <v>1.0460596332926564</v>
+      </c>
+    </row>
+    <row r="12" spans="1:46" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="30">
         <v>2020</v>
       </c>
@@ -9610,8 +9659,12 @@
         <v>10105074000</v>
       </c>
       <c r="AS12" s="46"/>
-    </row>
-    <row r="13" spans="1:45" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AT12" s="33">
+        <f t="shared" si="0"/>
+        <v>1.0805462681421234</v>
+      </c>
+    </row>
+    <row r="13" spans="1:46" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="30">
         <v>2020</v>
       </c>
@@ -9705,13 +9758,17 @@
       <c r="AG13" s="33" t="s">
         <v>1859</v>
       </c>
-      <c r="AR13" s="10">
+      <c r="AR13" s="36">
         <f xml:space="preserve"> 24562966 * 1000</f>
         <v>24562966000</v>
       </c>
       <c r="AS13" s="46"/>
-    </row>
-    <row r="14" spans="1:45" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AT13" s="33">
+        <f t="shared" si="0"/>
+        <v>3.0426700098025621</v>
+      </c>
+    </row>
+    <row r="14" spans="1:46" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="30">
         <v>2020</v>
       </c>
@@ -9794,8 +9851,12 @@
         <v>2371</v>
       </c>
       <c r="AS14" s="46"/>
-    </row>
-    <row r="15" spans="1:45" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AT14" s="33" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:46" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="30">
         <v>2020</v>
       </c>
@@ -9893,8 +9954,12 @@
         <v>862640663000</v>
       </c>
       <c r="AS15" s="46"/>
-    </row>
-    <row r="16" spans="1:45" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AT15" s="33">
+        <f t="shared" si="0"/>
+        <v>1.0000896514659199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:46" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="30">
         <v>2020</v>
       </c>
@@ -9989,8 +10054,12 @@
         <v>10064158000</v>
       </c>
       <c r="AS16" s="46"/>
-    </row>
-    <row r="17" spans="1:45" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AT16" s="33">
+        <f t="shared" si="0"/>
+        <v>1.0875226720407212</v>
+      </c>
+    </row>
+    <row r="17" spans="1:46" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="30">
         <v>2020</v>
       </c>
@@ -10110,8 +10179,12 @@
         <v>643551141000</v>
       </c>
       <c r="AS17" s="46"/>
-    </row>
-    <row r="18" spans="1:45" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AT17" s="33">
+        <f t="shared" si="0"/>
+        <v>0.99999978090319319</v>
+      </c>
+    </row>
+    <row r="18" spans="1:46" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="30">
         <v>2020</v>
       </c>
@@ -10228,8 +10301,12 @@
         <v>41783171000</v>
       </c>
       <c r="AS18" s="46"/>
-    </row>
-    <row r="19" spans="1:45" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AT18" s="33">
+        <f t="shared" si="0"/>
+        <v>1.3531285119552079</v>
+      </c>
+    </row>
+    <row r="19" spans="1:46" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="30">
         <v>2019</v>
       </c>
@@ -10342,12 +10419,16 @@
         <v>2016</v>
       </c>
       <c r="AR19" s="10">
-        <f t="shared" ref="AR18:AR21" si="0" xml:space="preserve"> 1163741 * 1000</f>
+        <f t="shared" ref="AR19:AR21" si="1" xml:space="preserve"> 1163741 * 1000</f>
         <v>1163741000</v>
       </c>
       <c r="AS19" s="46"/>
-    </row>
-    <row r="20" spans="1:45" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AT19" s="33">
+        <f t="shared" si="0"/>
+        <v>5.8775431131153751E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:46" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="30">
         <v>2019</v>
       </c>
@@ -10467,13 +10548,17 @@
       <c r="AQ20" s="33" t="s">
         <v>2039</v>
       </c>
-      <c r="AR20" s="10">
+      <c r="AR20" s="36">
         <f xml:space="preserve"> 6964632 * 1000</f>
         <v>6964632000</v>
       </c>
       <c r="AS20" s="46"/>
-    </row>
-    <row r="21" spans="1:45" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AT20" s="33">
+        <f t="shared" si="0"/>
+        <v>1430.7475254973988</v>
+      </c>
+    </row>
+    <row r="21" spans="1:46" s="38" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>2019</v>
       </c>
@@ -10544,12 +10629,16 @@
         <v>2002</v>
       </c>
       <c r="AR21" s="36">
+        <f t="shared" si="1"/>
+        <v>1163741000</v>
+      </c>
+      <c r="AS21" s="47"/>
+      <c r="AT21" s="38">
         <f t="shared" si="0"/>
-        <v>1163741000</v>
-      </c>
-      <c r="AS21" s="47"/>
-    </row>
-    <row r="22" spans="1:45" x14ac:dyDescent="0.25">
+        <v>5.8775431131153751E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>2019</v>
       </c>
@@ -10619,8 +10708,12 @@
         <f xml:space="preserve"> 8900342 * 1000</f>
         <v>8900342000</v>
       </c>
-    </row>
-    <row r="23" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT22">
+        <f t="shared" si="0"/>
+        <v>0.99996157451028289</v>
+      </c>
+    </row>
+    <row r="23" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>2019</v>
       </c>
@@ -10688,8 +10781,12 @@
         <f xml:space="preserve"> 9352577 * 1000</f>
         <v>9352577000</v>
       </c>
-    </row>
-    <row r="24" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT23">
+        <f t="shared" si="0"/>
+        <v>1.1820246975780044</v>
+      </c>
+    </row>
+    <row r="24" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>2019</v>
       </c>
@@ -10758,8 +10855,12 @@
         <f xml:space="preserve"> 3348243 * 1000</f>
         <v>3348243000</v>
       </c>
-    </row>
-    <row r="25" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT24">
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>2019</v>
       </c>
@@ -10825,12 +10926,16 @@
         <f>IF( J25="s.i", "s.i", IF(ISBLANK(J25),"Actualizando información",IFERROR(J25 / VLOOKUP(A25,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>14193373118.283466</v>
       </c>
-      <c r="AR25" s="10">
+      <c r="AR25" s="36">
         <f xml:space="preserve"> 3435061 * 1000</f>
         <v>3435061000</v>
       </c>
-    </row>
-    <row r="26" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT25">
+        <f t="shared" si="0"/>
+        <v>5.2834578483467975</v>
+      </c>
+    </row>
+    <row r="26" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>2019</v>
       </c>
@@ -10898,8 +11003,12 @@
         <f xml:space="preserve"> 13822440 * 1000</f>
         <v>13822440000</v>
       </c>
-    </row>
-    <row r="27" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT26">
+        <f t="shared" si="0"/>
+        <v>1.3673418007240401</v>
+      </c>
+    </row>
+    <row r="27" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>2019</v>
       </c>
@@ -10967,8 +11076,12 @@
       <c r="AR27" s="10" t="s">
         <v>2371</v>
       </c>
-    </row>
-    <row r="28" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT27" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>2019</v>
       </c>
@@ -11033,8 +11146,12 @@
         <f xml:space="preserve"> 1163741 * 1000</f>
         <v>1163741000</v>
       </c>
-    </row>
-    <row r="29" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT28">
+        <f t="shared" si="0"/>
+        <v>5.8775431131153751E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>2019</v>
       </c>
@@ -11100,8 +11217,12 @@
         <f xml:space="preserve"> (4063743 + 3011254) * 1000</f>
         <v>7074997000</v>
       </c>
-    </row>
-    <row r="30" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT29">
+        <f t="shared" si="0"/>
+        <v>0.86487669182050542</v>
+      </c>
+    </row>
+    <row r="30" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>2019</v>
       </c>
@@ -11169,8 +11290,12 @@
         <f xml:space="preserve"> 7390946 * 1000</f>
         <v>7390946000</v>
       </c>
-    </row>
-    <row r="31" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT30">
+        <f t="shared" si="0"/>
+        <v>1.0446565297595194</v>
+      </c>
+    </row>
+    <row r="31" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>2019</v>
       </c>
@@ -11232,12 +11357,16 @@
         <f>IF( J31="s.i", "s.i", IF(ISBLANK(J31),"Actualizando información",IFERROR(J31 / VLOOKUP(A31,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>62394847146.902206</v>
       </c>
-      <c r="AR31" s="10">
+      <c r="AR31" s="36">
         <f xml:space="preserve"> 40590781 * 1000</f>
         <v>40590781000</v>
       </c>
-    </row>
-    <row r="32" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT31">
+        <f t="shared" si="0"/>
+        <v>1.9655694725361406</v>
+      </c>
+    </row>
+    <row r="32" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>2019</v>
       </c>
@@ -11302,8 +11431,12 @@
       <c r="AR32" s="10" t="s">
         <v>2371</v>
       </c>
-    </row>
-    <row r="33" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT32" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>2019</v>
       </c>
@@ -11365,12 +11498,16 @@
         <f>IF( J33="s.i", "s.i", IF(ISBLANK(J33),"Actualizando información",IFERROR(J33 / VLOOKUP(A33,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>5592418148408.835</v>
       </c>
-      <c r="AR33" s="10">
+      <c r="AR33" s="36">
         <f xml:space="preserve"> 5251170 * 1000</f>
         <v>5251170000</v>
       </c>
-    </row>
-    <row r="34" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT33">
+        <f t="shared" si="0"/>
+        <v>1361.7915626422302</v>
+      </c>
+    </row>
+    <row r="34" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>2019</v>
       </c>
@@ -11436,8 +11573,12 @@
         <f xml:space="preserve"> 3322121 * 1000</f>
         <v>3322121000</v>
       </c>
-    </row>
-    <row r="35" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT34">
+        <f t="shared" si="0"/>
+        <v>1.4183709744467465</v>
+      </c>
+    </row>
+    <row r="35" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>2018</v>
       </c>
@@ -11496,8 +11637,12 @@
         <f xml:space="preserve"> 21671920 * 1000</f>
         <v>21671920000</v>
       </c>
-    </row>
-    <row r="36" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT35">
+        <f t="shared" si="0"/>
+        <v>1.8708025407993384E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>2018</v>
       </c>
@@ -11564,8 +11709,12 @@
       <c r="AR36" s="10" t="s">
         <v>2371</v>
       </c>
-    </row>
-    <row r="37" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT36" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="37" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>2018</v>
       </c>
@@ -11634,8 +11783,12 @@
       <c r="AR37" s="10" t="s">
         <v>2371</v>
       </c>
-    </row>
-    <row r="38" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT37" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="38" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>2018</v>
       </c>
@@ -11702,8 +11855,12 @@
       <c r="AR38" s="10" t="s">
         <v>2371</v>
       </c>
-    </row>
-    <row r="39" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT38" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="39" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>2018</v>
       </c>
@@ -11767,8 +11924,12 @@
       <c r="AR39" s="10" t="s">
         <v>2371</v>
       </c>
-    </row>
-    <row r="40" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT39" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="40" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>2018</v>
       </c>
@@ -11830,8 +11991,12 @@
       <c r="AR40" s="10" t="s">
         <v>2371</v>
       </c>
-    </row>
-    <row r="41" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT40" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="41" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>2018</v>
       </c>
@@ -11889,12 +12054,16 @@
         <f>IF( J41="s.i", "s.i", IF(ISBLANK(J41),"Actualizando información",IFERROR(J41 / VLOOKUP(A41,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>8799969384.2679996</v>
       </c>
-      <c r="AR41" s="10">
+      <c r="AR41" s="36">
         <f xml:space="preserve"> 1057262 * 1000</f>
         <v>1057262000</v>
       </c>
-    </row>
-    <row r="42" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT41">
+        <f t="shared" si="0"/>
+        <v>10.366399246355208</v>
+      </c>
+    </row>
+    <row r="42" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>2018</v>
       </c>
@@ -11958,12 +12127,16 @@
         <f>IF( J42="s.i", "s.i", IF(ISBLANK(J42),"Actualizando información",IFERROR(J42 / VLOOKUP(A42,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>22804446209.122238</v>
       </c>
-      <c r="AR42" s="10">
+      <c r="AR42" s="36">
         <f xml:space="preserve"> (1356365 + 1453073) * 1000</f>
         <v>2809438000</v>
       </c>
-    </row>
-    <row r="43" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT42">
+        <f t="shared" si="0"/>
+        <v>10.109495208650271</v>
+      </c>
+    </row>
+    <row r="43" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>2018</v>
       </c>
@@ -12031,8 +12204,12 @@
         <f xml:space="preserve"> 70242219 * 1000</f>
         <v>70242219000</v>
       </c>
-    </row>
-    <row r="44" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT43">
+        <f t="shared" si="0"/>
+        <v>1.0097915613969997</v>
+      </c>
+    </row>
+    <row r="44" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>2018</v>
       </c>
@@ -12100,8 +12277,12 @@
         <f xml:space="preserve"> 6992399 * 1000</f>
         <v>6992399000</v>
       </c>
-    </row>
-    <row r="45" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT44">
+        <f t="shared" si="0"/>
+        <v>9.7462973723324426E-4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>2018</v>
       </c>
@@ -12171,8 +12352,12 @@
         <f xml:space="preserve"> 5616319 * 1000</f>
         <v>5616319000</v>
       </c>
-    </row>
-    <row r="46" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT45">
+        <f t="shared" si="0"/>
+        <v>1.0262949807516275</v>
+      </c>
+    </row>
+    <row r="46" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>2018</v>
       </c>
@@ -12237,8 +12422,12 @@
       <c r="AR46" s="10" t="s">
         <v>2371</v>
       </c>
-    </row>
-    <row r="47" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT46" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="47" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>2018</v>
       </c>
@@ -12299,8 +12488,12 @@
       <c r="AR47" s="10" t="s">
         <v>2371</v>
       </c>
-    </row>
-    <row r="48" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT47" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="48" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>2018</v>
       </c>
@@ -12362,12 +12555,16 @@
         <f>IF( J48="s.i", "s.i", IF(ISBLANK(J48),"Actualizando información",IFERROR(J48 / VLOOKUP(A48,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>10550328258.146124</v>
       </c>
-      <c r="AR48" s="10">
+      <c r="AR48" s="36">
         <f xml:space="preserve"> 3591821 * 1000</f>
         <v>3591821000</v>
       </c>
-    </row>
-    <row r="49" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT48">
+        <f t="shared" si="0"/>
+        <v>3.6583114804440422</v>
+      </c>
+    </row>
+    <row r="49" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>2018</v>
       </c>
@@ -12433,8 +12630,12 @@
         <f xml:space="preserve"> 12766518 * 1000</f>
         <v>12766518000</v>
       </c>
-    </row>
-    <row r="50" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT49">
+        <f t="shared" si="0"/>
+        <v>1.0292548054214938</v>
+      </c>
+    </row>
+    <row r="50" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>2018</v>
       </c>
@@ -12496,12 +12697,16 @@
         <f>IF( J50="s.i", "s.i", IF(ISBLANK(J50),"Actualizando información",IFERROR(J50 / VLOOKUP(A50,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>10550328258.146124</v>
       </c>
-      <c r="AR50" s="10">
+      <c r="AR50" s="36">
         <f xml:space="preserve"> 4951278 * 1000</f>
         <v>4951278000</v>
       </c>
-    </row>
-    <row r="51" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT50">
+        <f t="shared" si="0"/>
+        <v>2.6538602760741772</v>
+      </c>
+    </row>
+    <row r="51" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>2018</v>
       </c>
@@ -12569,8 +12774,12 @@
         <f xml:space="preserve"> 40465981 * 1000</f>
         <v>40465981000</v>
       </c>
-    </row>
-    <row r="52" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT51">
+        <f t="shared" si="0"/>
+        <v>1.0007786787622917</v>
+      </c>
+    </row>
+    <row r="52" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>2018</v>
       </c>
@@ -12635,8 +12844,12 @@
       <c r="AR52" s="10" t="s">
         <v>2371</v>
       </c>
-    </row>
-    <row r="53" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT52" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="53" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>2018</v>
       </c>
@@ -12702,8 +12915,12 @@
         <f xml:space="preserve"> 4983191 * 1000</f>
         <v>4983191000</v>
       </c>
-    </row>
-    <row r="54" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT53">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>2018</v>
       </c>
@@ -12773,8 +12990,12 @@
         <f xml:space="preserve"> 10050435 * 1000</f>
         <v>10050435000</v>
       </c>
-    </row>
-    <row r="55" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT54">
+        <f t="shared" si="0"/>
+        <v>1.0207518381045197</v>
+      </c>
+    </row>
+    <row r="55" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>2018</v>
       </c>
@@ -12844,8 +13065,12 @@
         <f xml:space="preserve"> 33552627 * 1000</f>
         <v>33552627000</v>
       </c>
-    </row>
-    <row r="56" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT55">
+        <f t="shared" si="0"/>
+        <v>1.0207248451812729</v>
+      </c>
+    </row>
+    <row r="56" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>2018</v>
       </c>
@@ -12915,8 +13140,12 @@
         <f xml:space="preserve"> 39954549 * 1000</f>
         <v>39954549000</v>
       </c>
-    </row>
-    <row r="57" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT56">
+        <f t="shared" si="0"/>
+        <v>0.98058556486271442</v>
+      </c>
+    </row>
+    <row r="57" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>2017</v>
       </c>
@@ -12980,12 +13209,16 @@
         <f>IF( J57="s.i", "s.i", IF(ISBLANK(J57),"Actualizando información",IFERROR(J57 / VLOOKUP(A57,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>10732511591624.725</v>
       </c>
-      <c r="AR57" s="10">
+      <c r="AR57" s="36">
         <f xml:space="preserve"> 11725662 * 1000</f>
         <v>11725662000</v>
       </c>
-    </row>
-    <row r="58" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT57">
+        <f t="shared" si="0"/>
+        <v>1113.6816838145257</v>
+      </c>
+    </row>
+    <row r="58" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>2017</v>
       </c>
@@ -13051,8 +13284,12 @@
         <f xml:space="preserve"> 11322478 * 1000</f>
         <v>11322478000</v>
       </c>
-    </row>
-    <row r="59" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT58">
+        <f t="shared" si="0"/>
+        <v>0.78329319783178208</v>
+      </c>
+    </row>
+    <row r="59" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>2017</v>
       </c>
@@ -13120,8 +13357,12 @@
         <f xml:space="preserve"> 13314863 * 1000</f>
         <v>13314863000</v>
       </c>
-    </row>
-    <row r="60" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT59">
+        <f t="shared" si="0"/>
+        <v>1.2653652538520299</v>
+      </c>
+    </row>
+    <row r="60" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>2017</v>
       </c>
@@ -13191,8 +13432,12 @@
         <f xml:space="preserve"> 51931282 * 1000</f>
         <v>51931282000</v>
       </c>
-    </row>
-    <row r="61" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT60">
+        <f t="shared" si="0"/>
+        <v>1.7388064673620034</v>
+      </c>
+    </row>
+    <row r="61" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>2017</v>
       </c>
@@ -13260,12 +13505,16 @@
         <f>IF( J61="s.i", "s.i", IF(ISBLANK(J61),"Actualizando información",IFERROR(J61 / VLOOKUP(A61,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>74213550369.332367</v>
       </c>
-      <c r="AR61" s="10">
+      <c r="AR61" s="36">
         <f xml:space="preserve"> 36909596 * 1000</f>
         <v>36909596000</v>
       </c>
-    </row>
-    <row r="62" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT61">
+        <f t="shared" si="0"/>
+        <v>2.4464762226061754</v>
+      </c>
+    </row>
+    <row r="62" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>2017</v>
       </c>
@@ -13337,8 +13586,12 @@
         <f xml:space="preserve"> 26854830 * 1000</f>
         <v>26854830000</v>
       </c>
-    </row>
-    <row r="63" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT62">
+        <f t="shared" si="0"/>
+        <v>0.48743455087967413</v>
+      </c>
+    </row>
+    <row r="63" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>2017</v>
       </c>
@@ -13406,12 +13659,16 @@
         <f>IF( J63="s.i", "s.i", IF(ISBLANK(J63),"Actualizando información",IFERROR(J63 / VLOOKUP(A63,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>22224886011548.609</v>
       </c>
-      <c r="AR63" s="10">
-        <f xml:space="preserve"> 10060686 * 1000</f>
-        <v>10060686000</v>
-      </c>
-    </row>
-    <row r="64" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AR63" s="36">
+        <f xml:space="preserve"> 26854830 * 1000</f>
+        <v>26854830000</v>
+      </c>
+      <c r="AT63">
+        <f t="shared" si="0"/>
+        <v>1006.9646316882289</v>
+      </c>
+    </row>
+    <row r="64" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>2017</v>
       </c>
@@ -13480,8 +13737,12 @@
       <c r="AR64" s="10" t="s">
         <v>2371</v>
       </c>
-    </row>
-    <row r="65" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT64" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="65" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>2017</v>
       </c>
@@ -13553,8 +13814,12 @@
         <f xml:space="preserve"> 47601821 * 1000</f>
         <v>47601821000</v>
       </c>
-    </row>
-    <row r="66" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT65">
+        <f t="shared" si="0"/>
+        <v>1.2056261461089903</v>
+      </c>
+    </row>
+    <row r="66" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>2017</v>
       </c>
@@ -13620,12 +13885,16 @@
         <f>IF( J66="s.i", "s.i", IF(ISBLANK(J66),"Actualizando información",IFERROR(J66 / VLOOKUP(A66,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>7057203601335.0723</v>
       </c>
-      <c r="AR66" s="10">
+      <c r="AR66" s="36">
         <f xml:space="preserve"> (230133 + 7356890) * 1000</f>
         <v>7587023000</v>
       </c>
-    </row>
-    <row r="67" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT66">
+        <f t="shared" si="0"/>
+        <v>1131.7703926823472</v>
+      </c>
+    </row>
+    <row r="67" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>2017</v>
       </c>
@@ -13695,8 +13964,12 @@
         <f xml:space="preserve"> 7744158 * 1000</f>
         <v>7744158000</v>
       </c>
-    </row>
-    <row r="68" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT67">
+        <f t="shared" ref="AT67:AT130" si="2">J67 / AR67</f>
+        <v>1.0759078004348568</v>
+      </c>
+    </row>
+    <row r="68" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>2017</v>
       </c>
@@ -13766,8 +14039,12 @@
         <f xml:space="preserve"> 13468518 * 1000</f>
         <v>13468518000</v>
       </c>
-    </row>
-    <row r="69" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT68">
+        <f t="shared" si="2"/>
+        <v>0.94981340931496694</v>
+      </c>
+    </row>
+    <row r="69" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>2017</v>
       </c>
@@ -13837,8 +14114,12 @@
         <f xml:space="preserve"> 11522889 * 1000</f>
         <v>11522889000</v>
       </c>
-    </row>
-    <row r="70" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT69">
+        <f t="shared" si="2"/>
+        <v>1.112047508224717</v>
+      </c>
+    </row>
+    <row r="70" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>2017</v>
       </c>
@@ -13904,12 +14185,16 @@
         <f>IF( J70="s.i", "s.i", IF(ISBLANK(J70),"Actualizando información",IFERROR(J70 / VLOOKUP(A70,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>5406180988288.4434</v>
       </c>
-      <c r="AR70" s="10">
+      <c r="AR70" s="36">
         <f xml:space="preserve"> 4930461 * 1000</f>
         <v>4930461000</v>
       </c>
-    </row>
-    <row r="71" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT70">
+        <f t="shared" si="2"/>
+        <v>1334.1360980240995</v>
+      </c>
+    </row>
+    <row r="71" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>2017</v>
       </c>
@@ -13975,12 +14260,16 @@
         <f>IF( J71="s.i", "s.i", IF(ISBLANK(J71),"Actualizando información",IFERROR(J71 / VLOOKUP(A71,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>7568327594493.4629</v>
       </c>
-      <c r="AR71" s="10">
+      <c r="AR71" s="36">
         <f xml:space="preserve"> (59658 + 7556828) * 1000</f>
         <v>7616486000</v>
       </c>
-    </row>
-    <row r="72" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT71">
+        <f t="shared" si="2"/>
+        <v>1209.0446959398337</v>
+      </c>
+    </row>
+    <row r="72" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>2017</v>
       </c>
@@ -14046,12 +14335,16 @@
         <f>IF( J72="s.i", "s.i", IF(ISBLANK(J72),"Actualizando información",IFERROR(J72 / VLOOKUP(A72,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>6772908221589.3262</v>
       </c>
-      <c r="AR72" s="10">
+      <c r="AR72" s="36">
         <f xml:space="preserve"> 8240855 * 1000</f>
         <v>8240855000</v>
       </c>
-    </row>
-    <row r="73" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT72">
+        <f t="shared" si="2"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>2017</v>
       </c>
@@ -14120,8 +14413,12 @@
       <c r="AR73" s="10" t="s">
         <v>2371</v>
       </c>
-    </row>
-    <row r="74" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT73" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="74" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>2017</v>
       </c>
@@ -14188,8 +14485,12 @@
       <c r="AR74" s="10" t="s">
         <v>2371</v>
       </c>
-    </row>
-    <row r="75" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT74" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="75" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>2017</v>
       </c>
@@ -14256,8 +14557,12 @@
       <c r="AR75" s="10" t="s">
         <v>2371</v>
       </c>
-    </row>
-    <row r="76" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT75" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="76" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>2017</v>
       </c>
@@ -14325,8 +14630,12 @@
         <f xml:space="preserve"> 1261045 * 1000</f>
         <v>1261045000</v>
       </c>
-    </row>
-    <row r="77" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT76">
+        <f t="shared" si="2"/>
+        <v>0.99996431530992158</v>
+      </c>
+    </row>
+    <row r="77" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>2017</v>
       </c>
@@ -14394,12 +14703,16 @@
         <f>IF( J77="s.i", "s.i", IF(ISBLANK(J77),"Actualizando información",IFERROR(J77 / VLOOKUP(A77,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>31372253591839.508</v>
       </c>
-      <c r="AR77" s="10">
+      <c r="AR77" s="36">
         <f xml:space="preserve"> 27217404 * 1000</f>
         <v>27217404000</v>
       </c>
-    </row>
-    <row r="78" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT77">
+        <f t="shared" si="2"/>
+        <v>1402.4781349463012</v>
+      </c>
+    </row>
+    <row r="78" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>2017</v>
       </c>
@@ -14465,12 +14778,16 @@
         <f>IF( J78="s.i", "s.i", IF(ISBLANK(J78),"Actualizando información",IFERROR(J78 / VLOOKUP(A78,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>31372253591839.508</v>
       </c>
-      <c r="AR78" s="10">
+      <c r="AR78" s="36">
         <f xml:space="preserve"> (954890 + 4676246 + 1709309) * 1000</f>
         <v>7340445000</v>
       </c>
-    </row>
-    <row r="79" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT78">
+        <f t="shared" si="2"/>
+        <v>5200.2043472841224</v>
+      </c>
+    </row>
+    <row r="79" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>2017</v>
       </c>
@@ -14536,12 +14853,16 @@
         <f>IF( J79="s.i", "s.i", IF(ISBLANK(J79),"Actualizando información",IFERROR(J79 / VLOOKUP(A79,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>9453836180037.5098</v>
       </c>
-      <c r="AR79" s="10">
+      <c r="AR79" s="36">
         <f>11502842 * 1000</f>
         <v>11502842000</v>
       </c>
-    </row>
-    <row r="80" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT79">
+        <f t="shared" si="2"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>2017</v>
       </c>
@@ -14609,8 +14930,12 @@
         <f>16660641 * 1000</f>
         <v>16660641000</v>
       </c>
-    </row>
-    <row r="81" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT80">
+        <f t="shared" si="2"/>
+        <v>1.1030788071119233</v>
+      </c>
+    </row>
+    <row r="81" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>2017</v>
       </c>
@@ -14679,8 +15004,12 @@
       <c r="AR81" s="10" t="s">
         <v>2371</v>
       </c>
-    </row>
-    <row r="82" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT81" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="82" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>2016</v>
       </c>
@@ -14747,11 +15076,15 @@
         <v>29056725512.718685</v>
       </c>
       <c r="AR82" s="10">
-        <f t="shared" ref="AR82:AR83" si="1">22728030 * 1000</f>
+        <f t="shared" ref="AR82:AR83" si="3">22728030 * 1000</f>
         <v>22728030000</v>
       </c>
-    </row>
-    <row r="83" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT82">
+        <f t="shared" si="2"/>
+        <v>1.4845513227499261</v>
+      </c>
+    </row>
+    <row r="83" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>2016</v>
       </c>
@@ -14818,11 +15151,15 @@
         <v>29056725512.718685</v>
       </c>
       <c r="AR83" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>22728030000</v>
       </c>
-    </row>
-    <row r="84" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT83">
+        <f t="shared" si="2"/>
+        <v>1.4845513227499261</v>
+      </c>
+    </row>
+    <row r="84" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>2016</v>
       </c>
@@ -14887,8 +15224,12 @@
       <c r="AR84" s="10" t="s">
         <v>2371</v>
       </c>
-    </row>
-    <row r="85" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT84" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="85" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>2016</v>
       </c>
@@ -14956,8 +15297,12 @@
         <f>57221053 * 1000</f>
         <v>57221053000</v>
       </c>
-    </row>
-    <row r="86" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT85">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>2016</v>
       </c>
@@ -15025,8 +15370,12 @@
         <f>7904996 * 1000</f>
         <v>7904996000</v>
       </c>
-    </row>
-    <row r="87" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT86">
+        <f t="shared" si="2"/>
+        <v>1.0000005060091113</v>
+      </c>
+    </row>
+    <row r="87" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>2016</v>
       </c>
@@ -15094,8 +15443,12 @@
         <f>5355117 * 1000</f>
         <v>5355117000</v>
       </c>
-    </row>
-    <row r="88" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT87">
+        <f t="shared" si="2"/>
+        <v>1.6087416950927496</v>
+      </c>
+    </row>
+    <row r="88" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>2016</v>
       </c>
@@ -15163,8 +15516,12 @@
         <f>124006720 * 1000</f>
         <v>124006720000</v>
       </c>
-    </row>
-    <row r="89" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT88">
+        <f t="shared" si="2"/>
+        <v>0.16853925335659228</v>
+      </c>
+    </row>
+    <row r="89" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>2016</v>
       </c>
@@ -15234,8 +15591,12 @@
         <f>10738110 * 1000</f>
         <v>10738110000</v>
       </c>
-    </row>
-    <row r="90" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT89">
+        <f t="shared" si="2"/>
+        <v>0.15524147173012756</v>
+      </c>
+    </row>
+    <row r="90" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>2016</v>
       </c>
@@ -15300,8 +15661,12 @@
         <f>10738110 * 1000</f>
         <v>10738110000</v>
       </c>
-    </row>
-    <row r="91" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT90" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="91" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>2016</v>
       </c>
@@ -15366,8 +15731,12 @@
       <c r="AR91" s="10" t="s">
         <v>2371</v>
       </c>
-    </row>
-    <row r="92" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT91" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="92" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>2016</v>
       </c>
@@ -15432,8 +15801,12 @@
       <c r="AR92" s="10" t="s">
         <v>2371</v>
       </c>
-    </row>
-    <row r="93" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT92" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="93" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>2016</v>
       </c>
@@ -15503,8 +15876,12 @@
         <f>6203908 * 1000</f>
         <v>6203908000</v>
       </c>
-    </row>
-    <row r="94" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT93">
+        <f t="shared" si="2"/>
+        <v>1.0299999613147068</v>
+      </c>
+    </row>
+    <row r="94" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>2016</v>
       </c>
@@ -15567,8 +15944,12 @@
         <f>498240 * 1000</f>
         <v>498240000</v>
       </c>
-    </row>
-    <row r="95" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT94" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="95" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>2016</v>
       </c>
@@ -15633,8 +16014,12 @@
       <c r="AR95" s="10" t="s">
         <v>2371</v>
       </c>
-    </row>
-    <row r="96" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT95" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="96" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>2016</v>
       </c>
@@ -15703,8 +16088,12 @@
       <c r="AR96" s="10" t="s">
         <v>2371</v>
       </c>
-    </row>
-    <row r="97" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT96" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="97" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>2016</v>
       </c>
@@ -15773,8 +16162,12 @@
       <c r="AR97" s="10" t="s">
         <v>2371</v>
       </c>
-    </row>
-    <row r="98" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT97" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="98" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>2016</v>
       </c>
@@ -15845,8 +16238,12 @@
       <c r="AR98" s="10" t="s">
         <v>2371</v>
       </c>
-    </row>
-    <row r="99" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT98" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="99" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>2016</v>
       </c>
@@ -15912,8 +16309,12 @@
         <f>4905439 * 1000</f>
         <v>4905439000</v>
       </c>
-    </row>
-    <row r="100" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT99">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>2016</v>
       </c>
@@ -15981,8 +16382,12 @@
         <f>22728030 * 1000</f>
         <v>22728030000</v>
       </c>
-    </row>
-    <row r="101" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT100">
+        <f t="shared" si="2"/>
+        <v>1.4845513227499261</v>
+      </c>
+    </row>
+    <row r="101" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>2016</v>
       </c>
@@ -16011,7 +16416,7 @@
         <v>623</v>
       </c>
       <c r="J101" s="10">
-        <f t="shared" ref="J101:J103" si="2" xml:space="preserve"> 33740927 * 1000</f>
+        <f t="shared" ref="J101:J103" si="4" xml:space="preserve"> 33740927 * 1000</f>
         <v>33740927000</v>
       </c>
       <c r="K101" s="3" t="s">
@@ -16050,8 +16455,12 @@
         <f>22728030 * 1000</f>
         <v>22728030000</v>
       </c>
-    </row>
-    <row r="102" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT101">
+        <f t="shared" si="2"/>
+        <v>1.4845513227499261</v>
+      </c>
+    </row>
+    <row r="102" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>2016</v>
       </c>
@@ -16080,7 +16489,7 @@
         <v>623</v>
       </c>
       <c r="J102" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>33740927000</v>
       </c>
       <c r="K102" s="3" t="s">
@@ -16119,8 +16528,12 @@
         <f>22728030 * 1000</f>
         <v>22728030000</v>
       </c>
-    </row>
-    <row r="103" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT102">
+        <f t="shared" si="2"/>
+        <v>1.4845513227499261</v>
+      </c>
+    </row>
+    <row r="103" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>2016</v>
       </c>
@@ -16149,7 +16562,7 @@
         <v>623</v>
       </c>
       <c r="J103" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>33740927000</v>
       </c>
       <c r="K103" s="3" t="s">
@@ -16188,8 +16601,12 @@
         <f>22728030 * 1000</f>
         <v>22728030000</v>
       </c>
-    </row>
-    <row r="104" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT103">
+        <f t="shared" si="2"/>
+        <v>1.4845513227499261</v>
+      </c>
+    </row>
+    <row r="104" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>2016</v>
       </c>
@@ -16254,8 +16671,12 @@
         <f>142518629 * 1000</f>
         <v>142518629000</v>
       </c>
-    </row>
-    <row r="105" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT104" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="105" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>2016</v>
       </c>
@@ -16319,12 +16740,16 @@
         <f>IF( J105="s.i", "s.i", IF(ISBLANK(J105),"Actualizando información",IFERROR(J105 / VLOOKUP(A105,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>9518120655196.7754</v>
       </c>
-      <c r="AR105" s="10">
+      <c r="AR105" s="36">
         <f>8818742 * 1000</f>
         <v>8818742000</v>
       </c>
-    </row>
-    <row r="106" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT105">
+        <f t="shared" si="2"/>
+        <v>1253.2996202859772</v>
+      </c>
+    </row>
+    <row r="106" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>2016</v>
       </c>
@@ -16396,8 +16821,12 @@
         <f>5330565 * 1000</f>
         <v>5330565000</v>
       </c>
-    </row>
-    <row r="107" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT106">
+        <f t="shared" si="2"/>
+        <v>1.3696484331398266</v>
+      </c>
+    </row>
+    <row r="107" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>2015</v>
       </c>
@@ -16465,8 +16894,12 @@
         <f>80410508 * 1000</f>
         <v>80410508000</v>
       </c>
-    </row>
-    <row r="108" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT107">
+        <f t="shared" si="2"/>
+        <v>1.5868133925978929</v>
+      </c>
+    </row>
+    <row r="108" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>2015</v>
       </c>
@@ -16537,8 +16970,12 @@
         <f>1680526 * 1000</f>
         <v>1680526000</v>
       </c>
-    </row>
-    <row r="109" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT108" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="109" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>2015</v>
       </c>
@@ -16603,8 +17040,12 @@
         <f xml:space="preserve"> 17464958 * 1000</f>
         <v>17464958000</v>
       </c>
-    </row>
-    <row r="110" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT109">
+        <f t="shared" si="2"/>
+        <v>0.96282888284071455</v>
+      </c>
+    </row>
+    <row r="110" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>2015</v>
       </c>
@@ -16669,8 +17110,12 @@
       <c r="AR110" s="10" t="s">
         <v>2371</v>
       </c>
-    </row>
-    <row r="111" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT110" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="111" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>2015</v>
       </c>
@@ -16738,8 +17183,12 @@
         <f xml:space="preserve"> 70505472 * 1000</f>
         <v>70505472000</v>
       </c>
-    </row>
-    <row r="112" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT111">
+        <f t="shared" si="2"/>
+        <v>1.0035533128549228</v>
+      </c>
+    </row>
+    <row r="112" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>2015</v>
       </c>
@@ -16809,8 +17258,12 @@
         <f xml:space="preserve"> 4475936 * 1000</f>
         <v>4475936000</v>
       </c>
-    </row>
-    <row r="113" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT112">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>2015</v>
       </c>
@@ -16882,8 +17335,12 @@
         <f xml:space="preserve"> 50779990 * 1000</f>
         <v>50779990000</v>
       </c>
-    </row>
-    <row r="114" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT113">
+        <f t="shared" si="2"/>
+        <v>0.62488842553927249</v>
+      </c>
+    </row>
+    <row r="114" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>2015</v>
       </c>
@@ -16955,8 +17412,12 @@
         <f xml:space="preserve"> 13851853 * 1000</f>
         <v>13851853000</v>
       </c>
-    </row>
-    <row r="115" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT114">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>2015</v>
       </c>
@@ -17024,8 +17485,12 @@
         <f xml:space="preserve"> 3553501 * 1000</f>
         <v>3553501000</v>
       </c>
-    </row>
-    <row r="116" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT115">
+        <f t="shared" si="2"/>
+        <v>1.1518218230415582</v>
+      </c>
+    </row>
+    <row r="116" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>2015</v>
       </c>
@@ -17093,8 +17558,12 @@
         <f xml:space="preserve"> 98194534 * 1000</f>
         <v>98194534000</v>
       </c>
-    </row>
-    <row r="117" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT116">
+        <f t="shared" si="2"/>
+        <v>1.0107690922999848</v>
+      </c>
+    </row>
+    <row r="117" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>2015</v>
       </c>
@@ -17164,8 +17633,12 @@
         <f xml:space="preserve"> 17210637 * 1000</f>
         <v>17210637000</v>
       </c>
-    </row>
-    <row r="118" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT117">
+        <f t="shared" si="2"/>
+        <v>1.0388909486615747</v>
+      </c>
+    </row>
+    <row r="118" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>2015</v>
       </c>
@@ -17231,8 +17704,12 @@
         <f xml:space="preserve"> 6151072 * 1000</f>
         <v>6151072000</v>
       </c>
-    </row>
-    <row r="119" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT118">
+        <f t="shared" si="2"/>
+        <v>1.0092549721414414</v>
+      </c>
+    </row>
+    <row r="119" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>2015</v>
       </c>
@@ -17300,8 +17777,12 @@
         <f xml:space="preserve"> 2747591 * 1000</f>
         <v>2747591000</v>
       </c>
-    </row>
-    <row r="120" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT119">
+        <f t="shared" si="2"/>
+        <v>1.3807375260728398</v>
+      </c>
+    </row>
+    <row r="120" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>2015</v>
       </c>
@@ -17371,8 +17852,12 @@
         <f xml:space="preserve"> 4795504 * 1000</f>
         <v>4795504000</v>
       </c>
-    </row>
-    <row r="121" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT120">
+        <f t="shared" si="2"/>
+        <v>1.0292974419372813</v>
+      </c>
+    </row>
+    <row r="121" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>2015</v>
       </c>
@@ -17440,8 +17925,12 @@
         <f xml:space="preserve"> 4120000 * 1000</f>
         <v>4120000000</v>
       </c>
-    </row>
-    <row r="122" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT121">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>2015</v>
       </c>
@@ -17505,12 +17994,16 @@
         <f>IF( J122="s.i", "s.i", IF(ISBLANK(J122),"Actualizando información",IFERROR(J122 / VLOOKUP(A122,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>15446896040774.188</v>
       </c>
-      <c r="AR122" s="10">
+      <c r="AR122" s="36">
         <f xml:space="preserve"> 15439654 * 1000</f>
         <v>15439654000</v>
       </c>
-    </row>
-    <row r="123" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT122">
+        <f t="shared" si="2"/>
+        <v>1112.0459694239262</v>
+      </c>
+    </row>
+    <row r="123" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>2015</v>
       </c>
@@ -17577,8 +18070,12 @@
       <c r="AR123" s="10" t="s">
         <v>2371</v>
       </c>
-    </row>
-    <row r="124" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT123" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="124" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>2015</v>
       </c>
@@ -17651,8 +18148,12 @@
         <f xml:space="preserve"> 13624 * 1000</f>
         <v>13624000</v>
       </c>
-    </row>
-    <row r="125" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT124">
+        <f t="shared" si="2"/>
+        <v>3.579634089996273E-3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>2015</v>
       </c>
@@ -17717,8 +18218,12 @@
       <c r="AR125" s="10" t="s">
         <v>2371</v>
       </c>
-    </row>
-    <row r="126" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT125" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="126" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>2014</v>
       </c>
@@ -17782,8 +18287,12 @@
         <f xml:space="preserve"> 63272651 * 1000</f>
         <v>63272651000</v>
       </c>
-    </row>
-    <row r="127" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT126">
+        <f t="shared" si="2"/>
+        <v>1.0454302760287379</v>
+      </c>
+    </row>
+    <row r="127" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>2014</v>
       </c>
@@ -17847,12 +18356,16 @@
         <f>IF( J127="s.i", "s.i", IF(ISBLANK(J127),"Actualizando información",IFERROR(J127 / VLOOKUP(A127,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>18145654317.347717</v>
       </c>
-      <c r="AR127" s="10">
+      <c r="AR127" s="36">
         <f xml:space="preserve"> 711184 * 1000</f>
         <v>711184000</v>
       </c>
-    </row>
-    <row r="128" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT127">
+        <f t="shared" si="2"/>
+        <v>27.021699025849852</v>
+      </c>
+    </row>
+    <row r="128" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <v>2014</v>
       </c>
@@ -17916,12 +18429,16 @@
         <f>IF( J128="s.i", "s.i", IF(ISBLANK(J128),"Actualizando información",IFERROR(J128 / VLOOKUP(A128,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>18145654317.347717</v>
       </c>
-      <c r="AR128" s="10">
+      <c r="AR128" s="36">
         <f xml:space="preserve"> 1081076 * 1000</f>
         <v>1081076000</v>
       </c>
-    </row>
-    <row r="129" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AT128">
+        <f t="shared" si="2"/>
+        <v>17.776178548039177</v>
+      </c>
+    </row>
+    <row r="129" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>2014</v>
       </c>
@@ -17987,12 +18504,16 @@
         <f>IF( J129="s.i", "s.i", IF(ISBLANK(J129),"Actualizando información",IFERROR(J129 / VLOOKUP(A129,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>18145654317.347717</v>
       </c>
-      <c r="AR129" s="10">
+      <c r="AR129" s="36">
         <f xml:space="preserve"> 7165717 * 1000</f>
         <v>7165717000</v>
       </c>
-    </row>
-    <row r="130" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT129">
+        <f t="shared" si="2"/>
+        <v>2.6818530511322174</v>
+      </c>
+    </row>
+    <row r="130" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <v>2014</v>
       </c>
@@ -18056,12 +18577,16 @@
         <f>IF( J130="s.i", "s.i", IF(ISBLANK(J130),"Actualizando información",IFERROR(J130 / VLOOKUP(A130,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>18145654317.347717</v>
       </c>
-      <c r="AR130" s="10">
+      <c r="AR130" s="36">
         <f xml:space="preserve"> 7766752 * 1000</f>
         <v>7766752000</v>
       </c>
-    </row>
-    <row r="131" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT130">
+        <f t="shared" si="2"/>
+        <v>2.4743161620198508</v>
+      </c>
+    </row>
+    <row r="131" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <v>2014</v>
       </c>
@@ -18123,12 +18648,16 @@
         <f>IF( J131="s.i", "s.i", IF(ISBLANK(J131),"Actualizando información",IFERROR(J131 / VLOOKUP(A131,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>10232211851785.686</v>
       </c>
-      <c r="AR131" s="10">
+      <c r="AR131" s="36">
         <f xml:space="preserve"> 10389574 * 1000</f>
         <v>10389574000</v>
       </c>
-    </row>
-    <row r="132" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT131">
+        <f t="shared" ref="AT131:AT194" si="5">J131 / AR131</f>
+        <v>1043.0227456871667</v>
+      </c>
+    </row>
+    <row r="132" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <v>2014</v>
       </c>
@@ -18194,12 +18723,16 @@
         <f>IF( J132="s.i", "s.i", IF(ISBLANK(J132),"Actualizando información",IFERROR(J132 / VLOOKUP(A132,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>18145654317.347717</v>
       </c>
-      <c r="AR132" s="10">
+      <c r="AR132" s="36">
         <f xml:space="preserve"> 2091851 * 1000</f>
         <v>2091851000</v>
       </c>
-    </row>
-    <row r="133" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT132">
+        <f t="shared" si="5"/>
+        <v>9.1867919847063675</v>
+      </c>
+    </row>
+    <row r="133" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
         <v>2014</v>
       </c>
@@ -18263,12 +18796,16 @@
         <f>IF( J133="s.i", "s.i", IF(ISBLANK(J133),"Actualizando información",IFERROR(J133 / VLOOKUP(A133,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>18145654317.347717</v>
       </c>
-      <c r="AR133" s="10">
+      <c r="AR133" s="36">
         <f xml:space="preserve"> 1513506 * 1000</f>
         <v>1513506000</v>
       </c>
-    </row>
-    <row r="134" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT133">
+        <f t="shared" si="5"/>
+        <v>12.697273747180388</v>
+      </c>
+    </row>
+    <row r="134" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <v>2014</v>
       </c>
@@ -18330,12 +18867,16 @@
         <f>IF( J134="s.i", "s.i", IF(ISBLANK(J134),"Actualizando información",IFERROR(J134 / VLOOKUP(A134,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>20363273960.469204</v>
       </c>
-      <c r="AR134" s="10">
+      <c r="AR134" s="36">
         <f xml:space="preserve"> 721000 * 1000</f>
         <v>721000000</v>
       </c>
-    </row>
-    <row r="135" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT134">
+        <f t="shared" si="5"/>
+        <v>29.91123439667129</v>
+      </c>
+    </row>
+    <row r="135" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
         <v>2014</v>
       </c>
@@ -18393,12 +18934,16 @@
         <f>IF( J135="s.i", "s.i", IF(ISBLANK(J135),"Actualizando información",IFERROR(J135 / VLOOKUP(A135,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>25786967677746.293</v>
       </c>
-      <c r="AR135" s="10">
+      <c r="AR135" s="36">
         <f xml:space="preserve"> 26852009 * 1000</f>
         <v>26852009000</v>
       </c>
-    </row>
-    <row r="136" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT135">
+        <f t="shared" si="5"/>
+        <v>1017.0574574140803</v>
+      </c>
+    </row>
+    <row r="136" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
         <v>2014</v>
       </c>
@@ -18462,8 +19007,12 @@
         <f xml:space="preserve"> 20246240 * 1000</f>
         <v>20246240000</v>
       </c>
-    </row>
-    <row r="137" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT136">
+        <f t="shared" si="5"/>
+        <v>0.5704269039584634</v>
+      </c>
+    </row>
+    <row r="137" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <v>2014</v>
       </c>
@@ -18492,7 +19041,7 @@
         <v>623</v>
       </c>
       <c r="J137" s="10">
-        <f t="shared" ref="J137:J141" si="3" xml:space="preserve"> 11549 * 1000000</f>
+        <f t="shared" ref="J137:J141" si="6" xml:space="preserve"> 11549 * 1000000</f>
         <v>11549000000</v>
       </c>
       <c r="K137" s="3"/>
@@ -18526,8 +19075,12 @@
       <c r="AR137" s="10" t="s">
         <v>2371</v>
       </c>
-    </row>
-    <row r="138" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT137" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="138" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
         <v>2014</v>
       </c>
@@ -18556,7 +19109,7 @@
         <v>623</v>
       </c>
       <c r="J138" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>11549000000</v>
       </c>
       <c r="K138" s="3"/>
@@ -18591,8 +19144,12 @@
         <f xml:space="preserve"> 20246240 * 1000</f>
         <v>20246240000</v>
       </c>
-    </row>
-    <row r="139" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT138">
+        <f t="shared" si="5"/>
+        <v>0.5704269039584634</v>
+      </c>
+    </row>
+    <row r="139" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
         <v>2014</v>
       </c>
@@ -18621,7 +19178,7 @@
         <v>623</v>
       </c>
       <c r="J139" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>11549000000</v>
       </c>
       <c r="K139" s="3"/>
@@ -18654,12 +19211,16 @@
         <f>IF( J139="s.i", "s.i", IF(ISBLANK(J139),"Actualizando información",IFERROR(J139 / VLOOKUP(A139,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>10904917507.625839</v>
       </c>
-      <c r="AR139" s="10">
+      <c r="AR139" s="36">
         <f xml:space="preserve"> 314898 * 1000</f>
         <v>314898000</v>
       </c>
-    </row>
-    <row r="140" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT139">
+        <f t="shared" si="5"/>
+        <v>36.675367896906302</v>
+      </c>
+    </row>
+    <row r="140" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
         <v>2014</v>
       </c>
@@ -18688,7 +19249,7 @@
         <v>623</v>
       </c>
       <c r="J140" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>11549000000</v>
       </c>
       <c r="K140" s="3" t="s">
@@ -18724,8 +19285,12 @@
       <c r="AR140" s="10" t="s">
         <v>2371</v>
       </c>
-    </row>
-    <row r="141" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT140" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="141" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
         <v>2014</v>
       </c>
@@ -18754,7 +19319,7 @@
         <v>623</v>
       </c>
       <c r="J141" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>11549000000</v>
       </c>
       <c r="K141" s="3"/>
@@ -18789,8 +19354,12 @@
         <f xml:space="preserve"> 5960219 * 1000</f>
         <v>5960219000</v>
       </c>
-    </row>
-    <row r="142" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT141">
+        <f t="shared" si="5"/>
+        <v>1.9376804778482133</v>
+      </c>
+    </row>
+    <row r="142" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
         <v>2014</v>
       </c>
@@ -18864,8 +19433,12 @@
         <f xml:space="preserve"> 5880004 * 1000</f>
         <v>5880004000</v>
       </c>
-    </row>
-    <row r="143" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT142">
+        <f t="shared" si="5"/>
+        <v>1.0608326116784954</v>
+      </c>
+    </row>
+    <row r="143" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
         <v>2014</v>
       </c>
@@ -18933,8 +19506,12 @@
         <f xml:space="preserve"> 34285184 * 1000</f>
         <v>34285184000</v>
       </c>
-    </row>
-    <row r="144" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT143">
+        <f t="shared" si="5"/>
+        <v>0.99999463325032756</v>
+      </c>
+    </row>
+    <row r="144" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
         <v>2014</v>
       </c>
@@ -18995,8 +19572,12 @@
       <c r="AR144" s="10" t="s">
         <v>2371</v>
       </c>
-    </row>
-    <row r="145" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT144" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="145" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
         <v>2014</v>
       </c>
@@ -19058,12 +19639,16 @@
         <f>IF( J145="s.i", "s.i", IF(ISBLANK(J145),"Actualizando información",IFERROR(J145 / VLOOKUP(A145,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>203810578800998.13</v>
       </c>
-      <c r="AR145" s="10">
+      <c r="AR145" s="36">
         <f xml:space="preserve"> (1579222 + 3838249 + 3098960 + 10958085 + 16878226 + 13818608 + 19349283 + 22186502 + 14847326 + 11585787 + 2293046 + 3914402 + 87911471 + 3954004 + 845955) * 1000</f>
         <v>217059126000</v>
       </c>
-    </row>
-    <row r="146" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT145">
+        <f t="shared" si="5"/>
+        <v>994.42187471076431</v>
+      </c>
+    </row>
+    <row r="146" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
         <v>2014</v>
       </c>
@@ -19119,12 +19704,16 @@
         <f>IF( J146="s.i", "s.i", IF(ISBLANK(J146),"Actualizando información",IFERROR(J146 / VLOOKUP(A146,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>2871251843800.6704</v>
       </c>
-      <c r="AR146" s="10">
+      <c r="AR146" s="36">
         <f xml:space="preserve"> 3040838 * 1000</f>
         <v>3040838000</v>
       </c>
-    </row>
-    <row r="147" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT146">
+        <f t="shared" si="5"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="147" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
         <v>2014</v>
       </c>
@@ -19191,8 +19780,12 @@
         <f xml:space="preserve"> 5863206 * 1000</f>
         <v>5863206000</v>
       </c>
-    </row>
-    <row r="148" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT147" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="148" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
         <v>2014</v>
       </c>
@@ -19252,8 +19845,12 @@
         <f xml:space="preserve"> 197941838 * 1000</f>
         <v>197941838000</v>
       </c>
-    </row>
-    <row r="149" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT148">
+        <f t="shared" si="5"/>
+        <v>1.3908125880896387</v>
+      </c>
+    </row>
+    <row r="149" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
         <v>2014</v>
       </c>
@@ -19317,8 +19914,12 @@
         <f xml:space="preserve"> 4012788 * 1000</f>
         <v>4012788000</v>
       </c>
-    </row>
-    <row r="150" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT149">
+        <f t="shared" si="5"/>
+        <v>1.0000528310989765</v>
+      </c>
+    </row>
+    <row r="150" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
         <v>2014</v>
       </c>
@@ -19386,8 +19987,12 @@
         <f xml:space="preserve"> 13838050 * 1000</f>
         <v>13838050000</v>
       </c>
-    </row>
-    <row r="151" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT150">
+        <f t="shared" si="5"/>
+        <v>0.99999638677414804</v>
+      </c>
+    </row>
+    <row r="151" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
         <v>2013</v>
       </c>
@@ -19449,12 +20054,16 @@
         <f>IF( J151="s.i", "s.i", IF(ISBLANK(J151),"Actualizando información",IFERROR(J151 / VLOOKUP(A151,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>5539000000</v>
       </c>
-      <c r="AR151" s="10">
+      <c r="AR151" s="36">
         <f xml:space="preserve"> 877025 * 1000</f>
         <v>877025000</v>
       </c>
-    </row>
-    <row r="152" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT151">
+        <f t="shared" si="5"/>
+        <v>6.3156694506998088</v>
+      </c>
+    </row>
+    <row r="152" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
         <v>2013</v>
       </c>
@@ -19520,8 +20129,12 @@
       <c r="AR152" s="10" t="s">
         <v>2371</v>
       </c>
-    </row>
-    <row r="153" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT152" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="153" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
         <v>2013</v>
       </c>
@@ -19586,8 +20199,12 @@
       <c r="AR153" s="10" t="s">
         <v>2371</v>
       </c>
-    </row>
-    <row r="154" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT153" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="154" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
         <v>2013</v>
       </c>
@@ -19654,8 +20271,12 @@
       <c r="AR154" s="10" t="s">
         <v>2371</v>
       </c>
-    </row>
-    <row r="155" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT154" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="155" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
         <v>2013</v>
       </c>
@@ -19723,8 +20344,12 @@
         <f xml:space="preserve"> 3871100 * 1000</f>
         <v>3871100000</v>
       </c>
-    </row>
-    <row r="156" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT155">
+        <f t="shared" si="5"/>
+        <v>1.0332980289840097</v>
+      </c>
+    </row>
+    <row r="156" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
         <v>2013</v>
       </c>
@@ -19792,8 +20417,12 @@
         <f xml:space="preserve"> 87422786 * 1000</f>
         <v>87422786000</v>
       </c>
-    </row>
-    <row r="157" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT156">
+        <f t="shared" si="5"/>
+        <v>1.0002287733085971</v>
+      </c>
+    </row>
+    <row r="157" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
         <v>2013</v>
       </c>
@@ -19859,8 +20488,12 @@
         <f xml:space="preserve"> 1677618 * 1000</f>
         <v>1677618000</v>
       </c>
-    </row>
-    <row r="158" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT157">
+        <f t="shared" si="5"/>
+        <v>1.1707075150600434</v>
+      </c>
+    </row>
+    <row r="158" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
         <v>2013</v>
       </c>
@@ -19922,8 +20555,12 @@
       <c r="AR158" s="10" t="s">
         <v>2371</v>
       </c>
-    </row>
-    <row r="159" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT158" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="159" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
         <v>2013</v>
       </c>
@@ -19987,12 +20624,16 @@
         <f>IF( J159="s.i", "s.i", IF(ISBLANK(J159),"Actualizando información",IFERROR(J159 / VLOOKUP(A159,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>273418358000</v>
       </c>
-      <c r="AR159" s="10">
+      <c r="AR159" s="36">
         <f xml:space="preserve"> 37023420 * 1000</f>
         <v>37023420000</v>
       </c>
-    </row>
-    <row r="160" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT159">
+        <f t="shared" si="5"/>
+        <v>7.3850108390850977</v>
+      </c>
+    </row>
+    <row r="160" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="3">
         <v>2013</v>
       </c>
@@ -20058,8 +20699,12 @@
         <f xml:space="preserve"> 2267990 * 1000</f>
         <v>2267990000</v>
       </c>
-    </row>
-    <row r="161" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT160">
+        <f t="shared" si="5"/>
+        <v>1.4075613208171112</v>
+      </c>
+    </row>
+    <row r="161" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
         <v>2013</v>
       </c>
@@ -20101,8 +20746,12 @@
       <c r="AR161" s="10" t="s">
         <v>2371</v>
       </c>
-    </row>
-    <row r="162" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT161" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="162" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
         <v>2013</v>
       </c>
@@ -20144,8 +20793,12 @@
       <c r="AR162" s="10" t="s">
         <v>2371</v>
       </c>
-    </row>
-    <row r="163" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT162" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="163" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
         <v>2013</v>
       </c>
@@ -20187,8 +20840,12 @@
       <c r="AR163" s="10" t="s">
         <v>2371</v>
       </c>
-    </row>
-    <row r="164" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT163" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="164" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
         <v>2013</v>
       </c>
@@ -20231,8 +20888,12 @@
         <f xml:space="preserve"> 4121145 * 1000</f>
         <v>4121145000</v>
       </c>
-    </row>
-    <row r="165" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT164">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
         <v>2013</v>
       </c>
@@ -20274,8 +20935,12 @@
       <c r="AR165" s="10" t="s">
         <v>2371</v>
       </c>
-    </row>
-    <row r="166" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT165" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="166" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
         <v>2013</v>
       </c>
@@ -20318,8 +20983,12 @@
         <f xml:space="preserve"> 9222654 * 1000</f>
         <v>9222654000</v>
       </c>
-    </row>
-    <row r="167" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT166">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="3">
         <v>2013</v>
       </c>
@@ -20362,8 +21031,12 @@
         <f xml:space="preserve"> 24153953 * 1000</f>
         <v>24153953000</v>
       </c>
-    </row>
-    <row r="168" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT167">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="3">
         <v>2013</v>
       </c>
@@ -20408,8 +21081,12 @@
         <f xml:space="preserve"> 196771717 * 1000</f>
         <v>196771717000</v>
       </c>
-    </row>
-    <row r="169" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT168">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="3">
         <v>2013</v>
       </c>
@@ -20454,8 +21131,12 @@
         <f xml:space="preserve"> 46947637 * 1000</f>
         <v>46947637000</v>
       </c>
-    </row>
-    <row r="170" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT169">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3">
         <v>2013</v>
       </c>
@@ -20498,8 +21179,12 @@
         <f xml:space="preserve"> 4387607 * 1000</f>
         <v>4387607000</v>
       </c>
-    </row>
-    <row r="171" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT170">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
         <v>2013</v>
       </c>
@@ -20542,8 +21227,12 @@
         <f xml:space="preserve"> 3941517 * 1000</f>
         <v>3941517000</v>
       </c>
-    </row>
-    <row r="172" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT171">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
         <v>2013</v>
       </c>
@@ -20586,8 +21275,12 @@
         <f xml:space="preserve"> 3941517 * 1000</f>
         <v>3941517000</v>
       </c>
-    </row>
-    <row r="173" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT172">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
         <v>2013</v>
       </c>
@@ -20630,8 +21323,12 @@
         <f xml:space="preserve"> 3941517 * 1000</f>
         <v>3941517000</v>
       </c>
-    </row>
-    <row r="174" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT173">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
         <v>2013</v>
       </c>
@@ -20674,8 +21371,12 @@
         <f xml:space="preserve"> 134687177 * 1000</f>
         <v>134687177000</v>
       </c>
-    </row>
-    <row r="175" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT174">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
         <v>2012</v>
       </c>
@@ -20738,8 +21439,12 @@
         <f xml:space="preserve"> 16040645 * 1000</f>
         <v>16040645000</v>
       </c>
-    </row>
-    <row r="176" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT175" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="176" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
         <v>2012</v>
       </c>
@@ -20807,8 +21512,12 @@
         <f xml:space="preserve"> 14262616 * 1000</f>
         <v>14262616000</v>
       </c>
-    </row>
-    <row r="177" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT176">
+        <f t="shared" si="5"/>
+        <v>0.99995681016722315</v>
+      </c>
+    </row>
+    <row r="177" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
         <v>2012</v>
       </c>
@@ -20878,8 +21587,12 @@
         <f xml:space="preserve"> 7385442 * 1000</f>
         <v>7385442000</v>
       </c>
-    </row>
-    <row r="178" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT177">
+        <f t="shared" si="5"/>
+        <v>0.91937625398723599</v>
+      </c>
+    </row>
+    <row r="178" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
         <v>2012</v>
       </c>
@@ -20948,8 +21661,12 @@
       <c r="AR178" s="10" t="s">
         <v>2371</v>
       </c>
-    </row>
-    <row r="179" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT178" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="179" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="3">
         <v>2012</v>
       </c>
@@ -21011,8 +21728,12 @@
         <f xml:space="preserve"> 24176007 * 1000</f>
         <v>24176007000</v>
       </c>
-    </row>
-    <row r="180" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT179">
+        <f t="shared" si="5"/>
+        <v>1.0605142528292617</v>
+      </c>
+    </row>
+    <row r="180" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A180" s="3">
         <v>2012</v>
       </c>
@@ -21076,12 +21797,16 @@
         <f>IF( J180="s.i", "s.i", IF(ISBLANK(J180),"Actualizando información",IFERROR(J180 / VLOOKUP(A180,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>3.653593854429504E+16</v>
       </c>
-      <c r="AR180" s="10">
+      <c r="AR180" s="36">
         <f xml:space="preserve"> 3576648 * 1000</f>
         <v>3576648000</v>
       </c>
-    </row>
-    <row r="181" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT180">
+        <f t="shared" si="5"/>
+        <v>10017130.844298908</v>
+      </c>
+    </row>
+    <row r="181" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="3">
         <v>2012</v>
       </c>
@@ -21151,8 +21876,12 @@
         <f xml:space="preserve"> 3974370 * 1000</f>
         <v>3974370000</v>
       </c>
-    </row>
-    <row r="182" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT181">
+        <f t="shared" si="5"/>
+        <v>1.0182745944640283</v>
+      </c>
+    </row>
+    <row r="182" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="3">
         <v>2012</v>
       </c>
@@ -21213,8 +21942,12 @@
         <f xml:space="preserve"> 1573969 * 1000</f>
         <v>1573969000</v>
       </c>
-    </row>
-    <row r="183" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT182" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="183" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="3">
         <v>2012</v>
       </c>
@@ -21279,8 +22012,12 @@
         <f xml:space="preserve"> 12117961 * 1000</f>
         <v>12117961000</v>
       </c>
-    </row>
-    <row r="184" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT183" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="184" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="3">
         <v>2012</v>
       </c>
@@ -21343,8 +22080,12 @@
         <f xml:space="preserve"> (36921991 + 16291636) * 1000</f>
         <v>53213627000</v>
       </c>
-    </row>
-    <row r="185" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT184" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="185" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="3">
         <v>2012</v>
       </c>
@@ -21409,8 +22150,12 @@
         <f xml:space="preserve"> (4761492 + 2019538) * 1000</f>
         <v>6781030000</v>
       </c>
-    </row>
-    <row r="186" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT185" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="186" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="3">
         <v>2012</v>
       </c>
@@ -21479,8 +22224,12 @@
         <f xml:space="preserve"> 1100133 * 1000</f>
         <v>1100133000</v>
       </c>
-    </row>
-    <row r="187" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT186" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="187" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="3">
         <v>2012</v>
       </c>
@@ -21547,8 +22296,12 @@
         <f xml:space="preserve"> (7265706 + 4354755) * 1000</f>
         <v>11620461000</v>
       </c>
-    </row>
-    <row r="188" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT187" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="188" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="3">
         <v>2012</v>
       </c>
@@ -21613,8 +22366,12 @@
         <f xml:space="preserve"> (1289112 + 327714) * 1000</f>
         <v>1616826000</v>
       </c>
-    </row>
-    <row r="189" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT188" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="189" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="3">
         <v>2012</v>
       </c>
@@ -21683,8 +22440,12 @@
         <f xml:space="preserve"> (15597227 + 7331170) * 1000</f>
         <v>22928397000</v>
       </c>
-    </row>
-    <row r="190" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT189" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="190" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="3">
         <v>2012</v>
       </c>
@@ -21747,8 +22508,12 @@
         <f xml:space="preserve"> 1286606 * 1000</f>
         <v>1286606000</v>
       </c>
-    </row>
-    <row r="191" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT190" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="191" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="3">
         <v>2012</v>
       </c>
@@ -21815,8 +22580,12 @@
         <f xml:space="preserve"> 9813718 * 1000</f>
         <v>9813718000</v>
       </c>
-    </row>
-    <row r="192" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT191" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="192" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A192" s="3">
         <v>2012</v>
       </c>
@@ -21874,12 +22643,16 @@
         <f>IF( J192="s.i", "s.i", IF(ISBLANK(J192),"Actualizando información",IFERROR(J192 / VLOOKUP(A192,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>1747810355751905.5</v>
       </c>
-      <c r="AR192" s="10">
+      <c r="AR192" s="36">
         <f xml:space="preserve"> (1420550 + 194489) * 1000</f>
         <v>1615039000</v>
       </c>
-    </row>
-    <row r="193" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT192">
+        <f t="shared" si="5"/>
+        <v>1061232.5770461271</v>
+      </c>
+    </row>
+    <row r="193" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="3">
         <v>2012</v>
       </c>
@@ -21943,8 +22716,12 @@
         <f xml:space="preserve"> 4570949 * 1000</f>
         <v>4570949000</v>
       </c>
-    </row>
-    <row r="194" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT193">
+        <f t="shared" si="5"/>
+        <v>1.0100635557298934</v>
+      </c>
+    </row>
+    <row r="194" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="3">
         <v>2012</v>
       </c>
@@ -22010,8 +22787,12 @@
         <f xml:space="preserve"> 7607946 * 1000</f>
         <v>7607946000</v>
       </c>
-    </row>
-    <row r="195" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT194">
+        <f t="shared" si="5"/>
+        <v>1.9424428091366579</v>
+      </c>
+    </row>
+    <row r="195" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="3">
         <v>2012</v>
       </c>
@@ -22040,7 +22821,7 @@
         <v>623</v>
       </c>
       <c r="J195" s="10">
-        <f t="shared" ref="J195:J199" si="4" xml:space="preserve"> 14778 * 1000000</f>
+        <f t="shared" ref="J195:J199" si="7" xml:space="preserve"> 14778 * 1000000</f>
         <v>14778000000</v>
       </c>
       <c r="K195" s="3" t="s">
@@ -22074,11 +22855,15 @@
         <v>15070108637.508173</v>
       </c>
       <c r="AR195" s="10">
-        <f t="shared" ref="AR195:AR199" si="5" xml:space="preserve"> 7607946 * 1000</f>
+        <f t="shared" ref="AR195:AR199" si="8" xml:space="preserve"> 7607946 * 1000</f>
         <v>7607946000</v>
       </c>
-    </row>
-    <row r="196" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT195">
+        <f t="shared" ref="AT195:AT258" si="9">J195 / AR195</f>
+        <v>1.9424428091366579</v>
+      </c>
+    </row>
+    <row r="196" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="3">
         <v>2012</v>
       </c>
@@ -22107,7 +22892,7 @@
         <v>623</v>
       </c>
       <c r="J196" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>14778000000</v>
       </c>
       <c r="K196" s="3" t="s">
@@ -22141,11 +22926,15 @@
         <v>15070108637.508173</v>
       </c>
       <c r="AR196" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>7607946000</v>
       </c>
-    </row>
-    <row r="197" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT196">
+        <f t="shared" si="9"/>
+        <v>1.9424428091366579</v>
+      </c>
+    </row>
+    <row r="197" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="3">
         <v>2012</v>
       </c>
@@ -22174,7 +22963,7 @@
         <v>623</v>
       </c>
       <c r="J197" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>14778000000</v>
       </c>
       <c r="K197" s="3" t="s">
@@ -22208,11 +22997,15 @@
         <v>15070108637.508173</v>
       </c>
       <c r="AR197" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>7607946000</v>
       </c>
-    </row>
-    <row r="198" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT197">
+        <f t="shared" si="9"/>
+        <v>1.9424428091366579</v>
+      </c>
+    </row>
+    <row r="198" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="3">
         <v>2012</v>
       </c>
@@ -22241,7 +23034,7 @@
         <v>623</v>
       </c>
       <c r="J198" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>14778000000</v>
       </c>
       <c r="K198" s="3" t="s">
@@ -22275,11 +23068,15 @@
         <v>15070108637.508173</v>
       </c>
       <c r="AR198" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>7607946000</v>
       </c>
-    </row>
-    <row r="199" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT198">
+        <f t="shared" si="9"/>
+        <v>1.9424428091366579</v>
+      </c>
+    </row>
+    <row r="199" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="3">
         <v>2012</v>
       </c>
@@ -22308,7 +23105,7 @@
         <v>623</v>
       </c>
       <c r="J199" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>14778000000</v>
       </c>
       <c r="K199" s="3" t="s">
@@ -22342,11 +23139,15 @@
         <v>15070108637.508173</v>
       </c>
       <c r="AR199" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>7607946000</v>
       </c>
-    </row>
-    <row r="200" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT199">
+        <f t="shared" si="9"/>
+        <v>1.9424428091366579</v>
+      </c>
+    </row>
+    <row r="200" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A200" s="3">
         <v>2012</v>
       </c>
@@ -22410,12 +23211,16 @@
         <f>IF( J200="s.i", "s.i", IF(ISBLANK(J200),"Actualizando información",IFERROR(J200 / VLOOKUP(A200,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>7238147276527.2773</v>
       </c>
-      <c r="AR200" s="10">
+      <c r="AR200" s="36">
         <f xml:space="preserve"> 7097848 * 1000</f>
         <v>7097848000</v>
       </c>
-    </row>
-    <row r="201" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT200">
+        <f t="shared" si="9"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="201" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="3">
         <v>2012</v>
       </c>
@@ -22481,8 +23286,12 @@
         <f xml:space="preserve"> 4151851 * 1000</f>
         <v>4151851000</v>
       </c>
-    </row>
-    <row r="202" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT201">
+        <f t="shared" si="9"/>
+        <v>0.32997330588212342</v>
+      </c>
+    </row>
+    <row r="202" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A202" s="3">
         <v>2012</v>
       </c>
@@ -22542,12 +23351,16 @@
         <f>IF( J202="s.i", "s.i", IF(ISBLANK(J202),"Actualizando información",IFERROR(J202 / VLOOKUP(A202,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>5120702174677.2813</v>
       </c>
-      <c r="AR202" s="10">
+      <c r="AR202" s="36">
         <f xml:space="preserve"> 5021446 * 1000</f>
         <v>5021446000</v>
       </c>
-    </row>
-    <row r="203" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT202">
+        <f t="shared" si="9"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="203" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="3">
         <v>2012</v>
       </c>
@@ -22617,8 +23430,12 @@
         <f xml:space="preserve"> 4635252 * 1000</f>
         <v>4635252000</v>
       </c>
-    </row>
-    <row r="204" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT203">
+        <f t="shared" si="9"/>
+        <v>1.5226788101272595</v>
+      </c>
+    </row>
+    <row r="204" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A204" s="3">
         <v>2012</v>
       </c>
@@ -22684,12 +23501,16 @@
         <f>IF( J204="s.i", "s.i", IF(ISBLANK(J204),"Actualizando información",IFERROR(J204 / VLOOKUP(A204,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>7197511622.9214163</v>
       </c>
-      <c r="AR204" s="10">
+      <c r="AR204" s="36">
         <f xml:space="preserve"> 2423221 * 1000</f>
         <v>2423221000</v>
       </c>
-    </row>
-    <row r="205" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT204">
+        <f t="shared" si="9"/>
+        <v>2.9126522096003624</v>
+      </c>
+    </row>
+    <row r="205" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="3">
         <v>2011</v>
       </c>
@@ -22732,8 +23553,12 @@
         <f xml:space="preserve"> 134989 * 1000</f>
         <v>134989000</v>
       </c>
-    </row>
-    <row r="206" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT205">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="3">
         <v>2011</v>
       </c>
@@ -22776,8 +23601,12 @@
         <f xml:space="preserve"> 1597533 * 1000</f>
         <v>1597533000</v>
       </c>
-    </row>
-    <row r="207" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT206">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="3">
         <v>2011</v>
       </c>
@@ -22820,8 +23649,12 @@
         <f xml:space="preserve"> 75201 * 1000</f>
         <v>75201000</v>
       </c>
-    </row>
-    <row r="208" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT207">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="3">
         <v>2011</v>
       </c>
@@ -22864,8 +23697,12 @@
         <f xml:space="preserve"> 252948 * 1000</f>
         <v>252948000</v>
       </c>
-    </row>
-    <row r="209" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT208">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="3">
         <v>2011</v>
       </c>
@@ -22908,8 +23745,12 @@
         <f xml:space="preserve"> 2632393 * 1000</f>
         <v>2632393000</v>
       </c>
-    </row>
-    <row r="210" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT209">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="3">
         <v>2011</v>
       </c>
@@ -22952,8 +23793,12 @@
         <f xml:space="preserve"> 1902666882 * 1000</f>
         <v>1902666882000</v>
       </c>
-    </row>
-    <row r="211" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT210">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="3">
         <v>2011</v>
       </c>
@@ -22996,8 +23841,12 @@
         <f xml:space="preserve"> 6269428 * 1000</f>
         <v>6269428000</v>
       </c>
-    </row>
-    <row r="212" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT211">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="3">
         <v>2011</v>
       </c>
@@ -23040,8 +23889,12 @@
         <f xml:space="preserve"> 20660000 * 1000</f>
         <v>20660000000</v>
       </c>
-    </row>
-    <row r="213" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT212">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="3">
         <v>2011</v>
       </c>
@@ -23084,8 +23937,12 @@
         <f xml:space="preserve"> 22112338 * 1000</f>
         <v>22112338000</v>
       </c>
-    </row>
-    <row r="214" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT213">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="3">
         <v>2011</v>
       </c>
@@ -23128,8 +23985,12 @@
         <f xml:space="preserve"> 13687250 * 1000</f>
         <v>13687250000</v>
       </c>
-    </row>
-    <row r="215" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT214">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="3">
         <v>2011</v>
       </c>
@@ -23172,8 +24033,12 @@
         <f xml:space="preserve"> 8131349 * 1000</f>
         <v>8131349000</v>
       </c>
-    </row>
-    <row r="216" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT215">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="3">
         <v>2011</v>
       </c>
@@ -23216,8 +24081,12 @@
         <f xml:space="preserve"> 9297000 * 1000</f>
         <v>9297000000</v>
       </c>
-    </row>
-    <row r="217" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT216">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="3">
         <v>2011</v>
       </c>
@@ -23260,8 +24129,12 @@
         <f xml:space="preserve"> 143148755 * 1000</f>
         <v>143148755000</v>
       </c>
-    </row>
-    <row r="218" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT217">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="3">
         <v>2011</v>
       </c>
@@ -23304,8 +24177,12 @@
         <f xml:space="preserve"> 13150019 * 1000</f>
         <v>13150019000</v>
       </c>
-    </row>
-    <row r="219" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT218">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="3">
         <v>2011</v>
       </c>
@@ -23348,8 +24225,12 @@
         <f xml:space="preserve"> 15537429 * 1000</f>
         <v>15537429000</v>
       </c>
-    </row>
-    <row r="220" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT219">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="3">
         <v>2011</v>
       </c>
@@ -23392,8 +24273,12 @@
         <f xml:space="preserve"> 79244338 * 1000</f>
         <v>79244338000</v>
       </c>
-    </row>
-    <row r="221" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT220">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="3">
         <v>2011</v>
       </c>
@@ -23436,8 +24321,12 @@
         <f xml:space="preserve"> 15552470 * 1000</f>
         <v>15552470000</v>
       </c>
-    </row>
-    <row r="222" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT221">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="3">
         <v>2011</v>
       </c>
@@ -23480,8 +24369,12 @@
         <f xml:space="preserve"> 175893053 * 1000</f>
         <v>175893053000</v>
       </c>
-    </row>
-    <row r="223" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT222">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="3">
         <v>2011</v>
       </c>
@@ -23523,8 +24416,12 @@
       <c r="AR223" s="10" t="s">
         <v>2371</v>
       </c>
-    </row>
-    <row r="224" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT223" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="224" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="3">
         <v>2011</v>
       </c>
@@ -23567,8 +24464,12 @@
         <f xml:space="preserve"> 64046000 * 1000</f>
         <v>64046000000</v>
       </c>
-    </row>
-    <row r="225" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT224">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="3">
         <v>2011</v>
       </c>
@@ -23611,8 +24512,12 @@
         <f xml:space="preserve"> (1050218 + 2230585 + 524704 + 3427304 + 7631196 + 10088461 + 19272077 + 21801521 + 6126315 + 3805890 + 745520 + 668509 + 33214653 + 1398536 + 430755) * 1000</f>
         <v>112416244000</v>
       </c>
-    </row>
-    <row r="226" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT225">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="3">
         <v>2011</v>
       </c>
@@ -23657,8 +24562,12 @@
         <f xml:space="preserve"> 11378638 * 1000</f>
         <v>11378638000</v>
       </c>
-    </row>
-    <row r="227" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT226">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="3">
         <v>2011</v>
       </c>
@@ -23705,8 +24614,12 @@
         <f xml:space="preserve"> 31324033 * 1000</f>
         <v>31324033000</v>
       </c>
-    </row>
-    <row r="228" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT227">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="3">
         <v>2011</v>
       </c>
@@ -23748,8 +24661,12 @@
       <c r="AR228" s="10" t="s">
         <v>2371</v>
       </c>
-    </row>
-    <row r="229" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT228" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="229" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="3">
         <v>2011</v>
       </c>
@@ -23792,8 +24709,12 @@
         <f xml:space="preserve"> 3099000 * 1000</f>
         <v>3099000000</v>
       </c>
-    </row>
-    <row r="230" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT229">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="3">
         <v>2011</v>
       </c>
@@ -23836,8 +24757,12 @@
         <f xml:space="preserve"> 42787209 * 1000</f>
         <v>42787209000</v>
       </c>
-    </row>
-    <row r="231" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT230">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="3">
         <v>2011</v>
       </c>
@@ -23880,8 +24805,12 @@
         <f xml:space="preserve"> 6729995 * 1000</f>
         <v>6729995000</v>
       </c>
-    </row>
-    <row r="232" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT231">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="3">
         <v>2011</v>
       </c>
@@ -23924,8 +24853,12 @@
         <f xml:space="preserve"> 11426096 * 1000</f>
         <v>11426096000</v>
       </c>
-    </row>
-    <row r="233" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT232">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="3">
         <v>2010</v>
       </c>
@@ -23986,8 +24919,12 @@
         <f xml:space="preserve"> 19410354 * 1000</f>
         <v>19410354000</v>
       </c>
-    </row>
-    <row r="234" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT233" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="234" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="3">
         <v>2010</v>
       </c>
@@ -24051,8 +24988,12 @@
       <c r="AR234" s="10" t="s">
         <v>2371</v>
       </c>
-    </row>
-    <row r="235" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT234" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="235" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="3">
         <v>2010</v>
       </c>
@@ -24095,8 +25036,12 @@
         <f xml:space="preserve"> 1000000 * 1000</f>
         <v>1000000000</v>
       </c>
-    </row>
-    <row r="236" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT235">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="3">
         <v>2010</v>
       </c>
@@ -24139,8 +25084,12 @@
         <f xml:space="preserve"> 999572 * 1000</f>
         <v>999572000</v>
       </c>
-    </row>
-    <row r="237" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT236">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A237" s="3">
         <v>2010</v>
       </c>
@@ -24204,12 +25153,16 @@
         <f>IF( J237="s.i", "s.i", IF(ISBLANK(J237),"Actualizando información",IFERROR(J237 / VLOOKUP(A237,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>150332635540530.41</v>
       </c>
-      <c r="AR237" s="10">
-        <f t="shared" ref="AR237:AR241" si="6" xml:space="preserve"> 132129142 * 1000</f>
+      <c r="AR237" s="36">
+        <f t="shared" ref="AR237:AR241" si="10" xml:space="preserve"> 132129142 * 1000</f>
         <v>132129142000</v>
       </c>
-    </row>
-    <row r="238" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT237">
+        <f t="shared" si="9"/>
+        <v>1069.9419284808494</v>
+      </c>
+    </row>
+    <row r="238" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A238" s="3">
         <v>2010</v>
       </c>
@@ -24238,7 +25191,7 @@
         <v>623</v>
       </c>
       <c r="J238" s="10">
-        <f t="shared" ref="J238:J241" si="7" xml:space="preserve"> 141370509 * 1000000</f>
+        <f t="shared" ref="J238:J241" si="11" xml:space="preserve"> 141370509 * 1000000</f>
         <v>141370509000000</v>
       </c>
       <c r="K238" s="3" t="s">
@@ -24273,12 +25226,16 @@
         <f>IF( J238="s.i", "s.i", IF(ISBLANK(J238),"Actualizando información",IFERROR(J238 / VLOOKUP(A238,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>150332635540530.41</v>
       </c>
-      <c r="AR238" s="10">
-        <f t="shared" si="6"/>
+      <c r="AR238" s="36">
+        <f t="shared" si="10"/>
         <v>132129142000</v>
       </c>
-    </row>
-    <row r="239" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT238">
+        <f t="shared" si="9"/>
+        <v>1069.9419284808494</v>
+      </c>
+    </row>
+    <row r="239" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A239" s="3">
         <v>2010</v>
       </c>
@@ -24307,7 +25264,7 @@
         <v>623</v>
       </c>
       <c r="J239" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>141370509000000</v>
       </c>
       <c r="K239" s="3" t="s">
@@ -24342,12 +25299,16 @@
         <f>IF( J239="s.i", "s.i", IF(ISBLANK(J239),"Actualizando información",IFERROR(J239 / VLOOKUP(A239,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>150332635540530.41</v>
       </c>
-      <c r="AR239" s="10">
-        <f t="shared" si="6"/>
+      <c r="AR239" s="36">
+        <f t="shared" si="10"/>
         <v>132129142000</v>
       </c>
-    </row>
-    <row r="240" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT239">
+        <f t="shared" si="9"/>
+        <v>1069.9419284808494</v>
+      </c>
+    </row>
+    <row r="240" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A240" s="3">
         <v>2010</v>
       </c>
@@ -24376,7 +25337,7 @@
         <v>623</v>
       </c>
       <c r="J240" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>141370509000000</v>
       </c>
       <c r="K240" s="3" t="s">
@@ -24411,12 +25372,16 @@
         <f>IF( J240="s.i", "s.i", IF(ISBLANK(J240),"Actualizando información",IFERROR(J240 / VLOOKUP(A240,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>150332635540530.41</v>
       </c>
-      <c r="AR240" s="10">
-        <f t="shared" si="6"/>
+      <c r="AR240" s="36">
+        <f t="shared" si="10"/>
         <v>132129142000</v>
       </c>
-    </row>
-    <row r="241" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT240">
+        <f t="shared" si="9"/>
+        <v>1069.9419284808494</v>
+      </c>
+    </row>
+    <row r="241" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A241" s="3">
         <v>2010</v>
       </c>
@@ -24445,7 +25410,7 @@
         <v>623</v>
       </c>
       <c r="J241" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>141370509000000</v>
       </c>
       <c r="K241" s="3" t="s">
@@ -24480,12 +25445,16 @@
         <f>IF( J241="s.i", "s.i", IF(ISBLANK(J241),"Actualizando información",IFERROR(J241 / VLOOKUP(A241,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>150332635540530.41</v>
       </c>
-      <c r="AR241" s="10">
-        <f t="shared" si="6"/>
+      <c r="AR241" s="36">
+        <f t="shared" si="10"/>
         <v>132129142000</v>
       </c>
-    </row>
-    <row r="242" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT241">
+        <f t="shared" si="9"/>
+        <v>1069.9419284808494</v>
+      </c>
+    </row>
+    <row r="242" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="3">
         <v>2010</v>
       </c>
@@ -24528,8 +25497,12 @@
         <f xml:space="preserve"> 4948354 * 1000</f>
         <v>4948354000</v>
       </c>
-    </row>
-    <row r="243" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT242">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="3">
         <v>2010</v>
       </c>
@@ -24572,8 +25545,12 @@
         <f xml:space="preserve"> 895698 * 1000</f>
         <v>895698000</v>
       </c>
-    </row>
-    <row r="244" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT243">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="3">
         <v>2010</v>
       </c>
@@ -24616,8 +25593,12 @@
         <f xml:space="preserve"> 112750 * 1000</f>
         <v>112750000</v>
       </c>
-    </row>
-    <row r="245" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT244">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="3">
         <v>2010</v>
       </c>
@@ -24660,8 +25641,12 @@
         <f xml:space="preserve"> 458619 * 1000</f>
         <v>458619000</v>
       </c>
-    </row>
-    <row r="246" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT245">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="3">
         <v>2010</v>
       </c>
@@ -24704,8 +25689,12 @@
         <f xml:space="preserve"> 7013709 * 1000</f>
         <v>7013709000</v>
       </c>
-    </row>
-    <row r="247" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT246">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="3">
         <v>2010</v>
       </c>
@@ -24748,8 +25737,12 @@
         <f xml:space="preserve"> 2212466 * 1000</f>
         <v>2212466000</v>
       </c>
-    </row>
-    <row r="248" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT247">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="3">
         <v>2010</v>
       </c>
@@ -24792,8 +25785,12 @@
         <f xml:space="preserve"> 1431133 * 1000</f>
         <v>1431133000</v>
       </c>
-    </row>
-    <row r="249" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT248">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A249" s="3">
         <v>2010</v>
       </c>
@@ -24822,7 +25819,7 @@
         <v>623</v>
       </c>
       <c r="J249" s="10">
-        <f t="shared" ref="J249" si="8" xml:space="preserve"> 141370509 * 1000000</f>
+        <f t="shared" ref="J249" si="12" xml:space="preserve"> 141370509 * 1000000</f>
         <v>141370509000000</v>
       </c>
       <c r="K249" s="3" t="s">
@@ -24857,12 +25854,16 @@
         <f>IF( J249="s.i", "s.i", IF(ISBLANK(J249),"Actualizando información",IFERROR(J249 / VLOOKUP(A249,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>150332635540530.41</v>
       </c>
-      <c r="AR249" s="10">
+      <c r="AR249" s="36">
         <f xml:space="preserve"> 132129142 * 1000</f>
         <v>132129142000</v>
       </c>
-    </row>
-    <row r="250" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT249">
+        <f t="shared" si="9"/>
+        <v>1069.9419284808494</v>
+      </c>
+    </row>
+    <row r="250" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="3">
         <v>2010</v>
       </c>
@@ -24933,8 +25934,12 @@
         <f xml:space="preserve"> 513259 * 1000</f>
         <v>513259000</v>
       </c>
-    </row>
-    <row r="251" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT250" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="251" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="3">
         <v>2010</v>
       </c>
@@ -25005,8 +26010,12 @@
         <f xml:space="preserve"> 264306 * 1000</f>
         <v>264306000</v>
       </c>
-    </row>
-    <row r="252" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT251" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="252" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="3">
         <v>2010</v>
       </c>
@@ -25077,8 +26086,12 @@
         <f xml:space="preserve"> (8981205 + 40600000) * 1000</f>
         <v>49581205000</v>
       </c>
-    </row>
-    <row r="253" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT252" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="253" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="3">
         <v>2010</v>
       </c>
@@ -25148,8 +26161,12 @@
       <c r="AR253" s="10" t="s">
         <v>2371</v>
       </c>
-    </row>
-    <row r="254" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT253" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="254" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="3">
         <v>2010</v>
       </c>
@@ -25192,8 +26209,12 @@
         <f xml:space="preserve"> 27706466 * 1000</f>
         <v>27706466000</v>
       </c>
-    </row>
-    <row r="255" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT254">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="3">
         <v>2010</v>
       </c>
@@ -25236,8 +26257,12 @@
         <f xml:space="preserve"> 27706466 * 1000</f>
         <v>27706466000</v>
       </c>
-    </row>
-    <row r="256" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT255">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="3">
         <v>2010</v>
       </c>
@@ -25280,8 +26305,12 @@
         <f xml:space="preserve"> 27706466 * 1000</f>
         <v>27706466000</v>
       </c>
-    </row>
-    <row r="257" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT256">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="3">
         <v>2010</v>
       </c>
@@ -25352,8 +26381,12 @@
         <f xml:space="preserve"> 18270000 * 1000</f>
         <v>18270000000</v>
       </c>
-    </row>
-    <row r="258" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT257" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="258" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="3">
         <v>2010</v>
       </c>
@@ -25395,8 +26428,12 @@
       <c r="AR258" s="10" t="s">
         <v>2371</v>
       </c>
-    </row>
-    <row r="259" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT258" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="259" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="3">
         <v>2010</v>
       </c>
@@ -25438,8 +26475,12 @@
       <c r="AR259" s="10" t="s">
         <v>2371</v>
       </c>
-    </row>
-    <row r="260" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT259" t="e">
+        <f t="shared" ref="AT259:AT309" si="13">J259 / AR259</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="260" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="3">
         <v>2010</v>
       </c>
@@ -25481,8 +26522,12 @@
       <c r="AR260" s="10" t="s">
         <v>2371</v>
       </c>
-    </row>
-    <row r="261" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT260" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="261" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="3">
         <v>2010</v>
       </c>
@@ -25525,8 +26570,12 @@
         <f xml:space="preserve"> (1379528 + 2224947) * 1000</f>
         <v>3604475000</v>
       </c>
-    </row>
-    <row r="262" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT261">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="3">
         <v>2010</v>
       </c>
@@ -25571,8 +26620,12 @@
         <f xml:space="preserve"> 25374999 * 1000</f>
         <v>25374999000</v>
       </c>
-    </row>
-    <row r="263" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT262">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="3">
         <v>2010</v>
       </c>
@@ -25614,8 +26667,12 @@
       <c r="AR263" s="10" t="s">
         <v>2371</v>
       </c>
-    </row>
-    <row r="264" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT263" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="264" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A264" s="3">
         <v>2010</v>
       </c>
@@ -25685,12 +26742,16 @@
         <f>IF( J264="s.i", "s.i", IF(ISBLANK(J264),"Actualizando información",IFERROR(J264 / VLOOKUP(A264,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>14786501880.608461</v>
       </c>
-      <c r="AR264" s="10">
-        <f xml:space="preserve"> 2544413 * 1000</f>
-        <v>2544413000</v>
-      </c>
-    </row>
-    <row r="265" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AR264" s="36">
+        <f xml:space="preserve"> (7807594 + 5375466) * 1000</f>
+        <v>13183060000</v>
+      </c>
+      <c r="AT264">
+        <f t="shared" si="13"/>
+        <v>1.0547627030446649</v>
+      </c>
+    </row>
+    <row r="265" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A265" s="3">
         <v>2010</v>
       </c>
@@ -25719,7 +26780,7 @@
         <v>623</v>
       </c>
       <c r="J265" s="10">
-        <f t="shared" ref="J265" si="9" xml:space="preserve"> 141370509 * 1000000</f>
+        <f t="shared" ref="J265" si="14" xml:space="preserve"> 141370509 * 1000000</f>
         <v>141370509000000</v>
       </c>
       <c r="K265" s="3" t="s">
@@ -25754,12 +26815,16 @@
         <f>IF( J265="s.i", "s.i", IF(ISBLANK(J265),"Actualizando información",IFERROR(J265 / VLOOKUP(A265,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>150332635540530.41</v>
       </c>
-      <c r="AR265" s="10">
+      <c r="AR265" s="36">
         <f xml:space="preserve"> 132129142 * 1000</f>
         <v>132129142000</v>
       </c>
-    </row>
-    <row r="266" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT265">
+        <f t="shared" si="13"/>
+        <v>1069.9419284808494</v>
+      </c>
+    </row>
+    <row r="266" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="3">
         <v>2010</v>
       </c>
@@ -25802,8 +26867,12 @@
         <f xml:space="preserve"> 11728561 * 1000</f>
         <v>11728561000</v>
       </c>
-    </row>
-    <row r="267" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT266">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="3">
         <v>2010</v>
       </c>
@@ -25846,8 +26915,12 @@
         <f xml:space="preserve"> 8881250 * 1000</f>
         <v>8881250000</v>
       </c>
-    </row>
-    <row r="268" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT267">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="3">
         <v>2010</v>
       </c>
@@ -25892,8 +26965,12 @@
         <f xml:space="preserve"> 4685491 * 1000</f>
         <v>4685491000</v>
       </c>
-    </row>
-    <row r="269" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT268">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="3">
         <v>2010</v>
       </c>
@@ -25938,8 +27015,12 @@
         <f xml:space="preserve"> 4685491 * 1000</f>
         <v>4685491000</v>
       </c>
-    </row>
-    <row r="270" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT269">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="3">
         <v>2010</v>
       </c>
@@ -25982,8 +27063,12 @@
         <f xml:space="preserve"> (5182717 + 15340680) * 1000</f>
         <v>20523397000</v>
       </c>
-    </row>
-    <row r="271" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT270">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="3">
         <v>2010</v>
       </c>
@@ -26026,8 +27111,12 @@
         <f xml:space="preserve"> (3583453 + 2040487) * 1000</f>
         <v>5623940000</v>
       </c>
-    </row>
-    <row r="272" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT271">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="3">
         <v>2009</v>
       </c>
@@ -26070,8 +27159,12 @@
         <f xml:space="preserve"> 7557784 * 1000</f>
         <v>7557784000</v>
       </c>
-    </row>
-    <row r="273" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT272">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="3">
         <v>2009</v>
       </c>
@@ -26114,8 +27207,12 @@
         <f xml:space="preserve"> (868185 + 3415241) * 1000</f>
         <v>4283426000</v>
       </c>
-    </row>
-    <row r="274" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT273">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="3">
         <v>2009</v>
       </c>
@@ -26158,8 +27255,12 @@
         <f xml:space="preserve"> 15272054 * 1000</f>
         <v>15272054000</v>
       </c>
-    </row>
-    <row r="275" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT274">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="3">
         <v>2009</v>
       </c>
@@ -26206,8 +27307,12 @@
         <f xml:space="preserve"> 4933 * 1000</f>
         <v>4933000</v>
       </c>
-    </row>
-    <row r="276" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT275">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="3">
         <v>2009</v>
       </c>
@@ -26250,8 +27355,12 @@
         <f xml:space="preserve"> 18823388 * 1000</f>
         <v>18823388000</v>
       </c>
-    </row>
-    <row r="277" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT276">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="3">
         <v>2009</v>
       </c>
@@ -26291,11 +27400,15 @@
         <v>Actualizando información</v>
       </c>
       <c r="AR277" s="10">
-        <f t="shared" ref="AR277:AR279" si="10" xml:space="preserve"> 17991107 * 1000</f>
+        <f t="shared" ref="AR277:AR279" si="15" xml:space="preserve"> 17991107 * 1000</f>
         <v>17991107000</v>
       </c>
-    </row>
-    <row r="278" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT277">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="3">
         <v>2009</v>
       </c>
@@ -26335,11 +27448,15 @@
         <v>Actualizando información</v>
       </c>
       <c r="AR278" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>17991107000</v>
       </c>
-    </row>
-    <row r="279" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT278">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="3">
         <v>2009</v>
       </c>
@@ -26379,11 +27496,15 @@
         <v>Actualizando información</v>
       </c>
       <c r="AR279" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>17991107000</v>
       </c>
-    </row>
-    <row r="280" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT279">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="3">
         <v>2009</v>
       </c>
@@ -26425,8 +27546,12 @@
       <c r="AR280" s="10" t="s">
         <v>2371</v>
       </c>
-    </row>
-    <row r="281" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT280" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="281" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="3">
         <v>2009</v>
       </c>
@@ -26496,8 +27621,12 @@
         <f xml:space="preserve"> 6112095 * 1000</f>
         <v>6112095000</v>
       </c>
-    </row>
-    <row r="282" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT281">
+        <f t="shared" si="13"/>
+        <v>1.0192904396937548</v>
+      </c>
+    </row>
+    <row r="282" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="3">
         <v>2009</v>
       </c>
@@ -26540,8 +27669,12 @@
         <f xml:space="preserve"> 2906387 * 1000</f>
         <v>2906387000</v>
       </c>
-    </row>
-    <row r="283" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT282">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="3">
         <v>2009</v>
       </c>
@@ -26584,8 +27717,12 @@
         <f xml:space="preserve"> 111196196 * 1000</f>
         <v>111196196000</v>
       </c>
-    </row>
-    <row r="284" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT283">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="3">
         <v>2009</v>
       </c>
@@ -26628,8 +27765,12 @@
         <f xml:space="preserve"> 632007 * 1000</f>
         <v>632007000</v>
       </c>
-    </row>
-    <row r="285" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT284">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="3">
         <v>2009</v>
       </c>
@@ -26671,8 +27812,12 @@
       <c r="AR285" s="10" t="s">
         <v>2371</v>
       </c>
-    </row>
-    <row r="286" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT285" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="286" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="3">
         <v>2009</v>
       </c>
@@ -26715,8 +27860,12 @@
         <f xml:space="preserve"> 9337673 * 1000</f>
         <v>9337673000</v>
       </c>
-    </row>
-    <row r="287" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT286">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="3">
         <v>2009</v>
       </c>
@@ -26759,8 +27908,12 @@
         <f xml:space="preserve"> 10547807 * 1000</f>
         <v>10547807000</v>
       </c>
-    </row>
-    <row r="288" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT287">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="3">
         <v>2009</v>
       </c>
@@ -26802,8 +27955,12 @@
       <c r="AR288" s="10" t="s">
         <v>2371</v>
       </c>
-    </row>
-    <row r="289" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT288" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="289" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="3">
         <v>2009</v>
       </c>
@@ -26845,8 +28002,12 @@
       <c r="AR289" s="10" t="s">
         <v>2371</v>
       </c>
-    </row>
-    <row r="290" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT289" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="290" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="3">
         <v>2009</v>
       </c>
@@ -26889,8 +28050,12 @@
         <f xml:space="preserve"> 3070179 * 1000</f>
         <v>3070179000</v>
       </c>
-    </row>
-    <row r="291" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT290">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="3">
         <v>2009</v>
       </c>
@@ -26933,8 +28098,12 @@
         <f xml:space="preserve"> 9957711 * 1000</f>
         <v>9957711000</v>
       </c>
-    </row>
-    <row r="292" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT291">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="3">
         <v>2009</v>
       </c>
@@ -26977,8 +28146,12 @@
         <f xml:space="preserve"> 318600 * 1000</f>
         <v>318600000</v>
       </c>
-    </row>
-    <row r="293" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT292">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="3">
         <v>2009</v>
       </c>
@@ -27021,8 +28194,12 @@
         <f xml:space="preserve"> 33984 * 1000</f>
         <v>33984000</v>
       </c>
-    </row>
-    <row r="294" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT293">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="3">
         <v>2009</v>
       </c>
@@ -27062,11 +28239,15 @@
         <v>Actualizando información</v>
       </c>
       <c r="AR294" s="10">
-        <f t="shared" ref="AR294:AR295" si="11" xml:space="preserve"> 17991107 * 1000</f>
+        <f t="shared" ref="AR294:AR295" si="16" xml:space="preserve"> 17991107 * 1000</f>
         <v>17991107000</v>
       </c>
-    </row>
-    <row r="295" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT294">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="3">
         <v>2009</v>
       </c>
@@ -27108,11 +28289,15 @@
         <v>Actualizando información</v>
       </c>
       <c r="AR295" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>17991107000</v>
       </c>
-    </row>
-    <row r="296" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT295">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="3">
         <v>2009</v>
       </c>
@@ -27155,8 +28340,12 @@
         <f xml:space="preserve"> 17991107 * 1000</f>
         <v>17991107000</v>
       </c>
-    </row>
-    <row r="297" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT296">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="3">
         <v>2009</v>
       </c>
@@ -27198,8 +28387,12 @@
       <c r="AR297" s="10" t="s">
         <v>2371</v>
       </c>
-    </row>
-    <row r="298" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT297" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="298" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="3">
         <v>2009</v>
       </c>
@@ -27241,8 +28434,12 @@
       <c r="AR298" s="10" t="s">
         <v>2371</v>
       </c>
-    </row>
-    <row r="299" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT298" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="299" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="3">
         <v>2009</v>
       </c>
@@ -27287,8 +28484,12 @@
         <f xml:space="preserve"> 15930000 * 1000</f>
         <v>15930000000</v>
       </c>
-    </row>
-    <row r="300" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT299">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="3">
         <v>2009</v>
       </c>
@@ -27334,8 +28535,12 @@
       <c r="AR300" s="10" t="s">
         <v>2371</v>
       </c>
-    </row>
-    <row r="301" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT300" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="301" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="3">
         <v>2009</v>
       </c>
@@ -27378,8 +28583,12 @@
         <f xml:space="preserve"> 1188054 * 1000</f>
         <v>1188054000</v>
       </c>
-    </row>
-    <row r="302" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT301">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A302" s="3">
         <v>2009</v>
       </c>
@@ -27443,12 +28652,16 @@
         <f>IF( J302="s.i", "s.i", IF(ISBLANK(J302),"Actualizando información",IFERROR(J302 / VLOOKUP(A302,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>29417053898.539055</v>
       </c>
-      <c r="AR302" s="10">
-        <f xml:space="preserve"> 182590 * 1000</f>
-        <v>182590000</v>
-      </c>
-    </row>
-    <row r="303" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AR302" s="36">
+        <f xml:space="preserve"> 25388224 * 1000</f>
+        <v>25388224000</v>
+      </c>
+      <c r="AT302">
+        <f t="shared" si="13"/>
+        <v>0.99999117701183038</v>
+      </c>
+    </row>
+    <row r="303" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="3">
         <v>2009</v>
       </c>
@@ -27491,8 +28704,12 @@
         <f xml:space="preserve"> 1535413 * 1000</f>
         <v>1535413000</v>
       </c>
-    </row>
-    <row r="304" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT303">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="3">
         <v>2009</v>
       </c>
@@ -27564,8 +28781,12 @@
         <f xml:space="preserve"> 2975575 * 1000</f>
         <v>2975575000</v>
       </c>
-    </row>
-    <row r="305" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT304">
+        <f t="shared" si="13"/>
+        <v>1.3476386916814398</v>
+      </c>
+    </row>
+    <row r="305" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="3">
         <v>2009</v>
       </c>
@@ -27637,8 +28858,12 @@
         <f xml:space="preserve"> 2975575 * 1000</f>
         <v>2975575000</v>
       </c>
-    </row>
-    <row r="306" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT305">
+        <f t="shared" si="13"/>
+        <v>1.3476386916814398</v>
+      </c>
+    </row>
+    <row r="306" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="3">
         <v>2009</v>
       </c>
@@ -27681,8 +28906,12 @@
         <f xml:space="preserve"> 318600 * 1000</f>
         <v>318600000</v>
       </c>
-    </row>
-    <row r="307" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT306">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="3">
         <v>2009</v>
       </c>
@@ -27722,11 +28951,15 @@
         <v>Actualizando información</v>
       </c>
       <c r="AR307" s="10">
-        <f t="shared" ref="AR307" si="12" xml:space="preserve"> 318600 * 1000</f>
+        <f t="shared" ref="AR307" si="17" xml:space="preserve"> 318600 * 1000</f>
         <v>318600000</v>
       </c>
-    </row>
-    <row r="308" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT307">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="3">
         <v>2009</v>
       </c>
@@ -27769,8 +29002,12 @@
         <f xml:space="preserve"> 318600 * 1000</f>
         <v>318600000</v>
       </c>
-    </row>
-    <row r="309" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT308">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="3">
         <v>2009</v>
       </c>
@@ -27813,8 +29050,12 @@
         <f xml:space="preserve"> 4120372 * 1000</f>
         <v>4120372000</v>
       </c>
-    </row>
-    <row r="310" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT309">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="3">
         <v>2008</v>
       </c>
@@ -27856,7 +29097,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="311" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="3">
         <v>2008</v>
       </c>
@@ -27896,7 +29137,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="312" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="3">
         <v>2008</v>
       </c>
@@ -27936,7 +29177,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="313" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="3">
         <v>2008</v>
       </c>
@@ -27976,7 +29217,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="314" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="3">
         <v>2008</v>
       </c>
@@ -28016,7 +29257,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="315" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="3">
         <v>2008</v>
       </c>
@@ -28056,7 +29297,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="316" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="3">
         <v>2008</v>
       </c>
@@ -28096,7 +29337,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="317" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="3">
         <v>2008</v>
       </c>
@@ -28136,7 +29377,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="318" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="3">
         <v>2008</v>
       </c>
@@ -28176,7 +29417,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="319" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="3">
         <v>2008</v>
       </c>
@@ -28218,7 +29459,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="320" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="3">
         <v>2008</v>
       </c>
@@ -28260,7 +29501,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="321" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="3">
         <v>2008</v>
       </c>
@@ -28300,7 +29541,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="322" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="3">
         <v>2008</v>
       </c>
@@ -28342,7 +29583,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="323" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="3">
         <v>2008</v>
       </c>
@@ -28384,7 +29625,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="324" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="3">
         <v>2008</v>
       </c>
@@ -28426,7 +29667,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="325" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="3">
         <v>2008</v>
       </c>
@@ -28466,7 +29707,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="326" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="3">
         <v>2008</v>
       </c>
@@ -28508,7 +29749,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="327" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="3">
         <v>2008</v>
       </c>
@@ -28550,7 +29791,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="328" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="3">
         <v>2008</v>
       </c>
@@ -28592,7 +29833,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="329" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" s="3">
         <v>2008</v>
       </c>
@@ -28634,7 +29875,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="330" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" s="3">
         <v>2008</v>
       </c>
@@ -28676,7 +29917,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="331" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" s="3">
         <v>2008</v>
       </c>
@@ -28718,7 +29959,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="332" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" s="3">
         <v>2008</v>
       </c>
@@ -28758,7 +29999,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="333" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" s="3">
         <v>2008</v>
       </c>
@@ -28800,7 +30041,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="334" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="3">
         <v>2008</v>
       </c>
@@ -28840,7 +30081,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="335" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" s="3">
         <v>2008</v>
       </c>
@@ -28880,7 +30121,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="336" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" s="3">
         <v>2008</v>
       </c>
@@ -28920,7 +30161,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="337" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="3">
         <v>2008</v>
       </c>
@@ -28960,7 +30201,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="338" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" s="3">
         <v>2008</v>
       </c>
@@ -29000,7 +30241,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="339" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" s="3">
         <v>2008</v>
       </c>
@@ -29040,7 +30281,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="340" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" s="3">
         <v>2008</v>
       </c>
@@ -29080,7 +30321,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="341" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" s="3">
         <v>2008</v>
       </c>
@@ -29120,7 +30361,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="342" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" s="3">
         <v>2008</v>
       </c>
@@ -29160,7 +30401,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="343" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" s="3">
         <v>2008</v>
       </c>
@@ -29200,7 +30441,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="344" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" s="3">
         <v>2008</v>
       </c>
@@ -29240,7 +30481,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="345" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" s="3">
         <v>2007</v>
       </c>
@@ -29280,7 +30521,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="346" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" s="3">
         <v>2007</v>
       </c>
@@ -29322,7 +30563,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="347" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" s="3">
         <v>2007</v>
       </c>
@@ -29362,7 +30603,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="348" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" s="3">
         <v>2007</v>
       </c>
@@ -29402,7 +30643,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="349" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" s="3">
         <v>2007</v>
       </c>
@@ -29442,7 +30683,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="350" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" s="3">
         <v>2007</v>
       </c>
@@ -29482,7 +30723,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="351" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" s="3">
         <v>2007</v>
       </c>
@@ -29524,7 +30765,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="352" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" s="3">
         <v>2007</v>
       </c>
@@ -29564,7 +30805,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="353" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" s="3">
         <v>2007</v>
       </c>
@@ -29604,7 +30845,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="354" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" s="3">
         <v>2007</v>
       </c>
@@ -29644,7 +30885,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="355" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" s="3">
         <v>2007</v>
       </c>
@@ -29684,7 +30925,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="356" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" s="3">
         <v>2007</v>
       </c>
@@ -29726,7 +30967,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="357" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" s="3">
         <v>2007</v>
       </c>
@@ -29768,7 +31009,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="358" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" s="3">
         <v>2007</v>
       </c>
@@ -29810,7 +31051,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="359" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" s="3">
         <v>2007</v>
       </c>
@@ -29852,7 +31093,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="360" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" s="3">
         <v>2007</v>
       </c>
@@ -29892,7 +31133,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="361" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" s="3">
         <v>2007</v>
       </c>
@@ -29934,7 +31175,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="362" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" s="3">
         <v>2007</v>
       </c>
@@ -29976,7 +31217,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="363" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" s="3">
         <v>2007</v>
       </c>
@@ -30016,7 +31257,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="364" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" s="3">
         <v>2007</v>
       </c>
@@ -30056,7 +31297,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="365" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" s="3">
         <v>2007</v>
       </c>
@@ -30096,7 +31337,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="366" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" s="3">
         <v>2007</v>
       </c>
@@ -30136,7 +31377,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="367" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" s="3">
         <v>2007</v>
       </c>
@@ -30176,7 +31417,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="368" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" s="3">
         <v>2007</v>
       </c>
@@ -30216,7 +31457,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="369" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" s="3">
         <v>2007</v>
       </c>
@@ -30256,7 +31497,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="370" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" s="3">
         <v>2007</v>
       </c>
@@ -30296,7 +31537,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="371" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" s="3">
         <v>2007</v>
       </c>
@@ -30336,7 +31577,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="372" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" s="3">
         <v>2007</v>
       </c>
@@ -30376,7 +31617,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="373" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" s="3">
         <v>2007</v>
       </c>
@@ -30418,7 +31659,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="374" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" s="3">
         <v>2007</v>
       </c>
@@ -30460,7 +31701,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="375" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" s="3">
         <v>2007</v>
       </c>
@@ -30500,7 +31741,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="376" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" s="3">
         <v>2007</v>
       </c>
@@ -30540,7 +31781,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="377" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" s="3">
         <v>2006</v>
       </c>
@@ -30580,7 +31821,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="378" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" s="3">
         <v>2006</v>
       </c>
@@ -30622,7 +31863,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="379" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" s="3">
         <v>2006</v>
       </c>
@@ -30662,7 +31903,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="380" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" s="3">
         <v>2006</v>
       </c>
@@ -30702,7 +31943,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="381" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" s="3">
         <v>2006</v>
       </c>
@@ -30742,7 +31983,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="382" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" s="3">
         <v>2006</v>
       </c>
@@ -30782,7 +32023,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="383" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" s="3">
         <v>2006</v>
       </c>
@@ -30822,7 +32063,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="384" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" s="3">
         <v>2006</v>
       </c>
@@ -30862,7 +32103,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="385" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" s="3">
         <v>2006</v>
       </c>
@@ -30904,7 +32145,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="386" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" s="3">
         <v>2006</v>
       </c>
@@ -30944,7 +32185,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="387" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" s="3">
         <v>2006</v>
       </c>
@@ -30984,7 +32225,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="388" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" s="3">
         <v>2006</v>
       </c>
@@ -31028,7 +32269,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="389" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" s="3">
         <v>2006</v>
       </c>
@@ -31068,7 +32309,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="390" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" s="3">
         <v>2006</v>
       </c>
@@ -31108,7 +32349,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="391" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" s="3">
         <v>2006</v>
       </c>
@@ -31148,7 +32389,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="392" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" s="3">
         <v>2006</v>
       </c>
@@ -31188,7 +32429,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="393" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" s="3">
         <v>2006</v>
       </c>
@@ -31228,7 +32469,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="394" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" s="3">
         <v>2006</v>
       </c>
@@ -31268,7 +32509,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="395" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" s="3">
         <v>2006</v>
       </c>
@@ -31308,7 +32549,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="396" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" s="3">
         <v>2006</v>
       </c>
@@ -31348,7 +32589,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="397" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" s="3">
         <v>2006</v>
       </c>
@@ -31388,7 +32629,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="398" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" s="3">
         <v>2005</v>
       </c>
@@ -31430,7 +32671,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="399" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" s="3">
         <v>2005</v>
       </c>
@@ -31470,7 +32711,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="400" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" s="3">
         <v>2005</v>
       </c>
@@ -31510,7 +32751,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="401" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" s="3">
         <v>2005</v>
       </c>
@@ -31550,7 +32791,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="402" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" s="3">
         <v>2005</v>
       </c>
@@ -31590,7 +32831,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="403" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" s="3">
         <v>2005</v>
       </c>
@@ -31630,7 +32871,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="404" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" s="3">
         <v>2005</v>
       </c>
@@ -31672,7 +32913,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="405" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" s="3">
         <v>2005</v>
       </c>
@@ -31712,7 +32953,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="406" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" s="3">
         <v>2005</v>
       </c>
@@ -31752,7 +32993,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="407" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" s="3">
         <v>2005</v>
       </c>
@@ -31792,7 +33033,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="408" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" s="3">
         <v>2005</v>
       </c>
@@ -31832,7 +33073,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="409" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" s="3">
         <v>2005</v>
       </c>
@@ -31872,7 +33113,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="410" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" s="3">
         <v>2005</v>
       </c>
@@ -31912,7 +33153,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="411" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" s="3">
         <v>2005</v>
       </c>
@@ -31952,7 +33193,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="412" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" s="3">
         <v>2005</v>
       </c>
@@ -31992,7 +33233,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="413" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" s="3">
         <v>2005</v>
       </c>
@@ -32032,7 +33273,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="414" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" s="3">
         <v>2005</v>
       </c>
@@ -32074,7 +33315,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="415" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" s="3">
         <v>2005</v>
       </c>
@@ -32114,7 +33355,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="416" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" s="3">
         <v>2005</v>
       </c>
@@ -32154,7 +33395,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="417" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" s="3">
         <v>2005</v>
       </c>
@@ -32194,7 +33435,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="418" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" s="3">
         <v>2005</v>
       </c>
@@ -32234,7 +33475,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="419" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" s="3">
         <v>2005</v>
       </c>
@@ -32274,7 +33515,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="420" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" s="3">
         <v>2005</v>
       </c>
@@ -32314,7 +33555,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="421" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" s="3">
         <v>2004</v>
       </c>
@@ -32354,7 +33595,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="422" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" s="3">
         <v>2004</v>
       </c>
@@ -32394,7 +33635,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="423" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" s="3">
         <v>2004</v>
       </c>
@@ -32434,7 +33675,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="424" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" s="3">
         <v>2004</v>
       </c>
@@ -32474,7 +33715,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="425" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" s="3">
         <v>2004</v>
       </c>
@@ -32514,7 +33755,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="426" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" s="3">
         <v>2004</v>
       </c>
@@ -32554,7 +33795,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="427" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" s="3">
         <v>2004</v>
       </c>
@@ -32594,7 +33835,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="428" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" s="3">
         <v>2004</v>
       </c>
@@ -32634,7 +33875,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="429" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" s="3">
         <v>2004</v>
       </c>
@@ -32674,7 +33915,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="430" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" s="3">
         <v>2004</v>
       </c>
@@ -32714,7 +33955,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="431" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" s="3">
         <v>2004</v>
       </c>
@@ -32754,7 +33995,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="432" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" s="3">
         <v>2004</v>
       </c>
@@ -32794,7 +34035,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="433" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" s="3">
         <v>2004</v>
       </c>
@@ -32834,7 +34075,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="434" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" s="3">
         <v>2004</v>
       </c>
@@ -32874,7 +34115,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="435" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" s="3">
         <v>2004</v>
       </c>
@@ -32914,7 +34155,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="436" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" s="3">
         <v>2004</v>
       </c>
@@ -32954,7 +34195,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="437" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" s="3">
         <v>2004</v>
       </c>
@@ -32994,7 +34235,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="438" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" s="3">
         <v>2004</v>
       </c>
@@ -33034,7 +34275,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="439" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" s="3">
         <v>2004</v>
       </c>
@@ -33074,7 +34315,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="440" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" s="3">
         <v>2004</v>
       </c>
@@ -33114,7 +34355,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="441" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" s="3">
         <v>2004</v>
       </c>
@@ -33154,7 +34395,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="442" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" s="3">
         <v>2004</v>
       </c>
@@ -33194,7 +34435,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="443" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" s="3">
         <v>2004</v>
       </c>
@@ -33234,7 +34475,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="444" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" s="3">
         <v>2004</v>
       </c>
@@ -33274,7 +34515,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="445" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" s="3">
         <v>2004</v>
       </c>
@@ -33314,7 +34555,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="446" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" s="3">
         <v>2004</v>
       </c>
@@ -33354,7 +34595,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="447" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" s="3">
         <v>2004</v>
       </c>
@@ -33394,7 +34635,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="448" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" s="3">
         <v>2004</v>
       </c>
@@ -33434,7 +34675,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="449" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" s="3">
         <v>2004</v>
       </c>
@@ -33474,7 +34715,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="450" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" s="3">
         <v>2004</v>
       </c>
@@ -33514,7 +34755,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="451" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" s="3">
         <v>2004</v>
       </c>
@@ -33554,7 +34795,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="452" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" s="3">
         <v>2003</v>
       </c>
@@ -33594,7 +34835,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="453" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" s="3">
         <v>2003</v>
       </c>
@@ -33634,7 +34875,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="454" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" s="3">
         <v>2003</v>
       </c>
@@ -33674,7 +34915,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="455" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" s="3">
         <v>2003</v>
       </c>
@@ -33714,7 +34955,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="456" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" s="3">
         <v>2003</v>
       </c>
@@ -33754,7 +34995,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="457" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" s="3">
         <v>2003</v>
       </c>
@@ -33794,7 +35035,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="458" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" s="3">
         <v>2003</v>
       </c>
@@ -33834,7 +35075,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="459" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" s="3">
         <v>2003</v>
       </c>
@@ -33874,7 +35115,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="460" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" s="3">
         <v>2003</v>
       </c>
@@ -33914,7 +35155,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="461" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" s="3">
         <v>2003</v>
       </c>
@@ -33954,7 +35195,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="462" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" s="3">
         <v>2003</v>
       </c>
@@ -33994,7 +35235,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="463" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" s="3">
         <v>2003</v>
       </c>
@@ -34034,7 +35275,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="464" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" s="3">
         <v>2003</v>
       </c>
@@ -34074,7 +35315,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="465" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" s="3">
         <v>2003</v>
       </c>
@@ -34116,7 +35357,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="466" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" s="3">
         <v>2003</v>
       </c>
@@ -34156,7 +35397,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="467" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" s="3">
         <v>2003</v>
       </c>
@@ -34196,7 +35437,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="468" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" s="3">
         <v>2003</v>
       </c>
@@ -34236,7 +35477,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="469" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" s="3">
         <v>2003</v>
       </c>
@@ -34276,7 +35517,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="470" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" s="3">
         <v>2003</v>
       </c>
@@ -34316,7 +35557,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="471" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" s="3">
         <v>2002</v>
       </c>
@@ -34356,7 +35597,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="472" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" s="3">
         <v>2002</v>
       </c>
@@ -34396,7 +35637,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="473" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" s="3">
         <v>2002</v>
       </c>
@@ -34436,7 +35677,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="474" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" s="3">
         <v>2002</v>
       </c>
@@ -34476,7 +35717,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="475" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" s="3">
         <v>2002</v>
       </c>
@@ -34516,7 +35757,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="476" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" s="3">
         <v>2002</v>
       </c>
@@ -34556,7 +35797,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="477" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" s="3">
         <v>2002</v>
       </c>
@@ -34596,7 +35837,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="478" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" s="3">
         <v>2002</v>
       </c>
@@ -34636,7 +35877,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="479" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" s="3">
         <v>2002</v>
       </c>
@@ -34676,7 +35917,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="480" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" s="3">
         <v>2002</v>
       </c>
@@ -34716,7 +35957,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="481" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" s="3">
         <v>2002</v>
       </c>
@@ -34756,7 +35997,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="482" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" s="3">
         <v>2002</v>
       </c>
@@ -34796,7 +36037,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="483" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" s="3">
         <v>2002</v>
       </c>
@@ -34836,7 +36077,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="484" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" s="3">
         <v>2002</v>
       </c>
@@ -34876,7 +36117,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="485" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" s="3">
         <v>2002</v>
       </c>
@@ -34916,7 +36157,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="486" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" s="3">
         <v>2002</v>
       </c>
@@ -34956,7 +36197,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="487" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" s="3">
         <v>2002</v>
       </c>
@@ -34998,7 +36239,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="488" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" s="3">
         <v>2002</v>
       </c>
@@ -35042,7 +36283,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="489" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" s="3">
         <v>2002</v>
       </c>
@@ -35084,7 +36325,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="490" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" s="3">
         <v>2002</v>
       </c>
@@ -35124,7 +36365,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="491" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" s="3">
         <v>2002</v>
       </c>
@@ -35164,7 +36405,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="492" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" s="3">
         <v>2002</v>
       </c>
@@ -35204,7 +36445,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="493" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" s="3">
         <v>2002</v>
       </c>
@@ -35244,7 +36485,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="494" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" s="3">
         <v>2002</v>
       </c>
@@ -35288,7 +36529,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="495" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" s="3">
         <v>2002</v>
       </c>
@@ -35328,7 +36569,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="496" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" s="3">
         <v>2001</v>
       </c>
@@ -35368,7 +36609,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="497" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" s="3">
         <v>2001</v>
       </c>
@@ -35408,7 +36649,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="498" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" s="3">
         <v>2001</v>
       </c>
@@ -35448,7 +36689,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="499" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" s="3">
         <v>2001</v>
       </c>
@@ -35488,7 +36729,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="500" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" s="3">
         <v>2001</v>
       </c>
@@ -35528,7 +36769,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="501" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" s="3">
         <v>2001</v>
       </c>
@@ -35568,7 +36809,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="502" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" s="3">
         <v>2001</v>
       </c>
@@ -35608,7 +36849,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="503" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" s="3">
         <v>2001</v>
       </c>
@@ -35648,7 +36889,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="504" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" s="3">
         <v>2001</v>
       </c>
@@ -35688,7 +36929,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="505" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" s="3">
         <v>2001</v>
       </c>
@@ -35728,7 +36969,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="506" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" s="3">
         <v>2001</v>
       </c>
@@ -35768,7 +37009,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="507" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507" s="3">
         <v>2001</v>
       </c>
@@ -35808,7 +37049,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="508" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" s="3">
         <v>2001</v>
       </c>
@@ -35848,7 +37089,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="509" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509" s="3">
         <v>2001</v>
       </c>
@@ -35888,7 +37129,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="510" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" s="3">
         <v>2001</v>
       </c>
@@ -35928,7 +37169,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="511" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511" s="3">
         <v>2001</v>
       </c>
@@ -35968,7 +37209,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="512" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512" s="3">
         <v>2001</v>
       </c>
@@ -36008,7 +37249,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="513" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" s="3">
         <v>2001</v>
       </c>
@@ -36048,7 +37289,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="514" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514" s="3">
         <v>2001</v>
       </c>
@@ -36090,7 +37331,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="515" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515" s="3">
         <v>2001</v>
       </c>
@@ -36130,7 +37371,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="516" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516" s="3">
         <v>2001</v>
       </c>
@@ -36170,7 +37411,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="517" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517" s="3">
         <v>2000</v>
       </c>
@@ -36210,7 +37451,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="518" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518" s="3">
         <v>2000</v>
       </c>
@@ -36250,7 +37491,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="519" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519" s="3">
         <v>2000</v>
       </c>
@@ -36290,7 +37531,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="520" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520" s="3">
         <v>2000</v>
       </c>
@@ -36330,7 +37571,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="521" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521" s="3">
         <v>2000</v>
       </c>
@@ -36370,7 +37611,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="522" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522" s="3">
         <v>2000</v>
       </c>
@@ -36410,7 +37651,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="523" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523" s="3">
         <v>2000</v>
       </c>
@@ -36450,7 +37691,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="524" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524" s="3">
         <v>2000</v>
       </c>
@@ -36490,7 +37731,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="525" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525" s="3">
         <v>2000</v>
       </c>
@@ -36530,7 +37771,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="526" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526" s="3">
         <v>2000</v>
       </c>
@@ -36570,7 +37811,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="527" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527" s="3">
         <v>2000</v>
       </c>
@@ -36610,7 +37851,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="528" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A528" s="3">
         <v>2000</v>
       </c>
@@ -36650,7 +37891,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="529" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529" s="3">
         <v>2000</v>
       </c>
@@ -36690,7 +37931,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="530" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A530" s="3">
         <v>2000</v>
       </c>
@@ -36730,7 +37971,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="531" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A531" s="3">
         <v>2000</v>
       </c>
@@ -36770,7 +38011,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="532" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532" s="3">
         <v>2000</v>
       </c>
@@ -36810,7 +38051,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="533" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A533" s="3">
         <v>2000</v>
       </c>
@@ -36850,7 +38091,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="534" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A534" s="3">
         <v>2000</v>
       </c>
@@ -36890,7 +38131,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="535" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A535" s="3">
         <v>2000</v>
       </c>
@@ -36930,7 +38171,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="536" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A536" s="3">
         <v>2000</v>
       </c>
@@ -36970,7 +38211,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="537" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A537" s="3">
         <v>1999</v>
       </c>
@@ -37010,7 +38251,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="538" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A538" s="3">
         <v>1999</v>
       </c>
@@ -37077,7 +38318,7 @@
         <v>2647413713.3990426</v>
       </c>
     </row>
-    <row r="539" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A539" s="3">
         <v>1999</v>
       </c>
@@ -37119,7 +38360,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="540" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A540" s="3">
         <v>1999</v>
       </c>
@@ -37161,7 +38402,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="541" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A541" s="3">
         <v>1999</v>
       </c>
@@ -37201,7 +38442,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="542" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A542" s="3">
         <v>1999</v>
       </c>
@@ -37241,7 +38482,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="543" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A543" s="3">
         <v>1999</v>
       </c>
@@ -37281,7 +38522,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="544" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A544" s="3">
         <v>1999</v>
       </c>
@@ -37323,7 +38564,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="545" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A545" s="3">
         <v>1999</v>
       </c>
@@ -37363,7 +38604,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="546" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A546" s="3">
         <v>1999</v>
       </c>
@@ -37403,7 +38644,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="547" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A547" s="3">
         <v>1999</v>
       </c>
@@ -37443,7 +38684,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="548" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A548" s="3">
         <v>1999</v>
       </c>
@@ -37483,7 +38724,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="549" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A549" s="3">
         <v>1999</v>
       </c>
@@ -37523,7 +38764,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="550" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A550" s="3">
         <v>1999</v>
       </c>
@@ -37565,7 +38806,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="551" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A551" s="3">
         <v>1999</v>
       </c>
@@ -37605,7 +38846,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="552" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A552" s="3">
         <v>1999</v>
       </c>
@@ -37645,7 +38886,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="553" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A553" s="3">
         <v>1999</v>
       </c>
@@ -37685,7 +38926,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="554" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A554" s="3">
         <v>1999</v>
       </c>
@@ -37725,7 +38966,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="555" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A555" s="3">
         <v>1999</v>
       </c>
@@ -37767,7 +39008,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="556" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A556" s="3">
         <v>1999</v>
       </c>
@@ -37809,7 +39050,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="557" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A557" s="3">
         <v>1999</v>
       </c>
@@ -37849,7 +39090,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="558" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A558" s="3">
         <v>1998</v>
       </c>
@@ -37889,7 +39130,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="559" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A559" s="3">
         <v>1998</v>
       </c>
@@ -37929,7 +39170,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="560" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A560" s="3">
         <v>1998</v>
       </c>
@@ -37969,7 +39210,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="561" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A561" s="3">
         <v>1998</v>
       </c>
@@ -38011,7 +39252,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="562" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A562" s="3">
         <v>1998</v>
       </c>
@@ -38051,7 +39292,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="563" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A563" s="3">
         <v>1998</v>
       </c>
@@ -38091,7 +39332,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="564" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A564" s="3">
         <v>1998</v>
       </c>
@@ -38131,7 +39372,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="565" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A565" s="3">
         <v>1998</v>
       </c>
@@ -38171,7 +39412,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="566" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A566" s="3">
         <v>1998</v>
       </c>
@@ -38211,7 +39452,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="567" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A567" s="3">
         <v>1998</v>
       </c>
@@ -38253,7 +39494,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="568" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A568" s="3">
         <v>1998</v>
       </c>
@@ -38295,7 +39536,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="569" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A569" s="3">
         <v>1998</v>
       </c>
@@ -38335,7 +39576,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="570" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A570" s="3">
         <v>1998</v>
       </c>
@@ -38375,7 +39616,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="571" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A571" s="3">
         <v>1998</v>
       </c>
@@ -38415,7 +39656,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="572" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A572" s="3">
         <v>1998</v>
       </c>
@@ -38455,7 +39696,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="573" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A573" s="3">
         <v>1998</v>
       </c>
@@ -38495,7 +39736,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="574" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A574" s="3">
         <v>1998</v>
       </c>
@@ -38535,7 +39776,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="575" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A575" s="3">
         <v>1998</v>
       </c>
@@ -38575,7 +39816,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="576" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A576" s="3">
         <v>1998</v>
       </c>
@@ -38617,7 +39858,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="577" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A577" s="3">
         <v>1998</v>
       </c>
@@ -38657,7 +39898,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="578" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A578" s="3">
         <v>1998</v>
       </c>
@@ -38697,7 +39938,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="579" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A579" s="3">
         <v>1998</v>
       </c>
@@ -38737,7 +39978,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="580" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A580" s="3">
         <v>1998</v>
       </c>
@@ -38777,7 +40018,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="581" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A581" s="3">
         <v>1998</v>
       </c>
@@ -38817,7 +40058,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="582" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A582" s="3">
         <v>1998</v>
       </c>
@@ -38857,7 +40098,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="583" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A583" s="3">
         <v>1998</v>
       </c>
@@ -38897,7 +40138,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="584" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A584" s="3">
         <v>1998</v>
       </c>
@@ -38937,7 +40178,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="585" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A585" s="3">
         <v>1998</v>
       </c>
@@ -38977,7 +40218,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="586" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A586" s="3">
         <v>1998</v>
       </c>
@@ -39019,7 +40260,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="587" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A587" s="3">
         <v>1998</v>
       </c>
@@ -39059,7 +40300,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="588" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A588" s="3">
         <v>1998</v>
       </c>
@@ -39099,7 +40340,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="589" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A589" s="3">
         <v>1998</v>
       </c>
@@ -39139,7 +40380,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="590" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A590" s="3">
         <v>1998</v>
       </c>
@@ -39179,7 +40420,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="591" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A591" s="3">
         <v>1998</v>
       </c>
@@ -39219,7 +40460,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="592" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A592" s="3">
         <v>1998</v>
       </c>
@@ -39259,7 +40500,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="593" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A593" s="3">
         <v>1998</v>
       </c>
@@ -39299,7 +40540,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="594" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A594" s="3">
         <v>1998</v>
       </c>
@@ -39339,7 +40580,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="595" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A595" s="3">
         <v>1998</v>
       </c>
@@ -39379,7 +40620,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="596" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A596" s="3">
         <v>1998</v>
       </c>
@@ -39419,7 +40660,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="597" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A597" s="3">
         <v>1998</v>
       </c>
@@ -39459,7 +40700,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="598" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A598" s="3">
         <v>1998</v>
       </c>
@@ -39499,7 +40740,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="599" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A599" s="3">
         <v>1998</v>
       </c>
@@ -39539,7 +40780,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="600" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A600" s="3">
         <v>1998</v>
       </c>
@@ -39579,7 +40820,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="601" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A601" s="3">
         <v>1998</v>
       </c>
@@ -39619,7 +40860,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="602" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A602" s="3">
         <v>1998</v>
       </c>
@@ -39659,7 +40900,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="603" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A603" s="3">
         <v>1997</v>
       </c>
@@ -39699,7 +40940,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="604" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A604" s="3">
         <v>1997</v>
       </c>
@@ -39739,7 +40980,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="605" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A605" s="3">
         <v>1997</v>
       </c>
@@ -39779,7 +41020,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="606" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A606" s="3">
         <v>1997</v>
       </c>
@@ -39819,7 +41060,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="607" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A607" s="3">
         <v>1997</v>
       </c>
@@ -39859,7 +41100,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="608" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A608" s="3">
         <v>1997</v>
       </c>
@@ -39899,7 +41140,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="609" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A609" s="3">
         <v>1997</v>
       </c>
@@ -39939,7 +41180,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="610" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A610" s="3">
         <v>1997</v>
       </c>
@@ -39979,7 +41220,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="611" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A611" s="3">
         <v>1997</v>
       </c>
@@ -40019,7 +41260,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="612" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A612" s="3">
         <v>1997</v>
       </c>
@@ -40059,7 +41300,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="613" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A613" s="3">
         <v>1997</v>
       </c>
@@ -40099,7 +41340,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="614" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A614" s="3">
         <v>1997</v>
       </c>
@@ -40139,7 +41380,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="615" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A615" s="3">
         <v>1997</v>
       </c>
@@ -40179,7 +41420,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="616" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A616" s="3">
         <v>1997</v>
       </c>
@@ -40219,7 +41460,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="617" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A617" s="3">
         <v>1997</v>
       </c>
@@ -40259,7 +41500,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="618" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A618" s="3">
         <v>1997</v>
       </c>
@@ -40299,7 +41540,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="619" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A619" s="3">
         <v>1997</v>
       </c>
@@ -40339,7 +41580,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="620" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A620" s="3">
         <v>1997</v>
       </c>
@@ -40381,7 +41622,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="621" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A621" s="3">
         <v>1997</v>
       </c>
@@ -40421,7 +41662,7 @@
         <v>Actualizando información</v>
       </c>
     </row>
-    <row r="622" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A622" s="3">
         <v>1997</v>
       </c>
@@ -40462,7 +41703,52 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AS622" xr:uid="{ABDF6ED0-5D3E-4C07-9B0E-7BC101B91C41}"/>
+  <autoFilter ref="A1:AT622" xr:uid="{7684EFF7-2168-4D7F-AEB4-A7627537983C}">
+    <filterColumn colId="45">
+      <filters>
+        <filter val="1,965569473"/>
+        <filter val="10,10949521"/>
+        <filter val="10,36639925"/>
+        <filter val="1000"/>
+        <filter val="10017130,84"/>
+        <filter val="1017,057457"/>
+        <filter val="1043,022746"/>
+        <filter val="1061232,577"/>
+        <filter val="1069,941928"/>
+        <filter val="1112,045969"/>
+        <filter val="1113,681684"/>
+        <filter val="1131,770393"/>
+        <filter val="12,69727375"/>
+        <filter val="1209,044696"/>
+        <filter val="1253,29962"/>
+        <filter val="1334,136098"/>
+        <filter val="1361,791563"/>
+        <filter val="139,0437592"/>
+        <filter val="1402,478135"/>
+        <filter val="1430,747525"/>
+        <filter val="17,77617855"/>
+        <filter val="2,446476223"/>
+        <filter val="2,474316162"/>
+        <filter val="2,653860276"/>
+        <filter val="2,681853051"/>
+        <filter val="2,91265221"/>
+        <filter val="2687,874763"/>
+        <filter val="27,02169903"/>
+        <filter val="29,9112344"/>
+        <filter val="3,04267001"/>
+        <filter val="3,65831148"/>
+        <filter val="36,6753679"/>
+        <filter val="40,45622707"/>
+        <filter val="5,283457848"/>
+        <filter val="5,464914697"/>
+        <filter val="5200,204347"/>
+        <filter val="6,315669451"/>
+        <filter val="7,385010839"/>
+        <filter val="9,186791985"/>
+        <filter val="994,4218747"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="R19" r:id="rId1" xr:uid="{8BE2D469-4FC3-404D-88F5-CAE5385B1926}"/>
@@ -40992,14 +42278,14 @@
       <c r="S8" s="44">
         <v>38171814000000</v>
       </c>
-      <c r="T8" s="49">
+      <c r="T8" s="50">
         <f xml:space="preserve"> 40684039 * 1000</f>
         <v>40684039000</v>
       </c>
-      <c r="U8" s="50" t="s">
+      <c r="U8" s="51" t="s">
         <v>2347</v>
       </c>
-      <c r="V8" s="50" t="s">
+      <c r="V8" s="51" t="s">
         <v>2358</v>
       </c>
     </row>
@@ -41019,9 +42305,9 @@
       <c r="S9" s="44">
         <v>38171814000000</v>
       </c>
-      <c r="T9" s="49"/>
-      <c r="U9" s="50"/>
-      <c r="V9" s="50"/>
+      <c r="T9" s="50"/>
+      <c r="U9" s="51"/>
+      <c r="V9" s="51"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="O10">
@@ -41499,7 +42785,7 @@
       <c r="A23" t="s">
         <v>724</v>
       </c>
-      <c r="B23" s="51" t="s">
+      <c r="B23" s="52" t="s">
         <v>2325</v>
       </c>
     </row>
@@ -41507,25 +42793,25 @@
       <c r="A24" t="s">
         <v>725</v>
       </c>
-      <c r="B24" s="51"/>
+      <c r="B24" s="52"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>726</v>
       </c>
-      <c r="B25" s="51"/>
+      <c r="B25" s="52"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>727</v>
       </c>
-      <c r="B26" s="51"/>
+      <c r="B26" s="52"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>728</v>
       </c>
-      <c r="B27" s="51"/>
+      <c r="B27" s="52"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -41539,7 +42825,7 @@
       <c r="A29" t="s">
         <v>736</v>
       </c>
-      <c r="B29" s="51" t="s">
+      <c r="B29" s="52" t="s">
         <v>2327</v>
       </c>
     </row>
@@ -41547,13 +42833,13 @@
       <c r="A30" t="s">
         <v>737</v>
       </c>
-      <c r="B30" s="51"/>
+      <c r="B30" s="52"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>738</v>
       </c>
-      <c r="B31" s="51"/>
+      <c r="B31" s="52"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="41" t="s">
@@ -41583,7 +42869,7 @@
       <c r="A35" t="s">
         <v>1700</v>
       </c>
-      <c r="B35" s="51" t="s">
+      <c r="B35" s="52" t="s">
         <v>2331</v>
       </c>
     </row>
@@ -41591,115 +42877,115 @@
       <c r="A36" t="s">
         <v>1701</v>
       </c>
-      <c r="B36" s="51"/>
+      <c r="B36" s="52"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>1702</v>
       </c>
-      <c r="B37" s="51"/>
+      <c r="B37" s="52"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>1703</v>
       </c>
-      <c r="B38" s="51"/>
+      <c r="B38" s="52"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>1704</v>
       </c>
-      <c r="B39" s="51"/>
+      <c r="B39" s="52"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>1705</v>
       </c>
-      <c r="B40" s="51"/>
+      <c r="B40" s="52"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>1706</v>
       </c>
-      <c r="B41" s="51"/>
+      <c r="B41" s="52"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>1727</v>
       </c>
-      <c r="B42" s="51"/>
+      <c r="B42" s="52"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>1744</v>
       </c>
-      <c r="B43" s="51"/>
+      <c r="B43" s="52"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>1745</v>
       </c>
-      <c r="B44" s="51"/>
+      <c r="B44" s="52"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>1746</v>
       </c>
-      <c r="B45" s="51"/>
+      <c r="B45" s="52"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>1747</v>
       </c>
-      <c r="B46" s="51"/>
+      <c r="B46" s="52"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>1748</v>
       </c>
-      <c r="B47" s="51"/>
+      <c r="B47" s="52"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>1768</v>
       </c>
-      <c r="B48" s="51"/>
+      <c r="B48" s="52"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>1917</v>
       </c>
-      <c r="B49" s="51"/>
+      <c r="B49" s="52"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>1918</v>
       </c>
-      <c r="B50" s="51"/>
+      <c r="B50" s="52"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>1919</v>
       </c>
-      <c r="B51" s="51"/>
+      <c r="B51" s="52"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>2033</v>
       </c>
-      <c r="B52" s="51"/>
+      <c r="B52" s="52"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>2034</v>
       </c>
-      <c r="B53" s="51"/>
+      <c r="B53" s="52"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>2035</v>
       </c>
-      <c r="B54" s="51"/>
+      <c r="B54" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/DATAEVAL.xlsx
+++ b/DATAEVAL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/944d5b9328a00097/Data intelligence/temporal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="66" documentId="8_{CBEA9D6E-EB23-4661-9D82-50DA50A621CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0D10C905-EABB-4153-99D8-001305CEE2B6}"/>
+  <xr:revisionPtr revIDLastSave="323" documentId="8_{CBEA9D6E-EB23-4661-9D82-50DA50A621CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B3E32412-69C6-4283-8B74-170B59633ECD}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dataeval" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5823" uniqueCount="2376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5979" uniqueCount="2391">
   <si>
     <t>Año de protocolo</t>
   </si>
@@ -6832,9 +6832,6 @@
     <t>https://www.dipres.gob.cl/597/articles-160334_informe_final.pdf</t>
   </si>
   <si>
-    <t>La  RdU  es  un  sistema  diseñado   en   base   a   una          organización          piramidal,  es  decir,  en  las                     bases                     (representadas  por  la  atención   primaria   de   urgencia, SAPU y SUR) se  espera  la  consulta  de   baja   complejidad pero       de       mayor       volumen. En este nivel todo      aquello      no      resuelto   debiera   ser   derivado     a     niveles     superiores               de               complejidad</t>
-  </si>
-  <si>
     <t>En los niveles superiores (UEH de hospitales de baja, mediana y alta complejidad), la cantidad de  usuarios  debería  ser  menor.  En  particular,  el  proceso  se  inicia  por  el  ingreso  del  usuario  a una UEH que está precedido por el selector de demanda</t>
   </si>
   <si>
@@ -7174,13 +7171,61 @@
     <t>Aplicación del Diseño Curricular y Pedagógico Intercurricular Bilingüe</t>
   </si>
   <si>
-    <t>Presupuesto Evaluación / Ley</t>
-  </si>
-  <si>
     <t>Presupuesto Ley Inicial CLP</t>
   </si>
   <si>
     <t>Presupuesto Ley Inicial USD</t>
+  </si>
+  <si>
+    <t>La RdU es un sistema diseñado en base a una organización piramidal, es  decir, en las bases (representadas por la atención primaria de urgencia, SAPU y SUR) se espera la consulta de baja complejidad pero de mayor volumen. En este nivel todo aquello no resuelto debiera ser derivado a niveles superiores de complejidad</t>
+  </si>
+  <si>
+    <t>Presupuesto Otras Fuentes</t>
+  </si>
+  <si>
+    <t>Presupuesto Otras fuentes</t>
+  </si>
+  <si>
+    <t>https://programassociales.ministeriodesarrollosocial.gob.cl/pdf/2020/PRG2020_3_63383.pdf</t>
+  </si>
+  <si>
+    <t>https://programassociales.ministeriodesarrollosocial.gob.cl/pdf/2020/PRG2020_3_59465.pdf</t>
+  </si>
+  <si>
+    <t>https://programassociales.ministeriodesarrollosocial.gob.cl/pdf/2020/PRG2020_3_59244.pdf</t>
+  </si>
+  <si>
+    <t>https://programassociales.ministeriodesarrollosocial.gob.cl/pdf/2020/PRG2020_3_5057.pdf</t>
+  </si>
+  <si>
+    <t>https://programassociales.ministeriodesarrollosocial.gob.cl/pdf/2020/PRG2020_3_59470.pdf</t>
+  </si>
+  <si>
+    <t>https://www.senado.cl/site/presupuesto/2018/cumplimiento/Glosas%202018/tercera%20subcomision/16%20Salud/212%20Salud.pdf</t>
+  </si>
+  <si>
+    <t>https://programassociales.ministeriodesarrollosocial.gob.cl/pdf/2018/PRG2018_3_60237.pdf</t>
+  </si>
+  <si>
+    <t>https://www.dipres.gob.cl/597/articles-177369_r_ejecutivo_institucional.pdf</t>
+  </si>
+  <si>
+    <t>https://www.dipres.gob.cl/597/articles-177369_informe_final.pdf</t>
+  </si>
+  <si>
+    <t>https://www.dipres.gob.cl/597/articles-177369_seguimiento_compromisos.pdf</t>
+  </si>
+  <si>
+    <t>https://programassociales.ministeriodesarrollosocial.gob.cl/pdf/2018/PRG2018_3_60236.pdf</t>
+  </si>
+  <si>
+    <t>http://www.doh.cl/Gestion/bgi/Documents/BGI%202018.pdf</t>
+  </si>
+  <si>
+    <t>http://www.doh.cl/Gestion/Paginas/default.aspx</t>
+  </si>
+  <si>
+    <t>https://programassociales.ministeriodesarrollosocial.gob.cl/pdf/2018/PRG2018_3_548.pdf</t>
   </si>
 </sst>
 </file>
@@ -7857,7 +7902,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8322,11 +8367,11 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AT622"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AR2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="AR4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AS1" sqref="AS1"/>
+      <selection pane="bottomRight" activeCell="AS4" sqref="AS4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8483,13 +8528,13 @@
         <v>2035</v>
       </c>
       <c r="AR1" s="7" t="s">
-        <v>2374</v>
+        <v>2372</v>
       </c>
       <c r="AS1" s="45" t="s">
+        <v>2373</v>
+      </c>
+      <c r="AT1" s="7" t="s">
         <v>2375</v>
-      </c>
-      <c r="AT1" s="7" t="s">
-        <v>2373</v>
       </c>
     </row>
     <row r="2" spans="1:46" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -8603,13 +8648,14 @@
       <c r="AL2" s="33" t="s">
         <v>1973</v>
       </c>
-      <c r="AR2" s="10" t="s">
-        <v>2371</v>
+      <c r="AR2" s="36">
+        <f xml:space="preserve"> 66837203 * 1000</f>
+        <v>66837203000</v>
       </c>
       <c r="AS2" s="46"/>
-      <c r="AT2" s="49" t="e">
+      <c r="AT2" s="49">
         <f>J2 / AR2</f>
-        <v>#VALUE!</v>
+        <v>1.4943773155797677</v>
       </c>
     </row>
     <row r="3" spans="1:46" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -8643,7 +8689,7 @@
         <v>46695000000</v>
       </c>
       <c r="K3" s="30" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="L3" s="30" t="s">
         <v>1680</v>
@@ -8719,7 +8765,7 @@
         <v>1.025613317093083</v>
       </c>
     </row>
-    <row r="4" spans="1:46" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:46" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30">
         <v>2020</v>
       </c>
@@ -8826,8 +8872,8 @@
       <c r="AL4" s="33" t="s">
         <v>1999</v>
       </c>
-      <c r="AR4" s="10" t="s">
-        <v>2371</v>
+      <c r="AR4" s="36" t="s">
+        <v>2370</v>
       </c>
       <c r="AS4" s="46"/>
       <c r="AT4" s="33" t="e">
@@ -8939,7 +8985,7 @@
         <v>1.6631221353440546</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>2020</v>
       </c>
@@ -9154,7 +9200,7 @@
         <v>11541000000</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
       <c r="L8" s="30" t="s">
         <v>1738</v>
@@ -9225,7 +9271,7 @@
         <v>1.0118412872451799</v>
       </c>
     </row>
-    <row r="9" spans="1:46" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:46" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="30">
         <v>2020</v>
       </c>
@@ -9331,8 +9377,8 @@
       <c r="AK9" s="33" t="s">
         <v>1782</v>
       </c>
-      <c r="AR9" s="10" t="s">
-        <v>2371</v>
+      <c r="AR9" s="36" t="s">
+        <v>2370</v>
       </c>
       <c r="AS9" s="46"/>
       <c r="AT9" s="33" t="e">
@@ -9444,14 +9490,14 @@
       <c r="AK10" s="33" t="s">
         <v>1805</v>
       </c>
-      <c r="AR10" s="10">
-        <f xml:space="preserve"> 592675506 * 1000</f>
-        <v>592675506000</v>
+      <c r="AR10" s="36">
+        <f xml:space="preserve"> (340757129 + 13792128) * 1000</f>
+        <v>354549257000</v>
       </c>
       <c r="AS10" s="46"/>
       <c r="AT10" s="33">
         <f t="shared" si="0"/>
-        <v>0.56473229720412976</v>
+        <v>0.94402397802796689</v>
       </c>
     </row>
     <row r="11" spans="1:46" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -9485,7 +9531,7 @@
         <v>16035000000</v>
       </c>
       <c r="K11" s="30" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="L11" s="30" t="s">
         <v>1809</v>
@@ -9664,7 +9710,7 @@
         <v>1.0805462681421234</v>
       </c>
     </row>
-    <row r="13" spans="1:46" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:46" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="30">
         <v>2020</v>
       </c>
@@ -9768,7 +9814,7 @@
         <v>3.0426700098025621</v>
       </c>
     </row>
-    <row r="14" spans="1:46" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:46" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="30">
         <v>2020</v>
       </c>
@@ -9847,8 +9893,8 @@
       <c r="AC14" s="33" t="s">
         <v>1875</v>
       </c>
-      <c r="AR14" s="10" t="s">
-        <v>2371</v>
+      <c r="AR14" s="36" t="s">
+        <v>2370</v>
       </c>
       <c r="AS14" s="46"/>
       <c r="AT14" s="33" t="e">
@@ -9887,7 +9933,7 @@
         <v>862718000000</v>
       </c>
       <c r="K15" s="30" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="L15" s="30" t="s">
         <v>1878</v>
@@ -10049,7 +10095,7 @@
       <c r="AE16" s="33" t="s">
         <v>1908</v>
       </c>
-      <c r="AR16" s="10">
+      <c r="AR16" s="36">
         <f xml:space="preserve"> 10064158 * 1000</f>
         <v>10064158000</v>
       </c>
@@ -10215,10 +10261,10 @@
         <v>56538000000</v>
       </c>
       <c r="K18" s="30" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="L18" s="30" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="M18" s="30" t="s">
         <v>1939</v>
@@ -10418,7 +10464,7 @@
       <c r="AN19" s="33" t="s">
         <v>2016</v>
       </c>
-      <c r="AR19" s="10">
+      <c r="AR19" s="36">
         <f t="shared" ref="AR19:AR21" si="1" xml:space="preserve"> 1163741 * 1000</f>
         <v>1163741000</v>
       </c>
@@ -10428,7 +10474,7 @@
         <v>5.8775431131153751E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:46" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:46" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="30">
         <v>2019</v>
       </c>
@@ -10851,7 +10897,7 @@
         <f>IF( J24="s.i", "s.i", IF(ISBLANK(J24),"Actualizando información",IFERROR(J24 / VLOOKUP(A24,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>2618483.7836619532</v>
       </c>
-      <c r="AR24" s="10">
+      <c r="AR24" s="36">
         <f xml:space="preserve"> 3348243 * 1000</f>
         <v>3348243000</v>
       </c>
@@ -10860,7 +10906,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>2019</v>
       </c>
@@ -11008,7 +11054,7 @@
         <v>1.3673418007240401</v>
       </c>
     </row>
-    <row r="27" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>2019</v>
       </c>
@@ -11073,8 +11119,8 @@
         <f>IF( J27="s.i", "s.i", IF(ISBLANK(J27),"Actualizando información",IFERROR(J27 / VLOOKUP(A27,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>39308513.61408361</v>
       </c>
-      <c r="AR27" s="10" t="s">
-        <v>2371</v>
+      <c r="AR27" s="36" t="s">
+        <v>2370</v>
       </c>
       <c r="AT27" t="e">
         <f t="shared" si="0"/>
@@ -11142,7 +11188,7 @@
         <f>IF( J28="s.i", "s.i", IF(ISBLANK(J28),"Actualizando información",IFERROR(J28 / VLOOKUP(A28,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>53491537.120826639</v>
       </c>
-      <c r="AR28" s="10">
+      <c r="AR28" s="36">
         <f xml:space="preserve"> 1163741 * 1000</f>
         <v>1163741000</v>
       </c>
@@ -11253,7 +11299,7 @@
         <v>7721000000</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="L30" s="3" t="s">
         <v>956</v>
@@ -11295,7 +11341,7 @@
         <v>1.0446565297595194</v>
       </c>
     </row>
-    <row r="31" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>2019</v>
       </c>
@@ -11366,7 +11412,7 @@
         <v>1.9655694725361406</v>
       </c>
     </row>
-    <row r="32" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>2019</v>
       </c>
@@ -11428,15 +11474,15 @@
         <f>IF( J32="s.i", "s.i", IF(ISBLANK(J32),"Actualizando información",IFERROR(J32 / VLOOKUP(A32,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>4867461253.4132071</v>
       </c>
-      <c r="AR32" s="10" t="s">
-        <v>2371</v>
+      <c r="AR32" s="36" t="s">
+        <v>2370</v>
       </c>
       <c r="AT32" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="33" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>2019</v>
       </c>
@@ -11633,7 +11679,7 @@
         <f>IF( J35="s.i", "s.i", IF(ISBLANK(J35),"Actualizando información",IFERROR(J35 / VLOOKUP(A35,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>32553369.4451956</v>
       </c>
-      <c r="AR35" s="10">
+      <c r="AR35" s="36">
         <f xml:space="preserve"> 21671920 * 1000</f>
         <v>21671920000</v>
       </c>
@@ -11642,7 +11688,7 @@
         <v>1.8708025407993384E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>2018</v>
       </c>
@@ -11706,15 +11752,15 @@
         <f>IF( J36="s.i", "s.i", IF(ISBLANK(J36),"Actualizando información",IFERROR(J36 / VLOOKUP(A36,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>7726308886.0341339</v>
       </c>
-      <c r="AR36" s="10" t="s">
-        <v>2371</v>
+      <c r="AR36" s="36" t="s">
+        <v>2370</v>
       </c>
       <c r="AT36" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="37" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>2018</v>
       </c>
@@ -11780,15 +11826,15 @@
         <f>IF( J37="s.i", "s.i", IF(ISBLANK(J37),"Actualizando información",IFERROR(J37 / VLOOKUP(A37,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>32878644736.896927</v>
       </c>
-      <c r="AR37" s="10" t="s">
-        <v>2371</v>
+      <c r="AR37" s="36" t="s">
+        <v>2370</v>
       </c>
       <c r="AT37" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="38" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>2018</v>
       </c>
@@ -11852,15 +11898,15 @@
         <f>IF( J38="s.i", "s.i", IF(ISBLANK(J38),"Actualizando información",IFERROR(J38 / VLOOKUP(A38,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>115465072741.18871</v>
       </c>
-      <c r="AR38" s="10" t="s">
-        <v>2371</v>
+      <c r="AR38" s="36" t="s">
+        <v>2370</v>
       </c>
       <c r="AT38" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="39" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>2018</v>
       </c>
@@ -11921,15 +11967,15 @@
         <f>IF( J39="s.i", "s.i", IF(ISBLANK(J39),"Actualizando información",IFERROR(J39 / VLOOKUP(A39,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>5649426.1846524477</v>
       </c>
-      <c r="AR39" s="10" t="s">
-        <v>2371</v>
+      <c r="AR39" s="36" t="s">
+        <v>2370</v>
       </c>
       <c r="AT39" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="40" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>2018</v>
       </c>
@@ -11975,28 +12021,30 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-      <c r="R40" s="3" t="s">
-        <v>739</v>
-      </c>
-      <c r="S40" s="3" t="s">
-        <v>740</v>
-      </c>
-      <c r="T40" s="3"/>
+      <c r="R40" s="11" t="s">
+        <v>2384</v>
+      </c>
+      <c r="S40" s="11" t="s">
+        <v>2385</v>
+      </c>
+      <c r="T40" s="11" t="s">
+        <v>2386</v>
+      </c>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="10">
         <f>IF( J40="s.i", "s.i", IF(ISBLANK(J40),"Actualizando información",IFERROR(J40 / VLOOKUP(A40,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>5649426.1846524477</v>
       </c>
-      <c r="AR40" s="10" t="s">
-        <v>2371</v>
+      <c r="AR40" s="36" t="s">
+        <v>2370</v>
       </c>
       <c r="AT40" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="41" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>2018</v>
       </c>
@@ -12063,7 +12111,7 @@
         <v>10.366399246355208</v>
       </c>
     </row>
-    <row r="42" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>2018</v>
       </c>
@@ -12273,7 +12321,7 @@
         <f>IF( J44="s.i", "s.i", IF(ISBLANK(J44),"Actualizando información",IFERROR(J44 / VLOOKUP(A44,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>5471878.7731556948</v>
       </c>
-      <c r="AR44" s="10">
+      <c r="AR44" s="36">
         <f xml:space="preserve"> 6992399 * 1000</f>
         <v>6992399000</v>
       </c>
@@ -12357,7 +12405,7 @@
         <v>1.0262949807516275</v>
       </c>
     </row>
-    <row r="46" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>2018</v>
       </c>
@@ -12419,15 +12467,15 @@
         <f>IF( J46="s.i", "s.i", IF(ISBLANK(J46),"Actualizando información",IFERROR(J46 / VLOOKUP(A46,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>49585998435.618668</v>
       </c>
-      <c r="AR46" s="10" t="s">
-        <v>2371</v>
+      <c r="AR46" s="36" t="s">
+        <v>2370</v>
       </c>
       <c r="AT46" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="47" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>2018</v>
       </c>
@@ -12485,15 +12533,15 @@
         <f>IF( J47="s.i", "s.i", IF(ISBLANK(J47),"Actualizando información",IFERROR(J47 / VLOOKUP(A47,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>7707957417.0335102</v>
       </c>
-      <c r="AR47" s="10" t="s">
-        <v>2371</v>
+      <c r="AR47" s="36" t="s">
+        <v>2370</v>
       </c>
       <c r="AT47" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="48" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>2018</v>
       </c>
@@ -12635,7 +12683,7 @@
         <v>1.0292548054214938</v>
       </c>
     </row>
-    <row r="50" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>2018</v>
       </c>
@@ -12779,7 +12827,7 @@
         <v>1.0007786787622917</v>
       </c>
     </row>
-    <row r="52" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>2018</v>
       </c>
@@ -12841,8 +12889,8 @@
         <f>IF( J52="s.i", "s.i", IF(ISBLANK(J52),"Actualizando información",IFERROR(J52 / VLOOKUP(A52,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>1014623623.3354664</v>
       </c>
-      <c r="AR52" s="10" t="s">
-        <v>2371</v>
+      <c r="AR52" s="36" t="s">
+        <v>2370</v>
       </c>
       <c r="AT52" t="e">
         <f t="shared" si="0"/>
@@ -13103,7 +13151,7 @@
         <v>39178854000</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="L56" s="3" t="s">
         <v>812</v>
@@ -13145,7 +13193,7 @@
         <v>0.98058556486271442</v>
       </c>
     </row>
-    <row r="57" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>2017</v>
       </c>
@@ -13393,7 +13441,7 @@
         <v>90298449000</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="L60" s="3" t="s">
         <v>1164</v>
@@ -13437,7 +13485,7 @@
         <v>1.7388064673620034</v>
       </c>
     </row>
-    <row r="61" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>2017</v>
       </c>
@@ -13468,7 +13516,7 @@
         <v>90298449000</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="L61" s="3" t="s">
         <v>1164</v>
@@ -13547,7 +13595,7 @@
         <v>13089972000</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>1173</v>
@@ -13582,16 +13630,16 @@
         <f>IF( J62="s.i", "s.i", IF(ISBLANK(J62),"Actualizando información",IFERROR(J62 / VLOOKUP(A62,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>10758250081.960438</v>
       </c>
-      <c r="AR62" s="10">
-        <f xml:space="preserve"> 26854830 * 1000</f>
-        <v>26854830000</v>
+      <c r="AR62" s="36">
+        <f xml:space="preserve"> 10060686 * 1000</f>
+        <v>10060686000</v>
       </c>
       <c r="AT62">
         <f t="shared" si="0"/>
-        <v>0.48743455087967413</v>
-      </c>
-    </row>
-    <row r="63" spans="1:46" x14ac:dyDescent="0.25">
+        <v>1.3011013364297426</v>
+      </c>
+    </row>
+    <row r="63" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>2017</v>
       </c>
@@ -13734,12 +13782,13 @@
         <f>IF( J64="s.i", "s.i", IF(ISBLANK(J64),"Actualizando información",IFERROR(J64 / VLOOKUP(A64,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>16712451255464.02</v>
       </c>
-      <c r="AR64" s="10" t="s">
-        <v>2371</v>
-      </c>
-      <c r="AT64" t="e">
+      <c r="AR64" s="36">
+        <f xml:space="preserve"> 19446013 * 1000</f>
+        <v>19446013000</v>
+      </c>
+      <c r="AT64">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>1045.6989306754037</v>
       </c>
     </row>
     <row r="65" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
@@ -13819,7 +13868,7 @@
         <v>1.2056261461089903</v>
       </c>
     </row>
-    <row r="66" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>2017</v>
       </c>
@@ -13850,7 +13899,7 @@
         <v>8586768000000</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="L66" s="3" t="s">
         <v>1025</v>
@@ -14119,7 +14168,7 @@
         <v>1.112047508224717</v>
       </c>
     </row>
-    <row r="70" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>2017</v>
       </c>
@@ -14150,7 +14199,7 @@
         <v>6577906000000</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
       <c r="L70" s="3" t="s">
         <v>1022</v>
@@ -14194,7 +14243,7 @@
         <v>1334.1360980240995</v>
       </c>
     </row>
-    <row r="71" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>2017</v>
       </c>
@@ -14225,7 +14274,7 @@
         <v>9208672000000</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
       <c r="L71" s="3" t="s">
         <v>1028</v>
@@ -14269,7 +14318,7 @@
         <v>1209.0446959398337</v>
       </c>
     </row>
-    <row r="72" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>2017</v>
       </c>
@@ -14344,7 +14393,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="73" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>2017</v>
       </c>
@@ -14375,7 +14424,7 @@
         <v>3679766000000</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L73" s="3" t="s">
         <v>1128</v>
@@ -14410,15 +14459,15 @@
         <f>IF( J73="s.i", "s.i", IF(ISBLANK(J73),"Actualizando información",IFERROR(J73 / VLOOKUP(A73,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>3024287819033.9316</v>
       </c>
-      <c r="AR73" s="10" t="s">
-        <v>2371</v>
+      <c r="AR73" s="36" t="s">
+        <v>2370</v>
       </c>
       <c r="AT73" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="74" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>2017</v>
       </c>
@@ -14482,15 +14531,15 @@
         <f>IF( J74="s.i", "s.i", IF(ISBLANK(J74),"Actualizando información",IFERROR(J74 / VLOOKUP(A74,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>13984614267594.078</v>
       </c>
-      <c r="AR74" s="10" t="s">
-        <v>2371</v>
+      <c r="AR74" s="36" t="s">
+        <v>2370</v>
       </c>
       <c r="AT74" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="75" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>2017</v>
       </c>
@@ -14554,8 +14603,8 @@
         <f>IF( J75="s.i", "s.i", IF(ISBLANK(J75),"Actualizando información",IFERROR(J75 / VLOOKUP(A75,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>21880299099646.605</v>
       </c>
-      <c r="AR75" s="10" t="s">
-        <v>2371</v>
+      <c r="AR75" s="36" t="s">
+        <v>2370</v>
       </c>
       <c r="AT75" t="e">
         <f t="shared" si="2"/>
@@ -14635,7 +14684,7 @@
         <v>0.99996431530992158</v>
       </c>
     </row>
-    <row r="77" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>2017</v>
       </c>
@@ -14712,7 +14761,7 @@
         <v>1402.4781349463012</v>
       </c>
     </row>
-    <row r="78" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>2017</v>
       </c>
@@ -14787,7 +14836,7 @@
         <v>5200.2043472841224</v>
       </c>
     </row>
-    <row r="79" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>2017</v>
       </c>
@@ -14893,7 +14942,7 @@
         <v>18378000000</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="L80" s="3" t="s">
         <v>1286</v>
@@ -14935,7 +14984,7 @@
         <v>1.1030788071119233</v>
       </c>
     </row>
-    <row r="81" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>2017</v>
       </c>
@@ -15001,8 +15050,8 @@
         <f>IF( J81="s.i", "s.i", IF(ISBLANK(J81),"Actualizando información",IFERROR(J81 / VLOOKUP(A81,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>202428868937.75201</v>
       </c>
-      <c r="AR81" s="10" t="s">
-        <v>2371</v>
+      <c r="AR81" s="36" t="s">
+        <v>2370</v>
       </c>
       <c r="AT81" t="e">
         <f t="shared" si="2"/>
@@ -15042,7 +15091,7 @@
         <v>33740927000</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="L82" s="3" t="s">
         <v>1336</v>
@@ -15117,7 +15166,7 @@
         <v>33740927000</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>1336</v>
@@ -15159,7 +15208,7 @@
         <v>1.4845513227499261</v>
       </c>
     </row>
-    <row r="84" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>2016</v>
       </c>
@@ -15221,8 +15270,8 @@
         <f>IF( J84="s.i", "s.i", IF(ISBLANK(J84),"Actualizando información",IFERROR(J84 / VLOOKUP(A84,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>7897717925.9061785</v>
       </c>
-      <c r="AR84" s="10" t="s">
-        <v>2371</v>
+      <c r="AR84" s="36" t="s">
+        <v>2370</v>
       </c>
       <c r="AT84" t="e">
         <f t="shared" si="2"/>
@@ -15262,7 +15311,7 @@
         <v>57221053000</v>
       </c>
       <c r="K85" s="3" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="L85" s="3" t="s">
         <v>1349</v>
@@ -15335,7 +15384,7 @@
         <v>7905000000</v>
       </c>
       <c r="K86" s="3" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="L86" s="3" t="s">
         <v>1356</v>
@@ -15408,7 +15457,7 @@
         <v>8615000000</v>
       </c>
       <c r="K87" s="3" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="L87" s="3" t="s">
         <v>1049</v>
@@ -15512,13 +15561,13 @@
         <f>IF( J88="s.i", "s.i", IF(ISBLANK(J88),"Actualizando información",IFERROR(J88 / VLOOKUP(A88,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>17998484843.520172</v>
       </c>
-      <c r="AR88" s="10">
-        <f>124006720 * 1000</f>
-        <v>124006720000</v>
+      <c r="AR88" s="36">
+        <f>20271928 * 1000</f>
+        <v>20271928000</v>
       </c>
       <c r="AT88">
         <f t="shared" si="2"/>
-        <v>0.16853925335659228</v>
+        <v>1.0309823515553134</v>
       </c>
     </row>
     <row r="89" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
@@ -15554,7 +15603,7 @@
         <v>1667000000</v>
       </c>
       <c r="K89" s="3" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
       <c r="L89" s="3" t="s">
         <v>1063</v>
@@ -15587,7 +15636,7 @@
         <f>IF( J89="s.i", "s.i", IF(ISBLANK(J89),"Actualizando información",IFERROR(J89 / VLOOKUP(A89,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>1435572929.8635466</v>
       </c>
-      <c r="AR89" s="10">
+      <c r="AR89" s="36">
         <f>10738110 * 1000</f>
         <v>10738110000</v>
       </c>
@@ -15631,7 +15680,7 @@
         <v>132</v>
       </c>
       <c r="L90" s="3" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
       <c r="M90" s="3" t="s">
         <v>1071</v>
@@ -15657,7 +15706,7 @@
         <f>IF( J90="s.i", "s.i", IF(ISBLANK(J90),"Actualizando información",IFERROR(J90 / VLOOKUP(A90,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>s.i</v>
       </c>
-      <c r="AR90" s="10">
+      <c r="AR90" s="36">
         <f>10738110 * 1000</f>
         <v>10738110000</v>
       </c>
@@ -15728,15 +15777,16 @@
         <f>IF( J91="s.i", "s.i", IF(ISBLANK(J91),"Actualizando información",IFERROR(J91 / VLOOKUP(A91,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>189582241651.49014</v>
       </c>
-      <c r="AR91" s="10" t="s">
-        <v>2371</v>
-      </c>
-      <c r="AT91" t="e">
+      <c r="AR91" s="36">
+        <f>32395873 * 1000</f>
+        <v>32395873000</v>
+      </c>
+      <c r="AT91">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="92" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
+        <v>6.7954513218396677</v>
+      </c>
+    </row>
+    <row r="92" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>2016</v>
       </c>
@@ -15798,8 +15848,8 @@
         <f>IF( J92="s.i", "s.i", IF(ISBLANK(J92),"Actualizando información",IFERROR(J92 / VLOOKUP(A92,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>19885311651.757141</v>
       </c>
-      <c r="AR92" s="10" t="s">
-        <v>2371</v>
+      <c r="AR92" s="36" t="s">
+        <v>2370</v>
       </c>
       <c r="AT92" t="e">
         <f t="shared" si="2"/>
@@ -15940,7 +15990,7 @@
         <f>IF( J94="s.i", "s.i", IF(ISBLANK(J94),"Actualizando información",IFERROR(J94 / VLOOKUP(A94,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>s.i</v>
       </c>
-      <c r="AR94" s="10">
+      <c r="AR94" s="36">
         <f>498240 * 1000</f>
         <v>498240000</v>
       </c>
@@ -15949,7 +15999,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="95" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>2016</v>
       </c>
@@ -16011,15 +16061,15 @@
         <f>IF( J95="s.i", "s.i", IF(ISBLANK(J95),"Actualizando información",IFERROR(J95 / VLOOKUP(A95,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>19885311651.757141</v>
       </c>
-      <c r="AR95" s="10" t="s">
-        <v>2371</v>
+      <c r="AR95" s="36" t="s">
+        <v>2370</v>
       </c>
       <c r="AT95" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="96" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>2016</v>
       </c>
@@ -16052,7 +16102,7 @@
         <v>75570000000</v>
       </c>
       <c r="K96" s="3" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
       <c r="L96" s="3" t="s">
         <v>1089</v>
@@ -16085,15 +16135,15 @@
         <f>IF( J96="s.i", "s.i", IF(ISBLANK(J96),"Actualizando información",IFERROR(J96 / VLOOKUP(A96,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>65078732039.465042</v>
       </c>
-      <c r="AR96" s="10" t="s">
-        <v>2371</v>
+      <c r="AR96" s="36" t="s">
+        <v>2370</v>
       </c>
       <c r="AT96" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="97" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>2016</v>
       </c>
@@ -16126,7 +16176,7 @@
         <v>75570000000</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
       <c r="L97" s="3" t="s">
         <v>1089</v>
@@ -16159,8 +16209,8 @@
         <f>IF( J97="s.i", "s.i", IF(ISBLANK(J97),"Actualizando información",IFERROR(J97 / VLOOKUP(A97,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>65078732039.465042</v>
       </c>
-      <c r="AR97" s="10" t="s">
-        <v>2371</v>
+      <c r="AR97" s="36" t="s">
+        <v>2370</v>
       </c>
       <c r="AT97" t="e">
         <f t="shared" si="2"/>
@@ -16235,12 +16285,13 @@
         <f>IF( J98="s.i", "s.i", IF(ISBLANK(J98),"Actualizando información",IFERROR(J98 / VLOOKUP(A98,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>4219627652236092.5</v>
       </c>
-      <c r="AR98" s="10" t="s">
-        <v>2371</v>
-      </c>
-      <c r="AT98" t="e">
+      <c r="AR98" s="36">
+        <f>4899869 * 1000</f>
+        <v>4899869000</v>
+      </c>
+      <c r="AT98">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="99" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
@@ -16276,7 +16327,7 @@
         <v>4905439000</v>
       </c>
       <c r="K99" s="3" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="L99" s="3" t="s">
         <v>1097</v>
@@ -16347,7 +16398,7 @@
         <v>33740927000</v>
       </c>
       <c r="K100" s="3" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>1336</v>
@@ -16420,7 +16471,7 @@
         <v>33740927000</v>
       </c>
       <c r="K101" s="3" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>1336</v>
@@ -16493,7 +16544,7 @@
         <v>33740927000</v>
       </c>
       <c r="K102" s="3" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="L102" s="3" t="s">
         <v>1336</v>
@@ -16566,7 +16617,7 @@
         <v>33740927000</v>
       </c>
       <c r="K103" s="3" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="L103" s="3" t="s">
         <v>1336</v>
@@ -16638,7 +16689,7 @@
         <v>623</v>
       </c>
       <c r="K104" s="3" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="L104" s="3" t="s">
         <v>1103</v>
@@ -16667,7 +16718,7 @@
         <f>IF( J104="s.i", "s.i", IF(ISBLANK(J104),"Actualizando información",IFERROR(J104 / VLOOKUP(A104,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>s.i</v>
       </c>
-      <c r="AR104" s="10">
+      <c r="AR104" s="36">
         <f>142518629 * 1000</f>
         <v>142518629000</v>
       </c>
@@ -16676,7 +16727,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="105" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>2016</v>
       </c>
@@ -16709,7 +16760,7 @@
         <v>11052526000000</v>
       </c>
       <c r="K105" s="3" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="L105" s="3" t="s">
         <v>1109</v>
@@ -16857,7 +16908,7 @@
         <v>127596471000</v>
       </c>
       <c r="K107" s="3" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="L107" s="3" t="s">
         <v>2044</v>
@@ -16966,9 +17017,9 @@
         <f>IF( J108="s.i", "s.i", IF(ISBLANK(J108),"Actualizando información",IFERROR(J108 / VLOOKUP(A108,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>s.i</v>
       </c>
-      <c r="AR108" s="10">
-        <f>1680526 * 1000</f>
-        <v>1680526000</v>
+      <c r="AR108" s="36">
+        <f>6577356 * 1000</f>
+        <v>6577356000</v>
       </c>
       <c r="AT108" t="e">
         <f t="shared" si="2"/>
@@ -17107,12 +17158,13 @@
         <f>IF( J110="s.i", "s.i", IF(ISBLANK(J110),"Actualizando información",IFERROR(J110 / VLOOKUP(A110,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>3597688244.3408961</v>
       </c>
-      <c r="AR110" s="10" t="s">
-        <v>2371</v>
-      </c>
-      <c r="AT110" t="e">
+      <c r="AR110" s="36">
+        <f xml:space="preserve"> 206000 * 1000</f>
+        <v>206000000</v>
+      </c>
+      <c r="AT110">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <v>19.412228155339808</v>
       </c>
     </row>
     <row r="111" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
@@ -17146,7 +17198,7 @@
         <v>70756000000</v>
       </c>
       <c r="K111" s="3" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="L111" s="3" t="s">
         <v>2075</v>
@@ -17331,7 +17383,7 @@
         <f>IF( J113="s.i", "s.i", IF(ISBLANK(J113),"Actualizando información",IFERROR(J113 / VLOOKUP(A113,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>28548021244.503151</v>
       </c>
-      <c r="AR113" s="10">
+      <c r="AR113" s="36">
         <f xml:space="preserve"> 50779990 * 1000</f>
         <v>50779990000</v>
       </c>
@@ -17448,7 +17500,7 @@
         <v>4093000000</v>
       </c>
       <c r="K115" s="3" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="L115" s="3" t="s">
         <v>2109</v>
@@ -17521,7 +17573,7 @@
         <v>99252000000</v>
       </c>
       <c r="K116" s="3" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="L116" s="3" t="s">
         <v>2117</v>
@@ -17930,7 +17982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>2015</v>
       </c>
@@ -18067,12 +18119,13 @@
         <f>IF( J123="s.i", "s.i", IF(ISBLANK(J123),"Actualizando información",IFERROR(J123 / VLOOKUP(A123,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>5272937711.4370136</v>
       </c>
-      <c r="AR123" s="10" t="s">
-        <v>2371</v>
-      </c>
-      <c r="AT123" t="e">
+      <c r="AR123" s="36">
+        <f xml:space="preserve"> 5861743 * 1000</f>
+        <v>5861743000</v>
+      </c>
+      <c r="AT123">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <v>0.9998732458929025</v>
       </c>
     </row>
     <row r="124" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
@@ -18140,11 +18193,11 @@
         <f>IF( J124="s.i", "s.i", IF(ISBLANK(J124),"Actualizando información",IFERROR(J124 / VLOOKUP(A124,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>31143112.698545422</v>
       </c>
-      <c r="AR124" s="10">
+      <c r="AR124" s="36">
         <f xml:space="preserve"> 9670356 * 1000</f>
         <v>9670356000</v>
       </c>
-      <c r="AS124" s="43">
+      <c r="AS124" s="47">
         <f xml:space="preserve"> 13624 * 1000</f>
         <v>13624000</v>
       </c>
@@ -18153,7 +18206,7 @@
         <v>3.579634089996273E-3</v>
       </c>
     </row>
-    <row r="125" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>2015</v>
       </c>
@@ -18215,8 +18268,8 @@
         <f>IF( J125="s.i", "s.i", IF(ISBLANK(J125),"Actualizando información",IFERROR(J125 / VLOOKUP(A125,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>264381860755743.28</v>
       </c>
-      <c r="AR125" s="10" t="s">
-        <v>2371</v>
+      <c r="AR125" s="36" t="s">
+        <v>2370</v>
       </c>
       <c r="AT125" t="e">
         <f t="shared" si="2"/>
@@ -18256,7 +18309,7 @@
         <v>66147145000</v>
       </c>
       <c r="K126" s="3" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="L126" s="3" t="s">
         <v>1369</v>
@@ -18292,7 +18345,7 @@
         <v>1.0454302760287379</v>
       </c>
     </row>
-    <row r="127" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>2014</v>
       </c>
@@ -18365,7 +18418,7 @@
         <v>27.021699025849852</v>
       </c>
     </row>
-    <row r="128" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <v>2014</v>
       </c>
@@ -18438,7 +18491,7 @@
         <v>17.776178548039177</v>
       </c>
     </row>
-    <row r="129" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:46" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>2014</v>
       </c>
@@ -18513,7 +18566,7 @@
         <v>2.6818530511322174</v>
       </c>
     </row>
-    <row r="130" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <v>2014</v>
       </c>
@@ -18586,7 +18639,7 @@
         <v>2.4743161620198508</v>
       </c>
     </row>
-    <row r="131" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <v>2014</v>
       </c>
@@ -18657,7 +18710,7 @@
         <v>1043.0227456871667</v>
       </c>
     </row>
-    <row r="132" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <v>2014</v>
       </c>
@@ -18732,7 +18785,7 @@
         <v>9.1867919847063675</v>
       </c>
     </row>
-    <row r="133" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
         <v>2014</v>
       </c>
@@ -18805,7 +18858,7 @@
         <v>12.697273747180388</v>
       </c>
     </row>
-    <row r="134" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <v>2014</v>
       </c>
@@ -18876,7 +18929,7 @@
         <v>29.91123439667129</v>
       </c>
     </row>
-    <row r="135" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
         <v>2014</v>
       </c>
@@ -19003,7 +19056,7 @@
         <f>IF( J136="s.i", "s.i", IF(ISBLANK(J136),"Actualizando información",IFERROR(J136 / VLOOKUP(A136,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>10904917507.625839</v>
       </c>
-      <c r="AR136" s="10">
+      <c r="AR136" s="36">
         <f xml:space="preserve"> 20246240 * 1000</f>
         <v>20246240000</v>
       </c>
@@ -19012,7 +19065,7 @@
         <v>0.5704269039584634</v>
       </c>
     </row>
-    <row r="137" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <v>2014</v>
       </c>
@@ -19072,8 +19125,8 @@
         <f>IF( J137="s.i", "s.i", IF(ISBLANK(J137),"Actualizando información",IFERROR(J137 / VLOOKUP(A137,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>10904917507.625839</v>
       </c>
-      <c r="AR137" s="10" t="s">
-        <v>2371</v>
+      <c r="AR137" s="36" t="s">
+        <v>2370</v>
       </c>
       <c r="AT137" t="e">
         <f t="shared" si="5"/>
@@ -19140,7 +19193,7 @@
         <f>IF( J138="s.i", "s.i", IF(ISBLANK(J138),"Actualizando información",IFERROR(J138 / VLOOKUP(A138,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>10904917507.625839</v>
       </c>
-      <c r="AR138" s="10">
+      <c r="AR138" s="36">
         <f xml:space="preserve"> 20246240 * 1000</f>
         <v>20246240000</v>
       </c>
@@ -19149,7 +19202,7 @@
         <v>0.5704269039584634</v>
       </c>
     </row>
-    <row r="139" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
         <v>2014</v>
       </c>
@@ -19220,7 +19273,7 @@
         <v>36.675367896906302</v>
       </c>
     </row>
-    <row r="140" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
         <v>2014</v>
       </c>
@@ -19282,8 +19335,8 @@
         <f>IF( J140="s.i", "s.i", IF(ISBLANK(J140),"Actualizando información",IFERROR(J140 / VLOOKUP(A140,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>10904917507.625839</v>
       </c>
-      <c r="AR140" s="10" t="s">
-        <v>2371</v>
+      <c r="AR140" s="36" t="s">
+        <v>2370</v>
       </c>
       <c r="AT140" t="e">
         <f t="shared" si="5"/>
@@ -19511,7 +19564,7 @@
         <v>0.99999463325032756</v>
       </c>
     </row>
-    <row r="144" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
         <v>2014</v>
       </c>
@@ -19569,15 +19622,15 @@
         <f>IF( J144="s.i", "s.i", IF(ISBLANK(J144),"Actualizando información",IFERROR(J144 / VLOOKUP(A144,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>43558065603024.781</v>
       </c>
-      <c r="AR144" s="10" t="s">
-        <v>2371</v>
+      <c r="AR144" s="36" t="s">
+        <v>2370</v>
       </c>
       <c r="AT144" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="145" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
         <v>2014</v>
       </c>
@@ -19648,7 +19701,7 @@
         <v>994.42187471076431</v>
       </c>
     </row>
-    <row r="146" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
         <v>2014</v>
       </c>
@@ -19776,7 +19829,7 @@
         <f>IF( J147="s.i", "s.i", IF(ISBLANK(J147),"Actualizando información",IFERROR(J147 / VLOOKUP(A147,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>s.i</v>
       </c>
-      <c r="AR147" s="10">
+      <c r="AR147" s="36">
         <f xml:space="preserve"> 5863206 * 1000</f>
         <v>5863206000</v>
       </c>
@@ -19992,7 +20045,7 @@
         <v>0.99999638677414804</v>
       </c>
     </row>
-    <row r="151" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
         <v>2013</v>
       </c>
@@ -20126,8 +20179,9 @@
         <f>IF( J152="s.i", "s.i", IF(ISBLANK(J152),"Actualizando información",IFERROR(J152 / VLOOKUP(A152,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>s.i</v>
       </c>
-      <c r="AR152" s="10" t="s">
-        <v>2371</v>
+      <c r="AR152" s="36">
+        <f xml:space="preserve"> 6969715 * 1000</f>
+        <v>6969715000</v>
       </c>
       <c r="AT152" t="e">
         <f t="shared" si="5"/>
@@ -20196,15 +20250,16 @@
         <f>IF( J153="s.i", "s.i", IF(ISBLANK(J153),"Actualizando información",IFERROR(J153 / VLOOKUP(A153,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>16951000000</v>
       </c>
-      <c r="AR153" s="10" t="s">
-        <v>2371</v>
-      </c>
-      <c r="AT153" t="e">
+      <c r="AR153" s="36">
+        <f xml:space="preserve"> 18361024 * 1000</f>
+        <v>18361024000</v>
+      </c>
+      <c r="AT153">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="154" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.92320559027644644</v>
+      </c>
+    </row>
+    <row r="154" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
         <v>2013</v>
       </c>
@@ -20268,8 +20323,8 @@
         <f>IF( J154="s.i", "s.i", IF(ISBLANK(J154),"Actualizando información",IFERROR(J154 / VLOOKUP(A154,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>1065000000</v>
       </c>
-      <c r="AR154" s="10" t="s">
-        <v>2371</v>
+      <c r="AR154" s="36" t="s">
+        <v>2370</v>
       </c>
       <c r="AT154" t="e">
         <f t="shared" si="5"/>
@@ -20309,7 +20364,7 @@
         <v>4000000000</v>
       </c>
       <c r="K155" s="3" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="L155" s="3" t="s">
         <v>2236</v>
@@ -20493,7 +20548,7 @@
         <v>1.1707075150600434</v>
       </c>
     </row>
-    <row r="158" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
         <v>2013</v>
       </c>
@@ -20524,19 +20579,19 @@
       </c>
       <c r="K158" s="3"/>
       <c r="L158" s="3" t="s">
+        <v>2374</v>
+      </c>
+      <c r="M158" s="3" t="s">
         <v>2259</v>
       </c>
-      <c r="M158" s="3" t="s">
+      <c r="N158" s="3" t="s">
         <v>2260</v>
       </c>
-      <c r="N158" s="3" t="s">
+      <c r="O158" s="3" t="s">
         <v>2261</v>
       </c>
-      <c r="O158" s="3" t="s">
+      <c r="P158" s="3" t="s">
         <v>2262</v>
-      </c>
-      <c r="P158" s="3" t="s">
-        <v>2263</v>
       </c>
       <c r="Q158" s="3"/>
       <c r="R158" s="11" t="s">
@@ -20552,15 +20607,15 @@
         <f>IF( J158="s.i", "s.i", IF(ISBLANK(J158),"Actualizando información",IFERROR(J158 / VLOOKUP(A158,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>s.i</v>
       </c>
-      <c r="AR158" s="10" t="s">
-        <v>2371</v>
+      <c r="AR158" s="36" t="s">
+        <v>2370</v>
       </c>
       <c r="AT158" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="159" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
         <v>2013</v>
       </c>
@@ -20591,32 +20646,32 @@
         <v>273418358000</v>
       </c>
       <c r="K159" s="3" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="L159" s="3" t="s">
+        <v>2266</v>
+      </c>
+      <c r="M159" s="3" t="s">
         <v>2267</v>
       </c>
-      <c r="M159" s="3" t="s">
+      <c r="N159" s="3" t="s">
         <v>2268</v>
       </c>
-      <c r="N159" s="3" t="s">
+      <c r="O159" s="3" t="s">
         <v>2269</v>
       </c>
-      <c r="O159" s="3" t="s">
+      <c r="P159" s="3" t="s">
         <v>2270</v>
-      </c>
-      <c r="P159" s="3" t="s">
-        <v>2271</v>
       </c>
       <c r="Q159" s="3"/>
       <c r="R159" s="11" t="s">
+        <v>2263</v>
+      </c>
+      <c r="S159" s="11" t="s">
         <v>2264</v>
       </c>
-      <c r="S159" s="11" t="s">
+      <c r="T159" s="11" t="s">
         <v>2265</v>
-      </c>
-      <c r="T159" s="11" t="s">
-        <v>2266</v>
       </c>
       <c r="U159" s="3"/>
       <c r="V159" s="3"/>
@@ -20665,29 +20720,29 @@
       </c>
       <c r="K160" s="3"/>
       <c r="L160" s="3" t="s">
+        <v>2274</v>
+      </c>
+      <c r="M160" s="3" t="s">
         <v>2275</v>
       </c>
-      <c r="M160" s="3" t="s">
+      <c r="N160" s="3" t="s">
         <v>2276</v>
       </c>
-      <c r="N160" s="3" t="s">
+      <c r="O160" s="3" t="s">
         <v>2277</v>
       </c>
-      <c r="O160" s="3" t="s">
+      <c r="P160" s="3" t="s">
         <v>2278</v>
-      </c>
-      <c r="P160" s="3" t="s">
-        <v>2279</v>
       </c>
       <c r="Q160" s="3"/>
       <c r="R160" s="11" t="s">
+        <v>2271</v>
+      </c>
+      <c r="S160" s="11" t="s">
         <v>2272</v>
       </c>
-      <c r="S160" s="11" t="s">
+      <c r="T160" s="11" t="s">
         <v>2273</v>
-      </c>
-      <c r="T160" s="11" t="s">
-        <v>2274</v>
       </c>
       <c r="U160" s="3"/>
       <c r="V160" s="3"/>
@@ -20704,7 +20759,7 @@
         <v>1.4075613208171112</v>
       </c>
     </row>
-    <row r="161" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
         <v>2013</v>
       </c>
@@ -20743,15 +20798,15 @@
         <f>IF( J161="s.i", "s.i", IF(ISBLANK(J161),"Actualizando información",IFERROR(J161 / VLOOKUP(A161,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>Actualizando información</v>
       </c>
-      <c r="AR161" s="10" t="s">
-        <v>2371</v>
+      <c r="AR161" s="36" t="s">
+        <v>2370</v>
       </c>
       <c r="AT161" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="162" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
         <v>2013</v>
       </c>
@@ -20790,15 +20845,15 @@
         <f>IF( J162="s.i", "s.i", IF(ISBLANK(J162),"Actualizando información",IFERROR(J162 / VLOOKUP(A162,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>Actualizando información</v>
       </c>
-      <c r="AR162" s="10" t="s">
-        <v>2371</v>
+      <c r="AR162" s="36" t="s">
+        <v>2370</v>
       </c>
       <c r="AT162" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="163" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
         <v>2013</v>
       </c>
@@ -20837,8 +20892,8 @@
         <f>IF( J163="s.i", "s.i", IF(ISBLANK(J163),"Actualizando información",IFERROR(J163 / VLOOKUP(A163,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>Actualizando información</v>
       </c>
-      <c r="AR163" s="10" t="s">
-        <v>2371</v>
+      <c r="AR163" s="36" t="s">
+        <v>2370</v>
       </c>
       <c r="AT163" t="e">
         <f t="shared" si="5"/>
@@ -20893,12 +20948,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
         <v>2013</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="C165" s="3" t="s">
         <v>7</v>
@@ -20932,8 +20987,8 @@
         <f>IF( J165="s.i", "s.i", IF(ISBLANK(J165),"Actualizando información",IFERROR(J165 / VLOOKUP(A165,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>Actualizando información</v>
       </c>
-      <c r="AR165" s="10" t="s">
-        <v>2371</v>
+      <c r="AR165" s="36" t="s">
+        <v>2370</v>
       </c>
       <c r="AT165" t="e">
         <f t="shared" si="5"/>
@@ -21408,7 +21463,7 @@
         <v>623</v>
       </c>
       <c r="K175" s="3" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="L175" s="3" t="s">
         <v>1442</v>
@@ -21435,7 +21490,7 @@
         <f>IF( J175="s.i", "s.i", IF(ISBLANK(J175),"Actualizando información",IFERROR(J175 / VLOOKUP(A175,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>s.i</v>
       </c>
-      <c r="AR175" s="10">
+      <c r="AR175" s="36">
         <f xml:space="preserve"> 16040645 * 1000</f>
         <v>16040645000</v>
       </c>
@@ -21592,7 +21647,7 @@
         <v>0.91937625398723599</v>
       </c>
     </row>
-    <row r="178" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
         <v>2012</v>
       </c>
@@ -21658,8 +21713,8 @@
         <f>IF( J178="s.i", "s.i", IF(ISBLANK(J178),"Actualizando información",IFERROR(J178 / VLOOKUP(A178,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>5091500142538.7188</v>
       </c>
-      <c r="AR178" s="10" t="s">
-        <v>2371</v>
+      <c r="AR178" s="36" t="s">
+        <v>2370</v>
       </c>
       <c r="AT178" t="e">
         <f t="shared" si="5"/>
@@ -21733,7 +21788,7 @@
         <v>1.0605142528292617</v>
       </c>
     </row>
-    <row r="180" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="3">
         <v>2012</v>
       </c>
@@ -21938,7 +21993,7 @@
         <f>IF( J182="s.i", "s.i", IF(ISBLANK(J182),"Actualizando información",IFERROR(J182 / VLOOKUP(A182,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>s.i</v>
       </c>
-      <c r="AR182" s="10">
+      <c r="AR182" s="36">
         <f xml:space="preserve"> 1573969 * 1000</f>
         <v>1573969000</v>
       </c>
@@ -21979,7 +22034,7 @@
         <v>623</v>
       </c>
       <c r="K183" s="3" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="L183" s="3" t="s">
         <v>1490</v>
@@ -22008,7 +22063,7 @@
         <f>IF( J183="s.i", "s.i", IF(ISBLANK(J183),"Actualizando información",IFERROR(J183 / VLOOKUP(A183,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>s.i</v>
       </c>
-      <c r="AR183" s="10">
+      <c r="AR183" s="36">
         <f xml:space="preserve"> 12117961 * 1000</f>
         <v>12117961000</v>
       </c>
@@ -22049,7 +22104,7 @@
         <v>623</v>
       </c>
       <c r="K184" s="3" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="L184" s="3" t="s">
         <v>1494</v>
@@ -22076,7 +22131,7 @@
         <f>IF( J184="s.i", "s.i", IF(ISBLANK(J184),"Actualizando información",IFERROR(J184 / VLOOKUP(A184,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>s.i</v>
       </c>
-      <c r="AR184" s="10">
+      <c r="AR184" s="36">
         <f xml:space="preserve"> (36921991 + 16291636) * 1000</f>
         <v>53213627000</v>
       </c>
@@ -22117,7 +22172,7 @@
         <v>623</v>
       </c>
       <c r="K185" s="3" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
       <c r="L185" s="3" t="s">
         <v>1497</v>
@@ -22146,7 +22201,7 @@
         <f>IF( J185="s.i", "s.i", IF(ISBLANK(J185),"Actualizando información",IFERROR(J185 / VLOOKUP(A185,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>s.i</v>
       </c>
-      <c r="AR185" s="10">
+      <c r="AR185" s="36">
         <f xml:space="preserve"> (4761492 + 2019538) * 1000</f>
         <v>6781030000</v>
       </c>
@@ -22187,7 +22242,7 @@
         <v>623</v>
       </c>
       <c r="K186" s="3" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
       <c r="L186" s="3" t="s">
         <v>1501</v>
@@ -22220,7 +22275,7 @@
         <f>IF( J186="s.i", "s.i", IF(ISBLANK(J186),"Actualizando información",IFERROR(J186 / VLOOKUP(A186,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>s.i</v>
       </c>
-      <c r="AR186" s="10">
+      <c r="AR186" s="36">
         <f xml:space="preserve"> 1100133 * 1000</f>
         <v>1100133000</v>
       </c>
@@ -22261,7 +22316,7 @@
         <v>623</v>
       </c>
       <c r="K187" s="3" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="L187" s="3" t="s">
         <v>1507</v>
@@ -22292,7 +22347,7 @@
         <f>IF( J187="s.i", "s.i", IF(ISBLANK(J187),"Actualizando información",IFERROR(J187 / VLOOKUP(A187,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>s.i</v>
       </c>
-      <c r="AR187" s="10">
+      <c r="AR187" s="36">
         <f xml:space="preserve"> (7265706 + 4354755) * 1000</f>
         <v>11620461000</v>
       </c>
@@ -22333,7 +22388,7 @@
         <v>623</v>
       </c>
       <c r="K188" s="3" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="L188" s="3" t="s">
         <v>1512</v>
@@ -22362,7 +22417,7 @@
         <f>IF( J188="s.i", "s.i", IF(ISBLANK(J188),"Actualizando información",IFERROR(J188 / VLOOKUP(A188,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>s.i</v>
       </c>
-      <c r="AR188" s="10">
+      <c r="AR188" s="36">
         <f xml:space="preserve"> (1289112 + 327714) * 1000</f>
         <v>1616826000</v>
       </c>
@@ -22403,7 +22458,7 @@
         <v>623</v>
       </c>
       <c r="K189" s="3" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="L189" s="3" t="s">
         <v>1516</v>
@@ -22436,7 +22491,7 @@
         <f>IF( J189="s.i", "s.i", IF(ISBLANK(J189),"Actualizando información",IFERROR(J189 / VLOOKUP(A189,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>s.i</v>
       </c>
-      <c r="AR189" s="10">
+      <c r="AR189" s="36">
         <f xml:space="preserve"> (15597227 + 7331170) * 1000</f>
         <v>22928397000</v>
       </c>
@@ -22504,7 +22559,7 @@
         <f>IF( J190="s.i", "s.i", IF(ISBLANK(J190),"Actualizando información",IFERROR(J190 / VLOOKUP(A190,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>s.i</v>
       </c>
-      <c r="AR190" s="10">
+      <c r="AR190" s="36">
         <f xml:space="preserve"> 1286606 * 1000</f>
         <v>1286606000</v>
       </c>
@@ -22545,7 +22600,7 @@
         <v>623</v>
       </c>
       <c r="K191" s="3" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="L191" s="3" t="s">
         <v>1526</v>
@@ -22576,7 +22631,7 @@
         <f>IF( J191="s.i", "s.i", IF(ISBLANK(J191),"Actualizando información",IFERROR(J191 / VLOOKUP(A191,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>s.i</v>
       </c>
-      <c r="AR191" s="10">
+      <c r="AR191" s="36">
         <f xml:space="preserve"> 9813718 * 1000</f>
         <v>9813718000</v>
       </c>
@@ -22585,7 +22640,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="192" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="3">
         <v>2012</v>
       </c>
@@ -22754,7 +22809,7 @@
         <v>14778000000</v>
       </c>
       <c r="K194" s="3" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="L194" s="3" t="s">
         <v>1542</v>
@@ -22825,7 +22880,7 @@
         <v>14778000000</v>
       </c>
       <c r="K195" s="3" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="L195" s="3" t="s">
         <v>1542</v>
@@ -22896,7 +22951,7 @@
         <v>14778000000</v>
       </c>
       <c r="K196" s="3" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="L196" s="3" t="s">
         <v>1542</v>
@@ -22967,7 +23022,7 @@
         <v>14778000000</v>
       </c>
       <c r="K197" s="3" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="L197" s="3" t="s">
         <v>1542</v>
@@ -23038,7 +23093,7 @@
         <v>14778000000</v>
       </c>
       <c r="K198" s="3" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="L198" s="3" t="s">
         <v>1542</v>
@@ -23109,7 +23164,7 @@
         <v>14778000000</v>
       </c>
       <c r="K199" s="3" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="L199" s="3" t="s">
         <v>1542</v>
@@ -23147,7 +23202,7 @@
         <v>1.9424428091366579</v>
       </c>
     </row>
-    <row r="200" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="3">
         <v>2012</v>
       </c>
@@ -23282,7 +23337,7 @@
         <f>IF( J201="s.i", "s.i", IF(ISBLANK(J201),"Actualizando información",IFERROR(J201 / VLOOKUP(A201,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>1397080040.1533494</v>
       </c>
-      <c r="AR201" s="10">
+      <c r="AR201" s="36">
         <f xml:space="preserve"> 4151851 * 1000</f>
         <v>4151851000</v>
       </c>
@@ -23291,7 +23346,7 @@
         <v>0.32997330588212342</v>
       </c>
     </row>
-    <row r="202" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="3">
         <v>2012</v>
       </c>
@@ -23393,7 +23448,7 @@
         <v>7058000000</v>
       </c>
       <c r="K203" s="3" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="L203" s="3" t="s">
         <v>1567</v>
@@ -23435,7 +23490,7 @@
         <v>1.5226788101272595</v>
       </c>
     </row>
-    <row r="204" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="3">
         <v>2012</v>
       </c>
@@ -23468,7 +23523,7 @@
         <v>7058000000</v>
       </c>
       <c r="K204" s="3" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="L204" s="3" t="s">
         <v>1567</v>
@@ -24396,7 +24451,10 @@
       <c r="G223" s="3"/>
       <c r="H223" s="12"/>
       <c r="I223" s="13"/>
-      <c r="J223" s="10"/>
+      <c r="J223" s="10">
+        <f xml:space="preserve"> 2954723 * 1000000</f>
+        <v>2954723000000</v>
+      </c>
       <c r="K223" s="3"/>
       <c r="L223" s="3"/>
       <c r="M223" s="3"/>
@@ -24409,16 +24467,17 @@
       <c r="T223" s="3"/>
       <c r="U223" s="3"/>
       <c r="V223" s="3"/>
-      <c r="W223" s="10" t="str">
+      <c r="W223" s="10">
         <f>IF( J223="s.i", "s.i", IF(ISBLANK(J223),"Actualizando información",IFERROR(J223 / VLOOKUP(A223,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
-        <v>Actualizando información</v>
-      </c>
-      <c r="AR223" s="10" t="s">
-        <v>2371</v>
-      </c>
-      <c r="AT223" t="e">
+        <v>3047180580507.9009</v>
+      </c>
+      <c r="AR223" s="36">
+        <f xml:space="preserve"> 2954723 * 1000</f>
+        <v>2954723000</v>
+      </c>
+      <c r="AT223">
         <f t="shared" si="9"/>
-        <v>#VALUE!</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="224" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
@@ -24591,7 +24650,7 @@
       <c r="I227" s="13"/>
       <c r="J227" s="10"/>
       <c r="K227" s="30" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="L227" s="3"/>
       <c r="M227" s="3"/>
@@ -24658,12 +24717,13 @@
         <f>IF( J228="s.i", "s.i", IF(ISBLANK(J228),"Actualizando información",IFERROR(J228 / VLOOKUP(A228,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>Actualizando información</v>
       </c>
-      <c r="AR228" s="10" t="s">
-        <v>2371</v>
-      </c>
-      <c r="AT228" t="e">
+      <c r="AR228" s="36">
+        <f xml:space="preserve"> 1272553 * 1000</f>
+        <v>1272553000</v>
+      </c>
+      <c r="AT228">
         <f t="shared" si="9"/>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
@@ -24915,7 +24975,7 @@
         <f>IF( J233="s.i", "s.i", IF(ISBLANK(J233),"Actualizando información",IFERROR(J233 / VLOOKUP(A233,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>s.i</v>
       </c>
-      <c r="AR233" s="10">
+      <c r="AR233" s="36">
         <f xml:space="preserve"> 19410354 * 1000</f>
         <v>19410354000</v>
       </c>
@@ -24924,7 +24984,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="234" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A234" s="3">
         <v>2010</v>
       </c>
@@ -24985,8 +25045,8 @@
         <f>IF( J234="s.i", "s.i", IF(ISBLANK(J234),"Actualizando información",IFERROR(J234 / VLOOKUP(A234,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>s.i</v>
       </c>
-      <c r="AR234" s="10" t="s">
-        <v>2371</v>
+      <c r="AR234" s="36" t="s">
+        <v>2370</v>
       </c>
       <c r="AT234" t="e">
         <f t="shared" si="9"/>
@@ -25089,7 +25149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="3">
         <v>2010</v>
       </c>
@@ -25162,7 +25222,7 @@
         <v>1069.9419284808494</v>
       </c>
     </row>
-    <row r="238" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="3">
         <v>2010</v>
       </c>
@@ -25235,7 +25295,7 @@
         <v>1069.9419284808494</v>
       </c>
     </row>
-    <row r="239" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="3">
         <v>2010</v>
       </c>
@@ -25308,7 +25368,7 @@
         <v>1069.9419284808494</v>
       </c>
     </row>
-    <row r="240" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="3">
         <v>2010</v>
       </c>
@@ -25381,7 +25441,7 @@
         <v>1069.9419284808494</v>
       </c>
     </row>
-    <row r="241" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="3">
         <v>2010</v>
       </c>
@@ -25790,7 +25850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="3">
         <v>2010</v>
       </c>
@@ -25930,7 +25990,7 @@
         <f>IF( J250="s.i", "s.i", IF(ISBLANK(J250),"Actualizando información",IFERROR(J250 / VLOOKUP(A250,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>s.i</v>
       </c>
-      <c r="AR250" s="10">
+      <c r="AR250" s="36">
         <f xml:space="preserve"> 513259 * 1000</f>
         <v>513259000</v>
       </c>
@@ -26006,7 +26066,7 @@
         <f>IF( J251="s.i", "s.i", IF(ISBLANK(J251),"Actualizando información",IFERROR(J251 / VLOOKUP(A251,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>s.i</v>
       </c>
-      <c r="AR251" s="10">
+      <c r="AR251" s="36">
         <f xml:space="preserve"> 264306 * 1000</f>
         <v>264306000</v>
       </c>
@@ -26082,7 +26142,7 @@
         <f>IF( J252="s.i", "s.i", IF(ISBLANK(J252),"Actualizando información",IFERROR(J252 / VLOOKUP(A252,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>s.i</v>
       </c>
-      <c r="AR252" s="10">
+      <c r="AR252" s="36">
         <f xml:space="preserve"> (8981205 + 40600000) * 1000</f>
         <v>49581205000</v>
       </c>
@@ -26091,7 +26151,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="253" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A253" s="3">
         <v>2010</v>
       </c>
@@ -26158,8 +26218,8 @@
         <f>IF( J253="s.i", "s.i", IF(ISBLANK(J253),"Actualizando información",IFERROR(J253 / VLOOKUP(A253,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>s.i</v>
       </c>
-      <c r="AR253" s="10" t="s">
-        <v>2371</v>
+      <c r="AR253" s="36" t="s">
+        <v>2370</v>
       </c>
       <c r="AT253" t="e">
         <f t="shared" si="9"/>
@@ -26377,7 +26437,7 @@
         <f>IF( J257="s.i", "s.i", IF(ISBLANK(J257),"Actualizando información",IFERROR(J257 / VLOOKUP(A257,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>s.i</v>
       </c>
-      <c r="AR257" s="10">
+      <c r="AR257" s="36">
         <f xml:space="preserve"> 18270000 * 1000</f>
         <v>18270000000</v>
       </c>
@@ -26386,7 +26446,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="258" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A258" s="3">
         <v>2010</v>
       </c>
@@ -26425,15 +26485,15 @@
         <f>IF( J258="s.i", "s.i", IF(ISBLANK(J258),"Actualizando información",IFERROR(J258 / VLOOKUP(A258,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>Actualizando información</v>
       </c>
-      <c r="AR258" s="10" t="s">
-        <v>2371</v>
+      <c r="AR258" s="36" t="s">
+        <v>2370</v>
       </c>
       <c r="AT258" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="259" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A259" s="3">
         <v>2010</v>
       </c>
@@ -26472,15 +26532,15 @@
         <f>IF( J259="s.i", "s.i", IF(ISBLANK(J259),"Actualizando información",IFERROR(J259 / VLOOKUP(A259,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>Actualizando información</v>
       </c>
-      <c r="AR259" s="10" t="s">
-        <v>2371</v>
+      <c r="AR259" s="36" t="s">
+        <v>2370</v>
       </c>
       <c r="AT259" t="e">
         <f t="shared" ref="AT259:AT309" si="13">J259 / AR259</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="260" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A260" s="3">
         <v>2010</v>
       </c>
@@ -26519,8 +26579,8 @@
         <f>IF( J260="s.i", "s.i", IF(ISBLANK(J260),"Actualizando información",IFERROR(J260 / VLOOKUP(A260,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>Actualizando información</v>
       </c>
-      <c r="AR260" s="10" t="s">
-        <v>2371</v>
+      <c r="AR260" s="36" t="s">
+        <v>2370</v>
       </c>
       <c r="AT260" t="e">
         <f t="shared" si="13"/>
@@ -26625,7 +26685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A263" s="3">
         <v>2010</v>
       </c>
@@ -26664,15 +26724,15 @@
         <f>IF( J263="s.i", "s.i", IF(ISBLANK(J263),"Actualizando información",IFERROR(J263 / VLOOKUP(A263,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>Actualizando información</v>
       </c>
-      <c r="AR263" s="10" t="s">
-        <v>2371</v>
+      <c r="AR263" s="36" t="s">
+        <v>2370</v>
       </c>
       <c r="AT263" t="e">
         <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="264" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="3">
         <v>2010</v>
       </c>
@@ -26751,7 +26811,7 @@
         <v>1.0547627030446649</v>
       </c>
     </row>
-    <row r="265" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="3">
         <v>2010</v>
       </c>
@@ -27543,12 +27603,13 @@
         <f>IF( J280="s.i", "s.i", IF(ISBLANK(J280),"Actualizando información",IFERROR(J280 / VLOOKUP(A280,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>Actualizando información</v>
       </c>
-      <c r="AR280" s="10" t="s">
-        <v>2371</v>
-      </c>
-      <c r="AT280" t="e">
+      <c r="AR280" s="36">
+        <f xml:space="preserve"> 4680068 * 1000</f>
+        <v>4680068000</v>
+      </c>
+      <c r="AT280">
         <f t="shared" si="13"/>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
@@ -27582,7 +27643,7 @@
         <v>6230000000</v>
       </c>
       <c r="K281" s="3" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="L281" s="3" t="s">
         <v>956</v>
@@ -27770,7 +27831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A285" s="3">
         <v>2009</v>
       </c>
@@ -27809,8 +27870,8 @@
         <f>IF( J285="s.i", "s.i", IF(ISBLANK(J285),"Actualizando información",IFERROR(J285 / VLOOKUP(A285,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>Actualizando información</v>
       </c>
-      <c r="AR285" s="10" t="s">
-        <v>2371</v>
+      <c r="AR285" s="36" t="s">
+        <v>2370</v>
       </c>
       <c r="AT285" t="e">
         <f t="shared" si="13"/>
@@ -27913,7 +27974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A288" s="3">
         <v>2009</v>
       </c>
@@ -27952,8 +28013,8 @@
         <f>IF( J288="s.i", "s.i", IF(ISBLANK(J288),"Actualizando información",IFERROR(J288 / VLOOKUP(A288,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>Actualizando información</v>
       </c>
-      <c r="AR288" s="10" t="s">
-        <v>2371</v>
+      <c r="AR288" s="36" t="s">
+        <v>2370</v>
       </c>
       <c r="AT288" t="e">
         <f t="shared" si="13"/>
@@ -27999,12 +28060,13 @@
         <f>IF( J289="s.i", "s.i", IF(ISBLANK(J289),"Actualizando información",IFERROR(J289 / VLOOKUP(A289,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>Actualizando información</v>
       </c>
-      <c r="AR289" s="10" t="s">
-        <v>2371</v>
-      </c>
-      <c r="AT289" t="e">
+      <c r="AR289" s="36">
+        <f xml:space="preserve"> 3343822 * 1000</f>
+        <v>3343822000</v>
+      </c>
+      <c r="AT289">
         <f t="shared" si="13"/>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
@@ -28345,7 +28407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A297" s="3">
         <v>2009</v>
       </c>
@@ -28384,15 +28446,15 @@
         <f>IF( J297="s.i", "s.i", IF(ISBLANK(J297),"Actualizando información",IFERROR(J297 / VLOOKUP(A297,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>Actualizando información</v>
       </c>
-      <c r="AR297" s="10" t="s">
-        <v>2371</v>
+      <c r="AR297" s="36" t="s">
+        <v>2370</v>
       </c>
       <c r="AT297" t="e">
         <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="298" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A298" s="3">
         <v>2009</v>
       </c>
@@ -28431,8 +28493,8 @@
         <f>IF( J298="s.i", "s.i", IF(ISBLANK(J298),"Actualizando información",IFERROR(J298 / VLOOKUP(A298,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>Actualizando información</v>
       </c>
-      <c r="AR298" s="10" t="s">
-        <v>2371</v>
+      <c r="AR298" s="36" t="s">
+        <v>2370</v>
       </c>
       <c r="AT298" t="e">
         <f t="shared" si="13"/>
@@ -28532,12 +28594,13 @@
         <f>IF( J300="s.i", "s.i", IF(ISBLANK(J300),"Actualizando información",IFERROR(J300 / VLOOKUP(A300,Deflactor!$G$3:$H$64,2,0),"Revisar error" )))</f>
         <v>Actualizando información</v>
       </c>
-      <c r="AR300" s="10" t="s">
-        <v>2371</v>
-      </c>
-      <c r="AT300" t="e">
+      <c r="AR300" s="36">
+        <f xml:space="preserve"> 1065468 * 1000</f>
+        <v>1065468000</v>
+      </c>
+      <c r="AT300">
         <f t="shared" si="13"/>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
@@ -28588,7 +28651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="3">
         <v>2009</v>
       </c>
@@ -31845,7 +31908,7 @@
       <c r="I378" s="13"/>
       <c r="J378" s="10"/>
       <c r="K378" s="3" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="L378" s="3"/>
       <c r="M378" s="3"/>
@@ -39518,7 +39581,7 @@
       <c r="I568" s="13"/>
       <c r="J568" s="10"/>
       <c r="K568" s="3" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="L568" s="3"/>
       <c r="M568" s="3"/>
@@ -41704,48 +41767,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AT622" xr:uid="{7684EFF7-2168-4D7F-AEB4-A7627537983C}">
-    <filterColumn colId="45">
+    <filterColumn colId="43">
       <filters>
-        <filter val="1,965569473"/>
-        <filter val="10,10949521"/>
-        <filter val="10,36639925"/>
-        <filter val="1000"/>
-        <filter val="10017130,84"/>
-        <filter val="1017,057457"/>
-        <filter val="1043,022746"/>
-        <filter val="1061232,577"/>
-        <filter val="1069,941928"/>
-        <filter val="1112,045969"/>
-        <filter val="1113,681684"/>
-        <filter val="1131,770393"/>
-        <filter val="12,69727375"/>
-        <filter val="1209,044696"/>
-        <filter val="1253,29962"/>
-        <filter val="1334,136098"/>
-        <filter val="1361,791563"/>
-        <filter val="139,0437592"/>
-        <filter val="1402,478135"/>
-        <filter val="1430,747525"/>
-        <filter val="17,77617855"/>
-        <filter val="2,446476223"/>
-        <filter val="2,474316162"/>
-        <filter val="2,653860276"/>
-        <filter val="2,681853051"/>
-        <filter val="2,91265221"/>
-        <filter val="2687,874763"/>
-        <filter val="27,02169903"/>
-        <filter val="29,9112344"/>
-        <filter val="3,04267001"/>
-        <filter val="3,65831148"/>
-        <filter val="36,6753679"/>
-        <filter val="40,45622707"/>
-        <filter val="5,283457848"/>
-        <filter val="5,464914697"/>
-        <filter val="5200,204347"/>
-        <filter val="6,315669451"/>
-        <filter val="7,385010839"/>
-        <filter val="9,186791985"/>
-        <filter val="994,4218747"/>
+        <filter val="Sin identificar"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -42005,9 +42029,12 @@
     <hyperlink ref="R160" r:id="rId252" xr:uid="{2E1E796C-33D7-437D-8453-CFFBD7EB4784}"/>
     <hyperlink ref="S160" r:id="rId253" xr:uid="{C292818D-553E-4427-9029-D8411C7B198D}"/>
     <hyperlink ref="T160" r:id="rId254" xr:uid="{9E92E91C-9C6E-4125-9C8B-5DAC532C15CD}"/>
+    <hyperlink ref="R40" r:id="rId255" xr:uid="{97655AA0-11C5-4B76-A4F5-8D166A678FB0}"/>
+    <hyperlink ref="S40" r:id="rId256" xr:uid="{65E10135-2FED-464A-8E47-0B20BFD36D2F}"/>
+    <hyperlink ref="T40" r:id="rId257" xr:uid="{9F4A0831-DBC7-47B7-AF31-46024900AA8D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId255"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId258"/>
   <ignoredErrors>
     <ignoredError sqref="J131" formula="1"/>
   </ignoredErrors>
@@ -42016,10 +42043,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{604FB875-E6D6-4D0A-835E-1820C0AF6875}">
-  <dimension ref="A1:V20"/>
+  <dimension ref="A1:V66"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1"/>
+    <sheetView tabSelected="1" topLeftCell="O23" workbookViewId="0">
+      <selection activeCell="T40" sqref="T40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42033,33 +42060,33 @@
     <col min="16" max="16" width="26.5703125" customWidth="1"/>
     <col min="17" max="17" width="22" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="22" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="B1" t="s">
+        <v>2337</v>
+      </c>
+      <c r="C1" t="s">
         <v>2338</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2339</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2340</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>2341</v>
       </c>
-      <c r="F1" t="s">
-        <v>2342</v>
-      </c>
       <c r="N1" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="O1" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
@@ -42070,19 +42097,19 @@
         <v>44152</v>
       </c>
       <c r="C2" t="s">
+        <v>2332</v>
+      </c>
+      <c r="D2" t="s">
         <v>2333</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>2334</v>
       </c>
-      <c r="E2" t="s">
-        <v>2335</v>
-      </c>
       <c r="F2" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
       <c r="N2" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="O2" t="s">
         <v>0</v>
@@ -42100,13 +42127,13 @@
         <v>719</v>
       </c>
       <c r="T2" t="s">
+        <v>2347</v>
+      </c>
+      <c r="U2" t="s">
         <v>2348</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>2349</v>
-      </c>
-      <c r="V2" t="s">
-        <v>2350</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -42117,7 +42144,7 @@
         <v>44152</v>
       </c>
       <c r="C3" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
       <c r="O3">
         <v>2017</v>
@@ -42139,10 +42166,10 @@
         <v>11725662000</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="V3" s="4" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
@@ -42153,7 +42180,7 @@
         <v>44152</v>
       </c>
       <c r="D4" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
       <c r="O4">
         <v>2017</v>
@@ -42175,10 +42202,10 @@
         <v>26854830000</v>
       </c>
       <c r="U4" s="4" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="V4" s="4" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
@@ -42202,10 +42229,10 @@
         <v>19446013000</v>
       </c>
       <c r="U5" s="4" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
       <c r="V5" s="4" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
@@ -42229,10 +42256,10 @@
         <v>3679767000</v>
       </c>
       <c r="U6" s="4" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="V6" s="4" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
@@ -42256,10 +42283,10 @@
         <v>17640975000</v>
       </c>
       <c r="U7" s="4" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="V7" s="4" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -42283,10 +42310,10 @@
         <v>40684039000</v>
       </c>
       <c r="U8" s="51" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="V8" s="51" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
@@ -42330,10 +42357,10 @@
         <v>4899869000</v>
       </c>
       <c r="U10" s="4" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="V10" s="4" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
@@ -42357,10 +42384,10 @@
         <v>15439654000</v>
       </c>
       <c r="U11" s="4" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="V11" s="4" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
@@ -42384,10 +42411,10 @@
         <v>253201137000</v>
       </c>
       <c r="U12" s="4" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
       <c r="V12" s="4" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
@@ -42411,10 +42438,10 @@
         <v>26852009000</v>
       </c>
       <c r="U13" s="4" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="V13" s="4" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
@@ -42438,7 +42465,7 @@
         <v>44468210000</v>
       </c>
       <c r="U14" s="4" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
@@ -42458,7 +42485,7 @@
         <v>215848343000000</v>
       </c>
       <c r="T15" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
       <c r="U15" s="4"/>
     </row>
@@ -42479,7 +42506,7 @@
         <v>3.5827751E+16</v>
       </c>
       <c r="T16" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
       <c r="U16" s="4"/>
     </row>
@@ -42504,10 +42531,10 @@
         <v>1420550000</v>
       </c>
       <c r="U17" s="4" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="V17" s="4" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="18" spans="14:22" x14ac:dyDescent="0.25">
@@ -42527,23 +42554,945 @@
         <v>141370509000000</v>
       </c>
       <c r="T18" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
       <c r="U18" s="4"/>
     </row>
     <row r="20" spans="14:22" x14ac:dyDescent="0.25">
       <c r="N20" t="s">
+        <v>2366</v>
+      </c>
+      <c r="O20" t="s">
+        <v>2368</v>
+      </c>
+      <c r="P20" s="4" t="s">
         <v>2367</v>
       </c>
-      <c r="O20" t="s">
+      <c r="Q20" t="s">
         <v>2369</v>
       </c>
-      <c r="P20" s="4" t="s">
-        <v>2368</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>2370</v>
-      </c>
+    </row>
+    <row r="23" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N23" t="s">
+        <v>2376</v>
+      </c>
+      <c r="O23" t="s">
+        <v>0</v>
+      </c>
+      <c r="P23" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>3</v>
+      </c>
+      <c r="R23" t="s">
+        <v>4</v>
+      </c>
+      <c r="S23" t="s">
+        <v>719</v>
+      </c>
+      <c r="T23" t="s">
+        <v>2347</v>
+      </c>
+      <c r="U23" t="s">
+        <v>2348</v>
+      </c>
+      <c r="V23" t="s">
+        <v>2349</v>
+      </c>
+    </row>
+    <row r="24" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="O24">
+        <v>2020</v>
+      </c>
+      <c r="P24" t="s">
+        <v>1298</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>20</v>
+      </c>
+      <c r="R24" t="s">
+        <v>23</v>
+      </c>
+      <c r="S24" s="2">
+        <f xml:space="preserve">  6572.5 * 1000000</f>
+        <v>6572500000</v>
+      </c>
+      <c r="T24" s="2">
+        <f xml:space="preserve">  6386405 * 1000</f>
+        <v>6386405000</v>
+      </c>
+      <c r="U24" s="4" t="s">
+        <v>2352</v>
+      </c>
+      <c r="V24" s="4" t="s">
+        <v>2377</v>
+      </c>
+    </row>
+    <row r="25" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="O25">
+        <v>2020</v>
+      </c>
+      <c r="P25" t="s">
+        <v>1304</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>54</v>
+      </c>
+      <c r="R25" t="s">
+        <v>55</v>
+      </c>
+      <c r="S25" s="2">
+        <f xml:space="preserve"> 14064 * 1000000</f>
+        <v>14064000000</v>
+      </c>
+      <c r="T25" s="43" t="s">
+        <v>623</v>
+      </c>
+      <c r="U25" s="4" t="s">
+        <v>2352</v>
+      </c>
+      <c r="V25" s="4" t="s">
+        <v>2378</v>
+      </c>
+    </row>
+    <row r="26" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="O26">
+        <v>2020</v>
+      </c>
+      <c r="P26" t="s">
+        <v>1309</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>54</v>
+      </c>
+      <c r="R26" t="s">
+        <v>55</v>
+      </c>
+      <c r="S26" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="T26" s="2">
+        <f xml:space="preserve">  10390 * 1000000</f>
+        <v>10390000000</v>
+      </c>
+      <c r="U26" s="4" t="s">
+        <v>2352</v>
+      </c>
+      <c r="V26" s="4" t="s">
+        <v>2379</v>
+      </c>
+    </row>
+    <row r="27" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="O27">
+        <v>2019</v>
+      </c>
+      <c r="P27" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>32</v>
+      </c>
+      <c r="R27" t="s">
+        <v>33</v>
+      </c>
+      <c r="S27" s="2">
+        <v>50263613</v>
+      </c>
+      <c r="T27" s="2">
+        <f xml:space="preserve">  16715 * 1000000</f>
+        <v>16715000000</v>
+      </c>
+      <c r="U27" s="4" t="s">
+        <v>2352</v>
+      </c>
+      <c r="V27" s="4" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="28" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="O28">
+        <v>2019</v>
+      </c>
+      <c r="P28" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>40</v>
+      </c>
+      <c r="R28" t="s">
+        <v>43</v>
+      </c>
+      <c r="S28" s="2">
+        <f xml:space="preserve"> 6224 * 1000000</f>
+        <v>6224000000</v>
+      </c>
+      <c r="T28" s="43" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="29" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="O29">
+        <v>2018</v>
+      </c>
+      <c r="P29" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R29" t="s">
+        <v>23</v>
+      </c>
+      <c r="S29" s="2">
+        <f xml:space="preserve"> 9622.8 * 1000000</f>
+        <v>9622800000</v>
+      </c>
+      <c r="T29" s="43" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="30" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="O30">
+        <v>2018</v>
+      </c>
+      <c r="P30" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>54</v>
+      </c>
+      <c r="R30" t="s">
+        <v>55</v>
+      </c>
+      <c r="S30" s="2">
+        <f xml:space="preserve"> 40949 * 1000000</f>
+        <v>40949000000</v>
+      </c>
+      <c r="T30" s="2">
+        <f xml:space="preserve">  37370 * 1000000</f>
+        <v>37370000000</v>
+      </c>
+      <c r="U30" s="4" t="s">
+        <v>2352</v>
+      </c>
+      <c r="V30" s="4" t="s">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="31" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="O31">
+        <v>2018</v>
+      </c>
+      <c r="P31" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>54</v>
+      </c>
+      <c r="R31" t="s">
+        <v>55</v>
+      </c>
+      <c r="S31" s="2">
+        <f xml:space="preserve"> 143807 * 1000000</f>
+        <v>143807000000</v>
+      </c>
+      <c r="T31" s="2">
+        <f xml:space="preserve"> 142181835 * 1000</f>
+        <v>142181835000</v>
+      </c>
+      <c r="U31" s="4" t="s">
+        <v>2354</v>
+      </c>
+      <c r="V31" s="4" t="s">
+        <v>2382</v>
+      </c>
+    </row>
+    <row r="32" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="O32">
+        <v>2018</v>
+      </c>
+      <c r="P32" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>12</v>
+      </c>
+      <c r="R32" t="s">
+        <v>58</v>
+      </c>
+      <c r="S32" s="2">
+        <v>7036128</v>
+      </c>
+      <c r="T32" s="2">
+        <f xml:space="preserve"> 3000416 * 1000</f>
+        <v>3000416000</v>
+      </c>
+      <c r="U32" s="4" t="s">
+        <v>2352</v>
+      </c>
+      <c r="V32" s="4" t="s">
+        <v>2383</v>
+      </c>
+    </row>
+    <row r="33" spans="15:22" x14ac:dyDescent="0.25">
+      <c r="O33">
+        <v>2018</v>
+      </c>
+      <c r="P33" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>12</v>
+      </c>
+      <c r="R33" t="s">
+        <v>58</v>
+      </c>
+      <c r="S33" s="2">
+        <v>7036128</v>
+      </c>
+      <c r="T33" s="2">
+        <f xml:space="preserve"> 821167 * 1000</f>
+        <v>821167000</v>
+      </c>
+      <c r="U33" s="4" t="s">
+        <v>2352</v>
+      </c>
+      <c r="V33" s="4" t="s">
+        <v>2387</v>
+      </c>
+    </row>
+    <row r="34" spans="15:22" x14ac:dyDescent="0.25">
+      <c r="O34">
+        <v>2018</v>
+      </c>
+      <c r="P34" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>71</v>
+      </c>
+      <c r="R34" t="s">
+        <v>72</v>
+      </c>
+      <c r="S34" s="2">
+        <f xml:space="preserve"> 61757322 * 1000</f>
+        <v>61757322000</v>
+      </c>
+      <c r="T34" s="2">
+        <f xml:space="preserve"> 54296263 * 1000</f>
+        <v>54296263000</v>
+      </c>
+      <c r="U34" s="4" t="s">
+        <v>2389</v>
+      </c>
+      <c r="V34" s="4" t="s">
+        <v>2388</v>
+      </c>
+    </row>
+    <row r="35" spans="15:22" x14ac:dyDescent="0.25">
+      <c r="O35">
+        <v>2018</v>
+      </c>
+      <c r="P35" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>74</v>
+      </c>
+      <c r="R35" t="s">
+        <v>75</v>
+      </c>
+      <c r="S35" s="2">
+        <f xml:space="preserve"> 9599944 * 1000</f>
+        <v>9599944000</v>
+      </c>
+      <c r="T35" s="43" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="36" spans="15:22" x14ac:dyDescent="0.25">
+      <c r="O36">
+        <v>2018</v>
+      </c>
+      <c r="P36" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>36</v>
+      </c>
+      <c r="R36" t="s">
+        <v>81</v>
+      </c>
+      <c r="S36" s="2">
+        <f xml:space="preserve"> 1263672 * 1000</f>
+        <v>1263672000</v>
+      </c>
+      <c r="T36" s="2">
+        <f xml:space="preserve"> 1263672 * 1000</f>
+        <v>1263672000</v>
+      </c>
+      <c r="U36" s="4" t="s">
+        <v>2352</v>
+      </c>
+      <c r="V36" s="4" t="s">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="37" spans="15:22" x14ac:dyDescent="0.25">
+      <c r="O37">
+        <v>2017</v>
+      </c>
+      <c r="P37" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>54</v>
+      </c>
+      <c r="R37" t="s">
+        <v>55</v>
+      </c>
+      <c r="S37" s="2">
+        <f xml:space="preserve"> 3679766 * 1000000</f>
+        <v>3679766000000</v>
+      </c>
+      <c r="T37" s="43">
+        <f xml:space="preserve"> 3679767 * 1000</f>
+        <v>3679767000</v>
+      </c>
+      <c r="U37" s="4" t="s">
+        <v>2352</v>
+      </c>
+      <c r="V37" s="4" t="s">
+        <v>2359</v>
+      </c>
+    </row>
+    <row r="38" spans="15:22" x14ac:dyDescent="0.25">
+      <c r="O38">
+        <v>2017</v>
+      </c>
+      <c r="P38" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>54</v>
+      </c>
+      <c r="R38" t="s">
+        <v>55</v>
+      </c>
+      <c r="S38" s="2">
+        <f xml:space="preserve"> 17015612 * 1000000</f>
+        <v>17015612000000</v>
+      </c>
+      <c r="T38" s="43">
+        <f t="shared" ref="T38:V39" si="0">T6</f>
+        <v>3679767000</v>
+      </c>
+      <c r="U38" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>https://programassociales.ministeriodesarrollosocial.gob.cl/programas</v>
+      </c>
+      <c r="V38" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>https://programassociales.ministeriodesarrollosocial.gob.cl/pdf/2020/PRG2020_3_59464.pdf</v>
+      </c>
+    </row>
+    <row r="39" spans="15:22" x14ac:dyDescent="0.25">
+      <c r="O39">
+        <v>2017</v>
+      </c>
+      <c r="P39" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>54</v>
+      </c>
+      <c r="R39" t="s">
+        <v>55</v>
+      </c>
+      <c r="S39" s="2">
+        <f xml:space="preserve"> 26622592 * 1000000</f>
+        <v>26622592000000</v>
+      </c>
+      <c r="T39" s="43">
+        <f t="shared" si="0"/>
+        <v>17640975000</v>
+      </c>
+      <c r="U39" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>https://programassociales.ministeriodesarrollosocial.gob.cl/</v>
+      </c>
+      <c r="V39" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>https://programassociales.ministeriodesarrollosocial.gob.cl/pdf/2018/PRG2018_3_59466.pdf</v>
+      </c>
+    </row>
+    <row r="40" spans="15:22" x14ac:dyDescent="0.25">
+      <c r="O40">
+        <v>2017</v>
+      </c>
+      <c r="P40" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>32</v>
+      </c>
+      <c r="R40" t="s">
+        <v>33</v>
+      </c>
+      <c r="S40" s="2">
+        <f xml:space="preserve"> 246302903 * 1000</f>
+        <v>246302903000</v>
+      </c>
+    </row>
+    <row r="41" spans="15:22" x14ac:dyDescent="0.25">
+      <c r="O41">
+        <v>2016</v>
+      </c>
+      <c r="P41" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>54</v>
+      </c>
+      <c r="R41" t="s">
+        <v>55</v>
+      </c>
+      <c r="S41" s="2">
+        <f xml:space="preserve"> 9170.9 * 1000000</f>
+        <v>9170900000</v>
+      </c>
+    </row>
+    <row r="42" spans="15:22" x14ac:dyDescent="0.25">
+      <c r="O42">
+        <v>2016</v>
+      </c>
+      <c r="P42" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>32</v>
+      </c>
+      <c r="R42" t="s">
+        <v>33</v>
+      </c>
+      <c r="S42" s="2">
+        <f xml:space="preserve"> 23091 * 1000000</f>
+        <v>23091000000</v>
+      </c>
+    </row>
+    <row r="43" spans="15:22" x14ac:dyDescent="0.25">
+      <c r="O43">
+        <v>2016</v>
+      </c>
+      <c r="P43" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>32</v>
+      </c>
+      <c r="R43" t="s">
+        <v>33</v>
+      </c>
+      <c r="S43" s="2">
+        <f xml:space="preserve"> 23091 * 1000000</f>
+        <v>23091000000</v>
+      </c>
+    </row>
+    <row r="44" spans="15:22" x14ac:dyDescent="0.25">
+      <c r="O44">
+        <v>2016</v>
+      </c>
+      <c r="P44" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>32</v>
+      </c>
+      <c r="R44" t="s">
+        <v>33</v>
+      </c>
+      <c r="S44" s="2">
+        <f xml:space="preserve"> 75570 * 1000000</f>
+        <v>75570000000</v>
+      </c>
+    </row>
+    <row r="45" spans="15:22" x14ac:dyDescent="0.25">
+      <c r="O45">
+        <v>2016</v>
+      </c>
+      <c r="P45" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>32</v>
+      </c>
+      <c r="R45" t="s">
+        <v>33</v>
+      </c>
+      <c r="S45" s="2">
+        <f xml:space="preserve"> 75570 * 1000000</f>
+        <v>75570000000</v>
+      </c>
+    </row>
+    <row r="46" spans="15:22" x14ac:dyDescent="0.25">
+      <c r="O46">
+        <v>2015</v>
+      </c>
+      <c r="P46" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>36</v>
+      </c>
+      <c r="R46" t="s">
+        <v>98</v>
+      </c>
+      <c r="S46" s="2">
+        <f xml:space="preserve"> 293866943 * 1000000</f>
+        <v>293866943000000</v>
+      </c>
+      <c r="T46" s="43">
+        <f t="shared" ref="T46:V46" si="1">T12</f>
+        <v>253201137000</v>
+      </c>
+      <c r="U46" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.senado.cl/</v>
+      </c>
+      <c r="V46" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.senado.cl/site/presupuesto/2017/cumplimiento/Glosas%202017/primera_subcomision/21%20Des.%20Social/3953SES/Inf%20monitioreo%20cierre%202016/Fundaciones%20(18-7)/Fundaci%C3%B3n%20Integra%20(2-0)/Jardines%20Infantiles%20y%20Salas%20Cuna%20de%20Administraci%C3%B3n%20Directa(Seguimiento).pdf</v>
+      </c>
+    </row>
+    <row r="47" spans="15:22" x14ac:dyDescent="0.25">
+      <c r="O47">
+        <v>2014</v>
+      </c>
+      <c r="P47" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>36</v>
+      </c>
+      <c r="R47" t="s">
+        <v>81</v>
+      </c>
+      <c r="S47" s="2">
+        <f t="shared" ref="S47:S48" si="2" xml:space="preserve"> 11549 * 1000000</f>
+        <v>11549000000</v>
+      </c>
+    </row>
+    <row r="48" spans="15:22" x14ac:dyDescent="0.25">
+      <c r="O48">
+        <v>2014</v>
+      </c>
+      <c r="P48" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>36</v>
+      </c>
+      <c r="R48" t="s">
+        <v>81</v>
+      </c>
+      <c r="S48" s="2">
+        <f t="shared" si="2"/>
+        <v>11549000000</v>
+      </c>
+    </row>
+    <row r="49" spans="15:21" x14ac:dyDescent="0.25">
+      <c r="O49">
+        <v>2014</v>
+      </c>
+      <c r="P49" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>54</v>
+      </c>
+      <c r="R49" t="s">
+        <v>55</v>
+      </c>
+      <c r="S49" s="2">
+        <f xml:space="preserve"> 46130757 * 1000000</f>
+        <v>46130757000000</v>
+      </c>
+      <c r="T49" s="43">
+        <f t="shared" ref="T49:U49" si="3">T14</f>
+        <v>44468210000</v>
+      </c>
+      <c r="U49" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>https://www.minsal.cl/campana-mas-medicos-y-especialistas/</v>
+      </c>
+    </row>
+    <row r="50" spans="15:21" x14ac:dyDescent="0.25">
+      <c r="O50">
+        <v>2013</v>
+      </c>
+      <c r="P50" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>40</v>
+      </c>
+      <c r="R50" t="s">
+        <v>160</v>
+      </c>
+      <c r="S50" s="2">
+        <f xml:space="preserve"> 1065 * 1000000</f>
+        <v>1065000000</v>
+      </c>
+    </row>
+    <row r="51" spans="15:21" x14ac:dyDescent="0.25">
+      <c r="O51">
+        <v>2013</v>
+      </c>
+      <c r="P51" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>54</v>
+      </c>
+      <c r="R51" t="s">
+        <v>55</v>
+      </c>
+      <c r="S51" s="2" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="52" spans="15:21" x14ac:dyDescent="0.25">
+      <c r="O52">
+        <v>2013</v>
+      </c>
+      <c r="P52" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>54</v>
+      </c>
+      <c r="R52" t="s">
+        <v>55</v>
+      </c>
+      <c r="S52" s="2"/>
+    </row>
+    <row r="53" spans="15:21" x14ac:dyDescent="0.25">
+      <c r="O53">
+        <v>2013</v>
+      </c>
+      <c r="P53" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>54</v>
+      </c>
+      <c r="R53" t="s">
+        <v>55</v>
+      </c>
+      <c r="S53" s="2"/>
+    </row>
+    <row r="54" spans="15:21" x14ac:dyDescent="0.25">
+      <c r="O54">
+        <v>2013</v>
+      </c>
+      <c r="P54" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>54</v>
+      </c>
+      <c r="R54" t="s">
+        <v>55</v>
+      </c>
+      <c r="S54" s="2"/>
+    </row>
+    <row r="55" spans="15:21" x14ac:dyDescent="0.25">
+      <c r="O55">
+        <v>2013</v>
+      </c>
+      <c r="P55" t="s">
+        <v>2371</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>20</v>
+      </c>
+      <c r="R55" t="s">
+        <v>21</v>
+      </c>
+      <c r="S55" s="2"/>
+    </row>
+    <row r="56" spans="15:21" x14ac:dyDescent="0.25">
+      <c r="O56">
+        <v>2012</v>
+      </c>
+      <c r="P56" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>40</v>
+      </c>
+      <c r="R56" t="s">
+        <v>43</v>
+      </c>
+      <c r="S56" s="2">
+        <f xml:space="preserve"> 4992810 * 1000000</f>
+        <v>4992810000000</v>
+      </c>
+    </row>
+    <row r="57" spans="15:21" x14ac:dyDescent="0.25">
+      <c r="O57">
+        <v>2010</v>
+      </c>
+      <c r="P57" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>40</v>
+      </c>
+      <c r="R57" t="s">
+        <v>43</v>
+      </c>
+      <c r="S57" s="2" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="58" spans="15:21" x14ac:dyDescent="0.25">
+      <c r="O58">
+        <v>2010</v>
+      </c>
+      <c r="P58" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>36</v>
+      </c>
+      <c r="R58" t="s">
+        <v>37</v>
+      </c>
+      <c r="S58" s="2" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="59" spans="15:21" x14ac:dyDescent="0.25">
+      <c r="O59">
+        <v>2010</v>
+      </c>
+      <c r="P59" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>71</v>
+      </c>
+      <c r="R59" t="s">
+        <v>167</v>
+      </c>
+      <c r="S59" s="2"/>
+    </row>
+    <row r="60" spans="15:21" x14ac:dyDescent="0.25">
+      <c r="O60">
+        <v>2010</v>
+      </c>
+      <c r="P60" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>54</v>
+      </c>
+      <c r="R60" t="s">
+        <v>335</v>
+      </c>
+      <c r="S60" s="2"/>
+    </row>
+    <row r="61" spans="15:21" x14ac:dyDescent="0.25">
+      <c r="O61">
+        <v>2010</v>
+      </c>
+      <c r="P61" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>54</v>
+      </c>
+      <c r="R61" t="s">
+        <v>236</v>
+      </c>
+      <c r="S61" s="2"/>
+    </row>
+    <row r="62" spans="15:21" x14ac:dyDescent="0.25">
+      <c r="O62">
+        <v>2010</v>
+      </c>
+      <c r="P62" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>32</v>
+      </c>
+      <c r="R62" t="s">
+        <v>33</v>
+      </c>
+      <c r="S62" s="2"/>
+    </row>
+    <row r="63" spans="15:21" x14ac:dyDescent="0.25">
+      <c r="O63">
+        <v>2009</v>
+      </c>
+      <c r="P63" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>71</v>
+      </c>
+      <c r="R63" t="s">
+        <v>167</v>
+      </c>
+      <c r="S63" s="2"/>
+    </row>
+    <row r="64" spans="15:21" x14ac:dyDescent="0.25">
+      <c r="O64">
+        <v>2009</v>
+      </c>
+      <c r="P64" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>164</v>
+      </c>
+      <c r="R64" t="s">
+        <v>165</v>
+      </c>
+      <c r="S64" s="2"/>
+    </row>
+    <row r="65" spans="15:19" x14ac:dyDescent="0.25">
+      <c r="O65">
+        <v>2009</v>
+      </c>
+      <c r="P65" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>64</v>
+      </c>
+      <c r="R65" t="s">
+        <v>262</v>
+      </c>
+      <c r="S65" s="2"/>
+    </row>
+    <row r="66" spans="15:19" x14ac:dyDescent="0.25">
+      <c r="O66">
+        <v>2009</v>
+      </c>
+      <c r="P66" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>64</v>
+      </c>
+      <c r="R66" t="s">
+        <v>262</v>
+      </c>
+      <c r="S66" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -42572,6 +43521,28 @@
     <hyperlink ref="V17" r:id="rId17" xr:uid="{60320C2E-904B-43EA-A60A-7C16280F9FB0}"/>
     <hyperlink ref="P20" r:id="rId18" xr:uid="{EC2FECBF-B3B1-4081-8A24-DC2CED1AB85A}"/>
     <hyperlink ref="U3" r:id="rId19" location="presupuesto_anios" xr:uid="{3A0FD81A-9DF2-431F-9DE7-ABB33C1C8520}"/>
+    <hyperlink ref="V37" r:id="rId20" xr:uid="{AE0B1A8F-A84F-4700-B7FD-4CEB69AEA26C}"/>
+    <hyperlink ref="U37" r:id="rId21" xr:uid="{B1A67FE0-FC62-4C44-94C4-AA6AF05B22C8}"/>
+    <hyperlink ref="V24" r:id="rId22" xr:uid="{AB33647C-8E45-416C-814C-327B67442B40}"/>
+    <hyperlink ref="U24" r:id="rId23" xr:uid="{030BC8FE-AD48-432B-B9EC-3D535FE6EAEC}"/>
+    <hyperlink ref="V25" r:id="rId24" xr:uid="{4AF5EA81-704F-4CAC-9891-8CAFFB2C02EC}"/>
+    <hyperlink ref="U25" r:id="rId25" xr:uid="{728C4B77-8E43-4706-914B-DA950A483879}"/>
+    <hyperlink ref="V26" r:id="rId26" xr:uid="{8FB591E9-D989-4676-9599-F214A68D3617}"/>
+    <hyperlink ref="U26" r:id="rId27" xr:uid="{93D22DAC-8343-4C93-B5D2-EFD0E99DD236}"/>
+    <hyperlink ref="V27" r:id="rId28" xr:uid="{08546CBA-2D7B-4A7C-9F71-2B7B160CCC97}"/>
+    <hyperlink ref="U27" r:id="rId29" xr:uid="{8771383A-3BAF-48E1-BF2B-FD3AAFD5B312}"/>
+    <hyperlink ref="U30" r:id="rId30" xr:uid="{EC9D7735-4F95-46BE-98B5-E7C815A39A42}"/>
+    <hyperlink ref="V30" r:id="rId31" xr:uid="{4F1AEF5C-020F-4C8B-B595-DAA05593C99D}"/>
+    <hyperlink ref="V31" r:id="rId32" xr:uid="{B5D011EB-EABA-4C63-8DED-538363C50F16}"/>
+    <hyperlink ref="U31" r:id="rId33" xr:uid="{2BBB2C8B-675B-4B6C-8A8C-7B144D865FBB}"/>
+    <hyperlink ref="V32" r:id="rId34" xr:uid="{1870D7D4-3608-4458-A64F-BB787646DC12}"/>
+    <hyperlink ref="U32" r:id="rId35" xr:uid="{D45BBB59-A182-41C2-957F-BF1A50CBFCEC}"/>
+    <hyperlink ref="V33" r:id="rId36" xr:uid="{F219FBDA-BB80-4E6E-9148-D53A120DC6E5}"/>
+    <hyperlink ref="U33" r:id="rId37" xr:uid="{1E5037AA-9206-4827-A7E4-AD70B0757E6C}"/>
+    <hyperlink ref="V34" r:id="rId38" xr:uid="{D5345BE2-6E10-4374-9405-7EB778915161}"/>
+    <hyperlink ref="U34" r:id="rId39" xr:uid="{162C052B-32E7-40E1-A59D-86807ACFA55F}"/>
+    <hyperlink ref="V36" r:id="rId40" xr:uid="{1620DCD2-E662-4AA5-8A88-6D48C7B6A969}"/>
+    <hyperlink ref="U36" r:id="rId41" xr:uid="{059594DB-9906-486B-8297-F2FC4D651776}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -42687,10 +43658,10 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
+        <v>2312</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>2313</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>2314</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -42698,7 +43669,7 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -42706,7 +43677,7 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -42714,7 +43685,7 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -42722,7 +43693,7 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -42730,7 +43701,7 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -42738,7 +43709,7 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -42746,7 +43717,7 @@
         <v>718</v>
       </c>
       <c r="B18" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -42754,7 +43725,7 @@
         <v>720</v>
       </c>
       <c r="B19" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -42762,7 +43733,7 @@
         <v>721</v>
       </c>
       <c r="B20" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -42770,7 +43741,7 @@
         <v>719</v>
       </c>
       <c r="B21" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -42778,7 +43749,7 @@
         <v>722</v>
       </c>
       <c r="B22" s="41" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -42786,7 +43757,7 @@
         <v>724</v>
       </c>
       <c r="B23" s="52" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -42818,7 +43789,7 @@
         <v>734</v>
       </c>
       <c r="B28" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -42826,7 +43797,7 @@
         <v>736</v>
       </c>
       <c r="B29" s="52" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -42846,7 +43817,7 @@
         <v>1140</v>
       </c>
       <c r="B32" s="41" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -42854,7 +43825,7 @@
         <v>1148</v>
       </c>
       <c r="B33" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -42862,7 +43833,7 @@
         <v>1647</v>
       </c>
       <c r="B34" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -42870,7 +43841,7 @@
         <v>1700</v>
       </c>
       <c r="B35" s="52" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">

--- a/DATAEVAL.xlsx
+++ b/DATAEVAL.xlsx
@@ -8,22 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-EVAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62FC3CB6-62F5-4622-801A-A8C1FB6D6211}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8451A2B2-3942-400C-AA42-2571280403BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dataeval" sheetId="1" r:id="rId1"/>
     <sheet name="Notas reunion" sheetId="5" r:id="rId2"/>
     <sheet name="fuentes" sheetId="2" r:id="rId3"/>
     <sheet name="Deflactor" sheetId="4" r:id="rId4"/>
+    <sheet name="Glosario" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">dataeval!$A$1:$AV$622</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">fuentes!$E$63:$E$629</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Glosario!$E$2:$E$631</definedName>
     <definedName name="_xlnm.Extract" localSheetId="2">fuentes!$F$63:$F$629</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="4">Glosario!$F$2:$F$631</definedName>
     <definedName name="Categorias_de_Presupuesto">Deflactor!$BP$297:$BT$307</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="2">fuentes!$E$63:$E$629</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="4">Glosario!$E$2:$E$631</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -62,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7289" uniqueCount="2441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7356" uniqueCount="2486">
   <si>
     <t>Año de protocolo</t>
   </si>
@@ -7014,33 +7018,9 @@
     <t>Calidad de vida;Recuperación de Barrios;Servicios básicos;agua potable</t>
   </si>
   <si>
-    <t>Año en que se realizó la evaluación</t>
-  </si>
-  <si>
-    <t>Programa en que se realizó la evaluación</t>
-  </si>
-  <si>
     <t>Tipo de evaluación</t>
   </si>
   <si>
-    <t>Ministerio responsable del programa evaluado</t>
-  </si>
-  <si>
-    <t>Servicio público responsable del programa evaluado</t>
-  </si>
-  <si>
-    <t>El programa está vigente al año 2020</t>
-  </si>
-  <si>
-    <t>Fecha en que se inició el programa</t>
-  </si>
-  <si>
-    <t>Fecha en que se finalizó el programa</t>
-  </si>
-  <si>
-    <t>Presupuesto del programa al año de la evaluación</t>
-  </si>
-  <si>
     <t>Características encontradas en la evaluación, que tipifican el problema, además explican el fin, objetivo y razón del programa gubernamental</t>
   </si>
   <si>
@@ -7389,9 +7369,6 @@
     <t>Fue  creada  en  2016  y  pretende  generar  evaluaciones más dinámicas, “capaces de adaptarse y dar respuesta a las múltiples preguntas requeridas para la toma de decisiones,” (DIPRES, 2016, 9). La EFA debería completarse en tres o cuatro meses, un periodo más breve de lo que contemplan las otras líneas. La EFA analiza aspectos específicos referidos a costos, implementación o diseño de la estrategia, y  centra  la  evaluación  en  uno  de  ellos.  En  particular,  el  ámbito  de  implementación  no  ha  sido abordado  por otros  de  los  instrumentos  de  evaluación  de  la  DIPRES,  por  lo  que  se  espera  que esta nueva línea analice un campo que no era considerado previamente.</t>
   </si>
   <si>
-    <t>Antes  de  iniciar  el  proceso  de  evaluación,  de  acuerdo  con  la  normativa  y  según  el Protocolo  de Acuerdo  del  Congreso  para  la  Ley  de  Presupuesto  Anual,  el  Comité  Interministerial  compuesto por  representantes  de  la  DIPRES,  SEGPRES  y  MDS(MINEDUC,2018),selecciona  los  programas  a evaluar  de  todos  los  servicios  públicos.  El  Congreso,  por  su  parte,  puede  agregar  o  eliminar programas  de  la  lista  que  elabora  el  comité.  Posteriormente,  la  selección  de  programas  es comunicada a los ministerios y programas. Cada evaluación puede considerar un programa o más de uno, en caso de que se estime que hay objetivos comunes entre ellos. El ministroo subsecretario de educación nombra a un coordinador ministerial y envía la nómina de profesionales  que  realizarán  las  funciones  de contrapartes  técnicas en  cada  uno de  los programas seleccionados  para  su  evaluacióny  que  han  sido designados  por  las  jefaturas  de  las divisiones correspondientes. Con el objetivo de que la evaluación realizadasea independiente, la DIPRES  efectúa  una  licitación  pública  para  contratar  a  personas  expertas  de  una  institución académica o una consultora, quienes estarán a cargo de elaborar la evaluación. De esta forma, se pretende asegurar que la evaluación se llevea cabo por personas o entidades externas al Estado, y que no tengan conflictos de interés con el o los programas a evaluar. Una  vez  que  los  ministerios  o  servicios  han  sido  informados  y  que  se  ha  definido  quienes  van  a evaluar,   comienza   el   proceso   de   evaluación,   el   que   involucra   en   todo   su   desarrollo   a profesionales del programa, de la coordinación ministerial, de la DIPRES y al panely/o consultoraexternos. Se elaboran, discuten y consensuan informes sobre el diseño, la gestión administrativa, los indicadores y los resultados del programa evaluado;además, seemiten conclusiones respecto de  la  justificación  y  continuidad  del  programa  a  partir  de  la  evolución  del  diagnóstico  inicial  del problema que le dio origen,y a la capacidad institucional para la gestión del programa.Cuando  ya  ha  sido  elaborada  una  versión  final  del  informe,  el  ministerio  prepara  una  respuesta institucional  mediante  la  cual  puede  ejecutar  los  reparos  u  observaciones  correspondientes  a  la evaluación,  la  que  es  enviada  al  Congreso  Nacional  para  aportar  en  la  discusión  presupuestaria. Luego, los documentos son también puestos a disposición del público en el sitio web de DIPRES10.Al  término  de  la  evaluación  y  una  vez  enviado  el  informe  final  de evaluación  con  la  respuesta institucional   al   Congreso,   la   DIPRES   clasifica   a   los   programas   según   los   resultados   de   la evaluación,  situación  que  define  el  tipo  de  compromisos  que  deberá  asumir  el  programa  y  las consecuencias presupuestarias para el año siguiente.</t>
-  </si>
-  <si>
     <t>https://www.dipres.gob.cl/598/w3-article-111763.html</t>
   </si>
   <si>
@@ -7399,6 +7376,184 @@
   </si>
   <si>
     <t>Resultado de la evaluación. Es clasificado por Dipres. No hay una clasificación única ya que las consultoras que evalúan son externas que ganan un proceso de Licitación. De Allí parten diferencias metodológicas que impiden una metodología común para evaluar. una  vez  enviado  el  informe  final  de evaluación  con  la  respuesta institucional   al   Congreso,   la   DIPRES   clasifica   a   los   programas   según   los   resultados   de   la evaluación,  situación  que  define  el  tipo  de  compromisos  que  deberá  asumir  el  programa  y  las consecuencias presupuestarias para el año siguiente</t>
+  </si>
+  <si>
+    <t>Evaluación de Programas e Instituciones</t>
+  </si>
+  <si>
+    <t>Término</t>
+  </si>
+  <si>
+    <t>Abreviatura/Concepto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Líneas de Evaluación </t>
+  </si>
+  <si>
+    <t>LE</t>
+  </si>
+  <si>
+    <t>A partir del año 2018 se ha redefinido la clasificación de programas en cuatro categorías de desempeño: Buen Desempeño (BD), Desempeño Medio (DM), Desempeño Bajo (DB) y Mal Desempeño (MD).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Categorías de Desempeño </t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Evaluación de programas e instituciones se realiza abordando 4 Líneas de Evaluación: Evaluación de Impacto de Programas  (EI), Evaluación de gasto Institucional (EGI), Evaluación de Programas Gubernamentales (EPG) y Evaluación Focalizada de Ámbito (EFA). </t>
+  </si>
+  <si>
+    <t>Línea Evaluación Programas Nuevos</t>
+  </si>
+  <si>
+    <t>Línea Evaluación de Impacto de Programas</t>
+  </si>
+  <si>
+    <t>Línea Evaluación de Programas Gubernamentales</t>
+  </si>
+  <si>
+    <t>Línea Evaluación Focalizada de Ámbito</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Categorías de Desempeño No Aplica</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tiene como objetivo evaluar el diseño y gestión institucional, así como los resultados y uso de recursos en la provisión de los productos estratégicos de la institución, en función de la hipótesis de causalidad que existe entre los objetivos de la institución, los bienes y servicios que provee, y si los bienes y servicios que provee tienen un costo razonable. Esta línea fue iniciada el año 2002. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Centrada en la institución como un todo y no en un programa específico.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">El objetivo de esta línea es analizar programas en ámbitos específicos que no están siendo priorizados por las otras líneas (EPG, EI y EGI).
+Este nuevo instrumento cuenta con 3 ámbitos y la evaluación de cada programa se centra en uno en particular, según sus características y las preguntas que se quieran abordar: (i) Costos, (ii) Implementación y (iii) Diseño de la Estrategia. </t>
+  </si>
+  <si>
+    <t>Los indicadores de desempeño se construyen en función del ámbito de control (Proceso, Producto, Resultado)  y de la dimensión que miden (Eficacia, Eficiencia, Economía y Calidad)</t>
+  </si>
+  <si>
+    <t>indicadores de desempeño</t>
+  </si>
+  <si>
+    <t>El programa presenta un buen diseño y buenos resultados a nivel intermedio y final; además de una buena evaluación en los ámbitos de implementación y/o eficiencia. Presenta “Suficiente” en al menos tres ámbitos (incluyendo Diseño y Resultados); y ningún “Insuficiente".</t>
+  </si>
+  <si>
+    <t>Programa</t>
+  </si>
+  <si>
+    <t>Un programa es un conjunto de actividades necesarias, integradas y articuladas que proveen bienes y/o servicios (productos), tendientes a lograr un objetivo específico en una población determinada, de modo de resolver un problema o atender una necesidad que la afecta. Debe ser fácilmente identificable dentro del ámbito de acción de una o más instituciones públicas. Ello significa que debe llevar asociado un nombre que lo caracterice, una estructura organizacional, un responsable asociado claramente identificable y un presupuesto consistente y pertinente de gastos asociados a los bienes y servicios que produce.</t>
+  </si>
+  <si>
+    <t>http://www.dipres.gob.cl/598/w3-propertyvalue-23088.html</t>
+  </si>
+  <si>
+    <t>El programa presenta una buena evaluación en alguno de los ámbitos de diseño, implementación, eficiencia y/o resultados a nivel intermedio y final. Análisis por Ámbitos tiene 3 posibles resultados: 1) Diseño, Implementación y Eficiencia como “Suficiente” y Resultados “No Concluyente".2) Resultados “Suficiente” en el caso de programas antiguos (más de 5 años); y uno o más “Suficiente” en otros ámbito. 3) Resultados “No concluyente” en el caso de programas nuevos (5 años o menos); y dos o más “Suficiente” en otros ámbitos.</t>
+  </si>
+  <si>
+    <t>El programa presenta resultados a nivel intermedio y final no concluyentes o insuficientes y se advierten debilidades en algunos de los ámbitos de diseño, implementación y/o eficiencia. Análisis por Ámbitos tiene 2 posibles resultados: 1)  Resultados “Insuficiente” o “No Concluyente” en el caso de programas antiguos (más de 5 años); 1 o 2 ámbitos “Insuficiente”. 2) Resultados “Insuficiente” o “No Concluyente” en el caso de programas nuevos (5 años o menos); 2 o más ámbitos “Insuficiente”.</t>
+  </si>
+  <si>
+    <t>EPN corresponde a la línea Evaluación Programas Nuevos que existió entre los años 2009 y 2011. Hoy la evaluación a estos programas ha sido incorporada a la línea de Evaluación de Impacto. En esta línea la metodología utilizada ha sido desarrollada ad hoc, con el objeto de identificar y fundamentar las eventuales brechas entre el diseño propuesto y el efectivo (implementación).</t>
+  </si>
+  <si>
+    <t>El programa presenta resultados a nivel intermedio y final insuficientes y/o muestra debilidades significativas en el diseño, implementación y/o eficiencia. Resultados “Insuficiente” o “No Concluyente” y ningún ámbito
+“Suficiente.</t>
+  </si>
+  <si>
+    <t>Se refiere a que el programa presenta resultados insuficientes y/o muestra debilidades en las dimensiones evaluadas que no le permiten dar cuenta de sus objetivos. Categoría Período 2011-2017.</t>
+  </si>
+  <si>
+    <t>Se refiere a que el programa tiene resultados positivos que dan cuenta de sus objetivos, sin embargo, presenta debilidades en alguna(s) de las dimensiones evaluadas. Categoría Período 2011-2017.</t>
+  </si>
+  <si>
+    <t>Se refiere a que la evaluación no entrega información suficiente que permita obtener resultados concluyentes respecto del desempeño del programa. Categoría Período 2011-2017.</t>
+  </si>
+  <si>
+    <t>Sin información. Línea EPG, periodo 1997-2000. No se cumplieron los requisitos para validar la evaluación, ya sea por falta de información relevante y/o por el estado de avance en la implementación del programa.</t>
+  </si>
+  <si>
+    <t>Año en que se realizó la evaluación.</t>
+  </si>
+  <si>
+    <t>Programa o Institución evaluado(a).</t>
+  </si>
+  <si>
+    <t>Ministerio responsable del programa evaluado.</t>
+  </si>
+  <si>
+    <t>Unidad administrativa responsable del programa evaluado.</t>
+  </si>
+  <si>
+    <t>Antes  de  iniciar  el  proceso  de  evaluación,  de  acuerdo  con  la  normativa  y  según  el Protocolo  de Acuerdo  del  Congreso  para  la  Ley  de  Presupuesto  Anual,  el  Comité  Interministerial  compuesto por  representantes  de  la  DIPRES,  SEGPRES  y  MDS(MINEDUC,2018),selecciona  los  programas  a evaluar  de  todos  los  servicios  públicos.  El  Congreso,  por  su  parte,  puede  agregar  o  eliminar programas  de  la  lista  que  elabora  el  comité.  Posteriormente,  la  selección  de  programas  es comunicada a los ministerios y programas. Cada evaluación puede considerar un programa o más de uno, en caso de que se estime que hay objetivos comunes entre ellos. El ministro o subsecretario de educación nombra a un coordinador ministerial y envía la nómina de profesionales  que  realizarán  las  funciones  de contrapartes  técnicas en  cada  uno de  los programas seleccionados  para  su  evaluación y  que  han  sido designados  por  las  jefaturas  de  las divisiones correspondientes. Con el objetivo de que la evaluación realizada sea independiente, la DIPRES  efectúa  una  licitación  pública  para  contratar  a  personas  expertas  de  una  institución académica o una consultora, quienes estarán a cargo de elaborar la evaluación. De esta forma, se pretende asegurar que la evaluación se llevea cabo por personas o entidades externas al Estado, y que no tengan conflictos de interés con el o los programas a evaluar. Una  vez  que  los  ministerios  o  servicios  han  sido  informados  y  que  se  ha  definido  quienes  van  a evaluar,   comienza   el   proceso   de   evaluación,   el   que   involucra   en   todo   su   desarrollo   a profesionales del programa, de la coordinación ministerial, de la DIPRES y al panely/o consultora externos. Se elaboran, discuten y consensuan informes sobre el diseño, la gestión administrativa, los indicadores y los resultados del programa evaluado; además, se emiten conclusiones respecto de  la  justificación  y  continuidad  del  programa  a  partir  de  la  evolución  del  diagnóstico  inicial  del problema que le dio origen,y a la capacidad institucional para la gestión del programa. Cuando  ya  ha  sido  elaborada  una  versión  final  del  informe,  el  ministerio  prepara  una  respuesta institucional  mediante  la  cual  puede  ejecutar  los  reparos  u  observaciones  correspondientes  a  la evaluación,  la  que  es  enviada  al  Congreso  Nacional  para  aportar  en  la  discusión  presupuestaria. Luego, los documentos son también puestos a disposición del público en el sitio web de DIPRES. Al  término  de  la  evaluación  y  una  vez  enviado  el  informe  final  de evaluación  con  la  respuesta institucional   al   Congreso,   la   DIPRES   clasifica   a   los   programas   según   los   resultados   de   la evaluación,  situación  que  define  el  tipo  de  compromisos  que  deberá  asumir  el  programa  y  las consecuencias presupuestarias para el año siguiente.</t>
+  </si>
+  <si>
+    <t>Indica si el programa está vigente al año 2020.</t>
+  </si>
+  <si>
+    <t>Fecha en que se inició el programa.</t>
+  </si>
+  <si>
+    <t>Fecha en que se finalizó el programa.</t>
+  </si>
+  <si>
+    <t>Presupuesto del programa contenido en el informe el año de la evaluación.</t>
+  </si>
+  <si>
+    <t>La clasificación 'No Aplica' significa que no se cumplieron los requisitos para validar la evaluación, ya sea por falta de información relevante y/o por el estado de avance en la implementación del programa. A partir de 2018, la clasificación 'No Aplica' ya no se utiliza. En 2020 Si el ámbito no es parte del análisis evaluativo realizado en el marco de la evaluación (sucede en EFA), se identifica como “No Aplica” (N/A).</t>
+  </si>
+  <si>
+    <t>El Programa de Evaluación de programas e instituciones forma parte importante del Sistema de Evaluación y Control de Gestión de la Dirección de Presupuestos, el que provee información de desempeño que apoya la toma de decisiones durante el ciclo presupuestario, mejorando la eficiencia en la asignación y en el uso de los recursos públicos, y con ello la calidad del gasto y la gestión de las instituciones públicas. Las evaluaciones son desarrolladas por consultores externos al sector público.</t>
+  </si>
+  <si>
+    <t>Programas que requieren de pequeños ajustes, tales como perfeccionar sus sistemas de información, monitoreo y seguimiento; precisar algunos aspectos de diseño y/o ajustar procesos administrativos o de gestión interna. Categoría de Desempeño utilizadas en el Período 2000-2010.</t>
+  </si>
+  <si>
+    <t>Programas que requieren incorporar cambios en el diseño de alguno de sus componentes y/o actividades, o en sus procesos de gestión interna (ej: revisar criterios de focalización, implementar sistemas de información que permitan un mejor seguimiento y monitoreo de sus resultados, perfeccionar la coordinación interna y/o externa y fortalecer las capacidades institucionales). Categoría de Desempeño utilizadas en el Período 2000-2010.</t>
+  </si>
+  <si>
+    <t>Programas que requieren reformulaciones o reestructuraciones profundas en su diseño y/o en su estructura organizacional y/o en sus procesos de gestión interna; o completar aspectos sustantivos del diseño necesarios para lograr los objetivos. Categoría de Desempeño utilizadas en el Período 2000-2010.</t>
+  </si>
+  <si>
+    <t>Programas que requieren modificaciones tan sustantivas que equivalen a su reemplazo íntegro; o que finalizan su período de ejecución comprometido y en consideración a sus resultados y/o vigencia del problema que dio origen al programa, no se justifica extenderlo por otro período; o que en atención a sus resultados no mantienen sus asignaciones presupuestarias. Categoría de Desempeño utilizadas en el Período 2000-2010.</t>
+  </si>
+  <si>
+    <t>Programas que en atención a sus objetivos requieren cambio de dependencia institucional hacia el Ministerio o Servicio responsable de la ejecución de la política pública a la que corresponde el programa. Categoría de Desempeño utilizadas en el Período 2000-2010.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utilizará la metodología de marco lógico, centrándose en identificar los objetivos de los programas y luego determinar la consistencia de su diseño y resultados con esos objetivos sobre la base, principalmente, de antecedentes e información existentes.
+La evaluación considera, al menos, los siguientes focos o ámbitos: justificación del programa; su diseño; los principales aspectos de organización y gestión; y los resultados o desempeño en términos de eficacia, eficiencia y economía. Fue iniciada el año 1997. </t>
+  </si>
+  <si>
+    <t>“Reglamento para el funcionamiento del sistema de evaluación de programas establecido en el artículo 52 del decreto ley nº 1.263, de 1975, orgánico de administración financiera”, Decreto N° 1177, del 17 de diciembre 2003.</t>
+  </si>
+  <si>
+    <t>https://www.bcn.cl/leychile/navegar/imprimir?idNorma=220923&amp;idParte=0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dipres (2015). “Evaluación Ex-Post: Conceptos y Metodologías”, disponible en </t>
+  </si>
+  <si>
+    <t>http://www.dipres.gob.cl/594/articles-139847_doc_pdf.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dirección de Presupuestos gobierno de Chile. Resultados de Evaluaciones.</t>
+  </si>
+  <si>
+    <t>Línea Evaluación de Gasto Institucional</t>
+  </si>
+  <si>
+    <t>Emplea metodologías experimentales o cuasi-experimentales, que permiten evaluar resultados intermedios y finales de un programa o política pública. La evaluación considera, al menos, los siguientes focos o ámbitos: resultados en términos de eficacia a nivel de productos, resultados intermedios y resultados finales; uso de recursos en términos de eficiencia y economía, y mediciones globales del desempeño. A partir de 2018 se reformuló esta línea de evaluación, incorporando dos mecanismos diferentes de selección: el Fondo de Evaluación de Impacto que consiste en un concurso público para que académicos propongan programas a evaluar y por otro lado las evaluaciones de programas piloto, seleccionados por el equipo de DIPRES. Iniciada el año 2001.</t>
   </si>
 </sst>
 </file>
@@ -7413,7 +7568,7 @@
     <numFmt numFmtId="166" formatCode="yyyy"/>
     <numFmt numFmtId="167" formatCode="mmm\.yyyy"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7579,6 +7734,42 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -8106,7 +8297,7 @@
     <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="43" applyFont="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
@@ -8200,12 +8391,6 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="45" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="44" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -8231,7 +8416,43 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="44" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="44" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="44" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -8803,10 +9024,10 @@
   <dimension ref="A1:AV622"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X2" sqref="X2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8965,19 +9186,19 @@
         <v>2035</v>
       </c>
       <c r="AR1" s="7" t="s">
-        <v>2369</v>
+        <v>2361</v>
       </c>
       <c r="AS1" s="41" t="s">
-        <v>2370</v>
+        <v>2362</v>
       </c>
       <c r="AT1" s="7" t="s">
-        <v>2405</v>
+        <v>2397</v>
       </c>
       <c r="AU1" s="7" t="s">
-        <v>2407</v>
+        <v>2399</v>
       </c>
       <c r="AV1" s="7" t="s">
-        <v>2429</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="2" spans="1:48" s="33" customFormat="1" x14ac:dyDescent="0.35">
@@ -9102,7 +9323,7 @@
       </c>
       <c r="AU2" s="54">
         <f xml:space="preserve"> IFERROR(ROUND(AT2 / VLOOKUP(A2,Tabla1[#All],2,0),0),"s.i")</f>
-        <v>84297308</v>
+        <v>84366777</v>
       </c>
       <c r="AV2" s="33">
         <f xml:space="preserve"> IF(AU2="s.i", "s.i", IF(AND(AU2&gt;=Deflactor!$BQ$298,AU2&lt;Deflactor!$BQ$299), Deflactor!$BP$298, IF(AND(AU2&gt;=Deflactor!$BQ$299,AU2&lt;Deflactor!$BQ$300), Deflactor!$BP$299, IF(AND(AU2&gt;=Deflactor!$BQ$300,AU2&lt;Deflactor!$BQ$301), Deflactor!$BP$300, IF(AND(AU2&gt;=Deflactor!$BQ$301,AU2&lt;Deflactor!$BQ$302), Deflactor!$BP$301, IF(AND(AU2&gt;=Deflactor!$BQ$302,AU2&lt;Deflactor!$BQ$303), Deflactor!$BP$302, IF(AND(AU2&gt;=Deflactor!$BQ$303,AU2&lt;Deflactor!$BQ$304), Deflactor!$BP$303, IF(AND(AU2&gt;=Deflactor!$BQ$304,AU2&lt;Deflactor!$BQ$305), Deflactor!$BP$304, IF(AND(AU2&gt;=Deflactor!$BQ$305,AU2&lt;Deflactor!$BQ$306), Deflactor!$BP$305, IF(AND(AU2&gt;=Deflactor!$BQ$306,AU2&lt;Deflactor!$BQ$307), Deflactor!$BP$306, Deflactor!$BP$307) ) ) ) ) ) ) ) ) )</f>
@@ -9217,7 +9438,7 @@
       </c>
       <c r="AU3" s="54">
         <f xml:space="preserve"> IFERROR(ROUND(AT3 / VLOOKUP(A3,Tabla1[#All],2,0),0),"s.i")</f>
-        <v>57422510</v>
+        <v>57469831</v>
       </c>
       <c r="AV3" s="33">
         <f xml:space="preserve"> IF(AU3="s.i", "s.i", IF(AND(AU3&gt;=Deflactor!$BQ$298,AU3&lt;Deflactor!$BQ$299), Deflactor!$BP$298, IF(AND(AU3&gt;=Deflactor!$BQ$299,AU3&lt;Deflactor!$BQ$300), Deflactor!$BP$299, IF(AND(AU3&gt;=Deflactor!$BQ$300,AU3&lt;Deflactor!$BQ$301), Deflactor!$BP$300, IF(AND(AU3&gt;=Deflactor!$BQ$301,AU3&lt;Deflactor!$BQ$302), Deflactor!$BP$301, IF(AND(AU3&gt;=Deflactor!$BQ$302,AU3&lt;Deflactor!$BQ$303), Deflactor!$BP$302, IF(AND(AU3&gt;=Deflactor!$BQ$303,AU3&lt;Deflactor!$BQ$304), Deflactor!$BP$303, IF(AND(AU3&gt;=Deflactor!$BQ$304,AU3&lt;Deflactor!$BQ$305), Deflactor!$BP$304, IF(AND(AU3&gt;=Deflactor!$BQ$305,AU3&lt;Deflactor!$BQ$306), Deflactor!$BP$305, IF(AND(AU3&gt;=Deflactor!$BQ$306,AU3&lt;Deflactor!$BQ$307), Deflactor!$BP$306, Deflactor!$BP$307) ) ) ) ) ) ) ) ) )</f>
@@ -9332,7 +9553,7 @@
         <v>1999</v>
       </c>
       <c r="AR4" s="34" t="s">
-        <v>2367</v>
+        <v>2359</v>
       </c>
       <c r="AS4" s="42"/>
       <c r="AT4" s="46">
@@ -9341,7 +9562,7 @@
       </c>
       <c r="AU4" s="54">
         <f xml:space="preserve"> IFERROR(ROUND(AT4 / VLOOKUP(A4,Tabla1[#All],2,0),0),"s.i")</f>
-        <v>8054747</v>
+        <v>8061385</v>
       </c>
       <c r="AV4" s="33">
         <f xml:space="preserve"> IF(AU4="s.i", "s.i", IF(AND(AU4&gt;=Deflactor!$BQ$298,AU4&lt;Deflactor!$BQ$299), Deflactor!$BP$298, IF(AND(AU4&gt;=Deflactor!$BQ$299,AU4&lt;Deflactor!$BQ$300), Deflactor!$BP$299, IF(AND(AU4&gt;=Deflactor!$BQ$300,AU4&lt;Deflactor!$BQ$301), Deflactor!$BP$300, IF(AND(AU4&gt;=Deflactor!$BQ$301,AU4&lt;Deflactor!$BQ$302), Deflactor!$BP$301, IF(AND(AU4&gt;=Deflactor!$BQ$302,AU4&lt;Deflactor!$BQ$303), Deflactor!$BP$302, IF(AND(AU4&gt;=Deflactor!$BQ$303,AU4&lt;Deflactor!$BQ$304), Deflactor!$BP$303, IF(AND(AU4&gt;=Deflactor!$BQ$304,AU4&lt;Deflactor!$BQ$305), Deflactor!$BP$304, IF(AND(AU4&gt;=Deflactor!$BQ$305,AU4&lt;Deflactor!$BQ$306), Deflactor!$BP$305, IF(AND(AU4&gt;=Deflactor!$BQ$306,AU4&lt;Deflactor!$BQ$307), Deflactor!$BP$306, Deflactor!$BP$307) ) ) ) ) ) ) ) ) )</f>
@@ -9453,7 +9674,7 @@
       </c>
       <c r="AU5" s="54">
         <f xml:space="preserve"> IFERROR(ROUND(AT5 / VLOOKUP(A5,Tabla1[#All],2,0),0),"s.i")</f>
-        <v>56677013</v>
+        <v>56723721</v>
       </c>
       <c r="AV5" s="33">
         <f xml:space="preserve"> IF(AU5="s.i", "s.i", IF(AND(AU5&gt;=Deflactor!$BQ$298,AU5&lt;Deflactor!$BQ$299), Deflactor!$BP$298, IF(AND(AU5&gt;=Deflactor!$BQ$299,AU5&lt;Deflactor!$BQ$300), Deflactor!$BP$299, IF(AND(AU5&gt;=Deflactor!$BQ$300,AU5&lt;Deflactor!$BQ$301), Deflactor!$BP$300, IF(AND(AU5&gt;=Deflactor!$BQ$301,AU5&lt;Deflactor!$BQ$302), Deflactor!$BP$301, IF(AND(AU5&gt;=Deflactor!$BQ$302,AU5&lt;Deflactor!$BQ$303), Deflactor!$BP$302, IF(AND(AU5&gt;=Deflactor!$BQ$303,AU5&lt;Deflactor!$BQ$304), Deflactor!$BP$303, IF(AND(AU5&gt;=Deflactor!$BQ$304,AU5&lt;Deflactor!$BQ$305), Deflactor!$BP$304, IF(AND(AU5&gt;=Deflactor!$BQ$305,AU5&lt;Deflactor!$BQ$306), Deflactor!$BP$305, IF(AND(AU5&gt;=Deflactor!$BQ$306,AU5&lt;Deflactor!$BQ$307), Deflactor!$BP$306, Deflactor!$BP$307) ) ) ) ) ) ) ) ) )</f>
@@ -9550,7 +9771,7 @@
       </c>
       <c r="AU6" s="54">
         <f xml:space="preserve"> IFERROR(ROUND(AT6 / VLOOKUP(A6,Tabla1[#All],2,0),0),"s.i")</f>
-        <v>638124</v>
+        <v>638649</v>
       </c>
       <c r="AV6" s="33">
         <f xml:space="preserve"> IF(AU6="s.i", "s.i", IF(AND(AU6&gt;=Deflactor!$BQ$298,AU6&lt;Deflactor!$BQ$299), Deflactor!$BP$298, IF(AND(AU6&gt;=Deflactor!$BQ$299,AU6&lt;Deflactor!$BQ$300), Deflactor!$BP$299, IF(AND(AU6&gt;=Deflactor!$BQ$300,AU6&lt;Deflactor!$BQ$301), Deflactor!$BP$300, IF(AND(AU6&gt;=Deflactor!$BQ$301,AU6&lt;Deflactor!$BQ$302), Deflactor!$BP$301, IF(AND(AU6&gt;=Deflactor!$BQ$302,AU6&lt;Deflactor!$BQ$303), Deflactor!$BP$302, IF(AND(AU6&gt;=Deflactor!$BQ$303,AU6&lt;Deflactor!$BQ$304), Deflactor!$BP$303, IF(AND(AU6&gt;=Deflactor!$BQ$304,AU6&lt;Deflactor!$BQ$305), Deflactor!$BP$304, IF(AND(AU6&gt;=Deflactor!$BQ$305,AU6&lt;Deflactor!$BQ$306), Deflactor!$BP$305, IF(AND(AU6&gt;=Deflactor!$BQ$306,AU6&lt;Deflactor!$BQ$307), Deflactor!$BP$306, Deflactor!$BP$307) ) ) ) ) ) ) ) ) )</f>
@@ -9653,7 +9874,7 @@
       </c>
       <c r="AU7" s="54">
         <f xml:space="preserve"> IFERROR(ROUND(AT7 / VLOOKUP(A7,Tabla1[#All],2,0),0),"s.i")</f>
-        <v>104435176</v>
+        <v>104521241</v>
       </c>
       <c r="AV7" s="33">
         <f xml:space="preserve"> IF(AU7="s.i", "s.i", IF(AND(AU7&gt;=Deflactor!$BQ$298,AU7&lt;Deflactor!$BQ$299), Deflactor!$BP$298, IF(AND(AU7&gt;=Deflactor!$BQ$299,AU7&lt;Deflactor!$BQ$300), Deflactor!$BP$299, IF(AND(AU7&gt;=Deflactor!$BQ$300,AU7&lt;Deflactor!$BQ$301), Deflactor!$BP$300, IF(AND(AU7&gt;=Deflactor!$BQ$301,AU7&lt;Deflactor!$BQ$302), Deflactor!$BP$301, IF(AND(AU7&gt;=Deflactor!$BQ$302,AU7&lt;Deflactor!$BQ$303), Deflactor!$BP$302, IF(AND(AU7&gt;=Deflactor!$BQ$303,AU7&lt;Deflactor!$BQ$304), Deflactor!$BP$303, IF(AND(AU7&gt;=Deflactor!$BQ$304,AU7&lt;Deflactor!$BQ$305), Deflactor!$BP$304, IF(AND(AU7&gt;=Deflactor!$BQ$305,AU7&lt;Deflactor!$BQ$306), Deflactor!$BP$305, IF(AND(AU7&gt;=Deflactor!$BQ$306,AU7&lt;Deflactor!$BQ$307), Deflactor!$BP$306, Deflactor!$BP$307) ) ) ) ) ) ) ) ) )</f>
@@ -9763,7 +9984,7 @@
       </c>
       <c r="AU8" s="54">
         <f xml:space="preserve"> IFERROR(ROUND(AT8 / VLOOKUP(A8,Tabla1[#All],2,0),0),"s.i")</f>
-        <v>14385550</v>
+        <v>14397406</v>
       </c>
       <c r="AV8" s="33">
         <f xml:space="preserve"> IF(AU8="s.i", "s.i", IF(AND(AU8&gt;=Deflactor!$BQ$298,AU8&lt;Deflactor!$BQ$299), Deflactor!$BP$298, IF(AND(AU8&gt;=Deflactor!$BQ$299,AU8&lt;Deflactor!$BQ$300), Deflactor!$BP$299, IF(AND(AU8&gt;=Deflactor!$BQ$300,AU8&lt;Deflactor!$BQ$301), Deflactor!$BP$300, IF(AND(AU8&gt;=Deflactor!$BQ$301,AU8&lt;Deflactor!$BQ$302), Deflactor!$BP$301, IF(AND(AU8&gt;=Deflactor!$BQ$302,AU8&lt;Deflactor!$BQ$303), Deflactor!$BP$302, IF(AND(AU8&gt;=Deflactor!$BQ$303,AU8&lt;Deflactor!$BQ$304), Deflactor!$BP$303, IF(AND(AU8&gt;=Deflactor!$BQ$304,AU8&lt;Deflactor!$BQ$305), Deflactor!$BP$304, IF(AND(AU8&gt;=Deflactor!$BQ$305,AU8&lt;Deflactor!$BQ$306), Deflactor!$BP$305, IF(AND(AU8&gt;=Deflactor!$BQ$306,AU8&lt;Deflactor!$BQ$307), Deflactor!$BP$306, Deflactor!$BP$307) ) ) ) ) ) ) ) ) )</f>
@@ -9877,7 +10098,7 @@
         <v>1782</v>
       </c>
       <c r="AR9" s="34" t="s">
-        <v>2367</v>
+        <v>2359</v>
       </c>
       <c r="AS9" s="42"/>
       <c r="AT9" s="46" t="str">
@@ -10008,7 +10229,7 @@
       </c>
       <c r="AU10" s="54">
         <f xml:space="preserve"> IFERROR(ROUND(AT10 / VLOOKUP(A10,Tabla1[#All],2,0),0),"s.i")</f>
-        <v>447169342</v>
+        <v>447537852</v>
       </c>
       <c r="AV10" s="33">
         <f xml:space="preserve"> IF(AU10="s.i", "s.i", IF(AND(AU10&gt;=Deflactor!$BQ$298,AU10&lt;Deflactor!$BQ$299), Deflactor!$BP$298, IF(AND(AU10&gt;=Deflactor!$BQ$299,AU10&lt;Deflactor!$BQ$300), Deflactor!$BP$299, IF(AND(AU10&gt;=Deflactor!$BQ$300,AU10&lt;Deflactor!$BQ$301), Deflactor!$BP$300, IF(AND(AU10&gt;=Deflactor!$BQ$301,AU10&lt;Deflactor!$BQ$302), Deflactor!$BP$301, IF(AND(AU10&gt;=Deflactor!$BQ$302,AU10&lt;Deflactor!$BQ$303), Deflactor!$BP$302, IF(AND(AU10&gt;=Deflactor!$BQ$303,AU10&lt;Deflactor!$BQ$304), Deflactor!$BP$303, IF(AND(AU10&gt;=Deflactor!$BQ$304,AU10&lt;Deflactor!$BQ$305), Deflactor!$BP$304, IF(AND(AU10&gt;=Deflactor!$BQ$305,AU10&lt;Deflactor!$BQ$306), Deflactor!$BP$305, IF(AND(AU10&gt;=Deflactor!$BQ$306,AU10&lt;Deflactor!$BQ$307), Deflactor!$BP$306, Deflactor!$BP$307) ) ) ) ) ) ) ) ) )</f>
@@ -10121,7 +10342,7 @@
       </c>
       <c r="AU11" s="54">
         <f xml:space="preserve"> IFERROR(ROUND(AT11 / VLOOKUP(A11,Tabla1[#All],2,0),0),"s.i")</f>
-        <v>19333388</v>
+        <v>19349320</v>
       </c>
       <c r="AV11" s="33">
         <f xml:space="preserve"> IF(AU11="s.i", "s.i", IF(AND(AU11&gt;=Deflactor!$BQ$298,AU11&lt;Deflactor!$BQ$299), Deflactor!$BP$298, IF(AND(AU11&gt;=Deflactor!$BQ$299,AU11&lt;Deflactor!$BQ$300), Deflactor!$BP$299, IF(AND(AU11&gt;=Deflactor!$BQ$300,AU11&lt;Deflactor!$BQ$301), Deflactor!$BP$300, IF(AND(AU11&gt;=Deflactor!$BQ$301,AU11&lt;Deflactor!$BQ$302), Deflactor!$BP$301, IF(AND(AU11&gt;=Deflactor!$BQ$302,AU11&lt;Deflactor!$BQ$303), Deflactor!$BP$302, IF(AND(AU11&gt;=Deflactor!$BQ$303,AU11&lt;Deflactor!$BQ$304), Deflactor!$BP$303, IF(AND(AU11&gt;=Deflactor!$BQ$304,AU11&lt;Deflactor!$BQ$305), Deflactor!$BP$304, IF(AND(AU11&gt;=Deflactor!$BQ$305,AU11&lt;Deflactor!$BQ$306), Deflactor!$BP$305, IF(AND(AU11&gt;=Deflactor!$BQ$306,AU11&lt;Deflactor!$BQ$307), Deflactor!$BP$306, Deflactor!$BP$307) ) ) ) ) ) ) ) ) )</f>
@@ -10234,7 +10455,7 @@
       </c>
       <c r="AU12" s="54">
         <f xml:space="preserve"> IFERROR(ROUND(AT12 / VLOOKUP(A12,Tabla1[#All],2,0),0),"s.i")</f>
-        <v>12744856</v>
+        <v>12755359</v>
       </c>
       <c r="AV12" s="33">
         <f xml:space="preserve"> IF(AU12="s.i", "s.i", IF(AND(AU12&gt;=Deflactor!$BQ$298,AU12&lt;Deflactor!$BQ$299), Deflactor!$BP$298, IF(AND(AU12&gt;=Deflactor!$BQ$299,AU12&lt;Deflactor!$BQ$300), Deflactor!$BP$299, IF(AND(AU12&gt;=Deflactor!$BQ$300,AU12&lt;Deflactor!$BQ$301), Deflactor!$BP$300, IF(AND(AU12&gt;=Deflactor!$BQ$301,AU12&lt;Deflactor!$BQ$302), Deflactor!$BP$301, IF(AND(AU12&gt;=Deflactor!$BQ$302,AU12&lt;Deflactor!$BQ$303), Deflactor!$BP$302, IF(AND(AU12&gt;=Deflactor!$BQ$303,AU12&lt;Deflactor!$BQ$304), Deflactor!$BP$303, IF(AND(AU12&gt;=Deflactor!$BQ$304,AU12&lt;Deflactor!$BQ$305), Deflactor!$BP$304, IF(AND(AU12&gt;=Deflactor!$BQ$305,AU12&lt;Deflactor!$BQ$306), Deflactor!$BP$305, IF(AND(AU12&gt;=Deflactor!$BQ$306,AU12&lt;Deflactor!$BQ$307), Deflactor!$BP$306, Deflactor!$BP$307) ) ) ) ) ) ) ) ) )</f>
@@ -10346,7 +10567,7 @@
       </c>
       <c r="AU13" s="54">
         <f xml:space="preserve"> IFERROR(ROUND(AT13 / VLOOKUP(A13,Tabla1[#All],2,0),0),"s.i")</f>
-        <v>30979632</v>
+        <v>31005162</v>
       </c>
       <c r="AV13" s="33">
         <f xml:space="preserve"> IF(AU13="s.i", "s.i", IF(AND(AU13&gt;=Deflactor!$BQ$298,AU13&lt;Deflactor!$BQ$299), Deflactor!$BP$298, IF(AND(AU13&gt;=Deflactor!$BQ$299,AU13&lt;Deflactor!$BQ$300), Deflactor!$BP$299, IF(AND(AU13&gt;=Deflactor!$BQ$300,AU13&lt;Deflactor!$BQ$301), Deflactor!$BP$300, IF(AND(AU13&gt;=Deflactor!$BQ$301,AU13&lt;Deflactor!$BQ$302), Deflactor!$BP$301, IF(AND(AU13&gt;=Deflactor!$BQ$302,AU13&lt;Deflactor!$BQ$303), Deflactor!$BP$302, IF(AND(AU13&gt;=Deflactor!$BQ$303,AU13&lt;Deflactor!$BQ$304), Deflactor!$BP$303, IF(AND(AU13&gt;=Deflactor!$BQ$304,AU13&lt;Deflactor!$BQ$305), Deflactor!$BP$304, IF(AND(AU13&gt;=Deflactor!$BQ$305,AU13&lt;Deflactor!$BQ$306), Deflactor!$BP$305, IF(AND(AU13&gt;=Deflactor!$BQ$306,AU13&lt;Deflactor!$BQ$307), Deflactor!$BP$306, Deflactor!$BP$307) ) ) ) ) ) ) ) ) )</f>
@@ -10433,7 +10654,7 @@
         <v>1875</v>
       </c>
       <c r="AR14" s="34" t="s">
-        <v>2367</v>
+        <v>2359</v>
       </c>
       <c r="AS14" s="42"/>
       <c r="AT14" s="46">
@@ -10442,7 +10663,7 @@
       </c>
       <c r="AU14" s="54">
         <f xml:space="preserve"> IFERROR(ROUND(AT14 / VLOOKUP(A14,Tabla1[#All],2,0),0),"s.i")</f>
-        <v>13104214</v>
+        <v>13115013</v>
       </c>
       <c r="AV14" s="33">
         <f xml:space="preserve"> IF(AU14="s.i", "s.i", IF(AND(AU14&gt;=Deflactor!$BQ$298,AU14&lt;Deflactor!$BQ$299), Deflactor!$BP$298, IF(AND(AU14&gt;=Deflactor!$BQ$299,AU14&lt;Deflactor!$BQ$300), Deflactor!$BP$299, IF(AND(AU14&gt;=Deflactor!$BQ$300,AU14&lt;Deflactor!$BQ$301), Deflactor!$BP$300, IF(AND(AU14&gt;=Deflactor!$BQ$301,AU14&lt;Deflactor!$BQ$302), Deflactor!$BP$301, IF(AND(AU14&gt;=Deflactor!$BQ$302,AU14&lt;Deflactor!$BQ$303), Deflactor!$BP$302, IF(AND(AU14&gt;=Deflactor!$BQ$303,AU14&lt;Deflactor!$BQ$304), Deflactor!$BP$303, IF(AND(AU14&gt;=Deflactor!$BQ$304,AU14&lt;Deflactor!$BQ$305), Deflactor!$BP$304, IF(AND(AU14&gt;=Deflactor!$BQ$305,AU14&lt;Deflactor!$BQ$306), Deflactor!$BP$305, IF(AND(AU14&gt;=Deflactor!$BQ$306,AU14&lt;Deflactor!$BQ$307), Deflactor!$BP$306, Deflactor!$BP$307) ) ) ) ) ) ) ) ) )</f>
@@ -10553,7 +10774,7 @@
       </c>
       <c r="AU15" s="54">
         <f xml:space="preserve"> IFERROR(ROUND(AT15 / VLOOKUP(A15,Tabla1[#All],2,0),0),"s.i")</f>
-        <v>1087991160</v>
+        <v>1088887768</v>
       </c>
       <c r="AV15" s="33">
         <f xml:space="preserve"> IF(AU15="s.i", "s.i", IF(AND(AU15&gt;=Deflactor!$BQ$298,AU15&lt;Deflactor!$BQ$299), Deflactor!$BP$298, IF(AND(AU15&gt;=Deflactor!$BQ$299,AU15&lt;Deflactor!$BQ$300), Deflactor!$BP$299, IF(AND(AU15&gt;=Deflactor!$BQ$300,AU15&lt;Deflactor!$BQ$301), Deflactor!$BP$300, IF(AND(AU15&gt;=Deflactor!$BQ$301,AU15&lt;Deflactor!$BQ$302), Deflactor!$BP$301, IF(AND(AU15&gt;=Deflactor!$BQ$302,AU15&lt;Deflactor!$BQ$303), Deflactor!$BP$302, IF(AND(AU15&gt;=Deflactor!$BQ$303,AU15&lt;Deflactor!$BQ$304), Deflactor!$BP$303, IF(AND(AU15&gt;=Deflactor!$BQ$304,AU15&lt;Deflactor!$BQ$305), Deflactor!$BP$304, IF(AND(AU15&gt;=Deflactor!$BQ$305,AU15&lt;Deflactor!$BQ$306), Deflactor!$BP$305, IF(AND(AU15&gt;=Deflactor!$BQ$306,AU15&lt;Deflactor!$BQ$307), Deflactor!$BP$306, Deflactor!$BP$307) ) ) ) ) ) ) ) ) )</f>
@@ -10661,7 +10882,7 @@
       </c>
       <c r="AU16" s="54">
         <f xml:space="preserve"> IFERROR(ROUND(AT16 / VLOOKUP(A16,Tabla1[#All],2,0),0),"s.i")</f>
-        <v>12693252</v>
+        <v>12703712</v>
       </c>
       <c r="AV16" s="33">
         <f xml:space="preserve"> IF(AU16="s.i", "s.i", IF(AND(AU16&gt;=Deflactor!$BQ$298,AU16&lt;Deflactor!$BQ$299), Deflactor!$BP$298, IF(AND(AU16&gt;=Deflactor!$BQ$299,AU16&lt;Deflactor!$BQ$300), Deflactor!$BP$299, IF(AND(AU16&gt;=Deflactor!$BQ$300,AU16&lt;Deflactor!$BQ$301), Deflactor!$BP$300, IF(AND(AU16&gt;=Deflactor!$BQ$301,AU16&lt;Deflactor!$BQ$302), Deflactor!$BP$301, IF(AND(AU16&gt;=Deflactor!$BQ$302,AU16&lt;Deflactor!$BQ$303), Deflactor!$BP$302, IF(AND(AU16&gt;=Deflactor!$BQ$303,AU16&lt;Deflactor!$BQ$304), Deflactor!$BP$303, IF(AND(AU16&gt;=Deflactor!$BQ$304,AU16&lt;Deflactor!$BQ$305), Deflactor!$BP$304, IF(AND(AU16&gt;=Deflactor!$BQ$305,AU16&lt;Deflactor!$BQ$306), Deflactor!$BP$305, IF(AND(AU16&gt;=Deflactor!$BQ$306,AU16&lt;Deflactor!$BQ$307), Deflactor!$BP$306, Deflactor!$BP$307) ) ) ) ) ) ) ) ) )</f>
@@ -10794,7 +11015,7 @@
       </c>
       <c r="AU17" s="54">
         <f xml:space="preserve"> IFERROR(ROUND(AT17 / VLOOKUP(A17,Tabla1[#All],2,0),0),"s.i")</f>
-        <v>811668151</v>
+        <v>812337043</v>
       </c>
       <c r="AV17" s="33">
         <f xml:space="preserve"> IF(AU17="s.i", "s.i", IF(AND(AU17&gt;=Deflactor!$BQ$298,AU17&lt;Deflactor!$BQ$299), Deflactor!$BP$298, IF(AND(AU17&gt;=Deflactor!$BQ$299,AU17&lt;Deflactor!$BQ$300), Deflactor!$BP$299, IF(AND(AU17&gt;=Deflactor!$BQ$300,AU17&lt;Deflactor!$BQ$301), Deflactor!$BP$300, IF(AND(AU17&gt;=Deflactor!$BQ$301,AU17&lt;Deflactor!$BQ$302), Deflactor!$BP$301, IF(AND(AU17&gt;=Deflactor!$BQ$302,AU17&lt;Deflactor!$BQ$303), Deflactor!$BP$302, IF(AND(AU17&gt;=Deflactor!$BQ$303,AU17&lt;Deflactor!$BQ$304), Deflactor!$BP$303, IF(AND(AU17&gt;=Deflactor!$BQ$304,AU17&lt;Deflactor!$BQ$305), Deflactor!$BP$304, IF(AND(AU17&gt;=Deflactor!$BQ$305,AU17&lt;Deflactor!$BQ$306), Deflactor!$BP$305, IF(AND(AU17&gt;=Deflactor!$BQ$306,AU17&lt;Deflactor!$BQ$307), Deflactor!$BP$306, Deflactor!$BP$307) ) ) ) ) ) ) ) ) )</f>
@@ -10924,7 +11145,7 @@
       </c>
       <c r="AU18" s="54">
         <f xml:space="preserve"> IFERROR(ROUND(AT18 / VLOOKUP(A18,Tabla1[#All],2,0),0),"s.i")</f>
-        <v>52698328</v>
+        <v>52741757</v>
       </c>
       <c r="AV18" s="33">
         <f xml:space="preserve"> IF(AU18="s.i", "s.i", IF(AND(AU18&gt;=Deflactor!$BQ$298,AU18&lt;Deflactor!$BQ$299), Deflactor!$BP$298, IF(AND(AU18&gt;=Deflactor!$BQ$299,AU18&lt;Deflactor!$BQ$300), Deflactor!$BP$299, IF(AND(AU18&gt;=Deflactor!$BQ$300,AU18&lt;Deflactor!$BQ$301), Deflactor!$BP$300, IF(AND(AU18&gt;=Deflactor!$BQ$301,AU18&lt;Deflactor!$BQ$302), Deflactor!$BP$301, IF(AND(AU18&gt;=Deflactor!$BQ$302,AU18&lt;Deflactor!$BQ$303), Deflactor!$BP$302, IF(AND(AU18&gt;=Deflactor!$BQ$303,AU18&lt;Deflactor!$BQ$304), Deflactor!$BP$303, IF(AND(AU18&gt;=Deflactor!$BQ$304,AU18&lt;Deflactor!$BQ$305), Deflactor!$BP$304, IF(AND(AU18&gt;=Deflactor!$BQ$305,AU18&lt;Deflactor!$BQ$306), Deflactor!$BP$305, IF(AND(AU18&gt;=Deflactor!$BQ$306,AU18&lt;Deflactor!$BQ$307), Deflactor!$BP$306, Deflactor!$BP$307) ) ) ) ) ) ) ) ) )</f>
@@ -11764,7 +11985,7 @@
         <v>39308513.61408361</v>
       </c>
       <c r="AR27" s="34" t="s">
-        <v>2367</v>
+        <v>2359</v>
       </c>
       <c r="AT27" s="46">
         <f>'Notas reunion'!T27</f>
@@ -12159,7 +12380,7 @@
         <v>4867461253.4132071</v>
       </c>
       <c r="AR32" s="34" t="s">
-        <v>2367</v>
+        <v>2359</v>
       </c>
       <c r="AT32" s="46" t="str">
         <f>'Notas reunion'!T28</f>
@@ -12469,7 +12690,7 @@
         <v>7726308886.0341339</v>
       </c>
       <c r="AR36" s="34" t="s">
-        <v>2367</v>
+        <v>2359</v>
       </c>
       <c r="AT36" s="46">
         <f>'Notas reunion'!T29</f>
@@ -12551,7 +12772,7 @@
         <v>32878644736.896927</v>
       </c>
       <c r="AR37" s="34" t="s">
-        <v>2367</v>
+        <v>2359</v>
       </c>
       <c r="AT37" s="46">
         <f>'Notas reunion'!T30</f>
@@ -12631,7 +12852,7 @@
         <v>115465072741.18871</v>
       </c>
       <c r="AR38" s="34" t="s">
-        <v>2367</v>
+        <v>2359</v>
       </c>
       <c r="AT38" s="46">
         <f>'Notas reunion'!T31</f>
@@ -12708,7 +12929,7 @@
         <v>5649426.1846524477</v>
       </c>
       <c r="AR39" s="34" t="s">
-        <v>2367</v>
+        <v>2359</v>
       </c>
       <c r="AT39" s="46">
         <f>'Notas reunion'!T32</f>
@@ -12770,13 +12991,13 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="11" t="s">
-        <v>2380</v>
+        <v>2372</v>
       </c>
       <c r="S40" s="11" t="s">
-        <v>2381</v>
+        <v>2373</v>
       </c>
       <c r="T40" s="11" t="s">
-        <v>2382</v>
+        <v>2374</v>
       </c>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
@@ -12785,7 +13006,7 @@
         <v>5649426.1846524477</v>
       </c>
       <c r="AR40" s="34" t="s">
-        <v>2367</v>
+        <v>2359</v>
       </c>
       <c r="AT40" s="46">
         <f>'Notas reunion'!T33</f>
@@ -13264,7 +13485,7 @@
         <v>49585998435.618668</v>
       </c>
       <c r="AR46" s="34" t="s">
-        <v>2367</v>
+        <v>2359</v>
       </c>
       <c r="AT46" s="46">
         <f>'Notas reunion'!T34</f>
@@ -13338,7 +13559,7 @@
         <v>7707957417.0335102</v>
       </c>
       <c r="AR47" s="34" t="s">
-        <v>2367</v>
+        <v>2359</v>
       </c>
       <c r="AT47" s="46" t="str">
         <f>'Notas reunion'!T35</f>
@@ -13734,7 +13955,7 @@
         <v>1014623623.3354664</v>
       </c>
       <c r="AR52" s="34" t="s">
-        <v>2367</v>
+        <v>2359</v>
       </c>
       <c r="AT52" s="46">
         <f>'Notas reunion'!T36</f>
@@ -15472,7 +15693,7 @@
         <v>3024287819033.9316</v>
       </c>
       <c r="AR73" s="34" t="s">
-        <v>2367</v>
+        <v>2359</v>
       </c>
       <c r="AT73" s="46">
         <f>'Notas reunion'!T37</f>
@@ -15552,7 +15773,7 @@
         <v>13984614267594.078</v>
       </c>
       <c r="AR74" s="34" t="s">
-        <v>2367</v>
+        <v>2359</v>
       </c>
       <c r="AT74" s="46">
         <f>'Notas reunion'!T38</f>
@@ -15632,7 +15853,7 @@
         <v>21880299099646.605</v>
       </c>
       <c r="AR75" s="34" t="s">
-        <v>2367</v>
+        <v>2359</v>
       </c>
       <c r="AT75" s="46">
         <f>'Notas reunion'!T39</f>
@@ -16127,7 +16348,7 @@
         <v>202428868937.75201</v>
       </c>
       <c r="AR81" s="34" t="s">
-        <v>2367</v>
+        <v>2359</v>
       </c>
       <c r="AT81" s="46" t="str">
         <f>'Notas reunion'!T40</f>
@@ -16371,7 +16592,7 @@
         <v>7897717925.9061785</v>
       </c>
       <c r="AR84" s="34" t="s">
-        <v>2367</v>
+        <v>2359</v>
       </c>
       <c r="AT84" s="46">
         <f>'Notas reunion'!T41</f>
@@ -17013,7 +17234,7 @@
         <v>19885311651.757141</v>
       </c>
       <c r="AR92" s="34" t="s">
-        <v>2367</v>
+        <v>2359</v>
       </c>
       <c r="AT92" s="46">
         <f>'Notas reunion'!T42</f>
@@ -17250,7 +17471,7 @@
         <v>19885311651.757141</v>
       </c>
       <c r="AR95" s="34" t="s">
-        <v>2367</v>
+        <v>2359</v>
       </c>
       <c r="AT95" s="46">
         <f>'Notas reunion'!T43</f>
@@ -17332,7 +17553,7 @@
         <v>65078732039.465042</v>
       </c>
       <c r="AR96" s="34" t="s">
-        <v>2367</v>
+        <v>2359</v>
       </c>
       <c r="AT96" s="46" t="str">
         <f>'Notas reunion'!T44</f>
@@ -17414,7 +17635,7 @@
         <v>65078732039.465042</v>
       </c>
       <c r="AR97" s="34" t="s">
-        <v>2367</v>
+        <v>2359</v>
       </c>
       <c r="AT97" s="46">
         <f>'Notas reunion'!T45</f>
@@ -19697,7 +19918,7 @@
         <v>264381860755743.28</v>
       </c>
       <c r="AR125" s="34" t="s">
-        <v>2367</v>
+        <v>2359</v>
       </c>
       <c r="AT125" s="46">
         <f>'Notas reunion'!T46</f>
@@ -20650,7 +20871,7 @@
         <v>10904917507.625839</v>
       </c>
       <c r="AR137" s="34" t="s">
-        <v>2367</v>
+        <v>2359</v>
       </c>
       <c r="AT137" s="46" t="str">
         <f>'Notas reunion'!T47</f>
@@ -20884,7 +21105,7 @@
         <v>10904917507.625839</v>
       </c>
       <c r="AR140" s="34" t="s">
-        <v>2367</v>
+        <v>2359</v>
       </c>
       <c r="AT140" s="46">
         <f>'Notas reunion'!T48</f>
@@ -21203,7 +21424,7 @@
         <v>43558065603024.781</v>
       </c>
       <c r="AR144" s="34" t="s">
-        <v>2367</v>
+        <v>2359</v>
       </c>
       <c r="AT144" s="46">
         <f>'Notas reunion'!T49</f>
@@ -21984,7 +22205,7 @@
         <v>1065000000</v>
       </c>
       <c r="AR154" s="34" t="s">
-        <v>2367</v>
+        <v>2359</v>
       </c>
       <c r="AT154" s="46">
         <f>'Notas reunion'!T50</f>
@@ -22271,7 +22492,7 @@
       </c>
       <c r="K158" s="3"/>
       <c r="L158" s="3" t="s">
-        <v>2371</v>
+        <v>2363</v>
       </c>
       <c r="M158" s="3" t="s">
         <v>2259</v>
@@ -22300,7 +22521,7 @@
         <v>s.i</v>
       </c>
       <c r="AR158" s="34" t="s">
-        <v>2367</v>
+        <v>2359</v>
       </c>
       <c r="AT158" s="46" t="str">
         <f>'Notas reunion'!T51</f>
@@ -22515,7 +22736,7 @@
         <v>Actualizando información</v>
       </c>
       <c r="AR161" s="34" t="s">
-        <v>2367</v>
+        <v>2359</v>
       </c>
       <c r="AT161" s="46" t="str">
         <f>'Notas reunion'!T52</f>
@@ -22570,7 +22791,7 @@
         <v>Actualizando información</v>
       </c>
       <c r="AR162" s="34" t="s">
-        <v>2367</v>
+        <v>2359</v>
       </c>
       <c r="AT162" s="46" t="str">
         <f>'Notas reunion'!T53</f>
@@ -22625,7 +22846,7 @@
         <v>Actualizando información</v>
       </c>
       <c r="AR163" s="34" t="s">
-        <v>2367</v>
+        <v>2359</v>
       </c>
       <c r="AT163" s="46" t="str">
         <f>'Notas reunion'!T54</f>
@@ -22701,7 +22922,7 @@
         <v>2013</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>2368</v>
+        <v>2360</v>
       </c>
       <c r="C165" s="3" t="s">
         <v>7</v>
@@ -22736,7 +22957,7 @@
         <v>Actualizando información</v>
       </c>
       <c r="AR165" s="34" t="s">
-        <v>2367</v>
+        <v>2359</v>
       </c>
       <c r="AT165" s="46">
         <f>'Notas reunion'!T55</f>
@@ -23566,7 +23787,7 @@
         <v>5091500142538.7188</v>
       </c>
       <c r="AR178" s="34" t="s">
-        <v>2367</v>
+        <v>2359</v>
       </c>
       <c r="AT178" s="46" t="str">
         <f>'Notas reunion'!T56</f>
@@ -27346,7 +27567,7 @@
         <v>s.i</v>
       </c>
       <c r="AR234" s="34" t="s">
-        <v>2367</v>
+        <v>2359</v>
       </c>
       <c r="AT234" s="46">
         <f>'Notas reunion'!T57</f>
@@ -28671,7 +28892,7 @@
         <v>s.i</v>
       </c>
       <c r="AR253" s="34" t="s">
-        <v>2367</v>
+        <v>2359</v>
       </c>
       <c r="AT253" s="46" t="str">
         <f>'Notas reunion'!T58</f>
@@ -28978,7 +29199,7 @@
         <v>Actualizando información</v>
       </c>
       <c r="AR258" s="34" t="s">
-        <v>2367</v>
+        <v>2359</v>
       </c>
       <c r="AT258" s="46" t="str">
         <f>'Notas reunion'!T59</f>
@@ -29033,7 +29254,7 @@
         <v>Actualizando información</v>
       </c>
       <c r="AR259" s="34" t="s">
-        <v>2367</v>
+        <v>2359</v>
       </c>
       <c r="AT259" s="46">
         <f>'Notas reunion'!T60</f>
@@ -29088,7 +29309,7 @@
         <v>Actualizando información</v>
       </c>
       <c r="AR260" s="34" t="s">
-        <v>2367</v>
+        <v>2359</v>
       </c>
       <c r="AT260" s="46" t="str">
         <f>'Notas reunion'!T61</f>
@@ -29257,7 +29478,7 @@
         <v>Actualizando información</v>
       </c>
       <c r="AR263" s="34" t="s">
-        <v>2367</v>
+        <v>2359</v>
       </c>
       <c r="AT263" s="46" t="str">
         <f>'Notas reunion'!T62</f>
@@ -30579,7 +30800,7 @@
         <v>Actualizando información</v>
       </c>
       <c r="AR285" s="34" t="s">
-        <v>2367</v>
+        <v>2359</v>
       </c>
       <c r="AT285" s="46" t="str">
         <f>'Notas reunion'!T63</f>
@@ -30746,7 +30967,7 @@
         <v>Actualizando información</v>
       </c>
       <c r="AR288" s="34" t="s">
-        <v>2367</v>
+        <v>2359</v>
       </c>
       <c r="AT288" s="46" t="str">
         <f>'Notas reunion'!T64</f>
@@ -31251,7 +31472,7 @@
         <v>Actualizando información</v>
       </c>
       <c r="AR297" s="34" t="s">
-        <v>2367</v>
+        <v>2359</v>
       </c>
       <c r="AT297" s="46" t="str">
         <f>'Notas reunion'!T65</f>
@@ -31306,7 +31527,7 @@
         <v>Actualizando información</v>
       </c>
       <c r="AR298" s="34" t="s">
-        <v>2367</v>
+        <v>2359</v>
       </c>
       <c r="AT298" s="46" t="str">
         <f>'Notas reunion'!T66</f>
@@ -44965,28 +45186,28 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>2341</v>
+        <v>2333</v>
       </c>
       <c r="B1" t="s">
-        <v>2334</v>
+        <v>2326</v>
       </c>
       <c r="C1" t="s">
-        <v>2335</v>
+        <v>2327</v>
       </c>
       <c r="D1" t="s">
-        <v>2336</v>
+        <v>2328</v>
       </c>
       <c r="E1" t="s">
-        <v>2337</v>
+        <v>2329</v>
       </c>
       <c r="F1" t="s">
-        <v>2338</v>
+        <v>2330</v>
       </c>
       <c r="N1" t="s">
-        <v>2335</v>
+        <v>2327</v>
       </c>
       <c r="O1" t="s">
-        <v>2340</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.35">
@@ -44997,19 +45218,19 @@
         <v>44152</v>
       </c>
       <c r="C2" t="s">
-        <v>2329</v>
+        <v>2321</v>
       </c>
       <c r="D2" t="s">
-        <v>2330</v>
+        <v>2322</v>
       </c>
       <c r="E2" t="s">
+        <v>2323</v>
+      </c>
+      <c r="F2" t="s">
         <v>2331</v>
       </c>
-      <c r="F2" t="s">
-        <v>2339</v>
-      </c>
       <c r="N2" t="s">
-        <v>2342</v>
+        <v>2334</v>
       </c>
       <c r="O2" t="s">
         <v>0</v>
@@ -45027,13 +45248,13 @@
         <v>719</v>
       </c>
       <c r="T2" t="s">
-        <v>2344</v>
+        <v>2336</v>
       </c>
       <c r="U2" t="s">
-        <v>2345</v>
+        <v>2337</v>
       </c>
       <c r="V2" t="s">
-        <v>2346</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.35">
@@ -45044,10 +45265,10 @@
         <v>44152</v>
       </c>
       <c r="C3" t="s">
-        <v>2332</v>
+        <v>2324</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>2409</v>
+        <v>2401</v>
       </c>
       <c r="O3">
         <v>2017</v>
@@ -45069,10 +45290,10 @@
         <v>11725662000</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>2343</v>
+        <v>2335</v>
       </c>
       <c r="V3" s="4" t="s">
-        <v>2347</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.35">
@@ -45083,7 +45304,7 @@
         <v>44152</v>
       </c>
       <c r="D4" t="s">
-        <v>2333</v>
+        <v>2325</v>
       </c>
       <c r="O4">
         <v>2017</v>
@@ -45105,10 +45326,10 @@
         <v>26854830000</v>
       </c>
       <c r="U4" s="4" t="s">
-        <v>2349</v>
+        <v>2341</v>
       </c>
       <c r="V4" s="4" t="s">
-        <v>2348</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.35">
@@ -45132,10 +45353,10 @@
         <v>19446013000</v>
       </c>
       <c r="U5" s="4" t="s">
-        <v>2351</v>
+        <v>2343</v>
       </c>
       <c r="V5" s="4" t="s">
-        <v>2350</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.35">
@@ -45159,10 +45380,10 @@
         <v>3679767000</v>
       </c>
       <c r="U6" s="4" t="s">
-        <v>2353</v>
+        <v>2345</v>
       </c>
       <c r="V6" s="4" t="s">
-        <v>2356</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.35">
@@ -45186,10 +45407,10 @@
         <v>17640975000</v>
       </c>
       <c r="U7" s="4" t="s">
-        <v>2349</v>
+        <v>2341</v>
       </c>
       <c r="V7" s="4" t="s">
-        <v>2352</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.35">
@@ -45208,15 +45429,15 @@
       <c r="S8" s="40">
         <v>38171814000000</v>
       </c>
-      <c r="T8" s="63">
+      <c r="T8" s="78">
         <f xml:space="preserve"> 40684039 * 1000</f>
         <v>40684039000</v>
       </c>
-      <c r="U8" s="64" t="s">
-        <v>2343</v>
-      </c>
-      <c r="V8" s="64" t="s">
-        <v>2354</v>
+      <c r="U8" s="79" t="s">
+        <v>2335</v>
+      </c>
+      <c r="V8" s="79" t="s">
+        <v>2346</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.35">
@@ -45235,9 +45456,9 @@
       <c r="S9" s="40">
         <v>38171814000000</v>
       </c>
-      <c r="T9" s="63"/>
-      <c r="U9" s="64"/>
-      <c r="V9" s="64"/>
+      <c r="T9" s="78"/>
+      <c r="U9" s="79"/>
+      <c r="V9" s="79"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="O10">
@@ -45260,10 +45481,10 @@
         <v>4899869000</v>
       </c>
       <c r="U10" s="4" t="s">
+        <v>2341</v>
+      </c>
+      <c r="V10" s="4" t="s">
         <v>2349</v>
-      </c>
-      <c r="V10" s="4" t="s">
-        <v>2357</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.35">
@@ -45287,10 +45508,10 @@
         <v>15439654000</v>
       </c>
       <c r="U11" s="4" t="s">
-        <v>2343</v>
+        <v>2335</v>
       </c>
       <c r="V11" s="4" t="s">
-        <v>2358</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.35">
@@ -45314,10 +45535,10 @@
         <v>253201137000</v>
       </c>
       <c r="U12" s="4" t="s">
+        <v>2343</v>
+      </c>
+      <c r="V12" s="4" t="s">
         <v>2351</v>
-      </c>
-      <c r="V12" s="4" t="s">
-        <v>2359</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.35">
@@ -45341,10 +45562,10 @@
         <v>26852009000</v>
       </c>
       <c r="U13" s="4" t="s">
-        <v>2343</v>
+        <v>2335</v>
       </c>
       <c r="V13" s="4" t="s">
-        <v>2360</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.35">
@@ -45368,7 +45589,7 @@
         <v>44468210000</v>
       </c>
       <c r="U14" s="4" t="s">
-        <v>2361</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.35">
@@ -45388,7 +45609,7 @@
         <v>215848343000000</v>
       </c>
       <c r="T15" t="s">
-        <v>2355</v>
+        <v>2347</v>
       </c>
       <c r="U15" s="4"/>
     </row>
@@ -45409,7 +45630,7 @@
         <v>3.5827751E+16</v>
       </c>
       <c r="T16" t="s">
-        <v>2355</v>
+        <v>2347</v>
       </c>
       <c r="U16" s="4"/>
     </row>
@@ -45434,10 +45655,10 @@
         <v>1420550000</v>
       </c>
       <c r="U17" s="4" t="s">
-        <v>2343</v>
+        <v>2335</v>
       </c>
       <c r="V17" s="4" t="s">
-        <v>2362</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="18" spans="14:22" x14ac:dyDescent="0.35">
@@ -45457,27 +45678,27 @@
         <v>141370509000000</v>
       </c>
       <c r="T18" t="s">
-        <v>2355</v>
+        <v>2347</v>
       </c>
       <c r="U18" s="4"/>
     </row>
     <row r="20" spans="14:22" x14ac:dyDescent="0.35">
       <c r="N20" t="s">
-        <v>2363</v>
+        <v>2355</v>
       </c>
       <c r="O20" t="s">
-        <v>2365</v>
+        <v>2357</v>
       </c>
       <c r="P20" s="4" t="s">
-        <v>2364</v>
+        <v>2356</v>
       </c>
       <c r="Q20" t="s">
-        <v>2366</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="23" spans="14:22" x14ac:dyDescent="0.35">
       <c r="N23" t="s">
-        <v>2372</v>
+        <v>2364</v>
       </c>
       <c r="O23" t="s">
         <v>0</v>
@@ -45495,13 +45716,13 @@
         <v>719</v>
       </c>
       <c r="T23" t="s">
-        <v>2344</v>
+        <v>2336</v>
       </c>
       <c r="U23" t="s">
-        <v>2345</v>
+        <v>2337</v>
       </c>
       <c r="V23" t="s">
-        <v>2346</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="24" spans="14:22" x14ac:dyDescent="0.35">
@@ -45526,10 +45747,10 @@
         <v>6386405000</v>
       </c>
       <c r="U24" s="4" t="s">
-        <v>2349</v>
+        <v>2341</v>
       </c>
       <c r="V24" s="4" t="s">
-        <v>2373</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="25" spans="14:22" x14ac:dyDescent="0.35">
@@ -45553,10 +45774,10 @@
         <v>623</v>
       </c>
       <c r="U25" s="45" t="s">
-        <v>2349</v>
+        <v>2341</v>
       </c>
       <c r="V25" s="45" t="s">
-        <v>2374</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="26" spans="14:22" x14ac:dyDescent="0.35">
@@ -45580,10 +45801,10 @@
         <v>10390000000</v>
       </c>
       <c r="U26" s="4" t="s">
-        <v>2349</v>
+        <v>2341</v>
       </c>
       <c r="V26" s="4" t="s">
-        <v>2375</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="27" spans="14:22" x14ac:dyDescent="0.35">
@@ -45607,10 +45828,10 @@
         <v>16715000000</v>
       </c>
       <c r="U27" s="4" t="s">
-        <v>2349</v>
+        <v>2341</v>
       </c>
       <c r="V27" s="4" t="s">
-        <v>2376</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="28" spans="14:22" x14ac:dyDescent="0.35">
@@ -45656,10 +45877,10 @@
         <v>8218000000</v>
       </c>
       <c r="U29" s="4" t="s">
-        <v>2349</v>
+        <v>2341</v>
       </c>
       <c r="V29" s="4" t="s">
-        <v>2392</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="30" spans="14:22" x14ac:dyDescent="0.35">
@@ -45684,10 +45905,10 @@
         <v>37370000000</v>
       </c>
       <c r="U30" s="4" t="s">
-        <v>2349</v>
+        <v>2341</v>
       </c>
       <c r="V30" s="4" t="s">
-        <v>2377</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="31" spans="14:22" x14ac:dyDescent="0.35">
@@ -45712,10 +45933,10 @@
         <v>142181835000</v>
       </c>
       <c r="U31" s="4" t="s">
-        <v>2351</v>
+        <v>2343</v>
       </c>
       <c r="V31" s="4" t="s">
-        <v>2378</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="32" spans="14:22" x14ac:dyDescent="0.35">
@@ -45739,10 +45960,10 @@
         <v>3000416000</v>
       </c>
       <c r="U32" s="4" t="s">
-        <v>2349</v>
+        <v>2341</v>
       </c>
       <c r="V32" s="4" t="s">
-        <v>2379</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="33" spans="15:22" x14ac:dyDescent="0.35">
@@ -45766,10 +45987,10 @@
         <v>821167000</v>
       </c>
       <c r="U33" s="4" t="s">
-        <v>2349</v>
+        <v>2341</v>
       </c>
       <c r="V33" s="4" t="s">
-        <v>2383</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="34" spans="15:22" x14ac:dyDescent="0.35">
@@ -45794,10 +46015,10 @@
         <v>54296263000</v>
       </c>
       <c r="U34" s="4" t="s">
-        <v>2385</v>
+        <v>2377</v>
       </c>
       <c r="V34" s="4" t="s">
-        <v>2384</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="35" spans="15:22" x14ac:dyDescent="0.35">
@@ -45843,10 +46064,10 @@
         <v>1263672000</v>
       </c>
       <c r="U36" s="4" t="s">
-        <v>2349</v>
+        <v>2341</v>
       </c>
       <c r="V36" s="4" t="s">
-        <v>2386</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="37" spans="15:22" x14ac:dyDescent="0.35">
@@ -45871,10 +46092,10 @@
         <v>3679767000</v>
       </c>
       <c r="U37" s="4" t="s">
-        <v>2349</v>
+        <v>2341</v>
       </c>
       <c r="V37" s="4" t="s">
-        <v>2356</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="38" spans="15:22" x14ac:dyDescent="0.35">
@@ -45980,10 +46201,10 @@
         <v>9363819000</v>
       </c>
       <c r="U41" s="4" t="s">
-        <v>2349</v>
+        <v>2341</v>
       </c>
       <c r="V41" s="4" t="s">
-        <v>2387</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="42" spans="15:22" x14ac:dyDescent="0.35">
@@ -46008,10 +46229,10 @@
         <v>13206000000</v>
       </c>
       <c r="U42" s="4" t="s">
-        <v>2349</v>
+        <v>2341</v>
       </c>
       <c r="V42" s="4" t="s">
-        <v>2388</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="43" spans="15:22" x14ac:dyDescent="0.35">
@@ -46036,10 +46257,10 @@
         <v>9824000000</v>
       </c>
       <c r="U43" s="4" t="s">
-        <v>2349</v>
+        <v>2341</v>
       </c>
       <c r="V43" s="4" t="s">
-        <v>2389</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="44" spans="15:22" x14ac:dyDescent="0.35">
@@ -46063,10 +46284,10 @@
         <v>623</v>
       </c>
       <c r="U44" s="45" t="s">
-        <v>2349</v>
+        <v>2341</v>
       </c>
       <c r="V44" s="45" t="s">
-        <v>2390</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="45" spans="15:22" x14ac:dyDescent="0.35">
@@ -46091,10 +46312,10 @@
         <v>6647388000</v>
       </c>
       <c r="U45" s="4" t="s">
-        <v>2349</v>
+        <v>2341</v>
       </c>
       <c r="V45" s="4" t="s">
-        <v>2391</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="46" spans="15:22" x14ac:dyDescent="0.35">
@@ -46170,10 +46391,10 @@
         <v>312243000</v>
       </c>
       <c r="U48" s="4" t="s">
-        <v>2349</v>
+        <v>2341</v>
       </c>
       <c r="V48" s="4" t="s">
-        <v>2393</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="49" spans="15:22" x14ac:dyDescent="0.35">
@@ -46224,7 +46445,7 @@
         <v>44850000000</v>
       </c>
       <c r="U50" s="45" t="s">
-        <v>2394</v>
+        <v>2386</v>
       </c>
       <c r="V50" s="35"/>
     </row>
@@ -46248,10 +46469,10 @@
         <v>623</v>
       </c>
       <c r="U51" s="4" t="s">
-        <v>2349</v>
+        <v>2341</v>
       </c>
       <c r="V51" s="4" t="s">
-        <v>2395</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="52" spans="15:22" x14ac:dyDescent="0.35">
@@ -46313,7 +46534,7 @@
         <v>2013</v>
       </c>
       <c r="P55" t="s">
-        <v>2368</v>
+        <v>2360</v>
       </c>
       <c r="Q55" t="s">
         <v>20</v>
@@ -46327,10 +46548,10 @@
         <v>187288000</v>
       </c>
       <c r="U55" s="4" t="s">
-        <v>2349</v>
+        <v>2341</v>
       </c>
       <c r="V55" s="4" t="s">
-        <v>2396</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="56" spans="15:22" x14ac:dyDescent="0.35">
@@ -46375,10 +46596,10 @@
         <v>1443171000</v>
       </c>
       <c r="U57" s="4" t="s">
-        <v>2398</v>
+        <v>2390</v>
       </c>
       <c r="V57" s="4" t="s">
-        <v>2397</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="58" spans="15:22" x14ac:dyDescent="0.35">
@@ -46401,10 +46622,10 @@
         <v>623</v>
       </c>
       <c r="U58" s="45" t="s">
-        <v>2400</v>
+        <v>2392</v>
       </c>
       <c r="V58" s="45" t="s">
-        <v>2399</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="59" spans="15:22" x14ac:dyDescent="0.35">
@@ -46444,10 +46665,10 @@
         <v>6210093000</v>
       </c>
       <c r="U60" s="4" t="s">
-        <v>2403</v>
+        <v>2395</v>
       </c>
       <c r="V60" s="4" t="s">
-        <v>2402</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="61" spans="15:22" x14ac:dyDescent="0.35">
@@ -46522,10 +46743,10 @@
         <v>623</v>
       </c>
       <c r="U64" s="45" t="s">
-        <v>2349</v>
+        <v>2341</v>
       </c>
       <c r="V64" s="45" t="s">
-        <v>2404</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="65" spans="15:22" x14ac:dyDescent="0.35">
@@ -46566,7 +46787,7 @@
     </row>
     <row r="67" spans="15:22" x14ac:dyDescent="0.35">
       <c r="V67" s="4" t="s">
-        <v>2401</v>
+        <v>2393</v>
       </c>
     </row>
   </sheetData>
@@ -46656,8 +46877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27E5D841-8F73-437D-97E2-118BF5C58E6F}">
   <dimension ref="A1:N70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView topLeftCell="A9" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -46665,7 +46886,7 @@
     <col min="1" max="1" width="41.1796875" style="15" customWidth="1"/>
     <col min="2" max="2" width="48" style="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47.1796875" style="15" customWidth="1"/>
-    <col min="4" max="4" width="89.81640625" style="69" customWidth="1"/>
+    <col min="4" max="4" width="89.81640625" style="67" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.7265625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
@@ -46674,39 +46895,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="63" t="s">
+        <v>2415</v>
+      </c>
+      <c r="C1" s="70" t="s">
+        <v>1316</v>
+      </c>
+      <c r="D1" s="66" t="s">
         <v>2423</v>
-      </c>
-      <c r="C1" s="72" t="s">
-        <v>1316</v>
-      </c>
-      <c r="D1" s="68" t="s">
-        <v>2431</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>2424</v>
+        <v>2416</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>2312</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
-        <v>2424</v>
+        <v>2416</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>2313</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
@@ -46717,10 +46938,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>2314</v>
-      </c>
-      <c r="D4" s="69" t="s">
-        <v>2437</v>
+        <v>2312</v>
+      </c>
+      <c r="D4" s="67" t="s">
+        <v>2466</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="57" customFormat="1" ht="116" x14ac:dyDescent="0.35">
@@ -46733,8 +46954,8 @@
       <c r="C5" s="15" t="s">
         <v>1317</v>
       </c>
-      <c r="D5" s="69" t="s">
-        <v>2433</v>
+      <c r="D5" s="67" t="s">
+        <v>2425</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="57" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
@@ -46747,8 +46968,8 @@
       <c r="C6" s="15" t="s">
         <v>1318</v>
       </c>
-      <c r="D6" s="69" t="s">
-        <v>2436</v>
+      <c r="D6" s="67" t="s">
+        <v>2428</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="57" customFormat="1" ht="116" x14ac:dyDescent="0.35">
@@ -46761,8 +46982,8 @@
       <c r="C7" s="15" t="s">
         <v>1319</v>
       </c>
-      <c r="D7" s="69" t="s">
-        <v>2432</v>
+      <c r="D7" s="67" t="s">
+        <v>2424</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="57" customFormat="1" ht="159.5" x14ac:dyDescent="0.35">
@@ -46775,8 +46996,8 @@
       <c r="C8" s="15" t="s">
         <v>1320</v>
       </c>
-      <c r="D8" s="69" t="s">
-        <v>2434</v>
+      <c r="D8" s="67" t="s">
+        <v>2426</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="57" customFormat="1" ht="145" x14ac:dyDescent="0.35">
@@ -46789,30 +47010,30 @@
       <c r="C9" s="15" t="s">
         <v>1321</v>
       </c>
-      <c r="D9" s="69" t="s">
-        <v>2435</v>
+      <c r="D9" s="67" t="s">
+        <v>2427</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="15" t="s">
-        <v>2424</v>
+        <v>2416</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>2315</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="15" t="s">
-        <v>2424</v>
+        <v>2416</v>
       </c>
       <c r="B11" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>2316</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -46823,184 +47044,184 @@
         <v>5</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>2440</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="15" t="s">
-        <v>2424</v>
+        <v>2416</v>
       </c>
       <c r="B13" s="15" t="s">
         <v>718</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>2317</v>
+        <v>2467</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="15" t="s">
-        <v>2424</v>
+        <v>2416</v>
       </c>
       <c r="B14" s="15" t="s">
         <v>720</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>2318</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="15" t="s">
-        <v>2424</v>
+        <v>2416</v>
       </c>
       <c r="B15" s="15" t="s">
         <v>721</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>2319</v>
+        <v>2469</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="15" t="s">
-        <v>2424</v>
+        <v>2416</v>
       </c>
       <c r="B16" s="15" t="s">
         <v>719</v>
       </c>
       <c r="C16" s="15" t="s">
+        <v>2470</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="64" t="s">
+        <v>722</v>
+      </c>
+      <c r="C17" s="64" t="s">
         <v>2320</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="66" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="66" t="s">
-        <v>722</v>
-      </c>
-      <c r="C17" s="66" t="s">
-        <v>2328</v>
-      </c>
-      <c r="D17" s="70"/>
+      <c r="D17" s="68"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="15" t="s">
-        <v>2425</v>
+        <v>2417</v>
       </c>
       <c r="B18" s="15" t="s">
         <v>724</v>
       </c>
-      <c r="C18" s="73" t="s">
-        <v>2321</v>
+      <c r="C18" s="80" t="s">
+        <v>2313</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="15" t="s">
-        <v>2425</v>
+        <v>2417</v>
       </c>
       <c r="B19" s="15" t="s">
         <v>725</v>
       </c>
-      <c r="C19" s="73"/>
+      <c r="C19" s="80"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="15" t="s">
-        <v>2425</v>
+        <v>2417</v>
       </c>
       <c r="B20" s="15" t="s">
         <v>726</v>
       </c>
-      <c r="C20" s="73"/>
+      <c r="C20" s="80"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="15" t="s">
-        <v>2425</v>
+        <v>2417</v>
       </c>
       <c r="B21" s="15" t="s">
         <v>727</v>
       </c>
-      <c r="C21" s="73"/>
+      <c r="C21" s="80"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="15" t="s">
-        <v>2425</v>
+        <v>2417</v>
       </c>
       <c r="B22" s="15" t="s">
         <v>728</v>
       </c>
-      <c r="C22" s="73"/>
+      <c r="C22" s="80"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="15" t="s">
-        <v>2425</v>
+        <v>2417</v>
       </c>
       <c r="B23" s="15" t="s">
         <v>734</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>2322</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="15" t="s">
-        <v>2426</v>
+        <v>2418</v>
       </c>
       <c r="B24" s="15" t="s">
         <v>736</v>
       </c>
-      <c r="C24" s="73" t="s">
-        <v>2323</v>
+      <c r="C24" s="80" t="s">
+        <v>2315</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="15" t="s">
-        <v>2426</v>
+        <v>2418</v>
       </c>
       <c r="B25" s="15" t="s">
         <v>737</v>
       </c>
-      <c r="C25" s="73"/>
+      <c r="C25" s="80"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="15" t="s">
-        <v>2426</v>
+        <v>2418</v>
       </c>
       <c r="B26" s="15" t="s">
         <v>738</v>
       </c>
-      <c r="C26" s="73"/>
+      <c r="C26" s="80"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="66" t="s">
+      <c r="A27" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="66" t="s">
+      <c r="B27" s="64" t="s">
         <v>1140</v>
       </c>
-      <c r="C27" s="66" t="s">
-        <v>2324</v>
-      </c>
-      <c r="D27" s="70"/>
+      <c r="C27" s="64" t="s">
+        <v>2316</v>
+      </c>
+      <c r="D27" s="68"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="15" t="s">
-        <v>2424</v>
+        <v>2416</v>
       </c>
       <c r="B28" s="15" t="s">
         <v>1148</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>2325</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="15" t="s">
-        <v>2424</v>
+        <v>2416</v>
       </c>
       <c r="B29" s="15" t="s">
         <v>1647</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>2326</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
@@ -47010,8 +47231,8 @@
       <c r="B30" s="15" t="s">
         <v>1700</v>
       </c>
-      <c r="C30" s="73" t="s">
-        <v>2327</v>
+      <c r="C30" s="80" t="s">
+        <v>2319</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
@@ -47021,7 +47242,7 @@
       <c r="B31" s="15" t="s">
         <v>1701</v>
       </c>
-      <c r="C31" s="73"/>
+      <c r="C31" s="80"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="15" t="s">
@@ -47030,7 +47251,7 @@
       <c r="B32" s="15" t="s">
         <v>1702</v>
       </c>
-      <c r="C32" s="73"/>
+      <c r="C32" s="80"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="15" t="s">
@@ -47039,7 +47260,7 @@
       <c r="B33" s="15" t="s">
         <v>1703</v>
       </c>
-      <c r="C33" s="73"/>
+      <c r="C33" s="80"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="15" t="s">
@@ -47048,7 +47269,7 @@
       <c r="B34" s="15" t="s">
         <v>1704</v>
       </c>
-      <c r="C34" s="73"/>
+      <c r="C34" s="80"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="15" t="s">
@@ -47057,7 +47278,7 @@
       <c r="B35" s="15" t="s">
         <v>1705</v>
       </c>
-      <c r="C35" s="73"/>
+      <c r="C35" s="80"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="15" t="s">
@@ -47066,7 +47287,7 @@
       <c r="B36" s="15" t="s">
         <v>1706</v>
       </c>
-      <c r="C36" s="73"/>
+      <c r="C36" s="80"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="15" t="s">
@@ -47075,7 +47296,7 @@
       <c r="B37" s="15" t="s">
         <v>1727</v>
       </c>
-      <c r="C37" s="73"/>
+      <c r="C37" s="80"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="15" t="s">
@@ -47084,7 +47305,7 @@
       <c r="B38" s="15" t="s">
         <v>1744</v>
       </c>
-      <c r="C38" s="73"/>
+      <c r="C38" s="80"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="15" t="s">
@@ -47093,7 +47314,7 @@
       <c r="B39" s="15" t="s">
         <v>1745</v>
       </c>
-      <c r="C39" s="73"/>
+      <c r="C39" s="80"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="15" t="s">
@@ -47102,7 +47323,7 @@
       <c r="B40" s="15" t="s">
         <v>1746</v>
       </c>
-      <c r="C40" s="73"/>
+      <c r="C40" s="80"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="15" t="s">
@@ -47111,7 +47332,7 @@
       <c r="B41" s="15" t="s">
         <v>1747</v>
       </c>
-      <c r="C41" s="73"/>
+      <c r="C41" s="80"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="15" t="s">
@@ -47120,7 +47341,7 @@
       <c r="B42" s="15" t="s">
         <v>1748</v>
       </c>
-      <c r="C42" s="73"/>
+      <c r="C42" s="80"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="15" t="s">
@@ -47129,7 +47350,7 @@
       <c r="B43" s="15" t="s">
         <v>1768</v>
       </c>
-      <c r="C43" s="73"/>
+      <c r="C43" s="80"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="15" t="s">
@@ -47138,7 +47359,7 @@
       <c r="B44" s="15" t="s">
         <v>1917</v>
       </c>
-      <c r="C44" s="73"/>
+      <c r="C44" s="80"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="15" t="s">
@@ -47147,7 +47368,7 @@
       <c r="B45" s="15" t="s">
         <v>1918</v>
       </c>
-      <c r="C45" s="73"/>
+      <c r="C45" s="80"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="15" t="s">
@@ -47156,7 +47377,7 @@
       <c r="B46" s="15" t="s">
         <v>1919</v>
       </c>
-      <c r="C46" s="73"/>
+      <c r="C46" s="80"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="15" t="s">
@@ -47165,7 +47386,7 @@
       <c r="B47" s="15" t="s">
         <v>2033</v>
       </c>
-      <c r="C47" s="73"/>
+      <c r="C47" s="80"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="15" t="s">
@@ -47174,7 +47395,7 @@
       <c r="B48" s="15" t="s">
         <v>2034</v>
       </c>
-      <c r="C48" s="73"/>
+      <c r="C48" s="80"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49" s="15" t="s">
@@ -47183,97 +47404,97 @@
       <c r="B49" s="15" t="s">
         <v>2035</v>
       </c>
-      <c r="C49" s="73"/>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C49" s="80"/>
+    </row>
+    <row r="50" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A50" s="15" t="s">
-        <v>2424</v>
+        <v>2416</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>2369</v>
-      </c>
-      <c r="C50" s="15" t="s">
-        <v>2414</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
+        <v>2361</v>
+      </c>
+      <c r="C50" s="71" t="s">
+        <v>2406</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A51" s="15" t="s">
-        <v>2424</v>
+        <v>2416</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>2370</v>
-      </c>
-      <c r="C51" s="15" t="s">
-        <v>2415</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
+        <v>2362</v>
+      </c>
+      <c r="C51" s="71" t="s">
+        <v>2407</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A52" s="15" t="s">
-        <v>2424</v>
+        <v>2416</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>2405</v>
-      </c>
-      <c r="C52" s="15" t="s">
+        <v>2397</v>
+      </c>
+      <c r="C52" s="71" t="s">
+        <v>2408</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A53" s="15" t="s">
         <v>2416</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A53" s="15" t="s">
-        <v>2424</v>
-      </c>
       <c r="B53" s="15" t="s">
-        <v>2407</v>
-      </c>
-      <c r="C53" s="15" t="s">
-        <v>2417</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" s="57" customFormat="1" x14ac:dyDescent="0.35">
+        <v>2399</v>
+      </c>
+      <c r="C53" s="71" t="s">
+        <v>2409</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" s="57" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A54" s="15" t="s">
         <v>2</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>2413</v>
-      </c>
-      <c r="C54" s="15" t="s">
-        <v>2439</v>
-      </c>
-      <c r="D54" s="71" t="s">
-        <v>2427</v>
+        <v>2405</v>
+      </c>
+      <c r="C54" s="71" t="s">
+        <v>2430</v>
+      </c>
+      <c r="D54" s="69" t="s">
+        <v>2419</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A57" s="67" t="s">
-        <v>2408</v>
+      <c r="A57" s="65" t="s">
+        <v>2400</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A58" s="67" t="s">
-        <v>2349</v>
+      <c r="A58" s="65" t="s">
+        <v>2341</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A59" s="67" t="s">
-        <v>2409</v>
+      <c r="A59" s="65" t="s">
+        <v>2401</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A60" s="67" t="s">
-        <v>2438</v>
+      <c r="A60" s="65" t="s">
+        <v>2429</v>
       </c>
     </row>
     <row r="61" spans="1:14" s="57" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="67"/>
+      <c r="A61" s="65"/>
       <c r="B61" s="15"/>
       <c r="C61" s="15"/>
-      <c r="D61" s="69"/>
+      <c r="D61" s="67"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A62" s="65" t="s">
+      <c r="A62" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="B62" s="72" t="s">
+      <c r="B62" s="70" t="s">
         <v>1316</v>
       </c>
       <c r="E62" s="5" t="s">
@@ -47354,7 +47575,7 @@
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A70" s="67" t="s">
+      <c r="A70" s="65" t="s">
         <v>1677</v>
       </c>
     </row>
@@ -47381,8 +47602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{919DFF16-826D-4590-9C9B-BFDF2FB1100A}">
   <dimension ref="A1:BT309"/>
   <sheetViews>
-    <sheetView topLeftCell="BO292" workbookViewId="0">
-      <selection activeCell="BP310" sqref="BP310"/>
+    <sheetView topLeftCell="BA13" workbookViewId="0">
+      <selection activeCell="BJ25" sqref="BJ25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -47423,10 +47644,10 @@
         <v>1646</v>
       </c>
       <c r="BI1" s="17" t="s">
-        <v>2406</v>
+        <v>2398</v>
       </c>
       <c r="BL1" s="58" t="s">
-        <v>2413</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="3" spans="1:70" ht="43.5" x14ac:dyDescent="0.35">
@@ -47478,7 +47699,7 @@
         <v>1613</v>
       </c>
       <c r="BJ3" s="48" t="s">
-        <v>2412</v>
+        <v>2404</v>
       </c>
       <c r="BL3" s="7" t="s">
         <v>0</v>
@@ -47496,10 +47717,10 @@
         <v>4</v>
       </c>
       <c r="BQ3" s="7" t="s">
-        <v>2407</v>
+        <v>2399</v>
       </c>
       <c r="BR3" s="7" t="s">
-        <v>2421</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="4" spans="1:70" x14ac:dyDescent="0.35">
@@ -47897,7 +48118,7 @@
         <v>2013</v>
       </c>
       <c r="BM9" s="3" t="s">
-        <v>2368</v>
+        <v>2360</v>
       </c>
       <c r="BN9" s="3" t="s">
         <v>7</v>
@@ -48817,7 +49038,7 @@
         <v>2020</v>
       </c>
       <c r="BJ25" s="50">
-        <v>792.87469880000003</v>
+        <v>792.22183266932302</v>
       </c>
       <c r="BL25" s="3">
         <v>2018</v>
@@ -48970,7 +49191,7 @@
         <v>104.24</v>
       </c>
       <c r="BI28" s="4" t="s">
-        <v>2411</v>
+        <v>2403</v>
       </c>
       <c r="BL28" s="30">
         <v>2019</v>
@@ -49023,7 +49244,7 @@
         <v>104.71</v>
       </c>
       <c r="BI29" s="4" t="s">
-        <v>2410</v>
+        <v>2402</v>
       </c>
       <c r="BL29" s="30">
         <v>2019</v>
@@ -56113,7 +56334,7 @@
     </row>
     <row r="294" spans="64:72" x14ac:dyDescent="0.35">
       <c r="BP294" t="s">
-        <v>2418</v>
+        <v>2410</v>
       </c>
       <c r="BQ294" s="47">
         <f>AVERAGE(BQ4:BQ292)</f>
@@ -56122,7 +56343,7 @@
     </row>
     <row r="295" spans="64:72" x14ac:dyDescent="0.35">
       <c r="BP295" t="s">
-        <v>2419</v>
+        <v>2411</v>
       </c>
       <c r="BQ295" s="47">
         <f>MEDIAN(BQ4:BQ292)</f>
@@ -56131,7 +56352,7 @@
     </row>
     <row r="296" spans="64:72" x14ac:dyDescent="0.35">
       <c r="BP296" t="s">
-        <v>2420</v>
+        <v>2412</v>
       </c>
       <c r="BQ296" s="47">
         <f>_xlfn.STDEV.S(BQ4:BQ292)</f>
@@ -56140,19 +56361,19 @@
     </row>
     <row r="297" spans="64:72" x14ac:dyDescent="0.35">
       <c r="BP297" s="62" t="s">
-        <v>2429</v>
+        <v>2421</v>
       </c>
       <c r="BQ297" s="62" t="s">
-        <v>2422</v>
+        <v>2414</v>
       </c>
       <c r="BR297" s="62" t="s">
-        <v>2428</v>
+        <v>2420</v>
       </c>
       <c r="BS297" s="62" t="s">
         <v>1623</v>
       </c>
       <c r="BT297" s="62" t="s">
-        <v>2421</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="298" spans="64:72" x14ac:dyDescent="0.35">
@@ -56345,7 +56566,7 @@
     </row>
     <row r="309" spans="68:72" x14ac:dyDescent="0.35">
       <c r="BP309" t="s">
-        <v>2430</v>
+        <v>2422</v>
       </c>
     </row>
   </sheetData>
@@ -56366,4 +56587,475 @@
     <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC5AB66C-393F-481B-84C2-D7667AFF4C77}">
+  <dimension ref="A2:D38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.81640625" style="72"/>
+    <col min="2" max="2" width="33" style="72" customWidth="1"/>
+    <col min="3" max="3" width="59.6328125" style="74" customWidth="1"/>
+    <col min="4" max="4" width="16.08984375" style="82" customWidth="1"/>
+    <col min="5" max="16384" width="10.81640625" style="72"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B2" s="72" t="s">
+        <v>2433</v>
+      </c>
+      <c r="C2" s="74" t="s">
+        <v>1316</v>
+      </c>
+      <c r="D2" s="82" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="72" x14ac:dyDescent="0.35">
+      <c r="A3" s="72">
+        <v>1</v>
+      </c>
+      <c r="B3" s="73" t="s">
+        <v>2432</v>
+      </c>
+      <c r="C3" s="75" t="s">
+        <v>2472</v>
+      </c>
+      <c r="D3" s="83"/>
+    </row>
+    <row r="4" spans="1:4" ht="96" x14ac:dyDescent="0.35">
+      <c r="A4" s="72">
+        <v>2</v>
+      </c>
+      <c r="B4" s="73" t="s">
+        <v>2451</v>
+      </c>
+      <c r="C4" s="75" t="s">
+        <v>2452</v>
+      </c>
+      <c r="D4" s="83"/>
+    </row>
+    <row r="5" spans="1:4" ht="48" x14ac:dyDescent="0.35">
+      <c r="A5" s="72">
+        <v>3</v>
+      </c>
+      <c r="B5" s="73" t="s">
+        <v>2435</v>
+      </c>
+      <c r="C5" s="75" t="s">
+        <v>2439</v>
+      </c>
+      <c r="D5" s="83" t="s">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="123.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="72">
+        <v>4</v>
+      </c>
+      <c r="B6" s="73" t="s">
+        <v>2441</v>
+      </c>
+      <c r="C6" s="77" t="s">
+        <v>2485</v>
+      </c>
+      <c r="D6" s="83" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="82.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="72">
+        <v>5</v>
+      </c>
+      <c r="B7" s="73" t="s">
+        <v>2484</v>
+      </c>
+      <c r="C7" s="75" t="s">
+        <v>2446</v>
+      </c>
+      <c r="D7" s="83" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="92.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="72">
+        <v>6</v>
+      </c>
+      <c r="B8" s="73" t="s">
+        <v>2442</v>
+      </c>
+      <c r="C8" s="75" t="s">
+        <v>2478</v>
+      </c>
+      <c r="D8" s="83" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.35">
+      <c r="A9" s="72">
+        <v>7</v>
+      </c>
+      <c r="B9" s="73" t="s">
+        <v>2443</v>
+      </c>
+      <c r="C9" s="75" t="s">
+        <v>2447</v>
+      </c>
+      <c r="D9" s="83" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="72">
+        <v>8</v>
+      </c>
+      <c r="B10" s="73" t="s">
+        <v>2440</v>
+      </c>
+      <c r="C10" s="75" t="s">
+        <v>2456</v>
+      </c>
+      <c r="D10" s="83" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="72">
+        <v>9</v>
+      </c>
+      <c r="B11" s="73" t="s">
+        <v>2438</v>
+      </c>
+      <c r="C11" s="75" t="s">
+        <v>2437</v>
+      </c>
+      <c r="D11" s="83"/>
+    </row>
+    <row r="12" spans="1:4" ht="65.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="72">
+        <v>10</v>
+      </c>
+      <c r="B12" s="73" t="s">
+        <v>351</v>
+      </c>
+      <c r="C12" s="75" t="s">
+        <v>2473</v>
+      </c>
+      <c r="D12" s="83"/>
+    </row>
+    <row r="13" spans="1:4" ht="48" x14ac:dyDescent="0.35">
+      <c r="A13" s="72">
+        <v>11</v>
+      </c>
+      <c r="B13" s="73" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="75" t="s">
+        <v>2450</v>
+      </c>
+      <c r="D13" s="83"/>
+    </row>
+    <row r="14" spans="1:4" ht="84" x14ac:dyDescent="0.35">
+      <c r="A14" s="72">
+        <v>12</v>
+      </c>
+      <c r="B14" s="73" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="75" t="s">
+        <v>2455</v>
+      </c>
+      <c r="D14" s="83"/>
+    </row>
+    <row r="15" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="72">
+        <v>13</v>
+      </c>
+      <c r="B15" s="73" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="75" t="s">
+        <v>2458</v>
+      </c>
+      <c r="D15" s="83"/>
+    </row>
+    <row r="16" spans="1:4" ht="84" x14ac:dyDescent="0.35">
+      <c r="A16" s="72">
+        <v>14</v>
+      </c>
+      <c r="B16" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="75" t="s">
+        <v>2454</v>
+      </c>
+      <c r="D16" s="83"/>
+    </row>
+    <row r="17" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="72">
+        <v>15</v>
+      </c>
+      <c r="B17" s="73" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="75" t="s">
+        <v>2459</v>
+      </c>
+      <c r="D17" s="83"/>
+    </row>
+    <row r="18" spans="1:4" ht="48" x14ac:dyDescent="0.35">
+      <c r="A18" s="72">
+        <v>16</v>
+      </c>
+      <c r="B18" s="73" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="75" t="s">
+        <v>2457</v>
+      </c>
+      <c r="D18" s="83"/>
+    </row>
+    <row r="19" spans="1:4" ht="72" x14ac:dyDescent="0.35">
+      <c r="A19" s="72">
+        <v>17</v>
+      </c>
+      <c r="B19" s="73" t="s">
+        <v>329</v>
+      </c>
+      <c r="C19" s="75" t="s">
+        <v>2474</v>
+      </c>
+      <c r="D19" s="83"/>
+    </row>
+    <row r="20" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="72">
+        <v>18</v>
+      </c>
+      <c r="B20" s="73" t="s">
+        <v>310</v>
+      </c>
+      <c r="C20" s="75" t="s">
+        <v>2475</v>
+      </c>
+      <c r="D20" s="83"/>
+    </row>
+    <row r="21" spans="1:4" ht="92.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="72">
+        <v>19</v>
+      </c>
+      <c r="B21" s="73" t="s">
+        <v>308</v>
+      </c>
+      <c r="C21" s="75" t="s">
+        <v>2476</v>
+      </c>
+      <c r="D21" s="83"/>
+    </row>
+    <row r="22" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="72">
+        <v>20</v>
+      </c>
+      <c r="B22" s="73" t="s">
+        <v>194</v>
+      </c>
+      <c r="C22" s="75" t="s">
+        <v>2460</v>
+      </c>
+      <c r="D22" s="83"/>
+    </row>
+    <row r="23" spans="1:4" ht="48" x14ac:dyDescent="0.35">
+      <c r="A23" s="72">
+        <v>21</v>
+      </c>
+      <c r="B23" s="73" t="s">
+        <v>399</v>
+      </c>
+      <c r="C23" s="75" t="s">
+        <v>2477</v>
+      </c>
+      <c r="D23" s="83"/>
+    </row>
+    <row r="24" spans="1:4" ht="36" x14ac:dyDescent="0.35">
+      <c r="A24" s="72">
+        <v>22</v>
+      </c>
+      <c r="B24" s="73" t="s">
+        <v>623</v>
+      </c>
+      <c r="C24" s="75" t="s">
+        <v>2461</v>
+      </c>
+      <c r="D24" s="83"/>
+    </row>
+    <row r="25" spans="1:4" ht="60" x14ac:dyDescent="0.35">
+      <c r="A25" s="72">
+        <v>23</v>
+      </c>
+      <c r="B25" s="73" t="s">
+        <v>2445</v>
+      </c>
+      <c r="C25" s="75" t="s">
+        <v>2471</v>
+      </c>
+      <c r="D25" s="83" t="s">
+        <v>2444</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="72">
+        <v>24</v>
+      </c>
+      <c r="B26" s="73" t="s">
+        <v>2449</v>
+      </c>
+      <c r="C26" s="75" t="s">
+        <v>2448</v>
+      </c>
+      <c r="D26" s="83"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="72">
+        <v>25</v>
+      </c>
+      <c r="B27" s="73" t="str">
+        <f>fuentes!B2</f>
+        <v>Año de protocolo</v>
+      </c>
+      <c r="C27" s="75" t="str">
+        <f>fuentes!C2</f>
+        <v>Año en que se realizó la evaluación.</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="72">
+        <v>26</v>
+      </c>
+      <c r="B28" s="73" t="str">
+        <f>fuentes!B3</f>
+        <v>Programa / Institución</v>
+      </c>
+      <c r="C28" s="75" t="str">
+        <f>fuentes!C3</f>
+        <v>Programa o Institución evaluado(a).</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="72">
+        <v>27</v>
+      </c>
+      <c r="B29" s="73" t="str">
+        <f>fuentes!B10</f>
+        <v>Ministerio</v>
+      </c>
+      <c r="C29" s="75" t="str">
+        <f>fuentes!C10</f>
+        <v>Ministerio responsable del programa evaluado.</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="72">
+        <v>28</v>
+      </c>
+      <c r="B30" s="73" t="str">
+        <f>fuentes!B11</f>
+        <v>Servicio público</v>
+      </c>
+      <c r="C30" s="75" t="str">
+        <f>fuentes!C11</f>
+        <v>Unidad administrativa responsable del programa evaluado.</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="72">
+        <v>29</v>
+      </c>
+      <c r="B31" s="73" t="str">
+        <f>fuentes!B13</f>
+        <v>Está Vigente</v>
+      </c>
+      <c r="C31" s="75" t="str">
+        <f>fuentes!C13</f>
+        <v>Indica si el programa está vigente al año 2020.</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="72">
+        <v>30</v>
+      </c>
+      <c r="B32" s="73" t="str">
+        <f>fuentes!B14</f>
+        <v>Fecha inicio</v>
+      </c>
+      <c r="C32" s="75" t="str">
+        <f>fuentes!C14</f>
+        <v>Fecha en que se inició el programa.</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="72">
+        <v>31</v>
+      </c>
+      <c r="B33" s="73" t="str">
+        <f>fuentes!B15</f>
+        <v>Fecha fin</v>
+      </c>
+      <c r="C33" s="75" t="str">
+        <f>fuentes!C15</f>
+        <v>Fecha en que se finalizó el programa.</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="26" x14ac:dyDescent="0.35">
+      <c r="A36" s="72" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B36" s="73" t="s">
+        <v>2483</v>
+      </c>
+      <c r="C36" s="76" t="s">
+        <v>2453</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="78" x14ac:dyDescent="0.35">
+      <c r="A37" s="72" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B37" s="73" t="s">
+        <v>2479</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>2480</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="26" x14ac:dyDescent="0.35">
+      <c r="A38" s="72" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B38" s="73" t="s">
+        <v>2481</v>
+      </c>
+      <c r="C38" s="81" t="s">
+        <v>2482</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E2:E631">
+    <sortCondition ref="E2:E631"/>
+  </sortState>
+  <hyperlinks>
+    <hyperlink ref="C36" r:id="rId1" xr:uid="{1E00F006-A446-40B1-B047-BB102E77F605}"/>
+    <hyperlink ref="C37" r:id="rId2" xr:uid="{E1C51796-3DE5-4850-88EB-CF90BAD0EBFF}"/>
+    <hyperlink ref="C38" r:id="rId3" xr:uid="{8D2DD88A-3E25-4D1B-9458-D910D66FE8EE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+</worksheet>
 </file>